--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="579">
   <si>
     <t>name</t>
   </si>
@@ -1739,6 +1739,24 @@
   </si>
   <si>
     <t>used in context menu or toolbar for Delete command, matching Add command.</t>
+  </si>
+  <si>
+    <t>row-child</t>
+  </si>
+  <si>
+    <t>row child sub indent tree</t>
+  </si>
+  <si>
+    <t>Used for creating a child node of the current node in a tree structure.</t>
+  </si>
+  <si>
+    <t>log-remove</t>
+  </si>
+  <si>
+    <t>log activity remove delete</t>
+  </si>
+  <si>
+    <t>Used for removing activity entry on Kanban board.</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1842,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1864,6 +1882,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14456,6 +14476,82 @@
         <a:xfrm>
           <a:off x="1171575" y="133378575"/>
           <a:ext cx="247685" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409610</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>342935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="333" name="Picture 332"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId332"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="133797675"/>
+          <a:ext cx="247685" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428658</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>323885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="334" name="Picture 333"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId333"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="134178675"/>
+          <a:ext cx="238158" cy="247685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14730,11 +14826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL333"/>
+  <dimension ref="A1:AL410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G334" sqref="G334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25699,7 +25795,7 @@
         <v>234</v>
       </c>
       <c r="L324" t="str">
-        <f t="shared" ref="L324:L333" si="11">CONCATENATE("u",C324,"-",E324,".svg")</f>
+        <f t="shared" ref="L324:L357" si="11">CONCATENATE("u",C324,"-",E324,".svg")</f>
         <v>uEA41-view-list-tree.svg</v>
       </c>
     </row>
@@ -25984,6 +26080,753 @@
       <c r="L333" t="str">
         <f t="shared" si="11"/>
         <v>uEA4A-square.svg</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>332</v>
+      </c>
+      <c r="C334" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA4B</v>
+      </c>
+      <c r="D334" s="13">
+        <v>59979</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F334" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G334" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="I334" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J334" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K334" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="L334" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA4B-row-child.svg</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>333</v>
+      </c>
+      <c r="C335" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA4C</v>
+      </c>
+      <c r="D335" s="13">
+        <v>59980</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F335" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G335" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J335" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K335" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="L335" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA4C-log-remove.svg</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C336" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA4D</v>
+      </c>
+      <c r="D336" s="13">
+        <v>59981</v>
+      </c>
+      <c r="L336" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA4D-.svg</v>
+      </c>
+    </row>
+    <row r="337" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C337" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA4E</v>
+      </c>
+      <c r="D337" s="13">
+        <v>59982</v>
+      </c>
+      <c r="L337" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA4E-.svg</v>
+      </c>
+    </row>
+    <row r="338" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C338" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA4F</v>
+      </c>
+      <c r="D338" s="13">
+        <v>59983</v>
+      </c>
+      <c r="L338" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA4F-.svg</v>
+      </c>
+    </row>
+    <row r="339" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C339" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA50</v>
+      </c>
+      <c r="D339" s="13">
+        <v>59984</v>
+      </c>
+      <c r="L339" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA50-.svg</v>
+      </c>
+    </row>
+    <row r="340" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C340" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA51</v>
+      </c>
+      <c r="D340" s="13">
+        <v>59985</v>
+      </c>
+      <c r="L340" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA51-.svg</v>
+      </c>
+    </row>
+    <row r="341" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C341" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA52</v>
+      </c>
+      <c r="D341" s="13">
+        <v>59986</v>
+      </c>
+      <c r="L341" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA52-.svg</v>
+      </c>
+    </row>
+    <row r="342" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C342" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA53</v>
+      </c>
+      <c r="D342" s="13">
+        <v>59987</v>
+      </c>
+      <c r="L342" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA53-.svg</v>
+      </c>
+    </row>
+    <row r="343" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C343" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA54</v>
+      </c>
+      <c r="D343" s="13">
+        <v>59988</v>
+      </c>
+      <c r="L343" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA54-.svg</v>
+      </c>
+    </row>
+    <row r="344" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C344" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA55</v>
+      </c>
+      <c r="D344" s="13">
+        <v>59989</v>
+      </c>
+      <c r="L344" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA55-.svg</v>
+      </c>
+    </row>
+    <row r="345" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C345" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA56</v>
+      </c>
+      <c r="D345" s="13">
+        <v>59990</v>
+      </c>
+      <c r="L345" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA56-.svg</v>
+      </c>
+    </row>
+    <row r="346" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C346" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA57</v>
+      </c>
+      <c r="D346" s="13">
+        <v>59991</v>
+      </c>
+      <c r="L346" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA57-.svg</v>
+      </c>
+    </row>
+    <row r="347" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C347" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA58</v>
+      </c>
+      <c r="D347" s="13">
+        <v>59992</v>
+      </c>
+      <c r="L347" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA58-.svg</v>
+      </c>
+    </row>
+    <row r="348" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C348" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA59</v>
+      </c>
+      <c r="D348" s="13">
+        <v>59993</v>
+      </c>
+      <c r="L348" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA59-.svg</v>
+      </c>
+    </row>
+    <row r="349" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C349" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA5A</v>
+      </c>
+      <c r="D349" s="13">
+        <v>59994</v>
+      </c>
+      <c r="L349" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA5A-.svg</v>
+      </c>
+    </row>
+    <row r="350" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C350" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA5B</v>
+      </c>
+      <c r="D350" s="13">
+        <v>59995</v>
+      </c>
+      <c r="L350" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA5B-.svg</v>
+      </c>
+    </row>
+    <row r="351" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C351" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA5C</v>
+      </c>
+      <c r="D351" s="13">
+        <v>59996</v>
+      </c>
+      <c r="L351" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA5C-.svg</v>
+      </c>
+    </row>
+    <row r="352" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C352" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA5D</v>
+      </c>
+      <c r="D352" s="13">
+        <v>59997</v>
+      </c>
+      <c r="L352" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA5D-.svg</v>
+      </c>
+    </row>
+    <row r="353" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C353" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA5E</v>
+      </c>
+      <c r="D353" s="13">
+        <v>59998</v>
+      </c>
+      <c r="L353" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA5E-.svg</v>
+      </c>
+    </row>
+    <row r="354" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C354" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA5F</v>
+      </c>
+      <c r="D354" s="13">
+        <v>59999</v>
+      </c>
+      <c r="L354" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA5F-.svg</v>
+      </c>
+    </row>
+    <row r="355" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C355" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA60</v>
+      </c>
+      <c r="D355" s="13">
+        <v>60000</v>
+      </c>
+      <c r="L355" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA60-.svg</v>
+      </c>
+    </row>
+    <row r="356" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C356" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA61</v>
+      </c>
+      <c r="D356" s="13">
+        <v>60001</v>
+      </c>
+      <c r="L356" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA61-.svg</v>
+      </c>
+    </row>
+    <row r="357" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C357" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA62</v>
+      </c>
+      <c r="D357" s="13">
+        <v>60002</v>
+      </c>
+      <c r="L357" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA62-.svg</v>
+      </c>
+    </row>
+    <row r="358" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C358" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA63</v>
+      </c>
+      <c r="D358" s="13">
+        <v>60003</v>
+      </c>
+    </row>
+    <row r="359" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C359" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA64</v>
+      </c>
+      <c r="D359" s="13">
+        <v>60004</v>
+      </c>
+    </row>
+    <row r="360" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C360" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA65</v>
+      </c>
+      <c r="D360" s="13">
+        <v>60005</v>
+      </c>
+    </row>
+    <row r="361" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C361" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA66</v>
+      </c>
+      <c r="D361" s="13">
+        <v>60006</v>
+      </c>
+    </row>
+    <row r="362" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C362" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA67</v>
+      </c>
+      <c r="D362" s="13">
+        <v>60007</v>
+      </c>
+    </row>
+    <row r="363" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C363" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA68</v>
+      </c>
+      <c r="D363" s="13">
+        <v>60008</v>
+      </c>
+    </row>
+    <row r="364" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C364" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA69</v>
+      </c>
+      <c r="D364" s="13">
+        <v>60009</v>
+      </c>
+    </row>
+    <row r="365" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C365" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA6A</v>
+      </c>
+      <c r="D365" s="13">
+        <v>60010</v>
+      </c>
+    </row>
+    <row r="366" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C366" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA6B</v>
+      </c>
+      <c r="D366" s="13">
+        <v>60011</v>
+      </c>
+    </row>
+    <row r="367" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C367" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA6C</v>
+      </c>
+      <c r="D367" s="13">
+        <v>60012</v>
+      </c>
+    </row>
+    <row r="368" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C368" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA6D</v>
+      </c>
+      <c r="D368" s="13">
+        <v>60013</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C369" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA6E</v>
+      </c>
+      <c r="D369" s="13">
+        <v>60014</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C370" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA6F</v>
+      </c>
+      <c r="D370" s="13">
+        <v>60015</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C371" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA70</v>
+      </c>
+      <c r="D371" s="13">
+        <v>60016</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C372" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA71</v>
+      </c>
+      <c r="D372" s="13">
+        <v>60017</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C373" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA72</v>
+      </c>
+      <c r="D373" s="13">
+        <v>60018</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C374" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA73</v>
+      </c>
+      <c r="D374" s="13">
+        <v>60019</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C375" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA74</v>
+      </c>
+      <c r="D375" s="13">
+        <v>60020</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C376" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA75</v>
+      </c>
+      <c r="D376" s="13">
+        <v>60021</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C377" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA76</v>
+      </c>
+      <c r="D377" s="13">
+        <v>60022</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C378" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA77</v>
+      </c>
+      <c r="D378" s="13">
+        <v>60023</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C379" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA78</v>
+      </c>
+      <c r="D379" s="13">
+        <v>60024</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C380" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>EA79</v>
+      </c>
+      <c r="D380" s="13">
+        <v>60025</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C381" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C382" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C383" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C384" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C385" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C386" s="13" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C387" s="13" t="str">
+        <f t="shared" ref="C387:C410" si="12">DEC2HEX(D387)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C388" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C389" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C390" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C391" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C392" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C393" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C394" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C395" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C396" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C397" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C398" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C399" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C400" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C401" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C402" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C403" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C404" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C405" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C406" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C407" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C408" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C409" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C410" s="13" t="str">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -25999,10 +26842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:L339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L332"/>
+    <sheetView topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42140,7 +42983,7 @@
         <v/>
       </c>
       <c r="K323" t="str">
-        <f t="shared" ref="K323:K334" si="10">IF(NOT(ISBLANK(A323)),CONCATENATE("{'",$A$1,"':",A323,",'",$B$1,"':'",B323,"',","'",$C$1,"':'",C323,"','",$D$1,"':",D323,",'",$E$1,"':'",FIXED(E323,1),"','",$F$1,"':'",F323,"','",$G$1,"':'",G323,"','",$H$1,"':'",H323,"','",$I$1,"':['",SUBSTITUTE(I323," ","','"),"'],'",$J$1,"':'",J323,"'}"))</f>
+        <f t="shared" ref="K323:K332" si="10">IF(NOT(ISBLANK(A323)),CONCATENATE("{'",$A$1,"':",A323,",'",$B$1,"':'",B323,"',","'",$C$1,"':'",C323,"','",$D$1,"':",D323,",'",$E$1,"':'",FIXED(E323,1),"','",$F$1,"':'",F323,"','",$G$1,"':'",G323,"','",$H$1,"':'",H323,"','",$I$1,"':['",SUBSTITUTE(I323," ","','"),"'],'",$J$1,"':'",J323,"'}"))</f>
         <v>{'id':322,'name':'view-list-tree','unicode':'EA41','decimal':59969,'version':'1.0','style':'','subset':'VSTS','group':'work','keywords':[''],'usage':''}</v>
       </c>
       <c r="L323" t="str">
@@ -42596,6 +43439,356 @@
       <c r="L332" t="str">
         <f t="shared" si="11"/>
         <v>{"id":331,"name":"square","unicode":"EA4A","decimal":59978,"version":"1.0","style":"bold","subset":"VSTS","group":"","keywords":["square"],"usage":"check if it is same as stop-fill"}</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="15">
+        <f>'Bowtie v1.0 reorg'!A334</f>
+        <v>332</v>
+      </c>
+      <c r="B333" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!E334</f>
+        <v>row-child</v>
+      </c>
+      <c r="C333" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C334</f>
+        <v>EA4B</v>
+      </c>
+      <c r="D333" s="15">
+        <f>'Bowtie v1.0 reorg'!D334</f>
+        <v>59979</v>
+      </c>
+      <c r="E333" s="16">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F334),"",'Bowtie v1.0 reorg'!F334)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F333" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G334),"",'Bowtie v1.0 reorg'!G334)</f>
+        <v>light</v>
+      </c>
+      <c r="G333" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I334),"",'Bowtie v1.0 reorg'!I334)</f>
+        <v>VSTS</v>
+      </c>
+      <c r="H333" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J334),"",'Bowtie v1.0 reorg'!J334)</f>
+        <v>common</v>
+      </c>
+      <c r="I333" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H334),"",'Bowtie v1.0 reorg'!H334)</f>
+        <v>row child sub indent tree</v>
+      </c>
+      <c r="J333" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K334),"",'Bowtie v1.0 reorg'!K334)</f>
+        <v>Used for creating a child node of the current node in a tree structure.</v>
+      </c>
+      <c r="K333" s="15" t="str">
+        <f t="shared" ref="K333:K339" si="12">IF(NOT(ISBLANK(A333)),CONCATENATE("{'",$A$1,"':",A333,",'",$B$1,"':'",B333,"',","'",$C$1,"':'",C333,"','",$D$1,"':",D333,",'",$E$1,"':'",FIXED(E333,1),"','",$F$1,"':'",F333,"','",$G$1,"':'",G333,"','",$H$1,"':'",H333,"','",$I$1,"':['",SUBSTITUTE(I333," ","','"),"'],'",$J$1,"':'",J333,"'}"))</f>
+        <v>{'id':332,'name':'row-child','unicode':'EA4B','decimal':59979,'version':'1.1','style':'light','subset':'VSTS','group':'common','keywords':['row','child','sub','indent','tree'],'usage':'Used for creating a child node of the current node in a tree structure.'}</v>
+      </c>
+      <c r="L333" s="15" t="str">
+        <f t="shared" ref="L333:L339" si="13">SUBSTITUTE(K333,"'","""")</f>
+        <v>{"id":332,"name":"row-child","unicode":"EA4B","decimal":59979,"version":"1.1","style":"light","subset":"VSTS","group":"common","keywords":["row","child","sub","indent","tree"],"usage":"Used for creating a child node of the current node in a tree structure."}</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="15">
+        <f>'Bowtie v1.0 reorg'!A335</f>
+        <v>333</v>
+      </c>
+      <c r="B334" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!E335</f>
+        <v>log-remove</v>
+      </c>
+      <c r="C334" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C335</f>
+        <v>EA4C</v>
+      </c>
+      <c r="D334" s="15">
+        <f>'Bowtie v1.0 reorg'!D335</f>
+        <v>59980</v>
+      </c>
+      <c r="E334" s="16">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F335),"",'Bowtie v1.0 reorg'!F335)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F334" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G335),"",'Bowtie v1.0 reorg'!G335)</f>
+        <v>light</v>
+      </c>
+      <c r="G334" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I335),"",'Bowtie v1.0 reorg'!I335)</f>
+        <v>VSTS</v>
+      </c>
+      <c r="H334" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J335),"",'Bowtie v1.0 reorg'!J335)</f>
+        <v>work</v>
+      </c>
+      <c r="I334" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H335),"",'Bowtie v1.0 reorg'!H335)</f>
+        <v>log activity remove delete</v>
+      </c>
+      <c r="J334" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K335),"",'Bowtie v1.0 reorg'!K335)</f>
+        <v>Used for removing activity entry on Kanban board.</v>
+      </c>
+      <c r="K334" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>{'id':333,'name':'log-remove','unicode':'EA4C','decimal':59980,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['log','activity','remove','delete'],'usage':'Used for removing activity entry on Kanban board.'}</v>
+      </c>
+      <c r="L334" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>{"id":333,"name":"log-remove","unicode":"EA4C","decimal":59980,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["log","activity","remove","delete"],"usage":"Used for removing activity entry on Kanban board."}</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f>'Bowtie v1.0 reorg'!A336</f>
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <f>'Bowtie v1.0 reorg'!E336</f>
+        <v>0</v>
+      </c>
+      <c r="C335" t="str">
+        <f>'Bowtie v1.0 reorg'!C336</f>
+        <v>EA4D</v>
+      </c>
+      <c r="D335">
+        <f>'Bowtie v1.0 reorg'!D336</f>
+        <v>59981</v>
+      </c>
+      <c r="E335" s="14" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F336),"",'Bowtie v1.0 reorg'!F336)</f>
+        <v/>
+      </c>
+      <c r="F335" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G336),"",'Bowtie v1.0 reorg'!G336)</f>
+        <v/>
+      </c>
+      <c r="G335" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I336),"",'Bowtie v1.0 reorg'!I336)</f>
+        <v/>
+      </c>
+      <c r="H335" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J336),"",'Bowtie v1.0 reorg'!J336)</f>
+        <v/>
+      </c>
+      <c r="I335" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H336),"",'Bowtie v1.0 reorg'!H336)</f>
+        <v/>
+      </c>
+      <c r="J335" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K336),"",'Bowtie v1.0 reorg'!K336)</f>
+        <v/>
+      </c>
+      <c r="K335" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L335" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f>'Bowtie v1.0 reorg'!A337</f>
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <f>'Bowtie v1.0 reorg'!E337</f>
+        <v>0</v>
+      </c>
+      <c r="C336" t="str">
+        <f>'Bowtie v1.0 reorg'!C337</f>
+        <v>EA4E</v>
+      </c>
+      <c r="D336">
+        <f>'Bowtie v1.0 reorg'!D337</f>
+        <v>59982</v>
+      </c>
+      <c r="E336" s="14" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F337),"",'Bowtie v1.0 reorg'!F337)</f>
+        <v/>
+      </c>
+      <c r="F336" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G337),"",'Bowtie v1.0 reorg'!G337)</f>
+        <v/>
+      </c>
+      <c r="G336" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I337),"",'Bowtie v1.0 reorg'!I337)</f>
+        <v/>
+      </c>
+      <c r="H336" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J337),"",'Bowtie v1.0 reorg'!J337)</f>
+        <v/>
+      </c>
+      <c r="I336" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H337),"",'Bowtie v1.0 reorg'!H337)</f>
+        <v/>
+      </c>
+      <c r="J336" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K337),"",'Bowtie v1.0 reorg'!K337)</f>
+        <v/>
+      </c>
+      <c r="K336" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L336" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f>'Bowtie v1.0 reorg'!A338</f>
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <f>'Bowtie v1.0 reorg'!E338</f>
+        <v>0</v>
+      </c>
+      <c r="C337" t="str">
+        <f>'Bowtie v1.0 reorg'!C338</f>
+        <v>EA4F</v>
+      </c>
+      <c r="D337">
+        <f>'Bowtie v1.0 reorg'!D338</f>
+        <v>59983</v>
+      </c>
+      <c r="E337" s="14" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F338),"",'Bowtie v1.0 reorg'!F338)</f>
+        <v/>
+      </c>
+      <c r="F337" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G338),"",'Bowtie v1.0 reorg'!G338)</f>
+        <v/>
+      </c>
+      <c r="G337" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I338),"",'Bowtie v1.0 reorg'!I338)</f>
+        <v/>
+      </c>
+      <c r="H337" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J338),"",'Bowtie v1.0 reorg'!J338)</f>
+        <v/>
+      </c>
+      <c r="I337" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H338),"",'Bowtie v1.0 reorg'!H338)</f>
+        <v/>
+      </c>
+      <c r="J337" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K338),"",'Bowtie v1.0 reorg'!K338)</f>
+        <v/>
+      </c>
+      <c r="K337" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L337" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f>'Bowtie v1.0 reorg'!A339</f>
+        <v>0</v>
+      </c>
+      <c r="B338">
+        <f>'Bowtie v1.0 reorg'!E339</f>
+        <v>0</v>
+      </c>
+      <c r="C338" t="str">
+        <f>'Bowtie v1.0 reorg'!C339</f>
+        <v>EA50</v>
+      </c>
+      <c r="D338">
+        <f>'Bowtie v1.0 reorg'!D339</f>
+        <v>59984</v>
+      </c>
+      <c r="E338" s="14" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F339),"",'Bowtie v1.0 reorg'!F339)</f>
+        <v/>
+      </c>
+      <c r="F338" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G339),"",'Bowtie v1.0 reorg'!G339)</f>
+        <v/>
+      </c>
+      <c r="G338" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I339),"",'Bowtie v1.0 reorg'!I339)</f>
+        <v/>
+      </c>
+      <c r="H338" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J339),"",'Bowtie v1.0 reorg'!J339)</f>
+        <v/>
+      </c>
+      <c r="I338" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H339),"",'Bowtie v1.0 reorg'!H339)</f>
+        <v/>
+      </c>
+      <c r="J338" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K339),"",'Bowtie v1.0 reorg'!K339)</f>
+        <v/>
+      </c>
+      <c r="K338" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L338" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f>'Bowtie v1.0 reorg'!A340</f>
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <f>'Bowtie v1.0 reorg'!E340</f>
+        <v>0</v>
+      </c>
+      <c r="C339" t="str">
+        <f>'Bowtie v1.0 reorg'!C340</f>
+        <v>EA51</v>
+      </c>
+      <c r="D339">
+        <f>'Bowtie v1.0 reorg'!D340</f>
+        <v>59985</v>
+      </c>
+      <c r="E339" s="14" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F340),"",'Bowtie v1.0 reorg'!F340)</f>
+        <v/>
+      </c>
+      <c r="F339" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G340),"",'Bowtie v1.0 reorg'!G340)</f>
+        <v/>
+      </c>
+      <c r="G339" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I340),"",'Bowtie v1.0 reorg'!I340)</f>
+        <v/>
+      </c>
+      <c r="H339" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J340),"",'Bowtie v1.0 reorg'!J340)</f>
+        <v/>
+      </c>
+      <c r="I339" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H340),"",'Bowtie v1.0 reorg'!H340)</f>
+        <v/>
+      </c>
+      <c r="J339" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K340),"",'Bowtie v1.0 reorg'!K340)</f>
+        <v/>
+      </c>
+      <c r="K339" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L339" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="582">
   <si>
     <t>name</t>
   </si>
@@ -1757,6 +1757,15 @@
   </si>
   <si>
     <t>Used for removing activity entry on Kanban board.</t>
+  </si>
+  <si>
+    <t>live-update-feed-off</t>
+  </si>
+  <si>
+    <t>live update feed signal broadcast radar off</t>
+  </si>
+  <si>
+    <t>Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.</t>
   </si>
 </sst>
 </file>
@@ -14552,6 +14561,44 @@
         <a:xfrm>
           <a:off x="1133475" y="134178675"/>
           <a:ext cx="238158" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428662</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>361985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="335" name="Picture 334"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId334"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="134616825"/>
+          <a:ext cx="266737" cy="247685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14828,9 +14875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G334" sqref="G334"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15309,6 +15356,9 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
@@ -15336,6 +15386,9 @@
       </c>
       <c r="F12" s="3">
         <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>15</v>
@@ -26157,6 +26210,9 @@
       </c>
     </row>
     <row r="336" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>334</v>
+      </c>
       <c r="C336" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA4D</v>
@@ -26164,9 +26220,30 @@
       <c r="D336" s="13">
         <v>59981</v>
       </c>
+      <c r="E336" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F336" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G336" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J336" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K336" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="L336" t="str">
         <f t="shared" si="11"/>
-        <v>uEA4D-.svg</v>
+        <v>uEA4D-live-update-feed-off.svg</v>
       </c>
     </row>
     <row r="337" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26844,8 +26921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L339"/>
   <sheetViews>
-    <sheetView topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333"/>
+    <sheetView tabSelected="1" topLeftCell="B312" workbookViewId="0">
+      <selection activeCell="L335" sqref="L335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27314,7 +27391,7 @@
       </c>
       <c r="F10" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G11),"",'Bowtie v1.0 reorg'!G11)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G10" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I11),"",'Bowtie v1.0 reorg'!I11)</f>
@@ -27334,11 +27411,11 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
-        <v>{'id':9,'name':'arrow-export','unicode':'E908','decimal':59656,'version':'1.0','style':'','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
+        <v>{'id':9,'name':'arrow-export','unicode':'E908','decimal':59656,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>{"id":9,"name":"arrow-export","unicode":"E908","decimal":59656,"version":"1.0","style":"","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
+        <v>{"id":9,"name":"arrow-export","unicode":"E908","decimal":59656,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -27364,7 +27441,7 @@
       </c>
       <c r="F11" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G12),"",'Bowtie v1.0 reorg'!G12)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G11" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I12),"",'Bowtie v1.0 reorg'!I12)</f>
@@ -27384,11 +27461,11 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
-        <v>{'id':10,'name':'arrow-open','unicode':'E909','decimal':59657,'version':'1.0','style':'','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
+        <v>{'id':10,'name':'arrow-open','unicode':'E909','decimal':59657,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>{"id":10,"name":"arrow-open","unicode":"E909","decimal":59657,"version":"1.0","style":"","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
+        <v>{"id":10,"name":"arrow-open","unicode":"E909","decimal":59657,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -42983,11 +43060,11 @@
         <v/>
       </c>
       <c r="K323" t="str">
-        <f t="shared" ref="K323:K332" si="10">IF(NOT(ISBLANK(A323)),CONCATENATE("{'",$A$1,"':",A323,",'",$B$1,"':'",B323,"',","'",$C$1,"':'",C323,"','",$D$1,"':",D323,",'",$E$1,"':'",FIXED(E323,1),"','",$F$1,"':'",F323,"','",$G$1,"':'",G323,"','",$H$1,"':'",H323,"','",$I$1,"':['",SUBSTITUTE(I323," ","','"),"'],'",$J$1,"':'",J323,"'}"))</f>
+        <f t="shared" ref="K323:K337" si="10">IF(NOT(ISBLANK(A323)),CONCATENATE("{'",$A$1,"':",A323,",'",$B$1,"':'",B323,"',","'",$C$1,"':'",C323,"','",$D$1,"':",D323,",'",$E$1,"':'",FIXED(E323,1),"','",$F$1,"':'",F323,"','",$G$1,"':'",G323,"','",$H$1,"':'",H323,"','",$I$1,"':['",SUBSTITUTE(I323," ","','"),"'],'",$J$1,"':'",J323,"'}"))</f>
         <v>{'id':322,'name':'view-list-tree','unicode':'EA41','decimal':59969,'version':'1.0','style':'','subset':'VSTS','group':'work','keywords':[''],'usage':''}</v>
       </c>
       <c r="L323" t="str">
-        <f t="shared" ref="L323:L332" si="11">SUBSTITUTE(K323,"'","""")</f>
+        <f t="shared" ref="L323:L329" si="11">SUBSTITUTE(K323,"'","""")</f>
         <v>{"id":322,"name":"view-list-tree","unicode":"EA41","decimal":59969,"version":"1.0","style":"","subset":"VSTS","group":"work","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43337,7 +43414,7 @@
         <v>{'id':329,'name':'recycle-bin','unicode':'EA48','decimal':59976,'version':'1.0','style':'light','subset':'VSTS','group':'work','keywords':['recycle','bin'],'usage':''}</v>
       </c>
       <c r="L330" t="str">
-        <f t="shared" si="11"/>
+        <f>SUBSTITUTE(K330,"'","""")</f>
         <v>{"id":329,"name":"recycle-bin","unicode":"EA48","decimal":59976,"version":"1.0","style":"light","subset":"VSTS","group":"work","keywords":["recycle","bin"],"usage":""}</v>
       </c>
     </row>
@@ -43387,7 +43464,7 @@
         <v>{'id':330,'name':'dot','unicode':'EA49','decimal':59977,'version':'1.0','style':'bold','subset':'VSTS','group':'','keywords':['dot','circle'],'usage':'check if it is same as record-fill'}</v>
       </c>
       <c r="L331" t="str">
-        <f t="shared" si="11"/>
+        <f>SUBSTITUTE(K331,"'","""")</f>
         <v>{"id":330,"name":"dot","unicode":"EA49","decimal":59977,"version":"1.0","style":"bold","subset":"VSTS","group":"","keywords":["dot","circle"],"usage":"check if it is same as record-fill"}</v>
       </c>
     </row>
@@ -43437,158 +43514,158 @@
         <v>{'id':331,'name':'square','unicode':'EA4A','decimal':59978,'version':'1.0','style':'bold','subset':'VSTS','group':'','keywords':['square'],'usage':'check if it is same as stop-fill'}</v>
       </c>
       <c r="L332" t="str">
-        <f t="shared" si="11"/>
+        <f>SUBSTITUTE(K332,"'","""")</f>
         <v>{"id":331,"name":"square","unicode":"EA4A","decimal":59978,"version":"1.0","style":"bold","subset":"VSTS","group":"","keywords":["square"],"usage":"check if it is same as stop-fill"}</v>
       </c>
     </row>
-    <row r="333" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="15">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333">
         <f>'Bowtie v1.0 reorg'!A334</f>
         <v>332</v>
       </c>
-      <c r="B333" s="15" t="str">
+      <c r="B333" t="str">
         <f>'Bowtie v1.0 reorg'!E334</f>
         <v>row-child</v>
       </c>
-      <c r="C333" s="15" t="str">
+      <c r="C333" t="str">
         <f>'Bowtie v1.0 reorg'!C334</f>
         <v>EA4B</v>
       </c>
-      <c r="D333" s="15">
+      <c r="D333">
         <f>'Bowtie v1.0 reorg'!D334</f>
         <v>59979</v>
       </c>
-      <c r="E333" s="16">
+      <c r="E333">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F334),"",'Bowtie v1.0 reorg'!F334)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F333" s="15" t="str">
+      <c r="F333" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G334),"",'Bowtie v1.0 reorg'!G334)</f>
         <v>light</v>
       </c>
-      <c r="G333" s="15" t="str">
+      <c r="G333" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I334),"",'Bowtie v1.0 reorg'!I334)</f>
         <v>VSTS</v>
       </c>
-      <c r="H333" s="15" t="str">
+      <c r="H333" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J334),"",'Bowtie v1.0 reorg'!J334)</f>
         <v>common</v>
       </c>
-      <c r="I333" s="15" t="str">
+      <c r="I333" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H334),"",'Bowtie v1.0 reorg'!H334)</f>
         <v>row child sub indent tree</v>
       </c>
-      <c r="J333" s="15" t="str">
+      <c r="J333" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K334),"",'Bowtie v1.0 reorg'!K334)</f>
         <v>Used for creating a child node of the current node in a tree structure.</v>
       </c>
-      <c r="K333" s="15" t="str">
+      <c r="K333" t="str">
         <f t="shared" ref="K333:K339" si="12">IF(NOT(ISBLANK(A333)),CONCATENATE("{'",$A$1,"':",A333,",'",$B$1,"':'",B333,"',","'",$C$1,"':'",C333,"','",$D$1,"':",D333,",'",$E$1,"':'",FIXED(E333,1),"','",$F$1,"':'",F333,"','",$G$1,"':'",G333,"','",$H$1,"':'",H333,"','",$I$1,"':['",SUBSTITUTE(I333," ","','"),"'],'",$J$1,"':'",J333,"'}"))</f>
         <v>{'id':332,'name':'row-child','unicode':'EA4B','decimal':59979,'version':'1.1','style':'light','subset':'VSTS','group':'common','keywords':['row','child','sub','indent','tree'],'usage':'Used for creating a child node of the current node in a tree structure.'}</v>
       </c>
-      <c r="L333" s="15" t="str">
-        <f t="shared" ref="L333:L339" si="13">SUBSTITUTE(K333,"'","""")</f>
+      <c r="L333" t="str">
+        <f t="shared" ref="L333:L337" si="13">SUBSTITUTE(K333,"'","""")</f>
         <v>{"id":332,"name":"row-child","unicode":"EA4B","decimal":59979,"version":"1.1","style":"light","subset":"VSTS","group":"common","keywords":["row","child","sub","indent","tree"],"usage":"Used for creating a child node of the current node in a tree structure."}</v>
       </c>
     </row>
-    <row r="334" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="15">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334">
         <f>'Bowtie v1.0 reorg'!A335</f>
         <v>333</v>
       </c>
-      <c r="B334" s="15" t="str">
+      <c r="B334" t="str">
         <f>'Bowtie v1.0 reorg'!E335</f>
         <v>log-remove</v>
       </c>
-      <c r="C334" s="15" t="str">
+      <c r="C334" t="str">
         <f>'Bowtie v1.0 reorg'!C335</f>
         <v>EA4C</v>
       </c>
-      <c r="D334" s="15">
+      <c r="D334">
         <f>'Bowtie v1.0 reorg'!D335</f>
         <v>59980</v>
       </c>
-      <c r="E334" s="16">
+      <c r="E334">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F335),"",'Bowtie v1.0 reorg'!F335)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F334" s="15" t="str">
+      <c r="F334" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G335),"",'Bowtie v1.0 reorg'!G335)</f>
         <v>light</v>
       </c>
-      <c r="G334" s="15" t="str">
+      <c r="G334" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I335),"",'Bowtie v1.0 reorg'!I335)</f>
         <v>VSTS</v>
       </c>
-      <c r="H334" s="15" t="str">
+      <c r="H334" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J335),"",'Bowtie v1.0 reorg'!J335)</f>
         <v>work</v>
       </c>
-      <c r="I334" s="15" t="str">
+      <c r="I334" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H335),"",'Bowtie v1.0 reorg'!H335)</f>
         <v>log activity remove delete</v>
       </c>
-      <c r="J334" s="15" t="str">
+      <c r="J334" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K335),"",'Bowtie v1.0 reorg'!K335)</f>
         <v>Used for removing activity entry on Kanban board.</v>
       </c>
-      <c r="K334" s="15" t="str">
-        <f t="shared" si="12"/>
+      <c r="K334" t="str">
+        <f t="shared" si="10"/>
         <v>{'id':333,'name':'log-remove','unicode':'EA4C','decimal':59980,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['log','activity','remove','delete'],'usage':'Used for removing activity entry on Kanban board.'}</v>
       </c>
-      <c r="L334" s="15" t="str">
+      <c r="L334" t="str">
         <f t="shared" si="13"/>
         <v>{"id":333,"name":"log-remove","unicode":"EA4C","decimal":59980,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["log","activity","remove","delete"],"usage":"Used for removing activity entry on Kanban board."}</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="15">
         <f>'Bowtie v1.0 reorg'!A336</f>
-        <v>0</v>
-      </c>
-      <c r="B335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E336</f>
-        <v>0</v>
-      </c>
-      <c r="C335" t="str">
+        <v>live-update-feed-off</v>
+      </c>
+      <c r="C335" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C336</f>
         <v>EA4D</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="15">
         <f>'Bowtie v1.0 reorg'!D336</f>
         <v>59981</v>
       </c>
-      <c r="E335" s="14" t="str">
+      <c r="E335" s="16">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F336),"",'Bowtie v1.0 reorg'!F336)</f>
-        <v/>
-      </c>
-      <c r="F335" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F335" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G336),"",'Bowtie v1.0 reorg'!G336)</f>
-        <v/>
-      </c>
-      <c r="G335" t="str">
+        <v>light</v>
+      </c>
+      <c r="G335" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I336),"",'Bowtie v1.0 reorg'!I336)</f>
-        <v/>
-      </c>
-      <c r="H335" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H335" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J336),"",'Bowtie v1.0 reorg'!J336)</f>
-        <v/>
-      </c>
-      <c r="I335" t="str">
+        <v>work</v>
+      </c>
+      <c r="I335" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H336),"",'Bowtie v1.0 reorg'!H336)</f>
-        <v/>
-      </c>
-      <c r="J335" t="str">
+        <v>live update feed signal broadcast radar off</v>
+      </c>
+      <c r="J335" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K336),"",'Bowtie v1.0 reorg'!K336)</f>
-        <v/>
-      </c>
-      <c r="K335" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L335" t="e">
+        <v>Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.</v>
+      </c>
+      <c r="K335" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>{'id':334,'name':'live-update-feed-off','unicode':'EA4D','decimal':59981,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['live','update','feed','signal','broadcast','radar','off'],'usage':'Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.'}</v>
+      </c>
+      <c r="L335" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>{"id":334,"name":"live-update-feed-off","unicode":"EA4D","decimal":59981,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["live","update","feed","signal","broadcast","radar","off"],"usage":"Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case."}</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
@@ -43633,7 +43710,7 @@
         <v/>
       </c>
       <c r="K336" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="L336" t="e">
@@ -43683,7 +43760,7 @@
         <v/>
       </c>
       <c r="K337" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="L337" t="e">
@@ -43737,7 +43814,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="L338" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L333:L339" si="14">SUBSTITUTE(K338,"'","""")</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -43787,7 +43864,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="L339" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="588">
   <si>
     <t>name</t>
   </si>
@@ -1766,6 +1766,24 @@
   </si>
   <si>
     <t>Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.</t>
+  </si>
+  <si>
+    <t>corner-resize</t>
+  </si>
+  <si>
+    <t>resize grip handle</t>
+  </si>
+  <si>
+    <t>Used for dialog, modal, or textarea resize handle.</t>
+  </si>
+  <si>
+    <t>link-remove</t>
+  </si>
+  <si>
+    <t>link hyperlink url remove</t>
+  </si>
+  <si>
+    <t>Used for removing hyperlink.</t>
   </si>
 </sst>
 </file>
@@ -14599,6 +14617,82 @@
         <a:xfrm>
           <a:off x="1104900" y="134616825"/>
           <a:ext cx="266737" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361977</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>342928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="336" name="Picture 335"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId335"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="135045450"/>
+          <a:ext cx="190527" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390564</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>361986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="337" name="Picture 336"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId336"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="135407400"/>
+          <a:ext cx="276264" cy="257211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14875,9 +14969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL410"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
+      <selection pane="bottomLeft" activeCell="F339" sqref="F339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26254,9 +26348,30 @@
       <c r="D337" s="13">
         <v>59982</v>
       </c>
+      <c r="E337" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F337" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I337" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J337" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K337" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="L337" t="str">
         <f t="shared" si="11"/>
-        <v>uEA4E-.svg</v>
+        <v>uEA4E-corner-resize.svg</v>
       </c>
     </row>
     <row r="338" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26267,9 +26382,30 @@
       <c r="D338" s="13">
         <v>59983</v>
       </c>
+      <c r="E338" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F338" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K338" s="2" t="s">
+        <v>587</v>
+      </c>
       <c r="L338" t="str">
         <f t="shared" si="11"/>
-        <v>uEA4F-.svg</v>
+        <v>uEA4F-link-remove.svg</v>
       </c>
     </row>
     <row r="339" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26922,7 +27058,7 @@
   <dimension ref="A1:L339"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B312" workbookViewId="0">
-      <selection activeCell="L335" sqref="L335"/>
+      <selection activeCell="M332" sqref="M332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43618,154 +43754,154 @@
         <v>{"id":333,"name":"log-remove","unicode":"EA4C","decimal":59980,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["log","activity","remove","delete"],"usage":"Used for removing activity entry on Kanban board."}</v>
       </c>
     </row>
-    <row r="335" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="15">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335">
         <f>'Bowtie v1.0 reorg'!A336</f>
         <v>334</v>
       </c>
-      <c r="B335" s="15" t="str">
+      <c r="B335" t="str">
         <f>'Bowtie v1.0 reorg'!E336</f>
         <v>live-update-feed-off</v>
       </c>
-      <c r="C335" s="15" t="str">
+      <c r="C335" t="str">
         <f>'Bowtie v1.0 reorg'!C336</f>
         <v>EA4D</v>
       </c>
-      <c r="D335" s="15">
+      <c r="D335">
         <f>'Bowtie v1.0 reorg'!D336</f>
         <v>59981</v>
       </c>
-      <c r="E335" s="16">
+      <c r="E335">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F336),"",'Bowtie v1.0 reorg'!F336)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F335" s="15" t="str">
+      <c r="F335" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G336),"",'Bowtie v1.0 reorg'!G336)</f>
         <v>light</v>
       </c>
-      <c r="G335" s="15" t="str">
+      <c r="G335" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I336),"",'Bowtie v1.0 reorg'!I336)</f>
         <v>VSTS</v>
       </c>
-      <c r="H335" s="15" t="str">
+      <c r="H335" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J336),"",'Bowtie v1.0 reorg'!J336)</f>
         <v>work</v>
       </c>
-      <c r="I335" s="15" t="str">
+      <c r="I335" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H336),"",'Bowtie v1.0 reorg'!H336)</f>
         <v>live update feed signal broadcast radar off</v>
       </c>
-      <c r="J335" s="15" t="str">
+      <c r="J335" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K336),"",'Bowtie v1.0 reorg'!K336)</f>
         <v>Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.</v>
       </c>
-      <c r="K335" s="15" t="str">
+      <c r="K335" t="str">
         <f t="shared" si="10"/>
         <v>{'id':334,'name':'live-update-feed-off','unicode':'EA4D','decimal':59981,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['live','update','feed','signal','broadcast','radar','off'],'usage':'Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.'}</v>
       </c>
-      <c r="L335" s="15" t="str">
+      <c r="L335" t="str">
         <f t="shared" si="13"/>
         <v>{"id":334,"name":"live-update-feed-off","unicode":"EA4D","decimal":59981,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["live","update","feed","signal","broadcast","radar","off"],"usage":"Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case."}</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="15">
         <f>'Bowtie v1.0 reorg'!A337</f>
         <v>0</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E337</f>
-        <v>0</v>
-      </c>
-      <c r="C336" t="str">
+        <v>corner-resize</v>
+      </c>
+      <c r="C336" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C337</f>
         <v>EA4E</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="15">
         <f>'Bowtie v1.0 reorg'!D337</f>
         <v>59982</v>
       </c>
-      <c r="E336" s="14" t="str">
+      <c r="E336" s="16">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F337),"",'Bowtie v1.0 reorg'!F337)</f>
-        <v/>
-      </c>
-      <c r="F336" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F336" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G337),"",'Bowtie v1.0 reorg'!G337)</f>
-        <v/>
-      </c>
-      <c r="G336" t="str">
+        <v>light</v>
+      </c>
+      <c r="G336" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I337),"",'Bowtie v1.0 reorg'!I337)</f>
-        <v/>
-      </c>
-      <c r="H336" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H336" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J337),"",'Bowtie v1.0 reorg'!J337)</f>
-        <v/>
-      </c>
-      <c r="I336" t="str">
+        <v>control</v>
+      </c>
+      <c r="I336" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H337),"",'Bowtie v1.0 reorg'!H337)</f>
-        <v/>
-      </c>
-      <c r="J336" t="str">
+        <v>resize grip handle</v>
+      </c>
+      <c r="J336" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K337),"",'Bowtie v1.0 reorg'!K337)</f>
-        <v/>
-      </c>
-      <c r="K336" t="e">
+        <v>Used for dialog, modal, or textarea resize handle.</v>
+      </c>
+      <c r="K336" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L336" t="e">
+        <v>{'id':0,'name':'corner-resize','unicode':'EA4E','decimal':59982,'version':'1.1','style':'light','subset':'VSTS','group':'control','keywords':['resize','grip','handle'],'usage':'Used for dialog, modal, or textarea resize handle.'}</v>
+      </c>
+      <c r="L336" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A337">
+        <v>{"id":0,"name":"corner-resize","unicode":"EA4E","decimal":59982,"version":"1.1","style":"light","subset":"VSTS","group":"control","keywords":["resize","grip","handle"],"usage":"Used for dialog, modal, or textarea resize handle."}</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="15">
         <f>'Bowtie v1.0 reorg'!A338</f>
         <v>0</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E338</f>
-        <v>0</v>
-      </c>
-      <c r="C337" t="str">
+        <v>link-remove</v>
+      </c>
+      <c r="C337" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C338</f>
         <v>EA4F</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="15">
         <f>'Bowtie v1.0 reorg'!D338</f>
         <v>59983</v>
       </c>
-      <c r="E337" s="14" t="str">
+      <c r="E337" s="16">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F338),"",'Bowtie v1.0 reorg'!F338)</f>
-        <v/>
-      </c>
-      <c r="F337" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F337" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G338),"",'Bowtie v1.0 reorg'!G338)</f>
-        <v/>
-      </c>
-      <c r="G337" t="str">
+        <v>light</v>
+      </c>
+      <c r="G337" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I338),"",'Bowtie v1.0 reorg'!I338)</f>
-        <v/>
-      </c>
-      <c r="H337" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H337" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J338),"",'Bowtie v1.0 reorg'!J338)</f>
-        <v/>
-      </c>
-      <c r="I337" t="str">
+        <v>editor</v>
+      </c>
+      <c r="I337" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H338),"",'Bowtie v1.0 reorg'!H338)</f>
-        <v/>
-      </c>
-      <c r="J337" t="str">
+        <v>link hyperlink url remove</v>
+      </c>
+      <c r="J337" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K338),"",'Bowtie v1.0 reorg'!K338)</f>
-        <v/>
-      </c>
-      <c r="K337" t="e">
+        <v>Used for removing hyperlink.</v>
+      </c>
+      <c r="K337" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L337" t="e">
+        <v>{'id':0,'name':'link-remove','unicode':'EA4F','decimal':59983,'version':'1.1','style':'light','subset':'VSTS','group':'editor','keywords':['link','hyperlink','url','remove'],'usage':'Used for removing hyperlink.'}</v>
+      </c>
+      <c r="L337" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>{"id":0,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
@@ -43814,7 +43950,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="L338" t="e">
-        <f t="shared" ref="L333:L339" si="14">SUBSTITUTE(K338,"'","""")</f>
+        <f t="shared" ref="L338:L339" si="14">SUBSTITUTE(K338,"'","""")</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -14969,9 +14969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL410"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F339" sqref="F339"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26340,7 +26340,10 @@
         <v>uEA4D-live-update-feed-off.svg</v>
       </c>
     </row>
-    <row r="337" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>335</v>
+      </c>
       <c r="C337" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA4E</v>
@@ -26374,7 +26377,10 @@
         <v>uEA4E-corner-resize.svg</v>
       </c>
     </row>
-    <row r="338" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>336</v>
+      </c>
       <c r="C338" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA4F</v>
@@ -26408,7 +26414,10 @@
         <v>uEA4F-link-remove.svg</v>
       </c>
     </row>
-    <row r="339" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>337</v>
+      </c>
       <c r="C339" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA50</v>
@@ -26421,7 +26430,10 @@
         <v>uEA50-.svg</v>
       </c>
     </row>
-    <row r="340" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>338</v>
+      </c>
       <c r="C340" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA51</v>
@@ -26434,7 +26446,10 @@
         <v>uEA51-.svg</v>
       </c>
     </row>
-    <row r="341" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>339</v>
+      </c>
       <c r="C341" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA52</v>
@@ -26447,7 +26462,10 @@
         <v>uEA52-.svg</v>
       </c>
     </row>
-    <row r="342" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>340</v>
+      </c>
       <c r="C342" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA53</v>
@@ -26460,7 +26478,10 @@
         <v>uEA53-.svg</v>
       </c>
     </row>
-    <row r="343" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>341</v>
+      </c>
       <c r="C343" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA54</v>
@@ -26473,7 +26494,10 @@
         <v>uEA54-.svg</v>
       </c>
     </row>
-    <row r="344" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>342</v>
+      </c>
       <c r="C344" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA55</v>
@@ -26486,7 +26510,10 @@
         <v>uEA55-.svg</v>
       </c>
     </row>
-    <row r="345" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>343</v>
+      </c>
       <c r="C345" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA56</v>
@@ -26499,7 +26526,10 @@
         <v>uEA56-.svg</v>
       </c>
     </row>
-    <row r="346" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>344</v>
+      </c>
       <c r="C346" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA57</v>
@@ -26512,7 +26542,10 @@
         <v>uEA57-.svg</v>
       </c>
     </row>
-    <row r="347" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>345</v>
+      </c>
       <c r="C347" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA58</v>
@@ -26525,7 +26558,10 @@
         <v>uEA58-.svg</v>
       </c>
     </row>
-    <row r="348" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>346</v>
+      </c>
       <c r="C348" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA59</v>
@@ -26538,7 +26574,10 @@
         <v>uEA59-.svg</v>
       </c>
     </row>
-    <row r="349" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>347</v>
+      </c>
       <c r="C349" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA5A</v>
@@ -26551,7 +26590,10 @@
         <v>uEA5A-.svg</v>
       </c>
     </row>
-    <row r="350" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>348</v>
+      </c>
       <c r="C350" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA5B</v>
@@ -26564,7 +26606,10 @@
         <v>uEA5B-.svg</v>
       </c>
     </row>
-    <row r="351" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>349</v>
+      </c>
       <c r="C351" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA5C</v>
@@ -26577,7 +26622,10 @@
         <v>uEA5C-.svg</v>
       </c>
     </row>
-    <row r="352" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>350</v>
+      </c>
       <c r="C352" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA5D</v>
@@ -26590,7 +26638,10 @@
         <v>uEA5D-.svg</v>
       </c>
     </row>
-    <row r="353" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>351</v>
+      </c>
       <c r="C353" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA5E</v>
@@ -26603,7 +26654,10 @@
         <v>uEA5E-.svg</v>
       </c>
     </row>
-    <row r="354" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>352</v>
+      </c>
       <c r="C354" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA5F</v>
@@ -26616,7 +26670,10 @@
         <v>uEA5F-.svg</v>
       </c>
     </row>
-    <row r="355" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>353</v>
+      </c>
       <c r="C355" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA60</v>
@@ -26629,7 +26686,10 @@
         <v>uEA60-.svg</v>
       </c>
     </row>
-    <row r="356" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>354</v>
+      </c>
       <c r="C356" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA61</v>
@@ -26642,7 +26702,10 @@
         <v>uEA61-.svg</v>
       </c>
     </row>
-    <row r="357" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>355</v>
+      </c>
       <c r="C357" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA62</v>
@@ -26655,7 +26718,10 @@
         <v>uEA62-.svg</v>
       </c>
     </row>
-    <row r="358" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>356</v>
+      </c>
       <c r="C358" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA63</v>
@@ -26664,7 +26730,10 @@
         <v>60003</v>
       </c>
     </row>
-    <row r="359" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>357</v>
+      </c>
       <c r="C359" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA64</v>
@@ -26673,7 +26742,10 @@
         <v>60004</v>
       </c>
     </row>
-    <row r="360" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>358</v>
+      </c>
       <c r="C360" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA65</v>
@@ -26682,7 +26754,10 @@
         <v>60005</v>
       </c>
     </row>
-    <row r="361" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>359</v>
+      </c>
       <c r="C361" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA66</v>
@@ -26691,7 +26766,10 @@
         <v>60006</v>
       </c>
     </row>
-    <row r="362" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>360</v>
+      </c>
       <c r="C362" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA67</v>
@@ -26700,7 +26778,10 @@
         <v>60007</v>
       </c>
     </row>
-    <row r="363" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>361</v>
+      </c>
       <c r="C363" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA68</v>
@@ -26709,7 +26790,10 @@
         <v>60008</v>
       </c>
     </row>
-    <row r="364" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>362</v>
+      </c>
       <c r="C364" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA69</v>
@@ -26718,7 +26802,10 @@
         <v>60009</v>
       </c>
     </row>
-    <row r="365" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>363</v>
+      </c>
       <c r="C365" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA6A</v>
@@ -26727,7 +26814,10 @@
         <v>60010</v>
       </c>
     </row>
-    <row r="366" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>364</v>
+      </c>
       <c r="C366" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA6B</v>
@@ -26736,7 +26826,10 @@
         <v>60011</v>
       </c>
     </row>
-    <row r="367" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>365</v>
+      </c>
       <c r="C367" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA6C</v>
@@ -26745,7 +26838,10 @@
         <v>60012</v>
       </c>
     </row>
-    <row r="368" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>366</v>
+      </c>
       <c r="C368" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA6D</v>
@@ -26754,7 +26850,10 @@
         <v>60013</v>
       </c>
     </row>
-    <row r="369" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>367</v>
+      </c>
       <c r="C369" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA6E</v>
@@ -26763,7 +26862,10 @@
         <v>60014</v>
       </c>
     </row>
-    <row r="370" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>368</v>
+      </c>
       <c r="C370" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA6F</v>
@@ -26772,7 +26874,10 @@
         <v>60015</v>
       </c>
     </row>
-    <row r="371" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>369</v>
+      </c>
       <c r="C371" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA70</v>
@@ -26781,7 +26886,10 @@
         <v>60016</v>
       </c>
     </row>
-    <row r="372" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>370</v>
+      </c>
       <c r="C372" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA71</v>
@@ -26790,7 +26898,10 @@
         <v>60017</v>
       </c>
     </row>
-    <row r="373" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>371</v>
+      </c>
       <c r="C373" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA72</v>
@@ -26799,7 +26910,10 @@
         <v>60018</v>
       </c>
     </row>
-    <row r="374" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>372</v>
+      </c>
       <c r="C374" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA73</v>
@@ -26808,7 +26922,10 @@
         <v>60019</v>
       </c>
     </row>
-    <row r="375" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>373</v>
+      </c>
       <c r="C375" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA74</v>
@@ -26817,7 +26934,10 @@
         <v>60020</v>
       </c>
     </row>
-    <row r="376" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>374</v>
+      </c>
       <c r="C376" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA75</v>
@@ -26826,7 +26946,10 @@
         <v>60021</v>
       </c>
     </row>
-    <row r="377" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>375</v>
+      </c>
       <c r="C377" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA76</v>
@@ -26835,7 +26958,10 @@
         <v>60022</v>
       </c>
     </row>
-    <row r="378" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>376</v>
+      </c>
       <c r="C378" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA77</v>
@@ -26844,7 +26970,7 @@
         <v>60023</v>
       </c>
     </row>
-    <row r="379" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA78</v>
@@ -26853,7 +26979,7 @@
         <v>60024</v>
       </c>
     </row>
-    <row r="380" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA79</v>
@@ -26862,25 +26988,25 @@
         <v>60025</v>
       </c>
     </row>
-    <row r="381" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C381" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C384" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -27057,8 +27183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B312" workbookViewId="0">
-      <selection activeCell="M332" sqref="M332"/>
+    <sheetView tabSelected="1" topLeftCell="B321" workbookViewId="0">
+      <selection activeCell="L336" sqref="L336:L337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43807,7 +43933,7 @@
     <row r="336" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="15">
         <f>'Bowtie v1.0 reorg'!A337</f>
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="B336" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E337</f>
@@ -43847,17 +43973,17 @@
       </c>
       <c r="K336" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>{'id':0,'name':'corner-resize','unicode':'EA4E','decimal':59982,'version':'1.1','style':'light','subset':'VSTS','group':'control','keywords':['resize','grip','handle'],'usage':'Used for dialog, modal, or textarea resize handle.'}</v>
+        <v>{'id':335,'name':'corner-resize','unicode':'EA4E','decimal':59982,'version':'1.1','style':'light','subset':'VSTS','group':'control','keywords':['resize','grip','handle'],'usage':'Used for dialog, modal, or textarea resize handle.'}</v>
       </c>
       <c r="L336" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>{"id":0,"name":"corner-resize","unicode":"EA4E","decimal":59982,"version":"1.1","style":"light","subset":"VSTS","group":"control","keywords":["resize","grip","handle"],"usage":"Used for dialog, modal, or textarea resize handle."}</v>
+        <v>{"id":335,"name":"corner-resize","unicode":"EA4E","decimal":59982,"version":"1.1","style":"light","subset":"VSTS","group":"control","keywords":["resize","grip","handle"],"usage":"Used for dialog, modal, or textarea resize handle."}</v>
       </c>
     </row>
     <row r="337" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="15">
         <f>'Bowtie v1.0 reorg'!A338</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="B337" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E338</f>
@@ -43897,17 +44023,17 @@
       </c>
       <c r="K337" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>{'id':0,'name':'link-remove','unicode':'EA4F','decimal':59983,'version':'1.1','style':'light','subset':'VSTS','group':'editor','keywords':['link','hyperlink','url','remove'],'usage':'Used for removing hyperlink.'}</v>
+        <v>{'id':336,'name':'link-remove','unicode':'EA4F','decimal':59983,'version':'1.1','style':'light','subset':'VSTS','group':'editor','keywords':['link','hyperlink','url','remove'],'usage':'Used for removing hyperlink.'}</v>
       </c>
       <c r="L337" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>{"id":0,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
+        <v>{"id":336,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <f>'Bowtie v1.0 reorg'!A339</f>
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="B338">
         <f>'Bowtie v1.0 reorg'!E339</f>
@@ -43957,7 +44083,7 @@
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <f>'Bowtie v1.0 reorg'!A340</f>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B339">
         <f>'Bowtie v1.0 reorg'!E340</f>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="591">
   <si>
     <t>name</t>
   </si>
@@ -1784,6 +1784,15 @@
   </si>
   <si>
     <t>Used for removing hyperlink.</t>
+  </si>
+  <si>
+    <t>personalize</t>
+  </si>
+  <si>
+    <t>personalize customize design edit draw pen brush</t>
+  </si>
+  <si>
+    <t>Used for customizing work item form.</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1878,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1911,6 +1920,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14693,6 +14708,44 @@
         <a:xfrm>
           <a:off x="1057275" y="135407400"/>
           <a:ext cx="276264" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419137</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>342933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="338" name="Picture 337"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId337"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="135807450"/>
+          <a:ext cx="266737" cy="238158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14969,12 +15022,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
+      <selection pane="bottomLeft" activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -14986,6 +15039,7 @@
     <col min="8" max="8" width="29.85546875" style="2" customWidth="1"/>
     <col min="9" max="10" width="14.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" customWidth="1"/>
+    <col min="12" max="38" width="9" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -26340,7 +26394,7 @@
         <v>uEA4D-live-update-feed-off.svg</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>335</v>
       </c>
@@ -26377,7 +26431,7 @@
         <v>uEA4E-corner-resize.svg</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>336</v>
       </c>
@@ -26414,23 +26468,70 @@
         <v>uEA4F-link-remove.svg</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+    <row r="339" spans="1:38" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="C339" s="13" t="str">
+      <c r="C339" s="17" t="str">
         <f t="shared" si="10"/>
         <v>EA50</v>
       </c>
-      <c r="D339" s="13">
+      <c r="D339" s="17">
         <v>59984</v>
       </c>
-      <c r="L339" t="str">
+      <c r="E339" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F339" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="L339" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>uEA50-.svg</v>
-      </c>
-    </row>
-    <row r="340" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>uEA50-personalize.svg</v>
+      </c>
+      <c r="M339" s="15"/>
+      <c r="N339" s="15"/>
+      <c r="O339" s="15"/>
+      <c r="P339" s="15"/>
+      <c r="Q339" s="15"/>
+      <c r="R339" s="15"/>
+      <c r="S339" s="15"/>
+      <c r="T339" s="15"/>
+      <c r="U339" s="15"/>
+      <c r="V339" s="15"/>
+      <c r="W339" s="15"/>
+      <c r="X339" s="15"/>
+      <c r="Y339" s="15"/>
+      <c r="Z339" s="15"/>
+      <c r="AA339" s="15"/>
+      <c r="AB339" s="15"/>
+      <c r="AC339" s="15"/>
+      <c r="AD339" s="15"/>
+      <c r="AE339" s="15"/>
+      <c r="AF339" s="15"/>
+      <c r="AG339" s="15"/>
+      <c r="AH339" s="15"/>
+      <c r="AI339" s="15"/>
+      <c r="AJ339" s="15"/>
+      <c r="AK339" s="15"/>
+      <c r="AL339" s="15"/>
+    </row>
+    <row r="340" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>338</v>
       </c>
@@ -26446,7 +26547,7 @@
         <v>uEA51-.svg</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>339</v>
       </c>
@@ -26462,7 +26563,7 @@
         <v>uEA52-.svg</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>340</v>
       </c>
@@ -26478,7 +26579,7 @@
         <v>uEA53-.svg</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>341</v>
       </c>
@@ -26494,7 +26595,7 @@
         <v>uEA54-.svg</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>342</v>
       </c>
@@ -26510,7 +26611,7 @@
         <v>uEA55-.svg</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>343</v>
       </c>
@@ -26526,7 +26627,7 @@
         <v>uEA56-.svg</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>344</v>
       </c>
@@ -26542,7 +26643,7 @@
         <v>uEA57-.svg</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>345</v>
       </c>
@@ -26558,7 +26659,7 @@
         <v>uEA58-.svg</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>346</v>
       </c>
@@ -26574,7 +26675,7 @@
         <v>uEA59-.svg</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>347</v>
       </c>
@@ -26590,7 +26691,7 @@
         <v>uEA5A-.svg</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>348</v>
       </c>
@@ -26606,7 +26707,7 @@
         <v>uEA5B-.svg</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>349</v>
       </c>
@@ -26622,7 +26723,7 @@
         <v>uEA5C-.svg</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>350</v>
       </c>
@@ -27181,10 +27282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L339"/>
+  <dimension ref="A1:M362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B321" workbookViewId="0">
-      <selection activeCell="L336" sqref="L336:L337"/>
+    <sheetView topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="L338" sqref="L338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43822,7 +43923,7 @@
         <v>Used for creating a child node of the current node in a tree structure.</v>
       </c>
       <c r="K333" t="str">
-        <f t="shared" ref="K333:K339" si="12">IF(NOT(ISBLANK(A333)),CONCATENATE("{'",$A$1,"':",A333,",'",$B$1,"':'",B333,"',","'",$C$1,"':'",C333,"','",$D$1,"':",D333,",'",$E$1,"':'",FIXED(E333,1),"','",$F$1,"':'",F333,"','",$G$1,"':'",G333,"','",$H$1,"':'",H333,"','",$I$1,"':['",SUBSTITUTE(I333," ","','"),"'],'",$J$1,"':'",J333,"'}"))</f>
+        <f t="shared" ref="K333:K340" si="12">IF(NOT(ISBLANK(A333)),CONCATENATE("{'",$A$1,"':",A333,",'",$B$1,"':'",B333,"',","'",$C$1,"':'",C333,"','",$D$1,"':",D333,",'",$E$1,"':'",FIXED(E333,1),"','",$F$1,"':'",F333,"','",$G$1,"':'",G333,"','",$H$1,"':'",H333,"','",$I$1,"':['",SUBSTITUTE(I333," ","','"),"'],'",$J$1,"':'",J333,"'}"))</f>
         <v>{'id':332,'name':'row-child','unicode':'EA4B','decimal':59979,'version':'1.1','style':'light','subset':'VSTS','group':'common','keywords':['row','child','sub','indent','tree'],'usage':'Used for creating a child node of the current node in a tree structure.'}</v>
       </c>
       <c r="L333" t="str">
@@ -43930,157 +44031,157 @@
         <v>{"id":334,"name":"live-update-feed-off","unicode":"EA4D","decimal":59981,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["live","update","feed","signal","broadcast","radar","off"],"usage":"Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case."}</v>
       </c>
     </row>
-    <row r="336" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="15">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336">
         <f>'Bowtie v1.0 reorg'!A337</f>
         <v>335</v>
       </c>
-      <c r="B336" s="15" t="str">
+      <c r="B336" t="str">
         <f>'Bowtie v1.0 reorg'!E337</f>
         <v>corner-resize</v>
       </c>
-      <c r="C336" s="15" t="str">
+      <c r="C336" t="str">
         <f>'Bowtie v1.0 reorg'!C337</f>
         <v>EA4E</v>
       </c>
-      <c r="D336" s="15">
+      <c r="D336">
         <f>'Bowtie v1.0 reorg'!D337</f>
         <v>59982</v>
       </c>
-      <c r="E336" s="16">
+      <c r="E336">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F337),"",'Bowtie v1.0 reorg'!F337)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F336" s="15" t="str">
+      <c r="F336" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G337),"",'Bowtie v1.0 reorg'!G337)</f>
         <v>light</v>
       </c>
-      <c r="G336" s="15" t="str">
+      <c r="G336" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I337),"",'Bowtie v1.0 reorg'!I337)</f>
         <v>VSTS</v>
       </c>
-      <c r="H336" s="15" t="str">
+      <c r="H336" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J337),"",'Bowtie v1.0 reorg'!J337)</f>
         <v>control</v>
       </c>
-      <c r="I336" s="15" t="str">
+      <c r="I336" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H337),"",'Bowtie v1.0 reorg'!H337)</f>
         <v>resize grip handle</v>
       </c>
-      <c r="J336" s="15" t="str">
+      <c r="J336" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K337),"",'Bowtie v1.0 reorg'!K337)</f>
         <v>Used for dialog, modal, or textarea resize handle.</v>
       </c>
-      <c r="K336" s="15" t="str">
+      <c r="K336" t="str">
         <f t="shared" si="10"/>
         <v>{'id':335,'name':'corner-resize','unicode':'EA4E','decimal':59982,'version':'1.1','style':'light','subset':'VSTS','group':'control','keywords':['resize','grip','handle'],'usage':'Used for dialog, modal, or textarea resize handle.'}</v>
       </c>
-      <c r="L336" s="15" t="str">
+      <c r="L336" t="str">
         <f t="shared" si="13"/>
         <v>{"id":335,"name":"corner-resize","unicode":"EA4E","decimal":59982,"version":"1.1","style":"light","subset":"VSTS","group":"control","keywords":["resize","grip","handle"],"usage":"Used for dialog, modal, or textarea resize handle."}</v>
       </c>
     </row>
-    <row r="337" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="15">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
         <f>'Bowtie v1.0 reorg'!A338</f>
         <v>336</v>
       </c>
-      <c r="B337" s="15" t="str">
+      <c r="B337" t="str">
         <f>'Bowtie v1.0 reorg'!E338</f>
         <v>link-remove</v>
       </c>
-      <c r="C337" s="15" t="str">
+      <c r="C337" t="str">
         <f>'Bowtie v1.0 reorg'!C338</f>
         <v>EA4F</v>
       </c>
-      <c r="D337" s="15">
+      <c r="D337">
         <f>'Bowtie v1.0 reorg'!D338</f>
         <v>59983</v>
       </c>
-      <c r="E337" s="16">
+      <c r="E337">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F338),"",'Bowtie v1.0 reorg'!F338)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F337" s="15" t="str">
+      <c r="F337" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G338),"",'Bowtie v1.0 reorg'!G338)</f>
         <v>light</v>
       </c>
-      <c r="G337" s="15" t="str">
+      <c r="G337" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I338),"",'Bowtie v1.0 reorg'!I338)</f>
         <v>VSTS</v>
       </c>
-      <c r="H337" s="15" t="str">
+      <c r="H337" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J338),"",'Bowtie v1.0 reorg'!J338)</f>
         <v>editor</v>
       </c>
-      <c r="I337" s="15" t="str">
+      <c r="I337" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H338),"",'Bowtie v1.0 reorg'!H338)</f>
         <v>link hyperlink url remove</v>
       </c>
-      <c r="J337" s="15" t="str">
+      <c r="J337" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K338),"",'Bowtie v1.0 reorg'!K338)</f>
         <v>Used for removing hyperlink.</v>
       </c>
-      <c r="K337" s="15" t="str">
+      <c r="K337" t="str">
         <f t="shared" si="10"/>
         <v>{'id':336,'name':'link-remove','unicode':'EA4F','decimal':59983,'version':'1.1','style':'light','subset':'VSTS','group':'editor','keywords':['link','hyperlink','url','remove'],'usage':'Used for removing hyperlink.'}</v>
       </c>
-      <c r="L337" s="15" t="str">
+      <c r="L337" t="str">
         <f t="shared" si="13"/>
         <v>{"id":336,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="15">
         <f>'Bowtie v1.0 reorg'!A339</f>
         <v>337</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E339</f>
-        <v>0</v>
-      </c>
-      <c r="C338" t="str">
+        <v>personalize</v>
+      </c>
+      <c r="C338" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C339</f>
         <v>EA50</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="15">
         <f>'Bowtie v1.0 reorg'!D339</f>
         <v>59984</v>
       </c>
-      <c r="E338" s="14" t="str">
+      <c r="E338" s="16">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F339),"",'Bowtie v1.0 reorg'!F339)</f>
-        <v/>
-      </c>
-      <c r="F338" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F338" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G339),"",'Bowtie v1.0 reorg'!G339)</f>
-        <v/>
-      </c>
-      <c r="G338" t="str">
+        <v>light</v>
+      </c>
+      <c r="G338" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I339),"",'Bowtie v1.0 reorg'!I339)</f>
-        <v/>
-      </c>
-      <c r="H338" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H338" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J339),"",'Bowtie v1.0 reorg'!J339)</f>
-        <v/>
-      </c>
-      <c r="I338" t="str">
+        <v>work</v>
+      </c>
+      <c r="I338" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H339),"",'Bowtie v1.0 reorg'!H339)</f>
-        <v/>
-      </c>
-      <c r="J338" t="str">
+        <v>personalize customize design edit draw pen brush</v>
+      </c>
+      <c r="J338" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K339),"",'Bowtie v1.0 reorg'!K339)</f>
-        <v/>
-      </c>
-      <c r="K338" t="e">
+        <v>Used for customizing work item form.</v>
+      </c>
+      <c r="K338" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L338" t="e">
-        <f t="shared" ref="L338:L339" si="14">SUBSTITUTE(K338,"'","""")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+        <v>{'id':337,'name':'personalize','unicode':'EA50','decimal':59984,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['personalize','customize','design','edit','draw','pen','brush'],'usage':'Used for customizing work item form.'}</v>
+      </c>
+      <c r="L338" s="15" t="str">
+        <f t="shared" ref="L338:L340" si="14">SUBSTITUTE(K338,"'","""")</f>
+        <v>{"id":337,"name":"personalize","unicode":"EA50","decimal":59984,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <f>'Bowtie v1.0 reorg'!A340</f>
         <v>338</v>
@@ -44097,7 +44198,7 @@
         <f>'Bowtie v1.0 reorg'!D340</f>
         <v>59985</v>
       </c>
-      <c r="E339" s="14" t="str">
+      <c r="E339" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F340),"",'Bowtie v1.0 reorg'!F340)</f>
         <v/>
       </c>
@@ -44129,6 +44230,1164 @@
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f>'Bowtie v1.0 reorg'!A341</f>
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <f>'Bowtie v1.0 reorg'!E341</f>
+        <v>0</v>
+      </c>
+      <c r="C340" t="str">
+        <f>'Bowtie v1.0 reorg'!C341</f>
+        <v>EA52</v>
+      </c>
+      <c r="D340">
+        <f>'Bowtie v1.0 reorg'!D341</f>
+        <v>59986</v>
+      </c>
+      <c r="E340" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F341),"",'Bowtie v1.0 reorg'!F341)</f>
+        <v/>
+      </c>
+      <c r="F340" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G341),"",'Bowtie v1.0 reorg'!G341)</f>
+        <v/>
+      </c>
+      <c r="G340" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I341),"",'Bowtie v1.0 reorg'!I341)</f>
+        <v/>
+      </c>
+      <c r="H340" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J341),"",'Bowtie v1.0 reorg'!J341)</f>
+        <v/>
+      </c>
+      <c r="I340" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H341),"",'Bowtie v1.0 reorg'!H341)</f>
+        <v/>
+      </c>
+      <c r="J340" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K341),"",'Bowtie v1.0 reorg'!K341)</f>
+        <v/>
+      </c>
+      <c r="K340" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L340" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" s="15">
+        <f>'Bowtie v1.0 reorg'!A342</f>
+        <v>340</v>
+      </c>
+      <c r="B341" s="15">
+        <f>'Bowtie v1.0 reorg'!E342</f>
+        <v>0</v>
+      </c>
+      <c r="C341" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C342</f>
+        <v>EA53</v>
+      </c>
+      <c r="D341" s="15">
+        <f>'Bowtie v1.0 reorg'!D342</f>
+        <v>59987</v>
+      </c>
+      <c r="E341" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F342),"",'Bowtie v1.0 reorg'!F342)</f>
+        <v/>
+      </c>
+      <c r="F341" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G342),"",'Bowtie v1.0 reorg'!G342)</f>
+        <v/>
+      </c>
+      <c r="G341" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I342),"",'Bowtie v1.0 reorg'!I342)</f>
+        <v/>
+      </c>
+      <c r="H341" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J342),"",'Bowtie v1.0 reorg'!J342)</f>
+        <v/>
+      </c>
+      <c r="I341" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H342),"",'Bowtie v1.0 reorg'!H342)</f>
+        <v/>
+      </c>
+      <c r="J341" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K342),"",'Bowtie v1.0 reorg'!K342)</f>
+        <v/>
+      </c>
+      <c r="K341" s="15" t="e">
+        <f t="shared" ref="K341:K362" si="15">IF(NOT(ISBLANK(A341)),CONCATENATE("{'",$A$1,"':",A341,",'",$B$1,"':'",B341,"',","'",$C$1,"':'",C341,"','",$D$1,"':",D341,",'",$E$1,"':'",FIXED(E341,1),"','",$F$1,"':'",F341,"','",$G$1,"':'",G341,"','",$H$1,"':'",H341,"','",$I$1,"':['",SUBSTITUTE(I341," ","','"),"'],'",$J$1,"':'",J341,"'}"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L341" s="15" t="e">
+        <f t="shared" ref="L341:L362" si="16">SUBSTITUTE(K341,"'","""")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M341" s="15"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f>'Bowtie v1.0 reorg'!A343</f>
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <f>'Bowtie v1.0 reorg'!E343</f>
+        <v>0</v>
+      </c>
+      <c r="C342" t="str">
+        <f>'Bowtie v1.0 reorg'!C343</f>
+        <v>EA54</v>
+      </c>
+      <c r="D342">
+        <f>'Bowtie v1.0 reorg'!D343</f>
+        <v>59988</v>
+      </c>
+      <c r="E342" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F343),"",'Bowtie v1.0 reorg'!F343)</f>
+        <v/>
+      </c>
+      <c r="F342" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G343),"",'Bowtie v1.0 reorg'!G343)</f>
+        <v/>
+      </c>
+      <c r="G342" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I343),"",'Bowtie v1.0 reorg'!I343)</f>
+        <v/>
+      </c>
+      <c r="H342" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J343),"",'Bowtie v1.0 reorg'!J343)</f>
+        <v/>
+      </c>
+      <c r="I342" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H343),"",'Bowtie v1.0 reorg'!H343)</f>
+        <v/>
+      </c>
+      <c r="J342" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K343),"",'Bowtie v1.0 reorg'!K343)</f>
+        <v/>
+      </c>
+      <c r="K342" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L342" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f>'Bowtie v1.0 reorg'!A344</f>
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <f>'Bowtie v1.0 reorg'!E344</f>
+        <v>0</v>
+      </c>
+      <c r="C343" t="str">
+        <f>'Bowtie v1.0 reorg'!C344</f>
+        <v>EA55</v>
+      </c>
+      <c r="D343">
+        <f>'Bowtie v1.0 reorg'!D344</f>
+        <v>59989</v>
+      </c>
+      <c r="E343" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F344),"",'Bowtie v1.0 reorg'!F344)</f>
+        <v/>
+      </c>
+      <c r="F343" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G344),"",'Bowtie v1.0 reorg'!G344)</f>
+        <v/>
+      </c>
+      <c r="G343" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I344),"",'Bowtie v1.0 reorg'!I344)</f>
+        <v/>
+      </c>
+      <c r="H343" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J344),"",'Bowtie v1.0 reorg'!J344)</f>
+        <v/>
+      </c>
+      <c r="I343" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H344),"",'Bowtie v1.0 reorg'!H344)</f>
+        <v/>
+      </c>
+      <c r="J343" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K344),"",'Bowtie v1.0 reorg'!K344)</f>
+        <v/>
+      </c>
+      <c r="K343" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L343" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A344" s="15">
+        <f>'Bowtie v1.0 reorg'!A345</f>
+        <v>343</v>
+      </c>
+      <c r="B344" s="15">
+        <f>'Bowtie v1.0 reorg'!E345</f>
+        <v>0</v>
+      </c>
+      <c r="C344" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C345</f>
+        <v>EA56</v>
+      </c>
+      <c r="D344" s="15">
+        <f>'Bowtie v1.0 reorg'!D345</f>
+        <v>59990</v>
+      </c>
+      <c r="E344" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F345),"",'Bowtie v1.0 reorg'!F345)</f>
+        <v/>
+      </c>
+      <c r="F344" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G345),"",'Bowtie v1.0 reorg'!G345)</f>
+        <v/>
+      </c>
+      <c r="G344" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I345),"",'Bowtie v1.0 reorg'!I345)</f>
+        <v/>
+      </c>
+      <c r="H344" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J345),"",'Bowtie v1.0 reorg'!J345)</f>
+        <v/>
+      </c>
+      <c r="I344" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H345),"",'Bowtie v1.0 reorg'!H345)</f>
+        <v/>
+      </c>
+      <c r="J344" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K345),"",'Bowtie v1.0 reorg'!K345)</f>
+        <v/>
+      </c>
+      <c r="K344" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L344" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M344" s="15"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <f>'Bowtie v1.0 reorg'!A346</f>
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <f>'Bowtie v1.0 reorg'!E346</f>
+        <v>0</v>
+      </c>
+      <c r="C345" t="str">
+        <f>'Bowtie v1.0 reorg'!C346</f>
+        <v>EA57</v>
+      </c>
+      <c r="D345">
+        <f>'Bowtie v1.0 reorg'!D346</f>
+        <v>59991</v>
+      </c>
+      <c r="E345" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F346),"",'Bowtie v1.0 reorg'!F346)</f>
+        <v/>
+      </c>
+      <c r="F345" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G346),"",'Bowtie v1.0 reorg'!G346)</f>
+        <v/>
+      </c>
+      <c r="G345" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I346),"",'Bowtie v1.0 reorg'!I346)</f>
+        <v/>
+      </c>
+      <c r="H345" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J346),"",'Bowtie v1.0 reorg'!J346)</f>
+        <v/>
+      </c>
+      <c r="I345" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H346),"",'Bowtie v1.0 reorg'!H346)</f>
+        <v/>
+      </c>
+      <c r="J345" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K346),"",'Bowtie v1.0 reorg'!K346)</f>
+        <v/>
+      </c>
+      <c r="K345" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L345" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <f>'Bowtie v1.0 reorg'!A347</f>
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <f>'Bowtie v1.0 reorg'!E347</f>
+        <v>0</v>
+      </c>
+      <c r="C346" t="str">
+        <f>'Bowtie v1.0 reorg'!C347</f>
+        <v>EA58</v>
+      </c>
+      <c r="D346">
+        <f>'Bowtie v1.0 reorg'!D347</f>
+        <v>59992</v>
+      </c>
+      <c r="E346" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F347),"",'Bowtie v1.0 reorg'!F347)</f>
+        <v/>
+      </c>
+      <c r="F346" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G347),"",'Bowtie v1.0 reorg'!G347)</f>
+        <v/>
+      </c>
+      <c r="G346" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I347),"",'Bowtie v1.0 reorg'!I347)</f>
+        <v/>
+      </c>
+      <c r="H346" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J347),"",'Bowtie v1.0 reorg'!J347)</f>
+        <v/>
+      </c>
+      <c r="I346" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H347),"",'Bowtie v1.0 reorg'!H347)</f>
+        <v/>
+      </c>
+      <c r="J346" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K347),"",'Bowtie v1.0 reorg'!K347)</f>
+        <v/>
+      </c>
+      <c r="K346" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L346" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347" s="15">
+        <f>'Bowtie v1.0 reorg'!A348</f>
+        <v>346</v>
+      </c>
+      <c r="B347" s="15">
+        <f>'Bowtie v1.0 reorg'!E348</f>
+        <v>0</v>
+      </c>
+      <c r="C347" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C348</f>
+        <v>EA59</v>
+      </c>
+      <c r="D347" s="15">
+        <f>'Bowtie v1.0 reorg'!D348</f>
+        <v>59993</v>
+      </c>
+      <c r="E347" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F348),"",'Bowtie v1.0 reorg'!F348)</f>
+        <v/>
+      </c>
+      <c r="F347" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G348),"",'Bowtie v1.0 reorg'!G348)</f>
+        <v/>
+      </c>
+      <c r="G347" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I348),"",'Bowtie v1.0 reorg'!I348)</f>
+        <v/>
+      </c>
+      <c r="H347" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J348),"",'Bowtie v1.0 reorg'!J348)</f>
+        <v/>
+      </c>
+      <c r="I347" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H348),"",'Bowtie v1.0 reorg'!H348)</f>
+        <v/>
+      </c>
+      <c r="J347" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K348),"",'Bowtie v1.0 reorg'!K348)</f>
+        <v/>
+      </c>
+      <c r="K347" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L347" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M347" s="15"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <f>'Bowtie v1.0 reorg'!A349</f>
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <f>'Bowtie v1.0 reorg'!E349</f>
+        <v>0</v>
+      </c>
+      <c r="C348" t="str">
+        <f>'Bowtie v1.0 reorg'!C349</f>
+        <v>EA5A</v>
+      </c>
+      <c r="D348">
+        <f>'Bowtie v1.0 reorg'!D349</f>
+        <v>59994</v>
+      </c>
+      <c r="E348" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F349),"",'Bowtie v1.0 reorg'!F349)</f>
+        <v/>
+      </c>
+      <c r="F348" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G349),"",'Bowtie v1.0 reorg'!G349)</f>
+        <v/>
+      </c>
+      <c r="G348" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I349),"",'Bowtie v1.0 reorg'!I349)</f>
+        <v/>
+      </c>
+      <c r="H348" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J349),"",'Bowtie v1.0 reorg'!J349)</f>
+        <v/>
+      </c>
+      <c r="I348" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H349),"",'Bowtie v1.0 reorg'!H349)</f>
+        <v/>
+      </c>
+      <c r="J348" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K349),"",'Bowtie v1.0 reorg'!K349)</f>
+        <v/>
+      </c>
+      <c r="K348" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L348" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <f>'Bowtie v1.0 reorg'!A350</f>
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <f>'Bowtie v1.0 reorg'!E350</f>
+        <v>0</v>
+      </c>
+      <c r="C349" t="str">
+        <f>'Bowtie v1.0 reorg'!C350</f>
+        <v>EA5B</v>
+      </c>
+      <c r="D349">
+        <f>'Bowtie v1.0 reorg'!D350</f>
+        <v>59995</v>
+      </c>
+      <c r="E349" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F350),"",'Bowtie v1.0 reorg'!F350)</f>
+        <v/>
+      </c>
+      <c r="F349" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G350),"",'Bowtie v1.0 reorg'!G350)</f>
+        <v/>
+      </c>
+      <c r="G349" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I350),"",'Bowtie v1.0 reorg'!I350)</f>
+        <v/>
+      </c>
+      <c r="H349" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J350),"",'Bowtie v1.0 reorg'!J350)</f>
+        <v/>
+      </c>
+      <c r="I349" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H350),"",'Bowtie v1.0 reorg'!H350)</f>
+        <v/>
+      </c>
+      <c r="J349" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K350),"",'Bowtie v1.0 reorg'!K350)</f>
+        <v/>
+      </c>
+      <c r="K349" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L349" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A350" s="15">
+        <f>'Bowtie v1.0 reorg'!A351</f>
+        <v>349</v>
+      </c>
+      <c r="B350" s="15">
+        <f>'Bowtie v1.0 reorg'!E351</f>
+        <v>0</v>
+      </c>
+      <c r="C350" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C351</f>
+        <v>EA5C</v>
+      </c>
+      <c r="D350" s="15">
+        <f>'Bowtie v1.0 reorg'!D351</f>
+        <v>59996</v>
+      </c>
+      <c r="E350" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F351),"",'Bowtie v1.0 reorg'!F351)</f>
+        <v/>
+      </c>
+      <c r="F350" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G351),"",'Bowtie v1.0 reorg'!G351)</f>
+        <v/>
+      </c>
+      <c r="G350" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I351),"",'Bowtie v1.0 reorg'!I351)</f>
+        <v/>
+      </c>
+      <c r="H350" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J351),"",'Bowtie v1.0 reorg'!J351)</f>
+        <v/>
+      </c>
+      <c r="I350" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H351),"",'Bowtie v1.0 reorg'!H351)</f>
+        <v/>
+      </c>
+      <c r="J350" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K351),"",'Bowtie v1.0 reorg'!K351)</f>
+        <v/>
+      </c>
+      <c r="K350" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L350" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M350" s="15"/>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <f>'Bowtie v1.0 reorg'!A352</f>
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <f>'Bowtie v1.0 reorg'!E352</f>
+        <v>0</v>
+      </c>
+      <c r="C351" t="str">
+        <f>'Bowtie v1.0 reorg'!C352</f>
+        <v>EA5D</v>
+      </c>
+      <c r="D351">
+        <f>'Bowtie v1.0 reorg'!D352</f>
+        <v>59997</v>
+      </c>
+      <c r="E351" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F352),"",'Bowtie v1.0 reorg'!F352)</f>
+        <v/>
+      </c>
+      <c r="F351" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G352),"",'Bowtie v1.0 reorg'!G352)</f>
+        <v/>
+      </c>
+      <c r="G351" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I352),"",'Bowtie v1.0 reorg'!I352)</f>
+        <v/>
+      </c>
+      <c r="H351" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J352),"",'Bowtie v1.0 reorg'!J352)</f>
+        <v/>
+      </c>
+      <c r="I351" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H352),"",'Bowtie v1.0 reorg'!H352)</f>
+        <v/>
+      </c>
+      <c r="J351" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K352),"",'Bowtie v1.0 reorg'!K352)</f>
+        <v/>
+      </c>
+      <c r="K351" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L351" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <f>'Bowtie v1.0 reorg'!A353</f>
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <f>'Bowtie v1.0 reorg'!E353</f>
+        <v>0</v>
+      </c>
+      <c r="C352" t="str">
+        <f>'Bowtie v1.0 reorg'!C353</f>
+        <v>EA5E</v>
+      </c>
+      <c r="D352">
+        <f>'Bowtie v1.0 reorg'!D353</f>
+        <v>59998</v>
+      </c>
+      <c r="E352" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F353),"",'Bowtie v1.0 reorg'!F353)</f>
+        <v/>
+      </c>
+      <c r="F352" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G353),"",'Bowtie v1.0 reorg'!G353)</f>
+        <v/>
+      </c>
+      <c r="G352" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I353),"",'Bowtie v1.0 reorg'!I353)</f>
+        <v/>
+      </c>
+      <c r="H352" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J353),"",'Bowtie v1.0 reorg'!J353)</f>
+        <v/>
+      </c>
+      <c r="I352" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H353),"",'Bowtie v1.0 reorg'!H353)</f>
+        <v/>
+      </c>
+      <c r="J352" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K353),"",'Bowtie v1.0 reorg'!K353)</f>
+        <v/>
+      </c>
+      <c r="K352" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L352" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A353" s="15">
+        <f>'Bowtie v1.0 reorg'!A354</f>
+        <v>352</v>
+      </c>
+      <c r="B353" s="15">
+        <f>'Bowtie v1.0 reorg'!E354</f>
+        <v>0</v>
+      </c>
+      <c r="C353" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C354</f>
+        <v>EA5F</v>
+      </c>
+      <c r="D353" s="15">
+        <f>'Bowtie v1.0 reorg'!D354</f>
+        <v>59999</v>
+      </c>
+      <c r="E353" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F354),"",'Bowtie v1.0 reorg'!F354)</f>
+        <v/>
+      </c>
+      <c r="F353" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G354),"",'Bowtie v1.0 reorg'!G354)</f>
+        <v/>
+      </c>
+      <c r="G353" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I354),"",'Bowtie v1.0 reorg'!I354)</f>
+        <v/>
+      </c>
+      <c r="H353" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J354),"",'Bowtie v1.0 reorg'!J354)</f>
+        <v/>
+      </c>
+      <c r="I353" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H354),"",'Bowtie v1.0 reorg'!H354)</f>
+        <v/>
+      </c>
+      <c r="J353" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K354),"",'Bowtie v1.0 reorg'!K354)</f>
+        <v/>
+      </c>
+      <c r="K353" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L353" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M353" s="15"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <f>'Bowtie v1.0 reorg'!A355</f>
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <f>'Bowtie v1.0 reorg'!E355</f>
+        <v>0</v>
+      </c>
+      <c r="C354" t="str">
+        <f>'Bowtie v1.0 reorg'!C355</f>
+        <v>EA60</v>
+      </c>
+      <c r="D354">
+        <f>'Bowtie v1.0 reorg'!D355</f>
+        <v>60000</v>
+      </c>
+      <c r="E354" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F355),"",'Bowtie v1.0 reorg'!F355)</f>
+        <v/>
+      </c>
+      <c r="F354" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G355),"",'Bowtie v1.0 reorg'!G355)</f>
+        <v/>
+      </c>
+      <c r="G354" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I355),"",'Bowtie v1.0 reorg'!I355)</f>
+        <v/>
+      </c>
+      <c r="H354" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J355),"",'Bowtie v1.0 reorg'!J355)</f>
+        <v/>
+      </c>
+      <c r="I354" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H355),"",'Bowtie v1.0 reorg'!H355)</f>
+        <v/>
+      </c>
+      <c r="J354" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K355),"",'Bowtie v1.0 reorg'!K355)</f>
+        <v/>
+      </c>
+      <c r="K354" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L354" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <f>'Bowtie v1.0 reorg'!A356</f>
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <f>'Bowtie v1.0 reorg'!E356</f>
+        <v>0</v>
+      </c>
+      <c r="C355" t="str">
+        <f>'Bowtie v1.0 reorg'!C356</f>
+        <v>EA61</v>
+      </c>
+      <c r="D355">
+        <f>'Bowtie v1.0 reorg'!D356</f>
+        <v>60001</v>
+      </c>
+      <c r="E355" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F356),"",'Bowtie v1.0 reorg'!F356)</f>
+        <v/>
+      </c>
+      <c r="F355" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G356),"",'Bowtie v1.0 reorg'!G356)</f>
+        <v/>
+      </c>
+      <c r="G355" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I356),"",'Bowtie v1.0 reorg'!I356)</f>
+        <v/>
+      </c>
+      <c r="H355" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J356),"",'Bowtie v1.0 reorg'!J356)</f>
+        <v/>
+      </c>
+      <c r="I355" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H356),"",'Bowtie v1.0 reorg'!H356)</f>
+        <v/>
+      </c>
+      <c r="J355" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K356),"",'Bowtie v1.0 reorg'!K356)</f>
+        <v/>
+      </c>
+      <c r="K355" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L355" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A356" s="15">
+        <f>'Bowtie v1.0 reorg'!A357</f>
+        <v>355</v>
+      </c>
+      <c r="B356" s="15">
+        <f>'Bowtie v1.0 reorg'!E357</f>
+        <v>0</v>
+      </c>
+      <c r="C356" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C357</f>
+        <v>EA62</v>
+      </c>
+      <c r="D356" s="15">
+        <f>'Bowtie v1.0 reorg'!D357</f>
+        <v>60002</v>
+      </c>
+      <c r="E356" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F357),"",'Bowtie v1.0 reorg'!F357)</f>
+        <v/>
+      </c>
+      <c r="F356" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G357),"",'Bowtie v1.0 reorg'!G357)</f>
+        <v/>
+      </c>
+      <c r="G356" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I357),"",'Bowtie v1.0 reorg'!I357)</f>
+        <v/>
+      </c>
+      <c r="H356" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J357),"",'Bowtie v1.0 reorg'!J357)</f>
+        <v/>
+      </c>
+      <c r="I356" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H357),"",'Bowtie v1.0 reorg'!H357)</f>
+        <v/>
+      </c>
+      <c r="J356" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K357),"",'Bowtie v1.0 reorg'!K357)</f>
+        <v/>
+      </c>
+      <c r="K356" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L356" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M356" s="15"/>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <f>'Bowtie v1.0 reorg'!A358</f>
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <f>'Bowtie v1.0 reorg'!E358</f>
+        <v>0</v>
+      </c>
+      <c r="C357" t="str">
+        <f>'Bowtie v1.0 reorg'!C358</f>
+        <v>EA63</v>
+      </c>
+      <c r="D357">
+        <f>'Bowtie v1.0 reorg'!D358</f>
+        <v>60003</v>
+      </c>
+      <c r="E357" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F358),"",'Bowtie v1.0 reorg'!F358)</f>
+        <v/>
+      </c>
+      <c r="F357" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G358),"",'Bowtie v1.0 reorg'!G358)</f>
+        <v/>
+      </c>
+      <c r="G357" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I358),"",'Bowtie v1.0 reorg'!I358)</f>
+        <v/>
+      </c>
+      <c r="H357" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J358),"",'Bowtie v1.0 reorg'!J358)</f>
+        <v/>
+      </c>
+      <c r="I357" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H358),"",'Bowtie v1.0 reorg'!H358)</f>
+        <v/>
+      </c>
+      <c r="J357" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K358),"",'Bowtie v1.0 reorg'!K358)</f>
+        <v/>
+      </c>
+      <c r="K357" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L357" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <f>'Bowtie v1.0 reorg'!A359</f>
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <f>'Bowtie v1.0 reorg'!E359</f>
+        <v>0</v>
+      </c>
+      <c r="C358" t="str">
+        <f>'Bowtie v1.0 reorg'!C359</f>
+        <v>EA64</v>
+      </c>
+      <c r="D358">
+        <f>'Bowtie v1.0 reorg'!D359</f>
+        <v>60004</v>
+      </c>
+      <c r="E358" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F359),"",'Bowtie v1.0 reorg'!F359)</f>
+        <v/>
+      </c>
+      <c r="F358" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G359),"",'Bowtie v1.0 reorg'!G359)</f>
+        <v/>
+      </c>
+      <c r="G358" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I359),"",'Bowtie v1.0 reorg'!I359)</f>
+        <v/>
+      </c>
+      <c r="H358" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J359),"",'Bowtie v1.0 reorg'!J359)</f>
+        <v/>
+      </c>
+      <c r="I358" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H359),"",'Bowtie v1.0 reorg'!H359)</f>
+        <v/>
+      </c>
+      <c r="J358" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K359),"",'Bowtie v1.0 reorg'!K359)</f>
+        <v/>
+      </c>
+      <c r="K358" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L358" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" s="15">
+        <f>'Bowtie v1.0 reorg'!A360</f>
+        <v>358</v>
+      </c>
+      <c r="B359" s="15">
+        <f>'Bowtie v1.0 reorg'!E360</f>
+        <v>0</v>
+      </c>
+      <c r="C359" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C360</f>
+        <v>EA65</v>
+      </c>
+      <c r="D359" s="15">
+        <f>'Bowtie v1.0 reorg'!D360</f>
+        <v>60005</v>
+      </c>
+      <c r="E359" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F360),"",'Bowtie v1.0 reorg'!F360)</f>
+        <v/>
+      </c>
+      <c r="F359" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G360),"",'Bowtie v1.0 reorg'!G360)</f>
+        <v/>
+      </c>
+      <c r="G359" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I360),"",'Bowtie v1.0 reorg'!I360)</f>
+        <v/>
+      </c>
+      <c r="H359" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J360),"",'Bowtie v1.0 reorg'!J360)</f>
+        <v/>
+      </c>
+      <c r="I359" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H360),"",'Bowtie v1.0 reorg'!H360)</f>
+        <v/>
+      </c>
+      <c r="J359" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K360),"",'Bowtie v1.0 reorg'!K360)</f>
+        <v/>
+      </c>
+      <c r="K359" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L359" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M359" s="15"/>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <f>'Bowtie v1.0 reorg'!A361</f>
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <f>'Bowtie v1.0 reorg'!E361</f>
+        <v>0</v>
+      </c>
+      <c r="C360" t="str">
+        <f>'Bowtie v1.0 reorg'!C361</f>
+        <v>EA66</v>
+      </c>
+      <c r="D360">
+        <f>'Bowtie v1.0 reorg'!D361</f>
+        <v>60006</v>
+      </c>
+      <c r="E360" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F361),"",'Bowtie v1.0 reorg'!F361)</f>
+        <v/>
+      </c>
+      <c r="F360" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G361),"",'Bowtie v1.0 reorg'!G361)</f>
+        <v/>
+      </c>
+      <c r="G360" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I361),"",'Bowtie v1.0 reorg'!I361)</f>
+        <v/>
+      </c>
+      <c r="H360" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J361),"",'Bowtie v1.0 reorg'!J361)</f>
+        <v/>
+      </c>
+      <c r="I360" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H361),"",'Bowtie v1.0 reorg'!H361)</f>
+        <v/>
+      </c>
+      <c r="J360" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K361),"",'Bowtie v1.0 reorg'!K361)</f>
+        <v/>
+      </c>
+      <c r="K360" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L360" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <f>'Bowtie v1.0 reorg'!A362</f>
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <f>'Bowtie v1.0 reorg'!E362</f>
+        <v>0</v>
+      </c>
+      <c r="C361" t="str">
+        <f>'Bowtie v1.0 reorg'!C362</f>
+        <v>EA67</v>
+      </c>
+      <c r="D361">
+        <f>'Bowtie v1.0 reorg'!D362</f>
+        <v>60007</v>
+      </c>
+      <c r="E361" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F362),"",'Bowtie v1.0 reorg'!F362)</f>
+        <v/>
+      </c>
+      <c r="F361" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G362),"",'Bowtie v1.0 reorg'!G362)</f>
+        <v/>
+      </c>
+      <c r="G361" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I362),"",'Bowtie v1.0 reorg'!I362)</f>
+        <v/>
+      </c>
+      <c r="H361" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J362),"",'Bowtie v1.0 reorg'!J362)</f>
+        <v/>
+      </c>
+      <c r="I361" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H362),"",'Bowtie v1.0 reorg'!H362)</f>
+        <v/>
+      </c>
+      <c r="J361" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K362),"",'Bowtie v1.0 reorg'!K362)</f>
+        <v/>
+      </c>
+      <c r="K361" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L361" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" s="15">
+        <f>'Bowtie v1.0 reorg'!A363</f>
+        <v>361</v>
+      </c>
+      <c r="B362" s="15">
+        <f>'Bowtie v1.0 reorg'!E363</f>
+        <v>0</v>
+      </c>
+      <c r="C362" s="15" t="str">
+        <f>'Bowtie v1.0 reorg'!C363</f>
+        <v>EA68</v>
+      </c>
+      <c r="D362" s="15">
+        <f>'Bowtie v1.0 reorg'!D363</f>
+        <v>60008</v>
+      </c>
+      <c r="E362" s="16" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F363),"",'Bowtie v1.0 reorg'!F363)</f>
+        <v/>
+      </c>
+      <c r="F362" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G363),"",'Bowtie v1.0 reorg'!G363)</f>
+        <v/>
+      </c>
+      <c r="G362" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I363),"",'Bowtie v1.0 reorg'!I363)</f>
+        <v/>
+      </c>
+      <c r="H362" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J363),"",'Bowtie v1.0 reorg'!J363)</f>
+        <v/>
+      </c>
+      <c r="I362" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H363),"",'Bowtie v1.0 reorg'!H363)</f>
+        <v/>
+      </c>
+      <c r="J362" s="15" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K363),"",'Bowtie v1.0 reorg'!K363)</f>
+        <v/>
+      </c>
+      <c r="K362" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L362" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M362" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="594">
   <si>
     <t>name</t>
   </si>
@@ -1793,6 +1793,15 @@
   </si>
   <si>
     <t>Used for customizing work item form.</t>
+  </si>
+  <si>
+    <t>spinner</t>
+  </si>
+  <si>
+    <t>loading spinner wait dots loop spin</t>
+  </si>
+  <si>
+    <t>Add bowtie-ani-spin-pulse class for animation.</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1887,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1919,7 +1928,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -14720,13 +14728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419137</xdr:colOff>
-      <xdr:row>338</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>342933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14746,6 +14754,44 @@
         <a:xfrm>
           <a:off x="1095375" y="135807450"/>
           <a:ext cx="266737" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409611</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>295302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="339" name="Picture 338"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId338"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="136207500"/>
+          <a:ext cx="257211" cy="190527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15022,9 +15068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F342" sqref="F342"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26469,40 +26515,40 @@
       </c>
     </row>
     <row r="339" spans="1:38" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
+      <c r="A339" s="2">
         <v>337</v>
       </c>
-      <c r="C339" s="17" t="str">
-        <f t="shared" si="10"/>
+      <c r="C339" s="16" t="str">
+        <f>DEC2HEX(D339)</f>
         <v>EA50</v>
       </c>
-      <c r="D339" s="17">
+      <c r="D339" s="13">
         <v>59984</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F339" s="18">
+        <v>591</v>
+      </c>
+      <c r="F339" s="17">
         <v>1.1000000000000001</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="L339" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>uEA50-personalize.svg</v>
+        <f>CONCATENATE("u",C339,"-",E339,".svg")</f>
+        <v>uEA50-spinner.svg</v>
       </c>
       <c r="M339" s="15"/>
       <c r="N339" s="15"/>
@@ -26531,20 +26577,41 @@
       <c r="AK339" s="15"/>
       <c r="AL339" s="15"/>
     </row>
-    <row r="340" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:38" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>338</v>
       </c>
-      <c r="C340" s="13" t="str">
-        <f t="shared" si="10"/>
+      <c r="C340" t="str">
+        <f>DEC2HEX(D340)</f>
         <v>EA51</v>
       </c>
       <c r="D340" s="13">
         <v>59985</v>
       </c>
+      <c r="E340" t="s">
+        <v>588</v>
+      </c>
+      <c r="F340">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G340" t="s">
+        <v>17</v>
+      </c>
+      <c r="H340" t="s">
+        <v>589</v>
+      </c>
+      <c r="I340" t="s">
+        <v>15</v>
+      </c>
+      <c r="J340" t="s">
+        <v>234</v>
+      </c>
+      <c r="K340" t="s">
+        <v>590</v>
+      </c>
       <c r="L340" t="str">
         <f t="shared" si="11"/>
-        <v>uEA51-.svg</v>
+        <v>uEA51-personalize.svg</v>
       </c>
     </row>
     <row r="341" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -27072,6 +27139,9 @@
       </c>
     </row>
     <row r="379" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>377</v>
+      </c>
       <c r="C379" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA78</v>
@@ -27081,6 +27151,9 @@
       </c>
     </row>
     <row r="380" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>378</v>
+      </c>
       <c r="C380" s="13" t="str">
         <f t="shared" si="10"/>
         <v>EA79</v>
@@ -27090,120 +27163,180 @@
       </c>
     </row>
     <row r="381" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>379</v>
+      </c>
       <c r="C381" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>380</v>
+      </c>
       <c r="C382" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>381</v>
+      </c>
       <c r="C383" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>382</v>
+      </c>
       <c r="C384" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>383</v>
+      </c>
       <c r="C385" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>384</v>
+      </c>
       <c r="C386" s="13" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>385</v>
+      </c>
       <c r="C387" s="13" t="str">
         <f t="shared" ref="C387:C410" si="12">DEC2HEX(D387)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>386</v>
+      </c>
       <c r="C388" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>387</v>
+      </c>
       <c r="C389" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>388</v>
+      </c>
       <c r="C390" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>389</v>
+      </c>
       <c r="C391" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>390</v>
+      </c>
       <c r="C392" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>391</v>
+      </c>
       <c r="C393" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>392</v>
+      </c>
       <c r="C394" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>393</v>
+      </c>
       <c r="C395" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>394</v>
+      </c>
       <c r="C396" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>395</v>
+      </c>
       <c r="C397" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>396</v>
+      </c>
       <c r="C398" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>397</v>
+      </c>
       <c r="C399" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>398</v>
+      </c>
       <c r="C400" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -27284,8 +27417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M362"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="L338" sqref="L338"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27423,11 +27556,11 @@
         <v>Indicate direction, movement.</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="0">IF(NOT(ISBLANK(A3)),CONCATENATE("{'",$A$1,"':",A3,",'",$B$1,"':'",B3,"',","'",$C$1,"':'",C3,"','",$D$1,"':",D3,",'",$E$1,"':'",FIXED(E3,1),"','",$F$1,"':'",F3,"','",$G$1,"':'",G3,"','",$H$1,"':'",H3,"','",$I$1,"':['",SUBSTITUTE(I3," ","','"),"'],'",$J$1,"':'",J3,"'}"))</f>
+        <f t="shared" ref="K3:K8" si="0">IF(NOT(ISBLANK(A3)),CONCATENATE("{'",$A$1,"':",A3,",'",$B$1,"':'",B3,"',","'",$C$1,"':'",C3,"','",$D$1,"':",D3,",'",$E$1,"':'",FIXED(E3,1),"','",$F$1,"':'",F3,"','",$G$1,"':'",G3,"','",$H$1,"':'",H3,"','",$I$1,"':['",SUBSTITUTE(I3," ","','"),"'],'",$J$1,"':'",J3,"'}"))</f>
         <v>{'id':2,'name':'arrow-left','unicode':'E901','decimal':59649,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':['arrow','left','back'],'usage':'Indicate direction, movement.'}</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="1">SUBSTITUTE(K3,"'","""")</f>
+        <f t="shared" ref="L3:L8" si="1">SUBSTITUTE(K3,"'","""")</f>
         <v>{"id":2,"name":"arrow-left","unicode":"E901","decimal":59649,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":["arrow","left","back"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
@@ -27723,11 +27856,11 @@
         <v>Use inline with number label to indicate status trend - decrease</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K9:K72" si="2">IF(NOT(ISBLANK(A9)),CONCATENATE("{'",$A$1,"':",A9,",'",$B$1,"':'",B9,"',","'",$C$1,"':'",C9,"','",$D$1,"':",D9,",'",$E$1,"':'",FIXED(E9,1),"','",$F$1,"':'",F9,"','",$G$1,"':'",G9,"','",$H$1,"':'",H9,"','",$I$1,"':['",SUBSTITUTE(I9," ","','"),"'],'",$J$1,"':'",J9,"'}"))</f>
         <v>{'id':8,'name':'arrow-down-right','unicode':'E907','decimal':59655,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':['arrow','decrease'],'usage':'Use inline with number label to indicate status trend - decrease'}</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L9:L72" si="3">SUBSTITUTE(K9,"'","""")</f>
         <v>{"id":8,"name":"arrow-down-right","unicode":"E907","decimal":59655,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":["arrow","decrease"],"usage":"Use inline with number label to indicate status trend - decrease"}</v>
       </c>
     </row>
@@ -27773,11 +27906,11 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':9,'name':'arrow-export','unicode':'E908','decimal':59656,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":9,"name":"arrow-export","unicode":"E908","decimal":59656,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -27823,11 +27956,11 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':10,'name':'arrow-open','unicode':'E909','decimal':59657,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":10,"name":"arrow-open","unicode":"E909","decimal":59657,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -27873,11 +28006,11 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':11,'name':'sort','unicode':'E90A','decimal':59658,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':['sort','re-order'],'usage':''}</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":11,"name":"sort","unicode":"E90A","decimal":59658,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":["sort","re-order"],"usage":""}</v>
       </c>
     </row>
@@ -27923,11 +28056,11 @@
         <v>intentional duplicate of arrow-up</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':12,'name':'sort-ascending','unicode':'E90B','decimal':59659,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':['arrow','up','sort','ascending'],'usage':'intentional duplicate of arrow-up'}</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":12,"name":"sort-ascending","unicode":"E90B","decimal":59659,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":["arrow","up","sort","ascending"],"usage":"intentional duplicate of arrow-up"}</v>
       </c>
     </row>
@@ -27973,11 +28106,11 @@
         <v>intentional duplicate of arrow-down</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':13,'name':'sort-descending','unicode':'E90C','decimal':59660,'version':'1.0','style':'light','subset':'VSTS','group':'arrow','keywords':['arrow','down','sort','descending'],'usage':'intentional duplicate of arrow-down'}</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":13,"name":"sort-descending","unicode":"E90C","decimal":59660,"version":"1.0","style":"light","subset":"VSTS","group":"arrow","keywords":["arrow","down","sort","descending"],"usage":"intentional duplicate of arrow-down"}</v>
       </c>
     </row>
@@ -28023,11 +28156,11 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':14,'name':'switch','unicode':'E90D','decimal':59661,'version':'1.0','style':'','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":14,"name":"switch","unicode":"E90D","decimal":59661,"version":"1.0","style":"","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -28073,11 +28206,11 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':15,'name':'synchronize','unicode':'E90E','decimal':59662,'version':'1.0','style':'','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":15,"name":"synchronize","unicode":"E90E","decimal":59662,"version":"1.0","style":"","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -28123,11 +28256,11 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':16,'name':'transfer-download','unicode':'E90F','decimal':59663,'version':'1.0','style':'','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":16,"name":"transfer-download","unicode":"E90F","decimal":59663,"version":"1.0","style":"","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -28173,11 +28306,11 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':17,'name':'transfer-upload','unicode':'E910','decimal':59664,'version':'1.0','style':'','subset':'VSTS','group':'arrow','keywords':[''],'usage':''}</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":17,"name":"transfer-upload","unicode":"E910","decimal":59664,"version":"1.0","style":"","subset":"VSTS","group":"arrow","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -28223,11 +28356,11 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':18,'name':'azure-api-management','unicode':'E911','decimal':59665,'version':'1.0','style':'light','subset':'VSTS','group':'brand','keywords':['cloud','azure','api','node','connect'],'usage':''}</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":18,"name":"azure-api-management","unicode":"E911","decimal":59665,"version":"1.0","style":"light","subset":"VSTS","group":"brand","keywords":["cloud","azure","api","node","connect"],"usage":""}</v>
       </c>
     </row>
@@ -28273,11 +28406,11 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':19,'name':'azure-service-endpoint','unicode':'E912','decimal':59666,'version':'1.0','style':'light','subset':'VSTS','group':'brand','keywords':['azure','endpoint','connect','node'],'usage':''}</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":19,"name":"azure-service-endpoint","unicode":"E912","decimal":59666,"version":"1.0","style":"light","subset":"VSTS","group":"brand","keywords":["azure","endpoint","connect","node"],"usage":""}</v>
       </c>
     </row>
@@ -28323,11 +28456,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':20,'name':'brand-android','unicode':'E913','decimal':59667,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['android'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":20,"name":"brand-android","unicode":"E913","decimal":59667,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["android"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28373,11 +28506,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':21,'name':'brand-facebook','unicode':'E914','decimal':59668,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['facebook'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":21,"name":"brand-facebook","unicode":"E914","decimal":59668,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["facebook"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28423,11 +28556,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':22,'name':'brand-git','unicode':'E915','decimal':59669,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['git','version','control'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":22,"name":"brand-git","unicode":"E915","decimal":59669,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["git","version","control"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28473,11 +28606,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':23,'name':'brand-github','unicode':'E916','decimal':59670,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['github'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":23,"name":"brand-github","unicode":"E916","decimal":59670,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["github"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28523,11 +28656,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':24,'name':'brand-maven','unicode':'E917','decimal':59671,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['maven'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":24,"name":"brand-maven","unicode":"E917","decimal":59671,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["maven"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28573,11 +28706,11 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':25,'name':'brand-mtm','unicode':'E918','decimal':59672,'version':'1.0','style':'','subset':'VSTS','group':'brand','keywords':[''],'usage':''}</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":25,"name":"brand-mtm","unicode":"E918","decimal":59672,"version":"1.0","style":"","subset":"VSTS","group":"brand","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -28623,11 +28756,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':26,'name':'brand-npm','unicode':'E919','decimal':59673,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['npm'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":26,"name":"brand-npm","unicode":"E919","decimal":59673,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["npm"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28673,11 +28806,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':27,'name':'brand-nuget','unicode':'E91A','decimal':59674,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['nuget'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":27,"name":"brand-nuget","unicode":"E91A","decimal":59674,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["nuget"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28723,11 +28856,11 @@
         <v>Feature icon for TFVC (Team Foundation Version Control). Not a logo.</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':28,'name':'brand-tfvc','unicode':'E91B','decimal':59675,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['tfvc','team','foundation','version','control'],'usage':'Feature icon for TFVC (Team Foundation Version Control). Not a logo.'}</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":28,"name":"brand-tfvc","unicode":"E91B","decimal":59675,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["tfvc","team","foundation","version","control"],"usage":"Feature icon for TFVC (Team Foundation Version Control). Not a logo."}</v>
       </c>
     </row>
@@ -28773,11 +28906,11 @@
         <v>Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':29,'name':'brand-twitter','unicode':'E91C','decimal':59676,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['twitter'],'usage':'Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case.'}</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":29,"name":"brand-twitter","unicode":"E91C","decimal":59676,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["twitter"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
@@ -28823,11 +28956,11 @@
         <v>Visual Studio logo mark.</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':30,'name':'brand-visualstudio','unicode':'E91D','decimal':59677,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['visual','studio'],'usage':'Visual Studio logo mark.'}</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":30,"name":"brand-visualstudio","unicode":"E91D","decimal":59677,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["visual","studio"],"usage":"Visual Studio logo mark."}</v>
       </c>
     </row>
@@ -28873,11 +29006,11 @@
         <v>Windows logo mark.</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':31,'name':'brand-windows','unicode':'E91E','decimal':59678,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['windows'],'usage':'Windows logo mark.'}</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":31,"name":"brand-windows","unicode":"E91E","decimal":59678,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["windows"],"usage":"Windows logo mark."}</v>
       </c>
     </row>
@@ -28923,11 +29056,11 @@
         <v>intentional duplicate of brand-git</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':32,'name':'git','unicode':'E91F','decimal':59679,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['git'],'usage':'intentional duplicate of brand-git'}</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":32,"name":"git","unicode":"E91F","decimal":59679,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["git"],"usage":"intentional duplicate of brand-git"}</v>
       </c>
     </row>
@@ -28973,11 +29106,11 @@
         <v>intentional duplicate of brand-visualstudio</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':33,'name':'logo-visual-studio','unicode':'E920','decimal':59680,'version':'1.0','style':'bold','subset':'VSTS','group':'brand','keywords':['visual','studio'],'usage':'intentional duplicate of brand-visualstudio'}</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":33,"name":"logo-visual-studio","unicode":"E920","decimal":59680,"version":"1.0","style":"bold","subset":"VSTS","group":"brand","keywords":["visual","studio"],"usage":"intentional duplicate of brand-visualstudio"}</v>
       </c>
     </row>
@@ -29023,11 +29156,11 @@
         <v>intentional duplicate of brand-tfvc</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':34,'name':'tfvc-repo','unicode':'E921','decimal':59681,'version':'1.0','style':'','subset':'VSTS','group':'brand','keywords':[''],'usage':'intentional duplicate of brand-tfvc'}</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":34,"name":"tfvc-repo","unicode":"E921","decimal":59681,"version":"1.0","style":"","subset":"VSTS","group":"brand","keywords":[""],"usage":"intentional duplicate of brand-tfvc"}</v>
       </c>
     </row>
@@ -29073,11 +29206,11 @@
         <v>Area chart type.</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':35,'name':'chart-area','unicode':'E922','decimal':59682,'version':'1.0','style':'bold','subset':'VSTS','group':'chart','keywords':['chart','area'],'usage':'Area chart type.'}</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":35,"name":"chart-area","unicode":"E922","decimal":59682,"version":"1.0","style":"bold","subset":"VSTS","group":"chart","keywords":["chart","area"],"usage":"Area chart type."}</v>
       </c>
     </row>
@@ -29123,11 +29256,11 @@
         <v>Bar chart type.</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':36,'name':'chart-bar','unicode':'E923','decimal':59683,'version':'1.0','style':'bold','subset':'VSTS','group':'chart','keywords':['chart','bar'],'usage':'Bar chart type.'}</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":36,"name":"chart-bar","unicode":"E923","decimal":59683,"version":"1.0","style":"bold","subset":"VSTS","group":"chart","keywords":["chart","bar"],"usage":"Bar chart type."}</v>
       </c>
     </row>
@@ -29173,11 +29306,11 @@
         <v>Column chart type.</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':37,'name':'chart-column','unicode':'E924','decimal':59684,'version':'1.0','style':'bold','subset':'VSTS','group':'chart','keywords':['chart','column'],'usage':'Column chart type.'}</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":37,"name":"chart-column","unicode":"E924","decimal":59684,"version":"1.0","style":"bold","subset":"VSTS","group":"chart","keywords":["chart","column"],"usage":"Column chart type."}</v>
       </c>
     </row>
@@ -29223,11 +29356,11 @@
         <v>Pie chart type.</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':38,'name':'chart-pie','unicode':'E925','decimal':59685,'version':'1.0','style':'bold','subset':'VSTS','group':'chart','keywords':['chart','pie'],'usage':'Pie chart type.'}</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":38,"name":"chart-pie","unicode":"E925","decimal":59685,"version":"1.0","style":"bold","subset":"VSTS","group":"chart","keywords":["chart","pie"],"usage":"Pie chart type."}</v>
       </c>
     </row>
@@ -29273,11 +29406,11 @@
         <v>Pivot chart type or concept for pivot</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':39,'name':'chart-pivot','unicode':'E926','decimal':59686,'version':'1.0','style':'bold','subset':'VSTS','group':'chart','keywords':['chart','pivot'],'usage':'Pivot chart type or concept for pivot'}</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":39,"name":"chart-pivot","unicode":"E926","decimal":59686,"version":"1.0","style":"bold","subset":"VSTS","group":"chart","keywords":["chart","pivot"],"usage":"Pivot chart type or concept for pivot"}</v>
       </c>
     </row>
@@ -29323,11 +29456,11 @@
         <v>Stacked area chart type</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':40,'name':'chart-stacked-area','unicode':'E927','decimal':59687,'version':'1.0','style':'bold','subset':'VSTS','group':'chart','keywords':['chart','stack','area'],'usage':'Stacked area chart type'}</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":40,"name":"chart-stacked-area","unicode":"E927","decimal":59687,"version":"1.0","style":"bold","subset":"VSTS","group":"chart","keywords":["chart","stack","area"],"usage":"Stacked area chart type"}</v>
       </c>
     </row>
@@ -29373,11 +29506,11 @@
         <v>Stacked bar chart type</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':41,'name':'chart-stacked-bar','unicode':'E928','decimal':59688,'version':'1.0','style':'bold','subset':'VSTS','group':'chart','keywords':['chart','stack','bar'],'usage':'Stacked bar chart type'}</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":41,"name":"chart-stacked-bar","unicode":"E928","decimal":59688,"version":"1.0","style":"bold","subset":"VSTS","group":"chart","keywords":["chart","stack","bar"],"usage":"Stacked bar chart type"}</v>
       </c>
     </row>
@@ -29423,11 +29556,11 @@
         <v>Stacked line chart type</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':42,'name':'chart-stacked-line','unicode':'E929','decimal':59689,'version':'1.0','style':'light','subset':'VSTS','group':'chart','keywords':['chart','stack','line'],'usage':'Stacked line chart type'}</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":42,"name":"chart-stacked-line","unicode":"E929","decimal":59689,"version":"1.0","style":"light","subset":"VSTS","group":"chart","keywords":["chart","stack","line"],"usage":"Stacked line chart type"}</v>
       </c>
     </row>
@@ -29473,11 +29606,11 @@
         <v>New Build queue. Combo icon not recommended. Use simple plus icon if possible.</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':43,'name':'build-queue-new','unicode':'E92A','decimal':59690,'version':'1.0','style':'light','subset':'VSTS','group':'command','keywords':[''],'usage':'New Build queue. Combo icon not recommended. Use simple plus icon if possible.'}</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":43,"name":"build-queue-new","unicode":"E92A","decimal":59690,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":[""],"usage":"New Build queue. Combo icon not recommended. Use simple plus icon if possible."}</v>
       </c>
     </row>
@@ -29523,11 +29656,11 @@
         <v>Used for repo action Clone to desktop. Can also be used for setup on desktop, download to desktop, create a local copy, etc.</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':44,'name':'clone-to-desktop','unicode':'E92B','decimal':59691,'version':'1.0','style':'light','subset':'VSTS','group':'command','keywords':['clone','desktop','download','local','install','setup'],'usage':'Used for repo action Clone to desktop. Can also be used for setup on desktop, download to desktop, create a local copy, etc.'}</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":44,"name":"clone-to-desktop","unicode":"E92B","decimal":59691,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["clone","desktop","download","local","install","setup"],"usage":"Used for repo action Clone to desktop. Can also be used for setup on desktop, download to desktop, create a local copy, etc."}</v>
       </c>
     </row>
@@ -29573,11 +29706,11 @@
         <v/>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':45,'name':'install','unicode':'E92C','decimal':59692,'version':'1.0','style':'light','subset':'VSTS','group':'command','keywords':['install','disk','download','setup'],'usage':''}</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":45,"name":"install","unicode":"E92C","decimal":59692,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["install","disk","download","setup"],"usage":""}</v>
       </c>
     </row>
@@ -29623,11 +29756,11 @@
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':46,'name':'comment','unicode':'E92D','decimal':59693,'version':'1.0','style':'bold','subset':'VSTS','group':'comment','keywords':['comment','chat','message','conversation','discussion'],'usage':''}</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":46,"name":"comment","unicode":"E92D","decimal":59693,"version":"1.0","style":"bold","subset":"VSTS","group":"comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
@@ -29673,11 +29806,11 @@
         <v/>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':47,'name':'comment-add','unicode':'E92E','decimal':59694,'version':'1.0','style':'light','subset':'VSTS','group':'comment','keywords':['comment','add','chat','message','conversation','discussion'],'usage':''}</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":47,"name":"comment-add","unicode":"E92E","decimal":59694,"version":"1.0","style":"light","subset":"VSTS","group":"comment","keywords":["comment","add","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
@@ -29723,11 +29856,11 @@
         <v/>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':48,'name':'comment-discussion','unicode':'E92F','decimal':59695,'version':'1.0','style':'light','subset':'VSTS','group':'comment','keywords':['comment','chat','message','conversation','discussion'],'usage':''}</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":48,"name":"comment-discussion","unicode":"E92F","decimal":59695,"version":"1.0","style":"light","subset":"VSTS","group":"comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
@@ -29773,11 +29906,11 @@
         <v/>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':49,'name':'comment-lines','unicode':'E930','decimal':59696,'version':'1.0','style':'light','subset':'VSTS','group':'comment','keywords':['comment','chat','message','conversation','discussion','content'],'usage':''}</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":49,"name":"comment-lines","unicode":"E930","decimal":59696,"version":"1.0","style":"light","subset":"VSTS","group":"comment","keywords":["comment","chat","message","conversation","discussion","content"],"usage":""}</v>
       </c>
     </row>
@@ -29823,11 +29956,11 @@
         <v/>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':50,'name':'comment-next','unicode':'E931','decimal':59697,'version':'1.0','style':'light','subset':'VSTS','group':'comment','keywords':['comment','chat','message','conversation','discussion','next'],'usage':''}</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":50,"name":"comment-next","unicode":"E931","decimal":59697,"version":"1.0","style":"light","subset":"VSTS","group":"comment","keywords":["comment","chat","message","conversation","discussion","next"],"usage":""}</v>
       </c>
     </row>
@@ -29873,11 +30006,11 @@
         <v/>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':51,'name':'comment-outline','unicode':'E932','decimal':59698,'version':'1.0','style':'light','subset':'VSTS','group':'comment','keywords':['comment','chat','message','conversation','discussion'],'usage':''}</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":51,"name":"comment-outline","unicode":"E932","decimal":59698,"version":"1.0","style":"light","subset":"VSTS","group":"comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
@@ -29923,11 +30056,11 @@
         <v/>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':52,'name':'comment-previous','unicode':'E933','decimal':59699,'version':'1.0','style':'light','subset':'VSTS','group':'comment','keywords':['comment','chat','message','conversation','discussion','previous'],'usage':''}</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":52,"name":"comment-previous","unicode":"E933","decimal":59699,"version":"1.0","style":"light","subset":"VSTS","group":"comment","keywords":["comment","chat","message","conversation","discussion","previous"],"usage":""}</v>
       </c>
     </row>
@@ -29973,11 +30106,11 @@
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':53,'name':'comment-urgent','unicode':'E934','decimal':59700,'version':'1.0','style':'light','subset':'VSTS','group':'comment','keywords':['comment','chat','message','conversation','discussion','urgent','exclaimation','alert','attention'],'usage':''}</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":53,"name":"comment-urgent","unicode":"E934","decimal":59700,"version":"1.0","style":"light","subset":"VSTS","group":"comment","keywords":["comment","chat","message","conversation","discussion","urgent","exclaimation","alert","attention"],"usage":""}</v>
       </c>
     </row>
@@ -30023,11 +30156,11 @@
         <v>Notification</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':54,'name':'alert','unicode':'E935','decimal':59701,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['flag','alert','notification'],'usage':'Notification'}</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":54,"name":"alert","unicode":"E935","decimal":59701,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["flag","alert","notification"],"usage":"Notification"}</v>
       </c>
     </row>
@@ -30073,11 +30206,11 @@
         <v>The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible.</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':55,'name':'approve','unicode':'E936','decimal':59702,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['hand','thumb','up','like','approve'],'usage':'The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible.'}</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":55,"name":"approve","unicode":"E936","decimal":59702,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["hand","thumb","up","like","approve"],"usage":"The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible."}</v>
       </c>
     </row>
@@ -30123,11 +30256,11 @@
         <v>The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible.</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':56,'name':'approve-disapprove','unicode':'E937','decimal':59703,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['hand','thumb','down','dislike','disapprove'],'usage':'The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible.'}</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":56,"name":"approve-disapprove","unicode":"E937","decimal":59703,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["hand","thumb","down","dislike","disapprove"],"usage":"The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible."}</v>
       </c>
     </row>
@@ -30173,11 +30306,11 @@
         <v/>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':57,'name':'blur','unicode':'E938','decimal':59704,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":57,"name":"blur","unicode":"E938","decimal":59704,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -30223,11 +30356,11 @@
         <v>Used for build, compile.</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':58,'name':'build','unicode':'E939','decimal':59705,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['build'],'usage':'Used for build, compile.'}</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":58,"name":"build","unicode":"E939","decimal":59705,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["build"],"usage":"Used for build, compile."}</v>
       </c>
     </row>
@@ -30273,11 +30406,11 @@
         <v>Used in Build hub to indicate queue.</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':59,'name':'build-queue','unicode':'E93A','decimal':59706,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':[''],'usage':'Used in Build hub to indicate queue.'}</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":59,"name":"build-queue","unicode":"E93A","decimal":59706,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":[""],"usage":"Used in Build hub to indicate queue."}</v>
       </c>
     </row>
@@ -30323,11 +30456,11 @@
         <v>Intentional duplicate of transfer-upload because checkin in is similar to upload, push.</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':60,'name':'build-reason-checkin-shelveset','unicode':'E93B','decimal':59707,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['checkin','upload','move','top'],'usage':'Intentional duplicate of transfer-upload because checkin in is similar to upload, push.'}</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":60,"name":"build-reason-checkin-shelveset","unicode":"E93B","decimal":59707,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["checkin","upload","move","top"],"usage":"Intentional duplicate of transfer-upload because checkin in is similar to upload, push."}</v>
       </c>
     </row>
@@ -30373,11 +30506,11 @@
         <v>Used for generic calendar, date, deadline, schedule.</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':61,'name':'calendar','unicode':'E93C','decimal':59708,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['calendar','date','schedule'],'usage':'Used for generic calendar, date, deadline, schedule.'}</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":61,"name":"calendar","unicode":"E93C","decimal":59708,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["calendar","date","schedule"],"usage":"Used for generic calendar, date, deadline, schedule."}</v>
       </c>
     </row>
@@ -30423,11 +30556,11 @@
         <v>Used for month calendar or date picker</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':62,'name':'calendar-month','unicode':'E93D','decimal':59709,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['calendar','date','schedule'],'usage':'Used for month calendar or date picker'}</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":62,"name":"calendar-month","unicode":"E93D","decimal":59709,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["calendar","date","schedule"],"usage":"Used for month calendar or date picker"}</v>
       </c>
     </row>
@@ -30473,11 +30606,11 @@
         <v/>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':63,'name':'camera','unicode':'E93E','decimal':59710,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":63,"name":"camera","unicode":"E93E","decimal":59710,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -30523,11 +30656,11 @@
         <v>Intentional duplicate</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':64,'name':'clone','unicode':'E93F','decimal':59711,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['copy','duplicate','clone'],'usage':'Intentional duplicate'}</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":64,"name":"clone","unicode":"E93F","decimal":59711,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["copy","duplicate","clone"],"usage":"Intentional duplicate"}</v>
       </c>
     </row>
@@ -30573,11 +30706,11 @@
         <v/>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>{'id':65,'name':'cloud','unicode':'E940','decimal':59712,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['cloud','remote','online'],'usage':''}</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>{"id":65,"name":"cloud","unicode":"E940","decimal":59712,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["cloud","remote","online"],"usage":""}</v>
       </c>
     </row>
@@ -30623,11 +30756,11 @@
         <v/>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K130" si="2">IF(NOT(ISBLANK(A67)),CONCATENATE("{'",$A$1,"':",A67,",'",$B$1,"':'",B67,"',","'",$C$1,"':'",C67,"','",$D$1,"':",D67,",'",$E$1,"':'",FIXED(E67,1),"','",$F$1,"':'",F67,"','",$G$1,"':'",G67,"','",$H$1,"':'",H67,"','",$I$1,"':['",SUBSTITUTE(I67," ","','"),"'],'",$J$1,"':'",J67,"'}"))</f>
+        <f t="shared" si="2"/>
         <v>{'id':66,'name':'cloud-fill','unicode':'E941','decimal':59713,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['cloud','remote','online'],'usage':''}</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L130" si="3">SUBSTITUTE(K67,"'","""")</f>
+        <f t="shared" si="3"/>
         <v>{"id":66,"name":"cloud-fill","unicode":"E941","decimal":59713,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["cloud","remote","online"],"usage":""}</v>
       </c>
     </row>
@@ -30923,11 +31056,11 @@
         <v/>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K73:K136" si="4">IF(NOT(ISBLANK(A73)),CONCATENATE("{'",$A$1,"':",A73,",'",$B$1,"':'",B73,"',","'",$C$1,"':'",C73,"','",$D$1,"':",D73,",'",$E$1,"':'",FIXED(E73,1),"','",$F$1,"':'",F73,"','",$G$1,"':'",G73,"','",$H$1,"':'",H73,"','",$I$1,"':['",SUBSTITUTE(I73," ","','"),"'],'",$J$1,"':'",J73,"'}"))</f>
         <v>{'id':72,'name':'redeploy','unicode':'E947','decimal':59719,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L73:L136" si="5">SUBSTITUTE(K73,"'","""")</f>
         <v>{"id":72,"name":"redeploy","unicode":"E947","decimal":59719,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -30973,11 +31106,11 @@
         <v/>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':73,'name':'details-pane','unicode':'E948','decimal':59720,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['pane','detail','layout','panel'],'usage':''}</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":73,"name":"details-pane","unicode":"E948","decimal":59720,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["pane","detail","layout","panel"],"usage":""}</v>
       </c>
     </row>
@@ -31023,11 +31156,11 @@
         <v/>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':74,'name':'edit','unicode':'E949','decimal':59721,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['edit','pencil'],'usage':''}</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":74,"name":"edit","unicode":"E949","decimal":59721,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["edit","pencil"],"usage":""}</v>
       </c>
     </row>
@@ -31073,11 +31206,11 @@
         <v/>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':75,'name':'edit-outline','unicode':'E94A','decimal':59722,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['edit','pencil'],'usage':''}</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":75,"name":"edit-outline","unicode":"E94A","decimal":59722,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["edit","pencil"],"usage":""}</v>
       </c>
     </row>
@@ -31123,11 +31256,11 @@
         <v/>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':76,'name':'edit-copy','unicode':'E94B','decimal':59723,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['copy','duplicate','clone'],'usage':''}</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":76,"name":"edit-copy","unicode":"E94B","decimal":59723,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["copy","duplicate","clone"],"usage":""}</v>
       </c>
     </row>
@@ -31173,11 +31306,11 @@
         <v/>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':77,'name':'edit-cut','unicode':'E94C','decimal':59724,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['cut','scissors'],'usage':''}</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":77,"name":"edit-cut","unicode":"E94C","decimal":59724,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["cut","scissors"],"usage":""}</v>
       </c>
     </row>
@@ -31223,11 +31356,11 @@
         <v/>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':78,'name':'editor-list-bullet','unicode':'E94D','decimal':59725,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['list','bullet'],'usage':''}</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":78,"name":"editor-list-bullet","unicode":"E94D","decimal":59725,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["list","bullet"],"usage":""}</v>
       </c>
     </row>
@@ -31273,11 +31406,11 @@
         <v/>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':79,'name':'edit-paste','unicode':'E94E','decimal':59726,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['paste','clipboard'],'usage':''}</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":79,"name":"edit-paste","unicode":"E94E","decimal":59726,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["paste","clipboard"],"usage":""}</v>
       </c>
     </row>
@@ -31323,11 +31456,11 @@
         <v>used in context menu or toolbar for Delete command, matching Add command.</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':80,'name':'edit-delete','unicode':'E94F','decimal':59727,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['delete','destroy'],'usage':'used in context menu or toolbar for Delete command, matching Add command.'}</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":80,"name":"edit-delete","unicode":"E94F","decimal":59727,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["delete","destroy"],"usage":"used in context menu or toolbar for Delete command, matching Add command."}</v>
       </c>
     </row>
@@ -31373,11 +31506,11 @@
         <v>replace with math-minus-light. Intentional duplicate</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':81,'name':'edit-remove','unicode':'E950','decimal':59728,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['remove','minus','line'],'usage':'replace with math-minus-light. Intentional duplicate'}</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":81,"name":"edit-remove","unicode":"E950","decimal":59728,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["remove","minus","line"],"usage":"replace with math-minus-light. Intentional duplicate"}</v>
       </c>
     </row>
@@ -31423,11 +31556,11 @@
         <v/>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':82,'name':'edit-redo','unicode':'E951','decimal':59729,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['arrow','redo'],'usage':''}</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":82,"name":"edit-redo","unicode":"E951","decimal":59729,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["arrow","redo"],"usage":""}</v>
       </c>
     </row>
@@ -31473,11 +31606,11 @@
         <v/>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':83,'name':'edit-undo','unicode':'E952','decimal':59730,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['arrow','undo','revert'],'usage':''}</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":83,"name":"edit-undo","unicode":"E952","decimal":59730,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["arrow","undo","revert"],"usage":""}</v>
       </c>
     </row>
@@ -31523,11 +31656,11 @@
         <v/>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':84,'name':'edit-rename','unicode':'E953','decimal':59731,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['rename','textbox','cursor'],'usage':''}</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":84,"name":"edit-rename","unicode":"E953","decimal":59731,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["rename","textbox","cursor"],"usage":""}</v>
       </c>
     </row>
@@ -31573,11 +31706,11 @@
         <v>Used for attachment.</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':85,'name':'attach','unicode':'E954','decimal':59732,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['paperclip','attach'],'usage':'Used for attachment.'}</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":85,"name":"attach","unicode":"E954","decimal":59732,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["paperclip","attach"],"usage":"Used for attachment."}</v>
       </c>
     </row>
@@ -31623,11 +31756,11 @@
         <v/>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':86,'name':'link','unicode':'E955','decimal':59733,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['link','hyperlink','url'],'usage':''}</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":86,"name":"link","unicode":"E955","decimal":59733,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["link","hyperlink","url"],"usage":""}</v>
       </c>
     </row>
@@ -31673,11 +31806,11 @@
         <v/>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':87,'name':'server','unicode':'E956','decimal':59734,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":87,"name":"server","unicode":"E956","decimal":59734,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -31723,11 +31856,11 @@
         <v/>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':88,'name':'environment','unicode':'E957','decimal':59735,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":88,"name":"environment","unicode":"E957","decimal":59735,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -31773,11 +31906,11 @@
         <v/>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':89,'name':'devices','unicode':'E958','decimal':59736,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":89,"name":"devices","unicode":"E958","decimal":59736,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -31823,11 +31956,11 @@
         <v/>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':90,'name':'feedback-negative','unicode':'E959','decimal':59737,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['smiley','face','emoji','unhappy','negative','sad'],'usage':''}</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":90,"name":"feedback-negative","unicode":"E959","decimal":59737,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["smiley","face","emoji","unhappy","negative","sad"],"usage":""}</v>
       </c>
     </row>
@@ -31873,11 +32006,11 @@
         <v/>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':91,'name':'feedback-positive','unicode':'E95A','decimal':59738,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['smiley','face','emoji','happy','positive','smile'],'usage':''}</v>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":91,"name":"feedback-positive","unicode":"E95A","decimal":59738,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["smiley","face","emoji","happy","positive","smile"],"usage":""}</v>
       </c>
     </row>
@@ -31923,11 +32056,11 @@
         <v/>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':92,'name':'folder','unicode':'E95B','decimal':59739,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['folder'],'usage':''}</v>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":92,"name":"folder","unicode":"E95B","decimal":59739,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["folder"],"usage":""}</v>
       </c>
     </row>
@@ -31973,11 +32106,11 @@
         <v/>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':93,'name':'image','unicode':'E95C','decimal':59740,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['image','picture','photo'],'usage':''}</v>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":93,"name":"image","unicode":"E95C","decimal":59740,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["image","picture","photo"],"usage":""}</v>
       </c>
     </row>
@@ -32023,11 +32156,11 @@
         <v/>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':94,'name':'package','unicode':'E95D','decimal':59741,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['package','gift','box'],'usage':''}</v>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":94,"name":"package","unicode":"E95D","decimal":59741,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["package","gift","box"],"usage":""}</v>
       </c>
     </row>
@@ -32073,11 +32206,11 @@
         <v/>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':95,'name':'package-fill','unicode':'E95E','decimal':59742,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['package','gift','box'],'usage':''}</v>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":95,"name":"package-fill","unicode":"E95E","decimal":59742,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["package","gift","box"],"usage":""}</v>
       </c>
     </row>
@@ -32123,11 +32256,11 @@
         <v/>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':96,'name':'heart','unicode':'E95F','decimal':59743,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['heart','love'],'usage':''}</v>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":96,"name":"heart","unicode":"E95F","decimal":59743,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["heart","love"],"usage":""}</v>
       </c>
     </row>
@@ -32173,11 +32306,11 @@
         <v/>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':97,'name':'heart-fill','unicode':'E960','decimal':59744,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['heart','love'],'usage':''}</v>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":97,"name":"heart-fill","unicode":"E960","decimal":59744,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["heart","love"],"usage":""}</v>
       </c>
     </row>
@@ -32223,11 +32356,11 @@
         <v/>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':98,'name':'heartbeat','unicode':'E961','decimal':59745,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['heart','pulse','ekg','health','monitor'],'usage':''}</v>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":98,"name":"heartbeat","unicode":"E961","decimal":59745,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["heart","pulse","ekg","health","monitor"],"usage":""}</v>
       </c>
     </row>
@@ -32273,11 +32406,11 @@
         <v/>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':99,'name':'heartbeat-fill','unicode':'E962','decimal':59746,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['heart','pulse','ekg','health','monitor'],'usage':''}</v>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":99,"name":"heartbeat-fill","unicode":"E962","decimal":59746,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["heart","pulse","ekg","health","monitor"],"usage":""}</v>
       </c>
     </row>
@@ -32323,11 +32456,11 @@
         <v>used for read mail</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':100,'name':'mail-message','unicode':'E963','decimal':59747,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['envelope','message','mail'],'usage':'used for read mail'}</v>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":100,"name":"mail-message","unicode":"E963","decimal":59747,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["envelope","message","mail"],"usage":"used for read mail"}</v>
       </c>
     </row>
@@ -32373,11 +32506,11 @@
         <v>used for unread mail</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':101,'name':'mail-message-fill','unicode':'E964','decimal':59748,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['envelope','message','mail'],'usage':'used for unread mail'}</v>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":101,"name":"mail-message-fill","unicode":"E964","decimal":59748,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["envelope","message","mail"],"usage":"used for unread mail"}</v>
       </c>
     </row>
@@ -32423,11 +32556,11 @@
         <v/>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':102,'name':'math-minus','unicode':'E965','decimal':59749,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['line','minus','remove'],'usage':''}</v>
       </c>
       <c r="L103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":102,"name":"math-minus","unicode":"E965","decimal":59749,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["line","minus","remove"],"usage":""}</v>
       </c>
     </row>
@@ -32473,11 +32606,11 @@
         <v/>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':103,'name':'math-minus-light','unicode':'E966','decimal':59750,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['line','minus','remove'],'usage':''}</v>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":103,"name":"math-minus-light","unicode":"E966","decimal":59750,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["line","minus","remove"],"usage":""}</v>
       </c>
     </row>
@@ -32523,11 +32656,11 @@
         <v/>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':104,'name':'math-minus-box-light','unicode':'E967','decimal':59751,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['box','line','minus','remove','minimize'],'usage':''}</v>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":104,"name":"math-minus-box-light","unicode":"E967","decimal":59751,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["box","line","minus","remove","minimize"],"usage":""}</v>
       </c>
     </row>
@@ -32573,11 +32706,11 @@
         <v/>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':105,'name':'math-minus-box','unicode':'E968','decimal':59752,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['box','line','minus','remove','minimize'],'usage':''}</v>
       </c>
       <c r="L106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":105,"name":"math-minus-box","unicode":"E968","decimal":59752,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["box","line","minus","remove","minimize"],"usage":""}</v>
       </c>
     </row>
@@ -32623,11 +32756,11 @@
         <v/>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':106,'name':'math-minus-circle-outline','unicode':'E969','decimal':59753,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['circle','line','minus','remove'],'usage':''}</v>
       </c>
       <c r="L107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":106,"name":"math-minus-circle-outline","unicode":"E969","decimal":59753,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["circle","line","minus","remove"],"usage":""}</v>
       </c>
     </row>
@@ -32673,11 +32806,11 @@
         <v/>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':107,'name':'math-minus-circle','unicode':'E96A','decimal':59754,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['circle','line','minus','remove'],'usage':''}</v>
       </c>
       <c r="L108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":107,"name":"math-minus-circle","unicode":"E96A","decimal":59754,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["circle","line","minus","remove"],"usage":""}</v>
       </c>
     </row>
@@ -32723,11 +32856,11 @@
         <v/>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':108,'name':'math-multiply','unicode':'E96B','decimal':59755,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['cross','x','close','multiply'],'usage':''}</v>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":108,"name":"math-multiply","unicode":"E96B","decimal":59755,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["cross","x","close","multiply"],"usage":""}</v>
       </c>
     </row>
@@ -32773,11 +32906,11 @@
         <v/>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':109,'name':'math-multiply-light','unicode':'E96C','decimal':59756,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['cross','x','close','multiply'],'usage':''}</v>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":109,"name":"math-multiply-light","unicode":"E96C","decimal":59756,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["cross","x","close","multiply"],"usage":""}</v>
       </c>
     </row>
@@ -32823,11 +32956,11 @@
         <v/>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':110,'name':'math-multiply-box-light','unicode':'E96D','decimal':59757,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['cross','x','close','multiply','box'],'usage':''}</v>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":110,"name":"math-multiply-box-light","unicode":"E96D","decimal":59757,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
@@ -32873,11 +33006,11 @@
         <v/>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':111,'name':'math-multiply-box','unicode':'E96E','decimal':59758,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['cross','x','close','multiply','box'],'usage':''}</v>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":111,"name":"math-multiply-box","unicode":"E96E","decimal":59758,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
@@ -32923,11 +33056,11 @@
         <v/>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':112,'name':'math-multiply-box-outline','unicode':'E96F','decimal':59759,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['cross','x','close','multiply','box'],'usage':''}</v>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":112,"name":"math-multiply-box-outline","unicode":"E96F","decimal":59759,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
@@ -32973,11 +33106,11 @@
         <v/>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':113,'name':'math-plus','unicode':'E970','decimal':59760,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['plus','add'],'usage':''}</v>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":113,"name":"math-plus","unicode":"E970","decimal":59760,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["plus","add"],"usage":""}</v>
       </c>
     </row>
@@ -33023,11 +33156,11 @@
         <v/>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':114,'name':'math-plus-light','unicode':'E971','decimal':59761,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['plus','add'],'usage':''}</v>
       </c>
       <c r="L115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":114,"name":"math-plus-light","unicode":"E971","decimal":59761,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["plus","add"],"usage":""}</v>
       </c>
     </row>
@@ -33073,11 +33206,11 @@
         <v/>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':115,'name':'math-plus-box-light','unicode':'E972','decimal':59762,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['plus','add','box'],'usage':''}</v>
       </c>
       <c r="L116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":115,"name":"math-plus-box-light","unicode":"E972","decimal":59762,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["plus","add","box"],"usage":""}</v>
       </c>
     </row>
@@ -33123,11 +33256,11 @@
         <v/>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':116,'name':'math-plus-box','unicode':'E973','decimal':59763,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['plus','add','box'],'usage':''}</v>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":116,"name":"math-plus-box","unicode":"E973","decimal":59763,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["plus","add","box"],"usage":""}</v>
       </c>
     </row>
@@ -33173,11 +33306,11 @@
         <v/>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':117,'name':'math-plus-circle-outline','unicode':'E974','decimal':59764,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['plus','add','circle'],'usage':''}</v>
       </c>
       <c r="L118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":117,"name":"math-plus-circle-outline","unicode":"E974","decimal":59764,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["plus","add","circle"],"usage":""}</v>
       </c>
     </row>
@@ -33223,11 +33356,11 @@
         <v/>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':118,'name':'math-plus-circle','unicode':'E975','decimal':59765,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['plus','add','circle'],'usage':''}</v>
       </c>
       <c r="L119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":118,"name":"math-plus-circle","unicode":"E975","decimal":59765,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["plus","add","circle"],"usage":""}</v>
       </c>
     </row>
@@ -33273,11 +33406,11 @@
         <v>intentional duplicate</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':119,'name':'math-plus-heavy','unicode':'E976','decimal':59766,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['plus','add'],'usage':'intentional duplicate'}</v>
       </c>
       <c r="L120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":119,"name":"math-plus-heavy","unicode":"E976","decimal":59766,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["plus","add"],"usage":"intentional duplicate"}</v>
       </c>
     </row>
@@ -33323,11 +33456,11 @@
         <v>Check, approve. Use bold version when it is small to match other bold icons in a list. Usually apply sementic color positive on this icon.</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':120,'name':'check','unicode':'E977','decimal':59767,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['check','checkmark'],'usage':'Check, approve. Use bold version when it is small to match other bold icons in a list. Usually apply sementic color positive on this icon.'}</v>
       </c>
       <c r="L121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":120,"name":"check","unicode":"E977","decimal":59767,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["check","checkmark"],"usage":"Check, approve. Use bold version when it is small to match other bold icons in a list. Usually apply sementic color positive on this icon."}</v>
       </c>
     </row>
@@ -33373,11 +33506,11 @@
         <v>Check, approve. Use light version for large size, match other light icons if in a list.</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':121,'name':'check-light','unicode':'E978','decimal':59768,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['check','checkmark'],'usage':'Check, approve. Use light version for large size, match other light icons if in a list.'}</v>
       </c>
       <c r="L122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":121,"name":"check-light","unicode":"E978","decimal":59768,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["check","checkmark"],"usage":"Check, approve. Use light version for large size, match other light icons if in a list."}</v>
       </c>
     </row>
@@ -33423,11 +33556,11 @@
         <v/>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':122,'name':'feed','unicode':'E979','decimal':59769,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['feed','rss'],'usage':''}</v>
       </c>
       <c r="L123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":122,"name":"feed","unicode":"E979","decimal":59769,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["feed","rss"],"usage":""}</v>
       </c>
     </row>
@@ -33473,11 +33606,11 @@
         <v/>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':123,'name':'network-tower','unicode':'E97A','decimal':59770,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['network','tower','signal','wave','broadcast'],'usage':''}</v>
       </c>
       <c r="L124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":123,"name":"network-tower","unicode":"E97A","decimal":59770,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["network","tower","signal","wave","broadcast"],"usage":""}</v>
       </c>
     </row>
@@ -33523,11 +33656,11 @@
         <v/>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':124,'name':'connect-to-feed','unicode':'E97B','decimal':59771,'version':'1.0','style':'light','subset':'VSTS','group':'command','keywords':['connect','feed','rss','plug','wave','signal'],'usage':''}</v>
       </c>
       <c r="L125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":124,"name":"connect-to-feed","unicode":"E97B","decimal":59771,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["connect","feed","rss","plug","wave","signal"],"usage":""}</v>
       </c>
     </row>
@@ -33573,11 +33706,11 @@
         <v/>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':125,'name':'plug','unicode':'E97C','decimal':59772,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['plug','connect'],'usage':''}</v>
       </c>
       <c r="L126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":125,"name":"plug","unicode":"E97C","decimal":59772,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["plug","connect"],"usage":""}</v>
       </c>
     </row>
@@ -33623,11 +33756,11 @@
         <v/>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':126,'name':'plug-outline','unicode':'E97D','decimal':59773,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['plug','connect'],'usage':''}</v>
       </c>
       <c r="L127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":126,"name":"plug-outline","unicode":"E97D","decimal":59773,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["plug","connect"],"usage":""}</v>
       </c>
     </row>
@@ -33673,11 +33806,11 @@
         <v/>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':127,'name':'policy','unicode':'E97E','decimal':59774,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['policy','ribbon'],'usage':''}</v>
       </c>
       <c r="L128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":127,"name":"policy","unicode":"E97E","decimal":59774,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["policy","ribbon"],"usage":""}</v>
       </c>
     </row>
@@ -33723,11 +33856,11 @@
         <v/>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':128,'name':'print','unicode':'E97F','decimal':59775,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":128,"name":"print","unicode":"E97F","decimal":59775,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -33773,11 +33906,11 @@
         <v/>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>{'id':129,'name':'recycle','unicode':'E980','decimal':59776,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['recycle'],'usage':''}</v>
       </c>
       <c r="L130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>{"id":129,"name":"recycle","unicode":"E980","decimal":59776,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["recycle"],"usage":""}</v>
       </c>
     </row>
@@ -33823,11 +33956,11 @@
         <v/>
       </c>
       <c r="K131" t="str">
-        <f t="shared" ref="K131:K194" si="4">IF(NOT(ISBLANK(A131)),CONCATENATE("{'",$A$1,"':",A131,",'",$B$1,"':'",B131,"',","'",$C$1,"':'",C131,"','",$D$1,"':",D131,",'",$E$1,"':'",FIXED(E131,1),"','",$F$1,"':'",F131,"','",$G$1,"':'",G131,"','",$H$1,"':'",H131,"','",$I$1,"':['",SUBSTITUTE(I131," ","','"),"'],'",$J$1,"':'",J131,"'}"))</f>
+        <f t="shared" si="4"/>
         <v>{'id':130,'name':'robot','unicode':'E981','decimal':59777,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L131" t="str">
-        <f t="shared" ref="L131:L194" si="5">SUBSTITUTE(K131,"'","""")</f>
+        <f t="shared" si="5"/>
         <v>{"id":130,"name":"robot","unicode":"E981","decimal":59777,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -34123,11 +34256,11 @@
         <v/>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K137:K200" si="6">IF(NOT(ISBLANK(A137)),CONCATENATE("{'",$A$1,"':",A137,",'",$B$1,"':'",B137,"',","'",$C$1,"':'",C137,"','",$D$1,"':",D137,",'",$E$1,"':'",FIXED(E137,1),"','",$F$1,"':'",F137,"','",$G$1,"':'",G137,"','",$H$1,"':'",H137,"','",$I$1,"':['",SUBSTITUTE(I137," ","','"),"'],'",$J$1,"':'",J137,"'}"))</f>
         <v>{'id':136,'name':'search-filter','unicode':'E987','decimal':59783,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['filter','funnel'],'usage':''}</v>
       </c>
       <c r="L137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L137:L200" si="7">SUBSTITUTE(K137,"'","""")</f>
         <v>{"id":136,"name":"search-filter","unicode":"E987","decimal":59783,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["filter","funnel"],"usage":""}</v>
       </c>
     </row>
@@ -34173,11 +34306,11 @@
         <v/>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':137,'name':'search-filter-fill','unicode':'E988','decimal':59784,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['filter','funnel'],'usage':''}</v>
       </c>
       <c r="L138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":137,"name":"search-filter-fill","unicode":"E988","decimal":59784,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["filter","funnel"],"usage":""}</v>
       </c>
     </row>
@@ -34223,11 +34356,11 @@
         <v/>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':138,'name':'security','unicode':'E989','decimal':59785,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['security','warning','alert','shield','exclaimation'],'usage':''}</v>
       </c>
       <c r="L139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":138,"name":"security","unicode":"E989","decimal":59785,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["security","warning","alert","shield","exclaimation"],"usage":""}</v>
       </c>
     </row>
@@ -34273,11 +34406,11 @@
         <v/>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':139,'name':'security-access','unicode':'E98A','decimal':59786,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['access','security','key'],'usage':''}</v>
       </c>
       <c r="L140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":139,"name":"security-access","unicode":"E98A","decimal":59786,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["access","security","key"],"usage":""}</v>
       </c>
     </row>
@@ -34323,11 +34456,11 @@
         <v/>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':140,'name':'security-lock','unicode':'E98B','decimal':59787,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['access','security','lock','permission'],'usage':''}</v>
       </c>
       <c r="L141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":140,"name":"security-lock","unicode":"E98B","decimal":59787,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["access","security","lock","permission"],"usage":""}</v>
       </c>
     </row>
@@ -34373,11 +34506,11 @@
         <v/>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':141,'name':'security-lock-fill','unicode':'E98C','decimal':59788,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['access','security','lock','permission'],'usage':''}</v>
       </c>
       <c r="L142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":141,"name":"security-lock-fill","unicode":"E98C","decimal":59788,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["access","security","lock","permission"],"usage":""}</v>
       </c>
     </row>
@@ -34423,11 +34556,11 @@
         <v/>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':142,'name':'security-unlock','unicode':'E98D','decimal':59789,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['access','security','lock','permission','unlock'],'usage':''}</v>
       </c>
       <c r="L143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":142,"name":"security-unlock","unicode":"E98D","decimal":59789,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["access","security","lock","permission","unlock"],"usage":""}</v>
       </c>
     </row>
@@ -34473,11 +34606,11 @@
         <v/>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':143,'name':'security-unlock-fill','unicode':'E98E','decimal':59790,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['access','security','lock','permission','unlock'],'usage':''}</v>
       </c>
       <c r="L144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":143,"name":"security-unlock-fill","unicode":"E98E","decimal":59790,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["access","security","lock","permission","unlock"],"usage":""}</v>
       </c>
     </row>
@@ -34523,11 +34656,11 @@
         <v/>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':144,'name':'settings-gear','unicode':'E98F','decimal':59791,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['settings','gear'],'usage':''}</v>
       </c>
       <c r="L145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":144,"name":"settings-gear","unicode":"E98F","decimal":59791,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["settings","gear"],"usage":""}</v>
       </c>
     </row>
@@ -34573,11 +34706,11 @@
         <v/>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':145,'name':'settings-gear-outline','unicode':'E990','decimal':59792,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":145,"name":"settings-gear-outline","unicode":"E990","decimal":59792,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -34623,11 +34756,11 @@
         <v/>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':146,'name':'settings-wrench','unicode':'E991','decimal':59793,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['settings','wrench','property'],'usage':''}</v>
       </c>
       <c r="L147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":146,"name":"settings-wrench","unicode":"E991","decimal":59793,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["settings","wrench","property"],"usage":""}</v>
       </c>
     </row>
@@ -34673,11 +34806,11 @@
         <v/>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':147,'name':'trash','unicode':'E992','decimal':59794,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":147,"name":"trash","unicode":"E992","decimal":59794,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -34723,11 +34856,11 @@
         <v/>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':148,'name':'share','unicode':'E993','decimal':59795,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['share'],'usage':''}</v>
       </c>
       <c r="L149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":148,"name":"share","unicode":"E993","decimal":59795,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["share"],"usage":""}</v>
       </c>
     </row>
@@ -34773,11 +34906,11 @@
         <v/>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':149,'name':'shop','unicode':'E994','decimal':59796,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['store','shop'],'usage':''}</v>
       </c>
       <c r="L150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":149,"name":"shop","unicode":"E994","decimal":59796,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["store","shop"],"usage":""}</v>
       </c>
     </row>
@@ -34823,11 +34956,11 @@
         <v/>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':150,'name':'shop-server','unicode':'E995','decimal':59797,'version':'1.0','style':'bold','subset':'VSTS','group':'common','keywords':['store','shop','on-prem','local','server','intranet'],'usage':''}</v>
       </c>
       <c r="L151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":150,"name":"shop-server","unicode":"E995","decimal":59797,"version":"1.0","style":"bold","subset":"VSTS","group":"common","keywords":["store","shop","on-prem","local","server","intranet"],"usage":""}</v>
       </c>
     </row>
@@ -34873,11 +35006,11 @@
         <v/>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':151,'name':'tag','unicode':'E996','decimal':59798,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":151,"name":"tag","unicode":"E996","decimal":59798,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -34923,11 +35056,11 @@
         <v/>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':152,'name':'tag-fill','unicode':'E997','decimal':59799,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":152,"name":"tag-fill","unicode":"E997","decimal":59799,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -34973,11 +35106,11 @@
         <v/>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':153,'name':'user','unicode':'E998','decimal':59800,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":153,"name":"user","unicode":"E998","decimal":59800,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35023,11 +35156,11 @@
         <v/>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':154,'name':'users','unicode':'E999','decimal':59801,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":154,"name":"users","unicode":"E999","decimal":59801,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35073,11 +35206,11 @@
         <v/>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':155,'name':'variable','unicode':'E99A','decimal':59802,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":155,"name":"variable","unicode":"E99A","decimal":59802,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35123,11 +35256,11 @@
         <v/>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':156,'name':'video','unicode':'E99B','decimal':59803,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":156,"name":"video","unicode":"E99B","decimal":59803,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35173,11 +35306,11 @@
         <v/>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':157,'name':'view-grid','unicode':'E99C','decimal':59804,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":157,"name":"view-grid","unicode":"E99C","decimal":59804,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35223,11 +35356,11 @@
         <v/>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':158,'name':'watch-eye','unicode':'E99D','decimal':59805,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":158,"name":"watch-eye","unicode":"E99D","decimal":59805,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35273,11 +35406,11 @@
         <v/>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':159,'name':'watch-eye-fill','unicode':'E99E','decimal':59806,'version':'1.0','style':'','subset':'VSTS','group':'common','keywords':[''],'usage':''}</v>
       </c>
       <c r="L160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":159,"name":"watch-eye-fill","unicode":"E99E","decimal":59806,"version":"1.0","style":"","subset":"VSTS","group":"common","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35323,11 +35456,11 @@
         <v>Used in Kanban board for toggle listen to live update.</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':160,'name':'live-update-feed','unicode':'E99F','decimal':59807,'version':'1.0','style':'light','subset':'VSTS','group':'common','keywords':['live','update','feed','signal','broadcast','radar'],'usage':'Used in Kanban board for toggle listen to live update.'}</v>
       </c>
       <c r="L161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":160,"name":"live-update-feed","unicode":"E99F","decimal":59807,"version":"1.0","style":"light","subset":"VSTS","group":"common","keywords":["live","update","feed","signal","broadcast","radar"],"usage":"Used in Kanban board for toggle listen to live update."}</v>
       </c>
     </row>
@@ -35373,11 +35506,11 @@
         <v>Checkbox checked.</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':161,'name':'checkbox','unicode':'E9A0','decimal':59808,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['checkbox','checked','check','checkmark'],'usage':'Checkbox checked.'}</v>
       </c>
       <c r="L162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":161,"name":"checkbox","unicode":"E9A0","decimal":59808,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["checkbox","checked","check","checkmark"],"usage":"Checkbox checked."}</v>
       </c>
     </row>
@@ -35423,11 +35556,11 @@
         <v>Checkebox empty. Note that this box alignment is different from stop icon. This is only used for checkbox.</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':162,'name':'checkbox-empty','unicode':'E9A1','decimal':59809,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['checkbox','box','square'],'usage':'Checkebox empty. Note that this box alignment is different from stop icon. This is only used for checkbox.'}</v>
       </c>
       <c r="L163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":162,"name":"checkbox-empty","unicode":"E9A1","decimal":59809,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["checkbox","box","square"],"usage":"Checkebox empty. Note that this box alignment is different from stop icon. This is only used for checkbox."}</v>
       </c>
     </row>
@@ -35473,11 +35606,11 @@
         <v>Small version used for collapse/expand panels.</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':163,'name':'chevron-up','unicode':'E9A2','decimal':59810,'version':'1.0','style':'small','subset':'VSTS','group':'control','keywords':['chevron','up','expand','collpase'],'usage':'Small version used for collapse/expand panels.'}</v>
       </c>
       <c r="L164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":163,"name":"chevron-up","unicode":"E9A2","decimal":59810,"version":"1.0","style":"small","subset":"VSTS","group":"control","keywords":["chevron","up","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
@@ -35523,11 +35656,11 @@
         <v>Small version used for collapse/expand panels.</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':164,'name':'chevron-left','unicode':'E9A3','decimal':59811,'version':'1.0','style':'small','subset':'VSTS','group':'control','keywords':['chevron','left','expand','collpase'],'usage':'Small version used for collapse/expand panels.'}</v>
       </c>
       <c r="L165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":164,"name":"chevron-left","unicode":"E9A3","decimal":59811,"version":"1.0","style":"small","subset":"VSTS","group":"control","keywords":["chevron","left","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
@@ -35573,11 +35706,11 @@
         <v>Small version used for collapse/expand panels.</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':165,'name':'chevron-down','unicode':'E9A4','decimal':59812,'version':'1.0','style':'small','subset':'VSTS','group':'control','keywords':['chevron','down','expand','collpase','dropdown'],'usage':'Small version used for collapse/expand panels.'}</v>
       </c>
       <c r="L166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":165,"name":"chevron-down","unicode":"E9A4","decimal":59812,"version":"1.0","style":"small","subset":"VSTS","group":"control","keywords":["chevron","down","expand","collpase","dropdown"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
@@ -35623,11 +35756,11 @@
         <v>Small version used for collapse/expand panels.</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':166,'name':'chevron-right','unicode':'E9A5','decimal':59813,'version':'1.0','style':'small','subset':'VSTS','group':'control','keywords':['chevron','right','expand','collpase'],'usage':'Small version used for collapse/expand panels.'}</v>
       </c>
       <c r="L167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":166,"name":"chevron-right","unicode":"E9A5","decimal":59813,"version":"1.0","style":"small","subset":"VSTS","group":"control","keywords":["chevron","right","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
@@ -35673,11 +35806,11 @@
         <v>Big version used for dialog split button dropup.</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':167,'name':'chevron-up-light','unicode':'E9A6','decimal':59814,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['chevron','up','expand','collpase'],'usage':'Big version used for dialog split button dropup.'}</v>
       </c>
       <c r="L168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":167,"name":"chevron-up-light","unicode":"E9A6","decimal":59814,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["chevron","up","expand","collpase"],"usage":"Big version used for dialog split button dropup."}</v>
       </c>
     </row>
@@ -35723,11 +35856,11 @@
         <v>Created to match the other big chevron icons.</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':168,'name':'chevron-left-light','unicode':'E9A7','decimal':59815,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['chevron','left','expand','collpase'],'usage':'Created to match the other big chevron icons.'}</v>
       </c>
       <c r="L169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":168,"name":"chevron-left-light","unicode":"E9A7","decimal":59815,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["chevron","left","expand","collpase"],"usage":"Created to match the other big chevron icons."}</v>
       </c>
     </row>
@@ -35773,11 +35906,11 @@
         <v>Big version used for dialog split button dropdown.</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':169,'name':'chevron-down-light','unicode':'E9A8','decimal':59816,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['chevron','down','expand','collpase','dropdown'],'usage':'Big version used for dialog split button dropdown.'}</v>
       </c>
       <c r="L170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":169,"name":"chevron-down-light","unicode":"E9A8","decimal":59816,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["chevron","down","expand","collpase","dropdown"],"usage":"Big version used for dialog split button dropdown."}</v>
       </c>
     </row>
@@ -35823,11 +35956,11 @@
         <v>Created to match the other big chevron icons.</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':170,'name':'chevron-right-light','unicode':'E9A9','decimal':59817,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['chevron','right','expand','collpase'],'usage':'Created to match the other big chevron icons.'}</v>
       </c>
       <c r="L171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":170,"name":"chevron-right-light","unicode":"E9A9","decimal":59817,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["chevron","right","expand","collpase"],"usage":"Created to match the other big chevron icons."}</v>
       </c>
     </row>
@@ -35873,11 +36006,11 @@
         <v/>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':171,'name':'chevron-up-all','unicode':'E9AA','decimal':59818,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":171,"name":"chevron-up-all","unicode":"E9AA","decimal":59818,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35923,11 +36056,11 @@
         <v/>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':172,'name':'chevron-left-all','unicode':'E9AB','decimal':59819,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":172,"name":"chevron-left-all","unicode":"E9AB","decimal":59819,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -35973,11 +36106,11 @@
         <v/>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':173,'name':'chevron-down-all','unicode':'E9AC','decimal':59820,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":173,"name":"chevron-down-all","unicode":"E9AC","decimal":59820,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -36023,11 +36156,11 @@
         <v/>
       </c>
       <c r="K175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':174,'name':'chevron-right-all','unicode':'E9AD','decimal':59821,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":174,"name":"chevron-right-all","unicode":"E9AD","decimal":59821,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -36073,11 +36206,11 @@
         <v/>
       </c>
       <c r="K176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':175,'name':'chevron-up-end','unicode':'E9AE','decimal':59822,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":175,"name":"chevron-up-end","unicode":"E9AE","decimal":59822,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -36123,11 +36256,11 @@
         <v/>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':176,'name':'chevron-left-end','unicode':'E9AF','decimal':59823,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":176,"name":"chevron-left-end","unicode":"E9AF","decimal":59823,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -36173,11 +36306,11 @@
         <v/>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':177,'name':'chevron-down-end','unicode':'E9B0','decimal':59824,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":177,"name":"chevron-down-end","unicode":"E9B0","decimal":59824,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -36223,11 +36356,11 @@
         <v/>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':178,'name':'chevron-right-end','unicode':'E9B1','decimal':59825,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":178,"name":"chevron-right-end","unicode":"E9B1","decimal":59825,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -36273,11 +36406,11 @@
         <v/>
       </c>
       <c r="K180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':179,'name':'fold-less','unicode':'E9B2','decimal':59826,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['fold','less','collapse'],'usage':''}</v>
       </c>
       <c r="L180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":179,"name":"fold-less","unicode":"E9B2","decimal":59826,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["fold","less","collapse"],"usage":""}</v>
       </c>
     </row>
@@ -36323,11 +36456,11 @@
         <v/>
       </c>
       <c r="K181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':180,'name':'fold-more','unicode':'E9B3','decimal':59827,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['fold','more','expand'],'usage':''}</v>
       </c>
       <c r="L181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":180,"name":"fold-more","unicode":"E9B3","decimal":59827,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["fold","more","expand"],"usage":""}</v>
       </c>
     </row>
@@ -36373,11 +36506,11 @@
         <v/>
       </c>
       <c r="K182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':181,'name':'ellipsis','unicode':'E9B4','decimal':59828,'version':'1.0','style':'bold','subset':'VSTS','group':'control','keywords':['ellipsis','trim','more','overflow'],'usage':''}</v>
       </c>
       <c r="L182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":181,"name":"ellipsis","unicode":"E9B4","decimal":59828,"version":"1.0","style":"bold","subset":"VSTS","group":"control","keywords":["ellipsis","trim","more","overflow"],"usage":""}</v>
       </c>
     </row>
@@ -36423,11 +36556,11 @@
         <v/>
       </c>
       <c r="K183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':182,'name':'ellipsis-vertical','unicode':'E9B5','decimal':59829,'version':'1.0','style':'bold','subset':'VSTS','group':'control','keywords':['ellipsis','trim','more','overflow'],'usage':''}</v>
       </c>
       <c r="L183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":182,"name":"ellipsis-vertical","unicode":"E9B5","decimal":59829,"version":"1.0","style":"bold","subset":"VSTS","group":"control","keywords":["ellipsis","trim","more","overflow"],"usage":""}</v>
       </c>
     </row>
@@ -36473,11 +36606,11 @@
         <v/>
       </c>
       <c r="K184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':183,'name':'favorite','unicode':'E9B6','decimal':59830,'version':'1.0','style':'bold','subset':'VSTS','group':'control','keywords':['star','favorite','rating'],'usage':''}</v>
       </c>
       <c r="L184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":183,"name":"favorite","unicode":"E9B6","decimal":59830,"version":"1.0","style":"bold","subset":"VSTS","group":"control","keywords":["star","favorite","rating"],"usage":""}</v>
       </c>
     </row>
@@ -36523,11 +36656,11 @@
         <v/>
       </c>
       <c r="K185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':184,'name':'favorite-outline','unicode':'E9B7','decimal':59831,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['star','favorite','rating'],'usage':''}</v>
       </c>
       <c r="L185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":184,"name":"favorite-outline","unicode":"E9B7","decimal":59831,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["star","favorite","rating"],"usage":""}</v>
       </c>
     </row>
@@ -36573,11 +36706,11 @@
         <v/>
       </c>
       <c r="K186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':185,'name':'star-half','unicode':'E9B8','decimal':59832,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['star','favorite','rating','half'],'usage':''}</v>
       </c>
       <c r="L186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":185,"name":"star-half","unicode":"E9B8","decimal":59832,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["star","favorite","rating","half"],"usage":""}</v>
       </c>
     </row>
@@ -36623,11 +36756,11 @@
         <v/>
       </c>
       <c r="K187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':186,'name':'pin','unicode':'E9B9','decimal':59833,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['pushpin','pin'],'usage':''}</v>
       </c>
       <c r="L187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":186,"name":"pin","unicode":"E9B9","decimal":59833,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
@@ -36673,11 +36806,11 @@
         <v/>
       </c>
       <c r="K188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':187,'name':'pin-fill','unicode':'E9BA','decimal':59834,'version':'1.0','style':'bold','subset':'VSTS','group':'control','keywords':['pushpin','pin'],'usage':''}</v>
       </c>
       <c r="L188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":187,"name":"pin-fill","unicode":"E9BA","decimal":59834,"version":"1.0","style":"bold","subset":"VSTS","group":"control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
@@ -36723,11 +36856,11 @@
         <v/>
       </c>
       <c r="K189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':188,'name':'pin-pinned','unicode':'E9BB','decimal':59835,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['pushpin','pin'],'usage':''}</v>
       </c>
       <c r="L189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":188,"name":"pin-pinned","unicode":"E9BB","decimal":59835,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
@@ -36773,11 +36906,11 @@
         <v/>
       </c>
       <c r="K190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':189,'name':'pin-pinned-fill','unicode':'E9BC','decimal':59836,'version':'1.0','style':'bold','subset':'VSTS','group':'control','keywords':['pushpin','pin'],'usage':''}</v>
       </c>
       <c r="L190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":189,"name":"pin-pinned-fill","unicode":"E9BC","decimal":59836,"version":"1.0","style":"bold","subset":"VSTS","group":"control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
@@ -36823,11 +36956,11 @@
         <v/>
       </c>
       <c r="K191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':190,'name':'pin-unpin','unicode':'E9BD','decimal':59837,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['pushpin','pin'],'usage':''}</v>
       </c>
       <c r="L191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":190,"name":"pin-unpin","unicode":"E9BD","decimal":59837,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
@@ -36873,11 +37006,11 @@
         <v/>
       </c>
       <c r="K192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':191,'name':'pin-unpin-fill','unicode':'E9BE','decimal':59838,'version':'1.0','style':'bold','subset':'VSTS','group':'control','keywords':['pushpin','pin'],'usage':''}</v>
       </c>
       <c r="L192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":191,"name":"pin-unpin-fill","unicode":"E9BE","decimal":59838,"version":"1.0","style":"bold","subset":"VSTS","group":"control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
@@ -36923,11 +37056,11 @@
         <v/>
       </c>
       <c r="K193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':192,'name':'radio-button','unicode':'E9BF','decimal':59839,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['radio','button','choice','circle'],'usage':''}</v>
       </c>
       <c r="L193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":192,"name":"radio-button","unicode":"E9BF","decimal":59839,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["radio","button","choice","circle"],"usage":""}</v>
       </c>
     </row>
@@ -36973,11 +37106,11 @@
         <v/>
       </c>
       <c r="K194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>{'id':193,'name':'radio-button-empty','unicode':'E9C0','decimal':59840,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['radio','button','choice','circle'],'usage':''}</v>
       </c>
       <c r="L194" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{"id":193,"name":"radio-button-empty","unicode":"E9C0","decimal":59840,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["radio","button","choice","circle"],"usage":""}</v>
       </c>
     </row>
@@ -37023,11 +37156,11 @@
         <v/>
       </c>
       <c r="K195" t="str">
-        <f t="shared" ref="K195:K258" si="6">IF(NOT(ISBLANK(A195)),CONCATENATE("{'",$A$1,"':",A195,",'",$B$1,"':'",B195,"',","'",$C$1,"':'",C195,"','",$D$1,"':",D195,",'",$E$1,"':'",FIXED(E195,1),"','",$F$1,"':'",F195,"','",$G$1,"':'",G195,"','",$H$1,"':'",H195,"','",$I$1,"':['",SUBSTITUTE(I195," ","','"),"'],'",$J$1,"':'",J195,"'}"))</f>
+        <f t="shared" si="6"/>
         <v>{'id':194,'name':'resize-grip','unicode':'E9C1','decimal':59841,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L195" t="str">
-        <f t="shared" ref="L195:L258" si="7">SUBSTITUTE(K195,"'","""")</f>
+        <f t="shared" si="7"/>
         <v>{"id":194,"name":"resize-grip","unicode":"E9C1","decimal":59841,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37323,11 +37456,11 @@
         <v/>
       </c>
       <c r="K201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K201:K264" si="8">IF(NOT(ISBLANK(A201)),CONCATENATE("{'",$A$1,"':",A201,",'",$B$1,"':'",B201,"',","'",$C$1,"':'",C201,"','",$D$1,"':",D201,",'",$E$1,"':'",FIXED(E201,1),"','",$F$1,"':'",F201,"','",$G$1,"':'",G201,"','",$H$1,"':'",H201,"','",$I$1,"':['",SUBSTITUTE(I201," ","','"),"'],'",$J$1,"':'",J201,"'}"))</f>
         <v>{'id':200,'name':'triangle-up','unicode':'E9C7','decimal':59847,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L201:L264" si="9">SUBSTITUTE(K201,"'","""")</f>
         <v>{"id":200,"name":"triangle-up","unicode":"E9C7","decimal":59847,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37373,11 +37506,11 @@
         <v/>
       </c>
       <c r="K202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':201,'name':'triangle-left','unicode':'E9C8','decimal':59848,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":201,"name":"triangle-left","unicode":"E9C8","decimal":59848,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37423,11 +37556,11 @@
         <v/>
       </c>
       <c r="K203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':202,'name':'triangle-down','unicode':'E9C9','decimal':59849,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":202,"name":"triangle-down","unicode":"E9C9","decimal":59849,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37473,11 +37606,11 @@
         <v/>
       </c>
       <c r="K204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':203,'name':'triangle-right','unicode':'E9CA','decimal':59850,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":203,"name":"triangle-right","unicode":"E9CA","decimal":59850,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37523,11 +37656,11 @@
         <v/>
       </c>
       <c r="K205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':204,'name':'toggle-tree-expanded','unicode':'E9CB','decimal':59851,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":204,"name":"toggle-tree-expanded","unicode":"E9CB","decimal":59851,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37573,11 +37706,11 @@
         <v/>
       </c>
       <c r="K206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':205,'name':'toggle-tree-expanded-outline','unicode':'E9CC','decimal':59852,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":205,"name":"toggle-tree-expanded-outline","unicode":"E9CC","decimal":59852,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37623,11 +37756,11 @@
         <v/>
       </c>
       <c r="K207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':206,'name':'toggle-tree-collapsed','unicode':'E9CD','decimal':59853,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":206,"name":"toggle-tree-collapsed","unicode":"E9CD","decimal":59853,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37673,11 +37806,11 @@
         <v/>
       </c>
       <c r="K208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':207,'name':'view-full-screen','unicode':'E9CE','decimal':59854,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":207,"name":"view-full-screen","unicode":"E9CE","decimal":59854,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37723,11 +37856,11 @@
         <v/>
       </c>
       <c r="K209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':208,'name':'view-full-screen-exit','unicode':'E9CF','decimal':59855,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":208,"name":"view-full-screen-exit","unicode":"E9CF","decimal":59855,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37773,11 +37906,11 @@
         <v/>
       </c>
       <c r="K210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':209,'name':'navigate-external','unicode':'E9D0','decimal':59856,'version':'1.0','style':'light','subset':'VSTS','group':'control','keywords':['navigate','external'],'usage':''}</v>
       </c>
       <c r="L210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":209,"name":"navigate-external","unicode":"E9D0","decimal":59856,"version":"1.0","style":"light","subset":"VSTS","group":"control","keywords":["navigate","external"],"usage":""}</v>
       </c>
     </row>
@@ -37823,11 +37956,11 @@
         <v/>
       </c>
       <c r="K211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':210,'name':'work-item-bar','unicode':'E9D1','decimal':59857,'version':'1.0','style':'','subset':'VSTS','group':'control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":210,"name":"work-item-bar","unicode":"E9D1","decimal":59857,"version":"1.0","style":"","subset":"VSTS","group":"control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37873,11 +38006,11 @@
         <v/>
       </c>
       <c r="K212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':211,'name':'format-font','unicode':'E9D2','decimal':59858,'version':'1.0','style':'','subset':'VSTS','group':'editor','keywords':[''],'usage':''}</v>
       </c>
       <c r="L212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":211,"name":"format-font","unicode":"E9D2","decimal":59858,"version":"1.0","style":"","subset":"VSTS","group":"editor","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -37923,11 +38056,11 @@
         <v/>
       </c>
       <c r="K213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':212,'name':'format-bold','unicode':'E9D3','decimal':59859,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','bold'],'usage':''}</v>
       </c>
       <c r="L213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":212,"name":"format-bold","unicode":"E9D3","decimal":59859,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","bold"],"usage":""}</v>
       </c>
     </row>
@@ -37973,11 +38106,11 @@
         <v/>
       </c>
       <c r="K214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':213,'name':'format-italic','unicode':'E9D4','decimal':59860,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','font','italic'],'usage':''}</v>
       </c>
       <c r="L214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":213,"name":"format-italic","unicode":"E9D4","decimal":59860,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","font","italic"],"usage":""}</v>
       </c>
     </row>
@@ -38023,11 +38156,11 @@
         <v/>
       </c>
       <c r="K215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':214,'name':'format-underline','unicode':'E9D5','decimal':59861,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','font','underline'],'usage':''}</v>
       </c>
       <c r="L215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":214,"name":"format-underline","unicode":"E9D5","decimal":59861,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","font","underline"],"usage":""}</v>
       </c>
     </row>
@@ -38073,11 +38206,11 @@
         <v/>
       </c>
       <c r="K216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':215,'name':'format-font-color','unicode':'E9D6','decimal':59862,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','font','color'],'usage':''}</v>
       </c>
       <c r="L216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":215,"name":"format-font-color","unicode":"E9D6","decimal":59862,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","font","color"],"usage":""}</v>
       </c>
     </row>
@@ -38123,11 +38256,11 @@
         <v/>
       </c>
       <c r="K217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':216,'name':'format-font-size','unicode':'E9D7','decimal':59863,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','font','size'],'usage':''}</v>
       </c>
       <c r="L217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":216,"name":"format-font-size","unicode":"E9D7","decimal":59863,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","font","size"],"usage":""}</v>
       </c>
     </row>
@@ -38173,11 +38306,11 @@
         <v/>
       </c>
       <c r="K218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':217,'name':'format-clear','unicode':'E9D8','decimal':59864,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','clear','erase'],'usage':''}</v>
       </c>
       <c r="L218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":217,"name":"format-clear","unicode":"E9D8","decimal":59864,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","clear","erase"],"usage":""}</v>
       </c>
     </row>
@@ -38223,11 +38356,11 @@
         <v/>
       </c>
       <c r="K219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':218,'name':'format-indent-decrease','unicode':'E9D9','decimal':59865,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','text','indent','decrease'],'usage':''}</v>
       </c>
       <c r="L219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":218,"name":"format-indent-decrease","unicode":"E9D9","decimal":59865,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","text","indent","decrease"],"usage":""}</v>
       </c>
     </row>
@@ -38273,11 +38406,11 @@
         <v/>
       </c>
       <c r="K220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':219,'name':'format-indent-increase','unicode':'E9DA','decimal':59866,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','text','indent','increase'],'usage':''}</v>
       </c>
       <c r="L220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":219,"name":"format-indent-increase","unicode":"E9DA","decimal":59866,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","text","indent","increase"],"usage":""}</v>
       </c>
     </row>
@@ -38323,11 +38456,11 @@
         <v/>
       </c>
       <c r="K221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':220,'name':'format-list-ordered','unicode':'E9DB','decimal':59867,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','list','ordered','number'],'usage':''}</v>
       </c>
       <c r="L221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":220,"name":"format-list-ordered","unicode":"E9DB","decimal":59867,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","list","ordered","number"],"usage":""}</v>
       </c>
     </row>
@@ -38373,11 +38506,11 @@
         <v/>
       </c>
       <c r="K222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':221,'name':'format-list-unordered','unicode':'E9DC','decimal':59868,'version':'1.0','style':'light','subset':'VSTS','group':'editor','keywords':['format','list','unordered','bullet'],'usage':''}</v>
       </c>
       <c r="L222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":221,"name":"format-list-unordered","unicode":"E9DC","decimal":59868,"version":"1.0","style":"light","subset":"VSTS","group":"editor","keywords":["format","list","unordered","bullet"],"usage":""}</v>
       </c>
     </row>
@@ -38423,11 +38556,11 @@
         <v/>
       </c>
       <c r="K223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':222,'name':'file','unicode':'E9DD','decimal':59869,'version':'1.0','style':'light','subset':'VSTS','group':'file','keywords':['file'],'usage':''}</v>
       </c>
       <c r="L223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":222,"name":"file","unicode":"E9DD","decimal":59869,"version":"1.0","style":"light","subset":"VSTS","group":"file","keywords":["file"],"usage":""}</v>
       </c>
     </row>
@@ -38473,11 +38606,11 @@
         <v/>
       </c>
       <c r="K224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':223,'name':'file-bug','unicode':'E9DE','decimal':59870,'version':'1.0','style':'','subset':'VSTS','group':'file','keywords':[''],'usage':''}</v>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":223,"name":"file-bug","unicode":"E9DE","decimal":59870,"version":"1.0","style":"","subset":"VSTS","group":"file","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -38523,11 +38656,11 @@
         <v/>
       </c>
       <c r="K225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':224,'name':'file-code','unicode':'E9DF','decimal':59871,'version':'1.0','style':'light','subset':'VSTS','group':'file','keywords':['file','code'],'usage':''}</v>
       </c>
       <c r="L225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":224,"name":"file-code","unicode":"E9DF","decimal":59871,"version":"1.0","style":"light","subset":"VSTS","group":"file","keywords":["file","code"],"usage":""}</v>
       </c>
     </row>
@@ -38573,11 +38706,11 @@
         <v/>
       </c>
       <c r="K226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':225,'name':'file-comment','unicode':'E9E0','decimal':59872,'version':'1.0','style':'light','subset':'VSTS','group':'file','keywords':['file','comment'],'usage':''}</v>
       </c>
       <c r="L226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":225,"name":"file-comment","unicode":"E9E0","decimal":59872,"version":"1.0","style":"light","subset":"VSTS","group":"file","keywords":["file","comment"],"usage":""}</v>
       </c>
     </row>
@@ -38623,11 +38756,11 @@
         <v/>
       </c>
       <c r="K227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':226,'name':'file-content','unicode':'E9E1','decimal':59873,'version':'1.0','style':'light','subset':'VSTS','group':'file','keywords':['file','text','content','code'],'usage':''}</v>
       </c>
       <c r="L227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":226,"name":"file-content","unicode":"E9E1","decimal":59873,"version":"1.0","style":"light","subset":"VSTS","group":"file","keywords":["file","text","content","code"],"usage":""}</v>
       </c>
     </row>
@@ -38673,11 +38806,11 @@
         <v/>
       </c>
       <c r="K228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':227,'name':'file-image','unicode':'E9E2','decimal':59874,'version':'1.0','style':'light','subset':'VSTS','group':'file','keywords':['file','image'],'usage':''}</v>
       </c>
       <c r="L228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":227,"name":"file-image","unicode":"E9E2","decimal":59874,"version":"1.0","style":"light","subset":"VSTS","group":"file","keywords":["file","image"],"usage":""}</v>
       </c>
     </row>
@@ -38723,11 +38856,11 @@
         <v/>
       </c>
       <c r="K229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':228,'name':'file-preview','unicode':'E9E3','decimal':59875,'version':'1.0','style':'light','subset':'VSTS','group':'file','keywords':['file','preview','search','lookup'],'usage':''}</v>
       </c>
       <c r="L229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":228,"name":"file-preview","unicode":"E9E3","decimal":59875,"version":"1.0","style":"light","subset":"VSTS","group":"file","keywords":["file","preview","search","lookup"],"usage":""}</v>
       </c>
     </row>
@@ -38773,11 +38906,11 @@
         <v/>
       </c>
       <c r="K230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':229,'name':'file-symlink','unicode':'E9E4','decimal':59876,'version':'1.0','style':'light','subset':'VSTS','group':'file','keywords':['file','external','symlink','shortcut'],'usage':''}</v>
       </c>
       <c r="L230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":229,"name":"file-symlink","unicode":"E9E4","decimal":59876,"version":"1.0","style":"light","subset":"VSTS","group":"file","keywords":["file","external","symlink","shortcut"],"usage":""}</v>
       </c>
     </row>
@@ -38823,11 +38956,11 @@
         <v>check if it is same as play</v>
       </c>
       <c r="K231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':230,'name':'media-play','unicode':'E9E5','decimal':59877,'version':'1.0','style':'light','subset':'VSTS','group':'media','keywords':['media','play'],'usage':'check if it is same as play'}</v>
       </c>
       <c r="L231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":230,"name":"media-play","unicode":"E9E5","decimal":59877,"version":"1.0","style":"light","subset":"VSTS","group":"media","keywords":["media","play"],"usage":"check if it is same as play"}</v>
       </c>
     </row>
@@ -38873,11 +39006,11 @@
         <v>check if it is same as play-fill</v>
       </c>
       <c r="K232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':231,'name':'media-play-fill','unicode':'E9E6','decimal':59878,'version':'1.0','style':'bold','subset':'VSTS','group':'media','keywords':['media','play'],'usage':'check if it is same as play-fill'}</v>
       </c>
       <c r="L232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":231,"name":"media-play-fill","unicode":"E9E6","decimal":59878,"version":"1.0","style":"bold","subset":"VSTS","group":"media","keywords":["media","play"],"usage":"check if it is same as play-fill"}</v>
       </c>
     </row>
@@ -38923,11 +39056,11 @@
         <v/>
       </c>
       <c r="K233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':232,'name':'play','unicode':'E9E7','decimal':59879,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":232,"name":"play","unicode":"E9E7","decimal":59879,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -38973,11 +39106,11 @@
         <v/>
       </c>
       <c r="K234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':233,'name':'play-fill','unicode':'E9E8','decimal':59880,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":233,"name":"play-fill","unicode":"E9E8","decimal":59880,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39023,11 +39156,11 @@
         <v/>
       </c>
       <c r="K235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':234,'name':'pause','unicode':'E9E9','decimal':59881,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":234,"name":"pause","unicode":"E9E9","decimal":59881,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39073,11 +39206,11 @@
         <v/>
       </c>
       <c r="K236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':235,'name':'pause-fill','unicode':'E9EA','decimal':59882,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":235,"name":"pause-fill","unicode":"E9EA","decimal":59882,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39123,11 +39256,11 @@
         <v/>
       </c>
       <c r="K237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':236,'name':'play-resume','unicode':'E9EB','decimal':59883,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":236,"name":"play-resume","unicode":"E9EB","decimal":59883,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39173,11 +39306,11 @@
         <v/>
       </c>
       <c r="K238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':237,'name':'play-resume-fill','unicode':'E9EC','decimal':59884,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":237,"name":"play-resume-fill","unicode":"E9EC","decimal":59884,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39223,11 +39356,11 @@
         <v/>
       </c>
       <c r="K239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':238,'name':'stop','unicode':'E9ED','decimal':59885,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L239" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":238,"name":"stop","unicode":"E9ED","decimal":59885,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39273,11 +39406,11 @@
         <v/>
       </c>
       <c r="K240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':239,'name':'stop-fill','unicode':'E9EE','decimal':59886,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L240" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":239,"name":"stop-fill","unicode":"E9EE","decimal":59886,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39323,11 +39456,11 @@
         <v/>
       </c>
       <c r="K241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':240,'name':'fast-backward','unicode':'E9EF','decimal':59887,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L241" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":240,"name":"fast-backward","unicode":"E9EF","decimal":59887,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39373,11 +39506,11 @@
         <v/>
       </c>
       <c r="K242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':241,'name':'fast-backward-fill','unicode':'E9F0','decimal':59888,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L242" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":241,"name":"fast-backward-fill","unicode":"E9F0","decimal":59888,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39423,11 +39556,11 @@
         <v/>
       </c>
       <c r="K243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':242,'name':'fast-forward','unicode':'E9F1','decimal':59889,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L243" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":242,"name":"fast-forward","unicode":"E9F1","decimal":59889,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39473,11 +39606,11 @@
         <v/>
       </c>
       <c r="K244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':243,'name':'fast-forward-fill','unicode':'E9F2','decimal':59890,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L244" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":243,"name":"fast-forward-fill","unicode":"E9F2","decimal":59890,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39523,11 +39656,11 @@
         <v/>
       </c>
       <c r="K245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':244,'name':'previous-frame','unicode':'E9F3','decimal':59891,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L245" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":244,"name":"previous-frame","unicode":"E9F3","decimal":59891,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39573,11 +39706,11 @@
         <v/>
       </c>
       <c r="K246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':245,'name':'previous-frame-fill','unicode':'E9F4','decimal':59892,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L246" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":245,"name":"previous-frame-fill","unicode":"E9F4","decimal":59892,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39623,11 +39756,11 @@
         <v/>
       </c>
       <c r="K247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':246,'name':'next-frame','unicode':'E9F5','decimal':59893,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L247" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":246,"name":"next-frame","unicode":"E9F5","decimal":59893,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39673,11 +39806,11 @@
         <v/>
       </c>
       <c r="K248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':247,'name':'next-frame-fill','unicode':'E9F6','decimal':59894,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L248" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":247,"name":"next-frame-fill","unicode":"E9F6","decimal":59894,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39723,11 +39856,11 @@
         <v/>
       </c>
       <c r="K249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':248,'name':'record','unicode':'E9F7','decimal':59895,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L249" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":248,"name":"record","unicode":"E9F7","decimal":59895,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39773,11 +39906,11 @@
         <v/>
       </c>
       <c r="K250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':249,'name':'record-fill','unicode':'E9F8','decimal':59896,'version':'1.0','style':'','subset':'VSTS','group':'media','keywords':[''],'usage':''}</v>
       </c>
       <c r="L250" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":249,"name":"record-fill","unicode":"E9F8","decimal":59896,"version":"1.0","style":"","subset":"VSTS","group":"media","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -39823,11 +39956,11 @@
         <v/>
       </c>
       <c r="K251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':250,'name':'menu','unicode':'E9F9','decimal':59897,'version':'1.0','style':'light','subset':'VSTS','group':'navigation','keywords':['menu','hamburger','line'],'usage':''}</v>
       </c>
       <c r="L251" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":250,"name":"menu","unicode":"E9F9","decimal":59897,"version":"1.0","style":"light","subset":"VSTS","group":"navigation","keywords":["menu","hamburger","line"],"usage":""}</v>
       </c>
     </row>
@@ -39873,11 +40006,11 @@
         <v>used for close. Do not use for delete or remove.</v>
       </c>
       <c r="K252" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':251,'name':'navigate-close','unicode':'E9FA','decimal':59898,'version':'1.0','style':'light','subset':'VSTS','group':'navigation','keywords':['close'],'usage':'used for close. Do not use for delete or remove.'}</v>
       </c>
       <c r="L252" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":251,"name":"navigate-close","unicode":"E9FA","decimal":59898,"version":"1.0","style":"light","subset":"VSTS","group":"navigation","keywords":["close"],"usage":"used for close. Do not use for delete or remove."}</v>
       </c>
     </row>
@@ -39923,11 +40056,11 @@
         <v/>
       </c>
       <c r="K253" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':252,'name':'navigate-back-circle','unicode':'E9FB','decimal':59899,'version':'1.0','style':'light','subset':'VSTS','group':'navigation','keywords':['navigate','back','left','previous','circle','arrow'],'usage':''}</v>
       </c>
       <c r="L253" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":252,"name":"navigate-back-circle","unicode":"E9FB","decimal":59899,"version":"1.0","style":"light","subset":"VSTS","group":"navigation","keywords":["navigate","back","left","previous","circle","arrow"],"usage":""}</v>
       </c>
     </row>
@@ -39973,11 +40106,11 @@
         <v/>
       </c>
       <c r="K254" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':253,'name':'navigate-back-disc','unicode':'E9FC','decimal':59900,'version':'1.0','style':'bold','subset':'VSTS','group':'navigation','keywords':['navigate','back','left','previous','circle','arrow'],'usage':''}</v>
       </c>
       <c r="L254" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":253,"name":"navigate-back-disc","unicode":"E9FC","decimal":59900,"version":"1.0","style":"bold","subset":"VSTS","group":"navigation","keywords":["navigate","back","left","previous","circle","arrow"],"usage":""}</v>
       </c>
     </row>
@@ -40023,11 +40156,11 @@
         <v/>
       </c>
       <c r="K255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':254,'name':'navigate-forward-circle','unicode':'E9FD','decimal':59901,'version':'1.0','style':'light','subset':'VSTS','group':'navigation','keywords':['navigate','forward','right','next','circle','arrow'],'usage':''}</v>
       </c>
       <c r="L255" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":254,"name":"navigate-forward-circle","unicode":"E9FD","decimal":59901,"version":"1.0","style":"light","subset":"VSTS","group":"navigation","keywords":["navigate","forward","right","next","circle","arrow"],"usage":""}</v>
       </c>
     </row>
@@ -40073,11 +40206,11 @@
         <v/>
       </c>
       <c r="K256" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':255,'name':'navigate-forward-disc','unicode':'E9FE','decimal':59902,'version':'1.0','style':'bold','subset':'VSTS','group':'navigation','keywords':['navigate','forward','right','next','circle','arrow'],'usage':''}</v>
       </c>
       <c r="L256" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":255,"name":"navigate-forward-disc","unicode":"E9FE","decimal":59902,"version":"1.0","style":"bold","subset":"VSTS","group":"navigation","keywords":["navigate","forward","right","next","circle","arrow"],"usage":""}</v>
       </c>
     </row>
@@ -40123,11 +40256,11 @@
         <v/>
       </c>
       <c r="K257" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':256,'name':'navigate-history','unicode':'E9FF','decimal':59903,'version':'1.0','style':'light','subset':'VSTS','group':'navigation','keywords':['history','time','version','time','clock','arrow'],'usage':''}</v>
       </c>
       <c r="L257" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":256,"name":"navigate-history","unicode":"E9FF","decimal":59903,"version":"1.0","style":"light","subset":"VSTS","group":"navigation","keywords":["history","time","version","time","clock","arrow"],"usage":""}</v>
       </c>
     </row>
@@ -40173,11 +40306,11 @@
         <v/>
       </c>
       <c r="K258" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>{'id':257,'name':'navigate-refresh','unicode':'EA00','decimal':59904,'version':'1.0','style':'light','subset':'VSTS','group':'navigation','keywords':['refresh','reload','arrow'],'usage':''}</v>
       </c>
       <c r="L258" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>{"id":257,"name":"navigate-refresh","unicode":"EA00","decimal":59904,"version":"1.0","style":"light","subset":"VSTS","group":"navigation","keywords":["refresh","reload","arrow"],"usage":""}</v>
       </c>
     </row>
@@ -40223,11 +40356,11 @@
         <v>intentional duplicate</v>
       </c>
       <c r="K259" t="str">
-        <f t="shared" ref="K259:K322" si="8">IF(NOT(ISBLANK(A259)),CONCATENATE("{'",$A$1,"':",A259,",'",$B$1,"':'",B259,"',","'",$C$1,"':'",C259,"','",$D$1,"':",D259,",'",$E$1,"':'",FIXED(E259,1),"','",$F$1,"':'",F259,"','",$G$1,"':'",G259,"','",$H$1,"':'",H259,"','",$I$1,"':['",SUBSTITUTE(I259," ","','"),"'],'",$J$1,"':'",J259,"'}"))</f>
+        <f t="shared" si="8"/>
         <v>{'id':258,'name':'navigate-reload','unicode':'EA01','decimal':59905,'version':'1.0','style':'light','subset':'VSTS','group':'navigation','keywords':['refresh','reload','arrow'],'usage':'intentional duplicate'}</v>
       </c>
       <c r="L259" t="str">
-        <f t="shared" ref="L259:L322" si="9">SUBSTITUTE(K259,"'","""")</f>
+        <f t="shared" si="9"/>
         <v>{"id":258,"name":"navigate-reload","unicode":"EA01","decimal":59905,"version":"1.0","style":"light","subset":"VSTS","group":"navigation","keywords":["refresh","reload","arrow"],"usage":"intentional duplicate"}</v>
       </c>
     </row>
@@ -40523,11 +40656,11 @@
         <v/>
       </c>
       <c r="K265" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K265:K328" si="10">IF(NOT(ISBLANK(A265)),CONCATENATE("{'",$A$1,"':",A265,",'",$B$1,"':'",B265,"',","'",$C$1,"':'",C265,"','",$D$1,"':",D265,",'",$E$1,"':'",FIXED(E265,1),"','",$F$1,"':'",F265,"','",$G$1,"':'",G265,"','",$H$1,"':'",H265,"','",$I$1,"':['",SUBSTITUTE(I265," ","','"),"'],'",$J$1,"':'",J265,"'}"))</f>
         <v>{'id':264,'name':'status-help-outline','unicode':'EA07','decimal':59911,'version':'1.0','style':'light','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L265" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L265:L328" si="11">SUBSTITUTE(K265,"'","""")</f>
         <v>{"id":264,"name":"status-help-outline","unicode":"EA07","decimal":59911,"version":"1.0","style":"light","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40573,11 +40706,11 @@
         <v/>
       </c>
       <c r="K266" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':265,'name':'status-info','unicode':'EA08','decimal':59912,'version':'1.0','style':'bold','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L266" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":265,"name":"status-info","unicode":"EA08","decimal":59912,"version":"1.0","style":"bold","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40623,11 +40756,11 @@
         <v/>
       </c>
       <c r="K267" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':266,'name':'status-info-outline','unicode':'EA09','decimal':59913,'version':'1.0','style':'light','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L267" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":266,"name":"status-info-outline","unicode":"EA09","decimal":59913,"version":"1.0","style":"light","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40673,11 +40806,11 @@
         <v/>
       </c>
       <c r="K268" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':267,'name':'status-no','unicode':'EA0A','decimal':59914,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L268" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":267,"name":"status-no","unicode":"EA0A","decimal":59914,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40723,11 +40856,11 @@
         <v/>
       </c>
       <c r="K269" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':268,'name':'status-no-fill','unicode':'EA0B','decimal':59915,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L269" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":268,"name":"status-no-fill","unicode":"EA0B","decimal":59915,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40773,11 +40906,11 @@
         <v/>
       </c>
       <c r="K270" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':269,'name':'status-pause','unicode':'EA0C','decimal':59916,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L270" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":269,"name":"status-pause","unicode":"EA0C","decimal":59916,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40823,11 +40956,11 @@
         <v/>
       </c>
       <c r="K271" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':270,'name':'status-pause-outline','unicode':'EA0D','decimal':59917,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L271" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":270,"name":"status-pause-outline","unicode":"EA0D","decimal":59917,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40873,11 +41006,11 @@
         <v/>
       </c>
       <c r="K272" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':271,'name':'status-run','unicode':'EA0E','decimal':59918,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L272" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":271,"name":"status-run","unicode":"EA0E","decimal":59918,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40923,11 +41056,11 @@
         <v/>
       </c>
       <c r="K273" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':272,'name':'status-run-outline','unicode':'EA0F','decimal':59919,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L273" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":272,"name":"status-run-outline","unicode":"EA0F","decimal":59919,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -40973,11 +41106,11 @@
         <v/>
       </c>
       <c r="K274" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':273,'name':'status-stop','unicode':'EA10','decimal':59920,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L274" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":273,"name":"status-stop","unicode":"EA10","decimal":59920,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41023,11 +41156,11 @@
         <v/>
       </c>
       <c r="K275" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':274,'name':'status-stop-outline','unicode':'EA11','decimal':59921,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L275" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":274,"name":"status-stop-outline","unicode":"EA11","decimal":59921,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41073,11 +41206,11 @@
         <v/>
       </c>
       <c r="K276" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':275,'name':'status-success','unicode':'EA12','decimal':59922,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L276" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":275,"name":"status-success","unicode":"EA12","decimal":59922,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41123,11 +41256,11 @@
         <v/>
       </c>
       <c r="K277" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':276,'name':'status-success-outline','unicode':'EA13','decimal':59923,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L277" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":276,"name":"status-success-outline","unicode":"EA13","decimal":59923,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41173,11 +41306,11 @@
         <v/>
       </c>
       <c r="K278" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':277,'name':'status-waiting','unicode':'EA14','decimal':59924,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L278" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":277,"name":"status-waiting","unicode":"EA14","decimal":59924,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41223,11 +41356,11 @@
         <v/>
       </c>
       <c r="K279" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':278,'name':'status-waiting-fill','unicode':'EA15','decimal':59925,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L279" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":278,"name":"status-waiting-fill","unicode":"EA15","decimal":59925,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41273,11 +41406,11 @@
         <v/>
       </c>
       <c r="K280" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':279,'name':'status-warning','unicode':'EA16','decimal':59926,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L280" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":279,"name":"status-warning","unicode":"EA16","decimal":59926,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41323,11 +41456,11 @@
         <v/>
       </c>
       <c r="K281" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':280,'name':'status-warning-outline','unicode':'EA17','decimal':59927,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L281" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":280,"name":"status-warning-outline","unicode":"EA17","decimal":59927,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41373,11 +41506,11 @@
         <v/>
       </c>
       <c r="K282" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':281,'name':'status-success-box','unicode':'EA18','decimal':59928,'version':'1.0','style':'','subset':'VSTS','group':'status','keywords':[''],'usage':''}</v>
       </c>
       <c r="L282" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":281,"name":"status-success-box","unicode":"EA18","decimal":59928,"version":"1.0","style":"","subset":"VSTS","group":"status","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41423,11 +41556,11 @@
         <v/>
       </c>
       <c r="K283" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':282,'name':'test-fill','unicode':'EA19','decimal':59929,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L283" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":282,"name":"test-fill","unicode":"EA19","decimal":59929,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41473,11 +41606,11 @@
         <v/>
       </c>
       <c r="K284" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':283,'name':'test','unicode':'EA1A','decimal':59930,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L284" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":283,"name":"test","unicode":"EA1A","decimal":59930,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41523,11 +41656,11 @@
         <v/>
       </c>
       <c r="K285" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':284,'name':'test-auto-fill','unicode':'EA1B','decimal':59931,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L285" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":284,"name":"test-auto-fill","unicode":"EA1B","decimal":59931,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41573,11 +41706,11 @@
         <v/>
       </c>
       <c r="K286" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':285,'name':'test-auto','unicode':'EA1C','decimal':59932,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L286" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":285,"name":"test-auto","unicode":"EA1C","decimal":59932,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41623,11 +41756,11 @@
         <v/>
       </c>
       <c r="K287" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':286,'name':'test-user-fill','unicode':'EA1D','decimal':59933,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L287" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":286,"name":"test-user-fill","unicode":"EA1D","decimal":59933,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41673,11 +41806,11 @@
         <v/>
       </c>
       <c r="K288" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':287,'name':'test-user','unicode':'EA1E','decimal':59934,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L288" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":287,"name":"test-user","unicode":"EA1E","decimal":59934,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41723,11 +41856,11 @@
         <v/>
       </c>
       <c r="K289" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':288,'name':'test-explore-fill','unicode':'EA1F','decimal':59935,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L289" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":288,"name":"test-explore-fill","unicode":"EA1F","decimal":59935,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41773,11 +41906,11 @@
         <v/>
       </c>
       <c r="K290" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':289,'name':'trigger','unicode':'EA20','decimal':59936,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L290" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":289,"name":"trigger","unicode":"EA20","decimal":59936,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41823,11 +41956,11 @@
         <v/>
       </c>
       <c r="K291" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':290,'name':'trigger-auto','unicode':'EA21','decimal':59937,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L291" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":290,"name":"trigger-auto","unicode":"EA21","decimal":59937,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41873,11 +42006,11 @@
         <v/>
       </c>
       <c r="K292" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':291,'name':'trigger-user','unicode':'EA22','decimal':59938,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L292" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":291,"name":"trigger-user","unicode":"EA22","decimal":59938,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41923,11 +42056,11 @@
         <v/>
       </c>
       <c r="K293" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':292,'name':'folder-plan','unicode':'EA23','decimal':59939,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L293" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":292,"name":"folder-plan","unicode":"EA23","decimal":59939,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -41973,11 +42106,11 @@
         <v/>
       </c>
       <c r="K294" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':293,'name':'folder-query','unicode':'EA24','decimal':59940,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L294" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":293,"name":"folder-query","unicode":"EA24","decimal":59940,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42023,11 +42156,11 @@
         <v/>
       </c>
       <c r="K295" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':294,'name':'log','unicode':'EA25','decimal':59941,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L295" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":294,"name":"log","unicode":"EA25","decimal":59941,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42073,11 +42206,11 @@
         <v/>
       </c>
       <c r="K296" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':295,'name':'step','unicode':'EA26','decimal':59942,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L296" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":295,"name":"step","unicode":"EA26","decimal":59942,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42123,11 +42256,11 @@
         <v/>
       </c>
       <c r="K297" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':296,'name':'step-shared','unicode':'EA27','decimal':59943,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L297" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":296,"name":"step-shared","unicode":"EA27","decimal":59943,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42173,11 +42306,11 @@
         <v/>
       </c>
       <c r="K298" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':297,'name':'server-remote','unicode':'EA28','decimal':59944,'version':'1.0','style':'','subset':'VSTS','group':'test','keywords':[''],'usage':''}</v>
       </c>
       <c r="L298" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":297,"name":"server-remote","unicode":"EA28","decimal":59944,"version":"1.0","style":"","subset":"VSTS","group":"test","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42223,11 +42356,11 @@
         <v/>
       </c>
       <c r="K299" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':298,'name':'diff-image','unicode':'EA29','decimal':59945,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['image','diff','compare','side-by-side'],'usage':''}</v>
       </c>
       <c r="L299" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":298,"name":"diff-image","unicode":"EA29","decimal":59945,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["image","diff","compare","side-by-side"],"usage":""}</v>
       </c>
     </row>
@@ -42273,11 +42406,11 @@
         <v/>
       </c>
       <c r="K300" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':299,'name':'diff-image-overlay','unicode':'EA2A','decimal':59946,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['image','diff','compare','overlay'],'usage':''}</v>
       </c>
       <c r="L300" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":299,"name":"diff-image-overlay","unicode":"EA2A","decimal":59946,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["image","diff","compare","overlay"],"usage":""}</v>
       </c>
     </row>
@@ -42323,11 +42456,11 @@
         <v/>
       </c>
       <c r="K301" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':300,'name':'diff-image-pixel','unicode':'EA2B','decimal':59947,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['image','diff','compare','pixel'],'usage':''}</v>
       </c>
       <c r="L301" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":300,"name":"diff-image-pixel","unicode":"EA2B","decimal":59947,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["image","diff","compare","pixel"],"usage":""}</v>
       </c>
     </row>
@@ -42373,11 +42506,11 @@
         <v/>
       </c>
       <c r="K302" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':301,'name':'diff-inline','unicode':'EA2C','decimal':59948,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['code','diff','compare','inline'],'usage':''}</v>
       </c>
       <c r="L302" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":301,"name":"diff-inline","unicode":"EA2C","decimal":59948,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["code","diff","compare","inline"],"usage":""}</v>
       </c>
     </row>
@@ -42423,11 +42556,11 @@
         <v/>
       </c>
       <c r="K303" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':302,'name':'diff-side-by-side','unicode':'EA2D','decimal':59949,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['code','diff','compare','side-by-side'],'usage':''}</v>
       </c>
       <c r="L303" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":302,"name":"diff-side-by-side","unicode":"EA2D","decimal":59949,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["code","diff","compare","side-by-side"],"usage":""}</v>
       </c>
     </row>
@@ -42473,11 +42606,11 @@
         <v/>
       </c>
       <c r="K304" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':303,'name':'repo','unicode':'EA2E','decimal':59950,'version':'1.0','style':'light','subset':'VSTS','group':'version control','keywords':['repository','repo','git'],'usage':''}</v>
       </c>
       <c r="L304" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":303,"name":"repo","unicode":"EA2E","decimal":59950,"version":"1.0","style":"light","subset":"VSTS","group":"version control","keywords":["repository","repo","git"],"usage":""}</v>
       </c>
     </row>
@@ -42523,11 +42656,11 @@
         <v/>
       </c>
       <c r="K305" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':304,'name':'repo-fill','unicode':'EA2F','decimal':59951,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['repository','repo'],'usage':''}</v>
       </c>
       <c r="L305" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":304,"name":"repo-fill","unicode":"EA2F","decimal":59951,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["repository","repo"],"usage":""}</v>
       </c>
     </row>
@@ -42573,11 +42706,11 @@
         <v/>
       </c>
       <c r="K306" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':305,'name':'repo-git','unicode':'EA30','decimal':59952,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['repository','repo','git'],'usage':''}</v>
       </c>
       <c r="L306" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":305,"name":"repo-git","unicode":"EA30","decimal":59952,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["repository","repo","git"],"usage":""}</v>
       </c>
     </row>
@@ -42623,11 +42756,11 @@
         <v/>
       </c>
       <c r="K307" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':306,'name':'tfvc-change-list','unicode':'EA31','decimal':59953,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L307" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":306,"name":"tfvc-change-list","unicode":"EA31","decimal":59953,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42673,11 +42806,11 @@
         <v/>
       </c>
       <c r="K308" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':307,'name':'repo-submodule','unicode':'EA32','decimal':59954,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['folder','git','submodule'],'usage':''}</v>
       </c>
       <c r="L308" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":307,"name":"repo-submodule","unicode":"EA32","decimal":59954,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["folder","git","submodule"],"usage":""}</v>
       </c>
     </row>
@@ -42723,11 +42856,11 @@
         <v/>
       </c>
       <c r="K309" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':308,'name':'tfvc-folder','unicode':'EA33','decimal':59955,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L309" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":308,"name":"tfvc-folder","unicode":"EA33","decimal":59955,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42773,11 +42906,11 @@
         <v/>
       </c>
       <c r="K310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':309,'name':'repo-tfvc','unicode':'EA34','decimal':59956,'version':'1.0','style':'bold','subset':'VSTS','group':'version control','keywords':['repository','repo','tfvc','team','foundation','version','control'],'usage':''}</v>
       </c>
       <c r="L310" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":309,"name":"repo-tfvc","unicode":"EA34","decimal":59956,"version":"1.0","style":"bold","subset":"VSTS","group":"version control","keywords":["repository","repo","tfvc","team","foundation","version","control"],"usage":""}</v>
       </c>
     </row>
@@ -42823,11 +42956,11 @@
         <v/>
       </c>
       <c r="K311" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':310,'name':'tfvc-branch','unicode':'EA35','decimal':59957,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L311" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":310,"name":"tfvc-branch","unicode":"EA35","decimal":59957,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42873,11 +43006,11 @@
         <v/>
       </c>
       <c r="K312" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':311,'name':'tfvc-branch-locked','unicode':'EA36','decimal':59958,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L312" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":311,"name":"tfvc-branch-locked","unicode":"EA36","decimal":59958,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42923,11 +43056,11 @@
         <v/>
       </c>
       <c r="K313" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':312,'name':'tfvc-commit','unicode':'EA37','decimal':59959,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L313" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":312,"name":"tfvc-commit","unicode":"EA37","decimal":59959,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -42973,11 +43106,11 @@
         <v/>
       </c>
       <c r="K314" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':313,'name':'tfvc-compare','unicode':'EA38','decimal':59960,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L314" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":313,"name":"tfvc-compare","unicode":"EA38","decimal":59960,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43023,11 +43156,11 @@
         <v/>
       </c>
       <c r="K315" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':314,'name':'tfvc-merge','unicode':'EA39','decimal':59961,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L315" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":314,"name":"tfvc-merge","unicode":"EA39","decimal":59961,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43073,11 +43206,11 @@
         <v/>
       </c>
       <c r="K316" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':315,'name':'tfvc-pull-request','unicode':'EA3A','decimal':59962,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L316" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":315,"name":"tfvc-pull-request","unicode":"EA3A","decimal":59962,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43123,11 +43256,11 @@
         <v/>
       </c>
       <c r="K317" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':316,'name':'tfvc-shelveset','unicode':'EA3B','decimal':59963,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L317" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":316,"name":"tfvc-shelveset","unicode":"EA3B","decimal":59963,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43173,11 +43306,11 @@
         <v/>
       </c>
       <c r="K318" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':317,'name':'tfvc-raw-source','unicode':'EA3C','decimal':59964,'version':'1.0','style':'','subset':'VSTS','group':'version control','keywords':[''],'usage':''}</v>
       </c>
       <c r="L318" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":317,"name":"tfvc-raw-source","unicode":"EA3C","decimal":59964,"version":"1.0","style":"","subset":"VSTS","group":"version control","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43223,11 +43356,11 @@
         <v/>
       </c>
       <c r="K319" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':318,'name':'group-rows','unicode':'EA3D','decimal':59965,'version':'1.0','style':'','subset':'VSTS','group':'work','keywords':[''],'usage':''}</v>
       </c>
       <c r="L319" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":318,"name":"group-rows","unicode":"EA3D","decimal":59965,"version":"1.0","style":"","subset":"VSTS","group":"work","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43273,11 +43406,11 @@
         <v/>
       </c>
       <c r="K320" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':319,'name':'recycle-bin-restore','unicode':'EA3E','decimal':59966,'version':'1.0','style':'light','subset':'VSTS','group':'work','keywords':['recycle','bin','restore','undo'],'usage':''}</v>
       </c>
       <c r="L320" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":319,"name":"recycle-bin-restore","unicode":"EA3E","decimal":59966,"version":"1.0","style":"light","subset":"VSTS","group":"work","keywords":["recycle","bin","restore","undo"],"usage":""}</v>
       </c>
     </row>
@@ -43323,11 +43456,11 @@
         <v/>
       </c>
       <c r="K321" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':320,'name':'view-list','unicode':'EA3F','decimal':59967,'version':'1.0','style':'','subset':'VSTS','group':'work','keywords':[''],'usage':''}</v>
       </c>
       <c r="L321" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":320,"name":"view-list","unicode":"EA3F","decimal":59967,"version":"1.0","style":"","subset":"VSTS","group":"work","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43373,11 +43506,11 @@
         <v/>
       </c>
       <c r="K322" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>{'id':321,'name':'view-list-group','unicode':'EA40','decimal':59968,'version':'1.0','style':'','subset':'VSTS','group':'work','keywords':[''],'usage':''}</v>
       </c>
       <c r="L322" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>{"id":321,"name":"view-list-group","unicode":"EA40","decimal":59968,"version":"1.0","style":"","subset":"VSTS","group":"work","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43423,11 +43556,11 @@
         <v/>
       </c>
       <c r="K323" t="str">
-        <f t="shared" ref="K323:K337" si="10">IF(NOT(ISBLANK(A323)),CONCATENATE("{'",$A$1,"':",A323,",'",$B$1,"':'",B323,"',","'",$C$1,"':'",C323,"','",$D$1,"':",D323,",'",$E$1,"':'",FIXED(E323,1),"','",$F$1,"':'",F323,"','",$G$1,"':'",G323,"','",$H$1,"':'",H323,"','",$I$1,"':['",SUBSTITUTE(I323," ","','"),"'],'",$J$1,"':'",J323,"'}"))</f>
+        <f t="shared" si="10"/>
         <v>{'id':322,'name':'view-list-tree','unicode':'EA41','decimal':59969,'version':'1.0','style':'','subset':'VSTS','group':'work','keywords':[''],'usage':''}</v>
       </c>
       <c r="L323" t="str">
-        <f t="shared" ref="L323:L329" si="11">SUBSTITUTE(K323,"'","""")</f>
+        <f t="shared" si="11"/>
         <v>{"id":322,"name":"view-list-tree","unicode":"EA41","decimal":59969,"version":"1.0","style":"","subset":"VSTS","group":"work","keywords":[""],"usage":""}</v>
       </c>
     </row>
@@ -43723,11 +43856,11 @@
         <v>Used in context menu for Auto fill template form command.</v>
       </c>
       <c r="K329" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K329:K362" si="12">IF(NOT(ISBLANK(A329)),CONCATENATE("{'",$A$1,"':",A329,",'",$B$1,"':'",B329,"',","'",$C$1,"':'",C329,"','",$D$1,"':",D329,",'",$E$1,"':'",FIXED(E329,1),"','",$F$1,"':'",F329,"','",$G$1,"':'",G329,"','",$H$1,"':'",H329,"','",$I$1,"':['",SUBSTITUTE(I329," ","','"),"'],'",$J$1,"':'",J329,"'}"))</f>
         <v>{'id':328,'name':'auto-fill-template','unicode':'EA47','decimal':59975,'version':'1.0','style':'light','subset':'VSTS','group':'work','keywords':['template','watermark','fill','box','form'],'usage':'Used in context menu for Auto fill template form command.'}</v>
       </c>
       <c r="L329" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="L329:L362" si="13">SUBSTITUTE(K329,"'","""")</f>
         <v>{"id":328,"name":"auto-fill-template","unicode":"EA47","decimal":59975,"version":"1.0","style":"light","subset":"VSTS","group":"work","keywords":["template","watermark","fill","box","form"],"usage":"Used in context menu for Auto fill template form command."}</v>
       </c>
     </row>
@@ -43773,11 +43906,11 @@
         <v/>
       </c>
       <c r="K330" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>{'id':329,'name':'recycle-bin','unicode':'EA48','decimal':59976,'version':'1.0','style':'light','subset':'VSTS','group':'work','keywords':['recycle','bin'],'usage':''}</v>
       </c>
       <c r="L330" t="str">
-        <f>SUBSTITUTE(K330,"'","""")</f>
+        <f t="shared" si="13"/>
         <v>{"id":329,"name":"recycle-bin","unicode":"EA48","decimal":59976,"version":"1.0","style":"light","subset":"VSTS","group":"work","keywords":["recycle","bin"],"usage":""}</v>
       </c>
     </row>
@@ -43823,11 +43956,11 @@
         <v>check if it is same as record-fill</v>
       </c>
       <c r="K331" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>{'id':330,'name':'dot','unicode':'EA49','decimal':59977,'version':'1.0','style':'bold','subset':'VSTS','group':'','keywords':['dot','circle'],'usage':'check if it is same as record-fill'}</v>
       </c>
       <c r="L331" t="str">
-        <f>SUBSTITUTE(K331,"'","""")</f>
+        <f t="shared" si="13"/>
         <v>{"id":330,"name":"dot","unicode":"EA49","decimal":59977,"version":"1.0","style":"bold","subset":"VSTS","group":"","keywords":["dot","circle"],"usage":"check if it is same as record-fill"}</v>
       </c>
     </row>
@@ -43873,11 +44006,11 @@
         <v>check if it is same as stop-fill</v>
       </c>
       <c r="K332" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>{'id':331,'name':'square','unicode':'EA4A','decimal':59978,'version':'1.0','style':'bold','subset':'VSTS','group':'','keywords':['square'],'usage':'check if it is same as stop-fill'}</v>
       </c>
       <c r="L332" t="str">
-        <f>SUBSTITUTE(K332,"'","""")</f>
+        <f t="shared" si="13"/>
         <v>{"id":331,"name":"square","unicode":"EA4A","decimal":59978,"version":"1.0","style":"bold","subset":"VSTS","group":"","keywords":["square"],"usage":"check if it is same as stop-fill"}</v>
       </c>
     </row>
@@ -43898,7 +44031,7 @@
         <f>'Bowtie v1.0 reorg'!D334</f>
         <v>59979</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F334),"",'Bowtie v1.0 reorg'!F334)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -43923,11 +44056,11 @@
         <v>Used for creating a child node of the current node in a tree structure.</v>
       </c>
       <c r="K333" t="str">
-        <f t="shared" ref="K333:K340" si="12">IF(NOT(ISBLANK(A333)),CONCATENATE("{'",$A$1,"':",A333,",'",$B$1,"':'",B333,"',","'",$C$1,"':'",C333,"','",$D$1,"':",D333,",'",$E$1,"':'",FIXED(E333,1),"','",$F$1,"':'",F333,"','",$G$1,"':'",G333,"','",$H$1,"':'",H333,"','",$I$1,"':['",SUBSTITUTE(I333," ","','"),"'],'",$J$1,"':'",J333,"'}"))</f>
+        <f t="shared" si="12"/>
         <v>{'id':332,'name':'row-child','unicode':'EA4B','decimal':59979,'version':'1.1','style':'light','subset':'VSTS','group':'common','keywords':['row','child','sub','indent','tree'],'usage':'Used for creating a child node of the current node in a tree structure.'}</v>
       </c>
       <c r="L333" t="str">
-        <f t="shared" ref="L333:L337" si="13">SUBSTITUTE(K333,"'","""")</f>
+        <f t="shared" si="13"/>
         <v>{"id":332,"name":"row-child","unicode":"EA4B","decimal":59979,"version":"1.1","style":"light","subset":"VSTS","group":"common","keywords":["row","child","sub","indent","tree"],"usage":"Used for creating a child node of the current node in a tree structure."}</v>
       </c>
     </row>
@@ -43948,7 +44081,7 @@
         <f>'Bowtie v1.0 reorg'!D335</f>
         <v>59980</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F335),"",'Bowtie v1.0 reorg'!F335)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -43973,7 +44106,7 @@
         <v>Used for removing activity entry on Kanban board.</v>
       </c>
       <c r="K334" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>{'id':333,'name':'log-remove','unicode':'EA4C','decimal':59980,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['log','activity','remove','delete'],'usage':'Used for removing activity entry on Kanban board.'}</v>
       </c>
       <c r="L334" t="str">
@@ -43998,7 +44131,7 @@
         <f>'Bowtie v1.0 reorg'!D336</f>
         <v>59981</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F336),"",'Bowtie v1.0 reorg'!F336)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -44023,7 +44156,7 @@
         <v>Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.</v>
       </c>
       <c r="K335" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>{'id':334,'name':'live-update-feed-off','unicode':'EA4D','decimal':59981,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['live','update','feed','signal','broadcast','radar','off'],'usage':'Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case.'}</v>
       </c>
       <c r="L335" t="str">
@@ -44048,7 +44181,7 @@
         <f>'Bowtie v1.0 reorg'!D337</f>
         <v>59982</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F337),"",'Bowtie v1.0 reorg'!F337)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -44073,7 +44206,7 @@
         <v>Used for dialog, modal, or textarea resize handle.</v>
       </c>
       <c r="K336" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>{'id':335,'name':'corner-resize','unicode':'EA4E','decimal':59982,'version':'1.1','style':'light','subset':'VSTS','group':'control','keywords':['resize','grip','handle'],'usage':'Used for dialog, modal, or textarea resize handle.'}</v>
       </c>
       <c r="L336" t="str">
@@ -44098,7 +44231,7 @@
         <f>'Bowtie v1.0 reorg'!D338</f>
         <v>59983</v>
       </c>
-      <c r="E337">
+      <c r="E337" s="14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F338),"",'Bowtie v1.0 reorg'!F338)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -44123,7 +44256,7 @@
         <v>Used for removing hyperlink.</v>
       </c>
       <c r="K337" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>{'id':336,'name':'link-remove','unicode':'EA4F','decimal':59983,'version':'1.1','style':'light','subset':'VSTS','group':'editor','keywords':['link','hyperlink','url','remove'],'usage':'Used for removing hyperlink.'}</v>
       </c>
       <c r="L337" t="str">
@@ -44132,53 +44265,53 @@
       </c>
     </row>
     <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="15">
+      <c r="A338">
         <f>'Bowtie v1.0 reorg'!A339</f>
         <v>337</v>
       </c>
-      <c r="B338" s="15" t="str">
+      <c r="B338" t="str">
         <f>'Bowtie v1.0 reorg'!E339</f>
-        <v>personalize</v>
-      </c>
-      <c r="C338" s="15" t="str">
+        <v>spinner</v>
+      </c>
+      <c r="C338" t="str">
         <f>'Bowtie v1.0 reorg'!C339</f>
         <v>EA50</v>
       </c>
-      <c r="D338" s="15">
+      <c r="D338">
         <f>'Bowtie v1.0 reorg'!D339</f>
         <v>59984</v>
       </c>
-      <c r="E338" s="16">
+      <c r="E338" s="14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F339),"",'Bowtie v1.0 reorg'!F339)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F338" s="15" t="str">
+      <c r="F338" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G339),"",'Bowtie v1.0 reorg'!G339)</f>
-        <v>light</v>
-      </c>
-      <c r="G338" s="15" t="str">
+        <v>bold</v>
+      </c>
+      <c r="G338" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I339),"",'Bowtie v1.0 reorg'!I339)</f>
         <v>VSTS</v>
       </c>
-      <c r="H338" s="15" t="str">
+      <c r="H338" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J339),"",'Bowtie v1.0 reorg'!J339)</f>
-        <v>work</v>
-      </c>
-      <c r="I338" s="15" t="str">
+        <v>control</v>
+      </c>
+      <c r="I338" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H339),"",'Bowtie v1.0 reorg'!H339)</f>
-        <v>personalize customize design edit draw pen brush</v>
-      </c>
-      <c r="J338" s="15" t="str">
+        <v>loading spinner wait dots loop spin</v>
+      </c>
+      <c r="J338" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K339),"",'Bowtie v1.0 reorg'!K339)</f>
-        <v>Used for customizing work item form.</v>
-      </c>
-      <c r="K338" s="15" t="str">
+        <v>Add bowtie-ani-spin-pulse class for animation.</v>
+      </c>
+      <c r="K338" t="str">
         <f t="shared" si="12"/>
-        <v>{'id':337,'name':'personalize','unicode':'EA50','decimal':59984,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['personalize','customize','design','edit','draw','pen','brush'],'usage':'Used for customizing work item form.'}</v>
-      </c>
-      <c r="L338" s="15" t="str">
-        <f t="shared" ref="L338:L340" si="14">SUBSTITUTE(K338,"'","""")</f>
-        <v>{"id":337,"name":"personalize","unicode":"EA50","decimal":59984,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
+        <v>{'id':337,'name':'spinner','unicode':'EA50','decimal':59984,'version':'1.1','style':'bold','subset':'VSTS','group':'control','keywords':['loading','spinner','wait','dots','loop','spin'],'usage':'Add bowtie-ani-spin-pulse class for animation.'}</v>
+      </c>
+      <c r="L338" t="str">
+        <f t="shared" si="13"/>
+        <v>{"id":337,"name":"spinner","unicode":"EA50","decimal":59984,"version":"1.1","style":"bold","subset":"VSTS","group":"control","keywords":["loading","spinner","wait","dots","loop","spin"],"usage":"Add bowtie-ani-spin-pulse class for animation."}</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
@@ -44186,9 +44319,9 @@
         <f>'Bowtie v1.0 reorg'!A340</f>
         <v>338</v>
       </c>
-      <c r="B339">
+      <c r="B339" t="str">
         <f>'Bowtie v1.0 reorg'!E340</f>
-        <v>0</v>
+        <v>personalize</v>
       </c>
       <c r="C339" t="str">
         <f>'Bowtie v1.0 reorg'!C340</f>
@@ -44198,37 +44331,37 @@
         <f>'Bowtie v1.0 reorg'!D340</f>
         <v>59985</v>
       </c>
-      <c r="E339" t="str">
+      <c r="E339" s="14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F340),"",'Bowtie v1.0 reorg'!F340)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F339" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G340),"",'Bowtie v1.0 reorg'!G340)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G339" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I340),"",'Bowtie v1.0 reorg'!I340)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H339" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J340),"",'Bowtie v1.0 reorg'!J340)</f>
-        <v/>
+        <v>work</v>
       </c>
       <c r="I339" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H340),"",'Bowtie v1.0 reorg'!H340)</f>
-        <v/>
+        <v>personalize customize design edit draw pen brush</v>
       </c>
       <c r="J339" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K340),"",'Bowtie v1.0 reorg'!K340)</f>
-        <v/>
-      </c>
-      <c r="K339" t="e">
+        <v>Used for customizing work item form.</v>
+      </c>
+      <c r="K339" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L339" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>{'id':338,'name':'personalize','unicode':'EA51','decimal':59985,'version':'1.1','style':'light','subset':'VSTS','group':'work','keywords':['personalize','customize','design','edit','draw','pen','brush'],'usage':'Used for customizing work item form.'}</v>
+      </c>
+      <c r="L339" t="str">
+        <f t="shared" si="13"/>
+        <v>{"id":338,"name":"personalize","unicode":"EA51","decimal":59985,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
@@ -44248,7 +44381,7 @@
         <f>'Bowtie v1.0 reorg'!D341</f>
         <v>59986</v>
       </c>
-      <c r="E340" t="str">
+      <c r="E340" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F341),"",'Bowtie v1.0 reorg'!F341)</f>
         <v/>
       </c>
@@ -44277,57 +44410,57 @@
         <v>#VALUE!</v>
       </c>
       <c r="L340" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" s="15">
+      <c r="A341">
         <f>'Bowtie v1.0 reorg'!A342</f>
         <v>340</v>
       </c>
-      <c r="B341" s="15">
+      <c r="B341">
         <f>'Bowtie v1.0 reorg'!E342</f>
         <v>0</v>
       </c>
-      <c r="C341" s="15" t="str">
+      <c r="C341" t="str">
         <f>'Bowtie v1.0 reorg'!C342</f>
         <v>EA53</v>
       </c>
-      <c r="D341" s="15">
+      <c r="D341">
         <f>'Bowtie v1.0 reorg'!D342</f>
         <v>59987</v>
       </c>
-      <c r="E341" s="16" t="str">
+      <c r="E341" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F342),"",'Bowtie v1.0 reorg'!F342)</f>
         <v/>
       </c>
-      <c r="F341" s="15" t="str">
+      <c r="F341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G342),"",'Bowtie v1.0 reorg'!G342)</f>
         <v/>
       </c>
-      <c r="G341" s="15" t="str">
+      <c r="G341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I342),"",'Bowtie v1.0 reorg'!I342)</f>
         <v/>
       </c>
-      <c r="H341" s="15" t="str">
+      <c r="H341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J342),"",'Bowtie v1.0 reorg'!J342)</f>
         <v/>
       </c>
-      <c r="I341" s="15" t="str">
+      <c r="I341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H342),"",'Bowtie v1.0 reorg'!H342)</f>
         <v/>
       </c>
-      <c r="J341" s="15" t="str">
+      <c r="J341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K342),"",'Bowtie v1.0 reorg'!K342)</f>
         <v/>
       </c>
-      <c r="K341" s="15" t="e">
-        <f t="shared" ref="K341:K362" si="15">IF(NOT(ISBLANK(A341)),CONCATENATE("{'",$A$1,"':",A341,",'",$B$1,"':'",B341,"',","'",$C$1,"':'",C341,"','",$D$1,"':",D341,",'",$E$1,"':'",FIXED(E341,1),"','",$F$1,"':'",F341,"','",$G$1,"':'",G341,"','",$H$1,"':'",H341,"','",$I$1,"':['",SUBSTITUTE(I341," ","','"),"'],'",$J$1,"':'",J341,"'}"))</f>
+      <c r="K341" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L341" s="15" t="e">
-        <f t="shared" ref="L341:L362" si="16">SUBSTITUTE(K341,"'","""")</f>
+      <c r="L341" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M341" s="15"/>
@@ -44349,7 +44482,7 @@
         <f>'Bowtie v1.0 reorg'!D343</f>
         <v>59988</v>
       </c>
-      <c r="E342" t="str">
+      <c r="E342" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F343),"",'Bowtie v1.0 reorg'!F343)</f>
         <v/>
       </c>
@@ -44374,11 +44507,11 @@
         <v/>
       </c>
       <c r="K342" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L342" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -44399,7 +44532,7 @@
         <f>'Bowtie v1.0 reorg'!D344</f>
         <v>59989</v>
       </c>
-      <c r="E343" t="str">
+      <c r="E343" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F344),"",'Bowtie v1.0 reorg'!F344)</f>
         <v/>
       </c>
@@ -44424,61 +44557,61 @@
         <v/>
       </c>
       <c r="K343" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L343" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A344" s="15">
+      <c r="A344">
         <f>'Bowtie v1.0 reorg'!A345</f>
         <v>343</v>
       </c>
-      <c r="B344" s="15">
+      <c r="B344">
         <f>'Bowtie v1.0 reorg'!E345</f>
         <v>0</v>
       </c>
-      <c r="C344" s="15" t="str">
+      <c r="C344" t="str">
         <f>'Bowtie v1.0 reorg'!C345</f>
         <v>EA56</v>
       </c>
-      <c r="D344" s="15">
+      <c r="D344">
         <f>'Bowtie v1.0 reorg'!D345</f>
         <v>59990</v>
       </c>
-      <c r="E344" s="16" t="str">
+      <c r="E344" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F345),"",'Bowtie v1.0 reorg'!F345)</f>
         <v/>
       </c>
-      <c r="F344" s="15" t="str">
+      <c r="F344" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G345),"",'Bowtie v1.0 reorg'!G345)</f>
         <v/>
       </c>
-      <c r="G344" s="15" t="str">
+      <c r="G344" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I345),"",'Bowtie v1.0 reorg'!I345)</f>
         <v/>
       </c>
-      <c r="H344" s="15" t="str">
+      <c r="H344" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J345),"",'Bowtie v1.0 reorg'!J345)</f>
         <v/>
       </c>
-      <c r="I344" s="15" t="str">
+      <c r="I344" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H345),"",'Bowtie v1.0 reorg'!H345)</f>
         <v/>
       </c>
-      <c r="J344" s="15" t="str">
+      <c r="J344" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K345),"",'Bowtie v1.0 reorg'!K345)</f>
         <v/>
       </c>
-      <c r="K344" s="15" t="e">
-        <f t="shared" si="15"/>
+      <c r="K344" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L344" s="15" t="e">
-        <f t="shared" si="16"/>
+      <c r="L344" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M344" s="15"/>
@@ -44500,7 +44633,7 @@
         <f>'Bowtie v1.0 reorg'!D346</f>
         <v>59991</v>
       </c>
-      <c r="E345" t="str">
+      <c r="E345" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F346),"",'Bowtie v1.0 reorg'!F346)</f>
         <v/>
       </c>
@@ -44525,11 +44658,11 @@
         <v/>
       </c>
       <c r="K345" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L345" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -44550,7 +44683,7 @@
         <f>'Bowtie v1.0 reorg'!D347</f>
         <v>59992</v>
       </c>
-      <c r="E346" t="str">
+      <c r="E346" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F347),"",'Bowtie v1.0 reorg'!F347)</f>
         <v/>
       </c>
@@ -44575,61 +44708,61 @@
         <v/>
       </c>
       <c r="K346" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L346" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" s="15">
+      <c r="A347">
         <f>'Bowtie v1.0 reorg'!A348</f>
         <v>346</v>
       </c>
-      <c r="B347" s="15">
+      <c r="B347">
         <f>'Bowtie v1.0 reorg'!E348</f>
         <v>0</v>
       </c>
-      <c r="C347" s="15" t="str">
+      <c r="C347" t="str">
         <f>'Bowtie v1.0 reorg'!C348</f>
         <v>EA59</v>
       </c>
-      <c r="D347" s="15">
+      <c r="D347">
         <f>'Bowtie v1.0 reorg'!D348</f>
         <v>59993</v>
       </c>
-      <c r="E347" s="16" t="str">
+      <c r="E347" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F348),"",'Bowtie v1.0 reorg'!F348)</f>
         <v/>
       </c>
-      <c r="F347" s="15" t="str">
+      <c r="F347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G348),"",'Bowtie v1.0 reorg'!G348)</f>
         <v/>
       </c>
-      <c r="G347" s="15" t="str">
+      <c r="G347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I348),"",'Bowtie v1.0 reorg'!I348)</f>
         <v/>
       </c>
-      <c r="H347" s="15" t="str">
+      <c r="H347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J348),"",'Bowtie v1.0 reorg'!J348)</f>
         <v/>
       </c>
-      <c r="I347" s="15" t="str">
+      <c r="I347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H348),"",'Bowtie v1.0 reorg'!H348)</f>
         <v/>
       </c>
-      <c r="J347" s="15" t="str">
+      <c r="J347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K348),"",'Bowtie v1.0 reorg'!K348)</f>
         <v/>
       </c>
-      <c r="K347" s="15" t="e">
-        <f t="shared" si="15"/>
+      <c r="K347" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L347" s="15" t="e">
-        <f t="shared" si="16"/>
+      <c r="L347" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M347" s="15"/>
@@ -44651,7 +44784,7 @@
         <f>'Bowtie v1.0 reorg'!D349</f>
         <v>59994</v>
       </c>
-      <c r="E348" t="str">
+      <c r="E348" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F349),"",'Bowtie v1.0 reorg'!F349)</f>
         <v/>
       </c>
@@ -44676,11 +44809,11 @@
         <v/>
       </c>
       <c r="K348" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L348" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -44701,7 +44834,7 @@
         <f>'Bowtie v1.0 reorg'!D350</f>
         <v>59995</v>
       </c>
-      <c r="E349" t="str">
+      <c r="E349" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F350),"",'Bowtie v1.0 reorg'!F350)</f>
         <v/>
       </c>
@@ -44726,61 +44859,61 @@
         <v/>
       </c>
       <c r="K349" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L349" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350" s="15">
+      <c r="A350">
         <f>'Bowtie v1.0 reorg'!A351</f>
         <v>349</v>
       </c>
-      <c r="B350" s="15">
+      <c r="B350">
         <f>'Bowtie v1.0 reorg'!E351</f>
         <v>0</v>
       </c>
-      <c r="C350" s="15" t="str">
+      <c r="C350" t="str">
         <f>'Bowtie v1.0 reorg'!C351</f>
         <v>EA5C</v>
       </c>
-      <c r="D350" s="15">
+      <c r="D350">
         <f>'Bowtie v1.0 reorg'!D351</f>
         <v>59996</v>
       </c>
-      <c r="E350" s="16" t="str">
+      <c r="E350" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F351),"",'Bowtie v1.0 reorg'!F351)</f>
         <v/>
       </c>
-      <c r="F350" s="15" t="str">
+      <c r="F350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G351),"",'Bowtie v1.0 reorg'!G351)</f>
         <v/>
       </c>
-      <c r="G350" s="15" t="str">
+      <c r="G350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I351),"",'Bowtie v1.0 reorg'!I351)</f>
         <v/>
       </c>
-      <c r="H350" s="15" t="str">
+      <c r="H350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J351),"",'Bowtie v1.0 reorg'!J351)</f>
         <v/>
       </c>
-      <c r="I350" s="15" t="str">
+      <c r="I350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H351),"",'Bowtie v1.0 reorg'!H351)</f>
         <v/>
       </c>
-      <c r="J350" s="15" t="str">
+      <c r="J350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K351),"",'Bowtie v1.0 reorg'!K351)</f>
         <v/>
       </c>
-      <c r="K350" s="15" t="e">
-        <f t="shared" si="15"/>
+      <c r="K350" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L350" s="15" t="e">
-        <f t="shared" si="16"/>
+      <c r="L350" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M350" s="15"/>
@@ -44802,7 +44935,7 @@
         <f>'Bowtie v1.0 reorg'!D352</f>
         <v>59997</v>
       </c>
-      <c r="E351" t="str">
+      <c r="E351" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F352),"",'Bowtie v1.0 reorg'!F352)</f>
         <v/>
       </c>
@@ -44827,11 +44960,11 @@
         <v/>
       </c>
       <c r="K351" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L351" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -44852,7 +44985,7 @@
         <f>'Bowtie v1.0 reorg'!D353</f>
         <v>59998</v>
       </c>
-      <c r="E352" t="str">
+      <c r="E352" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F353),"",'Bowtie v1.0 reorg'!F353)</f>
         <v/>
       </c>
@@ -44877,61 +45010,61 @@
         <v/>
       </c>
       <c r="K352" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L352" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" s="15">
+      <c r="A353">
         <f>'Bowtie v1.0 reorg'!A354</f>
         <v>352</v>
       </c>
-      <c r="B353" s="15">
+      <c r="B353">
         <f>'Bowtie v1.0 reorg'!E354</f>
         <v>0</v>
       </c>
-      <c r="C353" s="15" t="str">
+      <c r="C353" t="str">
         <f>'Bowtie v1.0 reorg'!C354</f>
         <v>EA5F</v>
       </c>
-      <c r="D353" s="15">
+      <c r="D353">
         <f>'Bowtie v1.0 reorg'!D354</f>
         <v>59999</v>
       </c>
-      <c r="E353" s="16" t="str">
+      <c r="E353" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F354),"",'Bowtie v1.0 reorg'!F354)</f>
         <v/>
       </c>
-      <c r="F353" s="15" t="str">
+      <c r="F353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G354),"",'Bowtie v1.0 reorg'!G354)</f>
         <v/>
       </c>
-      <c r="G353" s="15" t="str">
+      <c r="G353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I354),"",'Bowtie v1.0 reorg'!I354)</f>
         <v/>
       </c>
-      <c r="H353" s="15" t="str">
+      <c r="H353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J354),"",'Bowtie v1.0 reorg'!J354)</f>
         <v/>
       </c>
-      <c r="I353" s="15" t="str">
+      <c r="I353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H354),"",'Bowtie v1.0 reorg'!H354)</f>
         <v/>
       </c>
-      <c r="J353" s="15" t="str">
+      <c r="J353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K354),"",'Bowtie v1.0 reorg'!K354)</f>
         <v/>
       </c>
-      <c r="K353" s="15" t="e">
-        <f t="shared" si="15"/>
+      <c r="K353" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L353" s="15" t="e">
-        <f t="shared" si="16"/>
+      <c r="L353" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M353" s="15"/>
@@ -44953,7 +45086,7 @@
         <f>'Bowtie v1.0 reorg'!D355</f>
         <v>60000</v>
       </c>
-      <c r="E354" t="str">
+      <c r="E354" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F355),"",'Bowtie v1.0 reorg'!F355)</f>
         <v/>
       </c>
@@ -44978,11 +45111,11 @@
         <v/>
       </c>
       <c r="K354" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L354" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45003,7 +45136,7 @@
         <f>'Bowtie v1.0 reorg'!D356</f>
         <v>60001</v>
       </c>
-      <c r="E355" t="str">
+      <c r="E355" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F356),"",'Bowtie v1.0 reorg'!F356)</f>
         <v/>
       </c>
@@ -45028,61 +45161,61 @@
         <v/>
       </c>
       <c r="K355" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L355" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A356" s="15">
+      <c r="A356">
         <f>'Bowtie v1.0 reorg'!A357</f>
         <v>355</v>
       </c>
-      <c r="B356" s="15">
+      <c r="B356">
         <f>'Bowtie v1.0 reorg'!E357</f>
         <v>0</v>
       </c>
-      <c r="C356" s="15" t="str">
+      <c r="C356" t="str">
         <f>'Bowtie v1.0 reorg'!C357</f>
         <v>EA62</v>
       </c>
-      <c r="D356" s="15">
+      <c r="D356">
         <f>'Bowtie v1.0 reorg'!D357</f>
         <v>60002</v>
       </c>
-      <c r="E356" s="16" t="str">
+      <c r="E356" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F357),"",'Bowtie v1.0 reorg'!F357)</f>
         <v/>
       </c>
-      <c r="F356" s="15" t="str">
+      <c r="F356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G357),"",'Bowtie v1.0 reorg'!G357)</f>
         <v/>
       </c>
-      <c r="G356" s="15" t="str">
+      <c r="G356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I357),"",'Bowtie v1.0 reorg'!I357)</f>
         <v/>
       </c>
-      <c r="H356" s="15" t="str">
+      <c r="H356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J357),"",'Bowtie v1.0 reorg'!J357)</f>
         <v/>
       </c>
-      <c r="I356" s="15" t="str">
+      <c r="I356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H357),"",'Bowtie v1.0 reorg'!H357)</f>
         <v/>
       </c>
-      <c r="J356" s="15" t="str">
+      <c r="J356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K357),"",'Bowtie v1.0 reorg'!K357)</f>
         <v/>
       </c>
-      <c r="K356" s="15" t="e">
-        <f t="shared" si="15"/>
+      <c r="K356" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L356" s="15" t="e">
-        <f t="shared" si="16"/>
+      <c r="L356" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M356" s="15"/>
@@ -45104,7 +45237,7 @@
         <f>'Bowtie v1.0 reorg'!D358</f>
         <v>60003</v>
       </c>
-      <c r="E357" t="str">
+      <c r="E357" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F358),"",'Bowtie v1.0 reorg'!F358)</f>
         <v/>
       </c>
@@ -45129,11 +45262,11 @@
         <v/>
       </c>
       <c r="K357" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L357" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45154,7 +45287,7 @@
         <f>'Bowtie v1.0 reorg'!D359</f>
         <v>60004</v>
       </c>
-      <c r="E358" t="str">
+      <c r="E358" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F359),"",'Bowtie v1.0 reorg'!F359)</f>
         <v/>
       </c>
@@ -45179,61 +45312,61 @@
         <v/>
       </c>
       <c r="K358" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L358" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A359" s="15">
+      <c r="A359">
         <f>'Bowtie v1.0 reorg'!A360</f>
         <v>358</v>
       </c>
-      <c r="B359" s="15">
+      <c r="B359">
         <f>'Bowtie v1.0 reorg'!E360</f>
         <v>0</v>
       </c>
-      <c r="C359" s="15" t="str">
+      <c r="C359" t="str">
         <f>'Bowtie v1.0 reorg'!C360</f>
         <v>EA65</v>
       </c>
-      <c r="D359" s="15">
+      <c r="D359">
         <f>'Bowtie v1.0 reorg'!D360</f>
         <v>60005</v>
       </c>
-      <c r="E359" s="16" t="str">
+      <c r="E359" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F360),"",'Bowtie v1.0 reorg'!F360)</f>
         <v/>
       </c>
-      <c r="F359" s="15" t="str">
+      <c r="F359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G360),"",'Bowtie v1.0 reorg'!G360)</f>
         <v/>
       </c>
-      <c r="G359" s="15" t="str">
+      <c r="G359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I360),"",'Bowtie v1.0 reorg'!I360)</f>
         <v/>
       </c>
-      <c r="H359" s="15" t="str">
+      <c r="H359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J360),"",'Bowtie v1.0 reorg'!J360)</f>
         <v/>
       </c>
-      <c r="I359" s="15" t="str">
+      <c r="I359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H360),"",'Bowtie v1.0 reorg'!H360)</f>
         <v/>
       </c>
-      <c r="J359" s="15" t="str">
+      <c r="J359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K360),"",'Bowtie v1.0 reorg'!K360)</f>
         <v/>
       </c>
-      <c r="K359" s="15" t="e">
-        <f t="shared" si="15"/>
+      <c r="K359" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L359" s="15" t="e">
-        <f t="shared" si="16"/>
+      <c r="L359" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M359" s="15"/>
@@ -45255,7 +45388,7 @@
         <f>'Bowtie v1.0 reorg'!D361</f>
         <v>60006</v>
       </c>
-      <c r="E360" t="str">
+      <c r="E360" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F361),"",'Bowtie v1.0 reorg'!F361)</f>
         <v/>
       </c>
@@ -45280,11 +45413,11 @@
         <v/>
       </c>
       <c r="K360" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L360" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45305,7 +45438,7 @@
         <f>'Bowtie v1.0 reorg'!D362</f>
         <v>60007</v>
       </c>
-      <c r="E361" t="str">
+      <c r="E361" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F362),"",'Bowtie v1.0 reorg'!F362)</f>
         <v/>
       </c>
@@ -45330,61 +45463,61 @@
         <v/>
       </c>
       <c r="K361" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L361" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A362" s="15">
+      <c r="A362">
         <f>'Bowtie v1.0 reorg'!A363</f>
         <v>361</v>
       </c>
-      <c r="B362" s="15">
+      <c r="B362">
         <f>'Bowtie v1.0 reorg'!E363</f>
         <v>0</v>
       </c>
-      <c r="C362" s="15" t="str">
+      <c r="C362" t="str">
         <f>'Bowtie v1.0 reorg'!C363</f>
         <v>EA68</v>
       </c>
-      <c r="D362" s="15">
+      <c r="D362">
         <f>'Bowtie v1.0 reorg'!D363</f>
         <v>60008</v>
       </c>
-      <c r="E362" s="16" t="str">
+      <c r="E362" s="14" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F363),"",'Bowtie v1.0 reorg'!F363)</f>
         <v/>
       </c>
-      <c r="F362" s="15" t="str">
+      <c r="F362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G363),"",'Bowtie v1.0 reorg'!G363)</f>
         <v/>
       </c>
-      <c r="G362" s="15" t="str">
+      <c r="G362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I363),"",'Bowtie v1.0 reorg'!I363)</f>
         <v/>
       </c>
-      <c r="H362" s="15" t="str">
+      <c r="H362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J363),"",'Bowtie v1.0 reorg'!J363)</f>
         <v/>
       </c>
-      <c r="I362" s="15" t="str">
+      <c r="I362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H363),"",'Bowtie v1.0 reorg'!H363)</f>
         <v/>
       </c>
-      <c r="J362" s="15" t="str">
+      <c r="J362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K363),"",'Bowtie v1.0 reorg'!K363)</f>
         <v/>
       </c>
-      <c r="K362" s="15" t="e">
-        <f t="shared" si="15"/>
+      <c r="K362" t="e">
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L362" s="15" t="e">
-        <f t="shared" si="16"/>
+      <c r="L362" t="e">
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="M362" s="15"/>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="607">
   <si>
     <t>name</t>
   </si>
@@ -1802,6 +1802,45 @@
   </si>
   <si>
     <t>Add bowtie-ani-spin-pulse class for animation.</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>parameter variable argument @ at</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Used in Test hub for adding test step parameters.</t>
+  </si>
+  <si>
+    <t>step-insert</t>
+  </si>
+  <si>
+    <t>step-shared-add</t>
+  </si>
+  <si>
+    <t>step-shared-insert</t>
+  </si>
+  <si>
+    <t>step shared reuse multiple add plus stairs</t>
+  </si>
+  <si>
+    <t>step insert stairs arrow right</t>
+  </si>
+  <si>
+    <t>step shared reuse multiple arrow right stairs</t>
+  </si>
+  <si>
+    <t>Used in Test hub for adding test step.</t>
+  </si>
+  <si>
+    <t>Used in Test hub for creating a new test step as shared step.</t>
+  </si>
+  <si>
+    <t>Used in Test hub for inserting existing shared steps.</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1926,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1934,6 +1973,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -14792,6 +14832,158 @@
         <a:xfrm>
           <a:off x="1095375" y="136207500"/>
           <a:ext cx="257211" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381031</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>304828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="340" name="Picture 339"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId339"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="136607550"/>
+          <a:ext cx="219106" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371503</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>314356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="341" name="Picture 340"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId340"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="136998075"/>
+          <a:ext cx="200053" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390552</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>314356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="342" name="Picture 341"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId341"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="137398125"/>
+          <a:ext cx="190527" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400081</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>333406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="343" name="Picture 342"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId342"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="137817225"/>
+          <a:ext cx="219106" cy="219106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15068,9 +15260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K340" sqref="K340"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26625,9 +26817,30 @@
       <c r="D341" s="13">
         <v>59986</v>
       </c>
+      <c r="E341" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F341" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G341" t="s">
+        <v>17</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I341" t="s">
+        <v>15</v>
+      </c>
+      <c r="J341" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K341" s="2" t="s">
+        <v>597</v>
+      </c>
       <c r="L341" t="str">
         <f t="shared" si="11"/>
-        <v>uEA52-.svg</v>
+        <v>uEA52-parameter.svg</v>
       </c>
     </row>
     <row r="342" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26641,9 +26854,30 @@
       <c r="D342" s="13">
         <v>59987</v>
       </c>
+      <c r="E342" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F342">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G342" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="I342" t="s">
+        <v>15</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K342" s="2" t="s">
+        <v>604</v>
+      </c>
       <c r="L342" t="str">
         <f t="shared" si="11"/>
-        <v>uEA53-.svg</v>
+        <v>uEA53-step-insert.svg</v>
       </c>
     </row>
     <row r="343" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26657,9 +26891,30 @@
       <c r="D343" s="13">
         <v>59988</v>
       </c>
+      <c r="E343" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F343" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="I343" t="s">
+        <v>15</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>605</v>
+      </c>
       <c r="L343" t="str">
         <f t="shared" si="11"/>
-        <v>uEA54-.svg</v>
+        <v>uEA54-step-shared-add.svg</v>
       </c>
     </row>
     <row r="344" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26673,9 +26928,30 @@
       <c r="D344" s="13">
         <v>59989</v>
       </c>
+      <c r="E344" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F344">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="I344" t="s">
+        <v>15</v>
+      </c>
+      <c r="J344" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="K344" s="2" t="s">
+        <v>606</v>
+      </c>
       <c r="L344" t="str">
         <f t="shared" si="11"/>
-        <v>uEA55-.svg</v>
+        <v>uEA55-step-shared-insert.svg</v>
       </c>
     </row>
     <row r="345" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -27417,8 +27693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="E341" sqref="E341"/>
+    <sheetView topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="L340" sqref="L340:L343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44264,7 +44540,7 @@
         <v>{"id":336,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
       </c>
     </row>
-    <row r="338" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <f>'Bowtie v1.0 reorg'!A339</f>
         <v>337</v>
@@ -44281,7 +44557,7 @@
         <f>'Bowtie v1.0 reorg'!D339</f>
         <v>59984</v>
       </c>
-      <c r="E338" s="14">
+      <c r="E338">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F339),"",'Bowtie v1.0 reorg'!F339)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -44331,7 +44607,7 @@
         <f>'Bowtie v1.0 reorg'!D340</f>
         <v>59985</v>
       </c>
-      <c r="E339" s="14">
+      <c r="E339">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F340),"",'Bowtie v1.0 reorg'!F340)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -44364,205 +44640,204 @@
         <v>{"id":338,"name":"personalize","unicode":"EA51","decimal":59985,"version":"1.1","style":"light","subset":"VSTS","group":"work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="340" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="15">
         <f>'Bowtie v1.0 reorg'!A341</f>
         <v>339</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E341</f>
-        <v>0</v>
-      </c>
-      <c r="C340" t="str">
+        <v>parameter</v>
+      </c>
+      <c r="C340" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C341</f>
         <v>EA52</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="15">
         <f>'Bowtie v1.0 reorg'!D341</f>
         <v>59986</v>
       </c>
-      <c r="E340" s="14" t="str">
+      <c r="E340" s="18">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F341),"",'Bowtie v1.0 reorg'!F341)</f>
-        <v/>
-      </c>
-      <c r="F340" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F340" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G341),"",'Bowtie v1.0 reorg'!G341)</f>
-        <v/>
-      </c>
-      <c r="G340" t="str">
+        <v>light</v>
+      </c>
+      <c r="G340" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I341),"",'Bowtie v1.0 reorg'!I341)</f>
-        <v/>
-      </c>
-      <c r="H340" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H340" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J341),"",'Bowtie v1.0 reorg'!J341)</f>
-        <v/>
-      </c>
-      <c r="I340" t="str">
+        <v>Test</v>
+      </c>
+      <c r="I340" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H341),"",'Bowtie v1.0 reorg'!H341)</f>
-        <v/>
-      </c>
-      <c r="J340" t="str">
+        <v>parameter variable argument @ at</v>
+      </c>
+      <c r="J340" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K341),"",'Bowtie v1.0 reorg'!K341)</f>
-        <v/>
-      </c>
-      <c r="K340" t="e">
+        <v>Used in Test hub for adding test step parameters.</v>
+      </c>
+      <c r="K340" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L340" t="e">
+        <v>{'id':339,'name':'parameter','unicode':'EA52','decimal':59986,'version':'1.1','style':'light','subset':'VSTS','group':'Test','keywords':['parameter','variable','argument','@','at'],'usage':'Used in Test hub for adding test step parameters.'}</v>
+      </c>
+      <c r="L340" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341">
+        <v>{"id":339,"name":"parameter","unicode":"EA52","decimal":59986,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["parameter","variable","argument","@","at"],"usage":"Used in Test hub for adding test step parameters."}</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="15">
         <f>'Bowtie v1.0 reorg'!A342</f>
         <v>340</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E342</f>
-        <v>0</v>
-      </c>
-      <c r="C341" t="str">
+        <v>step-insert</v>
+      </c>
+      <c r="C341" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C342</f>
         <v>EA53</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="15">
         <f>'Bowtie v1.0 reorg'!D342</f>
         <v>59987</v>
       </c>
-      <c r="E341" s="14" t="str">
+      <c r="E341" s="18">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F342),"",'Bowtie v1.0 reorg'!F342)</f>
-        <v/>
-      </c>
-      <c r="F341" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F341" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G342),"",'Bowtie v1.0 reorg'!G342)</f>
-        <v/>
-      </c>
-      <c r="G341" t="str">
+        <v>bold</v>
+      </c>
+      <c r="G341" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I342),"",'Bowtie v1.0 reorg'!I342)</f>
-        <v/>
-      </c>
-      <c r="H341" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H341" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J342),"",'Bowtie v1.0 reorg'!J342)</f>
-        <v/>
-      </c>
-      <c r="I341" t="str">
+        <v>Test</v>
+      </c>
+      <c r="I341" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H342),"",'Bowtie v1.0 reorg'!H342)</f>
-        <v/>
-      </c>
-      <c r="J341" t="str">
+        <v>step insert stairs arrow right</v>
+      </c>
+      <c r="J341" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K342),"",'Bowtie v1.0 reorg'!K342)</f>
-        <v/>
-      </c>
-      <c r="K341" t="e">
+        <v>Used in Test hub for adding test step.</v>
+      </c>
+      <c r="K341" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L341" t="e">
+        <v>{'id':340,'name':'step-insert','unicode':'EA53','decimal':59987,'version':'1.1','style':'bold','subset':'VSTS','group':'Test','keywords':['step','insert','stairs','arrow','right'],'usage':'Used in Test hub for adding test step.'}</v>
+      </c>
+      <c r="L341" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M341" s="15"/>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A342">
+        <v>{"id":340,"name":"step-insert","unicode":"EA53","decimal":59987,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","insert","stairs","arrow","right"],"usage":"Used in Test hub for adding test step."}</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="15">
         <f>'Bowtie v1.0 reorg'!A343</f>
         <v>341</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E343</f>
-        <v>0</v>
-      </c>
-      <c r="C342" t="str">
+        <v>step-shared-add</v>
+      </c>
+      <c r="C342" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C343</f>
         <v>EA54</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="15">
         <f>'Bowtie v1.0 reorg'!D343</f>
         <v>59988</v>
       </c>
-      <c r="E342" s="14" t="str">
+      <c r="E342" s="18">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F343),"",'Bowtie v1.0 reorg'!F343)</f>
-        <v/>
-      </c>
-      <c r="F342" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F342" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G343),"",'Bowtie v1.0 reorg'!G343)</f>
-        <v/>
-      </c>
-      <c r="G342" t="str">
+        <v>bold</v>
+      </c>
+      <c r="G342" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I343),"",'Bowtie v1.0 reorg'!I343)</f>
-        <v/>
-      </c>
-      <c r="H342" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H342" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J343),"",'Bowtie v1.0 reorg'!J343)</f>
-        <v/>
-      </c>
-      <c r="I342" t="str">
+        <v>Test</v>
+      </c>
+      <c r="I342" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H343),"",'Bowtie v1.0 reorg'!H343)</f>
-        <v/>
-      </c>
-      <c r="J342" t="str">
+        <v>step shared reuse multiple add plus stairs</v>
+      </c>
+      <c r="J342" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K343),"",'Bowtie v1.0 reorg'!K343)</f>
-        <v/>
-      </c>
-      <c r="K342" t="e">
+        <v>Used in Test hub for creating a new test step as shared step.</v>
+      </c>
+      <c r="K342" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L342" t="e">
+        <v>{'id':341,'name':'step-shared-add','unicode':'EA54','decimal':59988,'version':'1.1','style':'bold','subset':'VSTS','group':'Test','keywords':['step','shared','reuse','multiple','add','plus','stairs'],'usage':'Used in Test hub for creating a new test step as shared step.'}</v>
+      </c>
+      <c r="L342" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343">
+        <v>{"id":341,"name":"step-shared-add","unicode":"EA54","decimal":59988,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","add","plus","stairs"],"usage":"Used in Test hub for creating a new test step as shared step."}</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="15">
         <f>'Bowtie v1.0 reorg'!A344</f>
         <v>342</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E344</f>
-        <v>0</v>
-      </c>
-      <c r="C343" t="str">
+        <v>step-shared-insert</v>
+      </c>
+      <c r="C343" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C344</f>
         <v>EA55</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="15">
         <f>'Bowtie v1.0 reorg'!D344</f>
         <v>59989</v>
       </c>
-      <c r="E343" s="14" t="str">
+      <c r="E343" s="18">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F344),"",'Bowtie v1.0 reorg'!F344)</f>
-        <v/>
-      </c>
-      <c r="F343" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F343" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G344),"",'Bowtie v1.0 reorg'!G344)</f>
-        <v/>
-      </c>
-      <c r="G343" t="str">
+        <v>bold</v>
+      </c>
+      <c r="G343" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I344),"",'Bowtie v1.0 reorg'!I344)</f>
-        <v/>
-      </c>
-      <c r="H343" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H343" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J344),"",'Bowtie v1.0 reorg'!J344)</f>
-        <v/>
-      </c>
-      <c r="I343" t="str">
+        <v>Test</v>
+      </c>
+      <c r="I343" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H344),"",'Bowtie v1.0 reorg'!H344)</f>
-        <v/>
-      </c>
-      <c r="J343" t="str">
+        <v>step shared reuse multiple arrow right stairs</v>
+      </c>
+      <c r="J343" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K344),"",'Bowtie v1.0 reorg'!K344)</f>
-        <v/>
-      </c>
-      <c r="K343" t="e">
+        <v>Used in Test hub for inserting existing shared steps.</v>
+      </c>
+      <c r="K343" s="15" t="str">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L343" t="e">
+        <v>{'id':342,'name':'step-shared-insert','unicode':'EA55','decimal':59989,'version':'1.1','style':'bold','subset':'VSTS','group':'Test','keywords':['step','shared','reuse','multiple','arrow','right','stairs'],'usage':'Used in Test hub for inserting existing shared steps.'}</v>
+      </c>
+      <c r="L343" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>{"id":342,"name":"step-shared-insert","unicode":"EA55","decimal":59989,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","arrow","right","stairs"],"usage":"Used in Test hub for inserting existing shared steps."}</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="646">
   <si>
     <t>name</t>
   </si>
@@ -1928,6 +1928,36 @@
   </si>
   <si>
     <t>column-option</t>
+  </si>
+  <si>
+    <t>globe</t>
+  </si>
+  <si>
+    <t>locale-timezone</t>
+  </si>
+  <si>
+    <t>locale-language</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>web globe country region world</t>
+  </si>
+  <si>
+    <t>web globe country region world locale language letter character</t>
+  </si>
+  <si>
+    <t>web globe country region world timezone time clock</t>
+  </si>
+  <si>
+    <t>Used for web or website. Also used for region or country on user profile page.</t>
+  </si>
+  <si>
+    <t>Used for language preference on user profile page.</t>
+  </si>
+  <si>
+    <t>Used for timezone preference on user profile page.</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2043,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2060,7 +2090,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -15185,6 +15214,120 @@
         <a:xfrm>
           <a:off x="1123950" y="139045950"/>
           <a:ext cx="200053" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419135</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>333408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="347" name="Picture 346"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId346"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="139398375"/>
+          <a:ext cx="247685" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447710</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>333407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="348" name="Picture 347"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId347"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="139807950"/>
+          <a:ext cx="247685" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438187</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>361989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="349" name="Picture 348"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId348"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="140188950"/>
+          <a:ext cx="266737" cy="276264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15462,8 +15605,8 @@
   <dimension ref="A1:AL410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F345" sqref="F345"/>
+      <pane ySplit="2" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27340,9 +27483,30 @@
       <c r="D348" s="13">
         <v>59993</v>
       </c>
+      <c r="E348" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F348" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="I348" t="s">
+        <v>15</v>
+      </c>
+      <c r="J348" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K348" s="2" t="s">
+        <v>643</v>
+      </c>
       <c r="L348" t="str">
         <f t="shared" si="11"/>
-        <v>uEA59-.svg</v>
+        <v>uEA59-globe.svg</v>
       </c>
     </row>
     <row r="349" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -27356,9 +27520,30 @@
       <c r="D349" s="13">
         <v>59994</v>
       </c>
+      <c r="E349" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F349" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I349" t="s">
+        <v>15</v>
+      </c>
+      <c r="J349" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K349" s="2" t="s">
+        <v>644</v>
+      </c>
       <c r="L349" t="str">
         <f t="shared" si="11"/>
-        <v>uEA5A-.svg</v>
+        <v>uEA5A-locale-language.svg</v>
       </c>
     </row>
     <row r="350" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -27372,9 +27557,30 @@
       <c r="D350" s="13">
         <v>59995</v>
       </c>
+      <c r="E350" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F350" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I350" t="s">
+        <v>15</v>
+      </c>
+      <c r="J350" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K350" s="2" t="s">
+        <v>645</v>
+      </c>
       <c r="L350" t="str">
         <f t="shared" si="11"/>
-        <v>uEA5B-.svg</v>
+        <v>uEA5B-locale-timezone.svg</v>
       </c>
     </row>
     <row r="351" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28020,8 +28226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M362"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="G322" sqref="G322"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="F360" sqref="F360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44965,202 +45171,202 @@
         <v>{"id":338,"name":"personalize","unicode":"EA51","decimal":59985,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
       </c>
     </row>
-    <row r="340" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340">
         <f>'Bowtie v1.0 reorg'!A341</f>
         <v>339</v>
       </c>
-      <c r="B340" s="15" t="str">
+      <c r="B340" t="str">
         <f>'Bowtie v1.0 reorg'!E341</f>
         <v>parameter</v>
       </c>
-      <c r="C340" s="15" t="str">
+      <c r="C340" t="str">
         <f>'Bowtie v1.0 reorg'!C341</f>
         <v>EA52</v>
       </c>
-      <c r="D340" s="15">
+      <c r="D340">
         <f>'Bowtie v1.0 reorg'!D341</f>
         <v>59986</v>
       </c>
-      <c r="E340" s="18">
+      <c r="E340">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F341),"",'Bowtie v1.0 reorg'!F341)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F340" s="15" t="str">
+      <c r="F340" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G341),"",'Bowtie v1.0 reorg'!G341)</f>
         <v>light</v>
       </c>
-      <c r="G340" s="15" t="str">
+      <c r="G340" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I341),"",'Bowtie v1.0 reorg'!I341)</f>
         <v>VSTS</v>
       </c>
-      <c r="H340" s="15" t="str">
+      <c r="H340" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J341),"",'Bowtie v1.0 reorg'!J341)</f>
         <v>Test</v>
       </c>
-      <c r="I340" s="15" t="str">
+      <c r="I340" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H341),"",'Bowtie v1.0 reorg'!H341)</f>
         <v>parameter variable argument @ at</v>
       </c>
-      <c r="J340" s="15" t="str">
+      <c r="J340" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K341),"",'Bowtie v1.0 reorg'!K341)</f>
         <v>Used in Test hub for adding test step parameters.</v>
       </c>
-      <c r="K340" s="15" t="str">
+      <c r="K340" t="str">
         <f t="shared" si="12"/>
         <v>{'id':339,'name':'parameter','unicode':'EA52','decimal':59986,'version':'1.1','style':'light','subset':'VSTS','group':'Test','keywords':['parameter','variable','argument','@','at'],'usage':'Used in Test hub for adding test step parameters.'}</v>
       </c>
-      <c r="L340" s="15" t="str">
+      <c r="L340" t="str">
         <f t="shared" si="13"/>
         <v>{"id":339,"name":"parameter","unicode":"EA52","decimal":59986,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["parameter","variable","argument","@","at"],"usage":"Used in Test hub for adding test step parameters."}</v>
       </c>
     </row>
-    <row r="341" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="15">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341">
         <f>'Bowtie v1.0 reorg'!A342</f>
         <v>340</v>
       </c>
-      <c r="B341" s="15" t="str">
+      <c r="B341" t="str">
         <f>'Bowtie v1.0 reorg'!E342</f>
         <v>step-insert</v>
       </c>
-      <c r="C341" s="15" t="str">
+      <c r="C341" t="str">
         <f>'Bowtie v1.0 reorg'!C342</f>
         <v>EA53</v>
       </c>
-      <c r="D341" s="15">
+      <c r="D341">
         <f>'Bowtie v1.0 reorg'!D342</f>
         <v>59987</v>
       </c>
-      <c r="E341" s="18">
+      <c r="E341">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F342),"",'Bowtie v1.0 reorg'!F342)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F341" s="15" t="str">
+      <c r="F341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G342),"",'Bowtie v1.0 reorg'!G342)</f>
         <v>bold</v>
       </c>
-      <c r="G341" s="15" t="str">
+      <c r="G341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I342),"",'Bowtie v1.0 reorg'!I342)</f>
         <v>VSTS</v>
       </c>
-      <c r="H341" s="15" t="str">
+      <c r="H341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J342),"",'Bowtie v1.0 reorg'!J342)</f>
         <v>Test</v>
       </c>
-      <c r="I341" s="15" t="str">
+      <c r="I341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H342),"",'Bowtie v1.0 reorg'!H342)</f>
         <v>step insert stairs arrow right</v>
       </c>
-      <c r="J341" s="15" t="str">
+      <c r="J341" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K342),"",'Bowtie v1.0 reorg'!K342)</f>
         <v>Used in Test hub for adding test step.</v>
       </c>
-      <c r="K341" s="15" t="str">
+      <c r="K341" t="str">
         <f t="shared" si="12"/>
         <v>{'id':340,'name':'step-insert','unicode':'EA53','decimal':59987,'version':'1.1','style':'bold','subset':'VSTS','group':'Test','keywords':['step','insert','stairs','arrow','right'],'usage':'Used in Test hub for adding test step.'}</v>
       </c>
-      <c r="L341" s="15" t="str">
+      <c r="L341" t="str">
         <f t="shared" si="13"/>
         <v>{"id":340,"name":"step-insert","unicode":"EA53","decimal":59987,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","insert","stairs","arrow","right"],"usage":"Used in Test hub for adding test step."}</v>
       </c>
     </row>
-    <row r="342" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="15">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342">
         <f>'Bowtie v1.0 reorg'!A343</f>
         <v>341</v>
       </c>
-      <c r="B342" s="15" t="str">
+      <c r="B342" t="str">
         <f>'Bowtie v1.0 reorg'!E343</f>
         <v>step-shared-add</v>
       </c>
-      <c r="C342" s="15" t="str">
+      <c r="C342" t="str">
         <f>'Bowtie v1.0 reorg'!C343</f>
         <v>EA54</v>
       </c>
-      <c r="D342" s="15">
+      <c r="D342">
         <f>'Bowtie v1.0 reorg'!D343</f>
         <v>59988</v>
       </c>
-      <c r="E342" s="18">
+      <c r="E342">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F343),"",'Bowtie v1.0 reorg'!F343)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F342" s="15" t="str">
+      <c r="F342" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G343),"",'Bowtie v1.0 reorg'!G343)</f>
         <v>bold</v>
       </c>
-      <c r="G342" s="15" t="str">
+      <c r="G342" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I343),"",'Bowtie v1.0 reorg'!I343)</f>
         <v>VSTS</v>
       </c>
-      <c r="H342" s="15" t="str">
+      <c r="H342" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J343),"",'Bowtie v1.0 reorg'!J343)</f>
         <v>Test</v>
       </c>
-      <c r="I342" s="15" t="str">
+      <c r="I342" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H343),"",'Bowtie v1.0 reorg'!H343)</f>
         <v>step shared reuse multiple add plus stairs</v>
       </c>
-      <c r="J342" s="15" t="str">
+      <c r="J342" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K343),"",'Bowtie v1.0 reorg'!K343)</f>
         <v>Used in Test hub for creating a new test step as shared step.</v>
       </c>
-      <c r="K342" s="15" t="str">
+      <c r="K342" t="str">
         <f t="shared" si="12"/>
         <v>{'id':341,'name':'step-shared-add','unicode':'EA54','decimal':59988,'version':'1.1','style':'bold','subset':'VSTS','group':'Test','keywords':['step','shared','reuse','multiple','add','plus','stairs'],'usage':'Used in Test hub for creating a new test step as shared step.'}</v>
       </c>
-      <c r="L342" s="15" t="str">
+      <c r="L342" t="str">
         <f t="shared" si="13"/>
         <v>{"id":341,"name":"step-shared-add","unicode":"EA54","decimal":59988,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","add","plus","stairs"],"usage":"Used in Test hub for creating a new test step as shared step."}</v>
       </c>
     </row>
-    <row r="343" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="15">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343">
         <f>'Bowtie v1.0 reorg'!A344</f>
         <v>342</v>
       </c>
-      <c r="B343" s="15" t="str">
+      <c r="B343" t="str">
         <f>'Bowtie v1.0 reorg'!E344</f>
         <v>step-shared-insert</v>
       </c>
-      <c r="C343" s="15" t="str">
+      <c r="C343" t="str">
         <f>'Bowtie v1.0 reorg'!C344</f>
         <v>EA55</v>
       </c>
-      <c r="D343" s="15">
+      <c r="D343">
         <f>'Bowtie v1.0 reorg'!D344</f>
         <v>59989</v>
       </c>
-      <c r="E343" s="18">
+      <c r="E343">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F344),"",'Bowtie v1.0 reorg'!F344)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F343" s="15" t="str">
+      <c r="F343" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G344),"",'Bowtie v1.0 reorg'!G344)</f>
         <v>bold</v>
       </c>
-      <c r="G343" s="15" t="str">
+      <c r="G343" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I344),"",'Bowtie v1.0 reorg'!I344)</f>
         <v>VSTS</v>
       </c>
-      <c r="H343" s="15" t="str">
+      <c r="H343" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J344),"",'Bowtie v1.0 reorg'!J344)</f>
         <v>Test</v>
       </c>
-      <c r="I343" s="15" t="str">
+      <c r="I343" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H344),"",'Bowtie v1.0 reorg'!H344)</f>
         <v>step shared reuse multiple arrow right stairs</v>
       </c>
-      <c r="J343" s="15" t="str">
+      <c r="J343" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K344),"",'Bowtie v1.0 reorg'!K344)</f>
         <v>Used in Test hub for inserting existing shared steps.</v>
       </c>
-      <c r="K343" s="15" t="str">
+      <c r="K343" t="str">
         <f t="shared" si="12"/>
         <v>{'id':342,'name':'step-shared-insert','unicode':'EA55','decimal':59989,'version':'1.1','style':'bold','subset':'VSTS','group':'Test','keywords':['step','shared','reuse','multiple','arrow','right','stairs'],'usage':'Used in Test hub for inserting existing shared steps.'}</v>
       </c>
-      <c r="L343" s="15" t="str">
+      <c r="L343" t="str">
         <f t="shared" si="13"/>
         <v>{"id":342,"name":"step-shared-insert","unicode":"EA55","decimal":59989,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","arrow","right","stairs"],"usage":"Used in Test hub for inserting existing shared steps."}</v>
       </c>
@@ -45283,7 +45489,7 @@
         <f>'Bowtie v1.0 reorg'!D347</f>
         <v>59992</v>
       </c>
-      <c r="E346" s="14">
+      <c r="E346">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F347),"",'Bowtie v1.0 reorg'!F347)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45308,163 +45514,162 @@
         <v>Used for a group of reusable build, deployment tasks.</v>
       </c>
       <c r="K346" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K346:K361" si="14">IF(NOT(ISBLANK(A346)),CONCATENATE("{'",$A$1,"':",A346,",'",$B$1,"':'",B346,"',","'",$C$1,"':'",C346,"','",$D$1,"':",D346,",'",$E$1,"':'",FIXED(E346,1),"','",$F$1,"':'",F346,"','",$G$1,"':'",G346,"','",$H$1,"':'",H346,"','",$I$1,"':['",SUBSTITUTE(I346," ","','"),"'],'",$J$1,"':'",J346,"'}"))</f>
         <v>{'id':345,'name':'column-option','unicode':'EA58','decimal':59992,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['column','option','settings','gear'],'usage':'Used for a group of reusable build, deployment tasks.'}</v>
       </c>
       <c r="L346" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L346:L361" si="15">SUBSTITUTE(K346,"'","""")</f>
         <v>{"id":345,"name":"column-option","unicode":"EA58","decimal":59992,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["column","option","settings","gear"],"usage":"Used for a group of reusable build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="347" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="15">
         <f>'Bowtie v1.0 reorg'!A348</f>
         <v>346</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E348</f>
-        <v>0</v>
-      </c>
-      <c r="C347" t="str">
+        <v>globe</v>
+      </c>
+      <c r="C347" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C348</f>
         <v>EA59</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="15">
         <f>'Bowtie v1.0 reorg'!D348</f>
         <v>59993</v>
       </c>
-      <c r="E347" s="14" t="str">
+      <c r="E347" s="15">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F348),"",'Bowtie v1.0 reorg'!F348)</f>
-        <v/>
-      </c>
-      <c r="F347" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F347" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G348),"",'Bowtie v1.0 reorg'!G348)</f>
-        <v/>
-      </c>
-      <c r="G347" t="str">
+        <v>light</v>
+      </c>
+      <c r="G347" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I348),"",'Bowtie v1.0 reorg'!I348)</f>
-        <v/>
-      </c>
-      <c r="H347" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H347" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J348),"",'Bowtie v1.0 reorg'!J348)</f>
-        <v/>
-      </c>
-      <c r="I347" t="str">
+        <v>Common</v>
+      </c>
+      <c r="I347" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H348),"",'Bowtie v1.0 reorg'!H348)</f>
-        <v/>
-      </c>
-      <c r="J347" t="str">
+        <v>web globe country region world</v>
+      </c>
+      <c r="J347" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K348),"",'Bowtie v1.0 reorg'!K348)</f>
-        <v/>
-      </c>
-      <c r="K347" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L347" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M347" s="15"/>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A348">
+        <v>Used for web or website. Also used for region or country on user profile page.</v>
+      </c>
+      <c r="K347" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>{'id':346,'name':'globe','unicode':'EA59','decimal':59993,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['web','globe','country','region','world'],'usage':'Used for web or website. Also used for region or country on user profile page.'}</v>
+      </c>
+      <c r="L347" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>{"id":346,"name":"globe","unicode":"EA59","decimal":59993,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["web","globe","country","region","world"],"usage":"Used for web or website. Also used for region or country on user profile page."}</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="15">
         <f>'Bowtie v1.0 reorg'!A349</f>
         <v>347</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E349</f>
-        <v>0</v>
-      </c>
-      <c r="C348" t="str">
+        <v>locale-language</v>
+      </c>
+      <c r="C348" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C349</f>
         <v>EA5A</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="15">
         <f>'Bowtie v1.0 reorg'!D349</f>
         <v>59994</v>
       </c>
-      <c r="E348" s="14" t="str">
+      <c r="E348" s="15">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F349),"",'Bowtie v1.0 reorg'!F349)</f>
-        <v/>
-      </c>
-      <c r="F348" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F348" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G349),"",'Bowtie v1.0 reorg'!G349)</f>
-        <v/>
-      </c>
-      <c r="G348" t="str">
+        <v>light</v>
+      </c>
+      <c r="G348" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I349),"",'Bowtie v1.0 reorg'!I349)</f>
-        <v/>
-      </c>
-      <c r="H348" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H348" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J349),"",'Bowtie v1.0 reorg'!J349)</f>
-        <v/>
-      </c>
-      <c r="I348" t="str">
+        <v>Profile</v>
+      </c>
+      <c r="I348" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H349),"",'Bowtie v1.0 reorg'!H349)</f>
-        <v/>
-      </c>
-      <c r="J348" t="str">
+        <v>web globe country region world locale language letter character</v>
+      </c>
+      <c r="J348" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K349),"",'Bowtie v1.0 reorg'!K349)</f>
-        <v/>
-      </c>
-      <c r="K348" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L348" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349">
+        <v>Used for language preference on user profile page.</v>
+      </c>
+      <c r="K348" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>{'id':347,'name':'locale-language','unicode':'EA5A','decimal':59994,'version':'1.1','style':'light','subset':'VSTS','group':'Profile','keywords':['web','globe','country','region','world','locale','language','letter','character'],'usage':'Used for language preference on user profile page.'}</v>
+      </c>
+      <c r="L348" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>{"id":347,"name":"locale-language","unicode":"EA5A","decimal":59994,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","locale","language","letter","character"],"usage":"Used for language preference on user profile page."}</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="15">
         <f>'Bowtie v1.0 reorg'!A350</f>
         <v>348</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E350</f>
-        <v>0</v>
-      </c>
-      <c r="C349" t="str">
+        <v>locale-timezone</v>
+      </c>
+      <c r="C349" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C350</f>
         <v>EA5B</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="15">
         <f>'Bowtie v1.0 reorg'!D350</f>
         <v>59995</v>
       </c>
-      <c r="E349" s="14" t="str">
+      <c r="E349" s="15">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F350),"",'Bowtie v1.0 reorg'!F350)</f>
-        <v/>
-      </c>
-      <c r="F349" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F349" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G350),"",'Bowtie v1.0 reorg'!G350)</f>
-        <v/>
-      </c>
-      <c r="G349" t="str">
+        <v>light</v>
+      </c>
+      <c r="G349" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I350),"",'Bowtie v1.0 reorg'!I350)</f>
-        <v/>
-      </c>
-      <c r="H349" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H349" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J350),"",'Bowtie v1.0 reorg'!J350)</f>
-        <v/>
-      </c>
-      <c r="I349" t="str">
+        <v>Profile</v>
+      </c>
+      <c r="I349" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H350),"",'Bowtie v1.0 reorg'!H350)</f>
-        <v/>
-      </c>
-      <c r="J349" t="str">
+        <v>web globe country region world timezone time clock</v>
+      </c>
+      <c r="J349" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K350),"",'Bowtie v1.0 reorg'!K350)</f>
-        <v/>
-      </c>
-      <c r="K349" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L349" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>Used for timezone preference on user profile page.</v>
+      </c>
+      <c r="K349" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>{'id':348,'name':'locale-timezone','unicode':'EA5B','decimal':59995,'version':'1.1','style':'light','subset':'VSTS','group':'Profile','keywords':['web','globe','country','region','world','timezone','time','clock'],'usage':'Used for timezone preference on user profile page.'}</v>
+      </c>
+      <c r="L349" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>{"id":348,"name":"locale-timezone","unicode":"EA5B","decimal":59995,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","timezone","time","clock"],"usage":"Used for timezone preference on user profile page."}</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -45509,11 +45714,11 @@
         <v/>
       </c>
       <c r="K350" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L350" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="M350" s="15"/>
@@ -45560,11 +45765,11 @@
         <v/>
       </c>
       <c r="K351" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L351" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45585,7 +45790,7 @@
         <f>'Bowtie v1.0 reorg'!D353</f>
         <v>59998</v>
       </c>
-      <c r="E352" s="14" t="str">
+      <c r="E352" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F353),"",'Bowtie v1.0 reorg'!F353)</f>
         <v/>
       </c>
@@ -45610,11 +45815,11 @@
         <v/>
       </c>
       <c r="K352" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L352" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45635,7 +45840,7 @@
         <f>'Bowtie v1.0 reorg'!D354</f>
         <v>59999</v>
       </c>
-      <c r="E353" s="14" t="str">
+      <c r="E353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F354),"",'Bowtie v1.0 reorg'!F354)</f>
         <v/>
       </c>
@@ -45660,11 +45865,11 @@
         <v/>
       </c>
       <c r="K353" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L353" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="M353" s="15"/>
@@ -45686,7 +45891,7 @@
         <f>'Bowtie v1.0 reorg'!D355</f>
         <v>60000</v>
       </c>
-      <c r="E354" s="14" t="str">
+      <c r="E354" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F355),"",'Bowtie v1.0 reorg'!F355)</f>
         <v/>
       </c>
@@ -45711,11 +45916,11 @@
         <v/>
       </c>
       <c r="K354" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L354" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45736,7 +45941,7 @@
         <f>'Bowtie v1.0 reorg'!D356</f>
         <v>60001</v>
       </c>
-      <c r="E355" s="14" t="str">
+      <c r="E355" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F356),"",'Bowtie v1.0 reorg'!F356)</f>
         <v/>
       </c>
@@ -45761,11 +45966,11 @@
         <v/>
       </c>
       <c r="K355" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L355" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45811,11 +46016,11 @@
         <v/>
       </c>
       <c r="K356" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L356" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="M356" s="15"/>
@@ -45862,11 +46067,11 @@
         <v/>
       </c>
       <c r="K357" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L357" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45887,7 +46092,7 @@
         <f>'Bowtie v1.0 reorg'!D359</f>
         <v>60004</v>
       </c>
-      <c r="E358" s="14" t="str">
+      <c r="E358" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F359),"",'Bowtie v1.0 reorg'!F359)</f>
         <v/>
       </c>
@@ -45912,11 +46117,11 @@
         <v/>
       </c>
       <c r="K358" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L358" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -45937,7 +46142,7 @@
         <f>'Bowtie v1.0 reorg'!D360</f>
         <v>60005</v>
       </c>
-      <c r="E359" s="14" t="str">
+      <c r="E359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F360),"",'Bowtie v1.0 reorg'!F360)</f>
         <v/>
       </c>
@@ -45962,11 +46167,11 @@
         <v/>
       </c>
       <c r="K359" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L359" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="M359" s="15"/>
@@ -45988,7 +46193,7 @@
         <f>'Bowtie v1.0 reorg'!D361</f>
         <v>60006</v>
       </c>
-      <c r="E360" s="14" t="str">
+      <c r="E360" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F361),"",'Bowtie v1.0 reorg'!F361)</f>
         <v/>
       </c>
@@ -46013,11 +46218,11 @@
         <v/>
       </c>
       <c r="K360" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L360" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -46038,7 +46243,7 @@
         <f>'Bowtie v1.0 reorg'!D362</f>
         <v>60007</v>
       </c>
-      <c r="E361" s="14" t="str">
+      <c r="E361" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F362),"",'Bowtie v1.0 reorg'!F362)</f>
         <v/>
       </c>
@@ -46063,11 +46268,11 @@
         <v/>
       </c>
       <c r="K361" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L361" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -46116,7 +46321,7 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L362" t="e">
+      <c r="L362" s="15" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="651">
   <si>
     <t>name</t>
   </si>
@@ -1958,6 +1958,21 @@
   </si>
   <si>
     <t>Used for timezone preference on user profile page.</t>
+  </si>
+  <si>
+    <t>feedback-negative-outline</t>
+  </si>
+  <si>
+    <t>feedback-positive-outline</t>
+  </si>
+  <si>
+    <t>feedback positive smile</t>
+  </si>
+  <si>
+    <t>feedback negative sad</t>
+  </si>
+  <si>
+    <t>Used in dropdown menu on white background.</t>
   </si>
 </sst>
 </file>
@@ -2043,7 +2058,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2090,6 +2105,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -15328,6 +15344,82 @@
         <a:xfrm>
           <a:off x="1114425" y="140188950"/>
           <a:ext cx="266737" cy="276264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409606</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>304828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="350" name="Picture 349"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId349"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="140608050"/>
+          <a:ext cx="219106" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400078</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>314356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="351" name="Picture 350"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId350"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="140998575"/>
+          <a:ext cx="200053" cy="219106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15606,7 +15698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C350" sqref="C350"/>
+      <selection pane="bottomLeft" activeCell="G347" sqref="G347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27594,9 +27686,30 @@
       <c r="D351" s="13">
         <v>59996</v>
       </c>
+      <c r="E351" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F351" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="I351" t="s">
+        <v>15</v>
+      </c>
+      <c r="J351" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K351" s="2" t="s">
+        <v>650</v>
+      </c>
       <c r="L351" t="str">
         <f t="shared" si="11"/>
-        <v>uEA5C-.svg</v>
+        <v>uEA5C-feedback-positive-outline.svg</v>
       </c>
     </row>
     <row r="352" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -27610,9 +27723,30 @@
       <c r="D352" s="13">
         <v>59997</v>
       </c>
+      <c r="E352" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F352" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="I352" t="s">
+        <v>15</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>650</v>
+      </c>
       <c r="L352" t="str">
         <f t="shared" si="11"/>
-        <v>uEA5D-.svg</v>
+        <v>uEA5D-feedback-negative-outline.svg</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28227,7 +28361,7 @@
   <dimension ref="A1:M362"/>
   <sheetViews>
     <sheetView topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="F360" sqref="F360"/>
+      <selection activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45522,255 +45656,255 @@
         <v>{"id":345,"name":"column-option","unicode":"EA58","decimal":59992,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["column","option","settings","gear"],"usage":"Used for a group of reusable build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="347" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="15">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A347">
         <f>'Bowtie v1.0 reorg'!A348</f>
         <v>346</v>
       </c>
-      <c r="B347" s="15" t="str">
+      <c r="B347" t="str">
         <f>'Bowtie v1.0 reorg'!E348</f>
         <v>globe</v>
       </c>
-      <c r="C347" s="15" t="str">
+      <c r="C347" t="str">
         <f>'Bowtie v1.0 reorg'!C348</f>
         <v>EA59</v>
       </c>
-      <c r="D347" s="15">
+      <c r="D347">
         <f>'Bowtie v1.0 reorg'!D348</f>
         <v>59993</v>
       </c>
-      <c r="E347" s="15">
+      <c r="E347">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F348),"",'Bowtie v1.0 reorg'!F348)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F347" s="15" t="str">
+      <c r="F347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G348),"",'Bowtie v1.0 reorg'!G348)</f>
         <v>light</v>
       </c>
-      <c r="G347" s="15" t="str">
+      <c r="G347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I348),"",'Bowtie v1.0 reorg'!I348)</f>
         <v>VSTS</v>
       </c>
-      <c r="H347" s="15" t="str">
+      <c r="H347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J348),"",'Bowtie v1.0 reorg'!J348)</f>
         <v>Common</v>
       </c>
-      <c r="I347" s="15" t="str">
+      <c r="I347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H348),"",'Bowtie v1.0 reorg'!H348)</f>
         <v>web globe country region world</v>
       </c>
-      <c r="J347" s="15" t="str">
+      <c r="J347" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K348),"",'Bowtie v1.0 reorg'!K348)</f>
         <v>Used for web or website. Also used for region or country on user profile page.</v>
       </c>
-      <c r="K347" s="15" t="str">
+      <c r="K347" t="str">
         <f t="shared" si="14"/>
         <v>{'id':346,'name':'globe','unicode':'EA59','decimal':59993,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['web','globe','country','region','world'],'usage':'Used for web or website. Also used for region or country on user profile page.'}</v>
       </c>
-      <c r="L347" s="15" t="str">
+      <c r="L347" t="str">
         <f t="shared" si="15"/>
         <v>{"id":346,"name":"globe","unicode":"EA59","decimal":59993,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["web","globe","country","region","world"],"usage":"Used for web or website. Also used for region or country on user profile page."}</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="15">
+      <c r="M347" s="15"/>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A348">
         <f>'Bowtie v1.0 reorg'!A349</f>
         <v>347</v>
       </c>
-      <c r="B348" s="15" t="str">
+      <c r="B348" t="str">
         <f>'Bowtie v1.0 reorg'!E349</f>
         <v>locale-language</v>
       </c>
-      <c r="C348" s="15" t="str">
+      <c r="C348" t="str">
         <f>'Bowtie v1.0 reorg'!C349</f>
         <v>EA5A</v>
       </c>
-      <c r="D348" s="15">
+      <c r="D348">
         <f>'Bowtie v1.0 reorg'!D349</f>
         <v>59994</v>
       </c>
-      <c r="E348" s="15">
+      <c r="E348">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F349),"",'Bowtie v1.0 reorg'!F349)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F348" s="15" t="str">
+      <c r="F348" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G349),"",'Bowtie v1.0 reorg'!G349)</f>
         <v>light</v>
       </c>
-      <c r="G348" s="15" t="str">
+      <c r="G348" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I349),"",'Bowtie v1.0 reorg'!I349)</f>
         <v>VSTS</v>
       </c>
-      <c r="H348" s="15" t="str">
+      <c r="H348" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J349),"",'Bowtie v1.0 reorg'!J349)</f>
         <v>Profile</v>
       </c>
-      <c r="I348" s="15" t="str">
+      <c r="I348" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H349),"",'Bowtie v1.0 reorg'!H349)</f>
         <v>web globe country region world locale language letter character</v>
       </c>
-      <c r="J348" s="15" t="str">
+      <c r="J348" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K349),"",'Bowtie v1.0 reorg'!K349)</f>
         <v>Used for language preference on user profile page.</v>
       </c>
-      <c r="K348" s="15" t="str">
+      <c r="K348" t="str">
         <f t="shared" si="14"/>
         <v>{'id':347,'name':'locale-language','unicode':'EA5A','decimal':59994,'version':'1.1','style':'light','subset':'VSTS','group':'Profile','keywords':['web','globe','country','region','world','locale','language','letter','character'],'usage':'Used for language preference on user profile page.'}</v>
       </c>
-      <c r="L348" s="15" t="str">
+      <c r="L348" t="str">
         <f t="shared" si="15"/>
         <v>{"id":347,"name":"locale-language","unicode":"EA5A","decimal":59994,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","locale","language","letter","character"],"usage":"Used for language preference on user profile page."}</v>
       </c>
     </row>
-    <row r="349" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="15">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A349">
         <f>'Bowtie v1.0 reorg'!A350</f>
         <v>348</v>
       </c>
-      <c r="B349" s="15" t="str">
+      <c r="B349" t="str">
         <f>'Bowtie v1.0 reorg'!E350</f>
         <v>locale-timezone</v>
       </c>
-      <c r="C349" s="15" t="str">
+      <c r="C349" t="str">
         <f>'Bowtie v1.0 reorg'!C350</f>
         <v>EA5B</v>
       </c>
-      <c r="D349" s="15">
+      <c r="D349">
         <f>'Bowtie v1.0 reorg'!D350</f>
         <v>59995</v>
       </c>
-      <c r="E349" s="15">
+      <c r="E349">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F350),"",'Bowtie v1.0 reorg'!F350)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F349" s="15" t="str">
+      <c r="F349" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G350),"",'Bowtie v1.0 reorg'!G350)</f>
         <v>light</v>
       </c>
-      <c r="G349" s="15" t="str">
+      <c r="G349" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I350),"",'Bowtie v1.0 reorg'!I350)</f>
         <v>VSTS</v>
       </c>
-      <c r="H349" s="15" t="str">
+      <c r="H349" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J350),"",'Bowtie v1.0 reorg'!J350)</f>
         <v>Profile</v>
       </c>
-      <c r="I349" s="15" t="str">
+      <c r="I349" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H350),"",'Bowtie v1.0 reorg'!H350)</f>
         <v>web globe country region world timezone time clock</v>
       </c>
-      <c r="J349" s="15" t="str">
+      <c r="J349" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K350),"",'Bowtie v1.0 reorg'!K350)</f>
         <v>Used for timezone preference on user profile page.</v>
       </c>
-      <c r="K349" s="15" t="str">
+      <c r="K349" t="str">
         <f t="shared" si="14"/>
         <v>{'id':348,'name':'locale-timezone','unicode':'EA5B','decimal':59995,'version':'1.1','style':'light','subset':'VSTS','group':'Profile','keywords':['web','globe','country','region','world','timezone','time','clock'],'usage':'Used for timezone preference on user profile page.'}</v>
       </c>
-      <c r="L349" s="15" t="str">
+      <c r="L349" t="str">
         <f t="shared" si="15"/>
         <v>{"id":348,"name":"locale-timezone","unicode":"EA5B","decimal":59995,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","timezone","time","clock"],"usage":"Used for timezone preference on user profile page."}</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="350" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="15">
         <f>'Bowtie v1.0 reorg'!A351</f>
         <v>349</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E351</f>
-        <v>0</v>
-      </c>
-      <c r="C350" t="str">
+        <v>feedback-positive-outline</v>
+      </c>
+      <c r="C350" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C351</f>
         <v>EA5C</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="15">
         <f>'Bowtie v1.0 reorg'!D351</f>
         <v>59996</v>
       </c>
-      <c r="E350" s="14" t="str">
+      <c r="E350" s="18">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F351),"",'Bowtie v1.0 reorg'!F351)</f>
-        <v/>
-      </c>
-      <c r="F350" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F350" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G351),"",'Bowtie v1.0 reorg'!G351)</f>
-        <v/>
-      </c>
-      <c r="G350" t="str">
+        <v>light</v>
+      </c>
+      <c r="G350" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I351),"",'Bowtie v1.0 reorg'!I351)</f>
-        <v/>
-      </c>
-      <c r="H350" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H350" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J351),"",'Bowtie v1.0 reorg'!J351)</f>
-        <v/>
-      </c>
-      <c r="I350" t="str">
+        <v>Common</v>
+      </c>
+      <c r="I350" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H351),"",'Bowtie v1.0 reorg'!H351)</f>
-        <v/>
-      </c>
-      <c r="J350" t="str">
+        <v>feedback positive smile</v>
+      </c>
+      <c r="J350" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K351),"",'Bowtie v1.0 reorg'!K351)</f>
-        <v/>
-      </c>
-      <c r="K350" t="e">
+        <v>Used in dropdown menu on white background.</v>
+      </c>
+      <c r="K350" s="15" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L350" t="e">
+        <v>{'id':349,'name':'feedback-positive-outline','unicode':'EA5C','decimal':59996,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['feedback','positive','smile'],'usage':'Used in dropdown menu on white background.'}</v>
+      </c>
+      <c r="L350" s="15" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M350" s="15"/>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351">
+        <v>{"id":349,"name":"feedback-positive-outline","unicode":"EA5C","decimal":59996,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","positive","smile"],"usage":"Used in dropdown menu on white background."}</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="15">
         <f>'Bowtie v1.0 reorg'!A352</f>
         <v>350</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E352</f>
-        <v>0</v>
-      </c>
-      <c r="C351" t="str">
+        <v>feedback-negative-outline</v>
+      </c>
+      <c r="C351" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C352</f>
         <v>EA5D</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="15">
         <f>'Bowtie v1.0 reorg'!D352</f>
         <v>59997</v>
       </c>
-      <c r="E351" s="14" t="str">
+      <c r="E351" s="18">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F352),"",'Bowtie v1.0 reorg'!F352)</f>
-        <v/>
-      </c>
-      <c r="F351" t="str">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F351" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G352),"",'Bowtie v1.0 reorg'!G352)</f>
-        <v/>
-      </c>
-      <c r="G351" t="str">
+        <v>light</v>
+      </c>
+      <c r="G351" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I352),"",'Bowtie v1.0 reorg'!I352)</f>
-        <v/>
-      </c>
-      <c r="H351" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H351" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J352),"",'Bowtie v1.0 reorg'!J352)</f>
-        <v/>
-      </c>
-      <c r="I351" t="str">
+        <v>Common</v>
+      </c>
+      <c r="I351" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H352),"",'Bowtie v1.0 reorg'!H352)</f>
-        <v/>
-      </c>
-      <c r="J351" t="str">
+        <v>feedback negative sad</v>
+      </c>
+      <c r="J351" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K352),"",'Bowtie v1.0 reorg'!K352)</f>
-        <v/>
-      </c>
-      <c r="K351" t="e">
+        <v>Used in dropdown menu on white background.</v>
+      </c>
+      <c r="K351" s="15" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L351" t="e">
+        <v>{'id':350,'name':'feedback-negative-outline','unicode':'EA5D','decimal':59997,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['feedback','negative','sad'],'usage':'Used in dropdown menu on white background.'}</v>
+      </c>
+      <c r="L351" s="15" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":350,"name":"feedback-negative-outline","unicode":"EA5D","decimal":59997,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","negative","sad"],"usage":"Used in dropdown menu on white background."}</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -15697,8 +15697,8 @@
   <dimension ref="A1:AL410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G347" sqref="G347"/>
+      <pane ySplit="2" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K355" sqref="K355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27760,6 +27760,10 @@
       <c r="D353" s="13">
         <v>59998</v>
       </c>
+      <c r="F353" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I353"/>
       <c r="L353" t="str">
         <f t="shared" si="11"/>
         <v>uEA5E-.svg</v>
@@ -45924,9 +45928,9 @@
         <f>'Bowtie v1.0 reorg'!D353</f>
         <v>59998</v>
       </c>
-      <c r="E352" t="str">
+      <c r="E352">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F353),"",'Bowtie v1.0 reorg'!F353)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F352" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G353),"",'Bowtie v1.0 reorg'!G353)</f>
@@ -45948,13 +45952,13 @@
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K353),"",'Bowtie v1.0 reorg'!K353)</f>
         <v/>
       </c>
-      <c r="K352" t="e">
+      <c r="K352" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L352" t="e">
+        <v>{'id':351,'name':'0','unicode':'EA5E','decimal':59998,'version':'1.1','style':'','subset':'','group':'','keywords':[''],'usage':''}</v>
+      </c>
+      <c r="L352" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":351,"name":"0","unicode":"EA5E","decimal":59998,"version":"1.1","style":"","subset":"","group":"","keywords":[""],"usage":""}</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="654">
   <si>
     <t>name</t>
   </si>
@@ -1973,6 +1973,15 @@
   </si>
   <si>
     <t>Used in dropdown menu on white background.</t>
+  </si>
+  <si>
+    <t>contact-card</t>
+  </si>
+  <si>
+    <t>contact info card email user profile</t>
+  </si>
+  <si>
+    <t>Used for contact card.</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2067,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2105,7 +2114,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -15420,6 +15428,44 @@
         <a:xfrm>
           <a:off x="1143000" y="140998575"/>
           <a:ext cx="200053" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381029</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>295307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="352" name="Picture 351"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId351"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="141370050"/>
+          <a:ext cx="209579" cy="228632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15697,8 +15743,8 @@
   <dimension ref="A1:AL410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K355" sqref="K355"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27760,13 +27806,30 @@
       <c r="D353" s="13">
         <v>59998</v>
       </c>
+      <c r="E353" s="2" t="s">
+        <v>651</v>
+      </c>
       <c r="F353" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I353"/>
+      <c r="G353" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="K353" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="L353" t="str">
         <f t="shared" si="11"/>
-        <v>uEA5E-.svg</v>
+        <v>uEA5E-contact-card.svg</v>
       </c>
     </row>
     <row r="354" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28362,10 +28425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M362"/>
+  <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="C350" sqref="C350"/>
+    <sheetView topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="O351" sqref="O351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28428,7 +28491,7 @@
         <f>'Bowtie v1.0 reorg'!D3</f>
         <v>59648</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F3),"",'Bowtie v1.0 reorg'!F3)</f>
         <v>1</v>
       </c>
@@ -28478,7 +28541,7 @@
         <f>'Bowtie v1.0 reorg'!D4</f>
         <v>59649</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F4),"",'Bowtie v1.0 reorg'!F4)</f>
         <v>1</v>
       </c>
@@ -28528,7 +28591,7 @@
         <f>'Bowtie v1.0 reorg'!D5</f>
         <v>59650</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F5),"",'Bowtie v1.0 reorg'!F5)</f>
         <v>1</v>
       </c>
@@ -28578,7 +28641,7 @@
         <f>'Bowtie v1.0 reorg'!D6</f>
         <v>59651</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F6),"",'Bowtie v1.0 reorg'!F6)</f>
         <v>1</v>
       </c>
@@ -28628,7 +28691,7 @@
         <f>'Bowtie v1.0 reorg'!D7</f>
         <v>59652</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F7),"",'Bowtie v1.0 reorg'!F7)</f>
         <v>1</v>
       </c>
@@ -28678,7 +28741,7 @@
         <f>'Bowtie v1.0 reorg'!D8</f>
         <v>59653</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F8),"",'Bowtie v1.0 reorg'!F8)</f>
         <v>1</v>
       </c>
@@ -28728,7 +28791,7 @@
         <f>'Bowtie v1.0 reorg'!D9</f>
         <v>59654</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F9),"",'Bowtie v1.0 reorg'!F9)</f>
         <v>1</v>
       </c>
@@ -28778,7 +28841,7 @@
         <f>'Bowtie v1.0 reorg'!D10</f>
         <v>59655</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F10),"",'Bowtie v1.0 reorg'!F10)</f>
         <v>1</v>
       </c>
@@ -28828,7 +28891,7 @@
         <f>'Bowtie v1.0 reorg'!D11</f>
         <v>59656</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F11),"",'Bowtie v1.0 reorg'!F11)</f>
         <v>1</v>
       </c>
@@ -28878,7 +28941,7 @@
         <f>'Bowtie v1.0 reorg'!D12</f>
         <v>59657</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F12),"",'Bowtie v1.0 reorg'!F12)</f>
         <v>1</v>
       </c>
@@ -28928,7 +28991,7 @@
         <f>'Bowtie v1.0 reorg'!D13</f>
         <v>59658</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F13),"",'Bowtie v1.0 reorg'!F13)</f>
         <v>1</v>
       </c>
@@ -28978,7 +29041,7 @@
         <f>'Bowtie v1.0 reorg'!D14</f>
         <v>59659</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F14),"",'Bowtie v1.0 reorg'!F14)</f>
         <v>1</v>
       </c>
@@ -29028,7 +29091,7 @@
         <f>'Bowtie v1.0 reorg'!D15</f>
         <v>59660</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F15),"",'Bowtie v1.0 reorg'!F15)</f>
         <v>1</v>
       </c>
@@ -29078,7 +29141,7 @@
         <f>'Bowtie v1.0 reorg'!D16</f>
         <v>59661</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F16),"",'Bowtie v1.0 reorg'!F16)</f>
         <v>1</v>
       </c>
@@ -29128,7 +29191,7 @@
         <f>'Bowtie v1.0 reorg'!D17</f>
         <v>59662</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F17),"",'Bowtie v1.0 reorg'!F17)</f>
         <v>1</v>
       </c>
@@ -29178,7 +29241,7 @@
         <f>'Bowtie v1.0 reorg'!D18</f>
         <v>59663</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F18),"",'Bowtie v1.0 reorg'!F18)</f>
         <v>1</v>
       </c>
@@ -29228,7 +29291,7 @@
         <f>'Bowtie v1.0 reorg'!D19</f>
         <v>59664</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F19),"",'Bowtie v1.0 reorg'!F19)</f>
         <v>1</v>
       </c>
@@ -29278,7 +29341,7 @@
         <f>'Bowtie v1.0 reorg'!D20</f>
         <v>59665</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F20),"",'Bowtie v1.0 reorg'!F20)</f>
         <v>1</v>
       </c>
@@ -29328,7 +29391,7 @@
         <f>'Bowtie v1.0 reorg'!D21</f>
         <v>59666</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F21),"",'Bowtie v1.0 reorg'!F21)</f>
         <v>1</v>
       </c>
@@ -29378,7 +29441,7 @@
         <f>'Bowtie v1.0 reorg'!D22</f>
         <v>59667</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F22),"",'Bowtie v1.0 reorg'!F22)</f>
         <v>1</v>
       </c>
@@ -29428,7 +29491,7 @@
         <f>'Bowtie v1.0 reorg'!D23</f>
         <v>59668</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F23),"",'Bowtie v1.0 reorg'!F23)</f>
         <v>1</v>
       </c>
@@ -29478,7 +29541,7 @@
         <f>'Bowtie v1.0 reorg'!D24</f>
         <v>59669</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F24),"",'Bowtie v1.0 reorg'!F24)</f>
         <v>1</v>
       </c>
@@ -29528,7 +29591,7 @@
         <f>'Bowtie v1.0 reorg'!D25</f>
         <v>59670</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F25),"",'Bowtie v1.0 reorg'!F25)</f>
         <v>1</v>
       </c>
@@ -29578,7 +29641,7 @@
         <f>'Bowtie v1.0 reorg'!D26</f>
         <v>59671</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F26),"",'Bowtie v1.0 reorg'!F26)</f>
         <v>1</v>
       </c>
@@ -29628,7 +29691,7 @@
         <f>'Bowtie v1.0 reorg'!D27</f>
         <v>59672</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F27),"",'Bowtie v1.0 reorg'!F27)</f>
         <v>1</v>
       </c>
@@ -29678,7 +29741,7 @@
         <f>'Bowtie v1.0 reorg'!D28</f>
         <v>59673</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F28),"",'Bowtie v1.0 reorg'!F28)</f>
         <v>1</v>
       </c>
@@ -29728,7 +29791,7 @@
         <f>'Bowtie v1.0 reorg'!D29</f>
         <v>59674</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F29),"",'Bowtie v1.0 reorg'!F29)</f>
         <v>1</v>
       </c>
@@ -29778,7 +29841,7 @@
         <f>'Bowtie v1.0 reorg'!D30</f>
         <v>59675</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F30),"",'Bowtie v1.0 reorg'!F30)</f>
         <v>1</v>
       </c>
@@ -29828,7 +29891,7 @@
         <f>'Bowtie v1.0 reorg'!D31</f>
         <v>59676</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F31),"",'Bowtie v1.0 reorg'!F31)</f>
         <v>1</v>
       </c>
@@ -29878,7 +29941,7 @@
         <f>'Bowtie v1.0 reorg'!D32</f>
         <v>59677</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F32),"",'Bowtie v1.0 reorg'!F32)</f>
         <v>1</v>
       </c>
@@ -29928,7 +29991,7 @@
         <f>'Bowtie v1.0 reorg'!D33</f>
         <v>59678</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F33),"",'Bowtie v1.0 reorg'!F33)</f>
         <v>1</v>
       </c>
@@ -29978,7 +30041,7 @@
         <f>'Bowtie v1.0 reorg'!D34</f>
         <v>59679</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F34),"",'Bowtie v1.0 reorg'!F34)</f>
         <v>1</v>
       </c>
@@ -30028,7 +30091,7 @@
         <f>'Bowtie v1.0 reorg'!D35</f>
         <v>59680</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F35),"",'Bowtie v1.0 reorg'!F35)</f>
         <v>1</v>
       </c>
@@ -30078,7 +30141,7 @@
         <f>'Bowtie v1.0 reorg'!D36</f>
         <v>59681</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F36),"",'Bowtie v1.0 reorg'!F36)</f>
         <v>1</v>
       </c>
@@ -30128,7 +30191,7 @@
         <f>'Bowtie v1.0 reorg'!D37</f>
         <v>59682</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F37),"",'Bowtie v1.0 reorg'!F37)</f>
         <v>1</v>
       </c>
@@ -30178,7 +30241,7 @@
         <f>'Bowtie v1.0 reorg'!D38</f>
         <v>59683</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F38),"",'Bowtie v1.0 reorg'!F38)</f>
         <v>1</v>
       </c>
@@ -30228,7 +30291,7 @@
         <f>'Bowtie v1.0 reorg'!D39</f>
         <v>59684</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F39),"",'Bowtie v1.0 reorg'!F39)</f>
         <v>1</v>
       </c>
@@ -30278,7 +30341,7 @@
         <f>'Bowtie v1.0 reorg'!D40</f>
         <v>59685</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F40),"",'Bowtie v1.0 reorg'!F40)</f>
         <v>1</v>
       </c>
@@ -30328,7 +30391,7 @@
         <f>'Bowtie v1.0 reorg'!D41</f>
         <v>59686</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F41),"",'Bowtie v1.0 reorg'!F41)</f>
         <v>1</v>
       </c>
@@ -30378,7 +30441,7 @@
         <f>'Bowtie v1.0 reorg'!D42</f>
         <v>59687</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F42),"",'Bowtie v1.0 reorg'!F42)</f>
         <v>1</v>
       </c>
@@ -30428,7 +30491,7 @@
         <f>'Bowtie v1.0 reorg'!D43</f>
         <v>59688</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F43),"",'Bowtie v1.0 reorg'!F43)</f>
         <v>1</v>
       </c>
@@ -30478,7 +30541,7 @@
         <f>'Bowtie v1.0 reorg'!D44</f>
         <v>59689</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F44),"",'Bowtie v1.0 reorg'!F44)</f>
         <v>1</v>
       </c>
@@ -30528,7 +30591,7 @@
         <f>'Bowtie v1.0 reorg'!D45</f>
         <v>59690</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F45),"",'Bowtie v1.0 reorg'!F45)</f>
         <v>1</v>
       </c>
@@ -30578,7 +30641,7 @@
         <f>'Bowtie v1.0 reorg'!D46</f>
         <v>59691</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F46),"",'Bowtie v1.0 reorg'!F46)</f>
         <v>1</v>
       </c>
@@ -30628,7 +30691,7 @@
         <f>'Bowtie v1.0 reorg'!D47</f>
         <v>59692</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F47),"",'Bowtie v1.0 reorg'!F47)</f>
         <v>1</v>
       </c>
@@ -30678,7 +30741,7 @@
         <f>'Bowtie v1.0 reorg'!D48</f>
         <v>59693</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F48),"",'Bowtie v1.0 reorg'!F48)</f>
         <v>1</v>
       </c>
@@ -30728,7 +30791,7 @@
         <f>'Bowtie v1.0 reorg'!D49</f>
         <v>59694</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F49),"",'Bowtie v1.0 reorg'!F49)</f>
         <v>1</v>
       </c>
@@ -30778,7 +30841,7 @@
         <f>'Bowtie v1.0 reorg'!D50</f>
         <v>59695</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F50),"",'Bowtie v1.0 reorg'!F50)</f>
         <v>1</v>
       </c>
@@ -30828,7 +30891,7 @@
         <f>'Bowtie v1.0 reorg'!D51</f>
         <v>59696</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F51),"",'Bowtie v1.0 reorg'!F51)</f>
         <v>1</v>
       </c>
@@ -30878,7 +30941,7 @@
         <f>'Bowtie v1.0 reorg'!D52</f>
         <v>59697</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F52),"",'Bowtie v1.0 reorg'!F52)</f>
         <v>1</v>
       </c>
@@ -30928,7 +30991,7 @@
         <f>'Bowtie v1.0 reorg'!D53</f>
         <v>59698</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F53),"",'Bowtie v1.0 reorg'!F53)</f>
         <v>1</v>
       </c>
@@ -30978,7 +31041,7 @@
         <f>'Bowtie v1.0 reorg'!D54</f>
         <v>59699</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F54),"",'Bowtie v1.0 reorg'!F54)</f>
         <v>1</v>
       </c>
@@ -31028,7 +31091,7 @@
         <f>'Bowtie v1.0 reorg'!D55</f>
         <v>59700</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F55),"",'Bowtie v1.0 reorg'!F55)</f>
         <v>1</v>
       </c>
@@ -31078,7 +31141,7 @@
         <f>'Bowtie v1.0 reorg'!D56</f>
         <v>59701</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F56),"",'Bowtie v1.0 reorg'!F56)</f>
         <v>1</v>
       </c>
@@ -31128,7 +31191,7 @@
         <f>'Bowtie v1.0 reorg'!D57</f>
         <v>59702</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F57),"",'Bowtie v1.0 reorg'!F57)</f>
         <v>1</v>
       </c>
@@ -31178,7 +31241,7 @@
         <f>'Bowtie v1.0 reorg'!D58</f>
         <v>59703</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F58),"",'Bowtie v1.0 reorg'!F58)</f>
         <v>1</v>
       </c>
@@ -31228,7 +31291,7 @@
         <f>'Bowtie v1.0 reorg'!D59</f>
         <v>59704</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F59),"",'Bowtie v1.0 reorg'!F59)</f>
         <v>1</v>
       </c>
@@ -31278,7 +31341,7 @@
         <f>'Bowtie v1.0 reorg'!D60</f>
         <v>59705</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F60),"",'Bowtie v1.0 reorg'!F60)</f>
         <v>1</v>
       </c>
@@ -31328,7 +31391,7 @@
         <f>'Bowtie v1.0 reorg'!D61</f>
         <v>59706</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F61),"",'Bowtie v1.0 reorg'!F61)</f>
         <v>1</v>
       </c>
@@ -31378,7 +31441,7 @@
         <f>'Bowtie v1.0 reorg'!D62</f>
         <v>59707</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F62),"",'Bowtie v1.0 reorg'!F62)</f>
         <v>1</v>
       </c>
@@ -31428,7 +31491,7 @@
         <f>'Bowtie v1.0 reorg'!D63</f>
         <v>59708</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F63),"",'Bowtie v1.0 reorg'!F63)</f>
         <v>1</v>
       </c>
@@ -31478,7 +31541,7 @@
         <f>'Bowtie v1.0 reorg'!D64</f>
         <v>59709</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F64),"",'Bowtie v1.0 reorg'!F64)</f>
         <v>1</v>
       </c>
@@ -31528,7 +31591,7 @@
         <f>'Bowtie v1.0 reorg'!D65</f>
         <v>59710</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F65),"",'Bowtie v1.0 reorg'!F65)</f>
         <v>1</v>
       </c>
@@ -31578,7 +31641,7 @@
         <f>'Bowtie v1.0 reorg'!D66</f>
         <v>59711</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F66),"",'Bowtie v1.0 reorg'!F66)</f>
         <v>1</v>
       </c>
@@ -31628,7 +31691,7 @@
         <f>'Bowtie v1.0 reorg'!D67</f>
         <v>59712</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F67),"",'Bowtie v1.0 reorg'!F67)</f>
         <v>1</v>
       </c>
@@ -31678,7 +31741,7 @@
         <f>'Bowtie v1.0 reorg'!D68</f>
         <v>59713</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F68),"",'Bowtie v1.0 reorg'!F68)</f>
         <v>1</v>
       </c>
@@ -31728,7 +31791,7 @@
         <f>'Bowtie v1.0 reorg'!D69</f>
         <v>59714</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F69),"",'Bowtie v1.0 reorg'!F69)</f>
         <v>1</v>
       </c>
@@ -31778,7 +31841,7 @@
         <f>'Bowtie v1.0 reorg'!D70</f>
         <v>59715</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F70),"",'Bowtie v1.0 reorg'!F70)</f>
         <v>1</v>
       </c>
@@ -31828,7 +31891,7 @@
         <f>'Bowtie v1.0 reorg'!D71</f>
         <v>59716</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F71),"",'Bowtie v1.0 reorg'!F71)</f>
         <v>1</v>
       </c>
@@ -31878,7 +31941,7 @@
         <f>'Bowtie v1.0 reorg'!D72</f>
         <v>59717</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F72),"",'Bowtie v1.0 reorg'!F72)</f>
         <v>1</v>
       </c>
@@ -31928,7 +31991,7 @@
         <f>'Bowtie v1.0 reorg'!D73</f>
         <v>59718</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F73),"",'Bowtie v1.0 reorg'!F73)</f>
         <v>1</v>
       </c>
@@ -31978,7 +32041,7 @@
         <f>'Bowtie v1.0 reorg'!D74</f>
         <v>59719</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F74),"",'Bowtie v1.0 reorg'!F74)</f>
         <v>1</v>
       </c>
@@ -32028,7 +32091,7 @@
         <f>'Bowtie v1.0 reorg'!D75</f>
         <v>59720</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F75),"",'Bowtie v1.0 reorg'!F75)</f>
         <v>1</v>
       </c>
@@ -32078,7 +32141,7 @@
         <f>'Bowtie v1.0 reorg'!D76</f>
         <v>59721</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F76),"",'Bowtie v1.0 reorg'!F76)</f>
         <v>1</v>
       </c>
@@ -32128,7 +32191,7 @@
         <f>'Bowtie v1.0 reorg'!D77</f>
         <v>59722</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F77),"",'Bowtie v1.0 reorg'!F77)</f>
         <v>1</v>
       </c>
@@ -32178,7 +32241,7 @@
         <f>'Bowtie v1.0 reorg'!D78</f>
         <v>59723</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F78),"",'Bowtie v1.0 reorg'!F78)</f>
         <v>1</v>
       </c>
@@ -32228,7 +32291,7 @@
         <f>'Bowtie v1.0 reorg'!D79</f>
         <v>59724</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F79),"",'Bowtie v1.0 reorg'!F79)</f>
         <v>1</v>
       </c>
@@ -32278,7 +32341,7 @@
         <f>'Bowtie v1.0 reorg'!D80</f>
         <v>59725</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F80),"",'Bowtie v1.0 reorg'!F80)</f>
         <v>1</v>
       </c>
@@ -32328,7 +32391,7 @@
         <f>'Bowtie v1.0 reorg'!D81</f>
         <v>59726</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F81),"",'Bowtie v1.0 reorg'!F81)</f>
         <v>1</v>
       </c>
@@ -32378,7 +32441,7 @@
         <f>'Bowtie v1.0 reorg'!D82</f>
         <v>59727</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F82),"",'Bowtie v1.0 reorg'!F82)</f>
         <v>1</v>
       </c>
@@ -32428,7 +32491,7 @@
         <f>'Bowtie v1.0 reorg'!D83</f>
         <v>59728</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F83),"",'Bowtie v1.0 reorg'!F83)</f>
         <v>1</v>
       </c>
@@ -32478,7 +32541,7 @@
         <f>'Bowtie v1.0 reorg'!D84</f>
         <v>59729</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F84),"",'Bowtie v1.0 reorg'!F84)</f>
         <v>1</v>
       </c>
@@ -32528,7 +32591,7 @@
         <f>'Bowtie v1.0 reorg'!D85</f>
         <v>59730</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F85),"",'Bowtie v1.0 reorg'!F85)</f>
         <v>1</v>
       </c>
@@ -32578,7 +32641,7 @@
         <f>'Bowtie v1.0 reorg'!D86</f>
         <v>59731</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F86),"",'Bowtie v1.0 reorg'!F86)</f>
         <v>1</v>
       </c>
@@ -32628,7 +32691,7 @@
         <f>'Bowtie v1.0 reorg'!D87</f>
         <v>59732</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F87),"",'Bowtie v1.0 reorg'!F87)</f>
         <v>1</v>
       </c>
@@ -32678,7 +32741,7 @@
         <f>'Bowtie v1.0 reorg'!D88</f>
         <v>59733</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F88),"",'Bowtie v1.0 reorg'!F88)</f>
         <v>1</v>
       </c>
@@ -32728,7 +32791,7 @@
         <f>'Bowtie v1.0 reorg'!D89</f>
         <v>59734</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F89),"",'Bowtie v1.0 reorg'!F89)</f>
         <v>1</v>
       </c>
@@ -32778,7 +32841,7 @@
         <f>'Bowtie v1.0 reorg'!D90</f>
         <v>59735</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F90),"",'Bowtie v1.0 reorg'!F90)</f>
         <v>1</v>
       </c>
@@ -32828,7 +32891,7 @@
         <f>'Bowtie v1.0 reorg'!D91</f>
         <v>59736</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F91),"",'Bowtie v1.0 reorg'!F91)</f>
         <v>1</v>
       </c>
@@ -32878,7 +32941,7 @@
         <f>'Bowtie v1.0 reorg'!D92</f>
         <v>59737</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F92),"",'Bowtie v1.0 reorg'!F92)</f>
         <v>1</v>
       </c>
@@ -32928,7 +32991,7 @@
         <f>'Bowtie v1.0 reorg'!D93</f>
         <v>59738</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F93),"",'Bowtie v1.0 reorg'!F93)</f>
         <v>1</v>
       </c>
@@ -32978,7 +33041,7 @@
         <f>'Bowtie v1.0 reorg'!D94</f>
         <v>59739</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F94),"",'Bowtie v1.0 reorg'!F94)</f>
         <v>1</v>
       </c>
@@ -33028,7 +33091,7 @@
         <f>'Bowtie v1.0 reorg'!D95</f>
         <v>59740</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F95),"",'Bowtie v1.0 reorg'!F95)</f>
         <v>1</v>
       </c>
@@ -33078,7 +33141,7 @@
         <f>'Bowtie v1.0 reorg'!D96</f>
         <v>59741</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F96),"",'Bowtie v1.0 reorg'!F96)</f>
         <v>1</v>
       </c>
@@ -33128,7 +33191,7 @@
         <f>'Bowtie v1.0 reorg'!D97</f>
         <v>59742</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F97),"",'Bowtie v1.0 reorg'!F97)</f>
         <v>1</v>
       </c>
@@ -33178,7 +33241,7 @@
         <f>'Bowtie v1.0 reorg'!D98</f>
         <v>59743</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F98),"",'Bowtie v1.0 reorg'!F98)</f>
         <v>1</v>
       </c>
@@ -33228,7 +33291,7 @@
         <f>'Bowtie v1.0 reorg'!D99</f>
         <v>59744</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F99),"",'Bowtie v1.0 reorg'!F99)</f>
         <v>1</v>
       </c>
@@ -33278,7 +33341,7 @@
         <f>'Bowtie v1.0 reorg'!D100</f>
         <v>59745</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F100),"",'Bowtie v1.0 reorg'!F100)</f>
         <v>1</v>
       </c>
@@ -33328,7 +33391,7 @@
         <f>'Bowtie v1.0 reorg'!D101</f>
         <v>59746</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F101),"",'Bowtie v1.0 reorg'!F101)</f>
         <v>1</v>
       </c>
@@ -33378,7 +33441,7 @@
         <f>'Bowtie v1.0 reorg'!D102</f>
         <v>59747</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F102),"",'Bowtie v1.0 reorg'!F102)</f>
         <v>1</v>
       </c>
@@ -33428,7 +33491,7 @@
         <f>'Bowtie v1.0 reorg'!D103</f>
         <v>59748</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F103),"",'Bowtie v1.0 reorg'!F103)</f>
         <v>1</v>
       </c>
@@ -33478,7 +33541,7 @@
         <f>'Bowtie v1.0 reorg'!D104</f>
         <v>59749</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F104),"",'Bowtie v1.0 reorg'!F104)</f>
         <v>1</v>
       </c>
@@ -33528,7 +33591,7 @@
         <f>'Bowtie v1.0 reorg'!D105</f>
         <v>59750</v>
       </c>
-      <c r="E104" s="14">
+      <c r="E104">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F105),"",'Bowtie v1.0 reorg'!F105)</f>
         <v>1</v>
       </c>
@@ -33578,7 +33641,7 @@
         <f>'Bowtie v1.0 reorg'!D106</f>
         <v>59751</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F106),"",'Bowtie v1.0 reorg'!F106)</f>
         <v>1</v>
       </c>
@@ -33628,7 +33691,7 @@
         <f>'Bowtie v1.0 reorg'!D107</f>
         <v>59752</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F107),"",'Bowtie v1.0 reorg'!F107)</f>
         <v>1</v>
       </c>
@@ -33678,7 +33741,7 @@
         <f>'Bowtie v1.0 reorg'!D108</f>
         <v>59753</v>
       </c>
-      <c r="E107" s="14">
+      <c r="E107">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F108),"",'Bowtie v1.0 reorg'!F108)</f>
         <v>1</v>
       </c>
@@ -33728,7 +33791,7 @@
         <f>'Bowtie v1.0 reorg'!D109</f>
         <v>59754</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F109),"",'Bowtie v1.0 reorg'!F109)</f>
         <v>1</v>
       </c>
@@ -33778,7 +33841,7 @@
         <f>'Bowtie v1.0 reorg'!D110</f>
         <v>59755</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F110),"",'Bowtie v1.0 reorg'!F110)</f>
         <v>1</v>
       </c>
@@ -33828,7 +33891,7 @@
         <f>'Bowtie v1.0 reorg'!D111</f>
         <v>59756</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F111),"",'Bowtie v1.0 reorg'!F111)</f>
         <v>1</v>
       </c>
@@ -33878,7 +33941,7 @@
         <f>'Bowtie v1.0 reorg'!D112</f>
         <v>59757</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F112),"",'Bowtie v1.0 reorg'!F112)</f>
         <v>1</v>
       </c>
@@ -33928,7 +33991,7 @@
         <f>'Bowtie v1.0 reorg'!D113</f>
         <v>59758</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F113),"",'Bowtie v1.0 reorg'!F113)</f>
         <v>1</v>
       </c>
@@ -33978,7 +34041,7 @@
         <f>'Bowtie v1.0 reorg'!D114</f>
         <v>59759</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F114),"",'Bowtie v1.0 reorg'!F114)</f>
         <v>1</v>
       </c>
@@ -34028,7 +34091,7 @@
         <f>'Bowtie v1.0 reorg'!D115</f>
         <v>59760</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F115),"",'Bowtie v1.0 reorg'!F115)</f>
         <v>1</v>
       </c>
@@ -34078,7 +34141,7 @@
         <f>'Bowtie v1.0 reorg'!D116</f>
         <v>59761</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F116),"",'Bowtie v1.0 reorg'!F116)</f>
         <v>1</v>
       </c>
@@ -34128,7 +34191,7 @@
         <f>'Bowtie v1.0 reorg'!D117</f>
         <v>59762</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F117),"",'Bowtie v1.0 reorg'!F117)</f>
         <v>1</v>
       </c>
@@ -34178,7 +34241,7 @@
         <f>'Bowtie v1.0 reorg'!D118</f>
         <v>59763</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F118),"",'Bowtie v1.0 reorg'!F118)</f>
         <v>1</v>
       </c>
@@ -34228,7 +34291,7 @@
         <f>'Bowtie v1.0 reorg'!D119</f>
         <v>59764</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F119),"",'Bowtie v1.0 reorg'!F119)</f>
         <v>1</v>
       </c>
@@ -34278,7 +34341,7 @@
         <f>'Bowtie v1.0 reorg'!D120</f>
         <v>59765</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F120),"",'Bowtie v1.0 reorg'!F120)</f>
         <v>1</v>
       </c>
@@ -34328,7 +34391,7 @@
         <f>'Bowtie v1.0 reorg'!D121</f>
         <v>59766</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F121),"",'Bowtie v1.0 reorg'!F121)</f>
         <v>1</v>
       </c>
@@ -34378,7 +34441,7 @@
         <f>'Bowtie v1.0 reorg'!D122</f>
         <v>59767</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E121">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F122),"",'Bowtie v1.0 reorg'!F122)</f>
         <v>1</v>
       </c>
@@ -34428,7 +34491,7 @@
         <f>'Bowtie v1.0 reorg'!D123</f>
         <v>59768</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E122">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F123),"",'Bowtie v1.0 reorg'!F123)</f>
         <v>1</v>
       </c>
@@ -34478,7 +34541,7 @@
         <f>'Bowtie v1.0 reorg'!D124</f>
         <v>59769</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E123">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F124),"",'Bowtie v1.0 reorg'!F124)</f>
         <v>1</v>
       </c>
@@ -34528,7 +34591,7 @@
         <f>'Bowtie v1.0 reorg'!D125</f>
         <v>59770</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F125),"",'Bowtie v1.0 reorg'!F125)</f>
         <v>1</v>
       </c>
@@ -34578,7 +34641,7 @@
         <f>'Bowtie v1.0 reorg'!D126</f>
         <v>59771</v>
       </c>
-      <c r="E125" s="14">
+      <c r="E125">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F126),"",'Bowtie v1.0 reorg'!F126)</f>
         <v>1</v>
       </c>
@@ -34628,7 +34691,7 @@
         <f>'Bowtie v1.0 reorg'!D127</f>
         <v>59772</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F127),"",'Bowtie v1.0 reorg'!F127)</f>
         <v>1</v>
       </c>
@@ -34678,7 +34741,7 @@
         <f>'Bowtie v1.0 reorg'!D128</f>
         <v>59773</v>
       </c>
-      <c r="E127" s="14">
+      <c r="E127">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F128),"",'Bowtie v1.0 reorg'!F128)</f>
         <v>1</v>
       </c>
@@ -34728,7 +34791,7 @@
         <f>'Bowtie v1.0 reorg'!D129</f>
         <v>59774</v>
       </c>
-      <c r="E128" s="14">
+      <c r="E128">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F129),"",'Bowtie v1.0 reorg'!F129)</f>
         <v>1</v>
       </c>
@@ -34778,7 +34841,7 @@
         <f>'Bowtie v1.0 reorg'!D130</f>
         <v>59775</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F130),"",'Bowtie v1.0 reorg'!F130)</f>
         <v>1</v>
       </c>
@@ -34828,7 +34891,7 @@
         <f>'Bowtie v1.0 reorg'!D131</f>
         <v>59776</v>
       </c>
-      <c r="E130" s="14">
+      <c r="E130">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F131),"",'Bowtie v1.0 reorg'!F131)</f>
         <v>1</v>
       </c>
@@ -34878,7 +34941,7 @@
         <f>'Bowtie v1.0 reorg'!D132</f>
         <v>59777</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F132),"",'Bowtie v1.0 reorg'!F132)</f>
         <v>1</v>
       </c>
@@ -34928,7 +34991,7 @@
         <f>'Bowtie v1.0 reorg'!D133</f>
         <v>59778</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E132">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F133),"",'Bowtie v1.0 reorg'!F133)</f>
         <v>1</v>
       </c>
@@ -34978,7 +35041,7 @@
         <f>'Bowtie v1.0 reorg'!D134</f>
         <v>59779</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E133">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F134),"",'Bowtie v1.0 reorg'!F134)</f>
         <v>1</v>
       </c>
@@ -35028,7 +35091,7 @@
         <f>'Bowtie v1.0 reorg'!D135</f>
         <v>59780</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E134">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F135),"",'Bowtie v1.0 reorg'!F135)</f>
         <v>1</v>
       </c>
@@ -35078,7 +35141,7 @@
         <f>'Bowtie v1.0 reorg'!D136</f>
         <v>59781</v>
       </c>
-      <c r="E135" s="14">
+      <c r="E135">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F136),"",'Bowtie v1.0 reorg'!F136)</f>
         <v>1</v>
       </c>
@@ -35128,7 +35191,7 @@
         <f>'Bowtie v1.0 reorg'!D137</f>
         <v>59782</v>
       </c>
-      <c r="E136" s="14">
+      <c r="E136">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F137),"",'Bowtie v1.0 reorg'!F137)</f>
         <v>1</v>
       </c>
@@ -35178,7 +35241,7 @@
         <f>'Bowtie v1.0 reorg'!D138</f>
         <v>59783</v>
       </c>
-      <c r="E137" s="14">
+      <c r="E137">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F138),"",'Bowtie v1.0 reorg'!F138)</f>
         <v>1</v>
       </c>
@@ -35228,7 +35291,7 @@
         <f>'Bowtie v1.0 reorg'!D139</f>
         <v>59784</v>
       </c>
-      <c r="E138" s="14">
+      <c r="E138">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F139),"",'Bowtie v1.0 reorg'!F139)</f>
         <v>1</v>
       </c>
@@ -35278,7 +35341,7 @@
         <f>'Bowtie v1.0 reorg'!D140</f>
         <v>59785</v>
       </c>
-      <c r="E139" s="14">
+      <c r="E139">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F140),"",'Bowtie v1.0 reorg'!F140)</f>
         <v>1</v>
       </c>
@@ -35328,7 +35391,7 @@
         <f>'Bowtie v1.0 reorg'!D141</f>
         <v>59786</v>
       </c>
-      <c r="E140" s="14">
+      <c r="E140">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F141),"",'Bowtie v1.0 reorg'!F141)</f>
         <v>1</v>
       </c>
@@ -35378,7 +35441,7 @@
         <f>'Bowtie v1.0 reorg'!D142</f>
         <v>59787</v>
       </c>
-      <c r="E141" s="14">
+      <c r="E141">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F142),"",'Bowtie v1.0 reorg'!F142)</f>
         <v>1</v>
       </c>
@@ -35428,7 +35491,7 @@
         <f>'Bowtie v1.0 reorg'!D143</f>
         <v>59788</v>
       </c>
-      <c r="E142" s="14">
+      <c r="E142">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F143),"",'Bowtie v1.0 reorg'!F143)</f>
         <v>1</v>
       </c>
@@ -35478,7 +35541,7 @@
         <f>'Bowtie v1.0 reorg'!D144</f>
         <v>59789</v>
       </c>
-      <c r="E143" s="14">
+      <c r="E143">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F144),"",'Bowtie v1.0 reorg'!F144)</f>
         <v>1</v>
       </c>
@@ -35528,7 +35591,7 @@
         <f>'Bowtie v1.0 reorg'!D145</f>
         <v>59790</v>
       </c>
-      <c r="E144" s="14">
+      <c r="E144">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F145),"",'Bowtie v1.0 reorg'!F145)</f>
         <v>1</v>
       </c>
@@ -35578,7 +35641,7 @@
         <f>'Bowtie v1.0 reorg'!D146</f>
         <v>59791</v>
       </c>
-      <c r="E145" s="14">
+      <c r="E145">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F146),"",'Bowtie v1.0 reorg'!F146)</f>
         <v>1</v>
       </c>
@@ -35628,7 +35691,7 @@
         <f>'Bowtie v1.0 reorg'!D147</f>
         <v>59792</v>
       </c>
-      <c r="E146" s="14">
+      <c r="E146">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F147),"",'Bowtie v1.0 reorg'!F147)</f>
         <v>1</v>
       </c>
@@ -35678,7 +35741,7 @@
         <f>'Bowtie v1.0 reorg'!D148</f>
         <v>59793</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E147">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F148),"",'Bowtie v1.0 reorg'!F148)</f>
         <v>1</v>
       </c>
@@ -35728,7 +35791,7 @@
         <f>'Bowtie v1.0 reorg'!D149</f>
         <v>59794</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E148">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F149),"",'Bowtie v1.0 reorg'!F149)</f>
         <v>1</v>
       </c>
@@ -35778,7 +35841,7 @@
         <f>'Bowtie v1.0 reorg'!D150</f>
         <v>59795</v>
       </c>
-      <c r="E149" s="14">
+      <c r="E149">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F150),"",'Bowtie v1.0 reorg'!F150)</f>
         <v>1</v>
       </c>
@@ -35828,7 +35891,7 @@
         <f>'Bowtie v1.0 reorg'!D151</f>
         <v>59796</v>
       </c>
-      <c r="E150" s="14">
+      <c r="E150">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F151),"",'Bowtie v1.0 reorg'!F151)</f>
         <v>1</v>
       </c>
@@ -35878,7 +35941,7 @@
         <f>'Bowtie v1.0 reorg'!D152</f>
         <v>59797</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F152),"",'Bowtie v1.0 reorg'!F152)</f>
         <v>1</v>
       </c>
@@ -35928,7 +35991,7 @@
         <f>'Bowtie v1.0 reorg'!D153</f>
         <v>59798</v>
       </c>
-      <c r="E152" s="14">
+      <c r="E152">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F153),"",'Bowtie v1.0 reorg'!F153)</f>
         <v>1</v>
       </c>
@@ -35978,7 +36041,7 @@
         <f>'Bowtie v1.0 reorg'!D154</f>
         <v>59799</v>
       </c>
-      <c r="E153" s="14">
+      <c r="E153">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F154),"",'Bowtie v1.0 reorg'!F154)</f>
         <v>1</v>
       </c>
@@ -36028,7 +36091,7 @@
         <f>'Bowtie v1.0 reorg'!D155</f>
         <v>59800</v>
       </c>
-      <c r="E154" s="14">
+      <c r="E154">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F155),"",'Bowtie v1.0 reorg'!F155)</f>
         <v>1</v>
       </c>
@@ -36078,7 +36141,7 @@
         <f>'Bowtie v1.0 reorg'!D156</f>
         <v>59801</v>
       </c>
-      <c r="E155" s="14">
+      <c r="E155">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F156),"",'Bowtie v1.0 reorg'!F156)</f>
         <v>1</v>
       </c>
@@ -36128,7 +36191,7 @@
         <f>'Bowtie v1.0 reorg'!D157</f>
         <v>59802</v>
       </c>
-      <c r="E156" s="14">
+      <c r="E156">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F157),"",'Bowtie v1.0 reorg'!F157)</f>
         <v>1</v>
       </c>
@@ -36178,7 +36241,7 @@
         <f>'Bowtie v1.0 reorg'!D158</f>
         <v>59803</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F158),"",'Bowtie v1.0 reorg'!F158)</f>
         <v>1</v>
       </c>
@@ -36228,7 +36291,7 @@
         <f>'Bowtie v1.0 reorg'!D159</f>
         <v>59804</v>
       </c>
-      <c r="E158" s="14">
+      <c r="E158">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F159),"",'Bowtie v1.0 reorg'!F159)</f>
         <v>1</v>
       </c>
@@ -36278,7 +36341,7 @@
         <f>'Bowtie v1.0 reorg'!D160</f>
         <v>59805</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F160),"",'Bowtie v1.0 reorg'!F160)</f>
         <v>1</v>
       </c>
@@ -36328,7 +36391,7 @@
         <f>'Bowtie v1.0 reorg'!D161</f>
         <v>59806</v>
       </c>
-      <c r="E160" s="14">
+      <c r="E160">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F161),"",'Bowtie v1.0 reorg'!F161)</f>
         <v>1</v>
       </c>
@@ -36378,7 +36441,7 @@
         <f>'Bowtie v1.0 reorg'!D162</f>
         <v>59807</v>
       </c>
-      <c r="E161" s="14">
+      <c r="E161">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F162),"",'Bowtie v1.0 reorg'!F162)</f>
         <v>1</v>
       </c>
@@ -36428,7 +36491,7 @@
         <f>'Bowtie v1.0 reorg'!D163</f>
         <v>59808</v>
       </c>
-      <c r="E162" s="14">
+      <c r="E162">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F163),"",'Bowtie v1.0 reorg'!F163)</f>
         <v>1</v>
       </c>
@@ -36478,7 +36541,7 @@
         <f>'Bowtie v1.0 reorg'!D164</f>
         <v>59809</v>
       </c>
-      <c r="E163" s="14">
+      <c r="E163">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F164),"",'Bowtie v1.0 reorg'!F164)</f>
         <v>1</v>
       </c>
@@ -36528,7 +36591,7 @@
         <f>'Bowtie v1.0 reorg'!D165</f>
         <v>59810</v>
       </c>
-      <c r="E164" s="14">
+      <c r="E164">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F165),"",'Bowtie v1.0 reorg'!F165)</f>
         <v>1</v>
       </c>
@@ -36578,7 +36641,7 @@
         <f>'Bowtie v1.0 reorg'!D166</f>
         <v>59811</v>
       </c>
-      <c r="E165" s="14">
+      <c r="E165">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F166),"",'Bowtie v1.0 reorg'!F166)</f>
         <v>1</v>
       </c>
@@ -36628,7 +36691,7 @@
         <f>'Bowtie v1.0 reorg'!D167</f>
         <v>59812</v>
       </c>
-      <c r="E166" s="14">
+      <c r="E166">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F167),"",'Bowtie v1.0 reorg'!F167)</f>
         <v>1</v>
       </c>
@@ -36678,7 +36741,7 @@
         <f>'Bowtie v1.0 reorg'!D168</f>
         <v>59813</v>
       </c>
-      <c r="E167" s="14">
+      <c r="E167">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F168),"",'Bowtie v1.0 reorg'!F168)</f>
         <v>1</v>
       </c>
@@ -36728,7 +36791,7 @@
         <f>'Bowtie v1.0 reorg'!D169</f>
         <v>59814</v>
       </c>
-      <c r="E168" s="14">
+      <c r="E168">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F169),"",'Bowtie v1.0 reorg'!F169)</f>
         <v>1</v>
       </c>
@@ -36778,7 +36841,7 @@
         <f>'Bowtie v1.0 reorg'!D170</f>
         <v>59815</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E169">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F170),"",'Bowtie v1.0 reorg'!F170)</f>
         <v>1</v>
       </c>
@@ -36828,7 +36891,7 @@
         <f>'Bowtie v1.0 reorg'!D171</f>
         <v>59816</v>
       </c>
-      <c r="E170" s="14">
+      <c r="E170">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F171),"",'Bowtie v1.0 reorg'!F171)</f>
         <v>1</v>
       </c>
@@ -36878,7 +36941,7 @@
         <f>'Bowtie v1.0 reorg'!D172</f>
         <v>59817</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F172),"",'Bowtie v1.0 reorg'!F172)</f>
         <v>1</v>
       </c>
@@ -36928,7 +36991,7 @@
         <f>'Bowtie v1.0 reorg'!D173</f>
         <v>59818</v>
       </c>
-      <c r="E172" s="14">
+      <c r="E172">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F173),"",'Bowtie v1.0 reorg'!F173)</f>
         <v>1</v>
       </c>
@@ -36978,7 +37041,7 @@
         <f>'Bowtie v1.0 reorg'!D174</f>
         <v>59819</v>
       </c>
-      <c r="E173" s="14">
+      <c r="E173">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F174),"",'Bowtie v1.0 reorg'!F174)</f>
         <v>1</v>
       </c>
@@ -37028,7 +37091,7 @@
         <f>'Bowtie v1.0 reorg'!D175</f>
         <v>59820</v>
       </c>
-      <c r="E174" s="14">
+      <c r="E174">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F175),"",'Bowtie v1.0 reorg'!F175)</f>
         <v>1</v>
       </c>
@@ -37078,7 +37141,7 @@
         <f>'Bowtie v1.0 reorg'!D176</f>
         <v>59821</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F176),"",'Bowtie v1.0 reorg'!F176)</f>
         <v>1</v>
       </c>
@@ -37128,7 +37191,7 @@
         <f>'Bowtie v1.0 reorg'!D177</f>
         <v>59822</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F177),"",'Bowtie v1.0 reorg'!F177)</f>
         <v>1</v>
       </c>
@@ -37178,7 +37241,7 @@
         <f>'Bowtie v1.0 reorg'!D178</f>
         <v>59823</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F178),"",'Bowtie v1.0 reorg'!F178)</f>
         <v>1</v>
       </c>
@@ -37228,7 +37291,7 @@
         <f>'Bowtie v1.0 reorg'!D179</f>
         <v>59824</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F179),"",'Bowtie v1.0 reorg'!F179)</f>
         <v>1</v>
       </c>
@@ -37278,7 +37341,7 @@
         <f>'Bowtie v1.0 reorg'!D180</f>
         <v>59825</v>
       </c>
-      <c r="E179" s="14">
+      <c r="E179">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F180),"",'Bowtie v1.0 reorg'!F180)</f>
         <v>1</v>
       </c>
@@ -37328,7 +37391,7 @@
         <f>'Bowtie v1.0 reorg'!D181</f>
         <v>59826</v>
       </c>
-      <c r="E180" s="14">
+      <c r="E180">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F181),"",'Bowtie v1.0 reorg'!F181)</f>
         <v>1</v>
       </c>
@@ -37378,7 +37441,7 @@
         <f>'Bowtie v1.0 reorg'!D182</f>
         <v>59827</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E181">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F182),"",'Bowtie v1.0 reorg'!F182)</f>
         <v>1</v>
       </c>
@@ -37428,7 +37491,7 @@
         <f>'Bowtie v1.0 reorg'!D183</f>
         <v>59828</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E182">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F183),"",'Bowtie v1.0 reorg'!F183)</f>
         <v>1</v>
       </c>
@@ -37478,7 +37541,7 @@
         <f>'Bowtie v1.0 reorg'!D184</f>
         <v>59829</v>
       </c>
-      <c r="E183" s="14">
+      <c r="E183">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F184),"",'Bowtie v1.0 reorg'!F184)</f>
         <v>1</v>
       </c>
@@ -37528,7 +37591,7 @@
         <f>'Bowtie v1.0 reorg'!D185</f>
         <v>59830</v>
       </c>
-      <c r="E184" s="14">
+      <c r="E184">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F185),"",'Bowtie v1.0 reorg'!F185)</f>
         <v>1</v>
       </c>
@@ -37578,7 +37641,7 @@
         <f>'Bowtie v1.0 reorg'!D186</f>
         <v>59831</v>
       </c>
-      <c r="E185" s="14">
+      <c r="E185">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F186),"",'Bowtie v1.0 reorg'!F186)</f>
         <v>1</v>
       </c>
@@ -37628,7 +37691,7 @@
         <f>'Bowtie v1.0 reorg'!D187</f>
         <v>59832</v>
       </c>
-      <c r="E186" s="14">
+      <c r="E186">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F187),"",'Bowtie v1.0 reorg'!F187)</f>
         <v>1</v>
       </c>
@@ -37678,7 +37741,7 @@
         <f>'Bowtie v1.0 reorg'!D188</f>
         <v>59833</v>
       </c>
-      <c r="E187" s="14">
+      <c r="E187">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F188),"",'Bowtie v1.0 reorg'!F188)</f>
         <v>1</v>
       </c>
@@ -37728,7 +37791,7 @@
         <f>'Bowtie v1.0 reorg'!D189</f>
         <v>59834</v>
       </c>
-      <c r="E188" s="14">
+      <c r="E188">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F189),"",'Bowtie v1.0 reorg'!F189)</f>
         <v>1</v>
       </c>
@@ -37778,7 +37841,7 @@
         <f>'Bowtie v1.0 reorg'!D190</f>
         <v>59835</v>
       </c>
-      <c r="E189" s="14">
+      <c r="E189">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F190),"",'Bowtie v1.0 reorg'!F190)</f>
         <v>1</v>
       </c>
@@ -37828,7 +37891,7 @@
         <f>'Bowtie v1.0 reorg'!D191</f>
         <v>59836</v>
       </c>
-      <c r="E190" s="14">
+      <c r="E190">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F191),"",'Bowtie v1.0 reorg'!F191)</f>
         <v>1</v>
       </c>
@@ -37878,7 +37941,7 @@
         <f>'Bowtie v1.0 reorg'!D192</f>
         <v>59837</v>
       </c>
-      <c r="E191" s="14">
+      <c r="E191">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F192),"",'Bowtie v1.0 reorg'!F192)</f>
         <v>1</v>
       </c>
@@ -37928,7 +37991,7 @@
         <f>'Bowtie v1.0 reorg'!D193</f>
         <v>59838</v>
       </c>
-      <c r="E192" s="14">
+      <c r="E192">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F193),"",'Bowtie v1.0 reorg'!F193)</f>
         <v>1</v>
       </c>
@@ -37978,7 +38041,7 @@
         <f>'Bowtie v1.0 reorg'!D194</f>
         <v>59839</v>
       </c>
-      <c r="E193" s="14">
+      <c r="E193">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F194),"",'Bowtie v1.0 reorg'!F194)</f>
         <v>1</v>
       </c>
@@ -38028,7 +38091,7 @@
         <f>'Bowtie v1.0 reorg'!D195</f>
         <v>59840</v>
       </c>
-      <c r="E194" s="14">
+      <c r="E194">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F195),"",'Bowtie v1.0 reorg'!F195)</f>
         <v>1</v>
       </c>
@@ -38078,7 +38141,7 @@
         <f>'Bowtie v1.0 reorg'!D196</f>
         <v>59841</v>
       </c>
-      <c r="E195" s="14">
+      <c r="E195">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F196),"",'Bowtie v1.0 reorg'!F196)</f>
         <v>1</v>
       </c>
@@ -38128,7 +38191,7 @@
         <f>'Bowtie v1.0 reorg'!D197</f>
         <v>59842</v>
       </c>
-      <c r="E196" s="14">
+      <c r="E196">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F197),"",'Bowtie v1.0 reorg'!F197)</f>
         <v>1</v>
       </c>
@@ -38178,7 +38241,7 @@
         <f>'Bowtie v1.0 reorg'!D198</f>
         <v>59843</v>
       </c>
-      <c r="E197" s="14">
+      <c r="E197">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F198),"",'Bowtie v1.0 reorg'!F198)</f>
         <v>1</v>
       </c>
@@ -38228,7 +38291,7 @@
         <f>'Bowtie v1.0 reorg'!D199</f>
         <v>59844</v>
       </c>
-      <c r="E198" s="14">
+      <c r="E198">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F199),"",'Bowtie v1.0 reorg'!F199)</f>
         <v>1</v>
       </c>
@@ -38278,7 +38341,7 @@
         <f>'Bowtie v1.0 reorg'!D200</f>
         <v>59845</v>
       </c>
-      <c r="E199" s="14">
+      <c r="E199">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F200),"",'Bowtie v1.0 reorg'!F200)</f>
         <v>1</v>
       </c>
@@ -38328,7 +38391,7 @@
         <f>'Bowtie v1.0 reorg'!D201</f>
         <v>59846</v>
       </c>
-      <c r="E200" s="14">
+      <c r="E200">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F201),"",'Bowtie v1.0 reorg'!F201)</f>
         <v>1</v>
       </c>
@@ -38378,7 +38441,7 @@
         <f>'Bowtie v1.0 reorg'!D202</f>
         <v>59847</v>
       </c>
-      <c r="E201" s="14">
+      <c r="E201">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F202),"",'Bowtie v1.0 reorg'!F202)</f>
         <v>1</v>
       </c>
@@ -38428,7 +38491,7 @@
         <f>'Bowtie v1.0 reorg'!D203</f>
         <v>59848</v>
       </c>
-      <c r="E202" s="14">
+      <c r="E202">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F203),"",'Bowtie v1.0 reorg'!F203)</f>
         <v>1</v>
       </c>
@@ -38478,7 +38541,7 @@
         <f>'Bowtie v1.0 reorg'!D204</f>
         <v>59849</v>
       </c>
-      <c r="E203" s="14">
+      <c r="E203">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F204),"",'Bowtie v1.0 reorg'!F204)</f>
         <v>1</v>
       </c>
@@ -38528,7 +38591,7 @@
         <f>'Bowtie v1.0 reorg'!D205</f>
         <v>59850</v>
       </c>
-      <c r="E204" s="14">
+      <c r="E204">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F205),"",'Bowtie v1.0 reorg'!F205)</f>
         <v>1</v>
       </c>
@@ -38578,7 +38641,7 @@
         <f>'Bowtie v1.0 reorg'!D206</f>
         <v>59851</v>
       </c>
-      <c r="E205" s="14">
+      <c r="E205">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F206),"",'Bowtie v1.0 reorg'!F206)</f>
         <v>1</v>
       </c>
@@ -38628,7 +38691,7 @@
         <f>'Bowtie v1.0 reorg'!D207</f>
         <v>59852</v>
       </c>
-      <c r="E206" s="14">
+      <c r="E206">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F207),"",'Bowtie v1.0 reorg'!F207)</f>
         <v>1</v>
       </c>
@@ -38678,7 +38741,7 @@
         <f>'Bowtie v1.0 reorg'!D208</f>
         <v>59853</v>
       </c>
-      <c r="E207" s="14">
+      <c r="E207">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F208),"",'Bowtie v1.0 reorg'!F208)</f>
         <v>1</v>
       </c>
@@ -38728,7 +38791,7 @@
         <f>'Bowtie v1.0 reorg'!D209</f>
         <v>59854</v>
       </c>
-      <c r="E208" s="14">
+      <c r="E208">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F209),"",'Bowtie v1.0 reorg'!F209)</f>
         <v>1</v>
       </c>
@@ -38778,7 +38841,7 @@
         <f>'Bowtie v1.0 reorg'!D210</f>
         <v>59855</v>
       </c>
-      <c r="E209" s="14">
+      <c r="E209">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F210),"",'Bowtie v1.0 reorg'!F210)</f>
         <v>1</v>
       </c>
@@ -38828,7 +38891,7 @@
         <f>'Bowtie v1.0 reorg'!D211</f>
         <v>59856</v>
       </c>
-      <c r="E210" s="14">
+      <c r="E210">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F211),"",'Bowtie v1.0 reorg'!F211)</f>
         <v>1</v>
       </c>
@@ -38878,7 +38941,7 @@
         <f>'Bowtie v1.0 reorg'!D212</f>
         <v>59857</v>
       </c>
-      <c r="E211" s="14">
+      <c r="E211">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F212),"",'Bowtie v1.0 reorg'!F212)</f>
         <v>1</v>
       </c>
@@ -38928,7 +38991,7 @@
         <f>'Bowtie v1.0 reorg'!D213</f>
         <v>59858</v>
       </c>
-      <c r="E212" s="14">
+      <c r="E212">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F213),"",'Bowtie v1.0 reorg'!F213)</f>
         <v>1</v>
       </c>
@@ -38978,7 +39041,7 @@
         <f>'Bowtie v1.0 reorg'!D214</f>
         <v>59859</v>
       </c>
-      <c r="E213" s="14">
+      <c r="E213">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F214),"",'Bowtie v1.0 reorg'!F214)</f>
         <v>1</v>
       </c>
@@ -39028,7 +39091,7 @@
         <f>'Bowtie v1.0 reorg'!D215</f>
         <v>59860</v>
       </c>
-      <c r="E214" s="14">
+      <c r="E214">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F215),"",'Bowtie v1.0 reorg'!F215)</f>
         <v>1</v>
       </c>
@@ -39078,7 +39141,7 @@
         <f>'Bowtie v1.0 reorg'!D216</f>
         <v>59861</v>
       </c>
-      <c r="E215" s="14">
+      <c r="E215">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F216),"",'Bowtie v1.0 reorg'!F216)</f>
         <v>1</v>
       </c>
@@ -39128,7 +39191,7 @@
         <f>'Bowtie v1.0 reorg'!D217</f>
         <v>59862</v>
       </c>
-      <c r="E216" s="14">
+      <c r="E216">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F217),"",'Bowtie v1.0 reorg'!F217)</f>
         <v>1</v>
       </c>
@@ -39178,7 +39241,7 @@
         <f>'Bowtie v1.0 reorg'!D218</f>
         <v>59863</v>
       </c>
-      <c r="E217" s="14">
+      <c r="E217">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F218),"",'Bowtie v1.0 reorg'!F218)</f>
         <v>1</v>
       </c>
@@ -39228,7 +39291,7 @@
         <f>'Bowtie v1.0 reorg'!D219</f>
         <v>59864</v>
       </c>
-      <c r="E218" s="14">
+      <c r="E218">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F219),"",'Bowtie v1.0 reorg'!F219)</f>
         <v>1</v>
       </c>
@@ -39278,7 +39341,7 @@
         <f>'Bowtie v1.0 reorg'!D220</f>
         <v>59865</v>
       </c>
-      <c r="E219" s="14">
+      <c r="E219">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F220),"",'Bowtie v1.0 reorg'!F220)</f>
         <v>1</v>
       </c>
@@ -39328,7 +39391,7 @@
         <f>'Bowtie v1.0 reorg'!D221</f>
         <v>59866</v>
       </c>
-      <c r="E220" s="14">
+      <c r="E220">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F221),"",'Bowtie v1.0 reorg'!F221)</f>
         <v>1</v>
       </c>
@@ -39378,7 +39441,7 @@
         <f>'Bowtie v1.0 reorg'!D222</f>
         <v>59867</v>
       </c>
-      <c r="E221" s="14">
+      <c r="E221">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F222),"",'Bowtie v1.0 reorg'!F222)</f>
         <v>1</v>
       </c>
@@ -39428,7 +39491,7 @@
         <f>'Bowtie v1.0 reorg'!D223</f>
         <v>59868</v>
       </c>
-      <c r="E222" s="14">
+      <c r="E222">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F223),"",'Bowtie v1.0 reorg'!F223)</f>
         <v>1</v>
       </c>
@@ -39478,7 +39541,7 @@
         <f>'Bowtie v1.0 reorg'!D224</f>
         <v>59869</v>
       </c>
-      <c r="E223" s="14">
+      <c r="E223">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F224),"",'Bowtie v1.0 reorg'!F224)</f>
         <v>1</v>
       </c>
@@ -39528,7 +39591,7 @@
         <f>'Bowtie v1.0 reorg'!D225</f>
         <v>59870</v>
       </c>
-      <c r="E224" s="14">
+      <c r="E224">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F225),"",'Bowtie v1.0 reorg'!F225)</f>
         <v>1</v>
       </c>
@@ -39578,7 +39641,7 @@
         <f>'Bowtie v1.0 reorg'!D226</f>
         <v>59871</v>
       </c>
-      <c r="E225" s="14">
+      <c r="E225">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F226),"",'Bowtie v1.0 reorg'!F226)</f>
         <v>1</v>
       </c>
@@ -39628,7 +39691,7 @@
         <f>'Bowtie v1.0 reorg'!D227</f>
         <v>59872</v>
       </c>
-      <c r="E226" s="14">
+      <c r="E226">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F227),"",'Bowtie v1.0 reorg'!F227)</f>
         <v>1</v>
       </c>
@@ -39678,7 +39741,7 @@
         <f>'Bowtie v1.0 reorg'!D228</f>
         <v>59873</v>
       </c>
-      <c r="E227" s="14">
+      <c r="E227">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F228),"",'Bowtie v1.0 reorg'!F228)</f>
         <v>1</v>
       </c>
@@ -39728,7 +39791,7 @@
         <f>'Bowtie v1.0 reorg'!D229</f>
         <v>59874</v>
       </c>
-      <c r="E228" s="14">
+      <c r="E228">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F229),"",'Bowtie v1.0 reorg'!F229)</f>
         <v>1</v>
       </c>
@@ -39778,7 +39841,7 @@
         <f>'Bowtie v1.0 reorg'!D230</f>
         <v>59875</v>
       </c>
-      <c r="E229" s="14">
+      <c r="E229">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F230),"",'Bowtie v1.0 reorg'!F230)</f>
         <v>1</v>
       </c>
@@ -39828,7 +39891,7 @@
         <f>'Bowtie v1.0 reorg'!D231</f>
         <v>59876</v>
       </c>
-      <c r="E230" s="14">
+      <c r="E230">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F231),"",'Bowtie v1.0 reorg'!F231)</f>
         <v>1</v>
       </c>
@@ -39878,7 +39941,7 @@
         <f>'Bowtie v1.0 reorg'!D232</f>
         <v>59877</v>
       </c>
-      <c r="E231" s="14">
+      <c r="E231">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F232),"",'Bowtie v1.0 reorg'!F232)</f>
         <v>1</v>
       </c>
@@ -39928,7 +39991,7 @@
         <f>'Bowtie v1.0 reorg'!D233</f>
         <v>59878</v>
       </c>
-      <c r="E232" s="14">
+      <c r="E232">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F233),"",'Bowtie v1.0 reorg'!F233)</f>
         <v>1</v>
       </c>
@@ -39978,7 +40041,7 @@
         <f>'Bowtie v1.0 reorg'!D234</f>
         <v>59879</v>
       </c>
-      <c r="E233" s="14">
+      <c r="E233">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F234),"",'Bowtie v1.0 reorg'!F234)</f>
         <v>1</v>
       </c>
@@ -40028,7 +40091,7 @@
         <f>'Bowtie v1.0 reorg'!D235</f>
         <v>59880</v>
       </c>
-      <c r="E234" s="14">
+      <c r="E234">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F235),"",'Bowtie v1.0 reorg'!F235)</f>
         <v>1</v>
       </c>
@@ -40078,7 +40141,7 @@
         <f>'Bowtie v1.0 reorg'!D236</f>
         <v>59881</v>
       </c>
-      <c r="E235" s="14">
+      <c r="E235">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F236),"",'Bowtie v1.0 reorg'!F236)</f>
         <v>1</v>
       </c>
@@ -40128,7 +40191,7 @@
         <f>'Bowtie v1.0 reorg'!D237</f>
         <v>59882</v>
       </c>
-      <c r="E236" s="14">
+      <c r="E236">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F237),"",'Bowtie v1.0 reorg'!F237)</f>
         <v>1</v>
       </c>
@@ -40178,7 +40241,7 @@
         <f>'Bowtie v1.0 reorg'!D238</f>
         <v>59883</v>
       </c>
-      <c r="E237" s="14">
+      <c r="E237">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F238),"",'Bowtie v1.0 reorg'!F238)</f>
         <v>1</v>
       </c>
@@ -40228,7 +40291,7 @@
         <f>'Bowtie v1.0 reorg'!D239</f>
         <v>59884</v>
       </c>
-      <c r="E238" s="14">
+      <c r="E238">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F239),"",'Bowtie v1.0 reorg'!F239)</f>
         <v>1</v>
       </c>
@@ -40278,7 +40341,7 @@
         <f>'Bowtie v1.0 reorg'!D240</f>
         <v>59885</v>
       </c>
-      <c r="E239" s="14">
+      <c r="E239">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F240),"",'Bowtie v1.0 reorg'!F240)</f>
         <v>1</v>
       </c>
@@ -40328,7 +40391,7 @@
         <f>'Bowtie v1.0 reorg'!D241</f>
         <v>59886</v>
       </c>
-      <c r="E240" s="14">
+      <c r="E240">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F241),"",'Bowtie v1.0 reorg'!F241)</f>
         <v>1</v>
       </c>
@@ -40378,7 +40441,7 @@
         <f>'Bowtie v1.0 reorg'!D242</f>
         <v>59887</v>
       </c>
-      <c r="E241" s="14">
+      <c r="E241">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F242),"",'Bowtie v1.0 reorg'!F242)</f>
         <v>1</v>
       </c>
@@ -40428,7 +40491,7 @@
         <f>'Bowtie v1.0 reorg'!D243</f>
         <v>59888</v>
       </c>
-      <c r="E242" s="14">
+      <c r="E242">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F243),"",'Bowtie v1.0 reorg'!F243)</f>
         <v>1</v>
       </c>
@@ -40478,7 +40541,7 @@
         <f>'Bowtie v1.0 reorg'!D244</f>
         <v>59889</v>
       </c>
-      <c r="E243" s="14">
+      <c r="E243">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F244),"",'Bowtie v1.0 reorg'!F244)</f>
         <v>1</v>
       </c>
@@ -40528,7 +40591,7 @@
         <f>'Bowtie v1.0 reorg'!D245</f>
         <v>59890</v>
       </c>
-      <c r="E244" s="14">
+      <c r="E244">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F245),"",'Bowtie v1.0 reorg'!F245)</f>
         <v>1</v>
       </c>
@@ -40578,7 +40641,7 @@
         <f>'Bowtie v1.0 reorg'!D246</f>
         <v>59891</v>
       </c>
-      <c r="E245" s="14">
+      <c r="E245">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F246),"",'Bowtie v1.0 reorg'!F246)</f>
         <v>1</v>
       </c>
@@ -40628,7 +40691,7 @@
         <f>'Bowtie v1.0 reorg'!D247</f>
         <v>59892</v>
       </c>
-      <c r="E246" s="14">
+      <c r="E246">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F247),"",'Bowtie v1.0 reorg'!F247)</f>
         <v>1</v>
       </c>
@@ -40678,7 +40741,7 @@
         <f>'Bowtie v1.0 reorg'!D248</f>
         <v>59893</v>
       </c>
-      <c r="E247" s="14">
+      <c r="E247">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F248),"",'Bowtie v1.0 reorg'!F248)</f>
         <v>1</v>
       </c>
@@ -40728,7 +40791,7 @@
         <f>'Bowtie v1.0 reorg'!D249</f>
         <v>59894</v>
       </c>
-      <c r="E248" s="14">
+      <c r="E248">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F249),"",'Bowtie v1.0 reorg'!F249)</f>
         <v>1</v>
       </c>
@@ -40778,7 +40841,7 @@
         <f>'Bowtie v1.0 reorg'!D250</f>
         <v>59895</v>
       </c>
-      <c r="E249" s="14">
+      <c r="E249">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F250),"",'Bowtie v1.0 reorg'!F250)</f>
         <v>1</v>
       </c>
@@ -40828,7 +40891,7 @@
         <f>'Bowtie v1.0 reorg'!D251</f>
         <v>59896</v>
       </c>
-      <c r="E250" s="14">
+      <c r="E250">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F251),"",'Bowtie v1.0 reorg'!F251)</f>
         <v>1</v>
       </c>
@@ -40878,7 +40941,7 @@
         <f>'Bowtie v1.0 reorg'!D252</f>
         <v>59897</v>
       </c>
-      <c r="E251" s="14">
+      <c r="E251">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F252),"",'Bowtie v1.0 reorg'!F252)</f>
         <v>1</v>
       </c>
@@ -40928,7 +40991,7 @@
         <f>'Bowtie v1.0 reorg'!D253</f>
         <v>59898</v>
       </c>
-      <c r="E252" s="14">
+      <c r="E252">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F253),"",'Bowtie v1.0 reorg'!F253)</f>
         <v>1</v>
       </c>
@@ -40978,7 +41041,7 @@
         <f>'Bowtie v1.0 reorg'!D254</f>
         <v>59899</v>
       </c>
-      <c r="E253" s="14">
+      <c r="E253">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F254),"",'Bowtie v1.0 reorg'!F254)</f>
         <v>1</v>
       </c>
@@ -41028,7 +41091,7 @@
         <f>'Bowtie v1.0 reorg'!D255</f>
         <v>59900</v>
       </c>
-      <c r="E254" s="14">
+      <c r="E254">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F255),"",'Bowtie v1.0 reorg'!F255)</f>
         <v>1</v>
       </c>
@@ -41078,7 +41141,7 @@
         <f>'Bowtie v1.0 reorg'!D256</f>
         <v>59901</v>
       </c>
-      <c r="E255" s="14">
+      <c r="E255">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F256),"",'Bowtie v1.0 reorg'!F256)</f>
         <v>1</v>
       </c>
@@ -41128,7 +41191,7 @@
         <f>'Bowtie v1.0 reorg'!D257</f>
         <v>59902</v>
       </c>
-      <c r="E256" s="14">
+      <c r="E256">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F257),"",'Bowtie v1.0 reorg'!F257)</f>
         <v>1</v>
       </c>
@@ -41178,7 +41241,7 @@
         <f>'Bowtie v1.0 reorg'!D258</f>
         <v>59903</v>
       </c>
-      <c r="E257" s="14">
+      <c r="E257">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F258),"",'Bowtie v1.0 reorg'!F258)</f>
         <v>1</v>
       </c>
@@ -41228,7 +41291,7 @@
         <f>'Bowtie v1.0 reorg'!D259</f>
         <v>59904</v>
       </c>
-      <c r="E258" s="14">
+      <c r="E258">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F259),"",'Bowtie v1.0 reorg'!F259)</f>
         <v>1</v>
       </c>
@@ -41278,7 +41341,7 @@
         <f>'Bowtie v1.0 reorg'!D260</f>
         <v>59905</v>
       </c>
-      <c r="E259" s="14">
+      <c r="E259">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F260),"",'Bowtie v1.0 reorg'!F260)</f>
         <v>1</v>
       </c>
@@ -41328,7 +41391,7 @@
         <f>'Bowtie v1.0 reorg'!D261</f>
         <v>59906</v>
       </c>
-      <c r="E260" s="14">
+      <c r="E260">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F261),"",'Bowtie v1.0 reorg'!F261)</f>
         <v>1</v>
       </c>
@@ -41378,7 +41441,7 @@
         <f>'Bowtie v1.0 reorg'!D262</f>
         <v>59907</v>
       </c>
-      <c r="E261" s="14">
+      <c r="E261">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F262),"",'Bowtie v1.0 reorg'!F262)</f>
         <v>1</v>
       </c>
@@ -41428,7 +41491,7 @@
         <f>'Bowtie v1.0 reorg'!D263</f>
         <v>59908</v>
       </c>
-      <c r="E262" s="14">
+      <c r="E262">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F263),"",'Bowtie v1.0 reorg'!F263)</f>
         <v>1</v>
       </c>
@@ -41478,7 +41541,7 @@
         <f>'Bowtie v1.0 reorg'!D264</f>
         <v>59909</v>
       </c>
-      <c r="E263" s="14">
+      <c r="E263">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F264),"",'Bowtie v1.0 reorg'!F264)</f>
         <v>1</v>
       </c>
@@ -41528,7 +41591,7 @@
         <f>'Bowtie v1.0 reorg'!D265</f>
         <v>59910</v>
       </c>
-      <c r="E264" s="14">
+      <c r="E264">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F265),"",'Bowtie v1.0 reorg'!F265)</f>
         <v>1</v>
       </c>
@@ -41578,7 +41641,7 @@
         <f>'Bowtie v1.0 reorg'!D266</f>
         <v>59911</v>
       </c>
-      <c r="E265" s="14">
+      <c r="E265">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F266),"",'Bowtie v1.0 reorg'!F266)</f>
         <v>1</v>
       </c>
@@ -41628,7 +41691,7 @@
         <f>'Bowtie v1.0 reorg'!D267</f>
         <v>59912</v>
       </c>
-      <c r="E266" s="14">
+      <c r="E266">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F267),"",'Bowtie v1.0 reorg'!F267)</f>
         <v>1</v>
       </c>
@@ -41678,7 +41741,7 @@
         <f>'Bowtie v1.0 reorg'!D268</f>
         <v>59913</v>
       </c>
-      <c r="E267" s="14">
+      <c r="E267">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F268),"",'Bowtie v1.0 reorg'!F268)</f>
         <v>1</v>
       </c>
@@ -41728,7 +41791,7 @@
         <f>'Bowtie v1.0 reorg'!D269</f>
         <v>59914</v>
       </c>
-      <c r="E268" s="14">
+      <c r="E268">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F269),"",'Bowtie v1.0 reorg'!F269)</f>
         <v>1</v>
       </c>
@@ -41778,7 +41841,7 @@
         <f>'Bowtie v1.0 reorg'!D270</f>
         <v>59915</v>
       </c>
-      <c r="E269" s="14">
+      <c r="E269">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F270),"",'Bowtie v1.0 reorg'!F270)</f>
         <v>1</v>
       </c>
@@ -41828,7 +41891,7 @@
         <f>'Bowtie v1.0 reorg'!D271</f>
         <v>59916</v>
       </c>
-      <c r="E270" s="14">
+      <c r="E270">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F271),"",'Bowtie v1.0 reorg'!F271)</f>
         <v>1</v>
       </c>
@@ -41878,7 +41941,7 @@
         <f>'Bowtie v1.0 reorg'!D272</f>
         <v>59917</v>
       </c>
-      <c r="E271" s="14">
+      <c r="E271">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F272),"",'Bowtie v1.0 reorg'!F272)</f>
         <v>1</v>
       </c>
@@ -41928,7 +41991,7 @@
         <f>'Bowtie v1.0 reorg'!D273</f>
         <v>59918</v>
       </c>
-      <c r="E272" s="14">
+      <c r="E272">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F273),"",'Bowtie v1.0 reorg'!F273)</f>
         <v>1</v>
       </c>
@@ -41978,7 +42041,7 @@
         <f>'Bowtie v1.0 reorg'!D274</f>
         <v>59919</v>
       </c>
-      <c r="E273" s="14">
+      <c r="E273">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F274),"",'Bowtie v1.0 reorg'!F274)</f>
         <v>1</v>
       </c>
@@ -42028,7 +42091,7 @@
         <f>'Bowtie v1.0 reorg'!D275</f>
         <v>59920</v>
       </c>
-      <c r="E274" s="14">
+      <c r="E274">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F275),"",'Bowtie v1.0 reorg'!F275)</f>
         <v>1</v>
       </c>
@@ -42078,7 +42141,7 @@
         <f>'Bowtie v1.0 reorg'!D276</f>
         <v>59921</v>
       </c>
-      <c r="E275" s="14">
+      <c r="E275">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F276),"",'Bowtie v1.0 reorg'!F276)</f>
         <v>1</v>
       </c>
@@ -42128,7 +42191,7 @@
         <f>'Bowtie v1.0 reorg'!D277</f>
         <v>59922</v>
       </c>
-      <c r="E276" s="14">
+      <c r="E276">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F277),"",'Bowtie v1.0 reorg'!F277)</f>
         <v>1</v>
       </c>
@@ -42178,7 +42241,7 @@
         <f>'Bowtie v1.0 reorg'!D278</f>
         <v>59923</v>
       </c>
-      <c r="E277" s="14">
+      <c r="E277">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F278),"",'Bowtie v1.0 reorg'!F278)</f>
         <v>1</v>
       </c>
@@ -42228,7 +42291,7 @@
         <f>'Bowtie v1.0 reorg'!D279</f>
         <v>59924</v>
       </c>
-      <c r="E278" s="14">
+      <c r="E278">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F279),"",'Bowtie v1.0 reorg'!F279)</f>
         <v>1</v>
       </c>
@@ -42278,7 +42341,7 @@
         <f>'Bowtie v1.0 reorg'!D280</f>
         <v>59925</v>
       </c>
-      <c r="E279" s="14">
+      <c r="E279">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F280),"",'Bowtie v1.0 reorg'!F280)</f>
         <v>1</v>
       </c>
@@ -42328,7 +42391,7 @@
         <f>'Bowtie v1.0 reorg'!D281</f>
         <v>59926</v>
       </c>
-      <c r="E280" s="14">
+      <c r="E280">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F281),"",'Bowtie v1.0 reorg'!F281)</f>
         <v>1</v>
       </c>
@@ -42378,7 +42441,7 @@
         <f>'Bowtie v1.0 reorg'!D282</f>
         <v>59927</v>
       </c>
-      <c r="E281" s="14">
+      <c r="E281">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F282),"",'Bowtie v1.0 reorg'!F282)</f>
         <v>1</v>
       </c>
@@ -42428,7 +42491,7 @@
         <f>'Bowtie v1.0 reorg'!D283</f>
         <v>59928</v>
       </c>
-      <c r="E282" s="14">
+      <c r="E282">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F283),"",'Bowtie v1.0 reorg'!F283)</f>
         <v>1</v>
       </c>
@@ -42478,7 +42541,7 @@
         <f>'Bowtie v1.0 reorg'!D284</f>
         <v>59929</v>
       </c>
-      <c r="E283" s="14">
+      <c r="E283">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F284),"",'Bowtie v1.0 reorg'!F284)</f>
         <v>1</v>
       </c>
@@ -42528,7 +42591,7 @@
         <f>'Bowtie v1.0 reorg'!D285</f>
         <v>59930</v>
       </c>
-      <c r="E284" s="14">
+      <c r="E284">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F285),"",'Bowtie v1.0 reorg'!F285)</f>
         <v>1</v>
       </c>
@@ -42578,7 +42641,7 @@
         <f>'Bowtie v1.0 reorg'!D286</f>
         <v>59931</v>
       </c>
-      <c r="E285" s="14">
+      <c r="E285">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F286),"",'Bowtie v1.0 reorg'!F286)</f>
         <v>1</v>
       </c>
@@ -42628,7 +42691,7 @@
         <f>'Bowtie v1.0 reorg'!D287</f>
         <v>59932</v>
       </c>
-      <c r="E286" s="14">
+      <c r="E286">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F287),"",'Bowtie v1.0 reorg'!F287)</f>
         <v>1</v>
       </c>
@@ -42678,7 +42741,7 @@
         <f>'Bowtie v1.0 reorg'!D288</f>
         <v>59933</v>
       </c>
-      <c r="E287" s="14">
+      <c r="E287">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F288),"",'Bowtie v1.0 reorg'!F288)</f>
         <v>1</v>
       </c>
@@ -42728,7 +42791,7 @@
         <f>'Bowtie v1.0 reorg'!D289</f>
         <v>59934</v>
       </c>
-      <c r="E288" s="14">
+      <c r="E288">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F289),"",'Bowtie v1.0 reorg'!F289)</f>
         <v>1</v>
       </c>
@@ -42778,7 +42841,7 @@
         <f>'Bowtie v1.0 reorg'!D290</f>
         <v>59935</v>
       </c>
-      <c r="E289" s="14">
+      <c r="E289">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F290),"",'Bowtie v1.0 reorg'!F290)</f>
         <v>1</v>
       </c>
@@ -42828,7 +42891,7 @@
         <f>'Bowtie v1.0 reorg'!D291</f>
         <v>59936</v>
       </c>
-      <c r="E290" s="14">
+      <c r="E290">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F291),"",'Bowtie v1.0 reorg'!F291)</f>
         <v>1</v>
       </c>
@@ -42878,7 +42941,7 @@
         <f>'Bowtie v1.0 reorg'!D292</f>
         <v>59937</v>
       </c>
-      <c r="E291" s="14">
+      <c r="E291">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F292),"",'Bowtie v1.0 reorg'!F292)</f>
         <v>1</v>
       </c>
@@ -42928,7 +42991,7 @@
         <f>'Bowtie v1.0 reorg'!D293</f>
         <v>59938</v>
       </c>
-      <c r="E292" s="14">
+      <c r="E292">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F293),"",'Bowtie v1.0 reorg'!F293)</f>
         <v>1</v>
       </c>
@@ -42978,7 +43041,7 @@
         <f>'Bowtie v1.0 reorg'!D294</f>
         <v>59939</v>
       </c>
-      <c r="E293" s="14">
+      <c r="E293">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F294),"",'Bowtie v1.0 reorg'!F294)</f>
         <v>1</v>
       </c>
@@ -43028,7 +43091,7 @@
         <f>'Bowtie v1.0 reorg'!D295</f>
         <v>59940</v>
       </c>
-      <c r="E294" s="14">
+      <c r="E294">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F295),"",'Bowtie v1.0 reorg'!F295)</f>
         <v>1</v>
       </c>
@@ -43078,7 +43141,7 @@
         <f>'Bowtie v1.0 reorg'!D296</f>
         <v>59941</v>
       </c>
-      <c r="E295" s="14">
+      <c r="E295">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F296),"",'Bowtie v1.0 reorg'!F296)</f>
         <v>1</v>
       </c>
@@ -43128,7 +43191,7 @@
         <f>'Bowtie v1.0 reorg'!D297</f>
         <v>59942</v>
       </c>
-      <c r="E296" s="14">
+      <c r="E296">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F297),"",'Bowtie v1.0 reorg'!F297)</f>
         <v>1</v>
       </c>
@@ -43178,7 +43241,7 @@
         <f>'Bowtie v1.0 reorg'!D298</f>
         <v>59943</v>
       </c>
-      <c r="E297" s="14">
+      <c r="E297">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F298),"",'Bowtie v1.0 reorg'!F298)</f>
         <v>1</v>
       </c>
@@ -43228,7 +43291,7 @@
         <f>'Bowtie v1.0 reorg'!D299</f>
         <v>59944</v>
       </c>
-      <c r="E298" s="14">
+      <c r="E298">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F299),"",'Bowtie v1.0 reorg'!F299)</f>
         <v>1</v>
       </c>
@@ -43278,7 +43341,7 @@
         <f>'Bowtie v1.0 reorg'!D300</f>
         <v>59945</v>
       </c>
-      <c r="E299" s="14">
+      <c r="E299">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F300),"",'Bowtie v1.0 reorg'!F300)</f>
         <v>1</v>
       </c>
@@ -43328,7 +43391,7 @@
         <f>'Bowtie v1.0 reorg'!D301</f>
         <v>59946</v>
       </c>
-      <c r="E300" s="14">
+      <c r="E300">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F301),"",'Bowtie v1.0 reorg'!F301)</f>
         <v>1</v>
       </c>
@@ -43378,7 +43441,7 @@
         <f>'Bowtie v1.0 reorg'!D302</f>
         <v>59947</v>
       </c>
-      <c r="E301" s="14">
+      <c r="E301">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F302),"",'Bowtie v1.0 reorg'!F302)</f>
         <v>1</v>
       </c>
@@ -43428,7 +43491,7 @@
         <f>'Bowtie v1.0 reorg'!D303</f>
         <v>59948</v>
       </c>
-      <c r="E302" s="14">
+      <c r="E302">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F303),"",'Bowtie v1.0 reorg'!F303)</f>
         <v>1</v>
       </c>
@@ -43478,7 +43541,7 @@
         <f>'Bowtie v1.0 reorg'!D304</f>
         <v>59949</v>
       </c>
-      <c r="E303" s="14">
+      <c r="E303">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F304),"",'Bowtie v1.0 reorg'!F304)</f>
         <v>1</v>
       </c>
@@ -43528,7 +43591,7 @@
         <f>'Bowtie v1.0 reorg'!D305</f>
         <v>59950</v>
       </c>
-      <c r="E304" s="14">
+      <c r="E304">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F305),"",'Bowtie v1.0 reorg'!F305)</f>
         <v>1</v>
       </c>
@@ -43578,7 +43641,7 @@
         <f>'Bowtie v1.0 reorg'!D306</f>
         <v>59951</v>
       </c>
-      <c r="E305" s="14">
+      <c r="E305">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F306),"",'Bowtie v1.0 reorg'!F306)</f>
         <v>1</v>
       </c>
@@ -43628,7 +43691,7 @@
         <f>'Bowtie v1.0 reorg'!D307</f>
         <v>59952</v>
       </c>
-      <c r="E306" s="14">
+      <c r="E306">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F307),"",'Bowtie v1.0 reorg'!F307)</f>
         <v>1</v>
       </c>
@@ -43678,7 +43741,7 @@
         <f>'Bowtie v1.0 reorg'!D308</f>
         <v>59953</v>
       </c>
-      <c r="E307" s="14">
+      <c r="E307">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F308),"",'Bowtie v1.0 reorg'!F308)</f>
         <v>1</v>
       </c>
@@ -43728,7 +43791,7 @@
         <f>'Bowtie v1.0 reorg'!D309</f>
         <v>59954</v>
       </c>
-      <c r="E308" s="14">
+      <c r="E308">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F309),"",'Bowtie v1.0 reorg'!F309)</f>
         <v>1</v>
       </c>
@@ -43778,7 +43841,7 @@
         <f>'Bowtie v1.0 reorg'!D310</f>
         <v>59955</v>
       </c>
-      <c r="E309" s="14">
+      <c r="E309">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F310),"",'Bowtie v1.0 reorg'!F310)</f>
         <v>1</v>
       </c>
@@ -43828,7 +43891,7 @@
         <f>'Bowtie v1.0 reorg'!D311</f>
         <v>59956</v>
       </c>
-      <c r="E310" s="14">
+      <c r="E310">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F311),"",'Bowtie v1.0 reorg'!F311)</f>
         <v>1</v>
       </c>
@@ -43878,7 +43941,7 @@
         <f>'Bowtie v1.0 reorg'!D312</f>
         <v>59957</v>
       </c>
-      <c r="E311" s="14">
+      <c r="E311">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F312),"",'Bowtie v1.0 reorg'!F312)</f>
         <v>1</v>
       </c>
@@ -43928,7 +43991,7 @@
         <f>'Bowtie v1.0 reorg'!D313</f>
         <v>59958</v>
       </c>
-      <c r="E312" s="14">
+      <c r="E312">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F313),"",'Bowtie v1.0 reorg'!F313)</f>
         <v>1</v>
       </c>
@@ -43978,7 +44041,7 @@
         <f>'Bowtie v1.0 reorg'!D314</f>
         <v>59959</v>
       </c>
-      <c r="E313" s="14">
+      <c r="E313">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F314),"",'Bowtie v1.0 reorg'!F314)</f>
         <v>1</v>
       </c>
@@ -44028,7 +44091,7 @@
         <f>'Bowtie v1.0 reorg'!D315</f>
         <v>59960</v>
       </c>
-      <c r="E314" s="14">
+      <c r="E314">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F315),"",'Bowtie v1.0 reorg'!F315)</f>
         <v>1</v>
       </c>
@@ -44078,7 +44141,7 @@
         <f>'Bowtie v1.0 reorg'!D316</f>
         <v>59961</v>
       </c>
-      <c r="E315" s="14">
+      <c r="E315">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F316),"",'Bowtie v1.0 reorg'!F316)</f>
         <v>1</v>
       </c>
@@ -44128,7 +44191,7 @@
         <f>'Bowtie v1.0 reorg'!D317</f>
         <v>59962</v>
       </c>
-      <c r="E316" s="14">
+      <c r="E316">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F317),"",'Bowtie v1.0 reorg'!F317)</f>
         <v>1</v>
       </c>
@@ -44178,7 +44241,7 @@
         <f>'Bowtie v1.0 reorg'!D318</f>
         <v>59963</v>
       </c>
-      <c r="E317" s="14">
+      <c r="E317">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F318),"",'Bowtie v1.0 reorg'!F318)</f>
         <v>1</v>
       </c>
@@ -44228,7 +44291,7 @@
         <f>'Bowtie v1.0 reorg'!D319</f>
         <v>59964</v>
       </c>
-      <c r="E318" s="14">
+      <c r="E318">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F319),"",'Bowtie v1.0 reorg'!F319)</f>
         <v>1</v>
       </c>
@@ -44278,7 +44341,7 @@
         <f>'Bowtie v1.0 reorg'!D320</f>
         <v>59965</v>
       </c>
-      <c r="E319" s="14">
+      <c r="E319">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F320),"",'Bowtie v1.0 reorg'!F320)</f>
         <v>1</v>
       </c>
@@ -44328,7 +44391,7 @@
         <f>'Bowtie v1.0 reorg'!D321</f>
         <v>59966</v>
       </c>
-      <c r="E320" s="14">
+      <c r="E320">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F321),"",'Bowtie v1.0 reorg'!F321)</f>
         <v>1</v>
       </c>
@@ -44378,7 +44441,7 @@
         <f>'Bowtie v1.0 reorg'!D322</f>
         <v>59967</v>
       </c>
-      <c r="E321" s="14">
+      <c r="E321">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F322),"",'Bowtie v1.0 reorg'!F322)</f>
         <v>1</v>
       </c>
@@ -44428,7 +44491,7 @@
         <f>'Bowtie v1.0 reorg'!D323</f>
         <v>59968</v>
       </c>
-      <c r="E322" s="14">
+      <c r="E322">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F323),"",'Bowtie v1.0 reorg'!F323)</f>
         <v>1</v>
       </c>
@@ -44478,7 +44541,7 @@
         <f>'Bowtie v1.0 reorg'!D324</f>
         <v>59969</v>
       </c>
-      <c r="E323" s="14">
+      <c r="E323">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F324),"",'Bowtie v1.0 reorg'!F324)</f>
         <v>1</v>
       </c>
@@ -44528,7 +44591,7 @@
         <f>'Bowtie v1.0 reorg'!D325</f>
         <v>59970</v>
       </c>
-      <c r="E324" s="14">
+      <c r="E324">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F325),"",'Bowtie v1.0 reorg'!F325)</f>
         <v>1</v>
       </c>
@@ -44578,7 +44641,7 @@
         <f>'Bowtie v1.0 reorg'!D326</f>
         <v>59971</v>
       </c>
-      <c r="E325" s="14">
+      <c r="E325">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F326),"",'Bowtie v1.0 reorg'!F326)</f>
         <v>1</v>
       </c>
@@ -44628,7 +44691,7 @@
         <f>'Bowtie v1.0 reorg'!D327</f>
         <v>59972</v>
       </c>
-      <c r="E326" s="14">
+      <c r="E326">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F327),"",'Bowtie v1.0 reorg'!F327)</f>
         <v>1</v>
       </c>
@@ -44678,7 +44741,7 @@
         <f>'Bowtie v1.0 reorg'!D328</f>
         <v>59973</v>
       </c>
-      <c r="E327" s="14">
+      <c r="E327">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F328),"",'Bowtie v1.0 reorg'!F328)</f>
         <v>1</v>
       </c>
@@ -44728,7 +44791,7 @@
         <f>'Bowtie v1.0 reorg'!D329</f>
         <v>59974</v>
       </c>
-      <c r="E328" s="14">
+      <c r="E328">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F329),"",'Bowtie v1.0 reorg'!F329)</f>
         <v>1</v>
       </c>
@@ -44778,7 +44841,7 @@
         <f>'Bowtie v1.0 reorg'!D330</f>
         <v>59975</v>
       </c>
-      <c r="E329" s="14">
+      <c r="E329">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F330),"",'Bowtie v1.0 reorg'!F330)</f>
         <v>1</v>
       </c>
@@ -44828,7 +44891,7 @@
         <f>'Bowtie v1.0 reorg'!D331</f>
         <v>59976</v>
       </c>
-      <c r="E330" s="14">
+      <c r="E330">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F331),"",'Bowtie v1.0 reorg'!F331)</f>
         <v>1</v>
       </c>
@@ -44878,7 +44941,7 @@
         <f>'Bowtie v1.0 reorg'!D332</f>
         <v>59977</v>
       </c>
-      <c r="E331" s="14">
+      <c r="E331">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F332),"",'Bowtie v1.0 reorg'!F332)</f>
         <v>1</v>
       </c>
@@ -44927,7 +44990,7 @@
         <f>'Bowtie v1.0 reorg'!D333</f>
         <v>59978</v>
       </c>
-      <c r="E332" s="14">
+      <c r="E332">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F333),"",'Bowtie v1.0 reorg'!F333)</f>
         <v>1</v>
       </c>
@@ -44976,7 +45039,7 @@
         <f>'Bowtie v1.0 reorg'!D334</f>
         <v>59979</v>
       </c>
-      <c r="E333" s="14">
+      <c r="E333">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F334),"",'Bowtie v1.0 reorg'!F334)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45026,7 +45089,7 @@
         <f>'Bowtie v1.0 reorg'!D335</f>
         <v>59980</v>
       </c>
-      <c r="E334" s="14">
+      <c r="E334">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F335),"",'Bowtie v1.0 reorg'!F335)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45076,7 +45139,7 @@
         <f>'Bowtie v1.0 reorg'!D336</f>
         <v>59981</v>
       </c>
-      <c r="E335" s="14">
+      <c r="E335">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F336),"",'Bowtie v1.0 reorg'!F336)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45126,7 +45189,7 @@
         <f>'Bowtie v1.0 reorg'!D337</f>
         <v>59982</v>
       </c>
-      <c r="E336" s="14">
+      <c r="E336">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F337),"",'Bowtie v1.0 reorg'!F337)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45159,7 +45222,7 @@
         <v>{"id":335,"name":"corner-resize","unicode":"EA4E","decimal":59982,"version":"1.1","style":"light","subset":"VSTS","group":"Control","keywords":["resize","grip","handle"],"usage":"Used for dialog, modal, or textarea resize handle."}</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <f>'Bowtie v1.0 reorg'!A338</f>
         <v>336</v>
@@ -45176,7 +45239,7 @@
         <f>'Bowtie v1.0 reorg'!D338</f>
         <v>59983</v>
       </c>
-      <c r="E337" s="14">
+      <c r="E337">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F338),"",'Bowtie v1.0 reorg'!F338)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45209,7 +45272,7 @@
         <v>{"id":336,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"Editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <f>'Bowtie v1.0 reorg'!A339</f>
         <v>337</v>
@@ -45259,7 +45322,7 @@
         <v>{"id":337,"name":"spinner","unicode":"EA50","decimal":59984,"version":"1.1","style":"bold","subset":"VSTS","group":"Control","keywords":["loading","spinner","wait","dots","loop","spin"],"usage":"Add bowtie-ani-spin-pulse class for animation."}</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <f>'Bowtie v1.0 reorg'!A340</f>
         <v>338</v>
@@ -45309,7 +45372,7 @@
         <v>{"id":338,"name":"personalize","unicode":"EA51","decimal":59985,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <f>'Bowtie v1.0 reorg'!A341</f>
         <v>339</v>
@@ -45359,7 +45422,7 @@
         <v>{"id":339,"name":"parameter","unicode":"EA52","decimal":59986,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["parameter","variable","argument","@","at"],"usage":"Used in Test hub for adding test step parameters."}</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <f>'Bowtie v1.0 reorg'!A342</f>
         <v>340</v>
@@ -45409,7 +45472,7 @@
         <v>{"id":340,"name":"step-insert","unicode":"EA53","decimal":59987,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","insert","stairs","arrow","right"],"usage":"Used in Test hub for adding test step."}</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <f>'Bowtie v1.0 reorg'!A343</f>
         <v>341</v>
@@ -45459,7 +45522,7 @@
         <v>{"id":341,"name":"step-shared-add","unicode":"EA54","decimal":59988,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","add","plus","stairs"],"usage":"Used in Test hub for creating a new test step as shared step."}</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <f>'Bowtie v1.0 reorg'!A344</f>
         <v>342</v>
@@ -45509,7 +45572,7 @@
         <v>{"id":342,"name":"step-shared-insert","unicode":"EA55","decimal":59989,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","arrow","right","stairs"],"usage":"Used in Test hub for inserting existing shared steps."}</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <f>'Bowtie v1.0 reorg'!A345</f>
         <v>343</v>
@@ -45526,7 +45589,7 @@
         <f>'Bowtie v1.0 reorg'!D345</f>
         <v>59990</v>
       </c>
-      <c r="E344" s="14">
+      <c r="E344">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F345),"",'Bowtie v1.0 reorg'!F345)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45558,9 +45621,8 @@
         <f t="shared" si="13"/>
         <v>{"id":343,"name":"process","unicode":"EA56","decimal":59990,"version":"1.1","style":"light","subset":"VSTS","group":"Build","keywords":["process","task","gear","automation"],"usage":"Used for build, deployment tasks."}</v>
       </c>
-      <c r="M344" s="15"/>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <f>'Bowtie v1.0 reorg'!A346</f>
         <v>344</v>
@@ -45577,7 +45639,7 @@
         <f>'Bowtie v1.0 reorg'!D346</f>
         <v>59991</v>
       </c>
-      <c r="E345" s="14">
+      <c r="E345">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F346),"",'Bowtie v1.0 reorg'!F346)</f>
         <v>1.1000000000000001</v>
       </c>
@@ -45610,7 +45672,7 @@
         <v>{"id":344,"name":"process-meta-task","unicode":"EA57","decimal":59991,"version":"1.1","style":"light","subset":"VSTS","group":"Build","keywords":["process","task","gear","automation","box","container","group","reusable"],"usage":"Used for build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <f>'Bowtie v1.0 reorg'!A347</f>
         <v>345</v>
@@ -45660,7 +45722,7 @@
         <v>{"id":345,"name":"column-option","unicode":"EA58","decimal":59992,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["column","option","settings","gear"],"usage":"Used for a group of reusable build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <f>'Bowtie v1.0 reorg'!A348</f>
         <v>346</v>
@@ -45709,9 +45771,8 @@
         <f t="shared" si="15"/>
         <v>{"id":346,"name":"globe","unicode":"EA59","decimal":59993,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["web","globe","country","region","world"],"usage":"Used for web or website. Also used for region or country on user profile page."}</v>
       </c>
-      <c r="M347" s="15"/>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <f>'Bowtie v1.0 reorg'!A349</f>
         <v>347</v>
@@ -45761,7 +45822,7 @@
         <v>{"id":347,"name":"locale-language","unicode":"EA5A","decimal":59994,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","locale","language","letter","character"],"usage":"Used for language preference on user profile page."}</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <f>'Bowtie v1.0 reorg'!A350</f>
         <v>348</v>
@@ -45811,157 +45872,157 @@
         <v>{"id":348,"name":"locale-timezone","unicode":"EA5B","decimal":59995,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","timezone","time","clock"],"usage":"Used for timezone preference on user profile page."}</v>
       </c>
     </row>
-    <row r="350" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="15">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350">
         <f>'Bowtie v1.0 reorg'!A351</f>
         <v>349</v>
       </c>
-      <c r="B350" s="15" t="str">
+      <c r="B350" t="str">
         <f>'Bowtie v1.0 reorg'!E351</f>
         <v>feedback-positive-outline</v>
       </c>
-      <c r="C350" s="15" t="str">
+      <c r="C350" t="str">
         <f>'Bowtie v1.0 reorg'!C351</f>
         <v>EA5C</v>
       </c>
-      <c r="D350" s="15">
+      <c r="D350">
         <f>'Bowtie v1.0 reorg'!D351</f>
         <v>59996</v>
       </c>
-      <c r="E350" s="18">
+      <c r="E350">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F351),"",'Bowtie v1.0 reorg'!F351)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F350" s="15" t="str">
+      <c r="F350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G351),"",'Bowtie v1.0 reorg'!G351)</f>
         <v>light</v>
       </c>
-      <c r="G350" s="15" t="str">
+      <c r="G350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I351),"",'Bowtie v1.0 reorg'!I351)</f>
         <v>VSTS</v>
       </c>
-      <c r="H350" s="15" t="str">
+      <c r="H350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J351),"",'Bowtie v1.0 reorg'!J351)</f>
         <v>Common</v>
       </c>
-      <c r="I350" s="15" t="str">
+      <c r="I350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H351),"",'Bowtie v1.0 reorg'!H351)</f>
         <v>feedback positive smile</v>
       </c>
-      <c r="J350" s="15" t="str">
+      <c r="J350" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K351),"",'Bowtie v1.0 reorg'!K351)</f>
         <v>Used in dropdown menu on white background.</v>
       </c>
-      <c r="K350" s="15" t="str">
+      <c r="K350" t="str">
         <f t="shared" si="14"/>
         <v>{'id':349,'name':'feedback-positive-outline','unicode':'EA5C','decimal':59996,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['feedback','positive','smile'],'usage':'Used in dropdown menu on white background.'}</v>
       </c>
-      <c r="L350" s="15" t="str">
+      <c r="L350" t="str">
         <f t="shared" si="15"/>
         <v>{"id":349,"name":"feedback-positive-outline","unicode":"EA5C","decimal":59996,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","positive","smile"],"usage":"Used in dropdown menu on white background."}</v>
       </c>
     </row>
-    <row r="351" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="15">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A351">
         <f>'Bowtie v1.0 reorg'!A352</f>
         <v>350</v>
       </c>
-      <c r="B351" s="15" t="str">
+      <c r="B351" t="str">
         <f>'Bowtie v1.0 reorg'!E352</f>
         <v>feedback-negative-outline</v>
       </c>
-      <c r="C351" s="15" t="str">
+      <c r="C351" t="str">
         <f>'Bowtie v1.0 reorg'!C352</f>
         <v>EA5D</v>
       </c>
-      <c r="D351" s="15">
+      <c r="D351">
         <f>'Bowtie v1.0 reorg'!D352</f>
         <v>59997</v>
       </c>
-      <c r="E351" s="18">
+      <c r="E351">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F352),"",'Bowtie v1.0 reorg'!F352)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F351" s="15" t="str">
+      <c r="F351" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G352),"",'Bowtie v1.0 reorg'!G352)</f>
         <v>light</v>
       </c>
-      <c r="G351" s="15" t="str">
+      <c r="G351" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I352),"",'Bowtie v1.0 reorg'!I352)</f>
         <v>VSTS</v>
       </c>
-      <c r="H351" s="15" t="str">
+      <c r="H351" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J352),"",'Bowtie v1.0 reorg'!J352)</f>
         <v>Common</v>
       </c>
-      <c r="I351" s="15" t="str">
+      <c r="I351" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H352),"",'Bowtie v1.0 reorg'!H352)</f>
         <v>feedback negative sad</v>
       </c>
-      <c r="J351" s="15" t="str">
+      <c r="J351" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K352),"",'Bowtie v1.0 reorg'!K352)</f>
         <v>Used in dropdown menu on white background.</v>
       </c>
-      <c r="K351" s="15" t="str">
+      <c r="K351" t="str">
         <f t="shared" si="14"/>
         <v>{'id':350,'name':'feedback-negative-outline','unicode':'EA5D','decimal':59997,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['feedback','negative','sad'],'usage':'Used in dropdown menu on white background.'}</v>
       </c>
-      <c r="L351" s="15" t="str">
+      <c r="L351" t="str">
         <f t="shared" si="15"/>
         <v>{"id":350,"name":"feedback-negative-outline","unicode":"EA5D","decimal":59997,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","negative","sad"],"usage":"Used in dropdown menu on white background."}</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="352" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="15">
         <f>'Bowtie v1.0 reorg'!A353</f>
         <v>351</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!E353</f>
-        <v>0</v>
-      </c>
-      <c r="C352" t="str">
+        <v>contact-card</v>
+      </c>
+      <c r="C352" s="15" t="str">
         <f>'Bowtie v1.0 reorg'!C353</f>
         <v>EA5E</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="15">
         <f>'Bowtie v1.0 reorg'!D353</f>
         <v>59998</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="15">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F353),"",'Bowtie v1.0 reorg'!F353)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="F352" t="str">
+      <c r="F352" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G353),"",'Bowtie v1.0 reorg'!G353)</f>
-        <v/>
-      </c>
-      <c r="G352" t="str">
+        <v>light</v>
+      </c>
+      <c r="G352" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I353),"",'Bowtie v1.0 reorg'!I353)</f>
-        <v/>
-      </c>
-      <c r="H352" t="str">
+        <v>VSTS</v>
+      </c>
+      <c r="H352" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J353),"",'Bowtie v1.0 reorg'!J353)</f>
-        <v/>
-      </c>
-      <c r="I352" t="str">
+        <v>Common</v>
+      </c>
+      <c r="I352" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H353),"",'Bowtie v1.0 reorg'!H353)</f>
-        <v/>
-      </c>
-      <c r="J352" t="str">
+        <v>contact info card email user profile</v>
+      </c>
+      <c r="J352" s="15" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K353),"",'Bowtie v1.0 reorg'!K353)</f>
-        <v/>
-      </c>
-      <c r="K352" t="str">
+        <v>Used for contact card.</v>
+      </c>
+      <c r="K352" s="15" t="str">
         <f t="shared" si="14"/>
-        <v>{'id':351,'name':'0','unicode':'EA5E','decimal':59998,'version':'1.1','style':'','subset':'','group':'','keywords':[''],'usage':''}</v>
-      </c>
-      <c r="L352" t="str">
+        <v>{'id':351,'name':'contact-card','unicode':'EA5E','decimal':59998,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['contact','info','card','email','user','profile'],'usage':'Used for contact card.'}</v>
+      </c>
+      <c r="L352" s="15" t="str">
         <f t="shared" si="15"/>
-        <v>{"id":351,"name":"0","unicode":"EA5E","decimal":59998,"version":"1.1","style":"","subset":"","group":"","keywords":[""],"usage":""}</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+        <v>{"id":351,"name":"contact-card","unicode":"EA5E","decimal":59998,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["contact","info","card","email","user","profile"],"usage":"Used for contact card."}</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <f>'Bowtie v1.0 reorg'!A354</f>
         <v>352</v>
@@ -46003,16 +46064,15 @@
         <v/>
       </c>
       <c r="K353" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K353:K416" si="16">IF(NOT(ISBLANK(A353)),CONCATENATE("{'",$A$1,"':",A353,",'",$B$1,"':'",B353,"',","'",$C$1,"':'",C353,"','",$D$1,"':",D353,",'",$E$1,"':'",FIXED(E353,1),"','",$F$1,"':'",F353,"','",$G$1,"':'",G353,"','",$H$1,"':'",H353,"','",$I$1,"':['",SUBSTITUTE(I353," ","','"),"'],'",$J$1,"':'",J353,"'}"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="L353" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L353:L416" si="17">SUBSTITUTE(K353,"'","""")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M353" s="15"/>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <f>'Bowtie v1.0 reorg'!A355</f>
         <v>353</v>
@@ -46054,15 +46114,15 @@
         <v/>
       </c>
       <c r="K354" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L354" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <f>'Bowtie v1.0 reorg'!A356</f>
         <v>354</v>
@@ -46104,15 +46164,15 @@
         <v/>
       </c>
       <c r="K355" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L355" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <f>'Bowtie v1.0 reorg'!A357</f>
         <v>355</v>
@@ -46129,7 +46189,7 @@
         <f>'Bowtie v1.0 reorg'!D357</f>
         <v>60002</v>
       </c>
-      <c r="E356" s="14" t="str">
+      <c r="E356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F357),"",'Bowtie v1.0 reorg'!F357)</f>
         <v/>
       </c>
@@ -46154,16 +46214,15 @@
         <v/>
       </c>
       <c r="K356" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L356" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M356" s="15"/>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <f>'Bowtie v1.0 reorg'!A358</f>
         <v>356</v>
@@ -46180,7 +46239,7 @@
         <f>'Bowtie v1.0 reorg'!D358</f>
         <v>60003</v>
       </c>
-      <c r="E357" s="14" t="str">
+      <c r="E357" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F358),"",'Bowtie v1.0 reorg'!F358)</f>
         <v/>
       </c>
@@ -46205,15 +46264,15 @@
         <v/>
       </c>
       <c r="K357" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L357" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <f>'Bowtie v1.0 reorg'!A359</f>
         <v>357</v>
@@ -46255,15 +46314,15 @@
         <v/>
       </c>
       <c r="K358" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L358" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <f>'Bowtie v1.0 reorg'!A360</f>
         <v>358</v>
@@ -46305,16 +46364,15 @@
         <v/>
       </c>
       <c r="K359" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L359" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M359" s="15"/>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <f>'Bowtie v1.0 reorg'!A361</f>
         <v>359</v>
@@ -46356,15 +46414,15 @@
         <v/>
       </c>
       <c r="K360" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L360" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <f>'Bowtie v1.0 reorg'!A362</f>
         <v>360</v>
@@ -46406,15 +46464,15 @@
         <v/>
       </c>
       <c r="K361" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L361" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <f>'Bowtie v1.0 reorg'!A363</f>
         <v>361</v>
@@ -46431,7 +46489,7 @@
         <f>'Bowtie v1.0 reorg'!D363</f>
         <v>60008</v>
       </c>
-      <c r="E362" s="14" t="str">
+      <c r="E362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F363),"",'Bowtie v1.0 reorg'!F363)</f>
         <v/>
       </c>
@@ -46456,14 +46514,5443 @@
         <v/>
       </c>
       <c r="K362" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L362" s="15" t="e">
-        <f t="shared" si="13"/>
+      <c r="L362" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M362" s="15"/>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <f>'Bowtie v1.0 reorg'!A364</f>
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <f>'Bowtie v1.0 reorg'!E364</f>
+        <v>0</v>
+      </c>
+      <c r="C363" t="str">
+        <f>'Bowtie v1.0 reorg'!C364</f>
+        <v>EA69</v>
+      </c>
+      <c r="D363">
+        <f>'Bowtie v1.0 reorg'!D364</f>
+        <v>60009</v>
+      </c>
+      <c r="E363" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F364),"",'Bowtie v1.0 reorg'!F364)</f>
+        <v/>
+      </c>
+      <c r="F363" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G364),"",'Bowtie v1.0 reorg'!G364)</f>
+        <v/>
+      </c>
+      <c r="G363" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I364),"",'Bowtie v1.0 reorg'!I364)</f>
+        <v/>
+      </c>
+      <c r="H363" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J364),"",'Bowtie v1.0 reorg'!J364)</f>
+        <v/>
+      </c>
+      <c r="I363" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H364),"",'Bowtie v1.0 reorg'!H364)</f>
+        <v/>
+      </c>
+      <c r="J363" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K364),"",'Bowtie v1.0 reorg'!K364)</f>
+        <v/>
+      </c>
+      <c r="K363" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L363" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <f>'Bowtie v1.0 reorg'!A365</f>
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <f>'Bowtie v1.0 reorg'!E365</f>
+        <v>0</v>
+      </c>
+      <c r="C364" t="str">
+        <f>'Bowtie v1.0 reorg'!C365</f>
+        <v>EA6A</v>
+      </c>
+      <c r="D364">
+        <f>'Bowtie v1.0 reorg'!D365</f>
+        <v>60010</v>
+      </c>
+      <c r="E364" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F365),"",'Bowtie v1.0 reorg'!F365)</f>
+        <v/>
+      </c>
+      <c r="F364" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G365),"",'Bowtie v1.0 reorg'!G365)</f>
+        <v/>
+      </c>
+      <c r="G364" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I365),"",'Bowtie v1.0 reorg'!I365)</f>
+        <v/>
+      </c>
+      <c r="H364" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J365),"",'Bowtie v1.0 reorg'!J365)</f>
+        <v/>
+      </c>
+      <c r="I364" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H365),"",'Bowtie v1.0 reorg'!H365)</f>
+        <v/>
+      </c>
+      <c r="J364" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K365),"",'Bowtie v1.0 reorg'!K365)</f>
+        <v/>
+      </c>
+      <c r="K364" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L364" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <f>'Bowtie v1.0 reorg'!A366</f>
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <f>'Bowtie v1.0 reorg'!E366</f>
+        <v>0</v>
+      </c>
+      <c r="C365" t="str">
+        <f>'Bowtie v1.0 reorg'!C366</f>
+        <v>EA6B</v>
+      </c>
+      <c r="D365">
+        <f>'Bowtie v1.0 reorg'!D366</f>
+        <v>60011</v>
+      </c>
+      <c r="E365" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F366),"",'Bowtie v1.0 reorg'!F366)</f>
+        <v/>
+      </c>
+      <c r="F365" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G366),"",'Bowtie v1.0 reorg'!G366)</f>
+        <v/>
+      </c>
+      <c r="G365" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I366),"",'Bowtie v1.0 reorg'!I366)</f>
+        <v/>
+      </c>
+      <c r="H365" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J366),"",'Bowtie v1.0 reorg'!J366)</f>
+        <v/>
+      </c>
+      <c r="I365" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H366),"",'Bowtie v1.0 reorg'!H366)</f>
+        <v/>
+      </c>
+      <c r="J365" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K366),"",'Bowtie v1.0 reorg'!K366)</f>
+        <v/>
+      </c>
+      <c r="K365" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L365" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <f>'Bowtie v1.0 reorg'!A367</f>
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <f>'Bowtie v1.0 reorg'!E367</f>
+        <v>0</v>
+      </c>
+      <c r="C366" t="str">
+        <f>'Bowtie v1.0 reorg'!C367</f>
+        <v>EA6C</v>
+      </c>
+      <c r="D366">
+        <f>'Bowtie v1.0 reorg'!D367</f>
+        <v>60012</v>
+      </c>
+      <c r="E366" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F367),"",'Bowtie v1.0 reorg'!F367)</f>
+        <v/>
+      </c>
+      <c r="F366" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G367),"",'Bowtie v1.0 reorg'!G367)</f>
+        <v/>
+      </c>
+      <c r="G366" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I367),"",'Bowtie v1.0 reorg'!I367)</f>
+        <v/>
+      </c>
+      <c r="H366" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J367),"",'Bowtie v1.0 reorg'!J367)</f>
+        <v/>
+      </c>
+      <c r="I366" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H367),"",'Bowtie v1.0 reorg'!H367)</f>
+        <v/>
+      </c>
+      <c r="J366" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K367),"",'Bowtie v1.0 reorg'!K367)</f>
+        <v/>
+      </c>
+      <c r="K366" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L366" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <f>'Bowtie v1.0 reorg'!A368</f>
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <f>'Bowtie v1.0 reorg'!E368</f>
+        <v>0</v>
+      </c>
+      <c r="C367" t="str">
+        <f>'Bowtie v1.0 reorg'!C368</f>
+        <v>EA6D</v>
+      </c>
+      <c r="D367">
+        <f>'Bowtie v1.0 reorg'!D368</f>
+        <v>60013</v>
+      </c>
+      <c r="E367" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F368),"",'Bowtie v1.0 reorg'!F368)</f>
+        <v/>
+      </c>
+      <c r="F367" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G368),"",'Bowtie v1.0 reorg'!G368)</f>
+        <v/>
+      </c>
+      <c r="G367" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I368),"",'Bowtie v1.0 reorg'!I368)</f>
+        <v/>
+      </c>
+      <c r="H367" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J368),"",'Bowtie v1.0 reorg'!J368)</f>
+        <v/>
+      </c>
+      <c r="I367" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H368),"",'Bowtie v1.0 reorg'!H368)</f>
+        <v/>
+      </c>
+      <c r="J367" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K368),"",'Bowtie v1.0 reorg'!K368)</f>
+        <v/>
+      </c>
+      <c r="K367" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L367" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <f>'Bowtie v1.0 reorg'!A369</f>
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <f>'Bowtie v1.0 reorg'!E369</f>
+        <v>0</v>
+      </c>
+      <c r="C368" t="str">
+        <f>'Bowtie v1.0 reorg'!C369</f>
+        <v>EA6E</v>
+      </c>
+      <c r="D368">
+        <f>'Bowtie v1.0 reorg'!D369</f>
+        <v>60014</v>
+      </c>
+      <c r="E368" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F369),"",'Bowtie v1.0 reorg'!F369)</f>
+        <v/>
+      </c>
+      <c r="F368" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G369),"",'Bowtie v1.0 reorg'!G369)</f>
+        <v/>
+      </c>
+      <c r="G368" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I369),"",'Bowtie v1.0 reorg'!I369)</f>
+        <v/>
+      </c>
+      <c r="H368" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J369),"",'Bowtie v1.0 reorg'!J369)</f>
+        <v/>
+      </c>
+      <c r="I368" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H369),"",'Bowtie v1.0 reorg'!H369)</f>
+        <v/>
+      </c>
+      <c r="J368" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K369),"",'Bowtie v1.0 reorg'!K369)</f>
+        <v/>
+      </c>
+      <c r="K368" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L368" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f>'Bowtie v1.0 reorg'!A370</f>
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <f>'Bowtie v1.0 reorg'!E370</f>
+        <v>0</v>
+      </c>
+      <c r="C369" t="str">
+        <f>'Bowtie v1.0 reorg'!C370</f>
+        <v>EA6F</v>
+      </c>
+      <c r="D369">
+        <f>'Bowtie v1.0 reorg'!D370</f>
+        <v>60015</v>
+      </c>
+      <c r="E369" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F370),"",'Bowtie v1.0 reorg'!F370)</f>
+        <v/>
+      </c>
+      <c r="F369" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G370),"",'Bowtie v1.0 reorg'!G370)</f>
+        <v/>
+      </c>
+      <c r="G369" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I370),"",'Bowtie v1.0 reorg'!I370)</f>
+        <v/>
+      </c>
+      <c r="H369" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J370),"",'Bowtie v1.0 reorg'!J370)</f>
+        <v/>
+      </c>
+      <c r="I369" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H370),"",'Bowtie v1.0 reorg'!H370)</f>
+        <v/>
+      </c>
+      <c r="J369" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K370),"",'Bowtie v1.0 reorg'!K370)</f>
+        <v/>
+      </c>
+      <c r="K369" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L369" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f>'Bowtie v1.0 reorg'!A371</f>
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <f>'Bowtie v1.0 reorg'!E371</f>
+        <v>0</v>
+      </c>
+      <c r="C370" t="str">
+        <f>'Bowtie v1.0 reorg'!C371</f>
+        <v>EA70</v>
+      </c>
+      <c r="D370">
+        <f>'Bowtie v1.0 reorg'!D371</f>
+        <v>60016</v>
+      </c>
+      <c r="E370" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F371),"",'Bowtie v1.0 reorg'!F371)</f>
+        <v/>
+      </c>
+      <c r="F370" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G371),"",'Bowtie v1.0 reorg'!G371)</f>
+        <v/>
+      </c>
+      <c r="G370" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I371),"",'Bowtie v1.0 reorg'!I371)</f>
+        <v/>
+      </c>
+      <c r="H370" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J371),"",'Bowtie v1.0 reorg'!J371)</f>
+        <v/>
+      </c>
+      <c r="I370" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H371),"",'Bowtie v1.0 reorg'!H371)</f>
+        <v/>
+      </c>
+      <c r="J370" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K371),"",'Bowtie v1.0 reorg'!K371)</f>
+        <v/>
+      </c>
+      <c r="K370" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L370" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f>'Bowtie v1.0 reorg'!A372</f>
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <f>'Bowtie v1.0 reorg'!E372</f>
+        <v>0</v>
+      </c>
+      <c r="C371" t="str">
+        <f>'Bowtie v1.0 reorg'!C372</f>
+        <v>EA71</v>
+      </c>
+      <c r="D371">
+        <f>'Bowtie v1.0 reorg'!D372</f>
+        <v>60017</v>
+      </c>
+      <c r="E371" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F372),"",'Bowtie v1.0 reorg'!F372)</f>
+        <v/>
+      </c>
+      <c r="F371" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G372),"",'Bowtie v1.0 reorg'!G372)</f>
+        <v/>
+      </c>
+      <c r="G371" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I372),"",'Bowtie v1.0 reorg'!I372)</f>
+        <v/>
+      </c>
+      <c r="H371" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J372),"",'Bowtie v1.0 reorg'!J372)</f>
+        <v/>
+      </c>
+      <c r="I371" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H372),"",'Bowtie v1.0 reorg'!H372)</f>
+        <v/>
+      </c>
+      <c r="J371" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K372),"",'Bowtie v1.0 reorg'!K372)</f>
+        <v/>
+      </c>
+      <c r="K371" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L371" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f>'Bowtie v1.0 reorg'!A373</f>
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <f>'Bowtie v1.0 reorg'!E373</f>
+        <v>0</v>
+      </c>
+      <c r="C372" t="str">
+        <f>'Bowtie v1.0 reorg'!C373</f>
+        <v>EA72</v>
+      </c>
+      <c r="D372">
+        <f>'Bowtie v1.0 reorg'!D373</f>
+        <v>60018</v>
+      </c>
+      <c r="E372" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F373),"",'Bowtie v1.0 reorg'!F373)</f>
+        <v/>
+      </c>
+      <c r="F372" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G373),"",'Bowtie v1.0 reorg'!G373)</f>
+        <v/>
+      </c>
+      <c r="G372" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I373),"",'Bowtie v1.0 reorg'!I373)</f>
+        <v/>
+      </c>
+      <c r="H372" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J373),"",'Bowtie v1.0 reorg'!J373)</f>
+        <v/>
+      </c>
+      <c r="I372" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H373),"",'Bowtie v1.0 reorg'!H373)</f>
+        <v/>
+      </c>
+      <c r="J372" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K373),"",'Bowtie v1.0 reorg'!K373)</f>
+        <v/>
+      </c>
+      <c r="K372" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L372" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f>'Bowtie v1.0 reorg'!A374</f>
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <f>'Bowtie v1.0 reorg'!E374</f>
+        <v>0</v>
+      </c>
+      <c r="C373" t="str">
+        <f>'Bowtie v1.0 reorg'!C374</f>
+        <v>EA73</v>
+      </c>
+      <c r="D373">
+        <f>'Bowtie v1.0 reorg'!D374</f>
+        <v>60019</v>
+      </c>
+      <c r="E373" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F374),"",'Bowtie v1.0 reorg'!F374)</f>
+        <v/>
+      </c>
+      <c r="F373" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G374),"",'Bowtie v1.0 reorg'!G374)</f>
+        <v/>
+      </c>
+      <c r="G373" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I374),"",'Bowtie v1.0 reorg'!I374)</f>
+        <v/>
+      </c>
+      <c r="H373" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J374),"",'Bowtie v1.0 reorg'!J374)</f>
+        <v/>
+      </c>
+      <c r="I373" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H374),"",'Bowtie v1.0 reorg'!H374)</f>
+        <v/>
+      </c>
+      <c r="J373" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K374),"",'Bowtie v1.0 reorg'!K374)</f>
+        <v/>
+      </c>
+      <c r="K373" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L373" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <f>'Bowtie v1.0 reorg'!A375</f>
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <f>'Bowtie v1.0 reorg'!E375</f>
+        <v>0</v>
+      </c>
+      <c r="C374" t="str">
+        <f>'Bowtie v1.0 reorg'!C375</f>
+        <v>EA74</v>
+      </c>
+      <c r="D374">
+        <f>'Bowtie v1.0 reorg'!D375</f>
+        <v>60020</v>
+      </c>
+      <c r="E374" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F375),"",'Bowtie v1.0 reorg'!F375)</f>
+        <v/>
+      </c>
+      <c r="F374" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G375),"",'Bowtie v1.0 reorg'!G375)</f>
+        <v/>
+      </c>
+      <c r="G374" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I375),"",'Bowtie v1.0 reorg'!I375)</f>
+        <v/>
+      </c>
+      <c r="H374" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J375),"",'Bowtie v1.0 reorg'!J375)</f>
+        <v/>
+      </c>
+      <c r="I374" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H375),"",'Bowtie v1.0 reorg'!H375)</f>
+        <v/>
+      </c>
+      <c r="J374" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K375),"",'Bowtie v1.0 reorg'!K375)</f>
+        <v/>
+      </c>
+      <c r="K374" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L374" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <f>'Bowtie v1.0 reorg'!A376</f>
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <f>'Bowtie v1.0 reorg'!E376</f>
+        <v>0</v>
+      </c>
+      <c r="C375" t="str">
+        <f>'Bowtie v1.0 reorg'!C376</f>
+        <v>EA75</v>
+      </c>
+      <c r="D375">
+        <f>'Bowtie v1.0 reorg'!D376</f>
+        <v>60021</v>
+      </c>
+      <c r="E375" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F376),"",'Bowtie v1.0 reorg'!F376)</f>
+        <v/>
+      </c>
+      <c r="F375" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G376),"",'Bowtie v1.0 reorg'!G376)</f>
+        <v/>
+      </c>
+      <c r="G375" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I376),"",'Bowtie v1.0 reorg'!I376)</f>
+        <v/>
+      </c>
+      <c r="H375" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J376),"",'Bowtie v1.0 reorg'!J376)</f>
+        <v/>
+      </c>
+      <c r="I375" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H376),"",'Bowtie v1.0 reorg'!H376)</f>
+        <v/>
+      </c>
+      <c r="J375" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K376),"",'Bowtie v1.0 reorg'!K376)</f>
+        <v/>
+      </c>
+      <c r="K375" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L375" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <f>'Bowtie v1.0 reorg'!A377</f>
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <f>'Bowtie v1.0 reorg'!E377</f>
+        <v>0</v>
+      </c>
+      <c r="C376" t="str">
+        <f>'Bowtie v1.0 reorg'!C377</f>
+        <v>EA76</v>
+      </c>
+      <c r="D376">
+        <f>'Bowtie v1.0 reorg'!D377</f>
+        <v>60022</v>
+      </c>
+      <c r="E376" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F377),"",'Bowtie v1.0 reorg'!F377)</f>
+        <v/>
+      </c>
+      <c r="F376" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G377),"",'Bowtie v1.0 reorg'!G377)</f>
+        <v/>
+      </c>
+      <c r="G376" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I377),"",'Bowtie v1.0 reorg'!I377)</f>
+        <v/>
+      </c>
+      <c r="H376" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J377),"",'Bowtie v1.0 reorg'!J377)</f>
+        <v/>
+      </c>
+      <c r="I376" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H377),"",'Bowtie v1.0 reorg'!H377)</f>
+        <v/>
+      </c>
+      <c r="J376" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K377),"",'Bowtie v1.0 reorg'!K377)</f>
+        <v/>
+      </c>
+      <c r="K376" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L376" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <f>'Bowtie v1.0 reorg'!A378</f>
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <f>'Bowtie v1.0 reorg'!E378</f>
+        <v>0</v>
+      </c>
+      <c r="C377" t="str">
+        <f>'Bowtie v1.0 reorg'!C378</f>
+        <v>EA77</v>
+      </c>
+      <c r="D377">
+        <f>'Bowtie v1.0 reorg'!D378</f>
+        <v>60023</v>
+      </c>
+      <c r="E377" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F378),"",'Bowtie v1.0 reorg'!F378)</f>
+        <v/>
+      </c>
+      <c r="F377" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G378),"",'Bowtie v1.0 reorg'!G378)</f>
+        <v/>
+      </c>
+      <c r="G377" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I378),"",'Bowtie v1.0 reorg'!I378)</f>
+        <v/>
+      </c>
+      <c r="H377" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J378),"",'Bowtie v1.0 reorg'!J378)</f>
+        <v/>
+      </c>
+      <c r="I377" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H378),"",'Bowtie v1.0 reorg'!H378)</f>
+        <v/>
+      </c>
+      <c r="J377" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K378),"",'Bowtie v1.0 reorg'!K378)</f>
+        <v/>
+      </c>
+      <c r="K377" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L377" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <f>'Bowtie v1.0 reorg'!A379</f>
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <f>'Bowtie v1.0 reorg'!E379</f>
+        <v>0</v>
+      </c>
+      <c r="C378" t="str">
+        <f>'Bowtie v1.0 reorg'!C379</f>
+        <v>EA78</v>
+      </c>
+      <c r="D378">
+        <f>'Bowtie v1.0 reorg'!D379</f>
+        <v>60024</v>
+      </c>
+      <c r="E378" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F379),"",'Bowtie v1.0 reorg'!F379)</f>
+        <v/>
+      </c>
+      <c r="F378" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G379),"",'Bowtie v1.0 reorg'!G379)</f>
+        <v/>
+      </c>
+      <c r="G378" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I379),"",'Bowtie v1.0 reorg'!I379)</f>
+        <v/>
+      </c>
+      <c r="H378" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J379),"",'Bowtie v1.0 reorg'!J379)</f>
+        <v/>
+      </c>
+      <c r="I378" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H379),"",'Bowtie v1.0 reorg'!H379)</f>
+        <v/>
+      </c>
+      <c r="J378" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K379),"",'Bowtie v1.0 reorg'!K379)</f>
+        <v/>
+      </c>
+      <c r="K378" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L378" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <f>'Bowtie v1.0 reorg'!A380</f>
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <f>'Bowtie v1.0 reorg'!E380</f>
+        <v>0</v>
+      </c>
+      <c r="C379" t="str">
+        <f>'Bowtie v1.0 reorg'!C380</f>
+        <v>EA79</v>
+      </c>
+      <c r="D379">
+        <f>'Bowtie v1.0 reorg'!D380</f>
+        <v>60025</v>
+      </c>
+      <c r="E379" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F380),"",'Bowtie v1.0 reorg'!F380)</f>
+        <v/>
+      </c>
+      <c r="F379" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G380),"",'Bowtie v1.0 reorg'!G380)</f>
+        <v/>
+      </c>
+      <c r="G379" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I380),"",'Bowtie v1.0 reorg'!I380)</f>
+        <v/>
+      </c>
+      <c r="H379" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J380),"",'Bowtie v1.0 reorg'!J380)</f>
+        <v/>
+      </c>
+      <c r="I379" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H380),"",'Bowtie v1.0 reorg'!H380)</f>
+        <v/>
+      </c>
+      <c r="J379" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K380),"",'Bowtie v1.0 reorg'!K380)</f>
+        <v/>
+      </c>
+      <c r="K379" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L379" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <f>'Bowtie v1.0 reorg'!A381</f>
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <f>'Bowtie v1.0 reorg'!E381</f>
+        <v>0</v>
+      </c>
+      <c r="C380" t="str">
+        <f>'Bowtie v1.0 reorg'!C381</f>
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <f>'Bowtie v1.0 reorg'!D381</f>
+        <v>0</v>
+      </c>
+      <c r="E380" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F381),"",'Bowtie v1.0 reorg'!F381)</f>
+        <v/>
+      </c>
+      <c r="F380" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G381),"",'Bowtie v1.0 reorg'!G381)</f>
+        <v/>
+      </c>
+      <c r="G380" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I381),"",'Bowtie v1.0 reorg'!I381)</f>
+        <v/>
+      </c>
+      <c r="H380" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J381),"",'Bowtie v1.0 reorg'!J381)</f>
+        <v/>
+      </c>
+      <c r="I380" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H381),"",'Bowtie v1.0 reorg'!H381)</f>
+        <v/>
+      </c>
+      <c r="J380" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K381),"",'Bowtie v1.0 reorg'!K381)</f>
+        <v/>
+      </c>
+      <c r="K380" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L380" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <f>'Bowtie v1.0 reorg'!A382</f>
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <f>'Bowtie v1.0 reorg'!E382</f>
+        <v>0</v>
+      </c>
+      <c r="C381" t="str">
+        <f>'Bowtie v1.0 reorg'!C382</f>
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <f>'Bowtie v1.0 reorg'!D382</f>
+        <v>0</v>
+      </c>
+      <c r="E381" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F382),"",'Bowtie v1.0 reorg'!F382)</f>
+        <v/>
+      </c>
+      <c r="F381" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G382),"",'Bowtie v1.0 reorg'!G382)</f>
+        <v/>
+      </c>
+      <c r="G381" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I382),"",'Bowtie v1.0 reorg'!I382)</f>
+        <v/>
+      </c>
+      <c r="H381" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J382),"",'Bowtie v1.0 reorg'!J382)</f>
+        <v/>
+      </c>
+      <c r="I381" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H382),"",'Bowtie v1.0 reorg'!H382)</f>
+        <v/>
+      </c>
+      <c r="J381" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K382),"",'Bowtie v1.0 reorg'!K382)</f>
+        <v/>
+      </c>
+      <c r="K381" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L381" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <f>'Bowtie v1.0 reorg'!A383</f>
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <f>'Bowtie v1.0 reorg'!E383</f>
+        <v>0</v>
+      </c>
+      <c r="C382" t="str">
+        <f>'Bowtie v1.0 reorg'!C383</f>
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <f>'Bowtie v1.0 reorg'!D383</f>
+        <v>0</v>
+      </c>
+      <c r="E382" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F383),"",'Bowtie v1.0 reorg'!F383)</f>
+        <v/>
+      </c>
+      <c r="F382" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G383),"",'Bowtie v1.0 reorg'!G383)</f>
+        <v/>
+      </c>
+      <c r="G382" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I383),"",'Bowtie v1.0 reorg'!I383)</f>
+        <v/>
+      </c>
+      <c r="H382" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J383),"",'Bowtie v1.0 reorg'!J383)</f>
+        <v/>
+      </c>
+      <c r="I382" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H383),"",'Bowtie v1.0 reorg'!H383)</f>
+        <v/>
+      </c>
+      <c r="J382" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K383),"",'Bowtie v1.0 reorg'!K383)</f>
+        <v/>
+      </c>
+      <c r="K382" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L382" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <f>'Bowtie v1.0 reorg'!A384</f>
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <f>'Bowtie v1.0 reorg'!E384</f>
+        <v>0</v>
+      </c>
+      <c r="C383" t="str">
+        <f>'Bowtie v1.0 reorg'!C384</f>
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <f>'Bowtie v1.0 reorg'!D384</f>
+        <v>0</v>
+      </c>
+      <c r="E383" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F384),"",'Bowtie v1.0 reorg'!F384)</f>
+        <v/>
+      </c>
+      <c r="F383" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G384),"",'Bowtie v1.0 reorg'!G384)</f>
+        <v/>
+      </c>
+      <c r="G383" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I384),"",'Bowtie v1.0 reorg'!I384)</f>
+        <v/>
+      </c>
+      <c r="H383" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J384),"",'Bowtie v1.0 reorg'!J384)</f>
+        <v/>
+      </c>
+      <c r="I383" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H384),"",'Bowtie v1.0 reorg'!H384)</f>
+        <v/>
+      </c>
+      <c r="J383" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K384),"",'Bowtie v1.0 reorg'!K384)</f>
+        <v/>
+      </c>
+      <c r="K383" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L383" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <f>'Bowtie v1.0 reorg'!A385</f>
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <f>'Bowtie v1.0 reorg'!E385</f>
+        <v>0</v>
+      </c>
+      <c r="C384" t="str">
+        <f>'Bowtie v1.0 reorg'!C385</f>
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <f>'Bowtie v1.0 reorg'!D385</f>
+        <v>0</v>
+      </c>
+      <c r="E384" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F385),"",'Bowtie v1.0 reorg'!F385)</f>
+        <v/>
+      </c>
+      <c r="F384" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G385),"",'Bowtie v1.0 reorg'!G385)</f>
+        <v/>
+      </c>
+      <c r="G384" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I385),"",'Bowtie v1.0 reorg'!I385)</f>
+        <v/>
+      </c>
+      <c r="H384" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J385),"",'Bowtie v1.0 reorg'!J385)</f>
+        <v/>
+      </c>
+      <c r="I384" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H385),"",'Bowtie v1.0 reorg'!H385)</f>
+        <v/>
+      </c>
+      <c r="J384" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K385),"",'Bowtie v1.0 reorg'!K385)</f>
+        <v/>
+      </c>
+      <c r="K384" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L384" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <f>'Bowtie v1.0 reorg'!A386</f>
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <f>'Bowtie v1.0 reorg'!E386</f>
+        <v>0</v>
+      </c>
+      <c r="C385" t="str">
+        <f>'Bowtie v1.0 reorg'!C386</f>
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <f>'Bowtie v1.0 reorg'!D386</f>
+        <v>0</v>
+      </c>
+      <c r="E385" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F386),"",'Bowtie v1.0 reorg'!F386)</f>
+        <v/>
+      </c>
+      <c r="F385" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G386),"",'Bowtie v1.0 reorg'!G386)</f>
+        <v/>
+      </c>
+      <c r="G385" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I386),"",'Bowtie v1.0 reorg'!I386)</f>
+        <v/>
+      </c>
+      <c r="H385" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J386),"",'Bowtie v1.0 reorg'!J386)</f>
+        <v/>
+      </c>
+      <c r="I385" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H386),"",'Bowtie v1.0 reorg'!H386)</f>
+        <v/>
+      </c>
+      <c r="J385" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K386),"",'Bowtie v1.0 reorg'!K386)</f>
+        <v/>
+      </c>
+      <c r="K385" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L385" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <f>'Bowtie v1.0 reorg'!A387</f>
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <f>'Bowtie v1.0 reorg'!E387</f>
+        <v>0</v>
+      </c>
+      <c r="C386" t="str">
+        <f>'Bowtie v1.0 reorg'!C387</f>
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <f>'Bowtie v1.0 reorg'!D387</f>
+        <v>0</v>
+      </c>
+      <c r="E386" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F387),"",'Bowtie v1.0 reorg'!F387)</f>
+        <v/>
+      </c>
+      <c r="F386" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G387),"",'Bowtie v1.0 reorg'!G387)</f>
+        <v/>
+      </c>
+      <c r="G386" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I387),"",'Bowtie v1.0 reorg'!I387)</f>
+        <v/>
+      </c>
+      <c r="H386" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J387),"",'Bowtie v1.0 reorg'!J387)</f>
+        <v/>
+      </c>
+      <c r="I386" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H387),"",'Bowtie v1.0 reorg'!H387)</f>
+        <v/>
+      </c>
+      <c r="J386" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K387),"",'Bowtie v1.0 reorg'!K387)</f>
+        <v/>
+      </c>
+      <c r="K386" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L386" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <f>'Bowtie v1.0 reorg'!A388</f>
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <f>'Bowtie v1.0 reorg'!E388</f>
+        <v>0</v>
+      </c>
+      <c r="C387" t="str">
+        <f>'Bowtie v1.0 reorg'!C388</f>
+        <v>0</v>
+      </c>
+      <c r="D387">
+        <f>'Bowtie v1.0 reorg'!D388</f>
+        <v>0</v>
+      </c>
+      <c r="E387" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F388),"",'Bowtie v1.0 reorg'!F388)</f>
+        <v/>
+      </c>
+      <c r="F387" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G388),"",'Bowtie v1.0 reorg'!G388)</f>
+        <v/>
+      </c>
+      <c r="G387" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I388),"",'Bowtie v1.0 reorg'!I388)</f>
+        <v/>
+      </c>
+      <c r="H387" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J388),"",'Bowtie v1.0 reorg'!J388)</f>
+        <v/>
+      </c>
+      <c r="I387" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H388),"",'Bowtie v1.0 reorg'!H388)</f>
+        <v/>
+      </c>
+      <c r="J387" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K388),"",'Bowtie v1.0 reorg'!K388)</f>
+        <v/>
+      </c>
+      <c r="K387" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L387" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <f>'Bowtie v1.0 reorg'!A389</f>
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <f>'Bowtie v1.0 reorg'!E389</f>
+        <v>0</v>
+      </c>
+      <c r="C388" t="str">
+        <f>'Bowtie v1.0 reorg'!C389</f>
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <f>'Bowtie v1.0 reorg'!D389</f>
+        <v>0</v>
+      </c>
+      <c r="E388" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F389),"",'Bowtie v1.0 reorg'!F389)</f>
+        <v/>
+      </c>
+      <c r="F388" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G389),"",'Bowtie v1.0 reorg'!G389)</f>
+        <v/>
+      </c>
+      <c r="G388" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I389),"",'Bowtie v1.0 reorg'!I389)</f>
+        <v/>
+      </c>
+      <c r="H388" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J389),"",'Bowtie v1.0 reorg'!J389)</f>
+        <v/>
+      </c>
+      <c r="I388" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H389),"",'Bowtie v1.0 reorg'!H389)</f>
+        <v/>
+      </c>
+      <c r="J388" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K389),"",'Bowtie v1.0 reorg'!K389)</f>
+        <v/>
+      </c>
+      <c r="K388" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L388" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <f>'Bowtie v1.0 reorg'!A390</f>
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <f>'Bowtie v1.0 reorg'!E390</f>
+        <v>0</v>
+      </c>
+      <c r="C389" t="str">
+        <f>'Bowtie v1.0 reorg'!C390</f>
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <f>'Bowtie v1.0 reorg'!D390</f>
+        <v>0</v>
+      </c>
+      <c r="E389" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F390),"",'Bowtie v1.0 reorg'!F390)</f>
+        <v/>
+      </c>
+      <c r="F389" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G390),"",'Bowtie v1.0 reorg'!G390)</f>
+        <v/>
+      </c>
+      <c r="G389" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I390),"",'Bowtie v1.0 reorg'!I390)</f>
+        <v/>
+      </c>
+      <c r="H389" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J390),"",'Bowtie v1.0 reorg'!J390)</f>
+        <v/>
+      </c>
+      <c r="I389" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H390),"",'Bowtie v1.0 reorg'!H390)</f>
+        <v/>
+      </c>
+      <c r="J389" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K390),"",'Bowtie v1.0 reorg'!K390)</f>
+        <v/>
+      </c>
+      <c r="K389" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L389" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <f>'Bowtie v1.0 reorg'!A391</f>
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <f>'Bowtie v1.0 reorg'!E391</f>
+        <v>0</v>
+      </c>
+      <c r="C390" t="str">
+        <f>'Bowtie v1.0 reorg'!C391</f>
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <f>'Bowtie v1.0 reorg'!D391</f>
+        <v>0</v>
+      </c>
+      <c r="E390" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F391),"",'Bowtie v1.0 reorg'!F391)</f>
+        <v/>
+      </c>
+      <c r="F390" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G391),"",'Bowtie v1.0 reorg'!G391)</f>
+        <v/>
+      </c>
+      <c r="G390" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I391),"",'Bowtie v1.0 reorg'!I391)</f>
+        <v/>
+      </c>
+      <c r="H390" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J391),"",'Bowtie v1.0 reorg'!J391)</f>
+        <v/>
+      </c>
+      <c r="I390" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H391),"",'Bowtie v1.0 reorg'!H391)</f>
+        <v/>
+      </c>
+      <c r="J390" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K391),"",'Bowtie v1.0 reorg'!K391)</f>
+        <v/>
+      </c>
+      <c r="K390" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L390" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <f>'Bowtie v1.0 reorg'!A392</f>
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <f>'Bowtie v1.0 reorg'!E392</f>
+        <v>0</v>
+      </c>
+      <c r="C391" t="str">
+        <f>'Bowtie v1.0 reorg'!C392</f>
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <f>'Bowtie v1.0 reorg'!D392</f>
+        <v>0</v>
+      </c>
+      <c r="E391" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F392),"",'Bowtie v1.0 reorg'!F392)</f>
+        <v/>
+      </c>
+      <c r="F391" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G392),"",'Bowtie v1.0 reorg'!G392)</f>
+        <v/>
+      </c>
+      <c r="G391" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I392),"",'Bowtie v1.0 reorg'!I392)</f>
+        <v/>
+      </c>
+      <c r="H391" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J392),"",'Bowtie v1.0 reorg'!J392)</f>
+        <v/>
+      </c>
+      <c r="I391" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H392),"",'Bowtie v1.0 reorg'!H392)</f>
+        <v/>
+      </c>
+      <c r="J391" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K392),"",'Bowtie v1.0 reorg'!K392)</f>
+        <v/>
+      </c>
+      <c r="K391" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L391" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <f>'Bowtie v1.0 reorg'!A393</f>
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <f>'Bowtie v1.0 reorg'!E393</f>
+        <v>0</v>
+      </c>
+      <c r="C392" t="str">
+        <f>'Bowtie v1.0 reorg'!C393</f>
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <f>'Bowtie v1.0 reorg'!D393</f>
+        <v>0</v>
+      </c>
+      <c r="E392" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F393),"",'Bowtie v1.0 reorg'!F393)</f>
+        <v/>
+      </c>
+      <c r="F392" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G393),"",'Bowtie v1.0 reorg'!G393)</f>
+        <v/>
+      </c>
+      <c r="G392" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I393),"",'Bowtie v1.0 reorg'!I393)</f>
+        <v/>
+      </c>
+      <c r="H392" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J393),"",'Bowtie v1.0 reorg'!J393)</f>
+        <v/>
+      </c>
+      <c r="I392" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H393),"",'Bowtie v1.0 reorg'!H393)</f>
+        <v/>
+      </c>
+      <c r="J392" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K393),"",'Bowtie v1.0 reorg'!K393)</f>
+        <v/>
+      </c>
+      <c r="K392" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L392" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <f>'Bowtie v1.0 reorg'!A394</f>
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <f>'Bowtie v1.0 reorg'!E394</f>
+        <v>0</v>
+      </c>
+      <c r="C393" t="str">
+        <f>'Bowtie v1.0 reorg'!C394</f>
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <f>'Bowtie v1.0 reorg'!D394</f>
+        <v>0</v>
+      </c>
+      <c r="E393" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F394),"",'Bowtie v1.0 reorg'!F394)</f>
+        <v/>
+      </c>
+      <c r="F393" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G394),"",'Bowtie v1.0 reorg'!G394)</f>
+        <v/>
+      </c>
+      <c r="G393" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I394),"",'Bowtie v1.0 reorg'!I394)</f>
+        <v/>
+      </c>
+      <c r="H393" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J394),"",'Bowtie v1.0 reorg'!J394)</f>
+        <v/>
+      </c>
+      <c r="I393" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H394),"",'Bowtie v1.0 reorg'!H394)</f>
+        <v/>
+      </c>
+      <c r="J393" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K394),"",'Bowtie v1.0 reorg'!K394)</f>
+        <v/>
+      </c>
+      <c r="K393" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L393" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <f>'Bowtie v1.0 reorg'!A395</f>
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <f>'Bowtie v1.0 reorg'!E395</f>
+        <v>0</v>
+      </c>
+      <c r="C394" t="str">
+        <f>'Bowtie v1.0 reorg'!C395</f>
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <f>'Bowtie v1.0 reorg'!D395</f>
+        <v>0</v>
+      </c>
+      <c r="E394" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F395),"",'Bowtie v1.0 reorg'!F395)</f>
+        <v/>
+      </c>
+      <c r="F394" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G395),"",'Bowtie v1.0 reorg'!G395)</f>
+        <v/>
+      </c>
+      <c r="G394" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I395),"",'Bowtie v1.0 reorg'!I395)</f>
+        <v/>
+      </c>
+      <c r="H394" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J395),"",'Bowtie v1.0 reorg'!J395)</f>
+        <v/>
+      </c>
+      <c r="I394" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H395),"",'Bowtie v1.0 reorg'!H395)</f>
+        <v/>
+      </c>
+      <c r="J394" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K395),"",'Bowtie v1.0 reorg'!K395)</f>
+        <v/>
+      </c>
+      <c r="K394" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L394" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <f>'Bowtie v1.0 reorg'!A396</f>
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <f>'Bowtie v1.0 reorg'!E396</f>
+        <v>0</v>
+      </c>
+      <c r="C395" t="str">
+        <f>'Bowtie v1.0 reorg'!C396</f>
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <f>'Bowtie v1.0 reorg'!D396</f>
+        <v>0</v>
+      </c>
+      <c r="E395" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F396),"",'Bowtie v1.0 reorg'!F396)</f>
+        <v/>
+      </c>
+      <c r="F395" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G396),"",'Bowtie v1.0 reorg'!G396)</f>
+        <v/>
+      </c>
+      <c r="G395" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I396),"",'Bowtie v1.0 reorg'!I396)</f>
+        <v/>
+      </c>
+      <c r="H395" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J396),"",'Bowtie v1.0 reorg'!J396)</f>
+        <v/>
+      </c>
+      <c r="I395" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H396),"",'Bowtie v1.0 reorg'!H396)</f>
+        <v/>
+      </c>
+      <c r="J395" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K396),"",'Bowtie v1.0 reorg'!K396)</f>
+        <v/>
+      </c>
+      <c r="K395" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L395" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <f>'Bowtie v1.0 reorg'!A397</f>
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <f>'Bowtie v1.0 reorg'!E397</f>
+        <v>0</v>
+      </c>
+      <c r="C396" t="str">
+        <f>'Bowtie v1.0 reorg'!C397</f>
+        <v>0</v>
+      </c>
+      <c r="D396">
+        <f>'Bowtie v1.0 reorg'!D397</f>
+        <v>0</v>
+      </c>
+      <c r="E396" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F397),"",'Bowtie v1.0 reorg'!F397)</f>
+        <v/>
+      </c>
+      <c r="F396" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G397),"",'Bowtie v1.0 reorg'!G397)</f>
+        <v/>
+      </c>
+      <c r="G396" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I397),"",'Bowtie v1.0 reorg'!I397)</f>
+        <v/>
+      </c>
+      <c r="H396" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J397),"",'Bowtie v1.0 reorg'!J397)</f>
+        <v/>
+      </c>
+      <c r="I396" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H397),"",'Bowtie v1.0 reorg'!H397)</f>
+        <v/>
+      </c>
+      <c r="J396" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K397),"",'Bowtie v1.0 reorg'!K397)</f>
+        <v/>
+      </c>
+      <c r="K396" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L396" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <f>'Bowtie v1.0 reorg'!A398</f>
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <f>'Bowtie v1.0 reorg'!E398</f>
+        <v>0</v>
+      </c>
+      <c r="C397" t="str">
+        <f>'Bowtie v1.0 reorg'!C398</f>
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <f>'Bowtie v1.0 reorg'!D398</f>
+        <v>0</v>
+      </c>
+      <c r="E397" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F398),"",'Bowtie v1.0 reorg'!F398)</f>
+        <v/>
+      </c>
+      <c r="F397" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G398),"",'Bowtie v1.0 reorg'!G398)</f>
+        <v/>
+      </c>
+      <c r="G397" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I398),"",'Bowtie v1.0 reorg'!I398)</f>
+        <v/>
+      </c>
+      <c r="H397" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J398),"",'Bowtie v1.0 reorg'!J398)</f>
+        <v/>
+      </c>
+      <c r="I397" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H398),"",'Bowtie v1.0 reorg'!H398)</f>
+        <v/>
+      </c>
+      <c r="J397" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K398),"",'Bowtie v1.0 reorg'!K398)</f>
+        <v/>
+      </c>
+      <c r="K397" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L397" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <f>'Bowtie v1.0 reorg'!A399</f>
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <f>'Bowtie v1.0 reorg'!E399</f>
+        <v>0</v>
+      </c>
+      <c r="C398" t="str">
+        <f>'Bowtie v1.0 reorg'!C399</f>
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <f>'Bowtie v1.0 reorg'!D399</f>
+        <v>0</v>
+      </c>
+      <c r="E398" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F399),"",'Bowtie v1.0 reorg'!F399)</f>
+        <v/>
+      </c>
+      <c r="F398" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G399),"",'Bowtie v1.0 reorg'!G399)</f>
+        <v/>
+      </c>
+      <c r="G398" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I399),"",'Bowtie v1.0 reorg'!I399)</f>
+        <v/>
+      </c>
+      <c r="H398" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J399),"",'Bowtie v1.0 reorg'!J399)</f>
+        <v/>
+      </c>
+      <c r="I398" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H399),"",'Bowtie v1.0 reorg'!H399)</f>
+        <v/>
+      </c>
+      <c r="J398" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K399),"",'Bowtie v1.0 reorg'!K399)</f>
+        <v/>
+      </c>
+      <c r="K398" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L398" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <f>'Bowtie v1.0 reorg'!A400</f>
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <f>'Bowtie v1.0 reorg'!E400</f>
+        <v>0</v>
+      </c>
+      <c r="C399" t="str">
+        <f>'Bowtie v1.0 reorg'!C400</f>
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <f>'Bowtie v1.0 reorg'!D400</f>
+        <v>0</v>
+      </c>
+      <c r="E399" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F400),"",'Bowtie v1.0 reorg'!F400)</f>
+        <v/>
+      </c>
+      <c r="F399" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G400),"",'Bowtie v1.0 reorg'!G400)</f>
+        <v/>
+      </c>
+      <c r="G399" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I400),"",'Bowtie v1.0 reorg'!I400)</f>
+        <v/>
+      </c>
+      <c r="H399" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J400),"",'Bowtie v1.0 reorg'!J400)</f>
+        <v/>
+      </c>
+      <c r="I399" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H400),"",'Bowtie v1.0 reorg'!H400)</f>
+        <v/>
+      </c>
+      <c r="J399" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K400),"",'Bowtie v1.0 reorg'!K400)</f>
+        <v/>
+      </c>
+      <c r="K399" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L399" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <f>'Bowtie v1.0 reorg'!A401</f>
+        <v>0</v>
+      </c>
+      <c r="B400">
+        <f>'Bowtie v1.0 reorg'!E401</f>
+        <v>0</v>
+      </c>
+      <c r="C400" t="str">
+        <f>'Bowtie v1.0 reorg'!C401</f>
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <f>'Bowtie v1.0 reorg'!D401</f>
+        <v>0</v>
+      </c>
+      <c r="E400" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F401),"",'Bowtie v1.0 reorg'!F401)</f>
+        <v/>
+      </c>
+      <c r="F400" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G401),"",'Bowtie v1.0 reorg'!G401)</f>
+        <v/>
+      </c>
+      <c r="G400" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I401),"",'Bowtie v1.0 reorg'!I401)</f>
+        <v/>
+      </c>
+      <c r="H400" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J401),"",'Bowtie v1.0 reorg'!J401)</f>
+        <v/>
+      </c>
+      <c r="I400" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H401),"",'Bowtie v1.0 reorg'!H401)</f>
+        <v/>
+      </c>
+      <c r="J400" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K401),"",'Bowtie v1.0 reorg'!K401)</f>
+        <v/>
+      </c>
+      <c r="K400" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L400" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <f>'Bowtie v1.0 reorg'!A402</f>
+        <v>0</v>
+      </c>
+      <c r="B401">
+        <f>'Bowtie v1.0 reorg'!E402</f>
+        <v>0</v>
+      </c>
+      <c r="C401" t="str">
+        <f>'Bowtie v1.0 reorg'!C402</f>
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <f>'Bowtie v1.0 reorg'!D402</f>
+        <v>0</v>
+      </c>
+      <c r="E401" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F402),"",'Bowtie v1.0 reorg'!F402)</f>
+        <v/>
+      </c>
+      <c r="F401" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G402),"",'Bowtie v1.0 reorg'!G402)</f>
+        <v/>
+      </c>
+      <c r="G401" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I402),"",'Bowtie v1.0 reorg'!I402)</f>
+        <v/>
+      </c>
+      <c r="H401" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J402),"",'Bowtie v1.0 reorg'!J402)</f>
+        <v/>
+      </c>
+      <c r="I401" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H402),"",'Bowtie v1.0 reorg'!H402)</f>
+        <v/>
+      </c>
+      <c r="J401" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K402),"",'Bowtie v1.0 reorg'!K402)</f>
+        <v/>
+      </c>
+      <c r="K401" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L401" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <f>'Bowtie v1.0 reorg'!A403</f>
+        <v>0</v>
+      </c>
+      <c r="B402">
+        <f>'Bowtie v1.0 reorg'!E403</f>
+        <v>0</v>
+      </c>
+      <c r="C402" t="str">
+        <f>'Bowtie v1.0 reorg'!C403</f>
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <f>'Bowtie v1.0 reorg'!D403</f>
+        <v>0</v>
+      </c>
+      <c r="E402" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F403),"",'Bowtie v1.0 reorg'!F403)</f>
+        <v/>
+      </c>
+      <c r="F402" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G403),"",'Bowtie v1.0 reorg'!G403)</f>
+        <v/>
+      </c>
+      <c r="G402" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I403),"",'Bowtie v1.0 reorg'!I403)</f>
+        <v/>
+      </c>
+      <c r="H402" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J403),"",'Bowtie v1.0 reorg'!J403)</f>
+        <v/>
+      </c>
+      <c r="I402" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H403),"",'Bowtie v1.0 reorg'!H403)</f>
+        <v/>
+      </c>
+      <c r="J402" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K403),"",'Bowtie v1.0 reorg'!K403)</f>
+        <v/>
+      </c>
+      <c r="K402" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L402" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <f>'Bowtie v1.0 reorg'!A404</f>
+        <v>0</v>
+      </c>
+      <c r="B403">
+        <f>'Bowtie v1.0 reorg'!E404</f>
+        <v>0</v>
+      </c>
+      <c r="C403" t="str">
+        <f>'Bowtie v1.0 reorg'!C404</f>
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <f>'Bowtie v1.0 reorg'!D404</f>
+        <v>0</v>
+      </c>
+      <c r="E403" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F404),"",'Bowtie v1.0 reorg'!F404)</f>
+        <v/>
+      </c>
+      <c r="F403" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G404),"",'Bowtie v1.0 reorg'!G404)</f>
+        <v/>
+      </c>
+      <c r="G403" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I404),"",'Bowtie v1.0 reorg'!I404)</f>
+        <v/>
+      </c>
+      <c r="H403" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J404),"",'Bowtie v1.0 reorg'!J404)</f>
+        <v/>
+      </c>
+      <c r="I403" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H404),"",'Bowtie v1.0 reorg'!H404)</f>
+        <v/>
+      </c>
+      <c r="J403" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K404),"",'Bowtie v1.0 reorg'!K404)</f>
+        <v/>
+      </c>
+      <c r="K403" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L403" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <f>'Bowtie v1.0 reorg'!A405</f>
+        <v>0</v>
+      </c>
+      <c r="B404">
+        <f>'Bowtie v1.0 reorg'!E405</f>
+        <v>0</v>
+      </c>
+      <c r="C404" t="str">
+        <f>'Bowtie v1.0 reorg'!C405</f>
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <f>'Bowtie v1.0 reorg'!D405</f>
+        <v>0</v>
+      </c>
+      <c r="E404" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F405),"",'Bowtie v1.0 reorg'!F405)</f>
+        <v/>
+      </c>
+      <c r="F404" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G405),"",'Bowtie v1.0 reorg'!G405)</f>
+        <v/>
+      </c>
+      <c r="G404" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I405),"",'Bowtie v1.0 reorg'!I405)</f>
+        <v/>
+      </c>
+      <c r="H404" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J405),"",'Bowtie v1.0 reorg'!J405)</f>
+        <v/>
+      </c>
+      <c r="I404" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H405),"",'Bowtie v1.0 reorg'!H405)</f>
+        <v/>
+      </c>
+      <c r="J404" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K405),"",'Bowtie v1.0 reorg'!K405)</f>
+        <v/>
+      </c>
+      <c r="K404" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L404" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <f>'Bowtie v1.0 reorg'!A406</f>
+        <v>0</v>
+      </c>
+      <c r="B405">
+        <f>'Bowtie v1.0 reorg'!E406</f>
+        <v>0</v>
+      </c>
+      <c r="C405" t="str">
+        <f>'Bowtie v1.0 reorg'!C406</f>
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <f>'Bowtie v1.0 reorg'!D406</f>
+        <v>0</v>
+      </c>
+      <c r="E405" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F406),"",'Bowtie v1.0 reorg'!F406)</f>
+        <v/>
+      </c>
+      <c r="F405" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G406),"",'Bowtie v1.0 reorg'!G406)</f>
+        <v/>
+      </c>
+      <c r="G405" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I406),"",'Bowtie v1.0 reorg'!I406)</f>
+        <v/>
+      </c>
+      <c r="H405" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J406),"",'Bowtie v1.0 reorg'!J406)</f>
+        <v/>
+      </c>
+      <c r="I405" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H406),"",'Bowtie v1.0 reorg'!H406)</f>
+        <v/>
+      </c>
+      <c r="J405" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K406),"",'Bowtie v1.0 reorg'!K406)</f>
+        <v/>
+      </c>
+      <c r="K405" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L405" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <f>'Bowtie v1.0 reorg'!A407</f>
+        <v>0</v>
+      </c>
+      <c r="B406">
+        <f>'Bowtie v1.0 reorg'!E407</f>
+        <v>0</v>
+      </c>
+      <c r="C406" t="str">
+        <f>'Bowtie v1.0 reorg'!C407</f>
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <f>'Bowtie v1.0 reorg'!D407</f>
+        <v>0</v>
+      </c>
+      <c r="E406" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F407),"",'Bowtie v1.0 reorg'!F407)</f>
+        <v/>
+      </c>
+      <c r="F406" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G407),"",'Bowtie v1.0 reorg'!G407)</f>
+        <v/>
+      </c>
+      <c r="G406" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I407),"",'Bowtie v1.0 reorg'!I407)</f>
+        <v/>
+      </c>
+      <c r="H406" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J407),"",'Bowtie v1.0 reorg'!J407)</f>
+        <v/>
+      </c>
+      <c r="I406" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H407),"",'Bowtie v1.0 reorg'!H407)</f>
+        <v/>
+      </c>
+      <c r="J406" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K407),"",'Bowtie v1.0 reorg'!K407)</f>
+        <v/>
+      </c>
+      <c r="K406" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L406" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <f>'Bowtie v1.0 reorg'!A408</f>
+        <v>0</v>
+      </c>
+      <c r="B407">
+        <f>'Bowtie v1.0 reorg'!E408</f>
+        <v>0</v>
+      </c>
+      <c r="C407" t="str">
+        <f>'Bowtie v1.0 reorg'!C408</f>
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <f>'Bowtie v1.0 reorg'!D408</f>
+        <v>0</v>
+      </c>
+      <c r="E407" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F408),"",'Bowtie v1.0 reorg'!F408)</f>
+        <v/>
+      </c>
+      <c r="F407" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G408),"",'Bowtie v1.0 reorg'!G408)</f>
+        <v/>
+      </c>
+      <c r="G407" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I408),"",'Bowtie v1.0 reorg'!I408)</f>
+        <v/>
+      </c>
+      <c r="H407" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J408),"",'Bowtie v1.0 reorg'!J408)</f>
+        <v/>
+      </c>
+      <c r="I407" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H408),"",'Bowtie v1.0 reorg'!H408)</f>
+        <v/>
+      </c>
+      <c r="J407" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K408),"",'Bowtie v1.0 reorg'!K408)</f>
+        <v/>
+      </c>
+      <c r="K407" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L407" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <f>'Bowtie v1.0 reorg'!A409</f>
+        <v>0</v>
+      </c>
+      <c r="B408">
+        <f>'Bowtie v1.0 reorg'!E409</f>
+        <v>0</v>
+      </c>
+      <c r="C408" t="str">
+        <f>'Bowtie v1.0 reorg'!C409</f>
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <f>'Bowtie v1.0 reorg'!D409</f>
+        <v>0</v>
+      </c>
+      <c r="E408" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F409),"",'Bowtie v1.0 reorg'!F409)</f>
+        <v/>
+      </c>
+      <c r="F408" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G409),"",'Bowtie v1.0 reorg'!G409)</f>
+        <v/>
+      </c>
+      <c r="G408" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I409),"",'Bowtie v1.0 reorg'!I409)</f>
+        <v/>
+      </c>
+      <c r="H408" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J409),"",'Bowtie v1.0 reorg'!J409)</f>
+        <v/>
+      </c>
+      <c r="I408" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H409),"",'Bowtie v1.0 reorg'!H409)</f>
+        <v/>
+      </c>
+      <c r="J408" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K409),"",'Bowtie v1.0 reorg'!K409)</f>
+        <v/>
+      </c>
+      <c r="K408" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L408" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <f>'Bowtie v1.0 reorg'!A410</f>
+        <v>0</v>
+      </c>
+      <c r="B409">
+        <f>'Bowtie v1.0 reorg'!E410</f>
+        <v>0</v>
+      </c>
+      <c r="C409" t="str">
+        <f>'Bowtie v1.0 reorg'!C410</f>
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <f>'Bowtie v1.0 reorg'!D410</f>
+        <v>0</v>
+      </c>
+      <c r="E409" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F410),"",'Bowtie v1.0 reorg'!F410)</f>
+        <v/>
+      </c>
+      <c r="F409" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G410),"",'Bowtie v1.0 reorg'!G410)</f>
+        <v/>
+      </c>
+      <c r="G409" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I410),"",'Bowtie v1.0 reorg'!I410)</f>
+        <v/>
+      </c>
+      <c r="H409" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J410),"",'Bowtie v1.0 reorg'!J410)</f>
+        <v/>
+      </c>
+      <c r="I409" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H410),"",'Bowtie v1.0 reorg'!H410)</f>
+        <v/>
+      </c>
+      <c r="J409" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K410),"",'Bowtie v1.0 reorg'!K410)</f>
+        <v/>
+      </c>
+      <c r="K409" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L409" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <f>'Bowtie v1.0 reorg'!A411</f>
+        <v>0</v>
+      </c>
+      <c r="B410">
+        <f>'Bowtie v1.0 reorg'!E411</f>
+        <v>0</v>
+      </c>
+      <c r="C410">
+        <f>'Bowtie v1.0 reorg'!C411</f>
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <f>'Bowtie v1.0 reorg'!D411</f>
+        <v>0</v>
+      </c>
+      <c r="E410" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F411),"",'Bowtie v1.0 reorg'!F411)</f>
+        <v/>
+      </c>
+      <c r="F410" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G411),"",'Bowtie v1.0 reorg'!G411)</f>
+        <v/>
+      </c>
+      <c r="G410" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I411),"",'Bowtie v1.0 reorg'!I411)</f>
+        <v/>
+      </c>
+      <c r="H410" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J411),"",'Bowtie v1.0 reorg'!J411)</f>
+        <v/>
+      </c>
+      <c r="I410" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H411),"",'Bowtie v1.0 reorg'!H411)</f>
+        <v/>
+      </c>
+      <c r="J410" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K411),"",'Bowtie v1.0 reorg'!K411)</f>
+        <v/>
+      </c>
+      <c r="K410" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L410" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <f>'Bowtie v1.0 reorg'!A412</f>
+        <v>0</v>
+      </c>
+      <c r="B411">
+        <f>'Bowtie v1.0 reorg'!E412</f>
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <f>'Bowtie v1.0 reorg'!C412</f>
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <f>'Bowtie v1.0 reorg'!D412</f>
+        <v>0</v>
+      </c>
+      <c r="E411" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F412),"",'Bowtie v1.0 reorg'!F412)</f>
+        <v/>
+      </c>
+      <c r="F411" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G412),"",'Bowtie v1.0 reorg'!G412)</f>
+        <v/>
+      </c>
+      <c r="G411" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I412),"",'Bowtie v1.0 reorg'!I412)</f>
+        <v/>
+      </c>
+      <c r="H411" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J412),"",'Bowtie v1.0 reorg'!J412)</f>
+        <v/>
+      </c>
+      <c r="I411" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H412),"",'Bowtie v1.0 reorg'!H412)</f>
+        <v/>
+      </c>
+      <c r="J411" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K412),"",'Bowtie v1.0 reorg'!K412)</f>
+        <v/>
+      </c>
+      <c r="K411" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L411" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <f>'Bowtie v1.0 reorg'!A413</f>
+        <v>0</v>
+      </c>
+      <c r="B412">
+        <f>'Bowtie v1.0 reorg'!E413</f>
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <f>'Bowtie v1.0 reorg'!C413</f>
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <f>'Bowtie v1.0 reorg'!D413</f>
+        <v>0</v>
+      </c>
+      <c r="E412" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F413),"",'Bowtie v1.0 reorg'!F413)</f>
+        <v/>
+      </c>
+      <c r="F412" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G413),"",'Bowtie v1.0 reorg'!G413)</f>
+        <v/>
+      </c>
+      <c r="G412" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I413),"",'Bowtie v1.0 reorg'!I413)</f>
+        <v/>
+      </c>
+      <c r="H412" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J413),"",'Bowtie v1.0 reorg'!J413)</f>
+        <v/>
+      </c>
+      <c r="I412" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H413),"",'Bowtie v1.0 reorg'!H413)</f>
+        <v/>
+      </c>
+      <c r="J412" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K413),"",'Bowtie v1.0 reorg'!K413)</f>
+        <v/>
+      </c>
+      <c r="K412" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L412" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <f>'Bowtie v1.0 reorg'!A414</f>
+        <v>0</v>
+      </c>
+      <c r="B413">
+        <f>'Bowtie v1.0 reorg'!E414</f>
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <f>'Bowtie v1.0 reorg'!C414</f>
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <f>'Bowtie v1.0 reorg'!D414</f>
+        <v>0</v>
+      </c>
+      <c r="E413" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F414),"",'Bowtie v1.0 reorg'!F414)</f>
+        <v/>
+      </c>
+      <c r="F413" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G414),"",'Bowtie v1.0 reorg'!G414)</f>
+        <v/>
+      </c>
+      <c r="G413" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I414),"",'Bowtie v1.0 reorg'!I414)</f>
+        <v/>
+      </c>
+      <c r="H413" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J414),"",'Bowtie v1.0 reorg'!J414)</f>
+        <v/>
+      </c>
+      <c r="I413" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H414),"",'Bowtie v1.0 reorg'!H414)</f>
+        <v/>
+      </c>
+      <c r="J413" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K414),"",'Bowtie v1.0 reorg'!K414)</f>
+        <v/>
+      </c>
+      <c r="K413" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L413" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <f>'Bowtie v1.0 reorg'!A415</f>
+        <v>0</v>
+      </c>
+      <c r="B414">
+        <f>'Bowtie v1.0 reorg'!E415</f>
+        <v>0</v>
+      </c>
+      <c r="C414">
+        <f>'Bowtie v1.0 reorg'!C415</f>
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <f>'Bowtie v1.0 reorg'!D415</f>
+        <v>0</v>
+      </c>
+      <c r="E414" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F415),"",'Bowtie v1.0 reorg'!F415)</f>
+        <v/>
+      </c>
+      <c r="F414" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G415),"",'Bowtie v1.0 reorg'!G415)</f>
+        <v/>
+      </c>
+      <c r="G414" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I415),"",'Bowtie v1.0 reorg'!I415)</f>
+        <v/>
+      </c>
+      <c r="H414" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J415),"",'Bowtie v1.0 reorg'!J415)</f>
+        <v/>
+      </c>
+      <c r="I414" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H415),"",'Bowtie v1.0 reorg'!H415)</f>
+        <v/>
+      </c>
+      <c r="J414" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K415),"",'Bowtie v1.0 reorg'!K415)</f>
+        <v/>
+      </c>
+      <c r="K414" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L414" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <f>'Bowtie v1.0 reorg'!A416</f>
+        <v>0</v>
+      </c>
+      <c r="B415">
+        <f>'Bowtie v1.0 reorg'!E416</f>
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <f>'Bowtie v1.0 reorg'!C416</f>
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <f>'Bowtie v1.0 reorg'!D416</f>
+        <v>0</v>
+      </c>
+      <c r="E415" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F416),"",'Bowtie v1.0 reorg'!F416)</f>
+        <v/>
+      </c>
+      <c r="F415" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G416),"",'Bowtie v1.0 reorg'!G416)</f>
+        <v/>
+      </c>
+      <c r="G415" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I416),"",'Bowtie v1.0 reorg'!I416)</f>
+        <v/>
+      </c>
+      <c r="H415" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J416),"",'Bowtie v1.0 reorg'!J416)</f>
+        <v/>
+      </c>
+      <c r="I415" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H416),"",'Bowtie v1.0 reorg'!H416)</f>
+        <v/>
+      </c>
+      <c r="J415" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K416),"",'Bowtie v1.0 reorg'!K416)</f>
+        <v/>
+      </c>
+      <c r="K415" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L415" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <f>'Bowtie v1.0 reorg'!A417</f>
+        <v>0</v>
+      </c>
+      <c r="B416">
+        <f>'Bowtie v1.0 reorg'!E417</f>
+        <v>0</v>
+      </c>
+      <c r="C416">
+        <f>'Bowtie v1.0 reorg'!C417</f>
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <f>'Bowtie v1.0 reorg'!D417</f>
+        <v>0</v>
+      </c>
+      <c r="E416" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F417),"",'Bowtie v1.0 reorg'!F417)</f>
+        <v/>
+      </c>
+      <c r="F416" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G417),"",'Bowtie v1.0 reorg'!G417)</f>
+        <v/>
+      </c>
+      <c r="G416" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I417),"",'Bowtie v1.0 reorg'!I417)</f>
+        <v/>
+      </c>
+      <c r="H416" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J417),"",'Bowtie v1.0 reorg'!J417)</f>
+        <v/>
+      </c>
+      <c r="I416" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H417),"",'Bowtie v1.0 reorg'!H417)</f>
+        <v/>
+      </c>
+      <c r="J416" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K417),"",'Bowtie v1.0 reorg'!K417)</f>
+        <v/>
+      </c>
+      <c r="K416" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L416" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <f>'Bowtie v1.0 reorg'!A418</f>
+        <v>0</v>
+      </c>
+      <c r="B417">
+        <f>'Bowtie v1.0 reorg'!E418</f>
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <f>'Bowtie v1.0 reorg'!C418</f>
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <f>'Bowtie v1.0 reorg'!D418</f>
+        <v>0</v>
+      </c>
+      <c r="E417" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F418),"",'Bowtie v1.0 reorg'!F418)</f>
+        <v/>
+      </c>
+      <c r="F417" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G418),"",'Bowtie v1.0 reorg'!G418)</f>
+        <v/>
+      </c>
+      <c r="G417" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I418),"",'Bowtie v1.0 reorg'!I418)</f>
+        <v/>
+      </c>
+      <c r="H417" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J418),"",'Bowtie v1.0 reorg'!J418)</f>
+        <v/>
+      </c>
+      <c r="I417" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H418),"",'Bowtie v1.0 reorg'!H418)</f>
+        <v/>
+      </c>
+      <c r="J417" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K418),"",'Bowtie v1.0 reorg'!K418)</f>
+        <v/>
+      </c>
+      <c r="K417" t="e">
+        <f t="shared" ref="K417:K470" si="18">IF(NOT(ISBLANK(A417)),CONCATENATE("{'",$A$1,"':",A417,",'",$B$1,"':'",B417,"',","'",$C$1,"':'",C417,"','",$D$1,"':",D417,",'",$E$1,"':'",FIXED(E417,1),"','",$F$1,"':'",F417,"','",$G$1,"':'",G417,"','",$H$1,"':'",H417,"','",$I$1,"':['",SUBSTITUTE(I417," ","','"),"'],'",$J$1,"':'",J417,"'}"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L417" t="e">
+        <f t="shared" ref="L417:L470" si="19">SUBSTITUTE(K417,"'","""")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <f>'Bowtie v1.0 reorg'!A419</f>
+        <v>0</v>
+      </c>
+      <c r="B418">
+        <f>'Bowtie v1.0 reorg'!E419</f>
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <f>'Bowtie v1.0 reorg'!C419</f>
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <f>'Bowtie v1.0 reorg'!D419</f>
+        <v>0</v>
+      </c>
+      <c r="E418" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F419),"",'Bowtie v1.0 reorg'!F419)</f>
+        <v/>
+      </c>
+      <c r="F418" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G419),"",'Bowtie v1.0 reorg'!G419)</f>
+        <v/>
+      </c>
+      <c r="G418" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I419),"",'Bowtie v1.0 reorg'!I419)</f>
+        <v/>
+      </c>
+      <c r="H418" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J419),"",'Bowtie v1.0 reorg'!J419)</f>
+        <v/>
+      </c>
+      <c r="I418" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H419),"",'Bowtie v1.0 reorg'!H419)</f>
+        <v/>
+      </c>
+      <c r="J418" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K419),"",'Bowtie v1.0 reorg'!K419)</f>
+        <v/>
+      </c>
+      <c r="K418" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L418" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <f>'Bowtie v1.0 reorg'!A420</f>
+        <v>0</v>
+      </c>
+      <c r="B419">
+        <f>'Bowtie v1.0 reorg'!E420</f>
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <f>'Bowtie v1.0 reorg'!C420</f>
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <f>'Bowtie v1.0 reorg'!D420</f>
+        <v>0</v>
+      </c>
+      <c r="E419" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F420),"",'Bowtie v1.0 reorg'!F420)</f>
+        <v/>
+      </c>
+      <c r="F419" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G420),"",'Bowtie v1.0 reorg'!G420)</f>
+        <v/>
+      </c>
+      <c r="G419" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I420),"",'Bowtie v1.0 reorg'!I420)</f>
+        <v/>
+      </c>
+      <c r="H419" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J420),"",'Bowtie v1.0 reorg'!J420)</f>
+        <v/>
+      </c>
+      <c r="I419" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H420),"",'Bowtie v1.0 reorg'!H420)</f>
+        <v/>
+      </c>
+      <c r="J419" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K420),"",'Bowtie v1.0 reorg'!K420)</f>
+        <v/>
+      </c>
+      <c r="K419" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L419" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <f>'Bowtie v1.0 reorg'!A421</f>
+        <v>0</v>
+      </c>
+      <c r="B420">
+        <f>'Bowtie v1.0 reorg'!E421</f>
+        <v>0</v>
+      </c>
+      <c r="C420">
+        <f>'Bowtie v1.0 reorg'!C421</f>
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <f>'Bowtie v1.0 reorg'!D421</f>
+        <v>0</v>
+      </c>
+      <c r="E420" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F421),"",'Bowtie v1.0 reorg'!F421)</f>
+        <v/>
+      </c>
+      <c r="F420" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G421),"",'Bowtie v1.0 reorg'!G421)</f>
+        <v/>
+      </c>
+      <c r="G420" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I421),"",'Bowtie v1.0 reorg'!I421)</f>
+        <v/>
+      </c>
+      <c r="H420" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J421),"",'Bowtie v1.0 reorg'!J421)</f>
+        <v/>
+      </c>
+      <c r="I420" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H421),"",'Bowtie v1.0 reorg'!H421)</f>
+        <v/>
+      </c>
+      <c r="J420" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K421),"",'Bowtie v1.0 reorg'!K421)</f>
+        <v/>
+      </c>
+      <c r="K420" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L420" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <f>'Bowtie v1.0 reorg'!A422</f>
+        <v>0</v>
+      </c>
+      <c r="B421">
+        <f>'Bowtie v1.0 reorg'!E422</f>
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <f>'Bowtie v1.0 reorg'!C422</f>
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <f>'Bowtie v1.0 reorg'!D422</f>
+        <v>0</v>
+      </c>
+      <c r="E421" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F422),"",'Bowtie v1.0 reorg'!F422)</f>
+        <v/>
+      </c>
+      <c r="F421" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G422),"",'Bowtie v1.0 reorg'!G422)</f>
+        <v/>
+      </c>
+      <c r="G421" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I422),"",'Bowtie v1.0 reorg'!I422)</f>
+        <v/>
+      </c>
+      <c r="H421" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J422),"",'Bowtie v1.0 reorg'!J422)</f>
+        <v/>
+      </c>
+      <c r="I421" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H422),"",'Bowtie v1.0 reorg'!H422)</f>
+        <v/>
+      </c>
+      <c r="J421" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K422),"",'Bowtie v1.0 reorg'!K422)</f>
+        <v/>
+      </c>
+      <c r="K421" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L421" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <f>'Bowtie v1.0 reorg'!A423</f>
+        <v>0</v>
+      </c>
+      <c r="B422">
+        <f>'Bowtie v1.0 reorg'!E423</f>
+        <v>0</v>
+      </c>
+      <c r="C422">
+        <f>'Bowtie v1.0 reorg'!C423</f>
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <f>'Bowtie v1.0 reorg'!D423</f>
+        <v>0</v>
+      </c>
+      <c r="E422" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F423),"",'Bowtie v1.0 reorg'!F423)</f>
+        <v/>
+      </c>
+      <c r="F422" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G423),"",'Bowtie v1.0 reorg'!G423)</f>
+        <v/>
+      </c>
+      <c r="G422" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I423),"",'Bowtie v1.0 reorg'!I423)</f>
+        <v/>
+      </c>
+      <c r="H422" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J423),"",'Bowtie v1.0 reorg'!J423)</f>
+        <v/>
+      </c>
+      <c r="I422" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H423),"",'Bowtie v1.0 reorg'!H423)</f>
+        <v/>
+      </c>
+      <c r="J422" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K423),"",'Bowtie v1.0 reorg'!K423)</f>
+        <v/>
+      </c>
+      <c r="K422" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L422" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <f>'Bowtie v1.0 reorg'!A424</f>
+        <v>0</v>
+      </c>
+      <c r="B423">
+        <f>'Bowtie v1.0 reorg'!E424</f>
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <f>'Bowtie v1.0 reorg'!C424</f>
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <f>'Bowtie v1.0 reorg'!D424</f>
+        <v>0</v>
+      </c>
+      <c r="E423" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F424),"",'Bowtie v1.0 reorg'!F424)</f>
+        <v/>
+      </c>
+      <c r="F423" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G424),"",'Bowtie v1.0 reorg'!G424)</f>
+        <v/>
+      </c>
+      <c r="G423" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I424),"",'Bowtie v1.0 reorg'!I424)</f>
+        <v/>
+      </c>
+      <c r="H423" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J424),"",'Bowtie v1.0 reorg'!J424)</f>
+        <v/>
+      </c>
+      <c r="I423" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H424),"",'Bowtie v1.0 reorg'!H424)</f>
+        <v/>
+      </c>
+      <c r="J423" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K424),"",'Bowtie v1.0 reorg'!K424)</f>
+        <v/>
+      </c>
+      <c r="K423" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L423" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <f>'Bowtie v1.0 reorg'!A425</f>
+        <v>0</v>
+      </c>
+      <c r="B424">
+        <f>'Bowtie v1.0 reorg'!E425</f>
+        <v>0</v>
+      </c>
+      <c r="C424">
+        <f>'Bowtie v1.0 reorg'!C425</f>
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <f>'Bowtie v1.0 reorg'!D425</f>
+        <v>0</v>
+      </c>
+      <c r="E424" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F425),"",'Bowtie v1.0 reorg'!F425)</f>
+        <v/>
+      </c>
+      <c r="F424" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G425),"",'Bowtie v1.0 reorg'!G425)</f>
+        <v/>
+      </c>
+      <c r="G424" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I425),"",'Bowtie v1.0 reorg'!I425)</f>
+        <v/>
+      </c>
+      <c r="H424" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J425),"",'Bowtie v1.0 reorg'!J425)</f>
+        <v/>
+      </c>
+      <c r="I424" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H425),"",'Bowtie v1.0 reorg'!H425)</f>
+        <v/>
+      </c>
+      <c r="J424" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K425),"",'Bowtie v1.0 reorg'!K425)</f>
+        <v/>
+      </c>
+      <c r="K424" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L424" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <f>'Bowtie v1.0 reorg'!A426</f>
+        <v>0</v>
+      </c>
+      <c r="B425">
+        <f>'Bowtie v1.0 reorg'!E426</f>
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <f>'Bowtie v1.0 reorg'!C426</f>
+        <v>0</v>
+      </c>
+      <c r="D425">
+        <f>'Bowtie v1.0 reorg'!D426</f>
+        <v>0</v>
+      </c>
+      <c r="E425" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F426),"",'Bowtie v1.0 reorg'!F426)</f>
+        <v/>
+      </c>
+      <c r="F425" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G426),"",'Bowtie v1.0 reorg'!G426)</f>
+        <v/>
+      </c>
+      <c r="G425" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I426),"",'Bowtie v1.0 reorg'!I426)</f>
+        <v/>
+      </c>
+      <c r="H425" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J426),"",'Bowtie v1.0 reorg'!J426)</f>
+        <v/>
+      </c>
+      <c r="I425" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H426),"",'Bowtie v1.0 reorg'!H426)</f>
+        <v/>
+      </c>
+      <c r="J425" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K426),"",'Bowtie v1.0 reorg'!K426)</f>
+        <v/>
+      </c>
+      <c r="K425" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L425" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <f>'Bowtie v1.0 reorg'!A427</f>
+        <v>0</v>
+      </c>
+      <c r="B426">
+        <f>'Bowtie v1.0 reorg'!E427</f>
+        <v>0</v>
+      </c>
+      <c r="C426">
+        <f>'Bowtie v1.0 reorg'!C427</f>
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <f>'Bowtie v1.0 reorg'!D427</f>
+        <v>0</v>
+      </c>
+      <c r="E426" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F427),"",'Bowtie v1.0 reorg'!F427)</f>
+        <v/>
+      </c>
+      <c r="F426" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G427),"",'Bowtie v1.0 reorg'!G427)</f>
+        <v/>
+      </c>
+      <c r="G426" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I427),"",'Bowtie v1.0 reorg'!I427)</f>
+        <v/>
+      </c>
+      <c r="H426" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J427),"",'Bowtie v1.0 reorg'!J427)</f>
+        <v/>
+      </c>
+      <c r="I426" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H427),"",'Bowtie v1.0 reorg'!H427)</f>
+        <v/>
+      </c>
+      <c r="J426" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K427),"",'Bowtie v1.0 reorg'!K427)</f>
+        <v/>
+      </c>
+      <c r="K426" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L426" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <f>'Bowtie v1.0 reorg'!A428</f>
+        <v>0</v>
+      </c>
+      <c r="B427">
+        <f>'Bowtie v1.0 reorg'!E428</f>
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <f>'Bowtie v1.0 reorg'!C428</f>
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <f>'Bowtie v1.0 reorg'!D428</f>
+        <v>0</v>
+      </c>
+      <c r="E427" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F428),"",'Bowtie v1.0 reorg'!F428)</f>
+        <v/>
+      </c>
+      <c r="F427" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G428),"",'Bowtie v1.0 reorg'!G428)</f>
+        <v/>
+      </c>
+      <c r="G427" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I428),"",'Bowtie v1.0 reorg'!I428)</f>
+        <v/>
+      </c>
+      <c r="H427" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J428),"",'Bowtie v1.0 reorg'!J428)</f>
+        <v/>
+      </c>
+      <c r="I427" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H428),"",'Bowtie v1.0 reorg'!H428)</f>
+        <v/>
+      </c>
+      <c r="J427" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K428),"",'Bowtie v1.0 reorg'!K428)</f>
+        <v/>
+      </c>
+      <c r="K427" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L427" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <f>'Bowtie v1.0 reorg'!A429</f>
+        <v>0</v>
+      </c>
+      <c r="B428">
+        <f>'Bowtie v1.0 reorg'!E429</f>
+        <v>0</v>
+      </c>
+      <c r="C428">
+        <f>'Bowtie v1.0 reorg'!C429</f>
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <f>'Bowtie v1.0 reorg'!D429</f>
+        <v>0</v>
+      </c>
+      <c r="E428" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F429),"",'Bowtie v1.0 reorg'!F429)</f>
+        <v/>
+      </c>
+      <c r="F428" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G429),"",'Bowtie v1.0 reorg'!G429)</f>
+        <v/>
+      </c>
+      <c r="G428" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I429),"",'Bowtie v1.0 reorg'!I429)</f>
+        <v/>
+      </c>
+      <c r="H428" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J429),"",'Bowtie v1.0 reorg'!J429)</f>
+        <v/>
+      </c>
+      <c r="I428" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H429),"",'Bowtie v1.0 reorg'!H429)</f>
+        <v/>
+      </c>
+      <c r="J428" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K429),"",'Bowtie v1.0 reorg'!K429)</f>
+        <v/>
+      </c>
+      <c r="K428" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L428" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <f>'Bowtie v1.0 reorg'!A430</f>
+        <v>0</v>
+      </c>
+      <c r="B429">
+        <f>'Bowtie v1.0 reorg'!E430</f>
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <f>'Bowtie v1.0 reorg'!C430</f>
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <f>'Bowtie v1.0 reorg'!D430</f>
+        <v>0</v>
+      </c>
+      <c r="E429" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F430),"",'Bowtie v1.0 reorg'!F430)</f>
+        <v/>
+      </c>
+      <c r="F429" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G430),"",'Bowtie v1.0 reorg'!G430)</f>
+        <v/>
+      </c>
+      <c r="G429" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I430),"",'Bowtie v1.0 reorg'!I430)</f>
+        <v/>
+      </c>
+      <c r="H429" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J430),"",'Bowtie v1.0 reorg'!J430)</f>
+        <v/>
+      </c>
+      <c r="I429" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H430),"",'Bowtie v1.0 reorg'!H430)</f>
+        <v/>
+      </c>
+      <c r="J429" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K430),"",'Bowtie v1.0 reorg'!K430)</f>
+        <v/>
+      </c>
+      <c r="K429" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L429" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <f>'Bowtie v1.0 reorg'!A431</f>
+        <v>0</v>
+      </c>
+      <c r="B430">
+        <f>'Bowtie v1.0 reorg'!E431</f>
+        <v>0</v>
+      </c>
+      <c r="C430">
+        <f>'Bowtie v1.0 reorg'!C431</f>
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <f>'Bowtie v1.0 reorg'!D431</f>
+        <v>0</v>
+      </c>
+      <c r="E430" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F431),"",'Bowtie v1.0 reorg'!F431)</f>
+        <v/>
+      </c>
+      <c r="F430" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G431),"",'Bowtie v1.0 reorg'!G431)</f>
+        <v/>
+      </c>
+      <c r="G430" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I431),"",'Bowtie v1.0 reorg'!I431)</f>
+        <v/>
+      </c>
+      <c r="H430" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J431),"",'Bowtie v1.0 reorg'!J431)</f>
+        <v/>
+      </c>
+      <c r="I430" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H431),"",'Bowtie v1.0 reorg'!H431)</f>
+        <v/>
+      </c>
+      <c r="J430" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K431),"",'Bowtie v1.0 reorg'!K431)</f>
+        <v/>
+      </c>
+      <c r="K430" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L430" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <f>'Bowtie v1.0 reorg'!A432</f>
+        <v>0</v>
+      </c>
+      <c r="B431">
+        <f>'Bowtie v1.0 reorg'!E432</f>
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <f>'Bowtie v1.0 reorg'!C432</f>
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <f>'Bowtie v1.0 reorg'!D432</f>
+        <v>0</v>
+      </c>
+      <c r="E431" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F432),"",'Bowtie v1.0 reorg'!F432)</f>
+        <v/>
+      </c>
+      <c r="F431" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G432),"",'Bowtie v1.0 reorg'!G432)</f>
+        <v/>
+      </c>
+      <c r="G431" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I432),"",'Bowtie v1.0 reorg'!I432)</f>
+        <v/>
+      </c>
+      <c r="H431" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J432),"",'Bowtie v1.0 reorg'!J432)</f>
+        <v/>
+      </c>
+      <c r="I431" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H432),"",'Bowtie v1.0 reorg'!H432)</f>
+        <v/>
+      </c>
+      <c r="J431" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K432),"",'Bowtie v1.0 reorg'!K432)</f>
+        <v/>
+      </c>
+      <c r="K431" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L431" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <f>'Bowtie v1.0 reorg'!A433</f>
+        <v>0</v>
+      </c>
+      <c r="B432">
+        <f>'Bowtie v1.0 reorg'!E433</f>
+        <v>0</v>
+      </c>
+      <c r="C432">
+        <f>'Bowtie v1.0 reorg'!C433</f>
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <f>'Bowtie v1.0 reorg'!D433</f>
+        <v>0</v>
+      </c>
+      <c r="E432" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F433),"",'Bowtie v1.0 reorg'!F433)</f>
+        <v/>
+      </c>
+      <c r="F432" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G433),"",'Bowtie v1.0 reorg'!G433)</f>
+        <v/>
+      </c>
+      <c r="G432" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I433),"",'Bowtie v1.0 reorg'!I433)</f>
+        <v/>
+      </c>
+      <c r="H432" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J433),"",'Bowtie v1.0 reorg'!J433)</f>
+        <v/>
+      </c>
+      <c r="I432" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H433),"",'Bowtie v1.0 reorg'!H433)</f>
+        <v/>
+      </c>
+      <c r="J432" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K433),"",'Bowtie v1.0 reorg'!K433)</f>
+        <v/>
+      </c>
+      <c r="K432" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L432" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <f>'Bowtie v1.0 reorg'!A434</f>
+        <v>0</v>
+      </c>
+      <c r="B433">
+        <f>'Bowtie v1.0 reorg'!E434</f>
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <f>'Bowtie v1.0 reorg'!C434</f>
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <f>'Bowtie v1.0 reorg'!D434</f>
+        <v>0</v>
+      </c>
+      <c r="E433" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F434),"",'Bowtie v1.0 reorg'!F434)</f>
+        <v/>
+      </c>
+      <c r="F433" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G434),"",'Bowtie v1.0 reorg'!G434)</f>
+        <v/>
+      </c>
+      <c r="G433" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I434),"",'Bowtie v1.0 reorg'!I434)</f>
+        <v/>
+      </c>
+      <c r="H433" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J434),"",'Bowtie v1.0 reorg'!J434)</f>
+        <v/>
+      </c>
+      <c r="I433" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H434),"",'Bowtie v1.0 reorg'!H434)</f>
+        <v/>
+      </c>
+      <c r="J433" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K434),"",'Bowtie v1.0 reorg'!K434)</f>
+        <v/>
+      </c>
+      <c r="K433" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L433" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <f>'Bowtie v1.0 reorg'!A435</f>
+        <v>0</v>
+      </c>
+      <c r="B434">
+        <f>'Bowtie v1.0 reorg'!E435</f>
+        <v>0</v>
+      </c>
+      <c r="C434">
+        <f>'Bowtie v1.0 reorg'!C435</f>
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <f>'Bowtie v1.0 reorg'!D435</f>
+        <v>0</v>
+      </c>
+      <c r="E434" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F435),"",'Bowtie v1.0 reorg'!F435)</f>
+        <v/>
+      </c>
+      <c r="F434" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G435),"",'Bowtie v1.0 reorg'!G435)</f>
+        <v/>
+      </c>
+      <c r="G434" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I435),"",'Bowtie v1.0 reorg'!I435)</f>
+        <v/>
+      </c>
+      <c r="H434" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J435),"",'Bowtie v1.0 reorg'!J435)</f>
+        <v/>
+      </c>
+      <c r="I434" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H435),"",'Bowtie v1.0 reorg'!H435)</f>
+        <v/>
+      </c>
+      <c r="J434" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K435),"",'Bowtie v1.0 reorg'!K435)</f>
+        <v/>
+      </c>
+      <c r="K434" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L434" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <f>'Bowtie v1.0 reorg'!A436</f>
+        <v>0</v>
+      </c>
+      <c r="B435">
+        <f>'Bowtie v1.0 reorg'!E436</f>
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <f>'Bowtie v1.0 reorg'!C436</f>
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <f>'Bowtie v1.0 reorg'!D436</f>
+        <v>0</v>
+      </c>
+      <c r="E435" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F436),"",'Bowtie v1.0 reorg'!F436)</f>
+        <v/>
+      </c>
+      <c r="F435" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G436),"",'Bowtie v1.0 reorg'!G436)</f>
+        <v/>
+      </c>
+      <c r="G435" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I436),"",'Bowtie v1.0 reorg'!I436)</f>
+        <v/>
+      </c>
+      <c r="H435" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J436),"",'Bowtie v1.0 reorg'!J436)</f>
+        <v/>
+      </c>
+      <c r="I435" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H436),"",'Bowtie v1.0 reorg'!H436)</f>
+        <v/>
+      </c>
+      <c r="J435" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K436),"",'Bowtie v1.0 reorg'!K436)</f>
+        <v/>
+      </c>
+      <c r="K435" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L435" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <f>'Bowtie v1.0 reorg'!A437</f>
+        <v>0</v>
+      </c>
+      <c r="B436">
+        <f>'Bowtie v1.0 reorg'!E437</f>
+        <v>0</v>
+      </c>
+      <c r="C436">
+        <f>'Bowtie v1.0 reorg'!C437</f>
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <f>'Bowtie v1.0 reorg'!D437</f>
+        <v>0</v>
+      </c>
+      <c r="E436" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F437),"",'Bowtie v1.0 reorg'!F437)</f>
+        <v/>
+      </c>
+      <c r="F436" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G437),"",'Bowtie v1.0 reorg'!G437)</f>
+        <v/>
+      </c>
+      <c r="G436" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I437),"",'Bowtie v1.0 reorg'!I437)</f>
+        <v/>
+      </c>
+      <c r="H436" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J437),"",'Bowtie v1.0 reorg'!J437)</f>
+        <v/>
+      </c>
+      <c r="I436" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H437),"",'Bowtie v1.0 reorg'!H437)</f>
+        <v/>
+      </c>
+      <c r="J436" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K437),"",'Bowtie v1.0 reorg'!K437)</f>
+        <v/>
+      </c>
+      <c r="K436" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L436" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <f>'Bowtie v1.0 reorg'!A438</f>
+        <v>0</v>
+      </c>
+      <c r="B437">
+        <f>'Bowtie v1.0 reorg'!E438</f>
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <f>'Bowtie v1.0 reorg'!C438</f>
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <f>'Bowtie v1.0 reorg'!D438</f>
+        <v>0</v>
+      </c>
+      <c r="E437" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F438),"",'Bowtie v1.0 reorg'!F438)</f>
+        <v/>
+      </c>
+      <c r="F437" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G438),"",'Bowtie v1.0 reorg'!G438)</f>
+        <v/>
+      </c>
+      <c r="G437" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I438),"",'Bowtie v1.0 reorg'!I438)</f>
+        <v/>
+      </c>
+      <c r="H437" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J438),"",'Bowtie v1.0 reorg'!J438)</f>
+        <v/>
+      </c>
+      <c r="I437" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H438),"",'Bowtie v1.0 reorg'!H438)</f>
+        <v/>
+      </c>
+      <c r="J437" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K438),"",'Bowtie v1.0 reorg'!K438)</f>
+        <v/>
+      </c>
+      <c r="K437" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L437" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <f>'Bowtie v1.0 reorg'!A439</f>
+        <v>0</v>
+      </c>
+      <c r="B438">
+        <f>'Bowtie v1.0 reorg'!E439</f>
+        <v>0</v>
+      </c>
+      <c r="C438">
+        <f>'Bowtie v1.0 reorg'!C439</f>
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <f>'Bowtie v1.0 reorg'!D439</f>
+        <v>0</v>
+      </c>
+      <c r="E438" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F439),"",'Bowtie v1.0 reorg'!F439)</f>
+        <v/>
+      </c>
+      <c r="F438" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G439),"",'Bowtie v1.0 reorg'!G439)</f>
+        <v/>
+      </c>
+      <c r="G438" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I439),"",'Bowtie v1.0 reorg'!I439)</f>
+        <v/>
+      </c>
+      <c r="H438" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J439),"",'Bowtie v1.0 reorg'!J439)</f>
+        <v/>
+      </c>
+      <c r="I438" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H439),"",'Bowtie v1.0 reorg'!H439)</f>
+        <v/>
+      </c>
+      <c r="J438" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K439),"",'Bowtie v1.0 reorg'!K439)</f>
+        <v/>
+      </c>
+      <c r="K438" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L438" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <f>'Bowtie v1.0 reorg'!A440</f>
+        <v>0</v>
+      </c>
+      <c r="B439">
+        <f>'Bowtie v1.0 reorg'!E440</f>
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <f>'Bowtie v1.0 reorg'!C440</f>
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <f>'Bowtie v1.0 reorg'!D440</f>
+        <v>0</v>
+      </c>
+      <c r="E439" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F440),"",'Bowtie v1.0 reorg'!F440)</f>
+        <v/>
+      </c>
+      <c r="F439" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G440),"",'Bowtie v1.0 reorg'!G440)</f>
+        <v/>
+      </c>
+      <c r="G439" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I440),"",'Bowtie v1.0 reorg'!I440)</f>
+        <v/>
+      </c>
+      <c r="H439" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J440),"",'Bowtie v1.0 reorg'!J440)</f>
+        <v/>
+      </c>
+      <c r="I439" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H440),"",'Bowtie v1.0 reorg'!H440)</f>
+        <v/>
+      </c>
+      <c r="J439" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K440),"",'Bowtie v1.0 reorg'!K440)</f>
+        <v/>
+      </c>
+      <c r="K439" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L439" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <f>'Bowtie v1.0 reorg'!A441</f>
+        <v>0</v>
+      </c>
+      <c r="B440">
+        <f>'Bowtie v1.0 reorg'!E441</f>
+        <v>0</v>
+      </c>
+      <c r="C440">
+        <f>'Bowtie v1.0 reorg'!C441</f>
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <f>'Bowtie v1.0 reorg'!D441</f>
+        <v>0</v>
+      </c>
+      <c r="E440" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F441),"",'Bowtie v1.0 reorg'!F441)</f>
+        <v/>
+      </c>
+      <c r="F440" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G441),"",'Bowtie v1.0 reorg'!G441)</f>
+        <v/>
+      </c>
+      <c r="G440" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I441),"",'Bowtie v1.0 reorg'!I441)</f>
+        <v/>
+      </c>
+      <c r="H440" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J441),"",'Bowtie v1.0 reorg'!J441)</f>
+        <v/>
+      </c>
+      <c r="I440" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H441),"",'Bowtie v1.0 reorg'!H441)</f>
+        <v/>
+      </c>
+      <c r="J440" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K441),"",'Bowtie v1.0 reorg'!K441)</f>
+        <v/>
+      </c>
+      <c r="K440" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L440" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <f>'Bowtie v1.0 reorg'!A442</f>
+        <v>0</v>
+      </c>
+      <c r="B441">
+        <f>'Bowtie v1.0 reorg'!E442</f>
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <f>'Bowtie v1.0 reorg'!C442</f>
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <f>'Bowtie v1.0 reorg'!D442</f>
+        <v>0</v>
+      </c>
+      <c r="E441" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F442),"",'Bowtie v1.0 reorg'!F442)</f>
+        <v/>
+      </c>
+      <c r="F441" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G442),"",'Bowtie v1.0 reorg'!G442)</f>
+        <v/>
+      </c>
+      <c r="G441" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I442),"",'Bowtie v1.0 reorg'!I442)</f>
+        <v/>
+      </c>
+      <c r="H441" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J442),"",'Bowtie v1.0 reorg'!J442)</f>
+        <v/>
+      </c>
+      <c r="I441" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H442),"",'Bowtie v1.0 reorg'!H442)</f>
+        <v/>
+      </c>
+      <c r="J441" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K442),"",'Bowtie v1.0 reorg'!K442)</f>
+        <v/>
+      </c>
+      <c r="K441" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L441" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <f>'Bowtie v1.0 reorg'!A443</f>
+        <v>0</v>
+      </c>
+      <c r="B442">
+        <f>'Bowtie v1.0 reorg'!E443</f>
+        <v>0</v>
+      </c>
+      <c r="C442">
+        <f>'Bowtie v1.0 reorg'!C443</f>
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <f>'Bowtie v1.0 reorg'!D443</f>
+        <v>0</v>
+      </c>
+      <c r="E442" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F443),"",'Bowtie v1.0 reorg'!F443)</f>
+        <v/>
+      </c>
+      <c r="F442" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G443),"",'Bowtie v1.0 reorg'!G443)</f>
+        <v/>
+      </c>
+      <c r="G442" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I443),"",'Bowtie v1.0 reorg'!I443)</f>
+        <v/>
+      </c>
+      <c r="H442" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J443),"",'Bowtie v1.0 reorg'!J443)</f>
+        <v/>
+      </c>
+      <c r="I442" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H443),"",'Bowtie v1.0 reorg'!H443)</f>
+        <v/>
+      </c>
+      <c r="J442" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K443),"",'Bowtie v1.0 reorg'!K443)</f>
+        <v/>
+      </c>
+      <c r="K442" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L442" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <f>'Bowtie v1.0 reorg'!A444</f>
+        <v>0</v>
+      </c>
+      <c r="B443">
+        <f>'Bowtie v1.0 reorg'!E444</f>
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <f>'Bowtie v1.0 reorg'!C444</f>
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <f>'Bowtie v1.0 reorg'!D444</f>
+        <v>0</v>
+      </c>
+      <c r="E443" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F444),"",'Bowtie v1.0 reorg'!F444)</f>
+        <v/>
+      </c>
+      <c r="F443" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G444),"",'Bowtie v1.0 reorg'!G444)</f>
+        <v/>
+      </c>
+      <c r="G443" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I444),"",'Bowtie v1.0 reorg'!I444)</f>
+        <v/>
+      </c>
+      <c r="H443" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J444),"",'Bowtie v1.0 reorg'!J444)</f>
+        <v/>
+      </c>
+      <c r="I443" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H444),"",'Bowtie v1.0 reorg'!H444)</f>
+        <v/>
+      </c>
+      <c r="J443" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K444),"",'Bowtie v1.0 reorg'!K444)</f>
+        <v/>
+      </c>
+      <c r="K443" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L443" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <f>'Bowtie v1.0 reorg'!A445</f>
+        <v>0</v>
+      </c>
+      <c r="B444">
+        <f>'Bowtie v1.0 reorg'!E445</f>
+        <v>0</v>
+      </c>
+      <c r="C444">
+        <f>'Bowtie v1.0 reorg'!C445</f>
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <f>'Bowtie v1.0 reorg'!D445</f>
+        <v>0</v>
+      </c>
+      <c r="E444" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F445),"",'Bowtie v1.0 reorg'!F445)</f>
+        <v/>
+      </c>
+      <c r="F444" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G445),"",'Bowtie v1.0 reorg'!G445)</f>
+        <v/>
+      </c>
+      <c r="G444" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I445),"",'Bowtie v1.0 reorg'!I445)</f>
+        <v/>
+      </c>
+      <c r="H444" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J445),"",'Bowtie v1.0 reorg'!J445)</f>
+        <v/>
+      </c>
+      <c r="I444" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H445),"",'Bowtie v1.0 reorg'!H445)</f>
+        <v/>
+      </c>
+      <c r="J444" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K445),"",'Bowtie v1.0 reorg'!K445)</f>
+        <v/>
+      </c>
+      <c r="K444" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L444" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <f>'Bowtie v1.0 reorg'!A446</f>
+        <v>0</v>
+      </c>
+      <c r="B445">
+        <f>'Bowtie v1.0 reorg'!E446</f>
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <f>'Bowtie v1.0 reorg'!C446</f>
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <f>'Bowtie v1.0 reorg'!D446</f>
+        <v>0</v>
+      </c>
+      <c r="E445" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F446),"",'Bowtie v1.0 reorg'!F446)</f>
+        <v/>
+      </c>
+      <c r="F445" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G446),"",'Bowtie v1.0 reorg'!G446)</f>
+        <v/>
+      </c>
+      <c r="G445" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I446),"",'Bowtie v1.0 reorg'!I446)</f>
+        <v/>
+      </c>
+      <c r="H445" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J446),"",'Bowtie v1.0 reorg'!J446)</f>
+        <v/>
+      </c>
+      <c r="I445" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H446),"",'Bowtie v1.0 reorg'!H446)</f>
+        <v/>
+      </c>
+      <c r="J445" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K446),"",'Bowtie v1.0 reorg'!K446)</f>
+        <v/>
+      </c>
+      <c r="K445" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L445" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <f>'Bowtie v1.0 reorg'!A447</f>
+        <v>0</v>
+      </c>
+      <c r="B446">
+        <f>'Bowtie v1.0 reorg'!E447</f>
+        <v>0</v>
+      </c>
+      <c r="C446">
+        <f>'Bowtie v1.0 reorg'!C447</f>
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <f>'Bowtie v1.0 reorg'!D447</f>
+        <v>0</v>
+      </c>
+      <c r="E446" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F447),"",'Bowtie v1.0 reorg'!F447)</f>
+        <v/>
+      </c>
+      <c r="F446" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G447),"",'Bowtie v1.0 reorg'!G447)</f>
+        <v/>
+      </c>
+      <c r="G446" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I447),"",'Bowtie v1.0 reorg'!I447)</f>
+        <v/>
+      </c>
+      <c r="H446" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J447),"",'Bowtie v1.0 reorg'!J447)</f>
+        <v/>
+      </c>
+      <c r="I446" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H447),"",'Bowtie v1.0 reorg'!H447)</f>
+        <v/>
+      </c>
+      <c r="J446" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K447),"",'Bowtie v1.0 reorg'!K447)</f>
+        <v/>
+      </c>
+      <c r="K446" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L446" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <f>'Bowtie v1.0 reorg'!A448</f>
+        <v>0</v>
+      </c>
+      <c r="B447">
+        <f>'Bowtie v1.0 reorg'!E448</f>
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <f>'Bowtie v1.0 reorg'!C448</f>
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <f>'Bowtie v1.0 reorg'!D448</f>
+        <v>0</v>
+      </c>
+      <c r="E447" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F448),"",'Bowtie v1.0 reorg'!F448)</f>
+        <v/>
+      </c>
+      <c r="F447" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G448),"",'Bowtie v1.0 reorg'!G448)</f>
+        <v/>
+      </c>
+      <c r="G447" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I448),"",'Bowtie v1.0 reorg'!I448)</f>
+        <v/>
+      </c>
+      <c r="H447" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J448),"",'Bowtie v1.0 reorg'!J448)</f>
+        <v/>
+      </c>
+      <c r="I447" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H448),"",'Bowtie v1.0 reorg'!H448)</f>
+        <v/>
+      </c>
+      <c r="J447" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K448),"",'Bowtie v1.0 reorg'!K448)</f>
+        <v/>
+      </c>
+      <c r="K447" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L447" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <f>'Bowtie v1.0 reorg'!A449</f>
+        <v>0</v>
+      </c>
+      <c r="B448">
+        <f>'Bowtie v1.0 reorg'!E449</f>
+        <v>0</v>
+      </c>
+      <c r="C448">
+        <f>'Bowtie v1.0 reorg'!C449</f>
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <f>'Bowtie v1.0 reorg'!D449</f>
+        <v>0</v>
+      </c>
+      <c r="E448" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F449),"",'Bowtie v1.0 reorg'!F449)</f>
+        <v/>
+      </c>
+      <c r="F448" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G449),"",'Bowtie v1.0 reorg'!G449)</f>
+        <v/>
+      </c>
+      <c r="G448" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I449),"",'Bowtie v1.0 reorg'!I449)</f>
+        <v/>
+      </c>
+      <c r="H448" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J449),"",'Bowtie v1.0 reorg'!J449)</f>
+        <v/>
+      </c>
+      <c r="I448" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H449),"",'Bowtie v1.0 reorg'!H449)</f>
+        <v/>
+      </c>
+      <c r="J448" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K449),"",'Bowtie v1.0 reorg'!K449)</f>
+        <v/>
+      </c>
+      <c r="K448" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L448" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <f>'Bowtie v1.0 reorg'!A450</f>
+        <v>0</v>
+      </c>
+      <c r="B449">
+        <f>'Bowtie v1.0 reorg'!E450</f>
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <f>'Bowtie v1.0 reorg'!C450</f>
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <f>'Bowtie v1.0 reorg'!D450</f>
+        <v>0</v>
+      </c>
+      <c r="E449" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F450),"",'Bowtie v1.0 reorg'!F450)</f>
+        <v/>
+      </c>
+      <c r="F449" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G450),"",'Bowtie v1.0 reorg'!G450)</f>
+        <v/>
+      </c>
+      <c r="G449" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I450),"",'Bowtie v1.0 reorg'!I450)</f>
+        <v/>
+      </c>
+      <c r="H449" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J450),"",'Bowtie v1.0 reorg'!J450)</f>
+        <v/>
+      </c>
+      <c r="I449" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H450),"",'Bowtie v1.0 reorg'!H450)</f>
+        <v/>
+      </c>
+      <c r="J449" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K450),"",'Bowtie v1.0 reorg'!K450)</f>
+        <v/>
+      </c>
+      <c r="K449" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L449" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <f>'Bowtie v1.0 reorg'!A451</f>
+        <v>0</v>
+      </c>
+      <c r="B450">
+        <f>'Bowtie v1.0 reorg'!E451</f>
+        <v>0</v>
+      </c>
+      <c r="C450">
+        <f>'Bowtie v1.0 reorg'!C451</f>
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <f>'Bowtie v1.0 reorg'!D451</f>
+        <v>0</v>
+      </c>
+      <c r="E450" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F451),"",'Bowtie v1.0 reorg'!F451)</f>
+        <v/>
+      </c>
+      <c r="F450" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G451),"",'Bowtie v1.0 reorg'!G451)</f>
+        <v/>
+      </c>
+      <c r="G450" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I451),"",'Bowtie v1.0 reorg'!I451)</f>
+        <v/>
+      </c>
+      <c r="H450" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J451),"",'Bowtie v1.0 reorg'!J451)</f>
+        <v/>
+      </c>
+      <c r="I450" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H451),"",'Bowtie v1.0 reorg'!H451)</f>
+        <v/>
+      </c>
+      <c r="J450" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K451),"",'Bowtie v1.0 reorg'!K451)</f>
+        <v/>
+      </c>
+      <c r="K450" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L450" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <f>'Bowtie v1.0 reorg'!A452</f>
+        <v>0</v>
+      </c>
+      <c r="B451">
+        <f>'Bowtie v1.0 reorg'!E452</f>
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <f>'Bowtie v1.0 reorg'!C452</f>
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <f>'Bowtie v1.0 reorg'!D452</f>
+        <v>0</v>
+      </c>
+      <c r="E451" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F452),"",'Bowtie v1.0 reorg'!F452)</f>
+        <v/>
+      </c>
+      <c r="F451" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G452),"",'Bowtie v1.0 reorg'!G452)</f>
+        <v/>
+      </c>
+      <c r="G451" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I452),"",'Bowtie v1.0 reorg'!I452)</f>
+        <v/>
+      </c>
+      <c r="H451" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J452),"",'Bowtie v1.0 reorg'!J452)</f>
+        <v/>
+      </c>
+      <c r="I451" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H452),"",'Bowtie v1.0 reorg'!H452)</f>
+        <v/>
+      </c>
+      <c r="J451" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K452),"",'Bowtie v1.0 reorg'!K452)</f>
+        <v/>
+      </c>
+      <c r="K451" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L451" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <f>'Bowtie v1.0 reorg'!A453</f>
+        <v>0</v>
+      </c>
+      <c r="B452">
+        <f>'Bowtie v1.0 reorg'!E453</f>
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <f>'Bowtie v1.0 reorg'!C453</f>
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <f>'Bowtie v1.0 reorg'!D453</f>
+        <v>0</v>
+      </c>
+      <c r="E452" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F453),"",'Bowtie v1.0 reorg'!F453)</f>
+        <v/>
+      </c>
+      <c r="F452" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G453),"",'Bowtie v1.0 reorg'!G453)</f>
+        <v/>
+      </c>
+      <c r="G452" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I453),"",'Bowtie v1.0 reorg'!I453)</f>
+        <v/>
+      </c>
+      <c r="H452" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J453),"",'Bowtie v1.0 reorg'!J453)</f>
+        <v/>
+      </c>
+      <c r="I452" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H453),"",'Bowtie v1.0 reorg'!H453)</f>
+        <v/>
+      </c>
+      <c r="J452" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K453),"",'Bowtie v1.0 reorg'!K453)</f>
+        <v/>
+      </c>
+      <c r="K452" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L452" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <f>'Bowtie v1.0 reorg'!A454</f>
+        <v>0</v>
+      </c>
+      <c r="B453">
+        <f>'Bowtie v1.0 reorg'!E454</f>
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <f>'Bowtie v1.0 reorg'!C454</f>
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <f>'Bowtie v1.0 reorg'!D454</f>
+        <v>0</v>
+      </c>
+      <c r="E453" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F454),"",'Bowtie v1.0 reorg'!F454)</f>
+        <v/>
+      </c>
+      <c r="F453" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G454),"",'Bowtie v1.0 reorg'!G454)</f>
+        <v/>
+      </c>
+      <c r="G453" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I454),"",'Bowtie v1.0 reorg'!I454)</f>
+        <v/>
+      </c>
+      <c r="H453" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J454),"",'Bowtie v1.0 reorg'!J454)</f>
+        <v/>
+      </c>
+      <c r="I453" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H454),"",'Bowtie v1.0 reorg'!H454)</f>
+        <v/>
+      </c>
+      <c r="J453" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K454),"",'Bowtie v1.0 reorg'!K454)</f>
+        <v/>
+      </c>
+      <c r="K453" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L453" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <f>'Bowtie v1.0 reorg'!A455</f>
+        <v>0</v>
+      </c>
+      <c r="B454">
+        <f>'Bowtie v1.0 reorg'!E455</f>
+        <v>0</v>
+      </c>
+      <c r="C454">
+        <f>'Bowtie v1.0 reorg'!C455</f>
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <f>'Bowtie v1.0 reorg'!D455</f>
+        <v>0</v>
+      </c>
+      <c r="E454" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F455),"",'Bowtie v1.0 reorg'!F455)</f>
+        <v/>
+      </c>
+      <c r="F454" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G455),"",'Bowtie v1.0 reorg'!G455)</f>
+        <v/>
+      </c>
+      <c r="G454" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I455),"",'Bowtie v1.0 reorg'!I455)</f>
+        <v/>
+      </c>
+      <c r="H454" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J455),"",'Bowtie v1.0 reorg'!J455)</f>
+        <v/>
+      </c>
+      <c r="I454" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H455),"",'Bowtie v1.0 reorg'!H455)</f>
+        <v/>
+      </c>
+      <c r="J454" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K455),"",'Bowtie v1.0 reorg'!K455)</f>
+        <v/>
+      </c>
+      <c r="K454" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L454" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <f>'Bowtie v1.0 reorg'!A456</f>
+        <v>0</v>
+      </c>
+      <c r="B455">
+        <f>'Bowtie v1.0 reorg'!E456</f>
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <f>'Bowtie v1.0 reorg'!C456</f>
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <f>'Bowtie v1.0 reorg'!D456</f>
+        <v>0</v>
+      </c>
+      <c r="E455" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F456),"",'Bowtie v1.0 reorg'!F456)</f>
+        <v/>
+      </c>
+      <c r="F455" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G456),"",'Bowtie v1.0 reorg'!G456)</f>
+        <v/>
+      </c>
+      <c r="G455" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I456),"",'Bowtie v1.0 reorg'!I456)</f>
+        <v/>
+      </c>
+      <c r="H455" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J456),"",'Bowtie v1.0 reorg'!J456)</f>
+        <v/>
+      </c>
+      <c r="I455" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H456),"",'Bowtie v1.0 reorg'!H456)</f>
+        <v/>
+      </c>
+      <c r="J455" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K456),"",'Bowtie v1.0 reorg'!K456)</f>
+        <v/>
+      </c>
+      <c r="K455" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L455" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <f>'Bowtie v1.0 reorg'!A457</f>
+        <v>0</v>
+      </c>
+      <c r="B456">
+        <f>'Bowtie v1.0 reorg'!E457</f>
+        <v>0</v>
+      </c>
+      <c r="C456">
+        <f>'Bowtie v1.0 reorg'!C457</f>
+        <v>0</v>
+      </c>
+      <c r="D456">
+        <f>'Bowtie v1.0 reorg'!D457</f>
+        <v>0</v>
+      </c>
+      <c r="E456" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F457),"",'Bowtie v1.0 reorg'!F457)</f>
+        <v/>
+      </c>
+      <c r="F456" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G457),"",'Bowtie v1.0 reorg'!G457)</f>
+        <v/>
+      </c>
+      <c r="G456" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I457),"",'Bowtie v1.0 reorg'!I457)</f>
+        <v/>
+      </c>
+      <c r="H456" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J457),"",'Bowtie v1.0 reorg'!J457)</f>
+        <v/>
+      </c>
+      <c r="I456" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H457),"",'Bowtie v1.0 reorg'!H457)</f>
+        <v/>
+      </c>
+      <c r="J456" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K457),"",'Bowtie v1.0 reorg'!K457)</f>
+        <v/>
+      </c>
+      <c r="K456" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L456" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <f>'Bowtie v1.0 reorg'!A458</f>
+        <v>0</v>
+      </c>
+      <c r="B457">
+        <f>'Bowtie v1.0 reorg'!E458</f>
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <f>'Bowtie v1.0 reorg'!C458</f>
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <f>'Bowtie v1.0 reorg'!D458</f>
+        <v>0</v>
+      </c>
+      <c r="E457" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F458),"",'Bowtie v1.0 reorg'!F458)</f>
+        <v/>
+      </c>
+      <c r="F457" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G458),"",'Bowtie v1.0 reorg'!G458)</f>
+        <v/>
+      </c>
+      <c r="G457" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I458),"",'Bowtie v1.0 reorg'!I458)</f>
+        <v/>
+      </c>
+      <c r="H457" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J458),"",'Bowtie v1.0 reorg'!J458)</f>
+        <v/>
+      </c>
+      <c r="I457" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H458),"",'Bowtie v1.0 reorg'!H458)</f>
+        <v/>
+      </c>
+      <c r="J457" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K458),"",'Bowtie v1.0 reorg'!K458)</f>
+        <v/>
+      </c>
+      <c r="K457" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L457" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <f>'Bowtie v1.0 reorg'!A459</f>
+        <v>0</v>
+      </c>
+      <c r="B458">
+        <f>'Bowtie v1.0 reorg'!E459</f>
+        <v>0</v>
+      </c>
+      <c r="C458">
+        <f>'Bowtie v1.0 reorg'!C459</f>
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <f>'Bowtie v1.0 reorg'!D459</f>
+        <v>0</v>
+      </c>
+      <c r="E458" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F459),"",'Bowtie v1.0 reorg'!F459)</f>
+        <v/>
+      </c>
+      <c r="F458" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G459),"",'Bowtie v1.0 reorg'!G459)</f>
+        <v/>
+      </c>
+      <c r="G458" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I459),"",'Bowtie v1.0 reorg'!I459)</f>
+        <v/>
+      </c>
+      <c r="H458" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J459),"",'Bowtie v1.0 reorg'!J459)</f>
+        <v/>
+      </c>
+      <c r="I458" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H459),"",'Bowtie v1.0 reorg'!H459)</f>
+        <v/>
+      </c>
+      <c r="J458" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K459),"",'Bowtie v1.0 reorg'!K459)</f>
+        <v/>
+      </c>
+      <c r="K458" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L458" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <f>'Bowtie v1.0 reorg'!A460</f>
+        <v>0</v>
+      </c>
+      <c r="B459">
+        <f>'Bowtie v1.0 reorg'!E460</f>
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <f>'Bowtie v1.0 reorg'!C460</f>
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <f>'Bowtie v1.0 reorg'!D460</f>
+        <v>0</v>
+      </c>
+      <c r="E459" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F460),"",'Bowtie v1.0 reorg'!F460)</f>
+        <v/>
+      </c>
+      <c r="F459" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G460),"",'Bowtie v1.0 reorg'!G460)</f>
+        <v/>
+      </c>
+      <c r="G459" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I460),"",'Bowtie v1.0 reorg'!I460)</f>
+        <v/>
+      </c>
+      <c r="H459" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J460),"",'Bowtie v1.0 reorg'!J460)</f>
+        <v/>
+      </c>
+      <c r="I459" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H460),"",'Bowtie v1.0 reorg'!H460)</f>
+        <v/>
+      </c>
+      <c r="J459" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K460),"",'Bowtie v1.0 reorg'!K460)</f>
+        <v/>
+      </c>
+      <c r="K459" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L459" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <f>'Bowtie v1.0 reorg'!A461</f>
+        <v>0</v>
+      </c>
+      <c r="B460">
+        <f>'Bowtie v1.0 reorg'!E461</f>
+        <v>0</v>
+      </c>
+      <c r="C460">
+        <f>'Bowtie v1.0 reorg'!C461</f>
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <f>'Bowtie v1.0 reorg'!D461</f>
+        <v>0</v>
+      </c>
+      <c r="E460" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F461),"",'Bowtie v1.0 reorg'!F461)</f>
+        <v/>
+      </c>
+      <c r="F460" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G461),"",'Bowtie v1.0 reorg'!G461)</f>
+        <v/>
+      </c>
+      <c r="G460" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I461),"",'Bowtie v1.0 reorg'!I461)</f>
+        <v/>
+      </c>
+      <c r="H460" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J461),"",'Bowtie v1.0 reorg'!J461)</f>
+        <v/>
+      </c>
+      <c r="I460" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H461),"",'Bowtie v1.0 reorg'!H461)</f>
+        <v/>
+      </c>
+      <c r="J460" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K461),"",'Bowtie v1.0 reorg'!K461)</f>
+        <v/>
+      </c>
+      <c r="K460" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L460" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <f>'Bowtie v1.0 reorg'!A462</f>
+        <v>0</v>
+      </c>
+      <c r="B461">
+        <f>'Bowtie v1.0 reorg'!E462</f>
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <f>'Bowtie v1.0 reorg'!C462</f>
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <f>'Bowtie v1.0 reorg'!D462</f>
+        <v>0</v>
+      </c>
+      <c r="E461" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F462),"",'Bowtie v1.0 reorg'!F462)</f>
+        <v/>
+      </c>
+      <c r="F461" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G462),"",'Bowtie v1.0 reorg'!G462)</f>
+        <v/>
+      </c>
+      <c r="G461" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I462),"",'Bowtie v1.0 reorg'!I462)</f>
+        <v/>
+      </c>
+      <c r="H461" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J462),"",'Bowtie v1.0 reorg'!J462)</f>
+        <v/>
+      </c>
+      <c r="I461" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H462),"",'Bowtie v1.0 reorg'!H462)</f>
+        <v/>
+      </c>
+      <c r="J461" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K462),"",'Bowtie v1.0 reorg'!K462)</f>
+        <v/>
+      </c>
+      <c r="K461" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L461" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <f>'Bowtie v1.0 reorg'!A463</f>
+        <v>0</v>
+      </c>
+      <c r="B462">
+        <f>'Bowtie v1.0 reorg'!E463</f>
+        <v>0</v>
+      </c>
+      <c r="C462">
+        <f>'Bowtie v1.0 reorg'!C463</f>
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <f>'Bowtie v1.0 reorg'!D463</f>
+        <v>0</v>
+      </c>
+      <c r="E462" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F463),"",'Bowtie v1.0 reorg'!F463)</f>
+        <v/>
+      </c>
+      <c r="F462" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G463),"",'Bowtie v1.0 reorg'!G463)</f>
+        <v/>
+      </c>
+      <c r="G462" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I463),"",'Bowtie v1.0 reorg'!I463)</f>
+        <v/>
+      </c>
+      <c r="H462" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J463),"",'Bowtie v1.0 reorg'!J463)</f>
+        <v/>
+      </c>
+      <c r="I462" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H463),"",'Bowtie v1.0 reorg'!H463)</f>
+        <v/>
+      </c>
+      <c r="J462" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K463),"",'Bowtie v1.0 reorg'!K463)</f>
+        <v/>
+      </c>
+      <c r="K462" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L462" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <f>'Bowtie v1.0 reorg'!A464</f>
+        <v>0</v>
+      </c>
+      <c r="B463">
+        <f>'Bowtie v1.0 reorg'!E464</f>
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <f>'Bowtie v1.0 reorg'!C464</f>
+        <v>0</v>
+      </c>
+      <c r="D463">
+        <f>'Bowtie v1.0 reorg'!D464</f>
+        <v>0</v>
+      </c>
+      <c r="E463" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F464),"",'Bowtie v1.0 reorg'!F464)</f>
+        <v/>
+      </c>
+      <c r="F463" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G464),"",'Bowtie v1.0 reorg'!G464)</f>
+        <v/>
+      </c>
+      <c r="G463" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I464),"",'Bowtie v1.0 reorg'!I464)</f>
+        <v/>
+      </c>
+      <c r="H463" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J464),"",'Bowtie v1.0 reorg'!J464)</f>
+        <v/>
+      </c>
+      <c r="I463" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H464),"",'Bowtie v1.0 reorg'!H464)</f>
+        <v/>
+      </c>
+      <c r="J463" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K464),"",'Bowtie v1.0 reorg'!K464)</f>
+        <v/>
+      </c>
+      <c r="K463" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L463" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <f>'Bowtie v1.0 reorg'!A465</f>
+        <v>0</v>
+      </c>
+      <c r="B464">
+        <f>'Bowtie v1.0 reorg'!E465</f>
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <f>'Bowtie v1.0 reorg'!C465</f>
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <f>'Bowtie v1.0 reorg'!D465</f>
+        <v>0</v>
+      </c>
+      <c r="E464" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F465),"",'Bowtie v1.0 reorg'!F465)</f>
+        <v/>
+      </c>
+      <c r="F464" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G465),"",'Bowtie v1.0 reorg'!G465)</f>
+        <v/>
+      </c>
+      <c r="G464" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I465),"",'Bowtie v1.0 reorg'!I465)</f>
+        <v/>
+      </c>
+      <c r="H464" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J465),"",'Bowtie v1.0 reorg'!J465)</f>
+        <v/>
+      </c>
+      <c r="I464" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H465),"",'Bowtie v1.0 reorg'!H465)</f>
+        <v/>
+      </c>
+      <c r="J464" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K465),"",'Bowtie v1.0 reorg'!K465)</f>
+        <v/>
+      </c>
+      <c r="K464" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L464" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <f>'Bowtie v1.0 reorg'!A466</f>
+        <v>0</v>
+      </c>
+      <c r="B465">
+        <f>'Bowtie v1.0 reorg'!E466</f>
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <f>'Bowtie v1.0 reorg'!C466</f>
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <f>'Bowtie v1.0 reorg'!D466</f>
+        <v>0</v>
+      </c>
+      <c r="E465" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F466),"",'Bowtie v1.0 reorg'!F466)</f>
+        <v/>
+      </c>
+      <c r="F465" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G466),"",'Bowtie v1.0 reorg'!G466)</f>
+        <v/>
+      </c>
+      <c r="G465" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I466),"",'Bowtie v1.0 reorg'!I466)</f>
+        <v/>
+      </c>
+      <c r="H465" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J466),"",'Bowtie v1.0 reorg'!J466)</f>
+        <v/>
+      </c>
+      <c r="I465" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H466),"",'Bowtie v1.0 reorg'!H466)</f>
+        <v/>
+      </c>
+      <c r="J465" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K466),"",'Bowtie v1.0 reorg'!K466)</f>
+        <v/>
+      </c>
+      <c r="K465" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L465" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <f>'Bowtie v1.0 reorg'!A467</f>
+        <v>0</v>
+      </c>
+      <c r="B466">
+        <f>'Bowtie v1.0 reorg'!E467</f>
+        <v>0</v>
+      </c>
+      <c r="C466">
+        <f>'Bowtie v1.0 reorg'!C467</f>
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <f>'Bowtie v1.0 reorg'!D467</f>
+        <v>0</v>
+      </c>
+      <c r="E466" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F467),"",'Bowtie v1.0 reorg'!F467)</f>
+        <v/>
+      </c>
+      <c r="F466" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G467),"",'Bowtie v1.0 reorg'!G467)</f>
+        <v/>
+      </c>
+      <c r="G466" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I467),"",'Bowtie v1.0 reorg'!I467)</f>
+        <v/>
+      </c>
+      <c r="H466" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J467),"",'Bowtie v1.0 reorg'!J467)</f>
+        <v/>
+      </c>
+      <c r="I466" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H467),"",'Bowtie v1.0 reorg'!H467)</f>
+        <v/>
+      </c>
+      <c r="J466" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K467),"",'Bowtie v1.0 reorg'!K467)</f>
+        <v/>
+      </c>
+      <c r="K466" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L466" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <f>'Bowtie v1.0 reorg'!A468</f>
+        <v>0</v>
+      </c>
+      <c r="B467">
+        <f>'Bowtie v1.0 reorg'!E468</f>
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <f>'Bowtie v1.0 reorg'!C468</f>
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <f>'Bowtie v1.0 reorg'!D468</f>
+        <v>0</v>
+      </c>
+      <c r="E467" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F468),"",'Bowtie v1.0 reorg'!F468)</f>
+        <v/>
+      </c>
+      <c r="F467" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G468),"",'Bowtie v1.0 reorg'!G468)</f>
+        <v/>
+      </c>
+      <c r="G467" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I468),"",'Bowtie v1.0 reorg'!I468)</f>
+        <v/>
+      </c>
+      <c r="H467" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J468),"",'Bowtie v1.0 reorg'!J468)</f>
+        <v/>
+      </c>
+      <c r="I467" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H468),"",'Bowtie v1.0 reorg'!H468)</f>
+        <v/>
+      </c>
+      <c r="J467" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K468),"",'Bowtie v1.0 reorg'!K468)</f>
+        <v/>
+      </c>
+      <c r="K467" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L467" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <f>'Bowtie v1.0 reorg'!A469</f>
+        <v>0</v>
+      </c>
+      <c r="B468">
+        <f>'Bowtie v1.0 reorg'!E469</f>
+        <v>0</v>
+      </c>
+      <c r="C468">
+        <f>'Bowtie v1.0 reorg'!C469</f>
+        <v>0</v>
+      </c>
+      <c r="D468">
+        <f>'Bowtie v1.0 reorg'!D469</f>
+        <v>0</v>
+      </c>
+      <c r="E468" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F469),"",'Bowtie v1.0 reorg'!F469)</f>
+        <v/>
+      </c>
+      <c r="F468" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G469),"",'Bowtie v1.0 reorg'!G469)</f>
+        <v/>
+      </c>
+      <c r="G468" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I469),"",'Bowtie v1.0 reorg'!I469)</f>
+        <v/>
+      </c>
+      <c r="H468" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J469),"",'Bowtie v1.0 reorg'!J469)</f>
+        <v/>
+      </c>
+      <c r="I468" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H469),"",'Bowtie v1.0 reorg'!H469)</f>
+        <v/>
+      </c>
+      <c r="J468" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K469),"",'Bowtie v1.0 reorg'!K469)</f>
+        <v/>
+      </c>
+      <c r="K468" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L468" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <f>'Bowtie v1.0 reorg'!A470</f>
+        <v>0</v>
+      </c>
+      <c r="B469">
+        <f>'Bowtie v1.0 reorg'!E470</f>
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <f>'Bowtie v1.0 reorg'!C470</f>
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <f>'Bowtie v1.0 reorg'!D470</f>
+        <v>0</v>
+      </c>
+      <c r="E469" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F470),"",'Bowtie v1.0 reorg'!F470)</f>
+        <v/>
+      </c>
+      <c r="F469" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G470),"",'Bowtie v1.0 reorg'!G470)</f>
+        <v/>
+      </c>
+      <c r="G469" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I470),"",'Bowtie v1.0 reorg'!I470)</f>
+        <v/>
+      </c>
+      <c r="H469" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J470),"",'Bowtie v1.0 reorg'!J470)</f>
+        <v/>
+      </c>
+      <c r="I469" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H470),"",'Bowtie v1.0 reorg'!H470)</f>
+        <v/>
+      </c>
+      <c r="J469" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K470),"",'Bowtie v1.0 reorg'!K470)</f>
+        <v/>
+      </c>
+      <c r="K469" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L469" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <f>'Bowtie v1.0 reorg'!A471</f>
+        <v>0</v>
+      </c>
+      <c r="B470">
+        <f>'Bowtie v1.0 reorg'!E471</f>
+        <v>0</v>
+      </c>
+      <c r="C470">
+        <f>'Bowtie v1.0 reorg'!C471</f>
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <f>'Bowtie v1.0 reorg'!D471</f>
+        <v>0</v>
+      </c>
+      <c r="E470" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!F471),"",'Bowtie v1.0 reorg'!F471)</f>
+        <v/>
+      </c>
+      <c r="F470" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!G471),"",'Bowtie v1.0 reorg'!G471)</f>
+        <v/>
+      </c>
+      <c r="G470" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!I471),"",'Bowtie v1.0 reorg'!I471)</f>
+        <v/>
+      </c>
+      <c r="H470" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!J471),"",'Bowtie v1.0 reorg'!J471)</f>
+        <v/>
+      </c>
+      <c r="I470" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!H471),"",'Bowtie v1.0 reorg'!H471)</f>
+        <v/>
+      </c>
+      <c r="J470" t="str">
+        <f>IF(ISBLANK('Bowtie v1.0 reorg'!K471),"",'Bowtie v1.0 reorg'!K471)</f>
+        <v/>
+      </c>
+      <c r="K470" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L470" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E471"/>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E472"/>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E473"/>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E474"/>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E475"/>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E476"/>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E477"/>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E478"/>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E479"/>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E480"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="657">
   <si>
     <t>name</t>
   </si>
@@ -1982,6 +1982,15 @@
   </si>
   <si>
     <t>Used for contact card.</t>
+  </si>
+  <si>
+    <t>brand-vsts</t>
+  </si>
+  <si>
+    <t>vsts brand logo</t>
+  </si>
+  <si>
+    <t>VSTS product icon.</t>
   </si>
 </sst>
 </file>
@@ -15465,6 +15474,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1114425" y="141370050"/>
+          <a:ext cx="209579" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409604</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>333407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="353" name="Picture 352"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId352"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="142208250"/>
           <a:ext cx="209579" cy="228632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15743,8 +15790,8 @@
   <dimension ref="A1:AL410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C353" sqref="C353"/>
+      <pane ySplit="2" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K356" sqref="K356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27795,44 +27842,70 @@
         <v>uEA5D-feedback-negative-outline.svg</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
+    <row r="353" spans="1:38" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="C353" s="13" t="str">
+      <c r="C353" s="16" t="str">
         <f t="shared" si="10"/>
         <v>EA5E</v>
       </c>
-      <c r="D353" s="13">
+      <c r="D353" s="16">
         <v>59998</v>
       </c>
-      <c r="E353" s="2" t="s">
+      <c r="E353" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F353" s="3">
+      <c r="F353" s="17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G353" s="2" t="s">
+      <c r="G353" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H353" s="2" t="s">
+      <c r="H353" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I353" s="2" t="s">
+      <c r="I353" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J353" s="2" t="s">
+      <c r="J353" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="K353" s="2" t="s">
+      <c r="K353" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="L353" t="str">
+      <c r="L353" s="15" t="str">
         <f t="shared" si="11"/>
         <v>uEA5E-contact-card.svg</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M353" s="15"/>
+      <c r="N353" s="15"/>
+      <c r="O353" s="15"/>
+      <c r="P353" s="15"/>
+      <c r="Q353" s="15"/>
+      <c r="R353" s="15"/>
+      <c r="S353" s="15"/>
+      <c r="T353" s="15"/>
+      <c r="U353" s="15"/>
+      <c r="V353" s="15"/>
+      <c r="W353" s="15"/>
+      <c r="X353" s="15"/>
+      <c r="Y353" s="15"/>
+      <c r="Z353" s="15"/>
+      <c r="AA353" s="15"/>
+      <c r="AB353" s="15"/>
+      <c r="AC353" s="15"/>
+      <c r="AD353" s="15"/>
+      <c r="AE353" s="15"/>
+      <c r="AF353" s="15"/>
+      <c r="AG353" s="15"/>
+      <c r="AH353" s="15"/>
+      <c r="AI353" s="15"/>
+      <c r="AJ353" s="15"/>
+      <c r="AK353" s="15"/>
+      <c r="AL353" s="15"/>
+    </row>
+    <row r="354" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>352</v>
       </c>
@@ -27848,23 +27921,70 @@
         <v>uEA5F-.svg</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+    <row r="355" spans="1:38" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="C355" s="13" t="str">
+      <c r="C355" s="16" t="str">
         <f t="shared" si="10"/>
         <v>EA60</v>
       </c>
-      <c r="D355" s="13">
+      <c r="D355" s="16">
         <v>60000</v>
       </c>
-      <c r="L355" t="str">
+      <c r="E355" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F355" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="L355" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>uEA60-.svg</v>
-      </c>
-    </row>
-    <row r="356" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>uEA60-brand-vsts.svg</v>
+      </c>
+      <c r="M355" s="15"/>
+      <c r="N355" s="15"/>
+      <c r="O355" s="15"/>
+      <c r="P355" s="15"/>
+      <c r="Q355" s="15"/>
+      <c r="R355" s="15"/>
+      <c r="S355" s="15"/>
+      <c r="T355" s="15"/>
+      <c r="U355" s="15"/>
+      <c r="V355" s="15"/>
+      <c r="W355" s="15"/>
+      <c r="X355" s="15"/>
+      <c r="Y355" s="15"/>
+      <c r="Z355" s="15"/>
+      <c r="AA355" s="15"/>
+      <c r="AB355" s="15"/>
+      <c r="AC355" s="15"/>
+      <c r="AD355" s="15"/>
+      <c r="AE355" s="15"/>
+      <c r="AF355" s="15"/>
+      <c r="AG355" s="15"/>
+      <c r="AH355" s="15"/>
+      <c r="AI355" s="15"/>
+      <c r="AJ355" s="15"/>
+      <c r="AK355" s="15"/>
+      <c r="AL355" s="15"/>
+    </row>
+    <row r="356" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>354</v>
       </c>
@@ -27880,7 +28000,7 @@
         <v>uEA61-.svg</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>355</v>
       </c>
@@ -27896,7 +28016,7 @@
         <v>uEA62-.svg</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>356</v>
       </c>
@@ -27908,7 +28028,7 @@
         <v>60003</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>357</v>
       </c>
@@ -27920,7 +28040,7 @@
         <v>60004</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>358</v>
       </c>
@@ -27932,7 +28052,7 @@
         <v>60005</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>359</v>
       </c>
@@ -27944,7 +28064,7 @@
         <v>60006</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>360</v>
       </c>
@@ -27956,7 +28076,7 @@
         <v>60007</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>361</v>
       </c>
@@ -27968,7 +28088,7 @@
         <v>60008</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>362</v>
       </c>
@@ -27980,7 +28100,7 @@
         <v>60009</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>363</v>
       </c>
@@ -27992,7 +28112,7 @@
         <v>60010</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>364</v>
       </c>
@@ -28004,7 +28124,7 @@
         <v>60011</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>365</v>
       </c>
@@ -28016,7 +28136,7 @@
         <v>60012</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>366</v>
       </c>
@@ -28427,8 +28547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="O351" sqref="O351"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="L354" sqref="L354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44866,11 +44986,11 @@
         <v>Used in context menu for Auto fill template form command.</v>
       </c>
       <c r="K329" t="str">
-        <f t="shared" ref="K329:K362" si="12">IF(NOT(ISBLANK(A329)),CONCATENATE("{'",$A$1,"':",A329,",'",$B$1,"':'",B329,"',","'",$C$1,"':'",C329,"','",$D$1,"':",D329,",'",$E$1,"':'",FIXED(E329,1),"','",$F$1,"':'",F329,"','",$G$1,"':'",G329,"','",$H$1,"':'",H329,"','",$I$1,"':['",SUBSTITUTE(I329," ","','"),"'],'",$J$1,"':'",J329,"'}"))</f>
+        <f t="shared" ref="K329:K345" si="12">IF(NOT(ISBLANK(A329)),CONCATENATE("{'",$A$1,"':",A329,",'",$B$1,"':'",B329,"',","'",$C$1,"':'",C329,"','",$D$1,"':",D329,",'",$E$1,"':'",FIXED(E329,1),"','",$F$1,"':'",F329,"','",$G$1,"':'",G329,"','",$H$1,"':'",H329,"','",$I$1,"':['",SUBSTITUTE(I329," ","','"),"'],'",$J$1,"':'",J329,"'}"))</f>
         <v>{'id':328,'name':'auto-fill-template','unicode':'EA47','decimal':59975,'version':'1.0','style':'light','subset':'VSTS','group':'Work','keywords':['template','watermark','fill','box','form'],'usage':'Used in context menu for Auto fill template form command.'}</v>
       </c>
       <c r="L329" t="str">
-        <f t="shared" ref="L329:L362" si="13">SUBSTITUTE(K329,"'","""")</f>
+        <f t="shared" ref="L329:L345" si="13">SUBSTITUTE(K329,"'","""")</f>
         <v>{"id":328,"name":"auto-fill-template","unicode":"EA47","decimal":59975,"version":"1.0","style":"light","subset":"VSTS","group":"Work","keywords":["template","watermark","fill","box","form"],"usage":"Used in context menu for Auto fill template form command."}</v>
       </c>
     </row>
@@ -45714,11 +45834,11 @@
         <v>Used for a group of reusable build, deployment tasks.</v>
       </c>
       <c r="K346" t="str">
-        <f t="shared" ref="K346:K361" si="14">IF(NOT(ISBLANK(A346)),CONCATENATE("{'",$A$1,"':",A346,",'",$B$1,"':'",B346,"',","'",$C$1,"':'",C346,"','",$D$1,"':",D346,",'",$E$1,"':'",FIXED(E346,1),"','",$F$1,"':'",F346,"','",$G$1,"':'",G346,"','",$H$1,"':'",H346,"','",$I$1,"':['",SUBSTITUTE(I346," ","','"),"'],'",$J$1,"':'",J346,"'}"))</f>
+        <f t="shared" ref="K346:K352" si="14">IF(NOT(ISBLANK(A346)),CONCATENATE("{'",$A$1,"':",A346,",'",$B$1,"':'",B346,"',","'",$C$1,"':'",C346,"','",$D$1,"':",D346,",'",$E$1,"':'",FIXED(E346,1),"','",$F$1,"':'",F346,"','",$G$1,"':'",G346,"','",$H$1,"':'",H346,"','",$I$1,"':['",SUBSTITUTE(I346," ","','"),"'],'",$J$1,"':'",J346,"'}"))</f>
         <v>{'id':345,'name':'column-option','unicode':'EA58','decimal':59992,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['column','option','settings','gear'],'usage':'Used for a group of reusable build, deployment tasks.'}</v>
       </c>
       <c r="L346" t="str">
-        <f t="shared" ref="L346:L361" si="15">SUBSTITUTE(K346,"'","""")</f>
+        <f t="shared" ref="L346:L352" si="15">SUBSTITUTE(K346,"'","""")</f>
         <v>{"id":345,"name":"column-option","unicode":"EA58","decimal":59992,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["column","option","settings","gear"],"usage":"Used for a group of reusable build, deployment tasks."}</v>
       </c>
     </row>
@@ -46077,9 +46197,9 @@
         <f>'Bowtie v1.0 reorg'!A355</f>
         <v>353</v>
       </c>
-      <c r="B354">
+      <c r="B354" t="str">
         <f>'Bowtie v1.0 reorg'!E355</f>
-        <v>0</v>
+        <v>brand-vsts</v>
       </c>
       <c r="C354" t="str">
         <f>'Bowtie v1.0 reorg'!C355</f>
@@ -46089,37 +46209,37 @@
         <f>'Bowtie v1.0 reorg'!D355</f>
         <v>60000</v>
       </c>
-      <c r="E354" t="str">
+      <c r="E354">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F355),"",'Bowtie v1.0 reorg'!F355)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F354" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G355),"",'Bowtie v1.0 reorg'!G355)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G354" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I355),"",'Bowtie v1.0 reorg'!I355)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H354" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J355),"",'Bowtie v1.0 reorg'!J355)</f>
-        <v/>
+        <v>Brand</v>
       </c>
       <c r="I354" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H355),"",'Bowtie v1.0 reorg'!H355)</f>
-        <v/>
+        <v>vsts brand logo</v>
       </c>
       <c r="J354" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K355),"",'Bowtie v1.0 reorg'!K355)</f>
-        <v/>
-      </c>
-      <c r="K354" t="e">
+        <v>VSTS product icon.</v>
+      </c>
+      <c r="K354" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L354" t="e">
+        <v>{'id':353,'name':'brand-vsts','unicode':'EA60','decimal':60000,'version':'1.1','style':'bold','subset':'VSTS','group':'Brand','keywords':['vsts','brand','logo'],'usage':'VSTS product icon.'}</v>
+      </c>
+      <c r="L354" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":353,"name":"brand-vsts","unicode":"EA60","decimal":60000,"version":"1.1","style":"bold","subset":"VSTS","group":"Brand","keywords":["vsts","brand","logo"],"usage":"VSTS product icon."}</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="657">
   <si>
     <t>name</t>
   </si>
@@ -1699,12 +1699,6 @@
     <t>check if it is same as play-fill</t>
   </si>
   <si>
-    <t>check if it is same as record-fill</t>
-  </si>
-  <si>
-    <t>check if it is same as stop-fill</t>
-  </si>
-  <si>
     <t>used in context menu or toolbar for Delete command, matching Add command.</t>
   </si>
   <si>
@@ -1876,9 +1870,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Misc</t>
-  </si>
-  <si>
     <t>mtm microsoft test manager</t>
   </si>
   <si>
@@ -1991,6 +1982,15 @@
   </si>
   <si>
     <t>VSTS product icon.</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Used for stacking icons as background.</t>
   </si>
 </sst>
 </file>
@@ -15513,6 +15513,44 @@
         <a:xfrm>
           <a:off x="1143000" y="142208250"/>
           <a:ext cx="209579" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390554</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>314354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="354" name="Picture 353"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId353"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="141808200"/>
+          <a:ext cx="209579" cy="209579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15790,8 +15828,8 @@
   <dimension ref="A1:AL410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K356" sqref="K356"/>
+      <pane ySplit="2" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15959,7 +15997,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>187</v>
@@ -15996,7 +16034,7 @@
         <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>187</v>
@@ -16033,7 +16071,7 @@
         <v>15</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>187</v>
@@ -16070,7 +16108,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>187</v>
@@ -16107,7 +16145,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>186</v>
@@ -16145,7 +16183,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>188</v>
@@ -16207,7 +16245,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>186</v>
@@ -16244,7 +16282,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>185</v>
@@ -16275,13 +16313,13 @@
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
@@ -16309,13 +16347,13 @@
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
@@ -16350,7 +16388,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" t="str">
@@ -16411,7 +16449,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>168</v>
@@ -16449,7 +16487,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>169</v>
@@ -16477,13 +16515,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
@@ -16508,16 +16546,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
@@ -16542,16 +16580,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
@@ -16576,16 +16614,16 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
@@ -16619,7 +16657,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
@@ -16653,7 +16691,7 @@
         <v>15</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
@@ -16687,7 +16725,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>193</v>
@@ -16724,7 +16762,7 @@
         <v>15</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>193</v>
@@ -16761,7 +16799,7 @@
         <v>15</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>193</v>
@@ -16798,7 +16836,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>193</v>
@@ -16835,7 +16873,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>193</v>
@@ -16863,13 +16901,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
@@ -16903,7 +16941,7 @@
         <v>15</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>193</v>
@@ -16941,7 +16979,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>193</v>
@@ -17003,7 +17041,7 @@
         <v>15</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>194</v>
@@ -17040,7 +17078,7 @@
         <v>15</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>193</v>
@@ -17077,7 +17115,7 @@
         <v>15</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>195</v>
@@ -17114,7 +17152,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>196</v>
@@ -17152,7 +17190,7 @@
         <v>15</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>116</v>
@@ -17190,7 +17228,7 @@
         <v>15</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>121</v>
@@ -17224,7 +17262,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>224</v>
@@ -17286,7 +17324,7 @@
         <v>15</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>203</v>
@@ -17323,7 +17361,7 @@
         <v>15</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>204</v>
@@ -17360,7 +17398,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>205</v>
@@ -17397,7 +17435,7 @@
         <v>15</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>206</v>
@@ -17434,7 +17472,7 @@
         <v>15</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>207</v>
@@ -17471,7 +17509,7 @@
         <v>15</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>208</v>
@@ -17508,7 +17546,7 @@
         <v>15</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>209</v>
@@ -17545,7 +17583,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>210</v>
@@ -17577,7 +17615,7 @@
         <v>17</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>15</v>
@@ -17651,7 +17689,7 @@
         <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>15</v>
@@ -17691,7 +17729,7 @@
         <v>15</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="1"/>
@@ -17725,7 +17763,7 @@
         <v>15</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="1"/>
@@ -17759,7 +17797,7 @@
         <v>15</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="1"/>
@@ -17793,7 +17831,7 @@
         <v>15</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="1"/>
@@ -17827,7 +17865,7 @@
         <v>15</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="1"/>
@@ -17861,7 +17899,7 @@
         <v>15</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="1"/>
@@ -17895,7 +17933,7 @@
         <v>15</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="1"/>
@@ -17929,7 +17967,7 @@
         <v>15</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="1"/>
@@ -17963,7 +18001,7 @@
         <v>15</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>189</v>
@@ -18001,7 +18039,7 @@
         <v>15</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>190</v>
@@ -18039,7 +18077,7 @@
         <v>15</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>190</v>
@@ -18070,13 +18108,13 @@
         <v>17</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="1"/>
@@ -18110,7 +18148,7 @@
         <v>15</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>200</v>
@@ -18141,13 +18179,13 @@
         <v>17</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>198</v>
@@ -18184,7 +18222,7 @@
         <v>15</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>199</v>
@@ -18221,7 +18259,7 @@
         <v>15</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>202</v>
@@ -18258,7 +18296,7 @@
         <v>15</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>201</v>
@@ -18286,13 +18324,13 @@
         <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="1"/>
@@ -18326,7 +18364,7 @@
         <v>15</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>221</v>
@@ -18363,7 +18401,7 @@
         <v>15</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="1"/>
@@ -18397,7 +18435,7 @@
         <v>15</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" ref="L68:L131" si="3">CONCATENATE("u",C68,"-",E68,".svg")</f>
@@ -18431,7 +18469,7 @@
         <v>15</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L69" t="str">
         <f t="shared" si="3"/>
@@ -18465,7 +18503,7 @@
         <v>15</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="3"/>
@@ -18499,7 +18537,7 @@
         <v>15</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L71" t="str">
         <f t="shared" si="3"/>
@@ -18534,7 +18572,7 @@
         <v>15</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" t="str">
@@ -18588,13 +18626,13 @@
         <v>16</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L73" t="str">
         <f t="shared" si="3"/>
@@ -18622,13 +18660,13 @@
         <v>16</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L74" t="str">
         <f t="shared" si="3"/>
@@ -18662,7 +18700,7 @@
         <v>15</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L75" t="str">
         <f t="shared" si="3"/>
@@ -18696,7 +18734,7 @@
         <v>15</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L76" t="str">
         <f t="shared" si="3"/>
@@ -18730,7 +18768,7 @@
         <v>15</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L77" t="str">
         <f t="shared" si="3"/>
@@ -18764,7 +18802,7 @@
         <v>15</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L78" t="str">
         <f t="shared" si="3"/>
@@ -18798,7 +18836,7 @@
         <v>15</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L79" t="str">
         <f t="shared" si="3"/>
@@ -18832,7 +18870,7 @@
         <v>15</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L80" t="str">
         <f t="shared" si="3"/>
@@ -18866,7 +18904,7 @@
         <v>15</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L81" t="str">
         <f t="shared" si="3"/>
@@ -18901,10 +18939,10 @@
         <v>15</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L82" t="str">
         <f t="shared" si="3"/>
@@ -18964,7 +19002,7 @@
         <v>15</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>90</v>
@@ -19001,7 +19039,7 @@
         <v>15</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L84" t="str">
         <f t="shared" si="3"/>
@@ -19035,7 +19073,7 @@
         <v>15</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L85" t="str">
         <f t="shared" si="3"/>
@@ -19069,7 +19107,7 @@
         <v>15</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L86" t="str">
         <f t="shared" si="3"/>
@@ -19103,7 +19141,7 @@
         <v>15</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>191</v>
@@ -19140,7 +19178,7 @@
         <v>15</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L88" t="str">
         <f t="shared" si="3"/>
@@ -19168,7 +19206,7 @@
         <v>15</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L89" t="str">
         <f t="shared" si="3"/>
@@ -19196,7 +19234,7 @@
         <v>15</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L90" t="str">
         <f t="shared" si="3"/>
@@ -19224,7 +19262,7 @@
         <v>15</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L91" t="str">
         <f t="shared" si="3"/>
@@ -19258,7 +19296,7 @@
         <v>15</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L92" t="str">
         <f t="shared" si="3"/>
@@ -19292,7 +19330,7 @@
         <v>15</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L93" t="str">
         <f t="shared" si="3"/>
@@ -19326,7 +19364,7 @@
         <v>15</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L94" t="str">
         <f t="shared" si="3"/>
@@ -19360,7 +19398,7 @@
         <v>15</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L95" t="str">
         <f t="shared" si="3"/>
@@ -19395,7 +19433,7 @@
         <v>15</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" t="str">
@@ -19455,7 +19493,7 @@
         <v>15</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L97" t="str">
         <f t="shared" si="3"/>
@@ -19489,7 +19527,7 @@
         <v>15</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L98" t="str">
         <f t="shared" si="3"/>
@@ -19523,7 +19561,7 @@
         <v>15</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L99" t="str">
         <f t="shared" si="3"/>
@@ -19557,7 +19595,7 @@
         <v>15</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L100" t="str">
         <f t="shared" si="3"/>
@@ -19591,7 +19629,7 @@
         <v>15</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L101" t="str">
         <f t="shared" si="3"/>
@@ -19625,7 +19663,7 @@
         <v>15</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>124</v>
@@ -19662,7 +19700,7 @@
         <v>15</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>123</v>
@@ -19699,7 +19737,7 @@
         <v>15</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L104" t="str">
         <f t="shared" si="3"/>
@@ -19733,7 +19771,7 @@
         <v>15</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L105" t="str">
         <f t="shared" si="3"/>
@@ -19767,7 +19805,7 @@
         <v>15</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L106" t="str">
         <f t="shared" si="3"/>
@@ -19801,7 +19839,7 @@
         <v>15</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L107" t="str">
         <f t="shared" si="3"/>
@@ -19835,7 +19873,7 @@
         <v>15</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L108" t="str">
         <f t="shared" si="3"/>
@@ -19869,7 +19907,7 @@
         <v>15</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L109" t="str">
         <f t="shared" si="3"/>
@@ -19903,7 +19941,7 @@
         <v>15</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L110" t="str">
         <f t="shared" si="3"/>
@@ -19937,7 +19975,7 @@
         <v>15</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L111" t="str">
         <f t="shared" si="3"/>
@@ -19971,7 +20009,7 @@
         <v>15</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L112" t="str">
         <f t="shared" si="3"/>
@@ -20005,7 +20043,7 @@
         <v>15</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L113" t="str">
         <f t="shared" si="3"/>
@@ -20039,7 +20077,7 @@
         <v>15</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L114" t="str">
         <f t="shared" si="3"/>
@@ -20074,7 +20112,7 @@
         <v>15</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K115" s="2"/>
       <c r="L115" t="str">
@@ -20134,7 +20172,7 @@
         <v>15</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L116" t="str">
         <f t="shared" si="3"/>
@@ -20168,7 +20206,7 @@
         <v>15</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L117" t="str">
         <f t="shared" si="3"/>
@@ -20202,7 +20240,7 @@
         <v>15</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L118" t="str">
         <f t="shared" si="3"/>
@@ -20236,7 +20274,7 @@
         <v>15</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L119" t="str">
         <f t="shared" si="3"/>
@@ -20270,7 +20308,7 @@
         <v>15</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L120" t="str">
         <f t="shared" si="3"/>
@@ -20305,7 +20343,7 @@
         <v>15</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>133</v>
@@ -20342,7 +20380,7 @@
         <v>15</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>556</v>
@@ -20379,7 +20417,7 @@
         <v>15</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>211</v>
@@ -20416,7 +20454,7 @@
         <v>15</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L124" t="str">
         <f t="shared" si="3"/>
@@ -20450,7 +20488,7 @@
         <v>15</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L125" t="str">
         <f t="shared" si="3"/>
@@ -20518,7 +20556,7 @@
         <v>15</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L127" t="str">
         <f t="shared" si="3"/>
@@ -20552,7 +20590,7 @@
         <v>15</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L128" t="str">
         <f t="shared" si="3"/>
@@ -20586,7 +20624,7 @@
         <v>15</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L129" t="str">
         <f t="shared" si="3"/>
@@ -20614,7 +20652,7 @@
         <v>15</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L130" t="str">
         <f t="shared" si="3"/>
@@ -20648,7 +20686,7 @@
         <v>15</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L131" t="str">
         <f t="shared" si="3"/>
@@ -20676,7 +20714,7 @@
         <v>15</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L132" t="str">
         <f t="shared" ref="L132:L195" si="5">CONCATENATE("u",C132,"-",E132,".svg")</f>
@@ -20710,7 +20748,7 @@
         <v>15</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L133" t="str">
         <f t="shared" si="5"/>
@@ -20738,7 +20776,7 @@
         <v>15</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L134" t="str">
         <f t="shared" si="5"/>
@@ -20766,7 +20804,7 @@
         <v>15</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L135" t="str">
         <f t="shared" si="5"/>
@@ -20794,7 +20832,7 @@
         <v>15</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L136" t="str">
         <f t="shared" si="5"/>
@@ -20828,7 +20866,7 @@
         <v>15</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L137" t="str">
         <f t="shared" si="5"/>
@@ -20862,7 +20900,7 @@
         <v>15</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L138" t="str">
         <f t="shared" si="5"/>
@@ -20896,7 +20934,7 @@
         <v>15</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L139" t="str">
         <f t="shared" si="5"/>
@@ -20930,7 +20968,7 @@
         <v>15</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L140" t="str">
         <f t="shared" si="5"/>
@@ -20965,7 +21003,7 @@
         <v>15</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K141" s="2"/>
       <c r="L141" t="str">
@@ -21025,7 +21063,7 @@
         <v>15</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L142" t="str">
         <f t="shared" si="5"/>
@@ -21059,7 +21097,7 @@
         <v>15</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L143" t="str">
         <f t="shared" si="5"/>
@@ -21094,7 +21132,7 @@
         <v>15</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" t="str">
@@ -21155,7 +21193,7 @@
         <v>15</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K145" s="2"/>
       <c r="L145" t="str">
@@ -21215,7 +21253,7 @@
         <v>15</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L146" t="str">
         <f t="shared" si="5"/>
@@ -21246,7 +21284,7 @@
         <v>15</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L147" t="str">
         <f t="shared" si="5"/>
@@ -21280,7 +21318,7 @@
         <v>15</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L148" t="str">
         <f t="shared" si="5"/>
@@ -21308,7 +21346,7 @@
         <v>15</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L149" t="str">
         <f t="shared" si="5"/>
@@ -21342,7 +21380,7 @@
         <v>15</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L150" t="str">
         <f t="shared" si="5"/>
@@ -21376,7 +21414,7 @@
         <v>15</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L151" t="str">
         <f t="shared" si="5"/>
@@ -21410,7 +21448,7 @@
         <v>15</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L152" t="str">
         <f t="shared" si="5"/>
@@ -21438,7 +21476,7 @@
         <v>15</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L153" t="str">
         <f t="shared" si="5"/>
@@ -21466,7 +21504,7 @@
         <v>15</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L154" t="str">
         <f t="shared" si="5"/>
@@ -21494,7 +21532,7 @@
         <v>15</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L155" t="str">
         <f t="shared" si="5"/>
@@ -21522,7 +21560,7 @@
         <v>15</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L156" t="str">
         <f t="shared" si="5"/>
@@ -21550,7 +21588,7 @@
         <v>15</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L157" t="str">
         <f t="shared" si="5"/>
@@ -21578,7 +21616,7 @@
         <v>15</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L158" t="str">
         <f t="shared" si="5"/>
@@ -21606,7 +21644,7 @@
         <v>15</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L159" t="str">
         <f t="shared" si="5"/>
@@ -21634,7 +21672,7 @@
         <v>15</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L160" t="str">
         <f t="shared" si="5"/>
@@ -21662,7 +21700,7 @@
         <v>15</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L161" t="str">
         <f t="shared" si="5"/>
@@ -21696,7 +21734,7 @@
         <v>15</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>226</v>
@@ -21733,7 +21771,7 @@
         <v>15</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>213</v>
@@ -21770,7 +21808,7 @@
         <v>15</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>212</v>
@@ -21807,7 +21845,7 @@
         <v>15</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>217</v>
@@ -21844,7 +21882,7 @@
         <v>15</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>217</v>
@@ -21881,7 +21919,7 @@
         <v>15</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>217</v>
@@ -21918,7 +21956,7 @@
         <v>15</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>217</v>
@@ -21955,7 +21993,7 @@
         <v>15</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>219</v>
@@ -21992,7 +22030,7 @@
         <v>15</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>218</v>
@@ -22029,7 +22067,7 @@
         <v>15</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>216</v>
@@ -22066,7 +22104,7 @@
         <v>15</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>218</v>
@@ -22097,7 +22135,7 @@
         <v>15</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L173" t="str">
         <f t="shared" si="5"/>
@@ -22125,7 +22163,7 @@
         <v>15</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L174" t="str">
         <f t="shared" si="5"/>
@@ -22153,7 +22191,7 @@
         <v>15</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L175" t="str">
         <f t="shared" si="5"/>
@@ -22181,7 +22219,7 @@
         <v>15</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L176" t="str">
         <f t="shared" si="5"/>
@@ -22209,7 +22247,7 @@
         <v>15</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L177" t="str">
         <f t="shared" si="5"/>
@@ -22237,7 +22275,7 @@
         <v>15</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L178" t="str">
         <f t="shared" si="5"/>
@@ -22265,7 +22303,7 @@
         <v>15</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L179" t="str">
         <f t="shared" si="5"/>
@@ -22293,7 +22331,7 @@
         <v>15</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L180" t="str">
         <f t="shared" si="5"/>
@@ -22327,7 +22365,7 @@
         <v>15</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L181" t="str">
         <f t="shared" si="5"/>
@@ -22361,7 +22399,7 @@
         <v>15</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L182" t="str">
         <f t="shared" si="5"/>
@@ -22395,7 +22433,7 @@
         <v>15</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L183" t="str">
         <f t="shared" si="5"/>
@@ -22429,7 +22467,7 @@
         <v>15</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L184" t="str">
         <f t="shared" si="5"/>
@@ -22463,7 +22501,7 @@
         <v>15</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L185" t="str">
         <f t="shared" si="5"/>
@@ -22497,7 +22535,7 @@
         <v>15</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L186" t="str">
         <f t="shared" si="5"/>
@@ -22531,7 +22569,7 @@
         <v>15</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L187" t="str">
         <f t="shared" si="5"/>
@@ -22565,7 +22603,7 @@
         <v>15</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L188" t="str">
         <f t="shared" si="5"/>
@@ -22599,7 +22637,7 @@
         <v>15</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L189" t="str">
         <f t="shared" si="5"/>
@@ -22633,7 +22671,7 @@
         <v>15</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L190" t="str">
         <f t="shared" si="5"/>
@@ -22667,7 +22705,7 @@
         <v>15</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L191" t="str">
         <f t="shared" si="5"/>
@@ -22701,7 +22739,7 @@
         <v>15</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L192" t="str">
         <f t="shared" si="5"/>
@@ -22736,7 +22774,7 @@
         <v>15</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K193" s="2"/>
       <c r="L193" t="str">
@@ -22797,7 +22835,7 @@
         <v>15</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K194" s="2"/>
       <c r="L194" t="str">
@@ -22857,7 +22895,7 @@
         <v>15</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L195" t="str">
         <f t="shared" si="5"/>
@@ -22888,7 +22926,7 @@
         <v>15</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" t="str">
@@ -22948,7 +22986,7 @@
         <v>15</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L197" t="str">
         <f t="shared" si="7"/>
@@ -22976,7 +23014,7 @@
         <v>15</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L198" t="str">
         <f t="shared" si="7"/>
@@ -23004,7 +23042,7 @@
         <v>15</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L199" t="str">
         <f t="shared" si="7"/>
@@ -23032,7 +23070,7 @@
         <v>15</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L200" t="str">
         <f t="shared" si="7"/>
@@ -23060,7 +23098,7 @@
         <v>15</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L201" t="str">
         <f t="shared" si="7"/>
@@ -23088,7 +23126,7 @@
         <v>15</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L202" t="str">
         <f t="shared" si="7"/>
@@ -23116,7 +23154,7 @@
         <v>15</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L203" t="str">
         <f t="shared" si="7"/>
@@ -23144,7 +23182,7 @@
         <v>15</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L204" t="str">
         <f t="shared" si="7"/>
@@ -23172,7 +23210,7 @@
         <v>15</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L205" t="str">
         <f t="shared" si="7"/>
@@ -23200,7 +23238,7 @@
         <v>15</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L206" t="str">
         <f t="shared" si="7"/>
@@ -23228,7 +23266,7 @@
         <v>15</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L207" t="str">
         <f t="shared" si="7"/>
@@ -23256,7 +23294,7 @@
         <v>15</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L208" t="str">
         <f t="shared" si="7"/>
@@ -23284,7 +23322,7 @@
         <v>15</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L209" t="str">
         <f t="shared" si="7"/>
@@ -23312,7 +23350,7 @@
         <v>15</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L210" t="str">
         <f t="shared" si="7"/>
@@ -23346,7 +23384,7 @@
         <v>15</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L211" t="str">
         <f t="shared" si="7"/>
@@ -23374,7 +23412,7 @@
         <v>15</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="L212" t="str">
         <f t="shared" si="7"/>
@@ -23402,7 +23440,7 @@
         <v>15</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L213" t="str">
         <f t="shared" si="7"/>
@@ -23436,7 +23474,7 @@
         <v>15</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L214" t="str">
         <f t="shared" si="7"/>
@@ -23470,7 +23508,7 @@
         <v>15</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L215" t="str">
         <f t="shared" si="7"/>
@@ -23504,7 +23542,7 @@
         <v>15</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L216" t="str">
         <f t="shared" si="7"/>
@@ -23538,7 +23576,7 @@
         <v>15</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L217" t="str">
         <f t="shared" si="7"/>
@@ -23572,7 +23610,7 @@
         <v>15</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L218" t="str">
         <f t="shared" si="7"/>
@@ -23606,7 +23644,7 @@
         <v>15</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L219" t="str">
         <f t="shared" si="7"/>
@@ -23640,7 +23678,7 @@
         <v>15</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L220" t="str">
         <f t="shared" si="7"/>
@@ -23674,7 +23712,7 @@
         <v>15</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L221" t="str">
         <f t="shared" si="7"/>
@@ -23708,7 +23746,7 @@
         <v>15</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L222" t="str">
         <f t="shared" si="7"/>
@@ -23742,7 +23780,7 @@
         <v>15</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L223" t="str">
         <f t="shared" si="7"/>
@@ -23776,7 +23814,7 @@
         <v>15</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L224" t="str">
         <f t="shared" si="7"/>
@@ -23804,7 +23842,7 @@
         <v>15</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L225" t="str">
         <f t="shared" si="7"/>
@@ -23838,7 +23876,7 @@
         <v>15</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L226" t="str">
         <f t="shared" si="7"/>
@@ -23872,7 +23910,7 @@
         <v>15</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L227" t="str">
         <f t="shared" si="7"/>
@@ -23906,7 +23944,7 @@
         <v>15</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L228" t="str">
         <f t="shared" si="7"/>
@@ -23940,7 +23978,7 @@
         <v>15</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L229" t="str">
         <f t="shared" si="7"/>
@@ -23974,7 +24012,7 @@
         <v>15</v>
       </c>
       <c r="J230" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L230" t="str">
         <f t="shared" si="7"/>
@@ -24008,7 +24046,7 @@
         <v>15</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L231" t="str">
         <f t="shared" si="7"/>
@@ -24043,7 +24081,7 @@
         <v>15</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K232" s="4" t="s">
         <v>557</v>
@@ -24081,7 +24119,7 @@
         <v>15</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K233" s="4" t="s">
         <v>558</v>
@@ -24112,7 +24150,7 @@
         <v>15</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L234" t="str">
         <f t="shared" si="7"/>
@@ -24140,7 +24178,7 @@
         <v>15</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L235" t="str">
         <f t="shared" si="7"/>
@@ -24168,7 +24206,7 @@
         <v>15</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L236" t="str">
         <f t="shared" si="7"/>
@@ -24196,7 +24234,7 @@
         <v>15</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L237" t="str">
         <f t="shared" si="7"/>
@@ -24224,7 +24262,7 @@
         <v>15</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L238" t="str">
         <f t="shared" si="7"/>
@@ -24252,7 +24290,7 @@
         <v>15</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L239" t="str">
         <f t="shared" si="7"/>
@@ -24280,7 +24318,7 @@
         <v>15</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L240" t="str">
         <f t="shared" si="7"/>
@@ -24308,7 +24346,7 @@
         <v>15</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L241" t="str">
         <f t="shared" si="7"/>
@@ -24336,7 +24374,7 @@
         <v>15</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L242" t="str">
         <f t="shared" si="7"/>
@@ -24364,7 +24402,7 @@
         <v>15</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L243" t="str">
         <f t="shared" si="7"/>
@@ -24392,7 +24430,7 @@
         <v>15</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L244" t="str">
         <f t="shared" si="7"/>
@@ -24420,7 +24458,7 @@
         <v>15</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L245" t="str">
         <f t="shared" si="7"/>
@@ -24448,7 +24486,7 @@
         <v>15</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L246" t="str">
         <f t="shared" si="7"/>
@@ -24476,7 +24514,7 @@
         <v>15</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L247" t="str">
         <f t="shared" si="7"/>
@@ -24504,7 +24542,7 @@
         <v>15</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L248" t="str">
         <f t="shared" si="7"/>
@@ -24532,7 +24570,7 @@
         <v>15</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L249" t="str">
         <f t="shared" si="7"/>
@@ -24560,7 +24598,7 @@
         <v>15</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L250" t="str">
         <f t="shared" si="7"/>
@@ -24588,7 +24626,7 @@
         <v>15</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L251" t="str">
         <f t="shared" si="7"/>
@@ -24622,7 +24660,7 @@
         <v>15</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L252" t="str">
         <f t="shared" si="7"/>
@@ -24656,7 +24694,7 @@
         <v>15</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K253" s="2" t="s">
         <v>136</v>
@@ -24693,7 +24731,7 @@
         <v>15</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L254" t="str">
         <f t="shared" si="7"/>
@@ -24727,7 +24765,7 @@
         <v>15</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L255" t="str">
         <f t="shared" si="7"/>
@@ -24761,7 +24799,7 @@
         <v>15</v>
       </c>
       <c r="J256" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L256" t="str">
         <f t="shared" si="7"/>
@@ -24795,7 +24833,7 @@
         <v>15</v>
       </c>
       <c r="J257" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L257" t="str">
         <f t="shared" si="7"/>
@@ -24829,7 +24867,7 @@
         <v>15</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L258" t="str">
         <f t="shared" si="7"/>
@@ -24863,7 +24901,7 @@
         <v>15</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L259" t="str">
         <f t="shared" si="7"/>
@@ -24897,7 +24935,7 @@
         <v>15</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K260" s="4" t="s">
         <v>133</v>
@@ -24959,7 +24997,7 @@
         <v>15</v>
       </c>
       <c r="J261" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L261" t="str">
         <f t="shared" si="9"/>
@@ -24993,7 +25031,7 @@
         <v>15</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L262" t="str">
         <f t="shared" si="9"/>
@@ -25027,7 +25065,7 @@
         <v>15</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L263" t="str">
         <f t="shared" si="9"/>
@@ -25061,7 +25099,7 @@
         <v>15</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L264" t="str">
         <f t="shared" si="9"/>
@@ -25092,7 +25130,7 @@
         <v>15</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L265" t="str">
         <f t="shared" si="9"/>
@@ -25123,7 +25161,7 @@
         <v>15</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L266" t="str">
         <f t="shared" si="9"/>
@@ -25154,7 +25192,7 @@
         <v>15</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L267" t="str">
         <f t="shared" si="9"/>
@@ -25185,7 +25223,7 @@
         <v>15</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L268" t="str">
         <f t="shared" si="9"/>
@@ -25213,7 +25251,7 @@
         <v>15</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L269" t="str">
         <f t="shared" si="9"/>
@@ -25241,7 +25279,7 @@
         <v>15</v>
       </c>
       <c r="J270" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L270" t="str">
         <f t="shared" si="9"/>
@@ -25269,7 +25307,7 @@
         <v>15</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L271" t="str">
         <f t="shared" si="9"/>
@@ -25297,7 +25335,7 @@
         <v>15</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L272" t="str">
         <f t="shared" si="9"/>
@@ -25325,7 +25363,7 @@
         <v>15</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L273" t="str">
         <f t="shared" si="9"/>
@@ -25353,7 +25391,7 @@
         <v>15</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L274" t="str">
         <f t="shared" si="9"/>
@@ -25381,7 +25419,7 @@
         <v>15</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L275" t="str">
         <f t="shared" si="9"/>
@@ -25409,7 +25447,7 @@
         <v>15</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L276" t="str">
         <f t="shared" si="9"/>
@@ -25437,7 +25475,7 @@
         <v>15</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L277" t="str">
         <f t="shared" si="9"/>
@@ -25465,7 +25503,7 @@
         <v>15</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L278" t="str">
         <f t="shared" si="9"/>
@@ -25493,7 +25531,7 @@
         <v>15</v>
       </c>
       <c r="J279" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L279" t="str">
         <f t="shared" si="9"/>
@@ -25521,7 +25559,7 @@
         <v>15</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L280" t="str">
         <f t="shared" si="9"/>
@@ -25549,7 +25587,7 @@
         <v>15</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L281" t="str">
         <f t="shared" si="9"/>
@@ -25577,7 +25615,7 @@
         <v>15</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L282" t="str">
         <f t="shared" si="9"/>
@@ -25605,7 +25643,7 @@
         <v>15</v>
       </c>
       <c r="J283" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L283" t="str">
         <f t="shared" si="9"/>
@@ -25633,7 +25671,7 @@
         <v>15</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L284" t="str">
         <f t="shared" si="9"/>
@@ -25661,7 +25699,7 @@
         <v>15</v>
       </c>
       <c r="J285" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L285" t="str">
         <f t="shared" si="9"/>
@@ -25689,7 +25727,7 @@
         <v>15</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L286" t="str">
         <f t="shared" si="9"/>
@@ -25717,7 +25755,7 @@
         <v>15</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L287" t="str">
         <f t="shared" si="9"/>
@@ -25745,7 +25783,7 @@
         <v>15</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L288" t="str">
         <f t="shared" si="9"/>
@@ -25773,7 +25811,7 @@
         <v>15</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L289" t="str">
         <f t="shared" si="9"/>
@@ -25801,7 +25839,7 @@
         <v>15</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L290" t="str">
         <f t="shared" si="9"/>
@@ -25829,7 +25867,7 @@
         <v>15</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L291" t="str">
         <f t="shared" si="9"/>
@@ -25857,7 +25895,7 @@
         <v>15</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L292" t="str">
         <f t="shared" si="9"/>
@@ -25885,7 +25923,7 @@
         <v>15</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L293" t="str">
         <f t="shared" si="9"/>
@@ -25913,7 +25951,7 @@
         <v>15</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L294" t="str">
         <f t="shared" si="9"/>
@@ -25941,7 +25979,7 @@
         <v>15</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L295" t="str">
         <f t="shared" si="9"/>
@@ -25969,7 +26007,7 @@
         <v>15</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L296" t="str">
         <f t="shared" si="9"/>
@@ -25997,7 +26035,7 @@
         <v>15</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L297" t="str">
         <f t="shared" si="9"/>
@@ -26025,7 +26063,7 @@
         <v>15</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L298" t="str">
         <f t="shared" si="9"/>
@@ -26053,7 +26091,7 @@
         <v>15</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L299" t="str">
         <f t="shared" si="9"/>
@@ -26087,7 +26125,7 @@
         <v>15</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L300" t="str">
         <f t="shared" si="9"/>
@@ -26121,7 +26159,7 @@
         <v>15</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L301" t="str">
         <f t="shared" si="9"/>
@@ -26155,7 +26193,7 @@
         <v>15</v>
       </c>
       <c r="J302" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L302" t="str">
         <f t="shared" si="9"/>
@@ -26189,7 +26227,7 @@
         <v>15</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L303" t="str">
         <f t="shared" si="9"/>
@@ -26223,7 +26261,7 @@
         <v>15</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L304" t="str">
         <f t="shared" si="9"/>
@@ -26257,7 +26295,7 @@
         <v>15</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L305" t="str">
         <f t="shared" si="9"/>
@@ -26291,7 +26329,7 @@
         <v>15</v>
       </c>
       <c r="J306" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L306" t="str">
         <f t="shared" si="9"/>
@@ -26325,7 +26363,7 @@
         <v>15</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L307" t="str">
         <f t="shared" si="9"/>
@@ -26353,7 +26391,7 @@
         <v>15</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L308" t="str">
         <f t="shared" si="9"/>
@@ -26387,7 +26425,7 @@
         <v>15</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L309" t="str">
         <f t="shared" si="9"/>
@@ -26415,7 +26453,7 @@
         <v>15</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L310" t="str">
         <f t="shared" si="9"/>
@@ -26449,7 +26487,7 @@
         <v>15</v>
       </c>
       <c r="J311" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L311" t="str">
         <f t="shared" si="9"/>
@@ -26477,7 +26515,7 @@
         <v>15</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L312" t="str">
         <f t="shared" si="9"/>
@@ -26505,7 +26543,7 @@
         <v>15</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L313" t="str">
         <f t="shared" si="9"/>
@@ -26533,7 +26571,7 @@
         <v>15</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L314" t="str">
         <f t="shared" si="9"/>
@@ -26561,7 +26599,7 @@
         <v>15</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L315" t="str">
         <f t="shared" si="9"/>
@@ -26589,7 +26627,7 @@
         <v>15</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L316" t="str">
         <f t="shared" si="9"/>
@@ -26617,7 +26655,7 @@
         <v>15</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L317" t="str">
         <f t="shared" si="9"/>
@@ -26645,7 +26683,7 @@
         <v>15</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L318" t="str">
         <f t="shared" si="9"/>
@@ -26673,7 +26711,7 @@
         <v>15</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L319" t="str">
         <f t="shared" si="9"/>
@@ -26701,7 +26739,7 @@
         <v>15</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L320" t="str">
         <f t="shared" si="9"/>
@@ -26735,7 +26773,7 @@
         <v>15</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L321" t="str">
         <f t="shared" si="9"/>
@@ -26763,7 +26801,7 @@
         <v>15</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L322" t="str">
         <f t="shared" si="9"/>
@@ -26791,7 +26829,7 @@
         <v>15</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L323" t="str">
         <f t="shared" si="9"/>
@@ -26819,7 +26857,7 @@
         <v>15</v>
       </c>
       <c r="J324" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L324" t="str">
         <f t="shared" ref="L324:L357" si="11">CONCATENATE("u",C324,"-",E324,".svg")</f>
@@ -26847,7 +26885,7 @@
         <v>15</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L325" t="str">
         <f t="shared" si="11"/>
@@ -26875,7 +26913,7 @@
         <v>15</v>
       </c>
       <c r="J326" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L326" t="str">
         <f t="shared" si="11"/>
@@ -26903,7 +26941,7 @@
         <v>15</v>
       </c>
       <c r="J327" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L327" t="str">
         <f t="shared" si="11"/>
@@ -26931,7 +26969,7 @@
         <v>15</v>
       </c>
       <c r="J328" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L328" t="str">
         <f t="shared" si="11"/>
@@ -26959,7 +26997,7 @@
         <v>15</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L329" t="str">
         <f t="shared" si="11"/>
@@ -26993,7 +27031,7 @@
         <v>15</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K330" s="2" t="s">
         <v>192</v>
@@ -27030,7 +27068,7 @@
         <v>15</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L331" t="str">
         <f t="shared" si="11"/>
@@ -27065,10 +27103,10 @@
         <v>15</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="K332" s="4" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="L332" t="str">
         <f t="shared" si="11"/>
@@ -27103,10 +27141,10 @@
         <v>15</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="K333" s="4" t="s">
-        <v>560</v>
+        <v>656</v>
       </c>
       <c r="L333" t="str">
         <f t="shared" si="11"/>
@@ -27125,7 +27163,7 @@
         <v>59979</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F334" s="3">
         <v>1.1000000000000001</v>
@@ -27134,16 +27172,16 @@
         <v>17</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I334" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L334" t="str">
         <f t="shared" si="11"/>
@@ -27162,7 +27200,7 @@
         <v>59980</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F335" s="3">
         <v>1.1000000000000001</v>
@@ -27171,16 +27209,16 @@
         <v>17</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L335" t="str">
         <f t="shared" si="11"/>
@@ -27199,7 +27237,7 @@
         <v>59981</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F336" s="3">
         <v>1.1000000000000001</v>
@@ -27208,16 +27246,16 @@
         <v>17</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J336" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L336" t="str">
         <f t="shared" si="11"/>
@@ -27236,7 +27274,7 @@
         <v>59982</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F337" s="3">
         <v>1.1000000000000001</v>
@@ -27245,16 +27283,16 @@
         <v>17</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I337" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L337" t="str">
         <f t="shared" si="11"/>
@@ -27273,7 +27311,7 @@
         <v>59983</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F338" s="3">
         <v>1.1000000000000001</v>
@@ -27282,16 +27320,16 @@
         <v>17</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I338" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K338" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L338" t="str">
         <f t="shared" si="11"/>
@@ -27310,7 +27348,7 @@
         <v>59984</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F339" s="17">
         <v>1.1000000000000001</v>
@@ -27319,16 +27357,16 @@
         <v>16</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J339" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L339" s="15" t="str">
         <f>CONCATENATE("u",C339,"-",E339,".svg")</f>
@@ -27373,7 +27411,7 @@
         <v>59985</v>
       </c>
       <c r="E340" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F340">
         <v>1.1000000000000001</v>
@@ -27382,16 +27420,16 @@
         <v>17</v>
       </c>
       <c r="H340" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I340" t="s">
         <v>15</v>
       </c>
       <c r="J340" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K340" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L340" t="str">
         <f t="shared" si="11"/>
@@ -27410,7 +27448,7 @@
         <v>59986</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F341" s="3">
         <v>1.1000000000000001</v>
@@ -27419,16 +27457,16 @@
         <v>17</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I341" t="s">
         <v>15</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L341" t="str">
         <f t="shared" si="11"/>
@@ -27447,7 +27485,7 @@
         <v>59987</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F342">
         <v>1.1000000000000001</v>
@@ -27456,16 +27494,16 @@
         <v>16</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I342" t="s">
         <v>15</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L342" t="str">
         <f t="shared" si="11"/>
@@ -27484,7 +27522,7 @@
         <v>59988</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F343" s="3">
         <v>1.1000000000000001</v>
@@ -27493,16 +27531,16 @@
         <v>16</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I343" t="s">
         <v>15</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L343" t="str">
         <f t="shared" si="11"/>
@@ -27521,7 +27559,7 @@
         <v>59989</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F344">
         <v>1.1000000000000001</v>
@@ -27530,16 +27568,16 @@
         <v>16</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I344" t="s">
         <v>15</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L344" t="str">
         <f t="shared" si="11"/>
@@ -27558,7 +27596,7 @@
         <v>59990</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F345" s="3">
         <v>1.1000000000000001</v>
@@ -27567,16 +27605,16 @@
         <v>17</v>
       </c>
       <c r="H345" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I345" t="s">
         <v>15</v>
       </c>
       <c r="J345" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L345" t="str">
         <f t="shared" si="11"/>
@@ -27595,7 +27633,7 @@
         <v>59991</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F346" s="3">
         <v>1.1000000000000001</v>
@@ -27604,16 +27642,16 @@
         <v>17</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I346" t="s">
         <v>15</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="L346" t="str">
         <f t="shared" si="11"/>
@@ -27632,7 +27670,7 @@
         <v>59992</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F347" s="3">
         <v>1.1000000000000001</v>
@@ -27641,16 +27679,16 @@
         <v>17</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I347" t="s">
         <v>15</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L347" t="str">
         <f t="shared" si="11"/>
@@ -27669,7 +27707,7 @@
         <v>59993</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F348" s="3">
         <v>1.1000000000000001</v>
@@ -27678,16 +27716,16 @@
         <v>17</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I348" t="s">
         <v>15</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="L348" t="str">
         <f t="shared" si="11"/>
@@ -27706,7 +27744,7 @@
         <v>59994</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F349" s="3">
         <v>1.1000000000000001</v>
@@ -27715,16 +27753,16 @@
         <v>17</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I349" t="s">
         <v>15</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="L349" t="str">
         <f t="shared" si="11"/>
@@ -27743,7 +27781,7 @@
         <v>59995</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F350" s="3">
         <v>1.1000000000000001</v>
@@ -27752,16 +27790,16 @@
         <v>17</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I350" t="s">
         <v>15</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="L350" t="str">
         <f t="shared" si="11"/>
@@ -27780,7 +27818,7 @@
         <v>59996</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F351" s="3">
         <v>1.1000000000000001</v>
@@ -27789,16 +27827,16 @@
         <v>17</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="I351" t="s">
         <v>15</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L351" t="str">
         <f t="shared" si="11"/>
@@ -27817,7 +27855,7 @@
         <v>59997</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F352" s="3">
         <v>1.1000000000000001</v>
@@ -27826,163 +27864,158 @@
         <v>17</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="I352" t="s">
         <v>15</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="L352" t="str">
         <f t="shared" si="11"/>
         <v>uEA5D-feedback-negative-outline.svg</v>
       </c>
     </row>
-    <row r="353" spans="1:38" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
+    <row r="353" spans="1:38" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353">
         <v>351</v>
       </c>
-      <c r="C353" s="16" t="str">
+      <c r="C353" t="str">
         <f t="shared" si="10"/>
         <v>EA5E</v>
       </c>
-      <c r="D353" s="16">
+      <c r="D353">
         <v>59998</v>
       </c>
-      <c r="E353" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F353" s="17">
+      <c r="E353" t="s">
+        <v>648</v>
+      </c>
+      <c r="F353">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G353" s="1" t="s">
+      <c r="G353" t="s">
         <v>17</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I353" s="1" t="s">
+      <c r="H353" t="s">
+        <v>649</v>
+      </c>
+      <c r="I353" t="s">
         <v>15</v>
       </c>
-      <c r="J353" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K353" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="L353" s="15" t="str">
+      <c r="J353" t="s">
+        <v>599</v>
+      </c>
+      <c r="K353" t="s">
+        <v>650</v>
+      </c>
+      <c r="L353" t="str">
         <f t="shared" si="11"/>
         <v>uEA5E-contact-card.svg</v>
       </c>
-      <c r="M353" s="15"/>
-      <c r="N353" s="15"/>
-      <c r="O353" s="15"/>
-      <c r="P353" s="15"/>
-      <c r="Q353" s="15"/>
-      <c r="R353" s="15"/>
-      <c r="S353" s="15"/>
-      <c r="T353" s="15"/>
-      <c r="U353" s="15"/>
-      <c r="V353" s="15"/>
-      <c r="W353" s="15"/>
-      <c r="X353" s="15"/>
-      <c r="Y353" s="15"/>
-      <c r="Z353" s="15"/>
-      <c r="AA353" s="15"/>
-      <c r="AB353" s="15"/>
-      <c r="AC353" s="15"/>
-      <c r="AD353" s="15"/>
-      <c r="AE353" s="15"/>
-      <c r="AF353" s="15"/>
-      <c r="AG353" s="15"/>
-      <c r="AH353" s="15"/>
-      <c r="AI353" s="15"/>
-      <c r="AJ353" s="15"/>
-      <c r="AK353" s="15"/>
-      <c r="AL353" s="15"/>
-    </row>
-    <row r="354" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+    </row>
+    <row r="354" spans="1:38" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="C354" s="13" t="str">
+      <c r="C354" s="16" t="str">
         <f t="shared" si="10"/>
         <v>EA5F</v>
       </c>
-      <c r="D354" s="13">
+      <c r="D354" s="16">
         <v>59999</v>
       </c>
-      <c r="L354" t="str">
+      <c r="E354" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F354" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="L354" s="15" t="str">
         <f t="shared" si="11"/>
-        <v>uEA5F-.svg</v>
-      </c>
-    </row>
-    <row r="355" spans="1:38" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
+        <v>uEA5F-triangle.svg</v>
+      </c>
+      <c r="M354" s="15"/>
+      <c r="N354" s="15"/>
+      <c r="O354" s="15"/>
+      <c r="P354" s="15"/>
+      <c r="Q354" s="15"/>
+      <c r="R354" s="15"/>
+      <c r="S354" s="15"/>
+      <c r="T354" s="15"/>
+      <c r="U354" s="15"/>
+      <c r="V354" s="15"/>
+      <c r="W354" s="15"/>
+      <c r="X354" s="15"/>
+      <c r="Y354" s="15"/>
+      <c r="Z354" s="15"/>
+      <c r="AA354" s="15"/>
+      <c r="AB354" s="15"/>
+      <c r="AC354" s="15"/>
+      <c r="AD354" s="15"/>
+      <c r="AE354" s="15"/>
+      <c r="AF354" s="15"/>
+      <c r="AG354" s="15"/>
+      <c r="AH354" s="15"/>
+      <c r="AI354" s="15"/>
+      <c r="AJ354" s="15"/>
+      <c r="AK354" s="15"/>
+      <c r="AL354" s="15"/>
+    </row>
+    <row r="355" spans="1:38" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355">
         <v>353</v>
       </c>
-      <c r="C355" s="16" t="str">
+      <c r="C355" t="str">
         <f t="shared" si="10"/>
         <v>EA60</v>
       </c>
-      <c r="D355" s="16">
+      <c r="D355">
         <v>60000</v>
       </c>
-      <c r="E355" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F355" s="17">
+      <c r="E355" t="s">
+        <v>651</v>
+      </c>
+      <c r="F355">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G355" s="1" t="s">
+      <c r="G355" t="s">
         <v>16</v>
       </c>
-      <c r="H355" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="I355" s="1" t="s">
+      <c r="H355" t="s">
+        <v>652</v>
+      </c>
+      <c r="I355" t="s">
         <v>15</v>
       </c>
-      <c r="J355" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="K355" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="L355" s="15" t="str">
+      <c r="J355" t="s">
+        <v>612</v>
+      </c>
+      <c r="K355" t="s">
+        <v>653</v>
+      </c>
+      <c r="L355" t="str">
         <f t="shared" si="11"/>
         <v>uEA60-brand-vsts.svg</v>
       </c>
-      <c r="M355" s="15"/>
-      <c r="N355" s="15"/>
-      <c r="O355" s="15"/>
-      <c r="P355" s="15"/>
-      <c r="Q355" s="15"/>
-      <c r="R355" s="15"/>
-      <c r="S355" s="15"/>
-      <c r="T355" s="15"/>
-      <c r="U355" s="15"/>
-      <c r="V355" s="15"/>
-      <c r="W355" s="15"/>
-      <c r="X355" s="15"/>
-      <c r="Y355" s="15"/>
-      <c r="Z355" s="15"/>
-      <c r="AA355" s="15"/>
-      <c r="AB355" s="15"/>
-      <c r="AC355" s="15"/>
-      <c r="AD355" s="15"/>
-      <c r="AE355" s="15"/>
-      <c r="AF355" s="15"/>
-      <c r="AG355" s="15"/>
-      <c r="AH355" s="15"/>
-      <c r="AI355" s="15"/>
-      <c r="AJ355" s="15"/>
-      <c r="AK355" s="15"/>
-      <c r="AL355" s="15"/>
     </row>
     <row r="356" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
@@ -28547,8 +28580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="L354" sqref="L354"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45074,7 +45107,7 @@
         <v>VSTS</v>
       </c>
       <c r="H331" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I331" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H332),"",'Bowtie v1.0 reorg'!H332)</f>
@@ -45082,15 +45115,15 @@
       </c>
       <c r="J331" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K332),"",'Bowtie v1.0 reorg'!K332)</f>
-        <v>check if it is same as record-fill</v>
+        <v>Used for stacking icons as background.</v>
       </c>
       <c r="K331" t="str">
         <f t="shared" si="12"/>
-        <v>{'id':330,'name':'dot','unicode':'EA49','decimal':59977,'version':'1.0','style':'bold','subset':'VSTS','group':'misc','keywords':['dot','circle'],'usage':'check if it is same as record-fill'}</v>
+        <v>{'id':330,'name':'dot','unicode':'EA49','decimal':59977,'version':'1.0','style':'bold','subset':'VSTS','group':'misc','keywords':['dot','circle'],'usage':'Used for stacking icons as background.'}</v>
       </c>
       <c r="L331" t="str">
         <f t="shared" si="13"/>
-        <v>{"id":330,"name":"dot","unicode":"EA49","decimal":59977,"version":"1.0","style":"bold","subset":"VSTS","group":"misc","keywords":["dot","circle"],"usage":"check if it is same as record-fill"}</v>
+        <v>{"id":330,"name":"dot","unicode":"EA49","decimal":59977,"version":"1.0","style":"bold","subset":"VSTS","group":"misc","keywords":["dot","circle"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
@@ -45123,7 +45156,7 @@
         <v>VSTS</v>
       </c>
       <c r="H332" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I332" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H333),"",'Bowtie v1.0 reorg'!H333)</f>
@@ -45131,15 +45164,15 @@
       </c>
       <c r="J332" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K333),"",'Bowtie v1.0 reorg'!K333)</f>
-        <v>check if it is same as stop-fill</v>
+        <v>Used for stacking icons as background.</v>
       </c>
       <c r="K332" t="str">
         <f t="shared" si="12"/>
-        <v>{'id':331,'name':'square','unicode':'EA4A','decimal':59978,'version':'1.0','style':'bold','subset':'VSTS','group':'misc','keywords':['square'],'usage':'check if it is same as stop-fill'}</v>
+        <v>{'id':331,'name':'square','unicode':'EA4A','decimal':59978,'version':'1.0','style':'bold','subset':'VSTS','group':'misc','keywords':['square'],'usage':'Used for stacking icons as background.'}</v>
       </c>
       <c r="L332" t="str">
         <f t="shared" si="13"/>
-        <v>{"id":331,"name":"square","unicode":"EA4A","decimal":59978,"version":"1.0","style":"bold","subset":"VSTS","group":"misc","keywords":["square"],"usage":"check if it is same as stop-fill"}</v>
+        <v>{"id":331,"name":"square","unicode":"EA4A","decimal":59978,"version":"1.0","style":"bold","subset":"VSTS","group":"misc","keywords":["square"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
@@ -46147,9 +46180,9 @@
         <f>'Bowtie v1.0 reorg'!A354</f>
         <v>352</v>
       </c>
-      <c r="B353">
+      <c r="B353" t="str">
         <f>'Bowtie v1.0 reorg'!E354</f>
-        <v>0</v>
+        <v>triangle</v>
       </c>
       <c r="C353" t="str">
         <f>'Bowtie v1.0 reorg'!C354</f>
@@ -46159,37 +46192,37 @@
         <f>'Bowtie v1.0 reorg'!D354</f>
         <v>59999</v>
       </c>
-      <c r="E353" t="str">
+      <c r="E353">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F354),"",'Bowtie v1.0 reorg'!F354)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G354),"",'Bowtie v1.0 reorg'!G354)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I354),"",'Bowtie v1.0 reorg'!I354)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J354),"",'Bowtie v1.0 reorg'!J354)</f>
-        <v/>
+        <v>Utility</v>
       </c>
       <c r="I353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H354),"",'Bowtie v1.0 reorg'!H354)</f>
-        <v/>
+        <v>triangle</v>
       </c>
       <c r="J353" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K354),"",'Bowtie v1.0 reorg'!K354)</f>
-        <v/>
-      </c>
-      <c r="K353" t="e">
+        <v>Used for stacking icons as background.</v>
+      </c>
+      <c r="K353" t="str">
         <f t="shared" ref="K353:K416" si="16">IF(NOT(ISBLANK(A353)),CONCATENATE("{'",$A$1,"':",A353,",'",$B$1,"':'",B353,"',","'",$C$1,"':'",C353,"','",$D$1,"':",D353,",'",$E$1,"':'",FIXED(E353,1),"','",$F$1,"':'",F353,"','",$G$1,"':'",G353,"','",$H$1,"':'",H353,"','",$I$1,"':['",SUBSTITUTE(I353," ","','"),"'],'",$J$1,"':'",J353,"'}"))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L353" t="e">
+        <v>{'id':352,'name':'triangle','unicode':'EA5F','decimal':59999,'version':'1.1','style':'bold','subset':'VSTS','group':'Utility','keywords':['triangle'],'usage':'Used for stacking icons as background.'}</v>
+      </c>
+      <c r="L353" t="str">
         <f t="shared" ref="L353:L416" si="17">SUBSTITUTE(K353,"'","""")</f>
-        <v>#VALUE!</v>
+        <v>{"id":352,"name":"triangle","unicode":"EA5F","decimal":59999,"version":"1.1","style":"bold","subset":"VSTS","group":"Utility","keywords":["triangle"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="688">
   <si>
     <t>name</t>
   </si>
@@ -1991,6 +1991,99 @@
   </si>
   <si>
     <t>Used for stacking icons as background.</t>
+  </si>
+  <si>
+    <t>status-success-sm</t>
+  </si>
+  <si>
+    <t>status-warning-sm</t>
+  </si>
+  <si>
+    <t>status-info-sm</t>
+  </si>
+  <si>
+    <t>status-failure-sm</t>
+  </si>
+  <si>
+    <t>status-error-sm</t>
+  </si>
+  <si>
+    <t>status-run-sm</t>
+  </si>
+  <si>
+    <t>status-help-sm</t>
+  </si>
+  <si>
+    <t>status-stop-sm</t>
+  </si>
+  <si>
+    <t>status-pause-sm</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-warning. It is used for stacking with bowtie-triangle.</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-info. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-failure. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-error. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-run. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-help. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-stop. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>status success complete ok pass positive good checkmark</t>
+  </si>
+  <si>
+    <t>status warning problem attention exclaimation</t>
+  </si>
+  <si>
+    <t>status information letter i</t>
+  </si>
+  <si>
+    <t>status failure negative critical problem fatal error</t>
+  </si>
+  <si>
+    <t>status run play execute in progress triangle</t>
+  </si>
+  <si>
+    <t>status help question</t>
+  </si>
+  <si>
+    <t>status stop square</t>
+  </si>
+  <si>
+    <t>status pause</t>
+  </si>
+  <si>
+    <t>status waiting clock time pending queue</t>
+  </si>
+  <si>
+    <t>status no block mute unavailable</t>
+  </si>
+  <si>
+    <t>status-waiting-fill-sm</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-waiting-fill. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>status-no-fill-sm</t>
+  </si>
+  <si>
+    <t>This is a smaller version of bowtie-status-no-fill. It is used for stacking with bowtie-dot.</t>
   </si>
 </sst>
 </file>
@@ -15551,6 +15644,424 @@
         <a:xfrm>
           <a:off x="1123950" y="141808200"/>
           <a:ext cx="209579" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323877</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>314352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="355" name="Picture 354"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId354"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="142627350"/>
+          <a:ext cx="190527" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409607</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>333404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="357" name="Picture 356"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId355"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="143027400"/>
+          <a:ext cx="228632" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381027</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>314350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="358" name="Picture 357"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId356"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="143436975"/>
+          <a:ext cx="190527" cy="181000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371504</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>323879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="359" name="Picture 358"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId357"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="143817975"/>
+          <a:ext cx="209579" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381029</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>333404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="360" name="Picture 359"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId358"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="144227550"/>
+          <a:ext cx="209579" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381031</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>352461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="361" name="Picture 360"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId359"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="144599025"/>
+          <a:ext cx="219106" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361982</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>342935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="362" name="Picture 361"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId360"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="144999075"/>
+          <a:ext cx="228632" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352452</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>304827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="363" name="Picture 362"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId361"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="145418175"/>
+          <a:ext cx="190527" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419135</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>314358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="364" name="Picture 363"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId362"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="145780125"/>
+          <a:ext cx="247685" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361981</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>361982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="365" name="Picture 364"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId363"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="146237325"/>
+          <a:ext cx="219106" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361977</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>314350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="366" name="Picture 365"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId364"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="146637375"/>
+          <a:ext cx="190527" cy="181000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15828,8 +16339,8 @@
   <dimension ref="A1:AL410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G358" sqref="G358"/>
+      <pane ySplit="2" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N364" sqref="N364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26860,7 +27371,7 @@
         <v>604</v>
       </c>
       <c r="L324" t="str">
-        <f t="shared" ref="L324:L357" si="11">CONCATENATE("u",C324,"-",E324,".svg")</f>
+        <f t="shared" ref="L324:L387" si="11">CONCATENATE("u",C324,"-",E324,".svg")</f>
         <v>uEA41-view-list-tree.svg</v>
       </c>
     </row>
@@ -28028,9 +28539,30 @@
       <c r="D356" s="13">
         <v>60001</v>
       </c>
+      <c r="E356" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F356" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J356" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K356" s="2" t="s">
+        <v>666</v>
+      </c>
       <c r="L356" t="str">
         <f t="shared" si="11"/>
-        <v>uEA61-.svg</v>
+        <v>uEA61-status-success-sm.svg</v>
       </c>
     </row>
     <row r="357" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28044,9 +28576,30 @@
       <c r="D357" s="13">
         <v>60002</v>
       </c>
+      <c r="E357" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F357">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J357" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K357" s="2" t="s">
+        <v>667</v>
+      </c>
       <c r="L357" t="str">
         <f t="shared" si="11"/>
-        <v>uEA62-.svg</v>
+        <v>uEA62-status-warning-sm.svg</v>
       </c>
     </row>
     <row r="358" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28060,6 +28613,31 @@
       <c r="D358" s="13">
         <v>60003</v>
       </c>
+      <c r="E358" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F358" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G358" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H358" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="I358" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J358" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K358" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="L358" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA63-status-info-sm.svg</v>
+      </c>
     </row>
     <row r="359" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
@@ -28072,6 +28650,31 @@
       <c r="D359" s="13">
         <v>60004</v>
       </c>
+      <c r="E359" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F359">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="I359" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J359" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K359" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="L359" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA64-status-failure-sm.svg</v>
+      </c>
     </row>
     <row r="360" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
@@ -28084,6 +28687,31 @@
       <c r="D360" s="13">
         <v>60005</v>
       </c>
+      <c r="E360" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F360" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G360" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H360" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J360" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K360" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="L360" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA65-status-error-sm.svg</v>
+      </c>
     </row>
     <row r="361" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
@@ -28096,6 +28724,31 @@
       <c r="D361" s="13">
         <v>60006</v>
       </c>
+      <c r="E361" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F361">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G361" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J361" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K361" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="L361" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA66-status-run-sm.svg</v>
+      </c>
     </row>
     <row r="362" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
@@ -28108,6 +28761,31 @@
       <c r="D362" s="13">
         <v>60007</v>
       </c>
+      <c r="E362" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F362" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H362" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="I362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J362" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K362" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="L362" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA67-status-help-sm.svg</v>
+      </c>
     </row>
     <row r="363" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
@@ -28120,6 +28798,31 @@
       <c r="D363" s="13">
         <v>60008</v>
       </c>
+      <c r="E363" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F363">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I363" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J363" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K363" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="L363" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA68-status-stop-sm.svg</v>
+      </c>
     </row>
     <row r="364" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
@@ -28132,6 +28835,31 @@
       <c r="D364" s="13">
         <v>60009</v>
       </c>
+      <c r="E364" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F364" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G364" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H364" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J364" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K364" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="L364" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA69-status-pause-sm.svg</v>
+      </c>
     </row>
     <row r="365" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
@@ -28144,6 +28872,31 @@
       <c r="D365" s="13">
         <v>60010</v>
       </c>
+      <c r="E365" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F365">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H365" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J365" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K365" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="L365" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA6A-status-waiting-fill-sm.svg</v>
+      </c>
     </row>
     <row r="366" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
@@ -28156,6 +28909,31 @@
       <c r="D366" s="13">
         <v>60011</v>
       </c>
+      <c r="E366" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F366" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J366" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="K366" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="L366" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA6B-status-no-fill-sm.svg</v>
+      </c>
     </row>
     <row r="367" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
@@ -28168,6 +28946,10 @@
       <c r="D367" s="13">
         <v>60012</v>
       </c>
+      <c r="L367" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA6C-.svg</v>
+      </c>
     </row>
     <row r="368" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
@@ -28180,8 +28962,12 @@
       <c r="D368" s="13">
         <v>60013</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L368" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA6D-.svg</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>367</v>
       </c>
@@ -28192,8 +28978,12 @@
       <c r="D369" s="13">
         <v>60014</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L369" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA6E-.svg</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>368</v>
       </c>
@@ -28204,8 +28994,12 @@
       <c r="D370" s="13">
         <v>60015</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L370" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA6F-.svg</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>369</v>
       </c>
@@ -28216,8 +29010,12 @@
       <c r="D371" s="13">
         <v>60016</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L371" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA70-.svg</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>370</v>
       </c>
@@ -28228,8 +29026,12 @@
       <c r="D372" s="13">
         <v>60017</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L372" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA71-.svg</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>371</v>
       </c>
@@ -28240,8 +29042,12 @@
       <c r="D373" s="13">
         <v>60018</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L373" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA72-.svg</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>372</v>
       </c>
@@ -28252,8 +29058,12 @@
       <c r="D374" s="13">
         <v>60019</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L374" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA73-.svg</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>373</v>
       </c>
@@ -28264,8 +29074,12 @@
       <c r="D375" s="13">
         <v>60020</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L375" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA74-.svg</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>374</v>
       </c>
@@ -28276,8 +29090,12 @@
       <c r="D376" s="13">
         <v>60021</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L376" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA75-.svg</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>375</v>
       </c>
@@ -28288,8 +29106,12 @@
       <c r="D377" s="13">
         <v>60022</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L377" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA76-.svg</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>376</v>
       </c>
@@ -28300,8 +29122,12 @@
       <c r="D378" s="13">
         <v>60023</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L378" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA77-.svg</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>377</v>
       </c>
@@ -28312,8 +29138,12 @@
       <c r="D379" s="13">
         <v>60024</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L379" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA78-.svg</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>378</v>
       </c>
@@ -28324,8 +29154,12 @@
       <c r="D380" s="13">
         <v>60025</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L380" t="str">
+        <f t="shared" si="11"/>
+        <v>uEA79-.svg</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>379</v>
       </c>
@@ -28333,8 +29167,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L381" t="str">
+        <f t="shared" si="11"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>380</v>
       </c>
@@ -28342,8 +29180,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L382" t="str">
+        <f t="shared" si="11"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>381</v>
       </c>
@@ -28351,8 +29193,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L383" t="str">
+        <f t="shared" si="11"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>382</v>
       </c>
@@ -28360,8 +29206,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L384" t="str">
+        <f t="shared" si="11"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>383</v>
       </c>
@@ -28369,8 +29219,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L385" t="str">
+        <f t="shared" si="11"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>384</v>
       </c>
@@ -28378,8 +29232,12 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L386" t="str">
+        <f t="shared" si="11"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>385</v>
       </c>
@@ -28387,8 +29245,12 @@
         <f t="shared" ref="C387:C410" si="12">DEC2HEX(D387)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L387" t="str">
+        <f t="shared" si="11"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>386</v>
       </c>
@@ -28396,8 +29258,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L388" t="str">
+        <f t="shared" ref="L388:L402" si="13">CONCATENATE("u",C388,"-",E388,".svg")</f>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>387</v>
       </c>
@@ -28405,8 +29271,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L389" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>388</v>
       </c>
@@ -28414,8 +29284,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L390" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>389</v>
       </c>
@@ -28423,8 +29297,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L391" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>390</v>
       </c>
@@ -28432,8 +29310,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L392" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>391</v>
       </c>
@@ -28441,8 +29323,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L393" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>392</v>
       </c>
@@ -28450,8 +29336,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L394" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>393</v>
       </c>
@@ -28459,8 +29349,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L395" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>394</v>
       </c>
@@ -28468,8 +29362,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L396" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>395</v>
       </c>
@@ -28477,8 +29375,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L397" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>396</v>
       </c>
@@ -28486,8 +29388,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L398" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>397</v>
       </c>
@@ -28495,8 +29401,12 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L399" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>398</v>
       </c>
@@ -28504,62 +29414,74 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L400" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="401" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C401" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L401" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="402" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C402" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L402" t="str">
+        <f t="shared" si="13"/>
+        <v>u0-.svg</v>
+      </c>
+    </row>
+    <row r="403" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C403" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C404" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C405" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C406" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C407" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C408" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C409" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C410" s="13" t="str">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -28580,8 +29502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46280,9 +47202,9 @@
         <f>'Bowtie v1.0 reorg'!A356</f>
         <v>354</v>
       </c>
-      <c r="B355">
+      <c r="B355" t="str">
         <f>'Bowtie v1.0 reorg'!E356</f>
-        <v>0</v>
+        <v>status-success-sm</v>
       </c>
       <c r="C355" t="str">
         <f>'Bowtie v1.0 reorg'!C356</f>
@@ -46292,37 +47214,37 @@
         <f>'Bowtie v1.0 reorg'!D356</f>
         <v>60001</v>
       </c>
-      <c r="E355" t="str">
+      <c r="E355">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F356),"",'Bowtie v1.0 reorg'!F356)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F355" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G356),"",'Bowtie v1.0 reorg'!G356)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G355" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I356),"",'Bowtie v1.0 reorg'!I356)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H355" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J356),"",'Bowtie v1.0 reorg'!J356)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I355" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H356),"",'Bowtie v1.0 reorg'!H356)</f>
-        <v/>
+        <v>status success complete ok pass positive good checkmark</v>
       </c>
       <c r="J355" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K356),"",'Bowtie v1.0 reorg'!K356)</f>
-        <v/>
-      </c>
-      <c r="K355" t="e">
+        <v>This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K355" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L355" t="e">
+        <v>{'id':354,'name':'status-success-sm','unicode':'EA61','decimal':60001,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','success','complete','ok','pass','positive','good','checkmark'],'usage':'This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L355" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":354,"name":"status-success-sm","unicode":"EA61","decimal":60001,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","success","complete","ok","pass","positive","good","checkmark"],"usage":"This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.25">
@@ -46330,9 +47252,9 @@
         <f>'Bowtie v1.0 reorg'!A357</f>
         <v>355</v>
       </c>
-      <c r="B356">
+      <c r="B356" t="str">
         <f>'Bowtie v1.0 reorg'!E357</f>
-        <v>0</v>
+        <v>status-warning-sm</v>
       </c>
       <c r="C356" t="str">
         <f>'Bowtie v1.0 reorg'!C357</f>
@@ -46342,37 +47264,37 @@
         <f>'Bowtie v1.0 reorg'!D357</f>
         <v>60002</v>
       </c>
-      <c r="E356" t="str">
+      <c r="E356">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F357),"",'Bowtie v1.0 reorg'!F357)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G357),"",'Bowtie v1.0 reorg'!G357)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I357),"",'Bowtie v1.0 reorg'!I357)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J357),"",'Bowtie v1.0 reorg'!J357)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H357),"",'Bowtie v1.0 reorg'!H357)</f>
-        <v/>
+        <v>status warning problem attention exclaimation</v>
       </c>
       <c r="J356" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K357),"",'Bowtie v1.0 reorg'!K357)</f>
-        <v/>
-      </c>
-      <c r="K356" t="e">
+        <v>This is a smaller version of bowtie-status-warning. It is used for stacking with bowtie-triangle.</v>
+      </c>
+      <c r="K356" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L356" t="e">
+        <v>{'id':355,'name':'status-warning-sm','unicode':'EA62','decimal':60002,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','warning','problem','attention','exclaimation'],'usage':'This is a smaller version of bowtie-status-warning. It is used for stacking with bowtie-triangle.'}</v>
+      </c>
+      <c r="L356" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":355,"name":"status-warning-sm","unicode":"EA62","decimal":60002,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","warning","problem","attention","exclaimation"],"usage":"This is a smaller version of bowtie-status-warning. It is used for stacking with bowtie-triangle."}</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
@@ -46380,9 +47302,9 @@
         <f>'Bowtie v1.0 reorg'!A358</f>
         <v>356</v>
       </c>
-      <c r="B357">
+      <c r="B357" t="str">
         <f>'Bowtie v1.0 reorg'!E358</f>
-        <v>0</v>
+        <v>status-info-sm</v>
       </c>
       <c r="C357" t="str">
         <f>'Bowtie v1.0 reorg'!C358</f>
@@ -46392,37 +47314,37 @@
         <f>'Bowtie v1.0 reorg'!D358</f>
         <v>60003</v>
       </c>
-      <c r="E357" t="str">
+      <c r="E357">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F358),"",'Bowtie v1.0 reorg'!F358)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F357" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G358),"",'Bowtie v1.0 reorg'!G358)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G357" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I358),"",'Bowtie v1.0 reorg'!I358)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H357" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J358),"",'Bowtie v1.0 reorg'!J358)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I357" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H358),"",'Bowtie v1.0 reorg'!H358)</f>
-        <v/>
+        <v>status information letter i</v>
       </c>
       <c r="J357" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K358),"",'Bowtie v1.0 reorg'!K358)</f>
-        <v/>
-      </c>
-      <c r="K357" t="e">
+        <v>This is a smaller version of bowtie-status-info. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K357" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L357" t="e">
+        <v>{'id':356,'name':'status-info-sm','unicode':'EA63','decimal':60003,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','information','letter','i'],'usage':'This is a smaller version of bowtie-status-info. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L357" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":356,"name":"status-info-sm","unicode":"EA63","decimal":60003,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","information","letter","i"],"usage":"This is a smaller version of bowtie-status-info. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
@@ -46430,9 +47352,9 @@
         <f>'Bowtie v1.0 reorg'!A359</f>
         <v>357</v>
       </c>
-      <c r="B358">
+      <c r="B358" t="str">
         <f>'Bowtie v1.0 reorg'!E359</f>
-        <v>0</v>
+        <v>status-failure-sm</v>
       </c>
       <c r="C358" t="str">
         <f>'Bowtie v1.0 reorg'!C359</f>
@@ -46442,37 +47364,37 @@
         <f>'Bowtie v1.0 reorg'!D359</f>
         <v>60004</v>
       </c>
-      <c r="E358" t="str">
+      <c r="E358">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F359),"",'Bowtie v1.0 reorg'!F359)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F358" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G359),"",'Bowtie v1.0 reorg'!G359)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G358" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I359),"",'Bowtie v1.0 reorg'!I359)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H358" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J359),"",'Bowtie v1.0 reorg'!J359)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I358" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H359),"",'Bowtie v1.0 reorg'!H359)</f>
-        <v/>
+        <v>status failure negative critical problem fatal error</v>
       </c>
       <c r="J358" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K359),"",'Bowtie v1.0 reorg'!K359)</f>
-        <v/>
-      </c>
-      <c r="K358" t="e">
+        <v>This is a smaller version of bowtie-status-failure. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K358" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L358" t="e">
+        <v>{'id':357,'name':'status-failure-sm','unicode':'EA64','decimal':60004,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','failure','negative','critical','problem','fatal','error'],'usage':'This is a smaller version of bowtie-status-failure. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L358" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":357,"name":"status-failure-sm","unicode":"EA64","decimal":60004,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","failure","negative","critical","problem","fatal","error"],"usage":"This is a smaller version of bowtie-status-failure. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
@@ -46480,9 +47402,9 @@
         <f>'Bowtie v1.0 reorg'!A360</f>
         <v>358</v>
       </c>
-      <c r="B359">
+      <c r="B359" t="str">
         <f>'Bowtie v1.0 reorg'!E360</f>
-        <v>0</v>
+        <v>status-error-sm</v>
       </c>
       <c r="C359" t="str">
         <f>'Bowtie v1.0 reorg'!C360</f>
@@ -46492,37 +47414,37 @@
         <f>'Bowtie v1.0 reorg'!D360</f>
         <v>60005</v>
       </c>
-      <c r="E359" t="str">
+      <c r="E359">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F360),"",'Bowtie v1.0 reorg'!F360)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G360),"",'Bowtie v1.0 reorg'!G360)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I360),"",'Bowtie v1.0 reorg'!I360)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J360),"",'Bowtie v1.0 reorg'!J360)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H360),"",'Bowtie v1.0 reorg'!H360)</f>
-        <v/>
+        <v>status error alert invalid problem circle exclaimation</v>
       </c>
       <c r="J359" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K360),"",'Bowtie v1.0 reorg'!K360)</f>
-        <v/>
-      </c>
-      <c r="K359" t="e">
+        <v>This is a smaller version of bowtie-status-error. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K359" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L359" t="e">
+        <v>{'id':358,'name':'status-error-sm','unicode':'EA65','decimal':60005,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','error','alert','invalid','problem','circle','exclaimation'],'usage':'This is a smaller version of bowtie-status-error. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L359" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":358,"name":"status-error-sm","unicode":"EA65","decimal":60005,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","error","alert","invalid","problem","circle","exclaimation"],"usage":"This is a smaller version of bowtie-status-error. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
@@ -46530,9 +47452,9 @@
         <f>'Bowtie v1.0 reorg'!A361</f>
         <v>359</v>
       </c>
-      <c r="B360">
+      <c r="B360" t="str">
         <f>'Bowtie v1.0 reorg'!E361</f>
-        <v>0</v>
+        <v>status-run-sm</v>
       </c>
       <c r="C360" t="str">
         <f>'Bowtie v1.0 reorg'!C361</f>
@@ -46542,37 +47464,37 @@
         <f>'Bowtie v1.0 reorg'!D361</f>
         <v>60006</v>
       </c>
-      <c r="E360" t="str">
+      <c r="E360">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F361),"",'Bowtie v1.0 reorg'!F361)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F360" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G361),"",'Bowtie v1.0 reorg'!G361)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G360" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I361),"",'Bowtie v1.0 reorg'!I361)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H360" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J361),"",'Bowtie v1.0 reorg'!J361)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I360" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H361),"",'Bowtie v1.0 reorg'!H361)</f>
-        <v/>
+        <v>status run play execute in progress triangle</v>
       </c>
       <c r="J360" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K361),"",'Bowtie v1.0 reorg'!K361)</f>
-        <v/>
-      </c>
-      <c r="K360" t="e">
+        <v>This is a smaller version of bowtie-status-run. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K360" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L360" t="e">
+        <v>{'id':359,'name':'status-run-sm','unicode':'EA66','decimal':60006,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','run','play','execute','in','progress','triangle'],'usage':'This is a smaller version of bowtie-status-run. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L360" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":359,"name":"status-run-sm","unicode":"EA66","decimal":60006,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","run","play","execute","in","progress","triangle"],"usage":"This is a smaller version of bowtie-status-run. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
@@ -46580,9 +47502,9 @@
         <f>'Bowtie v1.0 reorg'!A362</f>
         <v>360</v>
       </c>
-      <c r="B361">
+      <c r="B361" t="str">
         <f>'Bowtie v1.0 reorg'!E362</f>
-        <v>0</v>
+        <v>status-help-sm</v>
       </c>
       <c r="C361" t="str">
         <f>'Bowtie v1.0 reorg'!C362</f>
@@ -46592,37 +47514,37 @@
         <f>'Bowtie v1.0 reorg'!D362</f>
         <v>60007</v>
       </c>
-      <c r="E361" t="str">
+      <c r="E361">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F362),"",'Bowtie v1.0 reorg'!F362)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F361" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G362),"",'Bowtie v1.0 reorg'!G362)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G361" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I362),"",'Bowtie v1.0 reorg'!I362)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H361" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J362),"",'Bowtie v1.0 reorg'!J362)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I361" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H362),"",'Bowtie v1.0 reorg'!H362)</f>
-        <v/>
+        <v>status help question</v>
       </c>
       <c r="J361" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K362),"",'Bowtie v1.0 reorg'!K362)</f>
-        <v/>
-      </c>
-      <c r="K361" t="e">
+        <v>This is a smaller version of bowtie-status-help. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K361" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L361" t="e">
+        <v>{'id':360,'name':'status-help-sm','unicode':'EA67','decimal':60007,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','help','question'],'usage':'This is a smaller version of bowtie-status-help. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L361" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":360,"name":"status-help-sm","unicode":"EA67","decimal":60007,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","help","question"],"usage":"This is a smaller version of bowtie-status-help. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
@@ -46630,9 +47552,9 @@
         <f>'Bowtie v1.0 reorg'!A363</f>
         <v>361</v>
       </c>
-      <c r="B362">
+      <c r="B362" t="str">
         <f>'Bowtie v1.0 reorg'!E363</f>
-        <v>0</v>
+        <v>status-stop-sm</v>
       </c>
       <c r="C362" t="str">
         <f>'Bowtie v1.0 reorg'!C363</f>
@@ -46642,37 +47564,37 @@
         <f>'Bowtie v1.0 reorg'!D363</f>
         <v>60008</v>
       </c>
-      <c r="E362" t="str">
+      <c r="E362">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F363),"",'Bowtie v1.0 reorg'!F363)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G363),"",'Bowtie v1.0 reorg'!G363)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I363),"",'Bowtie v1.0 reorg'!I363)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J363),"",'Bowtie v1.0 reorg'!J363)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H363),"",'Bowtie v1.0 reorg'!H363)</f>
-        <v/>
+        <v>status stop square</v>
       </c>
       <c r="J362" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K363),"",'Bowtie v1.0 reorg'!K363)</f>
-        <v/>
-      </c>
-      <c r="K362" t="e">
+        <v>This is a smaller version of bowtie-status-stop. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K362" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L362" t="e">
+        <v>{'id':361,'name':'status-stop-sm','unicode':'EA68','decimal':60008,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','stop','square'],'usage':'This is a smaller version of bowtie-status-stop. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L362" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":361,"name":"status-stop-sm","unicode":"EA68","decimal":60008,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","stop","square"],"usage":"This is a smaller version of bowtie-status-stop. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
@@ -46680,9 +47602,9 @@
         <f>'Bowtie v1.0 reorg'!A364</f>
         <v>362</v>
       </c>
-      <c r="B363">
+      <c r="B363" t="str">
         <f>'Bowtie v1.0 reorg'!E364</f>
-        <v>0</v>
+        <v>status-pause-sm</v>
       </c>
       <c r="C363" t="str">
         <f>'Bowtie v1.0 reorg'!C364</f>
@@ -46692,37 +47614,37 @@
         <f>'Bowtie v1.0 reorg'!D364</f>
         <v>60009</v>
       </c>
-      <c r="E363" t="str">
+      <c r="E363">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F364),"",'Bowtie v1.0 reorg'!F364)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F363" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G364),"",'Bowtie v1.0 reorg'!G364)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G363" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I364),"",'Bowtie v1.0 reorg'!I364)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H363" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J364),"",'Bowtie v1.0 reorg'!J364)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I363" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H364),"",'Bowtie v1.0 reorg'!H364)</f>
-        <v/>
+        <v>status pause</v>
       </c>
       <c r="J363" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K364),"",'Bowtie v1.0 reorg'!K364)</f>
-        <v/>
-      </c>
-      <c r="K363" t="e">
+        <v>This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K363" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L363" t="e">
+        <v>{'id':362,'name':'status-pause-sm','unicode':'EA69','decimal':60009,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','pause'],'usage':'This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L363" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":362,"name":"status-pause-sm","unicode":"EA69","decimal":60009,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","pause"],"usage":"This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
@@ -46730,9 +47652,9 @@
         <f>'Bowtie v1.0 reorg'!A365</f>
         <v>363</v>
       </c>
-      <c r="B364">
+      <c r="B364" t="str">
         <f>'Bowtie v1.0 reorg'!E365</f>
-        <v>0</v>
+        <v>status-waiting-fill-sm</v>
       </c>
       <c r="C364" t="str">
         <f>'Bowtie v1.0 reorg'!C365</f>
@@ -46742,37 +47664,37 @@
         <f>'Bowtie v1.0 reorg'!D365</f>
         <v>60010</v>
       </c>
-      <c r="E364" t="str">
+      <c r="E364">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F365),"",'Bowtie v1.0 reorg'!F365)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F364" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G365),"",'Bowtie v1.0 reorg'!G365)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G364" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I365),"",'Bowtie v1.0 reorg'!I365)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H364" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J365),"",'Bowtie v1.0 reorg'!J365)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I364" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H365),"",'Bowtie v1.0 reorg'!H365)</f>
-        <v/>
+        <v>status waiting clock time pending queue</v>
       </c>
       <c r="J364" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K365),"",'Bowtie v1.0 reorg'!K365)</f>
-        <v/>
-      </c>
-      <c r="K364" t="e">
+        <v>This is a smaller version of bowtie-status-waiting-fill. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K364" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L364" t="e">
+        <v>{'id':363,'name':'status-waiting-fill-sm','unicode':'EA6A','decimal':60010,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','waiting','clock','time','pending','queue'],'usage':'This is a smaller version of bowtie-status-waiting-fill. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L364" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":363,"name":"status-waiting-fill-sm","unicode":"EA6A","decimal":60010,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","waiting","clock","time","pending","queue"],"usage":"This is a smaller version of bowtie-status-waiting-fill. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
@@ -46780,9 +47702,9 @@
         <f>'Bowtie v1.0 reorg'!A366</f>
         <v>364</v>
       </c>
-      <c r="B365">
+      <c r="B365" t="str">
         <f>'Bowtie v1.0 reorg'!E366</f>
-        <v>0</v>
+        <v>status-no-fill-sm</v>
       </c>
       <c r="C365" t="str">
         <f>'Bowtie v1.0 reorg'!C366</f>
@@ -46792,37 +47714,37 @@
         <f>'Bowtie v1.0 reorg'!D366</f>
         <v>60011</v>
       </c>
-      <c r="E365" t="str">
+      <c r="E365">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F366),"",'Bowtie v1.0 reorg'!F366)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F365" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G366),"",'Bowtie v1.0 reorg'!G366)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G365" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I366),"",'Bowtie v1.0 reorg'!I366)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H365" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J366),"",'Bowtie v1.0 reorg'!J366)</f>
-        <v/>
+        <v>Status</v>
       </c>
       <c r="I365" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H366),"",'Bowtie v1.0 reorg'!H366)</f>
-        <v/>
+        <v>status no block mute unavailable</v>
       </c>
       <c r="J365" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K366),"",'Bowtie v1.0 reorg'!K366)</f>
-        <v/>
-      </c>
-      <c r="K365" t="e">
+        <v>This is a smaller version of bowtie-status-no-fill. It is used for stacking with bowtie-dot.</v>
+      </c>
+      <c r="K365" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L365" t="e">
+        <v>{'id':364,'name':'status-no-fill-sm','unicode':'EA6B','decimal':60011,'version':'1.1','style':'bold','subset':'VSTS','group':'Status','keywords':['status','no','block','mute','unavailable'],'usage':'This is a smaller version of bowtie-status-no-fill. It is used for stacking with bowtie-dot.'}</v>
+      </c>
+      <c r="L365" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":364,"name":"status-no-fill-sm","unicode":"EA6B","decimal":60011,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","no","block","mute","unavailable"],"usage":"This is a smaller version of bowtie-status-no-fill. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="692">
   <si>
     <t>name</t>
   </si>
@@ -2084,6 +2084,18 @@
   </si>
   <si>
     <t>This is a smaller version of bowtie-status-no-fill. It is used for stacking with bowtie-dot.</t>
+  </si>
+  <si>
+    <t>assessment-group</t>
+  </si>
+  <si>
+    <t>assessment group compliance</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Used in treeview in Compliance hub to represent assessment type node.</t>
   </si>
 </sst>
 </file>
@@ -16062,6 +16074,44 @@
         <a:xfrm>
           <a:off x="1114425" y="146637375"/>
           <a:ext cx="190527" cy="181000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409606</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>361979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="367" name="Picture 366"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId365"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="147056475"/>
+          <a:ext cx="219106" cy="209579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16340,7 +16390,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N364" sqref="N364"/>
+      <selection pane="bottomLeft" activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28946,9 +28996,30 @@
       <c r="D367" s="13">
         <v>60012</v>
       </c>
+      <c r="E367" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F367" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I367" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J367" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="K367" s="2" t="s">
+        <v>691</v>
+      </c>
       <c r="L367" t="str">
         <f t="shared" si="11"/>
-        <v>uEA6C-.svg</v>
+        <v>uEA6C-assessment-group.svg</v>
       </c>
     </row>
     <row r="368" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29503,7 +29574,7 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="B365" sqref="B365"/>
+      <selection activeCell="U373" sqref="U373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47752,9 +47823,9 @@
         <f>'Bowtie v1.0 reorg'!A367</f>
         <v>365</v>
       </c>
-      <c r="B366">
+      <c r="B366" t="str">
         <f>'Bowtie v1.0 reorg'!E367</f>
-        <v>0</v>
+        <v>assessment-group</v>
       </c>
       <c r="C366" t="str">
         <f>'Bowtie v1.0 reorg'!C367</f>
@@ -47764,37 +47835,37 @@
         <f>'Bowtie v1.0 reorg'!D367</f>
         <v>60012</v>
       </c>
-      <c r="E366" t="str">
+      <c r="E366">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F367),"",'Bowtie v1.0 reorg'!F367)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F366" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G367),"",'Bowtie v1.0 reorg'!G367)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G366" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I367),"",'Bowtie v1.0 reorg'!I367)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H366" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J367),"",'Bowtie v1.0 reorg'!J367)</f>
-        <v/>
+        <v>Compliance</v>
       </c>
       <c r="I366" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H367),"",'Bowtie v1.0 reorg'!H367)</f>
-        <v/>
+        <v>assessment group compliance</v>
       </c>
       <c r="J366" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K367),"",'Bowtie v1.0 reorg'!K367)</f>
-        <v/>
-      </c>
-      <c r="K366" t="e">
+        <v>Used in treeview in Compliance hub to represent assessment type node.</v>
+      </c>
+      <c r="K366" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L366" t="e">
+        <v>{'id':365,'name':'assessment-group','unicode':'EA6C','decimal':60012,'version':'1.1','style':'bold','subset':'VSTS','group':'Compliance','keywords':['assessment','group','compliance'],'usage':'Used in treeview in Compliance hub to represent assessment type node.'}</v>
+      </c>
+      <c r="L366" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":365,"name":"assessment-group","unicode":"EA6C","decimal":60012,"version":"1.1","style":"bold","subset":"VSTS","group":"Compliance","keywords":["assessment","group","compliance"],"usage":"Used in treeview in Compliance hub to represent assessment type node."}</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="701">
   <si>
     <t>name</t>
   </si>
@@ -2096,6 +2096,33 @@
   </si>
   <si>
     <t>Used in treeview in Compliance hub to represent assessment type node.</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>table database matrix</t>
+  </si>
+  <si>
+    <t>Used for database table, matrix or views that look like a data table.</t>
+  </si>
+  <si>
+    <t>timeline-delivery</t>
+  </si>
+  <si>
+    <t>timeline-progress</t>
+  </si>
+  <si>
+    <t>timeline delivery schedule kanban card</t>
+  </si>
+  <si>
+    <t>timeline progress date row line bar</t>
+  </si>
+  <si>
+    <t>Used to indicate delivery card style backlog timeline view.</t>
+  </si>
+  <si>
+    <t>Used to indicate progress bar style backlog timeline view.</t>
   </si>
 </sst>
 </file>
@@ -16112,6 +16139,120 @@
         <a:xfrm>
           <a:off x="1133475" y="147056475"/>
           <a:ext cx="219106" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390557</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>295304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="356" name="Picture 355"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId366"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="147389850"/>
+          <a:ext cx="228632" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361975</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>304825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="368" name="Picture 367"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId367"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="147828000"/>
+          <a:ext cx="181000" cy="181000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400075</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>342931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="369" name="Picture 368"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId368"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="148228050"/>
+          <a:ext cx="181000" cy="219106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16389,7 +16530,7 @@
   <dimension ref="A1:AL410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
@@ -29033,9 +29174,30 @@
       <c r="D368" s="13">
         <v>60013</v>
       </c>
+      <c r="E368" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F368" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J368" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K368" s="2" t="s">
+        <v>694</v>
+      </c>
       <c r="L368" t="str">
         <f t="shared" si="11"/>
-        <v>uEA6D-.svg</v>
+        <v>uEA6D-table.svg</v>
       </c>
     </row>
     <row r="369" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29049,9 +29211,30 @@
       <c r="D369" s="13">
         <v>60014</v>
       </c>
+      <c r="E369" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F369" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J369" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="K369" s="2" t="s">
+        <v>699</v>
+      </c>
       <c r="L369" t="str">
         <f t="shared" si="11"/>
-        <v>uEA6E-.svg</v>
+        <v>uEA6E-timeline-delivery.svg</v>
       </c>
     </row>
     <row r="370" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29065,9 +29248,30 @@
       <c r="D370" s="13">
         <v>60015</v>
       </c>
+      <c r="E370" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F370" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="I370" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J370" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>700</v>
+      </c>
       <c r="L370" t="str">
         <f t="shared" si="11"/>
-        <v>uEA6F-.svg</v>
+        <v>uEA6F-timeline-progress.svg</v>
       </c>
     </row>
     <row r="371" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29574,7 +29778,7 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="U373" sqref="U373"/>
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47873,9 +48077,9 @@
         <f>'Bowtie v1.0 reorg'!A368</f>
         <v>366</v>
       </c>
-      <c r="B367">
+      <c r="B367" t="str">
         <f>'Bowtie v1.0 reorg'!E368</f>
-        <v>0</v>
+        <v>table</v>
       </c>
       <c r="C367" t="str">
         <f>'Bowtie v1.0 reorg'!C368</f>
@@ -47885,37 +48089,37 @@
         <f>'Bowtie v1.0 reorg'!D368</f>
         <v>60013</v>
       </c>
-      <c r="E367" t="str">
+      <c r="E367">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F368),"",'Bowtie v1.0 reorg'!F368)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F367" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G368),"",'Bowtie v1.0 reorg'!G368)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G367" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I368),"",'Bowtie v1.0 reorg'!I368)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H367" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J368),"",'Bowtie v1.0 reorg'!J368)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I367" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H368),"",'Bowtie v1.0 reorg'!H368)</f>
-        <v/>
+        <v>table database matrix</v>
       </c>
       <c r="J367" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K368),"",'Bowtie v1.0 reorg'!K368)</f>
-        <v/>
-      </c>
-      <c r="K367" t="e">
+        <v>Used for database table, matrix or views that look like a data table.</v>
+      </c>
+      <c r="K367" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L367" t="e">
+        <v>{'id':366,'name':'table','unicode':'EA6D','decimal':60013,'version':'1.1','style':'bold','subset':'VSTS','group':'Common','keywords':['table','database','matrix'],'usage':'Used for database table, matrix or views that look like a data table.'}</v>
+      </c>
+      <c r="L367" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":366,"name":"table","unicode":"EA6D","decimal":60013,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["table","database","matrix"],"usage":"Used for database table, matrix or views that look like a data table."}</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
@@ -47923,9 +48127,9 @@
         <f>'Bowtie v1.0 reorg'!A369</f>
         <v>367</v>
       </c>
-      <c r="B368">
+      <c r="B368" t="str">
         <f>'Bowtie v1.0 reorg'!E369</f>
-        <v>0</v>
+        <v>timeline-delivery</v>
       </c>
       <c r="C368" t="str">
         <f>'Bowtie v1.0 reorg'!C369</f>
@@ -47935,37 +48139,37 @@
         <f>'Bowtie v1.0 reorg'!D369</f>
         <v>60014</v>
       </c>
-      <c r="E368" t="str">
+      <c r="E368">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F369),"",'Bowtie v1.0 reorg'!F369)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F368" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G369),"",'Bowtie v1.0 reorg'!G369)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G368" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I369),"",'Bowtie v1.0 reorg'!I369)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H368" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J369),"",'Bowtie v1.0 reorg'!J369)</f>
-        <v/>
+        <v>Work</v>
       </c>
       <c r="I368" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H369),"",'Bowtie v1.0 reorg'!H369)</f>
-        <v/>
+        <v>timeline delivery schedule kanban card</v>
       </c>
       <c r="J368" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K369),"",'Bowtie v1.0 reorg'!K369)</f>
-        <v/>
-      </c>
-      <c r="K368" t="e">
+        <v>Used to indicate delivery card style backlog timeline view.</v>
+      </c>
+      <c r="K368" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L368" t="e">
+        <v>{'id':367,'name':'timeline-delivery','unicode':'EA6E','decimal':60014,'version':'1.1','style':'bold','subset':'VSTS','group':'Work','keywords':['timeline','delivery','schedule','kanban','card'],'usage':'Used to indicate delivery card style backlog timeline view.'}</v>
+      </c>
+      <c r="L368" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":367,"name":"timeline-delivery","unicode":"EA6E","decimal":60014,"version":"1.1","style":"bold","subset":"VSTS","group":"Work","keywords":["timeline","delivery","schedule","kanban","card"],"usage":"Used to indicate delivery card style backlog timeline view."}</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
@@ -47973,9 +48177,9 @@
         <f>'Bowtie v1.0 reorg'!A370</f>
         <v>368</v>
       </c>
-      <c r="B369">
+      <c r="B369" t="str">
         <f>'Bowtie v1.0 reorg'!E370</f>
-        <v>0</v>
+        <v>timeline-progress</v>
       </c>
       <c r="C369" t="str">
         <f>'Bowtie v1.0 reorg'!C370</f>
@@ -47985,37 +48189,37 @@
         <f>'Bowtie v1.0 reorg'!D370</f>
         <v>60015</v>
       </c>
-      <c r="E369" t="str">
+      <c r="E369">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F370),"",'Bowtie v1.0 reorg'!F370)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F369" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G370),"",'Bowtie v1.0 reorg'!G370)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G369" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I370),"",'Bowtie v1.0 reorg'!I370)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H369" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J370),"",'Bowtie v1.0 reorg'!J370)</f>
-        <v/>
+        <v>Work</v>
       </c>
       <c r="I369" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H370),"",'Bowtie v1.0 reorg'!H370)</f>
-        <v/>
+        <v>timeline progress date row line bar</v>
       </c>
       <c r="J369" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K370),"",'Bowtie v1.0 reorg'!K370)</f>
-        <v/>
-      </c>
-      <c r="K369" t="e">
+        <v>Used to indicate progress bar style backlog timeline view.</v>
+      </c>
+      <c r="K369" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L369" t="e">
+        <v>{'id':368,'name':'timeline-progress','unicode':'EA6F','decimal':60015,'version':'1.1','style':'light','subset':'VSTS','group':'Work','keywords':['timeline','progress','date','row','line','bar'],'usage':'Used to indicate progress bar style backlog timeline view.'}</v>
+      </c>
+      <c r="L369" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":368,"name":"timeline-progress","unicode":"EA6F","decimal":60015,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["timeline","progress","date","row","line","bar"],"usage":"Used to indicate progress bar style backlog timeline view."}</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="800">
   <si>
     <t>name</t>
   </si>
@@ -2411,6 +2411,15 @@
   </si>
   <si>
     <t>Used for templating preprocessor file type like .jade, .haml, etc.</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>split arrow</t>
+  </si>
+  <si>
+    <t>Used for splitting work item.</t>
   </si>
 </sst>
 </file>
@@ -18033,9 +18042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C402" sqref="C402"/>
+      <selection pane="bottomLeft" activeCell="L403" sqref="L403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32735,7 +32744,7 @@
       <c r="K402" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="L402" t="str">
+      <c r="L402" s="15" t="str">
         <f t="shared" si="13"/>
         <v>uEA8F-file-type-template.svg</v>
       </c>
@@ -32751,9 +32760,30 @@
       <c r="D403" s="16">
         <v>60048</v>
       </c>
+      <c r="E403" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F403" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J403" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="K403" s="2" t="s">
+        <v>799</v>
+      </c>
       <c r="L403" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>uEA90-.svg</v>
+        <v>uEA90-split.svg</v>
       </c>
     </row>
     <row r="404" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32766,6 +32796,15 @@
       </c>
       <c r="D404" s="13">
         <v>60049</v>
+      </c>
+      <c r="F404" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L404" s="15" t="str">
         <f t="shared" si="13"/>
@@ -33637,8 +33676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="F405" sqref="F405"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="G392" sqref="G392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53527,11 +53566,11 @@
         <v>Used for resource file (.resx) node in code explorer tree view.</v>
       </c>
       <c r="K398" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K398:K408" si="16">IF(NOT(ISBLANK(A398)),CONCATENATE("{'",$A$1,"':",A398,",'",$B$1,"':'",B398,"',","'",$C$1,"':'",C398,"','",$D$1,"':",D398,",'",$E$1,"':'",FIXED(E398,1),"','",$F$1,"':'",F398,"','",$G$1,"':'",G398,"','",$H$1,"':'",H398,"','",$I$1,"':['",SUBSTITUTE(I398," ","','"),"'],'",$J$1,"':'",J398,"'}"))</f>
         <v>{'id':397,'name':'file-stack','unicode':'EA8C','decimal':60044,'version':'1.1','style':'light','subset':'VSTS','group':'Code','keywords':['file','stack','group','resx','resource'],'usage':'Used for resource file (.resx) node in code explorer tree view.'}</v>
       </c>
       <c r="L398" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L398:L408" si="17">SUBSTITUTE(K398,"'","""")</f>
         <v>{"id":397,"name":"file-stack","unicode":"EA8C","decimal":60044,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","stack","group","resx","resource"],"usage":"Used for resource file (.resx) node in code explorer tree view."}</v>
       </c>
     </row>
@@ -53577,11 +53616,11 @@
         <v>Generic script file</v>
       </c>
       <c r="K399" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>{'id':398,'name':'script','unicode':'EA8D','decimal':60045,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['script','scroll'],'usage':'Generic script file'}</v>
       </c>
       <c r="L399" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>{"id":398,"name":"script","unicode":"EA8D","decimal":60045,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["script","scroll"],"usage":"Generic script file"}</v>
       </c>
     </row>
@@ -53627,11 +53666,11 @@
         <v>Generic executable file such as .bat, .exe</v>
       </c>
       <c r="K400" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>{'id':399,'name':'default-executable','unicode':'EA8E','decimal':60046,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['default','executable','gear','process'],'usage':'Generic executable file such as .bat, .exe'}</v>
       </c>
       <c r="L400" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>{"id":399,"name":"default-executable","unicode":"EA8E","decimal":60046,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["default","executable","gear","process"],"usage":"Generic executable file such as .bat, .exe"}</v>
       </c>
     </row>
@@ -53677,11 +53716,11 @@
         <v>Used for templating preprocessor file type like .jade, .haml, etc.</v>
       </c>
       <c r="K401" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>{'id':400,'name':'file-type-template','unicode':'EA8F','decimal':60047,'version':'1.1','style':'light','subset':'VSTS','group':'Code','keywords':['file','template','preprocessor','dotted','line'],'usage':'Used for templating preprocessor file type like .jade, .haml, etc.'}</v>
       </c>
       <c r="L401" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>{"id":400,"name":"file-type-template","unicode":"EA8F","decimal":60047,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","template","preprocessor","dotted","line"],"usage":"Used for templating preprocessor file type like .jade, .haml, etc."}</v>
       </c>
     </row>
@@ -53690,9 +53729,9 @@
         <f>'Bowtie v1.0 reorg'!A403</f>
         <v>401</v>
       </c>
-      <c r="B402">
+      <c r="B402" t="str">
         <f>'Bowtie v1.0 reorg'!E403</f>
-        <v>0</v>
+        <v>split</v>
       </c>
       <c r="C402" t="str">
         <f>'Bowtie v1.0 reorg'!C403</f>
@@ -53702,37 +53741,37 @@
         <f>'Bowtie v1.0 reorg'!D403</f>
         <v>60048</v>
       </c>
-      <c r="E402" t="str">
+      <c r="E402">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F403),"",'Bowtie v1.0 reorg'!F403)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F402" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G403),"",'Bowtie v1.0 reorg'!G403)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G402" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I403),"",'Bowtie v1.0 reorg'!I403)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H402" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J403),"",'Bowtie v1.0 reorg'!J403)</f>
-        <v/>
+        <v>Arrow</v>
       </c>
       <c r="I402" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H403),"",'Bowtie v1.0 reorg'!H403)</f>
-        <v/>
+        <v>split arrow</v>
       </c>
       <c r="J402" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K403),"",'Bowtie v1.0 reorg'!K403)</f>
-        <v/>
-      </c>
-      <c r="K402" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L402" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>Used for splitting work item.</v>
+      </c>
+      <c r="K402" t="str">
+        <f t="shared" si="16"/>
+        <v>{'id':401,'name':'split','unicode':'EA90','decimal':60048,'version':'1.1','style':'light','subset':'VSTS','group':'Arrow','keywords':['split','arrow'],'usage':'Used for splitting work item.'}</v>
+      </c>
+      <c r="L402" t="str">
+        <f t="shared" si="17"/>
+        <v>{"id":401,"name":"split","unicode":"EA90","decimal":60048,"version":"1.1","style":"light","subset":"VSTS","group":"Arrow","keywords":["split","arrow"],"usage":"Used for splitting work item."}</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
@@ -53752,17 +53791,17 @@
         <f>'Bowtie v1.0 reorg'!D404</f>
         <v>60049</v>
       </c>
-      <c r="E403" t="str">
+      <c r="E403">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F404),"",'Bowtie v1.0 reorg'!F404)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F403" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G404),"",'Bowtie v1.0 reorg'!G404)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G403" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I404),"",'Bowtie v1.0 reorg'!I404)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H403" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J404),"",'Bowtie v1.0 reorg'!J404)</f>
@@ -53776,13 +53815,13 @@
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K404),"",'Bowtie v1.0 reorg'!K404)</f>
         <v/>
       </c>
-      <c r="K403" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L403" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+      <c r="K403" t="str">
+        <f t="shared" si="16"/>
+        <v>{'id':402,'name':'0','unicode':'EA91','decimal':60049,'version':'1.1','style':'light','subset':'VSTS','group':'','keywords':[''],'usage':''}</v>
+      </c>
+      <c r="L403" t="str">
+        <f t="shared" si="17"/>
+        <v>{"id":402,"name":"0","unicode":"EA91","decimal":60049,"version":"1.1","style":"light","subset":"VSTS","group":"","keywords":[""],"usage":""}</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
@@ -53827,11 +53866,11 @@
         <v/>
       </c>
       <c r="K404" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L404" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -53877,11 +53916,11 @@
         <v/>
       </c>
       <c r="K405" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L405" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -53927,11 +53966,11 @@
         <v/>
       </c>
       <c r="K406" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L406" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -53977,11 +54016,11 @@
         <v/>
       </c>
       <c r="K407" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L407" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -54027,11 +54066,11 @@
         <v/>
       </c>
       <c r="K408" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
       <c r="L408" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56277,11 +56316,11 @@
         <v/>
       </c>
       <c r="K453" t="e">
-        <f t="shared" ref="K453:K466" si="16">IF(NOT(ISBLANK(A453)),CONCATENATE("{'",$A$1,"':",A453,",'",$B$1,"':'",B453,"',","'",$C$1,"':'",C453,"','",$D$1,"':",D453,",'",$E$1,"':'",FIXED(E453,1),"','",$F$1,"':'",F453,"','",$G$1,"':'",G453,"','",$H$1,"':'",H453,"','",$I$1,"':['",SUBSTITUTE(I453," ","','"),"'],'",$J$1,"':'",J453,"'}"))</f>
+        <f t="shared" ref="K453:K466" si="18">IF(NOT(ISBLANK(A453)),CONCATENATE("{'",$A$1,"':",A453,",'",$B$1,"':'",B453,"',","'",$C$1,"':'",C453,"','",$D$1,"':",D453,",'",$E$1,"':'",FIXED(E453,1),"','",$F$1,"':'",F453,"','",$G$1,"':'",G453,"','",$H$1,"':'",H453,"','",$I$1,"':['",SUBSTITUTE(I453," ","','"),"'],'",$J$1,"':'",J453,"'}"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="L453" t="e">
-        <f t="shared" ref="L453:L466" si="17">SUBSTITUTE(K453,"'","""")</f>
+        <f t="shared" ref="L453:L466" si="19">SUBSTITUTE(K453,"'","""")</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56327,11 +56366,11 @@
         <v/>
       </c>
       <c r="K454" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L454" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56377,11 +56416,11 @@
         <v/>
       </c>
       <c r="K455" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L455" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56427,11 +56466,11 @@
         <v/>
       </c>
       <c r="K456" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L456" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56477,11 +56516,11 @@
         <v/>
       </c>
       <c r="K457" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L457" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56527,11 +56566,11 @@
         <v/>
       </c>
       <c r="K458" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L458" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56577,11 +56616,11 @@
         <v/>
       </c>
       <c r="K459" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L459" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56627,11 +56666,11 @@
         <v/>
       </c>
       <c r="K460" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L460" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56677,11 +56716,11 @@
         <v/>
       </c>
       <c r="K461" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L461" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56727,11 +56766,11 @@
         <v/>
       </c>
       <c r="K462" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L462" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56777,11 +56816,11 @@
         <v/>
       </c>
       <c r="K463" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L463" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56827,11 +56866,11 @@
         <v/>
       </c>
       <c r="K464" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L464" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56877,11 +56916,11 @@
         <v/>
       </c>
       <c r="K465" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L465" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56927,11 +56966,11 @@
         <v/>
       </c>
       <c r="K466" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L466" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -56977,11 +57016,11 @@
         <v/>
       </c>
       <c r="K467" t="e">
-        <f t="shared" ref="K467:K470" si="18">IF(NOT(ISBLANK(A467)),CONCATENATE("{'",$A$1,"':",A467,",'",$B$1,"':'",B467,"',","'",$C$1,"':'",C467,"','",$D$1,"':",D467,",'",$E$1,"':'",FIXED(E467,1),"','",$F$1,"':'",F467,"','",$G$1,"':'",G467,"','",$H$1,"':'",H467,"','",$I$1,"':['",SUBSTITUTE(I467," ","','"),"'],'",$J$1,"':'",J467,"'}"))</f>
+        <f t="shared" ref="K467:K470" si="20">IF(NOT(ISBLANK(A467)),CONCATENATE("{'",$A$1,"':",A467,",'",$B$1,"':'",B467,"',","'",$C$1,"':'",C467,"','",$D$1,"':",D467,",'",$E$1,"':'",FIXED(E467,1),"','",$F$1,"':'",F467,"','",$G$1,"':'",G467,"','",$H$1,"':'",H467,"','",$I$1,"':['",SUBSTITUTE(I467," ","','"),"'],'",$J$1,"':'",J467,"'}"))</f>
         <v>#VALUE!</v>
       </c>
       <c r="L467" t="e">
-        <f t="shared" ref="L467:L470" si="19">SUBSTITUTE(K467,"'","""")</f>
+        <f t="shared" ref="L467:L470" si="21">SUBSTITUTE(K467,"'","""")</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -57027,11 +57066,11 @@
         <v/>
       </c>
       <c r="K468" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="L468" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -57077,11 +57116,11 @@
         <v/>
       </c>
       <c r="K469" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="L469" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -57127,11 +57166,11 @@
         <v/>
       </c>
       <c r="K470" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="L470" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="803">
   <si>
     <t>name</t>
   </si>
@@ -2420,6 +2420,15 @@
   </si>
   <si>
     <t>Used for splitting work item.</t>
+  </si>
+  <si>
+    <t>image-action-log</t>
+  </si>
+  <si>
+    <t>image picture action crosshair target</t>
+  </si>
+  <si>
+    <t>Used for capturing user actions in the form of an image action log, in TCM Web Runner.</t>
   </si>
 </sst>
 </file>
@@ -17766,6 +17775,82 @@
         <a:xfrm>
           <a:off x="1162050" y="160972500"/>
           <a:ext cx="209579" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352450</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>314354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="372" name="Picture 371"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId401"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="161810700"/>
+          <a:ext cx="181000" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400077</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>276250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="374" name="Picture 373"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId402"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="161401125"/>
+          <a:ext cx="190527" cy="181000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18042,9 +18127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL468"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L403" sqref="L403"/>
+      <selection pane="bottomLeft" activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32797,18 +32882,30 @@
       <c r="D404" s="13">
         <v>60049</v>
       </c>
+      <c r="E404" s="2" t="s">
+        <v>800</v>
+      </c>
       <c r="F404" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="G404" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="H404" s="2" t="s">
+        <v>801</v>
+      </c>
       <c r="I404" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="J404" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K404" s="2" t="s">
+        <v>802</v>
+      </c>
       <c r="L404" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>uEA91-.svg</v>
+        <v>uEA91-image-action-log.svg</v>
       </c>
     </row>
     <row r="405" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33676,8 +33773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="G392" sqref="G392"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="L403" sqref="L403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53779,9 +53876,9 @@
         <f>'Bowtie v1.0 reorg'!A404</f>
         <v>402</v>
       </c>
-      <c r="B403">
+      <c r="B403" t="str">
         <f>'Bowtie v1.0 reorg'!E404</f>
-        <v>0</v>
+        <v>image-action-log</v>
       </c>
       <c r="C403" t="str">
         <f>'Bowtie v1.0 reorg'!C404</f>
@@ -53805,23 +53902,23 @@
       </c>
       <c r="H403" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J404),"",'Bowtie v1.0 reorg'!J404)</f>
-        <v/>
+        <v>Test</v>
       </c>
       <c r="I403" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H404),"",'Bowtie v1.0 reorg'!H404)</f>
-        <v/>
+        <v>image picture action crosshair target</v>
       </c>
       <c r="J403" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K404),"",'Bowtie v1.0 reorg'!K404)</f>
-        <v/>
+        <v>Used for capturing user actions in the form of an image action log, in TCM Web Runner.</v>
       </c>
       <c r="K403" t="str">
         <f t="shared" si="16"/>
-        <v>{'id':402,'name':'0','unicode':'EA91','decimal':60049,'version':'1.1','style':'light','subset':'VSTS','group':'','keywords':[''],'usage':''}</v>
+        <v>{'id':402,'name':'image-action-log','unicode':'EA91','decimal':60049,'version':'1.1','style':'light','subset':'VSTS','group':'Test','keywords':['image','picture','action','crosshair','target'],'usage':'Used for capturing user actions in the form of an image action log, in TCM Web Runner.'}</v>
       </c>
       <c r="L403" t="str">
         <f t="shared" si="17"/>
-        <v>{"id":402,"name":"0","unicode":"EA91","decimal":60049,"version":"1.1","style":"light","subset":"VSTS","group":"","keywords":[""],"usage":""}</v>
+        <v>{"id":402,"name":"image-action-log","unicode":"EA91","decimal":60049,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["image","picture","action","crosshair","target"],"usage":"Used for capturing user actions in the form of an image action log, in TCM Web Runner."}</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="806">
   <si>
     <t>name</t>
   </si>
@@ -2429,6 +2429,15 @@
   </si>
   <si>
     <t>Used for capturing user actions in the form of an image action log, in TCM Web Runner.</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>shield-fill</t>
+  </si>
+  <si>
+    <t>Used in version control view of branches.</t>
   </si>
 </sst>
 </file>
@@ -17851,6 +17860,82 @@
         <a:xfrm>
           <a:off x="1152525" y="161401125"/>
           <a:ext cx="190527" cy="181000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390557</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>352458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="375" name="Picture 374"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId403"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="162220275"/>
+          <a:ext cx="228632" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419128</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>342928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="376" name="Picture 375"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId404"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="162648900"/>
+          <a:ext cx="200053" cy="200053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18128,8 +18213,8 @@
   <dimension ref="A1:AL468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C403" sqref="C403"/>
+      <pane ySplit="2" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32919,9 +33004,30 @@
       <c r="D405" s="16">
         <v>60050</v>
       </c>
+      <c r="E405" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F405" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J405" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K405" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="L405" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>uEA92-.svg</v>
+        <v>uEA92-shield.svg</v>
       </c>
     </row>
     <row r="406" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32935,9 +33041,30 @@
       <c r="D406" s="16">
         <v>60051</v>
       </c>
+      <c r="E406" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F406" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J406" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="K406" s="2" t="s">
+        <v>805</v>
+      </c>
       <c r="L406" s="15" t="str">
         <f t="shared" si="13"/>
-        <v>uEA93-.svg</v>
+        <v>uEA93-shield-fill.svg</v>
       </c>
     </row>
     <row r="407" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33774,7 +33901,7 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="L403" sqref="L403"/>
+      <selection activeCell="I408" sqref="I408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53926,9 +54053,9 @@
         <f>'Bowtie v1.0 reorg'!A405</f>
         <v>403</v>
       </c>
-      <c r="B404">
+      <c r="B404" t="str">
         <f>'Bowtie v1.0 reorg'!E405</f>
-        <v>0</v>
+        <v>shield</v>
       </c>
       <c r="C404" t="str">
         <f>'Bowtie v1.0 reorg'!C405</f>
@@ -53938,37 +54065,37 @@
         <f>'Bowtie v1.0 reorg'!D405</f>
         <v>60050</v>
       </c>
-      <c r="E404" t="str">
+      <c r="E404">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F405),"",'Bowtie v1.0 reorg'!F405)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F404" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G405),"",'Bowtie v1.0 reorg'!G405)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G404" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I405),"",'Bowtie v1.0 reorg'!I405)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H404" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J405),"",'Bowtie v1.0 reorg'!J405)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I404" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H405),"",'Bowtie v1.0 reorg'!H405)</f>
-        <v/>
+        <v>shield</v>
       </c>
       <c r="J404" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K405),"",'Bowtie v1.0 reorg'!K405)</f>
-        <v/>
-      </c>
-      <c r="K404" t="e">
+        <v>Used in version control view of branches.</v>
+      </c>
+      <c r="K404" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L404" t="e">
+        <v>{'id':403,'name':'shield','unicode':'EA92','decimal':60050,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['shield'],'usage':'Used in version control view of branches.'}</v>
+      </c>
+      <c r="L404" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":403,"name":"shield","unicode":"EA92","decimal":60050,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["shield"],"usage":"Used in version control view of branches."}</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
@@ -53976,9 +54103,9 @@
         <f>'Bowtie v1.0 reorg'!A406</f>
         <v>404</v>
       </c>
-      <c r="B405">
+      <c r="B405" t="str">
         <f>'Bowtie v1.0 reorg'!E406</f>
-        <v>0</v>
+        <v>shield-fill</v>
       </c>
       <c r="C405" t="str">
         <f>'Bowtie v1.0 reorg'!C406</f>
@@ -53988,37 +54115,37 @@
         <f>'Bowtie v1.0 reorg'!D406</f>
         <v>60051</v>
       </c>
-      <c r="E405" t="str">
+      <c r="E405">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F406),"",'Bowtie v1.0 reorg'!F406)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F405" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G406),"",'Bowtie v1.0 reorg'!G406)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G405" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I406),"",'Bowtie v1.0 reorg'!I406)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H405" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J406),"",'Bowtie v1.0 reorg'!J406)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I405" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H406),"",'Bowtie v1.0 reorg'!H406)</f>
-        <v/>
+        <v>shield</v>
       </c>
       <c r="J405" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K406),"",'Bowtie v1.0 reorg'!K406)</f>
-        <v/>
-      </c>
-      <c r="K405" t="e">
+        <v>Used in version control view of branches.</v>
+      </c>
+      <c r="K405" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L405" t="e">
+        <v>{'id':404,'name':'shield-fill','unicode':'EA93','decimal':60051,'version':'1.1','style':'bold','subset':'VSTS','group':'Common','keywords':['shield'],'usage':'Used in version control view of branches.'}</v>
+      </c>
+      <c r="L405" t="str">
         <f t="shared" si="17"/>
-        <v>#VALUE!</v>
+        <v>{"id":404,"name":"shield-fill","unicode":"EA93","decimal":60051,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["shield"],"usage":"Used in version control view of branches."}</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
     <sheet name="json" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="829">
   <si>
     <t>name</t>
   </si>
@@ -2477,12 +2477,42 @@
   </si>
   <si>
     <t>Add new team project.</t>
+  </si>
+  <si>
+    <t>package-feed-remote</t>
+  </si>
+  <si>
+    <t>package-feed-mix</t>
+  </si>
+  <si>
+    <t>package-feed-local</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Used in Package hub treeview to represent aggregated package feed that includes both remote and local feeds.</t>
+  </si>
+  <si>
+    <t>Used in Package hub treeview to represent package feed is a reference to remote repo.</t>
+  </si>
+  <si>
+    <t>Used in Package hub treeview to represent package feed is a local folder.</t>
+  </si>
+  <si>
+    <t>package feed mix box square</t>
+  </si>
+  <si>
+    <t>package feed local box square</t>
+  </si>
+  <si>
+    <t>package feed remote signal reference wave virtual box square</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -18120,6 +18150,120 @@
         <a:xfrm>
           <a:off x="1152525" y="164191950"/>
           <a:ext cx="200053" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342929</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>314354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="409" name="Picture 408"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId408"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="165411150"/>
+          <a:ext cx="209579" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381028</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>314353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="411" name="Picture 410"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId409"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="165020625"/>
+          <a:ext cx="200053" cy="200053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361975</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>285781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="412" name="Picture 411"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId410"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="164572950"/>
+          <a:ext cx="181000" cy="219106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18430,9 +18574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C409" sqref="C409"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32424,9 +32568,30 @@
       <c r="D411">
         <v>60056</v>
       </c>
+      <c r="E411" t="s">
+        <v>820</v>
+      </c>
+      <c r="F411">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G411" t="s">
+        <v>17</v>
+      </c>
+      <c r="H411" t="s">
+        <v>826</v>
+      </c>
+      <c r="I411" t="s">
+        <v>15</v>
+      </c>
+      <c r="J411" t="s">
+        <v>822</v>
+      </c>
+      <c r="K411" t="s">
+        <v>823</v>
+      </c>
       <c r="L411" t="str">
         <f t="shared" si="13"/>
-        <v>uEA98-.svg</v>
+        <v>uEA98-package-feed-mix.svg</v>
       </c>
     </row>
     <row r="412" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32440,9 +32605,30 @@
       <c r="D412">
         <v>60057</v>
       </c>
+      <c r="E412" t="s">
+        <v>819</v>
+      </c>
+      <c r="F412">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G412" t="s">
+        <v>17</v>
+      </c>
+      <c r="H412" t="s">
+        <v>828</v>
+      </c>
+      <c r="I412" t="s">
+        <v>15</v>
+      </c>
+      <c r="J412" t="s">
+        <v>822</v>
+      </c>
+      <c r="K412" t="s">
+        <v>824</v>
+      </c>
       <c r="L412" t="str">
         <f t="shared" si="13"/>
-        <v>uEA99-.svg</v>
+        <v>uEA99-package-feed-remote.svg</v>
       </c>
     </row>
     <row r="413" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32456,9 +32642,30 @@
       <c r="D413">
         <v>60058</v>
       </c>
+      <c r="E413" t="s">
+        <v>821</v>
+      </c>
+      <c r="F413">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G413" t="s">
+        <v>17</v>
+      </c>
+      <c r="H413" t="s">
+        <v>827</v>
+      </c>
+      <c r="I413" t="s">
+        <v>15</v>
+      </c>
+      <c r="J413" t="s">
+        <v>822</v>
+      </c>
+      <c r="K413" t="s">
+        <v>825</v>
+      </c>
       <c r="L413" t="str">
         <f t="shared" si="13"/>
-        <v>uEA9A-.svg</v>
+        <v>uEA9A-package-feed-local.svg</v>
       </c>
     </row>
     <row r="414" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33247,7 +33454,7 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="F400" sqref="F400"/>
+      <selection activeCell="F405" sqref="F405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53699,9 +53906,9 @@
         <f>'Bowtie v1.0 reorg'!A411</f>
         <v>409</v>
       </c>
-      <c r="B410">
+      <c r="B410" t="str">
         <f>'Bowtie v1.0 reorg'!E411</f>
-        <v>0</v>
+        <v>package-feed-mix</v>
       </c>
       <c r="C410" t="str">
         <f>'Bowtie v1.0 reorg'!C411</f>
@@ -53711,37 +53918,37 @@
         <f>'Bowtie v1.0 reorg'!D411</f>
         <v>60056</v>
       </c>
-      <c r="E410" t="str">
+      <c r="E410">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F411),"",'Bowtie v1.0 reorg'!F411)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F410" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G411),"",'Bowtie v1.0 reorg'!G411)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G410" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I411),"",'Bowtie v1.0 reorg'!I411)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H410" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J411),"",'Bowtie v1.0 reorg'!J411)</f>
-        <v/>
+        <v>Package</v>
       </c>
       <c r="I410" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H411),"",'Bowtie v1.0 reorg'!H411)</f>
-        <v/>
+        <v>package feed mix box square</v>
       </c>
       <c r="J410" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K411),"",'Bowtie v1.0 reorg'!K411)</f>
-        <v/>
-      </c>
-      <c r="K410" t="e">
+        <v>Used in Package hub treeview to represent aggregated package feed that includes both remote and local feeds.</v>
+      </c>
+      <c r="K410" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L410" t="e">
+        <v>{'id':409,'name':'package-feed-mix','unicode':'EA98','decimal':60056,'version':'1.1','style':'light','subset':'VSTS','group':'Package','keywords':['package','feed','mix','box','square'],'usage':'Used in Package hub treeview to represent aggregated package feed that includes both remote and local feeds.'}</v>
+      </c>
+      <c r="L410" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":409,"name":"package-feed-mix","unicode":"EA98","decimal":60056,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","mix","box","square"],"usage":"Used in Package hub treeview to represent aggregated package feed that includes both remote and local feeds."}</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
@@ -53749,9 +53956,9 @@
         <f>'Bowtie v1.0 reorg'!A412</f>
         <v>410</v>
       </c>
-      <c r="B411">
+      <c r="B411" t="str">
         <f>'Bowtie v1.0 reorg'!E412</f>
-        <v>0</v>
+        <v>package-feed-remote</v>
       </c>
       <c r="C411" t="str">
         <f>'Bowtie v1.0 reorg'!C412</f>
@@ -53761,37 +53968,37 @@
         <f>'Bowtie v1.0 reorg'!D412</f>
         <v>60057</v>
       </c>
-      <c r="E411" t="str">
+      <c r="E411">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F412),"",'Bowtie v1.0 reorg'!F412)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F411" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G412),"",'Bowtie v1.0 reorg'!G412)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G411" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I412),"",'Bowtie v1.0 reorg'!I412)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H411" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J412),"",'Bowtie v1.0 reorg'!J412)</f>
-        <v/>
+        <v>Package</v>
       </c>
       <c r="I411" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H412),"",'Bowtie v1.0 reorg'!H412)</f>
-        <v/>
+        <v>package feed remote signal reference wave virtual box square</v>
       </c>
       <c r="J411" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K412),"",'Bowtie v1.0 reorg'!K412)</f>
-        <v/>
-      </c>
-      <c r="K411" t="e">
+        <v>Used in Package hub treeview to represent package feed is a reference to remote repo.</v>
+      </c>
+      <c r="K411" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L411" t="e">
+        <v>{'id':410,'name':'package-feed-remote','unicode':'EA99','decimal':60057,'version':'1.1','style':'light','subset':'VSTS','group':'Package','keywords':['package','feed','remote','signal','reference','wave','virtual','box','square'],'usage':'Used in Package hub treeview to represent package feed is a reference to remote repo.'}</v>
+      </c>
+      <c r="L411" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":410,"name":"package-feed-remote","unicode":"EA99","decimal":60057,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","remote","signal","reference","wave","virtual","box","square"],"usage":"Used in Package hub treeview to represent package feed is a reference to remote repo."}</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
@@ -53799,9 +54006,9 @@
         <f>'Bowtie v1.0 reorg'!A413</f>
         <v>411</v>
       </c>
-      <c r="B412">
+      <c r="B412" t="str">
         <f>'Bowtie v1.0 reorg'!E413</f>
-        <v>0</v>
+        <v>package-feed-local</v>
       </c>
       <c r="C412" t="str">
         <f>'Bowtie v1.0 reorg'!C413</f>
@@ -53811,37 +54018,37 @@
         <f>'Bowtie v1.0 reorg'!D413</f>
         <v>60058</v>
       </c>
-      <c r="E412" t="str">
+      <c r="E412">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F413),"",'Bowtie v1.0 reorg'!F413)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F412" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G413),"",'Bowtie v1.0 reorg'!G413)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G412" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I413),"",'Bowtie v1.0 reorg'!I413)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H412" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J413),"",'Bowtie v1.0 reorg'!J413)</f>
-        <v/>
+        <v>Package</v>
       </c>
       <c r="I412" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H413),"",'Bowtie v1.0 reorg'!H413)</f>
-        <v/>
+        <v>package feed local box square</v>
       </c>
       <c r="J412" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K413),"",'Bowtie v1.0 reorg'!K413)</f>
-        <v/>
-      </c>
-      <c r="K412" t="e">
+        <v>Used in Package hub treeview to represent package feed is a local folder.</v>
+      </c>
+      <c r="K412" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L412" t="e">
+        <v>{'id':411,'name':'package-feed-local','unicode':'EA9A','decimal':60058,'version':'1.1','style':'light','subset':'VSTS','group':'Package','keywords':['package','feed','local','box','square'],'usage':'Used in Package hub treeview to represent package feed is a local folder.'}</v>
+      </c>
+      <c r="L412" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":411,"name":"package-feed-local","unicode":"EA9A","decimal":60058,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","local","box","square"],"usage":"Used in Package hub treeview to represent package feed is a local folder."}</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
     <sheet name="json" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="832">
   <si>
     <t>name</t>
   </si>
@@ -2507,12 +2507,21 @@
   </si>
   <si>
     <t>package feed remote signal reference wave virtual box square</t>
+  </si>
+  <si>
+    <t>work-item-bar-outline</t>
+  </si>
+  <si>
+    <t>work item bar</t>
+  </si>
+  <si>
+    <t>Used in Work hub backlog tree view to represent work items.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -18264,6 +18273,44 @@
         <a:xfrm>
           <a:off x="1123950" y="164572950"/>
           <a:ext cx="181000" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342925</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>314352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="413" name="Picture 412"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId411"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="165830250"/>
+          <a:ext cx="181000" cy="190527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18576,7 +18623,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C411" sqref="C411"/>
+      <selection pane="bottomLeft" activeCell="E414" sqref="E414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32679,9 +32726,30 @@
       <c r="D414">
         <v>60059</v>
       </c>
+      <c r="E414" t="s">
+        <v>829</v>
+      </c>
+      <c r="F414">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G414" t="s">
+        <v>17</v>
+      </c>
+      <c r="H414" t="s">
+        <v>830</v>
+      </c>
+      <c r="I414" t="s">
+        <v>15</v>
+      </c>
+      <c r="J414" t="s">
+        <v>602</v>
+      </c>
+      <c r="K414" t="s">
+        <v>831</v>
+      </c>
       <c r="L414" t="str">
         <f t="shared" si="13"/>
-        <v>uEA9B-.svg</v>
+        <v>uEA9B-work-item-bar-outline.svg</v>
       </c>
     </row>
     <row r="415" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33454,7 +33522,7 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="F405" sqref="F405"/>
+      <selection activeCell="J407" sqref="J407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54056,9 +54124,9 @@
         <f>'Bowtie v1.0 reorg'!A414</f>
         <v>412</v>
       </c>
-      <c r="B413">
+      <c r="B413" t="str">
         <f>'Bowtie v1.0 reorg'!E414</f>
-        <v>0</v>
+        <v>work-item-bar-outline</v>
       </c>
       <c r="C413" t="str">
         <f>'Bowtie v1.0 reorg'!C414</f>
@@ -54068,37 +54136,37 @@
         <f>'Bowtie v1.0 reorg'!D414</f>
         <v>60059</v>
       </c>
-      <c r="E413" t="str">
+      <c r="E413">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F414),"",'Bowtie v1.0 reorg'!F414)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F413" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G414),"",'Bowtie v1.0 reorg'!G414)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G413" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I414),"",'Bowtie v1.0 reorg'!I414)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H413" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J414),"",'Bowtie v1.0 reorg'!J414)</f>
-        <v/>
+        <v>Work</v>
       </c>
       <c r="I413" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H414),"",'Bowtie v1.0 reorg'!H414)</f>
-        <v/>
+        <v>work item bar</v>
       </c>
       <c r="J413" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K414),"",'Bowtie v1.0 reorg'!K414)</f>
-        <v/>
-      </c>
-      <c r="K413" t="e">
+        <v>Used in Work hub backlog tree view to represent work items.</v>
+      </c>
+      <c r="K413" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L413" t="e">
+        <v>{'id':412,'name':'work-item-bar-outline','unicode':'EA9B','decimal':60059,'version':'1.1','style':'light','subset':'VSTS','group':'Work','keywords':['work','item','bar'],'usage':'Used in Work hub backlog tree view to represent work items.'}</v>
+      </c>
+      <c r="L413" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":412,"name":"work-item-bar-outline","unicode":"EA9B","decimal":60059,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["work","item","bar"],"usage":"Used in Work hub backlog tree view to represent work items."}</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="837">
   <si>
     <t>name</t>
   </si>
@@ -2516,6 +2516,21 @@
   </si>
   <si>
     <t>Used in Work hub backlog tree view to represent work items.</t>
+  </si>
+  <si>
+    <t>sort-asc</t>
+  </si>
+  <si>
+    <t>sort-desc</t>
+  </si>
+  <si>
+    <t>sort alphabetically ascending arrow down letter</t>
+  </si>
+  <si>
+    <t>sort alphabetically descending arrow down letter</t>
+  </si>
+  <si>
+    <t>Used in ListView control sorting funcionality.</t>
   </si>
 </sst>
 </file>
@@ -18622,8 +18637,8 @@
   <dimension ref="A1:AL532"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E414" sqref="E414"/>
+      <pane ySplit="2" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H413" sqref="H413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32763,9 +32778,30 @@
       <c r="D415">
         <v>60060</v>
       </c>
+      <c r="E415" t="s">
+        <v>832</v>
+      </c>
+      <c r="F415">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G415" t="s">
+        <v>17</v>
+      </c>
+      <c r="H415" t="s">
+        <v>834</v>
+      </c>
+      <c r="I415" t="s">
+        <v>15</v>
+      </c>
+      <c r="J415" t="s">
+        <v>598</v>
+      </c>
+      <c r="K415" t="s">
+        <v>836</v>
+      </c>
       <c r="L415" t="str">
         <f t="shared" si="13"/>
-        <v>uEA9C-.svg</v>
+        <v>uEA9C-sort-asc.svg</v>
       </c>
     </row>
     <row r="416" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32779,9 +32815,30 @@
       <c r="D416">
         <v>60061</v>
       </c>
+      <c r="E416" t="s">
+        <v>833</v>
+      </c>
+      <c r="F416">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G416" t="s">
+        <v>17</v>
+      </c>
+      <c r="H416" t="s">
+        <v>835</v>
+      </c>
+      <c r="I416" t="s">
+        <v>15</v>
+      </c>
+      <c r="J416" t="s">
+        <v>598</v>
+      </c>
+      <c r="K416" t="s">
+        <v>836</v>
+      </c>
       <c r="L416" t="str">
         <f t="shared" si="13"/>
-        <v>uEA9D-.svg</v>
+        <v>uEA9D-sort-desc.svg</v>
       </c>
     </row>
     <row r="417" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -54174,9 +54231,9 @@
         <f>'Bowtie v1.0 reorg'!A415</f>
         <v>413</v>
       </c>
-      <c r="B414">
+      <c r="B414" t="str">
         <f>'Bowtie v1.0 reorg'!E415</f>
-        <v>0</v>
+        <v>sort-asc</v>
       </c>
       <c r="C414" t="str">
         <f>'Bowtie v1.0 reorg'!C415</f>
@@ -54186,37 +54243,37 @@
         <f>'Bowtie v1.0 reorg'!D415</f>
         <v>60060</v>
       </c>
-      <c r="E414" t="str">
+      <c r="E414">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F415),"",'Bowtie v1.0 reorg'!F415)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F414" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G415),"",'Bowtie v1.0 reorg'!G415)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G414" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I415),"",'Bowtie v1.0 reorg'!I415)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H414" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J415),"",'Bowtie v1.0 reorg'!J415)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I414" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H415),"",'Bowtie v1.0 reorg'!H415)</f>
-        <v/>
+        <v>sort alphabetically ascending arrow down letter</v>
       </c>
       <c r="J414" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K415),"",'Bowtie v1.0 reorg'!K415)</f>
-        <v/>
-      </c>
-      <c r="K414" t="e">
+        <v>Used in ListView control sorting funcionality.</v>
+      </c>
+      <c r="K414" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L414" t="e">
+        <v>{'id':413,'name':'sort-asc','unicode':'EA9C','decimal':60060,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['sort','alphabetically','ascending','arrow','down','letter'],'usage':'Used in ListView control sorting funcionality.'}</v>
+      </c>
+      <c r="L414" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":413,"name":"sort-asc","unicode":"EA9C","decimal":60060,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["sort","alphabetically","ascending","arrow","down","letter"],"usage":"Used in ListView control sorting funcionality."}</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
@@ -54224,9 +54281,9 @@
         <f>'Bowtie v1.0 reorg'!A416</f>
         <v>414</v>
       </c>
-      <c r="B415">
+      <c r="B415" t="str">
         <f>'Bowtie v1.0 reorg'!E416</f>
-        <v>0</v>
+        <v>sort-desc</v>
       </c>
       <c r="C415" t="str">
         <f>'Bowtie v1.0 reorg'!C416</f>
@@ -54236,37 +54293,37 @@
         <f>'Bowtie v1.0 reorg'!D416</f>
         <v>60061</v>
       </c>
-      <c r="E415" t="str">
+      <c r="E415">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F416),"",'Bowtie v1.0 reorg'!F416)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F415" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G416),"",'Bowtie v1.0 reorg'!G416)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G415" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I416),"",'Bowtie v1.0 reorg'!I416)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H415" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J416),"",'Bowtie v1.0 reorg'!J416)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I415" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H416),"",'Bowtie v1.0 reorg'!H416)</f>
-        <v/>
+        <v>sort alphabetically descending arrow down letter</v>
       </c>
       <c r="J415" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K416),"",'Bowtie v1.0 reorg'!K416)</f>
-        <v/>
-      </c>
-      <c r="K415" t="e">
+        <v>Used in ListView control sorting funcionality.</v>
+      </c>
+      <c r="K415" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L415" t="e">
+        <v>{'id':414,'name':'sort-desc','unicode':'EA9D','decimal':60061,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['sort','alphabetically','descending','arrow','down','letter'],'usage':'Used in ListView control sorting funcionality.'}</v>
+      </c>
+      <c r="L415" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":414,"name":"sort-desc","unicode":"EA9D","decimal":60061,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["sort","alphabetically","descending","arrow","down","letter"],"usage":"Used in ListView control sorting funcionality."}</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="850">
   <si>
     <t>name</t>
   </si>
@@ -2531,6 +2531,45 @@
   </si>
   <si>
     <t>Used in ListView control sorting funcionality.</t>
+  </si>
+  <si>
+    <t>plug-disconnected</t>
+  </si>
+  <si>
+    <t>plug-connected</t>
+  </si>
+  <si>
+    <t>plug-disconnected-fill</t>
+  </si>
+  <si>
+    <t>plug-connected-fill</t>
+  </si>
+  <si>
+    <t>plug disconnected unplug offline</t>
+  </si>
+  <si>
+    <t>plug connected plugged online</t>
+  </si>
+  <si>
+    <t>Indicate connection status.</t>
+  </si>
+  <si>
+    <t>sync-user</t>
+  </si>
+  <si>
+    <t>sync update user</t>
+  </si>
+  <si>
+    <t>Used in Backlog capacity editor for adding missing team members.</t>
+  </si>
+  <si>
+    <t>clear-filter</t>
+  </si>
+  <si>
+    <t>clear remove delete cancel filter funnel</t>
+  </si>
+  <si>
+    <t>Used in Code hub to clear applied filters.</t>
   </si>
 </sst>
 </file>
@@ -18326,6 +18365,310 @@
         <a:xfrm>
           <a:off x="1104900" y="165830250"/>
           <a:ext cx="181000" cy="190527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409606</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>314361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="414" name="Picture 413"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId412"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="166163625"/>
+          <a:ext cx="219106" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419135</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>314361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="415" name="Picture 414"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId413"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="166563675"/>
+          <a:ext cx="247685" cy="257211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419131</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>304833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="416" name="Picture 415"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId414"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="166973250"/>
+          <a:ext cx="219106" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352450</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>314358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="417" name="Picture 416"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId415"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="167382825"/>
+          <a:ext cx="181000" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361978</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>333407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="418" name="Picture 417"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId416"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="167811450"/>
+          <a:ext cx="200053" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381031</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>295306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="419" name="Picture 418"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId417"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="168182925"/>
+          <a:ext cx="219106" cy="219106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371503</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>371510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="420" name="Picture 419"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId418"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="168630600"/>
+          <a:ext cx="200053" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381027</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>333410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="421" name="Picture 420"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId419"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="168992550"/>
+          <a:ext cx="190527" cy="247685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18636,9 +18979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H413" sqref="H413"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32852,9 +33195,30 @@
       <c r="D417">
         <v>60062</v>
       </c>
+      <c r="E417" t="s">
+        <v>837</v>
+      </c>
+      <c r="F417">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G417" t="s">
+        <v>17</v>
+      </c>
+      <c r="H417" t="s">
+        <v>841</v>
+      </c>
+      <c r="I417" t="s">
+        <v>15</v>
+      </c>
+      <c r="J417" t="s">
+        <v>598</v>
+      </c>
+      <c r="K417" t="s">
+        <v>843</v>
+      </c>
       <c r="L417" t="str">
         <f t="shared" si="13"/>
-        <v>uEA9E-.svg</v>
+        <v>uEA9E-plug-disconnected.svg</v>
       </c>
     </row>
     <row r="418" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32868,9 +33232,30 @@
       <c r="D418">
         <v>60063</v>
       </c>
+      <c r="E418" t="s">
+        <v>838</v>
+      </c>
+      <c r="F418">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G418" t="s">
+        <v>17</v>
+      </c>
+      <c r="H418" t="s">
+        <v>842</v>
+      </c>
+      <c r="I418" t="s">
+        <v>15</v>
+      </c>
+      <c r="J418" t="s">
+        <v>598</v>
+      </c>
+      <c r="K418" t="s">
+        <v>843</v>
+      </c>
       <c r="L418" t="str">
         <f t="shared" si="13"/>
-        <v>uEA9F-.svg</v>
+        <v>uEA9F-plug-connected.svg</v>
       </c>
     </row>
     <row r="419" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32884,9 +33269,30 @@
       <c r="D419">
         <v>60064</v>
       </c>
+      <c r="E419" t="s">
+        <v>839</v>
+      </c>
+      <c r="F419">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G419" t="s">
+        <v>16</v>
+      </c>
+      <c r="H419" t="s">
+        <v>841</v>
+      </c>
+      <c r="I419" t="s">
+        <v>15</v>
+      </c>
+      <c r="J419" t="s">
+        <v>598</v>
+      </c>
+      <c r="K419" t="s">
+        <v>843</v>
+      </c>
       <c r="L419" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA0-.svg</v>
+        <v>uEAA0-plug-disconnected-fill.svg</v>
       </c>
     </row>
     <row r="420" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32900,9 +33306,30 @@
       <c r="D420">
         <v>60065</v>
       </c>
+      <c r="E420" t="s">
+        <v>840</v>
+      </c>
+      <c r="F420">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G420" t="s">
+        <v>16</v>
+      </c>
+      <c r="H420" t="s">
+        <v>842</v>
+      </c>
+      <c r="I420" t="s">
+        <v>15</v>
+      </c>
+      <c r="J420" t="s">
+        <v>598</v>
+      </c>
+      <c r="K420" t="s">
+        <v>843</v>
+      </c>
       <c r="L420" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA1-.svg</v>
+        <v>uEAA1-plug-connected-fill.svg</v>
       </c>
     </row>
     <row r="421" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32916,9 +33343,30 @@
       <c r="D421">
         <v>60066</v>
       </c>
+      <c r="E421" t="s">
+        <v>844</v>
+      </c>
+      <c r="F421">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G421" t="s">
+        <v>17</v>
+      </c>
+      <c r="H421" t="s">
+        <v>845</v>
+      </c>
+      <c r="I421" t="s">
+        <v>15</v>
+      </c>
+      <c r="J421" t="s">
+        <v>602</v>
+      </c>
+      <c r="K421" t="s">
+        <v>846</v>
+      </c>
       <c r="L421" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA2-.svg</v>
+        <v>uEAA2-sync-user.svg</v>
       </c>
     </row>
     <row r="422" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -32932,9 +33380,30 @@
       <c r="D422">
         <v>60067</v>
       </c>
+      <c r="E422" t="s">
+        <v>847</v>
+      </c>
+      <c r="F422">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G422" t="s">
+        <v>17</v>
+      </c>
+      <c r="H422" t="s">
+        <v>848</v>
+      </c>
+      <c r="I422" t="s">
+        <v>15</v>
+      </c>
+      <c r="J422" t="s">
+        <v>701</v>
+      </c>
+      <c r="K422" t="s">
+        <v>849</v>
+      </c>
       <c r="L422" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA3-.svg</v>
+        <v>uEAA3-clear-filter.svg</v>
       </c>
     </row>
     <row r="423" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33579,7 +34048,7 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="J407" sqref="J407"/>
+      <selection activeCell="O412" sqref="O412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54331,9 +54800,9 @@
         <f>'Bowtie v1.0 reorg'!A417</f>
         <v>415</v>
       </c>
-      <c r="B416">
+      <c r="B416" t="str">
         <f>'Bowtie v1.0 reorg'!E417</f>
-        <v>0</v>
+        <v>plug-disconnected</v>
       </c>
       <c r="C416" t="str">
         <f>'Bowtie v1.0 reorg'!C417</f>
@@ -54343,37 +54812,37 @@
         <f>'Bowtie v1.0 reorg'!D417</f>
         <v>60062</v>
       </c>
-      <c r="E416" t="str">
+      <c r="E416">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F417),"",'Bowtie v1.0 reorg'!F417)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F416" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G417),"",'Bowtie v1.0 reorg'!G417)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G416" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I417),"",'Bowtie v1.0 reorg'!I417)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H416" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J417),"",'Bowtie v1.0 reorg'!J417)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I416" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H417),"",'Bowtie v1.0 reorg'!H417)</f>
-        <v/>
+        <v>plug disconnected unplug offline</v>
       </c>
       <c r="J416" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K417),"",'Bowtie v1.0 reorg'!K417)</f>
-        <v/>
-      </c>
-      <c r="K416" t="e">
+        <v>Indicate connection status.</v>
+      </c>
+      <c r="K416" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L416" t="e">
+        <v>{'id':415,'name':'plug-disconnected','unicode':'EA9E','decimal':60062,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['plug','disconnected','unplug','offline'],'usage':'Indicate connection status.'}</v>
+      </c>
+      <c r="L416" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":415,"name":"plug-disconnected","unicode":"EA9E","decimal":60062,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["plug","disconnected","unplug","offline"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
@@ -54381,9 +54850,9 @@
         <f>'Bowtie v1.0 reorg'!A418</f>
         <v>416</v>
       </c>
-      <c r="B417">
+      <c r="B417" t="str">
         <f>'Bowtie v1.0 reorg'!E418</f>
-        <v>0</v>
+        <v>plug-connected</v>
       </c>
       <c r="C417" t="str">
         <f>'Bowtie v1.0 reorg'!C418</f>
@@ -54393,37 +54862,37 @@
         <f>'Bowtie v1.0 reorg'!D418</f>
         <v>60063</v>
       </c>
-      <c r="E417" t="str">
+      <c r="E417">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F418),"",'Bowtie v1.0 reorg'!F418)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F417" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G418),"",'Bowtie v1.0 reorg'!G418)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G417" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I418),"",'Bowtie v1.0 reorg'!I418)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H417" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J418),"",'Bowtie v1.0 reorg'!J418)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I417" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H418),"",'Bowtie v1.0 reorg'!H418)</f>
-        <v/>
+        <v>plug connected plugged online</v>
       </c>
       <c r="J417" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K418),"",'Bowtie v1.0 reorg'!K418)</f>
-        <v/>
-      </c>
-      <c r="K417" t="e">
+        <v>Indicate connection status.</v>
+      </c>
+      <c r="K417" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L417" t="e">
+        <v>{'id':416,'name':'plug-connected','unicode':'EA9F','decimal':60063,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['plug','connected','plugged','online'],'usage':'Indicate connection status.'}</v>
+      </c>
+      <c r="L417" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":416,"name":"plug-connected","unicode":"EA9F","decimal":60063,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["plug","connected","plugged","online"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
@@ -54431,9 +54900,9 @@
         <f>'Bowtie v1.0 reorg'!A419</f>
         <v>417</v>
       </c>
-      <c r="B418">
+      <c r="B418" t="str">
         <f>'Bowtie v1.0 reorg'!E419</f>
-        <v>0</v>
+        <v>plug-disconnected-fill</v>
       </c>
       <c r="C418" t="str">
         <f>'Bowtie v1.0 reorg'!C419</f>
@@ -54443,37 +54912,37 @@
         <f>'Bowtie v1.0 reorg'!D419</f>
         <v>60064</v>
       </c>
-      <c r="E418" t="str">
+      <c r="E418">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F419),"",'Bowtie v1.0 reorg'!F419)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F418" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G419),"",'Bowtie v1.0 reorg'!G419)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G418" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I419),"",'Bowtie v1.0 reorg'!I419)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H418" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J419),"",'Bowtie v1.0 reorg'!J419)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I418" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H419),"",'Bowtie v1.0 reorg'!H419)</f>
-        <v/>
+        <v>plug disconnected unplug offline</v>
       </c>
       <c r="J418" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K419),"",'Bowtie v1.0 reorg'!K419)</f>
-        <v/>
-      </c>
-      <c r="K418" t="e">
+        <v>Indicate connection status.</v>
+      </c>
+      <c r="K418" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L418" t="e">
+        <v>{'id':417,'name':'plug-disconnected-fill','unicode':'EAA0','decimal':60064,'version':'1.1','style':'bold','subset':'VSTS','group':'Common','keywords':['plug','disconnected','unplug','offline'],'usage':'Indicate connection status.'}</v>
+      </c>
+      <c r="L418" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":417,"name":"plug-disconnected-fill","unicode":"EAA0","decimal":60064,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","disconnected","unplug","offline"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
@@ -54481,9 +54950,9 @@
         <f>'Bowtie v1.0 reorg'!A420</f>
         <v>418</v>
       </c>
-      <c r="B419">
+      <c r="B419" t="str">
         <f>'Bowtie v1.0 reorg'!E420</f>
-        <v>0</v>
+        <v>plug-connected-fill</v>
       </c>
       <c r="C419" t="str">
         <f>'Bowtie v1.0 reorg'!C420</f>
@@ -54493,37 +54962,37 @@
         <f>'Bowtie v1.0 reorg'!D420</f>
         <v>60065</v>
       </c>
-      <c r="E419" t="str">
+      <c r="E419">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F420),"",'Bowtie v1.0 reorg'!F420)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F419" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G420),"",'Bowtie v1.0 reorg'!G420)</f>
-        <v/>
+        <v>bold</v>
       </c>
       <c r="G419" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I420),"",'Bowtie v1.0 reorg'!I420)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H419" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J420),"",'Bowtie v1.0 reorg'!J420)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I419" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H420),"",'Bowtie v1.0 reorg'!H420)</f>
-        <v/>
+        <v>plug connected plugged online</v>
       </c>
       <c r="J419" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K420),"",'Bowtie v1.0 reorg'!K420)</f>
-        <v/>
-      </c>
-      <c r="K419" t="e">
+        <v>Indicate connection status.</v>
+      </c>
+      <c r="K419" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L419" t="e">
+        <v>{'id':418,'name':'plug-connected-fill','unicode':'EAA1','decimal':60065,'version':'1.1','style':'bold','subset':'VSTS','group':'Common','keywords':['plug','connected','plugged','online'],'usage':'Indicate connection status.'}</v>
+      </c>
+      <c r="L419" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":418,"name":"plug-connected-fill","unicode":"EAA1","decimal":60065,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","connected","plugged","online"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
@@ -54531,9 +55000,9 @@
         <f>'Bowtie v1.0 reorg'!A421</f>
         <v>419</v>
       </c>
-      <c r="B420">
+      <c r="B420" t="str">
         <f>'Bowtie v1.0 reorg'!E421</f>
-        <v>0</v>
+        <v>sync-user</v>
       </c>
       <c r="C420" t="str">
         <f>'Bowtie v1.0 reorg'!C421</f>
@@ -54543,37 +55012,37 @@
         <f>'Bowtie v1.0 reorg'!D421</f>
         <v>60066</v>
       </c>
-      <c r="E420" t="str">
+      <c r="E420">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F421),"",'Bowtie v1.0 reorg'!F421)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F420" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G421),"",'Bowtie v1.0 reorg'!G421)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G420" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I421),"",'Bowtie v1.0 reorg'!I421)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H420" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J421),"",'Bowtie v1.0 reorg'!J421)</f>
-        <v/>
+        <v>Work</v>
       </c>
       <c r="I420" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H421),"",'Bowtie v1.0 reorg'!H421)</f>
-        <v/>
+        <v>sync update user</v>
       </c>
       <c r="J420" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K421),"",'Bowtie v1.0 reorg'!K421)</f>
-        <v/>
-      </c>
-      <c r="K420" t="e">
+        <v>Used in Backlog capacity editor for adding missing team members.</v>
+      </c>
+      <c r="K420" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L420" t="e">
+        <v>{'id':419,'name':'sync-user','unicode':'EAA2','decimal':60066,'version':'1.1','style':'light','subset':'VSTS','group':'Work','keywords':['sync','update','user'],'usage':'Used in Backlog capacity editor for adding missing team members.'}</v>
+      </c>
+      <c r="L420" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":419,"name":"sync-user","unicode":"EAA2","decimal":60066,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["sync","update","user"],"usage":"Used in Backlog capacity editor for adding missing team members."}</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
@@ -54581,9 +55050,9 @@
         <f>'Bowtie v1.0 reorg'!A422</f>
         <v>420</v>
       </c>
-      <c r="B421">
+      <c r="B421" t="str">
         <f>'Bowtie v1.0 reorg'!E422</f>
-        <v>0</v>
+        <v>clear-filter</v>
       </c>
       <c r="C421" t="str">
         <f>'Bowtie v1.0 reorg'!C422</f>
@@ -54593,37 +55062,37 @@
         <f>'Bowtie v1.0 reorg'!D422</f>
         <v>60067</v>
       </c>
-      <c r="E421" t="str">
+      <c r="E421">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F422),"",'Bowtie v1.0 reorg'!F422)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F421" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G422),"",'Bowtie v1.0 reorg'!G422)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G421" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I422),"",'Bowtie v1.0 reorg'!I422)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H421" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J422),"",'Bowtie v1.0 reorg'!J422)</f>
-        <v/>
+        <v>Code</v>
       </c>
       <c r="I421" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H422),"",'Bowtie v1.0 reorg'!H422)</f>
-        <v/>
+        <v>clear remove delete cancel filter funnel</v>
       </c>
       <c r="J421" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K422),"",'Bowtie v1.0 reorg'!K422)</f>
-        <v/>
-      </c>
-      <c r="K421" t="e">
+        <v>Used in Code hub to clear applied filters.</v>
+      </c>
+      <c r="K421" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L421" t="e">
+        <v>{'id':420,'name':'clear-filter','unicode':'EAA3','decimal':60067,'version':'1.1','style':'light','subset':'VSTS','group':'Code','keywords':['clear','remove','delete','cancel','filter','funnel'],'usage':'Used in Code hub to clear applied filters.'}</v>
+      </c>
+      <c r="L421" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":420,"name":"clear-filter","unicode":"EAA3","decimal":60067,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["clear","remove","delete","cancel","filter","funnel"],"usage":"Used in Code hub to clear applied filters."}</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="858">
   <si>
     <t>name</t>
   </si>
@@ -2570,6 +2570,30 @@
   </si>
   <si>
     <t>Used in Code hub to clear applied filters.</t>
+  </si>
+  <si>
+    <t>watch-eye-off</t>
+  </si>
+  <si>
+    <t>watch eye follow off slash</t>
+  </si>
+  <si>
+    <t>Used for turning off follow on an work item.</t>
+  </si>
+  <si>
+    <t>shopping-cart</t>
+  </si>
+  <si>
+    <t>shopping-cart-fill</t>
+  </si>
+  <si>
+    <t>shop cart buy purchase store</t>
+  </si>
+  <si>
+    <t>VSCOM</t>
+  </si>
+  <si>
+    <t>Use this version when shopping cart needs two states: empty and filled</t>
   </si>
 </sst>
 </file>
@@ -18979,9 +19003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
+      <selection pane="bottomLeft" activeCell="H431" sqref="H431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33417,9 +33441,30 @@
       <c r="D423">
         <v>60068</v>
       </c>
+      <c r="E423" t="s">
+        <v>850</v>
+      </c>
+      <c r="F423">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G423" t="s">
+        <v>17</v>
+      </c>
+      <c r="H423" t="s">
+        <v>851</v>
+      </c>
+      <c r="I423" t="s">
+        <v>15</v>
+      </c>
+      <c r="J423" t="s">
+        <v>602</v>
+      </c>
+      <c r="K423" t="s">
+        <v>852</v>
+      </c>
       <c r="L423" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA4-.svg</v>
+        <v>uEAA4-watch-eye-off.svg</v>
       </c>
     </row>
     <row r="424" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33433,9 +33478,30 @@
       <c r="D424">
         <v>60069</v>
       </c>
+      <c r="E424" t="s">
+        <v>853</v>
+      </c>
+      <c r="F424">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G424" t="s">
+        <v>17</v>
+      </c>
+      <c r="H424" t="s">
+        <v>855</v>
+      </c>
+      <c r="I424" t="s">
+        <v>856</v>
+      </c>
+      <c r="J424" t="s">
+        <v>598</v>
+      </c>
+      <c r="K424" t="s">
+        <v>857</v>
+      </c>
       <c r="L424" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA5-.svg</v>
+        <v>uEAA5-shopping-cart.svg</v>
       </c>
     </row>
     <row r="425" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -33449,9 +33515,30 @@
       <c r="D425">
         <v>60070</v>
       </c>
+      <c r="E425" t="s">
+        <v>854</v>
+      </c>
+      <c r="F425">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G425" t="s">
+        <v>17</v>
+      </c>
+      <c r="H425" t="s">
+        <v>855</v>
+      </c>
+      <c r="I425" t="s">
+        <v>856</v>
+      </c>
+      <c r="J425" t="s">
+        <v>598</v>
+      </c>
+      <c r="K425" t="s">
+        <v>857</v>
+      </c>
       <c r="L425" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA6-.svg</v>
+        <v>uEAA6-shopping-cart-fill.svg</v>
       </c>
     </row>
     <row r="426" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34047,8 +34134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="O412" sqref="O412"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="L424" sqref="L423:L424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55100,9 +55187,9 @@
         <f>'Bowtie v1.0 reorg'!A423</f>
         <v>421</v>
       </c>
-      <c r="B422">
+      <c r="B422" t="str">
         <f>'Bowtie v1.0 reorg'!E423</f>
-        <v>0</v>
+        <v>watch-eye-off</v>
       </c>
       <c r="C422" t="str">
         <f>'Bowtie v1.0 reorg'!C423</f>
@@ -55112,37 +55199,37 @@
         <f>'Bowtie v1.0 reorg'!D423</f>
         <v>60068</v>
       </c>
-      <c r="E422" t="str">
+      <c r="E422">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F423),"",'Bowtie v1.0 reorg'!F423)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F422" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G423),"",'Bowtie v1.0 reorg'!G423)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G422" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I423),"",'Bowtie v1.0 reorg'!I423)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H422" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J423),"",'Bowtie v1.0 reorg'!J423)</f>
-        <v/>
+        <v>Work</v>
       </c>
       <c r="I422" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H423),"",'Bowtie v1.0 reorg'!H423)</f>
-        <v/>
+        <v>watch eye follow off slash</v>
       </c>
       <c r="J422" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K423),"",'Bowtie v1.0 reorg'!K423)</f>
-        <v/>
-      </c>
-      <c r="K422" t="e">
+        <v>Used for turning off follow on an work item.</v>
+      </c>
+      <c r="K422" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L422" t="e">
+        <v>{'id':421,'name':'watch-eye-off','unicode':'EAA4','decimal':60068,'version':'1.1','style':'light','subset':'VSTS','group':'Work','keywords':['watch','eye','follow','off','slash'],'usage':'Used for turning off follow on an work item.'}</v>
+      </c>
+      <c r="L422" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":421,"name":"watch-eye-off","unicode":"EAA4","decimal":60068,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["watch","eye","follow","off","slash"],"usage":"Used for turning off follow on an work item."}</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
@@ -55150,9 +55237,9 @@
         <f>'Bowtie v1.0 reorg'!A424</f>
         <v>422</v>
       </c>
-      <c r="B423">
+      <c r="B423" t="str">
         <f>'Bowtie v1.0 reorg'!E424</f>
-        <v>0</v>
+        <v>shopping-cart</v>
       </c>
       <c r="C423" t="str">
         <f>'Bowtie v1.0 reorg'!C424</f>
@@ -55162,37 +55249,37 @@
         <f>'Bowtie v1.0 reorg'!D424</f>
         <v>60069</v>
       </c>
-      <c r="E423" t="str">
+      <c r="E423">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F424),"",'Bowtie v1.0 reorg'!F424)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F423" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G424),"",'Bowtie v1.0 reorg'!G424)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G423" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I424),"",'Bowtie v1.0 reorg'!I424)</f>
-        <v/>
+        <v>VSCOM</v>
       </c>
       <c r="H423" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J424),"",'Bowtie v1.0 reorg'!J424)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I423" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H424),"",'Bowtie v1.0 reorg'!H424)</f>
-        <v/>
+        <v>shop cart buy purchase store</v>
       </c>
       <c r="J423" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K424),"",'Bowtie v1.0 reorg'!K424)</f>
-        <v/>
-      </c>
-      <c r="K423" t="e">
+        <v>Use this version when shopping cart needs two states: empty and filled</v>
+      </c>
+      <c r="K423" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L423" t="e">
+        <v>{'id':422,'name':'shopping-cart','unicode':'EAA5','decimal':60069,'version':'1.1','style':'light','subset':'VSCOM','group':'Common','keywords':['shop','cart','buy','purchase','store'],'usage':'Use this version when shopping cart needs two states: empty and filled'}</v>
+      </c>
+      <c r="L423" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":422,"name":"shopping-cart","unicode":"EAA5","decimal":60069,"version":"1.1","style":"light","subset":"VSCOM","group":"Common","keywords":["shop","cart","buy","purchase","store"],"usage":"Use this version when shopping cart needs two states: empty and filled"}</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
@@ -55200,9 +55287,9 @@
         <f>'Bowtie v1.0 reorg'!A425</f>
         <v>423</v>
       </c>
-      <c r="B424">
+      <c r="B424" t="str">
         <f>'Bowtie v1.0 reorg'!E425</f>
-        <v>0</v>
+        <v>shopping-cart-fill</v>
       </c>
       <c r="C424" t="str">
         <f>'Bowtie v1.0 reorg'!C425</f>
@@ -55212,37 +55299,37 @@
         <f>'Bowtie v1.0 reorg'!D425</f>
         <v>60070</v>
       </c>
-      <c r="E424" t="str">
+      <c r="E424">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F425),"",'Bowtie v1.0 reorg'!F425)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F424" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G425),"",'Bowtie v1.0 reorg'!G425)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G424" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I425),"",'Bowtie v1.0 reorg'!I425)</f>
-        <v/>
+        <v>VSCOM</v>
       </c>
       <c r="H424" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J425),"",'Bowtie v1.0 reorg'!J425)</f>
-        <v/>
+        <v>Common</v>
       </c>
       <c r="I424" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H425),"",'Bowtie v1.0 reorg'!H425)</f>
-        <v/>
+        <v>shop cart buy purchase store</v>
       </c>
       <c r="J424" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K425),"",'Bowtie v1.0 reorg'!K425)</f>
-        <v/>
-      </c>
-      <c r="K424" t="e">
+        <v>Use this version when shopping cart needs two states: empty and filled</v>
+      </c>
+      <c r="K424" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L424" t="e">
+        <v>{'id':423,'name':'shopping-cart-fill','unicode':'EAA6','decimal':60070,'version':'1.1','style':'light','subset':'VSCOM','group':'Common','keywords':['shop','cart','buy','purchase','store'],'usage':'Use this version when shopping cart needs two states: empty and filled'}</v>
+      </c>
+      <c r="L424" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":423,"name":"shopping-cart-fill","unicode":"EAA6","decimal":60070,"version":"1.1","style":"light","subset":"VSCOM","group":"Common","keywords":["shop","cart","buy","purchase","store"],"usage":"Use this version when shopping cart needs two states: empty and filled"}</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
     <sheet name="json" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="861">
   <si>
     <t>name</t>
   </si>
@@ -2594,6 +2594,15 @@
   </si>
   <si>
     <t>Use this version when shopping cart needs two states: empty and filled</t>
+  </si>
+  <si>
+    <t>update-queue</t>
+  </si>
+  <si>
+    <t>update pull request version control queue</t>
+  </si>
+  <si>
+    <t>Used to represent multiple updates to a branch.</t>
   </si>
 </sst>
 </file>
@@ -18780,23 +18789,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -18832,23 +18824,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -19003,9 +18978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL532"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H431" sqref="H431"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G426" sqref="G426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33552,9 +33527,30 @@
       <c r="D426">
         <v>60071</v>
       </c>
+      <c r="E426" t="s">
+        <v>858</v>
+      </c>
+      <c r="F426">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G426" t="s">
+        <v>17</v>
+      </c>
+      <c r="H426" t="s">
+        <v>859</v>
+      </c>
+      <c r="I426" t="s">
+        <v>15</v>
+      </c>
+      <c r="J426" t="s">
+        <v>701</v>
+      </c>
+      <c r="K426" t="s">
+        <v>860</v>
+      </c>
       <c r="L426" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA7-.svg</v>
+        <v>uEAA7-update-queue.svg</v>
       </c>
     </row>
     <row r="427" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34134,8 +34130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="L424" sqref="L423:L424"/>
+    <sheetView topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="L425" sqref="L425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55337,9 +55333,9 @@
         <f>'Bowtie v1.0 reorg'!A426</f>
         <v>424</v>
       </c>
-      <c r="B425">
+      <c r="B425" t="str">
         <f>'Bowtie v1.0 reorg'!E426</f>
-        <v>0</v>
+        <v>update-queue</v>
       </c>
       <c r="C425" t="str">
         <f>'Bowtie v1.0 reorg'!C426</f>
@@ -55349,37 +55345,37 @@
         <f>'Bowtie v1.0 reorg'!D426</f>
         <v>60071</v>
       </c>
-      <c r="E425" t="str">
+      <c r="E425">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F426),"",'Bowtie v1.0 reorg'!F426)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G426),"",'Bowtie v1.0 reorg'!G426)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I426),"",'Bowtie v1.0 reorg'!I426)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J426),"",'Bowtie v1.0 reorg'!J426)</f>
-        <v/>
+        <v>Code</v>
       </c>
       <c r="I425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H426),"",'Bowtie v1.0 reorg'!H426)</f>
-        <v/>
+        <v>update pull request version control queue</v>
       </c>
       <c r="J425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K426),"",'Bowtie v1.0 reorg'!K426)</f>
-        <v/>
-      </c>
-      <c r="K425" t="e">
+        <v>Used to represent multiple updates to a branch.</v>
+      </c>
+      <c r="K425" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L425" t="e">
+        <v>{'id':424,'name':'update-queue','unicode':'EAA7','decimal':60071,'version':'1.1','style':'light','subset':'VSTS','group':'Code','keywords':['update','pull','request','version','control','queue'],'usage':'Used to represent multiple updates to a branch.'}</v>
+      </c>
+      <c r="L425" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
+        <v>{"id":424,"name":"update-queue","unicode":"EAA7","decimal":60071,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["update","pull","request","version","control","queue"],"usage":"Used to represent multiple updates to a branch."}</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
     <sheet name="json" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="864">
   <si>
     <t>name</t>
   </si>
@@ -2603,6 +2603,15 @@
   </si>
   <si>
     <t>Used to represent multiple updates to a branch.</t>
+  </si>
+  <si>
+    <t>Used in capacity view to add missing team member.</t>
+  </si>
+  <si>
+    <t>add-team</t>
+  </si>
+  <si>
+    <t>add team user member</t>
   </si>
 </sst>
 </file>
@@ -18789,6 +18798,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -18824,6 +18850,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18978,28 +19021,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G426" sqref="G426"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L427" sqref="L427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="13.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2"/>
+    <col min="3" max="3" width="13.3984375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.265625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.86328125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.265625" style="2" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" customWidth="1"/>
     <col min="12" max="38" width="9" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="2"/>
+    <col min="39" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>183</v>
       </c>
@@ -19058,7 +19101,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -19121,7 +19164,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -19158,7 +19201,7 @@
         <v>uE900-arrow-up.svg</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -19195,7 +19238,7 @@
         <v>uE901-arrow-left.svg</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -19232,7 +19275,7 @@
         <v>uE902-arrow-down.svg</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -19269,7 +19312,7 @@
         <v>uE903-arrow-right.svg</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -19306,7 +19349,7 @@
         <v>uE904-arrow-up-left.svg</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -19369,7 +19412,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
     </row>
-    <row r="9" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -19406,7 +19449,7 @@
         <v>uE906-arrow-down-left.svg</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -19443,7 +19486,7 @@
         <v>uE907-arrow-down-right.svg</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -19477,7 +19520,7 @@
         <v>uE908-arrow-export.svg</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -19511,7 +19554,7 @@
         <v>uE909-arrow-open.svg</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -19572,7 +19615,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
     </row>
-    <row r="14" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -19610,7 +19653,7 @@
         <v>uE90B-sort-ascending.svg</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -19648,7 +19691,7 @@
         <v>uE90C-sort-descending.svg</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -19679,7 +19722,7 @@
         <v>uE90D-switch.svg</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -19713,7 +19756,7 @@
         <v>uE90E-synchronize.svg</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -19747,7 +19790,7 @@
         <v>uE90F-transfer-download.svg</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -19781,7 +19824,7 @@
         <v>uE910-transfer-upload.svg</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -19815,7 +19858,7 @@
         <v>uE911-azure-api-management.svg</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -19849,7 +19892,7 @@
         <v>uE912-azure-service-endpoint.svg</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -19886,7 +19929,7 @@
         <v>uE913-brand-android.svg</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -19923,7 +19966,7 @@
         <v>uE914-brand-facebook.svg</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -19960,7 +20003,7 @@
         <v>uE915-brand-git.svg</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -19997,7 +20040,7 @@
         <v>uE916-brand-github.svg</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -20034,7 +20077,7 @@
         <v>uE917-brand-maven.svg</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -20065,7 +20108,7 @@
         <v>uE918-brand-mtm.svg</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -20102,7 +20145,7 @@
         <v>uE919-brand-npm.svg</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -20165,7 +20208,7 @@
       <c r="AK29"/>
       <c r="AL29"/>
     </row>
-    <row r="30" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -20202,7 +20245,7 @@
         <v>uE91B-brand-tfvc.svg</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -20239,7 +20282,7 @@
         <v>uE91C-brand-twitter.svg</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -20276,7 +20319,7 @@
         <v>uE91D-brand-visualstudio.svg</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -20313,7 +20356,7 @@
         <v>uE91E-brand-windows.svg</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -20351,7 +20394,7 @@
         <v>uE91F-git.svg</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -20389,7 +20432,7 @@
         <v>uE920-logo-visual-studio.svg</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -20448,7 +20491,7 @@
       <c r="AK36" s="10"/>
       <c r="AL36" s="10"/>
     </row>
-    <row r="37" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -20485,7 +20528,7 @@
         <v>uE922-chart-area.svg</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -20522,7 +20565,7 @@
         <v>uE923-chart-bar.svg</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -20559,7 +20602,7 @@
         <v>uE924-chart-column.svg</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -20596,7 +20639,7 @@
         <v>uE925-chart-pie.svg</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -20633,7 +20676,7 @@
         <v>uE926-chart-pivot.svg</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -20670,7 +20713,7 @@
         <v>uE927-chart-stacked-area.svg</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -20707,7 +20750,7 @@
         <v>uE928-chart-stacked-bar.svg</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -20744,7 +20787,7 @@
         <v>uE929-chart-stacked-line.svg</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -20782,7 +20825,7 @@
         <v>uE92A-build-queue-new.svg</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -20819,7 +20862,7 @@
         <v>uE92B-clone-to-desktop.svg</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -20853,7 +20896,7 @@
         <v>uE92C-install.svg</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -20887,7 +20930,7 @@
         <v>uE92D-comment.svg</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -20921,7 +20964,7 @@
         <v>uE92E-comment-add.svg</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -20955,7 +20998,7 @@
         <v>uE92F-comment-discussion.svg</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -20989,7 +21032,7 @@
         <v>uE930-comment-lines.svg</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -21023,7 +21066,7 @@
         <v>uE931-comment-next.svg</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -21057,7 +21100,7 @@
         <v>uE932-comment-outline.svg</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -21091,7 +21134,7 @@
         <v>uE933-comment-previous.svg</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -21125,7 +21168,7 @@
         <v>uE934-comment-urgent.svg</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -21162,7 +21205,7 @@
         <v>uE935-alert.svg</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -21200,7 +21243,7 @@
         <v>uE936-approve.svg</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -21238,7 +21281,7 @@
         <v>uE937-approve-disapprove.svg</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -21272,7 +21315,7 @@
         <v>uE938-blur.svg</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -21309,7 +21352,7 @@
         <v>uE939-build.svg</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -21346,7 +21389,7 @@
         <v>uE93A-build-queue.svg</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -21383,7 +21426,7 @@
         <v>uE93B-build-reason-checkin-shelveset.svg</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -21420,7 +21463,7 @@
         <v>uE93C-calendar.svg</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -21457,7 +21500,7 @@
         <v>uE93D-calendar-month.svg</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -21488,7 +21531,7 @@
         <v>uE93E-camera.svg</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -21525,7 +21568,7 @@
         <v>uE93F-clone.svg</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -21559,7 +21602,7 @@
         <v>uE940-cloud.svg</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -21593,7 +21636,7 @@
         <v>uE941-cloud-fill.svg</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -21627,7 +21670,7 @@
         <v>uE942-copy-to-clipboard.svg</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -21661,7 +21704,7 @@
         <v>uE943-dashboard.svg</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -21695,7 +21738,7 @@
         <v>uE944-dashboard-fill.svg</v>
       </c>
     </row>
-    <row r="72" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -21756,7 +21799,7 @@
       <c r="AK72"/>
       <c r="AL72"/>
     </row>
-    <row r="73" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -21790,7 +21833,7 @@
         <v>uE946-deploy.svg</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -21824,7 +21867,7 @@
         <v>uE947-redeploy.svg</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -21858,7 +21901,7 @@
         <v>uE948-details-pane.svg</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -21892,7 +21935,7 @@
         <v>uE949-edit.svg</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -21926,7 +21969,7 @@
         <v>uE94A-edit-outline.svg</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -21960,7 +22003,7 @@
         <v>uE94B-edit-copy.svg</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -21994,7 +22037,7 @@
         <v>uE94C-edit-cut.svg</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -22028,7 +22071,7 @@
         <v>uE94D-editor-list-bullet.svg</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -22062,7 +22105,7 @@
         <v>uE94E-edit-paste.svg</v>
       </c>
     </row>
-    <row r="82" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -22125,7 +22168,7 @@
       <c r="AK82"/>
       <c r="AL82"/>
     </row>
-    <row r="83" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -22163,7 +22206,7 @@
         <v>uE950-edit-remove.svg</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -22197,7 +22240,7 @@
         <v>uE951-edit-redo.svg</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -22231,7 +22274,7 @@
         <v>uE952-edit-undo.svg</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -22265,7 +22308,7 @@
         <v>uE953-edit-rename.svg</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -22302,7 +22345,7 @@
         <v>uE954-attach.svg</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -22336,7 +22379,7 @@
         <v>uE955-link.svg</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -22364,7 +22407,7 @@
         <v>uE956-server.svg</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -22392,7 +22435,7 @@
         <v>uE957-environment.svg</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -22420,7 +22463,7 @@
         <v>uE958-devices.svg</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -22454,7 +22497,7 @@
         <v>uE959-feedback-negative.svg</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -22488,7 +22531,7 @@
         <v>uE95A-feedback-positive.svg</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -22522,7 +22565,7 @@
         <v>uE95B-folder.svg</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -22556,7 +22599,7 @@
         <v>uE95C-image.svg</v>
       </c>
     </row>
-    <row r="96" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -22617,7 +22660,7 @@
       <c r="AK96"/>
       <c r="AL96"/>
     </row>
-    <row r="97" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -22651,7 +22694,7 @@
         <v>uE95E-package-fill.svg</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -22685,7 +22728,7 @@
         <v>uE95F-heart.svg</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -22719,7 +22762,7 @@
         <v>uE960-heart-fill.svg</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -22753,7 +22796,7 @@
         <v>uE961-heartbeat.svg</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -22787,7 +22830,7 @@
         <v>uE962-heartbeat-fill.svg</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -22824,7 +22867,7 @@
         <v>uE963-mail-message.svg</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -22861,7 +22904,7 @@
         <v>uE964-mail-message-fill.svg</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -22895,7 +22938,7 @@
         <v>uE965-math-minus.svg</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -22929,7 +22972,7 @@
         <v>uE966-math-minus-light.svg</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -22963,7 +23006,7 @@
         <v>uE967-math-minus-box-light.svg</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -22997,7 +23040,7 @@
         <v>uE968-math-minus-box.svg</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -23031,7 +23074,7 @@
         <v>uE969-math-minus-circle-outline.svg</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -23065,7 +23108,7 @@
         <v>uE96A-math-minus-circle.svg</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -23099,7 +23142,7 @@
         <v>uE96B-math-multiply.svg</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -23133,7 +23176,7 @@
         <v>uE96C-math-multiply-light.svg</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -23167,7 +23210,7 @@
         <v>uE96D-math-multiply-box-light.svg</v>
       </c>
     </row>
-    <row r="113" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -23201,7 +23244,7 @@
         <v>uE96E-math-multiply-box.svg</v>
       </c>
     </row>
-    <row r="114" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -23235,7 +23278,7 @@
         <v>uE96F-math-multiply-box-outline.svg</v>
       </c>
     </row>
-    <row r="115" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -23296,7 +23339,7 @@
       <c r="AK115"/>
       <c r="AL115"/>
     </row>
-    <row r="116" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -23330,7 +23373,7 @@
         <v>uE971-math-plus-light.svg</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -23364,7 +23407,7 @@
         <v>uE972-math-plus-box-light.svg</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -23398,7 +23441,7 @@
         <v>uE973-math-plus-box.svg</v>
       </c>
     </row>
-    <row r="119" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -23432,7 +23475,7 @@
         <v>uE974-math-plus-circle-outline.svg</v>
       </c>
     </row>
-    <row r="120" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -23466,7 +23509,7 @@
         <v>uE975-math-plus-circle.svg</v>
       </c>
     </row>
-    <row r="121" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -23504,7 +23547,7 @@
         <v>uE976-math-plus-heavy.svg</v>
       </c>
     </row>
-    <row r="122" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -23541,7 +23584,7 @@
         <v>uE977-check.svg</v>
       </c>
     </row>
-    <row r="123" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -23578,7 +23621,7 @@
         <v>uE978-check-light.svg</v>
       </c>
     </row>
-    <row r="124" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -23612,7 +23655,7 @@
         <v>uE979-feed.svg</v>
       </c>
     </row>
-    <row r="125" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -23646,7 +23689,7 @@
         <v>uE97A-network-tower.svg</v>
       </c>
     </row>
-    <row r="126" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -23680,7 +23723,7 @@
         <v>uE97B-connect-to-feed.svg</v>
       </c>
     </row>
-    <row r="127" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -23714,7 +23757,7 @@
         <v>uE97C-plug.svg</v>
       </c>
     </row>
-    <row r="128" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -23748,7 +23791,7 @@
         <v>uE97D-plug-outline.svg</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -23782,7 +23825,7 @@
         <v>uE97E-policy.svg</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -23810,7 +23853,7 @@
         <v>uE97F-print.svg</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -23844,7 +23887,7 @@
         <v>uE980-recycle.svg</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -23872,7 +23915,7 @@
         <v>uE981-robot.svg</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -23906,7 +23949,7 @@
         <v>uE982-save.svg</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -23934,7 +23977,7 @@
         <v>uE983-save-all.svg</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -23962,7 +24005,7 @@
         <v>uE984-save-as.svg</v>
       </c>
     </row>
-    <row r="136" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>134</v>
       </c>
@@ -23990,7 +24033,7 @@
         <v>uE985-save-close.svg</v>
       </c>
     </row>
-    <row r="137" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>135</v>
       </c>
@@ -24024,7 +24067,7 @@
         <v>uE986-search.svg</v>
       </c>
     </row>
-    <row r="138" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>136</v>
       </c>
@@ -24058,7 +24101,7 @@
         <v>uE987-search-filter.svg</v>
       </c>
     </row>
-    <row r="139" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>137</v>
       </c>
@@ -24092,7 +24135,7 @@
         <v>uE988-search-filter-fill.svg</v>
       </c>
     </row>
-    <row r="140" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>138</v>
       </c>
@@ -24129,7 +24172,7 @@
         <v>uE989-security.svg</v>
       </c>
     </row>
-    <row r="141" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>139</v>
       </c>
@@ -24163,7 +24206,7 @@
         <v>uE98A-security-access.svg</v>
       </c>
     </row>
-    <row r="142" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>140</v>
       </c>
@@ -24197,7 +24240,7 @@
         <v>uE98B-security-lock.svg</v>
       </c>
     </row>
-    <row r="143" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>141</v>
       </c>
@@ -24231,7 +24274,7 @@
         <v>uE98C-security-lock-fill.svg</v>
       </c>
     </row>
-    <row r="144" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>142</v>
       </c>
@@ -24265,7 +24308,7 @@
         <v>uE98D-security-unlock.svg</v>
       </c>
     </row>
-    <row r="145" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>143</v>
       </c>
@@ -24299,7 +24342,7 @@
         <v>uE98E-security-unlock-fill.svg</v>
       </c>
     </row>
-    <row r="146" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>144</v>
       </c>
@@ -24333,7 +24376,7 @@
         <v>uE98F-settings-gear.svg</v>
       </c>
     </row>
-    <row r="147" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>145</v>
       </c>
@@ -24364,7 +24407,7 @@
         <v>uE990-settings-gear-outline.svg</v>
       </c>
     </row>
-    <row r="148" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>146</v>
       </c>
@@ -24398,7 +24441,7 @@
         <v>uE991-settings-wrench.svg</v>
       </c>
     </row>
-    <row r="149" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>147</v>
       </c>
@@ -24426,7 +24469,7 @@
         <v>uE992-trash.svg</v>
       </c>
     </row>
-    <row r="150" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>148</v>
       </c>
@@ -24460,7 +24503,7 @@
         <v>uE993-share.svg</v>
       </c>
     </row>
-    <row r="151" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>149</v>
       </c>
@@ -24494,7 +24537,7 @@
         <v>uE994-shop.svg</v>
       </c>
     </row>
-    <row r="152" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>150</v>
       </c>
@@ -24528,7 +24571,7 @@
         <v>uE995-shop-server.svg</v>
       </c>
     </row>
-    <row r="153" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>151</v>
       </c>
@@ -24556,7 +24599,7 @@
         <v>uE996-tag.svg</v>
       </c>
     </row>
-    <row r="154" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>152</v>
       </c>
@@ -24584,7 +24627,7 @@
         <v>uE997-tag-fill.svg</v>
       </c>
     </row>
-    <row r="155" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>153</v>
       </c>
@@ -24612,7 +24655,7 @@
         <v>uE998-user.svg</v>
       </c>
     </row>
-    <row r="156" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>154</v>
       </c>
@@ -24640,7 +24683,7 @@
         <v>uE999-users.svg</v>
       </c>
     </row>
-    <row r="157" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>155</v>
       </c>
@@ -24668,7 +24711,7 @@
         <v>uE99A-variable.svg</v>
       </c>
     </row>
-    <row r="158" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>156</v>
       </c>
@@ -24696,7 +24739,7 @@
         <v>uE99B-video.svg</v>
       </c>
     </row>
-    <row r="159" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>157</v>
       </c>
@@ -24724,7 +24767,7 @@
         <v>uE99C-view-grid.svg</v>
       </c>
     </row>
-    <row r="160" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>158</v>
       </c>
@@ -24752,7 +24795,7 @@
         <v>uE99D-watch-eye.svg</v>
       </c>
     </row>
-    <row r="161" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>159</v>
       </c>
@@ -24780,7 +24823,7 @@
         <v>uE99E-watch-eye-fill.svg</v>
       </c>
     </row>
-    <row r="162" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>160</v>
       </c>
@@ -24817,7 +24860,7 @@
         <v>uE99F-live-update-feed.svg</v>
       </c>
     </row>
-    <row r="163" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>161</v>
       </c>
@@ -24854,7 +24897,7 @@
         <v>uE9A0-checkbox.svg</v>
       </c>
     </row>
-    <row r="164" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>162</v>
       </c>
@@ -24891,7 +24934,7 @@
         <v>uE9A1-checkbox-empty.svg</v>
       </c>
     </row>
-    <row r="165" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>163</v>
       </c>
@@ -24928,7 +24971,7 @@
         <v>uE9A2-chevron-up.svg</v>
       </c>
     </row>
-    <row r="166" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>164</v>
       </c>
@@ -24965,7 +25008,7 @@
         <v>uE9A3-chevron-left.svg</v>
       </c>
     </row>
-    <row r="167" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>165</v>
       </c>
@@ -25002,7 +25045,7 @@
         <v>uE9A4-chevron-down.svg</v>
       </c>
     </row>
-    <row r="168" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>166</v>
       </c>
@@ -25039,7 +25082,7 @@
         <v>uE9A5-chevron-right.svg</v>
       </c>
     </row>
-    <row r="169" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>167</v>
       </c>
@@ -25076,7 +25119,7 @@
         <v>uE9A6-chevron-up-light.svg</v>
       </c>
     </row>
-    <row r="170" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>168</v>
       </c>
@@ -25113,7 +25156,7 @@
         <v>uE9A7-chevron-left-light.svg</v>
       </c>
     </row>
-    <row r="171" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>169</v>
       </c>
@@ -25150,7 +25193,7 @@
         <v>uE9A8-chevron-down-light.svg</v>
       </c>
     </row>
-    <row r="172" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>170</v>
       </c>
@@ -25187,7 +25230,7 @@
         <v>uE9A9-chevron-right-light.svg</v>
       </c>
     </row>
-    <row r="173" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>171</v>
       </c>
@@ -25215,7 +25258,7 @@
         <v>uE9AA-chevron-up-all.svg</v>
       </c>
     </row>
-    <row r="174" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>172</v>
       </c>
@@ -25243,7 +25286,7 @@
         <v>uE9AB-chevron-left-all.svg</v>
       </c>
     </row>
-    <row r="175" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>173</v>
       </c>
@@ -25271,7 +25314,7 @@
         <v>uE9AC-chevron-down-all.svg</v>
       </c>
     </row>
-    <row r="176" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>174</v>
       </c>
@@ -25299,7 +25342,7 @@
         <v>uE9AD-chevron-right-all.svg</v>
       </c>
     </row>
-    <row r="177" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>175</v>
       </c>
@@ -25327,7 +25370,7 @@
         <v>uE9AE-chevron-up-end.svg</v>
       </c>
     </row>
-    <row r="178" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>176</v>
       </c>
@@ -25355,7 +25398,7 @@
         <v>uE9AF-chevron-left-end.svg</v>
       </c>
     </row>
-    <row r="179" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>177</v>
       </c>
@@ -25383,7 +25426,7 @@
         <v>uE9B0-chevron-down-end.svg</v>
       </c>
     </row>
-    <row r="180" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>178</v>
       </c>
@@ -25411,7 +25454,7 @@
         <v>uE9B1-chevron-right-end.svg</v>
       </c>
     </row>
-    <row r="181" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>179</v>
       </c>
@@ -25445,7 +25488,7 @@
         <v>uE9B2-fold-less.svg</v>
       </c>
     </row>
-    <row r="182" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>180</v>
       </c>
@@ -25479,7 +25522,7 @@
         <v>uE9B3-fold-more.svg</v>
       </c>
     </row>
-    <row r="183" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>181</v>
       </c>
@@ -25513,7 +25556,7 @@
         <v>uE9B4-ellipsis.svg</v>
       </c>
     </row>
-    <row r="184" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>182</v>
       </c>
@@ -25547,7 +25590,7 @@
         <v>uE9B5-ellipsis-vertical.svg</v>
       </c>
     </row>
-    <row r="185" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>183</v>
       </c>
@@ -25581,7 +25624,7 @@
         <v>uE9B6-favorite.svg</v>
       </c>
     </row>
-    <row r="186" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>184</v>
       </c>
@@ -25615,7 +25658,7 @@
         <v>uE9B7-favorite-outline.svg</v>
       </c>
     </row>
-    <row r="187" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>185</v>
       </c>
@@ -25649,7 +25692,7 @@
         <v>uE9B8-star-half.svg</v>
       </c>
     </row>
-    <row r="188" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>186</v>
       </c>
@@ -25683,7 +25726,7 @@
         <v>uE9B9-pin.svg</v>
       </c>
     </row>
-    <row r="189" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>187</v>
       </c>
@@ -25717,7 +25760,7 @@
         <v>uE9BA-pin-fill.svg</v>
       </c>
     </row>
-    <row r="190" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>188</v>
       </c>
@@ -25751,7 +25794,7 @@
         <v>uE9BB-pin-pinned.svg</v>
       </c>
     </row>
-    <row r="191" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>189</v>
       </c>
@@ -25785,7 +25828,7 @@
         <v>uE9BC-pin-pinned-fill.svg</v>
       </c>
     </row>
-    <row r="192" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>190</v>
       </c>
@@ -25819,7 +25862,7 @@
         <v>uE9BD-pin-unpin.svg</v>
       </c>
     </row>
-    <row r="193" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>191</v>
       </c>
@@ -25853,7 +25896,7 @@
         <v>uE9BE-pin-unpin-fill.svg</v>
       </c>
     </row>
-    <row r="194" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>192</v>
       </c>
@@ -25887,7 +25930,7 @@
         <v>uE9BF-radio-button.svg</v>
       </c>
     </row>
-    <row r="195" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>193</v>
       </c>
@@ -25921,7 +25964,7 @@
         <v>uE9C0-radio-button-empty.svg</v>
       </c>
     </row>
-    <row r="196" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>194</v>
       </c>
@@ -25949,7 +25992,7 @@
         <v>uE9C1-resize-grip.svg</v>
       </c>
     </row>
-    <row r="197" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>195</v>
       </c>
@@ -25983,7 +26026,7 @@
         <v>uE9C2-separator.svg</v>
       </c>
     </row>
-    <row r="198" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>196</v>
       </c>
@@ -26011,7 +26054,7 @@
         <v>uE9C3-toggle-collapse.svg</v>
       </c>
     </row>
-    <row r="199" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>197</v>
       </c>
@@ -26039,7 +26082,7 @@
         <v>uE9C4-toggle-expand.svg</v>
       </c>
     </row>
-    <row r="200" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>198</v>
       </c>
@@ -26067,7 +26110,7 @@
         <v>uE9C5-toggle-collapse-all.svg</v>
       </c>
     </row>
-    <row r="201" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>199</v>
       </c>
@@ -26095,7 +26138,7 @@
         <v>uE9C6-toggle-expand-all.svg</v>
       </c>
     </row>
-    <row r="202" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>200</v>
       </c>
@@ -26123,7 +26166,7 @@
         <v>uE9C7-triangle-up.svg</v>
       </c>
     </row>
-    <row r="203" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>201</v>
       </c>
@@ -26151,7 +26194,7 @@
         <v>uE9C8-triangle-left.svg</v>
       </c>
     </row>
-    <row r="204" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>202</v>
       </c>
@@ -26179,7 +26222,7 @@
         <v>uE9C9-triangle-down.svg</v>
       </c>
     </row>
-    <row r="205" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>203</v>
       </c>
@@ -26207,7 +26250,7 @@
         <v>uE9CA-triangle-right.svg</v>
       </c>
     </row>
-    <row r="206" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>204</v>
       </c>
@@ -26235,7 +26278,7 @@
         <v>uE9CB-toggle-tree-expanded.svg</v>
       </c>
     </row>
-    <row r="207" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>205</v>
       </c>
@@ -26263,7 +26306,7 @@
         <v>uE9CC-toggle-tree-expanded-outline.svg</v>
       </c>
     </row>
-    <row r="208" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>206</v>
       </c>
@@ -26291,7 +26334,7 @@
         <v>uE9CD-toggle-tree-collapsed.svg</v>
       </c>
     </row>
-    <row r="209" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>207</v>
       </c>
@@ -26319,7 +26362,7 @@
         <v>uE9CE-view-full-screen.svg</v>
       </c>
     </row>
-    <row r="210" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>208</v>
       </c>
@@ -26347,7 +26390,7 @@
         <v>uE9CF-view-full-screen-exit.svg</v>
       </c>
     </row>
-    <row r="211" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>209</v>
       </c>
@@ -26381,7 +26424,7 @@
         <v>uE9D0-navigate-external.svg</v>
       </c>
     </row>
-    <row r="212" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>210</v>
       </c>
@@ -26409,7 +26452,7 @@
         <v>uE9D1-work-item-bar.svg</v>
       </c>
     </row>
-    <row r="213" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>211</v>
       </c>
@@ -26437,7 +26480,7 @@
         <v>uE9D2-format-font.svg</v>
       </c>
     </row>
-    <row r="214" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>212</v>
       </c>
@@ -26471,7 +26514,7 @@
         <v>uE9D3-format-bold.svg</v>
       </c>
     </row>
-    <row r="215" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>213</v>
       </c>
@@ -26505,7 +26548,7 @@
         <v>uE9D4-format-italic.svg</v>
       </c>
     </row>
-    <row r="216" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>214</v>
       </c>
@@ -26539,7 +26582,7 @@
         <v>uE9D5-format-underline.svg</v>
       </c>
     </row>
-    <row r="217" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>215</v>
       </c>
@@ -26573,7 +26616,7 @@
         <v>uE9D6-format-font-color.svg</v>
       </c>
     </row>
-    <row r="218" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>216</v>
       </c>
@@ -26607,7 +26650,7 @@
         <v>uE9D7-format-font-size.svg</v>
       </c>
     </row>
-    <row r="219" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>217</v>
       </c>
@@ -26641,7 +26684,7 @@
         <v>uE9D8-format-clear.svg</v>
       </c>
     </row>
-    <row r="220" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>218</v>
       </c>
@@ -26675,7 +26718,7 @@
         <v>uE9D9-format-indent-decrease.svg</v>
       </c>
     </row>
-    <row r="221" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>219</v>
       </c>
@@ -26709,7 +26752,7 @@
         <v>uE9DA-format-indent-increase.svg</v>
       </c>
     </row>
-    <row r="222" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>220</v>
       </c>
@@ -26743,7 +26786,7 @@
         <v>uE9DB-format-list-ordered.svg</v>
       </c>
     </row>
-    <row r="223" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>221</v>
       </c>
@@ -26777,7 +26820,7 @@
         <v>uE9DC-format-list-unordered.svg</v>
       </c>
     </row>
-    <row r="224" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>222</v>
       </c>
@@ -26811,7 +26854,7 @@
         <v>uE9DD-file.svg</v>
       </c>
     </row>
-    <row r="225" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>223</v>
       </c>
@@ -26839,7 +26882,7 @@
         <v>uE9DE-file-bug.svg</v>
       </c>
     </row>
-    <row r="226" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>224</v>
       </c>
@@ -26873,7 +26916,7 @@
         <v>uE9DF-file-code.svg</v>
       </c>
     </row>
-    <row r="227" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>225</v>
       </c>
@@ -26907,7 +26950,7 @@
         <v>uE9E0-file-comment.svg</v>
       </c>
     </row>
-    <row r="228" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>226</v>
       </c>
@@ -26941,7 +26984,7 @@
         <v>uE9E1-file-content.svg</v>
       </c>
     </row>
-    <row r="229" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>227</v>
       </c>
@@ -26975,7 +27018,7 @@
         <v>uE9E2-file-image.svg</v>
       </c>
     </row>
-    <row r="230" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>228</v>
       </c>
@@ -27009,7 +27052,7 @@
         <v>uE9E3-file-preview.svg</v>
       </c>
     </row>
-    <row r="231" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>229</v>
       </c>
@@ -27043,7 +27086,7 @@
         <v>uE9E4-file-symlink.svg</v>
       </c>
     </row>
-    <row r="232" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>230</v>
       </c>
@@ -27080,7 +27123,7 @@
         <v>uE9E5-media-play.svg</v>
       </c>
     </row>
-    <row r="233" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>231</v>
       </c>
@@ -27117,7 +27160,7 @@
         <v>uE9E6-media-play-fill.svg</v>
       </c>
     </row>
-    <row r="234" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>232</v>
       </c>
@@ -27145,7 +27188,7 @@
         <v>uE9E7-play.svg</v>
       </c>
     </row>
-    <row r="235" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>233</v>
       </c>
@@ -27173,7 +27216,7 @@
         <v>uE9E8-play-fill.svg</v>
       </c>
     </row>
-    <row r="236" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>234</v>
       </c>
@@ -27201,7 +27244,7 @@
         <v>uE9E9-pause.svg</v>
       </c>
     </row>
-    <row r="237" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>235</v>
       </c>
@@ -27229,7 +27272,7 @@
         <v>uE9EA-pause-fill.svg</v>
       </c>
     </row>
-    <row r="238" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>236</v>
       </c>
@@ -27257,7 +27300,7 @@
         <v>uE9EB-play-resume.svg</v>
       </c>
     </row>
-    <row r="239" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>237</v>
       </c>
@@ -27285,7 +27328,7 @@
         <v>uE9EC-play-resume-fill.svg</v>
       </c>
     </row>
-    <row r="240" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>238</v>
       </c>
@@ -27313,7 +27356,7 @@
         <v>uE9ED-stop.svg</v>
       </c>
     </row>
-    <row r="241" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>239</v>
       </c>
@@ -27341,7 +27384,7 @@
         <v>uE9EE-stop-fill.svg</v>
       </c>
     </row>
-    <row r="242" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>240</v>
       </c>
@@ -27369,7 +27412,7 @@
         <v>uE9EF-fast-backward.svg</v>
       </c>
     </row>
-    <row r="243" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>241</v>
       </c>
@@ -27397,7 +27440,7 @@
         <v>uE9F0-fast-backward-fill.svg</v>
       </c>
     </row>
-    <row r="244" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>242</v>
       </c>
@@ -27425,7 +27468,7 @@
         <v>uE9F1-fast-forward.svg</v>
       </c>
     </row>
-    <row r="245" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>243</v>
       </c>
@@ -27453,7 +27496,7 @@
         <v>uE9F2-fast-forward-fill.svg</v>
       </c>
     </row>
-    <row r="246" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>244</v>
       </c>
@@ -27481,7 +27524,7 @@
         <v>uE9F3-previous-frame.svg</v>
       </c>
     </row>
-    <row r="247" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>245</v>
       </c>
@@ -27509,7 +27552,7 @@
         <v>uE9F4-previous-frame-fill.svg</v>
       </c>
     </row>
-    <row r="248" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>246</v>
       </c>
@@ -27537,7 +27580,7 @@
         <v>uE9F5-next-frame.svg</v>
       </c>
     </row>
-    <row r="249" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>247</v>
       </c>
@@ -27565,7 +27608,7 @@
         <v>uE9F6-next-frame-fill.svg</v>
       </c>
     </row>
-    <row r="250" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>248</v>
       </c>
@@ -27593,7 +27636,7 @@
         <v>uE9F7-record.svg</v>
       </c>
     </row>
-    <row r="251" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>249</v>
       </c>
@@ -27621,7 +27664,7 @@
         <v>uE9F8-record-fill.svg</v>
       </c>
     </row>
-    <row r="252" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>250</v>
       </c>
@@ -27655,7 +27698,7 @@
         <v>uE9F9-menu.svg</v>
       </c>
     </row>
-    <row r="253" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>251</v>
       </c>
@@ -27692,7 +27735,7 @@
         <v>uE9FA-navigate-close.svg</v>
       </c>
     </row>
-    <row r="254" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>252</v>
       </c>
@@ -27726,7 +27769,7 @@
         <v>uE9FB-navigate-back-circle.svg</v>
       </c>
     </row>
-    <row r="255" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>253</v>
       </c>
@@ -27760,7 +27803,7 @@
         <v>uE9FC-navigate-back-disc.svg</v>
       </c>
     </row>
-    <row r="256" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>254</v>
       </c>
@@ -27794,7 +27837,7 @@
         <v>uE9FD-navigate-forward-circle.svg</v>
       </c>
     </row>
-    <row r="257" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>255</v>
       </c>
@@ -27828,7 +27871,7 @@
         <v>uE9FE-navigate-forward-disc.svg</v>
       </c>
     </row>
-    <row r="258" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>256</v>
       </c>
@@ -27862,7 +27905,7 @@
         <v>uE9FF-navigate-history.svg</v>
       </c>
     </row>
-    <row r="259" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>257</v>
       </c>
@@ -27896,7 +27939,7 @@
         <v>uEA00-navigate-refresh.svg</v>
       </c>
     </row>
-    <row r="260" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>258</v>
       </c>
@@ -27933,7 +27976,7 @@
         <v>uEA01-navigate-reload.svg</v>
       </c>
     </row>
-    <row r="261" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>259</v>
       </c>
@@ -27967,7 +28010,7 @@
         <v>uEA02-status-error.svg</v>
       </c>
     </row>
-    <row r="262" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>260</v>
       </c>
@@ -28001,7 +28044,7 @@
         <v>uEA03-status-error-outline.svg</v>
       </c>
     </row>
-    <row r="263" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>261</v>
       </c>
@@ -28035,7 +28078,7 @@
         <v>uEA04-status-failure.svg</v>
       </c>
     </row>
-    <row r="264" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>262</v>
       </c>
@@ -28069,7 +28112,7 @@
         <v>uEA05-status-failure-outline.svg</v>
       </c>
     </row>
-    <row r="265" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>263</v>
       </c>
@@ -28100,7 +28143,7 @@
         <v>uEA06-status-help.svg</v>
       </c>
     </row>
-    <row r="266" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>264</v>
       </c>
@@ -28131,7 +28174,7 @@
         <v>uEA07-status-help-outline.svg</v>
       </c>
     </row>
-    <row r="267" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>265</v>
       </c>
@@ -28162,7 +28205,7 @@
         <v>uEA08-status-info.svg</v>
       </c>
     </row>
-    <row r="268" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>266</v>
       </c>
@@ -28193,7 +28236,7 @@
         <v>uEA09-status-info-outline.svg</v>
       </c>
     </row>
-    <row r="269" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>267</v>
       </c>
@@ -28221,7 +28264,7 @@
         <v>uEA0A-status-no.svg</v>
       </c>
     </row>
-    <row r="270" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>268</v>
       </c>
@@ -28249,7 +28292,7 @@
         <v>uEA0B-status-no-fill.svg</v>
       </c>
     </row>
-    <row r="271" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>269</v>
       </c>
@@ -28277,7 +28320,7 @@
         <v>uEA0C-status-pause.svg</v>
       </c>
     </row>
-    <row r="272" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>270</v>
       </c>
@@ -28305,7 +28348,7 @@
         <v>uEA0D-status-pause-outline.svg</v>
       </c>
     </row>
-    <row r="273" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>271</v>
       </c>
@@ -28333,7 +28376,7 @@
         <v>uEA0E-status-run.svg</v>
       </c>
     </row>
-    <row r="274" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>272</v>
       </c>
@@ -28361,7 +28404,7 @@
         <v>uEA0F-status-run-outline.svg</v>
       </c>
     </row>
-    <row r="275" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>273</v>
       </c>
@@ -28389,7 +28432,7 @@
         <v>uEA10-status-stop.svg</v>
       </c>
     </row>
-    <row r="276" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>274</v>
       </c>
@@ -28417,7 +28460,7 @@
         <v>uEA11-status-stop-outline.svg</v>
       </c>
     </row>
-    <row r="277" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>275</v>
       </c>
@@ -28445,7 +28488,7 @@
         <v>uEA12-status-success.svg</v>
       </c>
     </row>
-    <row r="278" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>276</v>
       </c>
@@ -28473,7 +28516,7 @@
         <v>uEA13-status-success-outline.svg</v>
       </c>
     </row>
-    <row r="279" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>277</v>
       </c>
@@ -28501,7 +28544,7 @@
         <v>uEA14-status-waiting.svg</v>
       </c>
     </row>
-    <row r="280" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>278</v>
       </c>
@@ -28529,7 +28572,7 @@
         <v>uEA15-status-waiting-fill.svg</v>
       </c>
     </row>
-    <row r="281" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>279</v>
       </c>
@@ -28557,7 +28600,7 @@
         <v>uEA16-status-warning.svg</v>
       </c>
     </row>
-    <row r="282" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>280</v>
       </c>
@@ -28585,7 +28628,7 @@
         <v>uEA17-status-warning-outline.svg</v>
       </c>
     </row>
-    <row r="283" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>281</v>
       </c>
@@ -28613,7 +28656,7 @@
         <v>uEA18-status-success-box.svg</v>
       </c>
     </row>
-    <row r="284" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>282</v>
       </c>
@@ -28641,7 +28684,7 @@
         <v>uEA19-test-fill.svg</v>
       </c>
     </row>
-    <row r="285" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>283</v>
       </c>
@@ -28669,7 +28712,7 @@
         <v>uEA1A-test.svg</v>
       </c>
     </row>
-    <row r="286" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>284</v>
       </c>
@@ -28697,7 +28740,7 @@
         <v>uEA1B-test-auto-fill.svg</v>
       </c>
     </row>
-    <row r="287" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>285</v>
       </c>
@@ -28725,7 +28768,7 @@
         <v>uEA1C-test-auto.svg</v>
       </c>
     </row>
-    <row r="288" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>286</v>
       </c>
@@ -28753,7 +28796,7 @@
         <v>uEA1D-test-user-fill.svg</v>
       </c>
     </row>
-    <row r="289" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>287</v>
       </c>
@@ -28781,7 +28824,7 @@
         <v>uEA1E-test-user.svg</v>
       </c>
     </row>
-    <row r="290" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>288</v>
       </c>
@@ -28809,7 +28852,7 @@
         <v>uEA1F-test-explore-fill.svg</v>
       </c>
     </row>
-    <row r="291" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>289</v>
       </c>
@@ -28837,7 +28880,7 @@
         <v>uEA20-trigger.svg</v>
       </c>
     </row>
-    <row r="292" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>290</v>
       </c>
@@ -28865,7 +28908,7 @@
         <v>uEA21-trigger-auto.svg</v>
       </c>
     </row>
-    <row r="293" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>291</v>
       </c>
@@ -28893,7 +28936,7 @@
         <v>uEA22-trigger-user.svg</v>
       </c>
     </row>
-    <row r="294" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>292</v>
       </c>
@@ -28921,7 +28964,7 @@
         <v>uEA23-folder-plan.svg</v>
       </c>
     </row>
-    <row r="295" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>293</v>
       </c>
@@ -28949,7 +28992,7 @@
         <v>uEA24-folder-query.svg</v>
       </c>
     </row>
-    <row r="296" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>294</v>
       </c>
@@ -28977,7 +29020,7 @@
         <v>uEA25-log.svg</v>
       </c>
     </row>
-    <row r="297" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>295</v>
       </c>
@@ -29005,7 +29048,7 @@
         <v>uEA26-step.svg</v>
       </c>
     </row>
-    <row r="298" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>296</v>
       </c>
@@ -29033,7 +29076,7 @@
         <v>uEA27-step-shared.svg</v>
       </c>
     </row>
-    <row r="299" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>297</v>
       </c>
@@ -29061,7 +29104,7 @@
         <v>uEA28-server-remote.svg</v>
       </c>
     </row>
-    <row r="300" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>298</v>
       </c>
@@ -29095,7 +29138,7 @@
         <v>uEA29-diff-image.svg</v>
       </c>
     </row>
-    <row r="301" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>299</v>
       </c>
@@ -29129,7 +29172,7 @@
         <v>uEA2A-diff-image-overlay.svg</v>
       </c>
     </row>
-    <row r="302" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>300</v>
       </c>
@@ -29163,7 +29206,7 @@
         <v>uEA2B-diff-image-pixel.svg</v>
       </c>
     </row>
-    <row r="303" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>301</v>
       </c>
@@ -29197,7 +29240,7 @@
         <v>uEA2C-diff-inline.svg</v>
       </c>
     </row>
-    <row r="304" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>302</v>
       </c>
@@ -29231,7 +29274,7 @@
         <v>uEA2D-diff-side-by-side.svg</v>
       </c>
     </row>
-    <row r="305" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>303</v>
       </c>
@@ -29265,7 +29308,7 @@
         <v>uEA2E-repo.svg</v>
       </c>
     </row>
-    <row r="306" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>304</v>
       </c>
@@ -29299,7 +29342,7 @@
         <v>uEA2F-repo-fill.svg</v>
       </c>
     </row>
-    <row r="307" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>305</v>
       </c>
@@ -29333,7 +29376,7 @@
         <v>uEA30-repo-git.svg</v>
       </c>
     </row>
-    <row r="308" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>306</v>
       </c>
@@ -29361,7 +29404,7 @@
         <v>uEA31-tfvc-change-list.svg</v>
       </c>
     </row>
-    <row r="309" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>307</v>
       </c>
@@ -29395,7 +29438,7 @@
         <v>uEA32-repo-submodule.svg</v>
       </c>
     </row>
-    <row r="310" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>308</v>
       </c>
@@ -29423,7 +29466,7 @@
         <v>uEA33-tfvc-folder.svg</v>
       </c>
     </row>
-    <row r="311" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>309</v>
       </c>
@@ -29457,7 +29500,7 @@
         <v>uEA34-repo-tfvc.svg</v>
       </c>
     </row>
-    <row r="312" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>310</v>
       </c>
@@ -29485,7 +29528,7 @@
         <v>uEA35-tfvc-branch.svg</v>
       </c>
     </row>
-    <row r="313" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>311</v>
       </c>
@@ -29513,7 +29556,7 @@
         <v>uEA36-tfvc-branch-locked.svg</v>
       </c>
     </row>
-    <row r="314" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>312</v>
       </c>
@@ -29541,7 +29584,7 @@
         <v>uEA37-tfvc-commit.svg</v>
       </c>
     </row>
-    <row r="315" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>313</v>
       </c>
@@ -29569,7 +29612,7 @@
         <v>uEA38-tfvc-compare.svg</v>
       </c>
     </row>
-    <row r="316" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>314</v>
       </c>
@@ -29597,7 +29640,7 @@
         <v>uEA39-tfvc-merge.svg</v>
       </c>
     </row>
-    <row r="317" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>315</v>
       </c>
@@ -29625,7 +29668,7 @@
         <v>uEA3A-tfvc-pull-request.svg</v>
       </c>
     </row>
-    <row r="318" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>316</v>
       </c>
@@ -29653,7 +29696,7 @@
         <v>uEA3B-tfvc-shelveset.svg</v>
       </c>
     </row>
-    <row r="319" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>317</v>
       </c>
@@ -29681,7 +29724,7 @@
         <v>uEA3C-tfvc-raw-source.svg</v>
       </c>
     </row>
-    <row r="320" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>318</v>
       </c>
@@ -29709,7 +29752,7 @@
         <v>uEA3D-group-rows.svg</v>
       </c>
     </row>
-    <row r="321" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>319</v>
       </c>
@@ -29743,7 +29786,7 @@
         <v>uEA3E-recycle-bin-restore.svg</v>
       </c>
     </row>
-    <row r="322" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>320</v>
       </c>
@@ -29771,7 +29814,7 @@
         <v>uEA3F-view-list.svg</v>
       </c>
     </row>
-    <row r="323" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>321</v>
       </c>
@@ -29799,7 +29842,7 @@
         <v>uEA40-view-list-group.svg</v>
       </c>
     </row>
-    <row r="324" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>322</v>
       </c>
@@ -29827,7 +29870,7 @@
         <v>uEA41-view-list-tree.svg</v>
       </c>
     </row>
-    <row r="325" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>323</v>
       </c>
@@ -29855,7 +29898,7 @@
         <v>uEA42-work-item.svg</v>
       </c>
     </row>
-    <row r="326" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>324</v>
       </c>
@@ -29883,7 +29926,7 @@
         <v>uEA43-work-item-bug.svg</v>
       </c>
     </row>
-    <row r="327" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>325</v>
       </c>
@@ -29911,7 +29954,7 @@
         <v>uEA44-work-item-move.svg</v>
       </c>
     </row>
-    <row r="328" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>326</v>
       </c>
@@ -29939,7 +29982,7 @@
         <v>uEA45-merge-duplicate.svg</v>
       </c>
     </row>
-    <row r="329" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>327</v>
       </c>
@@ -29967,7 +30010,7 @@
         <v>uEA46-storyboard.svg</v>
       </c>
     </row>
-    <row r="330" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>328</v>
       </c>
@@ -30004,7 +30047,7 @@
         <v>uEA47-auto-fill-template.svg</v>
       </c>
     </row>
-    <row r="331" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>329</v>
       </c>
@@ -30038,7 +30081,7 @@
         <v>uEA48-recycle-bin.svg</v>
       </c>
     </row>
-    <row r="332" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>330</v>
       </c>
@@ -30075,7 +30118,7 @@
         <v>uEA49-dot.svg</v>
       </c>
     </row>
-    <row r="333" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>331</v>
       </c>
@@ -30112,7 +30155,7 @@
         <v>uEA4A-square.svg</v>
       </c>
     </row>
-    <row r="334" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>332</v>
       </c>
@@ -30149,7 +30192,7 @@
         <v>uEA4B-row-child.svg</v>
       </c>
     </row>
-    <row r="335" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>333</v>
       </c>
@@ -30186,7 +30229,7 @@
         <v>uEA4C-log-remove.svg</v>
       </c>
     </row>
-    <row r="336" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>334</v>
       </c>
@@ -30223,7 +30266,7 @@
         <v>uEA4D-live-update-feed-off.svg</v>
       </c>
     </row>
-    <row r="337" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>335</v>
       </c>
@@ -30260,7 +30303,7 @@
         <v>uEA4E-corner-resize.svg</v>
       </c>
     </row>
-    <row r="338" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>336</v>
       </c>
@@ -30297,7 +30340,7 @@
         <v>uEA4F-link-remove.svg</v>
       </c>
     </row>
-    <row r="339" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>337</v>
       </c>
@@ -30334,7 +30377,7 @@
         <v>uEA50-spinner.svg</v>
       </c>
     </row>
-    <row r="340" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>338</v>
       </c>
@@ -30371,7 +30414,7 @@
         <v>uEA51-personalize.svg</v>
       </c>
     </row>
-    <row r="341" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>339</v>
       </c>
@@ -30408,7 +30451,7 @@
         <v>uEA52-parameter.svg</v>
       </c>
     </row>
-    <row r="342" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>340</v>
       </c>
@@ -30445,7 +30488,7 @@
         <v>uEA53-step-insert.svg</v>
       </c>
     </row>
-    <row r="343" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>341</v>
       </c>
@@ -30482,7 +30525,7 @@
         <v>uEA54-step-shared-add.svg</v>
       </c>
     </row>
-    <row r="344" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>342</v>
       </c>
@@ -30519,7 +30562,7 @@
         <v>uEA55-step-shared-insert.svg</v>
       </c>
     </row>
-    <row r="345" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>343</v>
       </c>
@@ -30556,7 +30599,7 @@
         <v>uEA56-process.svg</v>
       </c>
     </row>
-    <row r="346" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>344</v>
       </c>
@@ -30593,7 +30636,7 @@
         <v>uEA57-process-meta-task.svg</v>
       </c>
     </row>
-    <row r="347" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>345</v>
       </c>
@@ -30630,7 +30673,7 @@
         <v>uEA58-column-option.svg</v>
       </c>
     </row>
-    <row r="348" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>346</v>
       </c>
@@ -30667,7 +30710,7 @@
         <v>uEA59-globe.svg</v>
       </c>
     </row>
-    <row r="349" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>347</v>
       </c>
@@ -30704,7 +30747,7 @@
         <v>uEA5A-locale-language.svg</v>
       </c>
     </row>
-    <row r="350" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>348</v>
       </c>
@@ -30741,7 +30784,7 @@
         <v>uEA5B-locale-timezone.svg</v>
       </c>
     </row>
-    <row r="351" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>349</v>
       </c>
@@ -30778,7 +30821,7 @@
         <v>uEA5C-feedback-positive-outline.svg</v>
       </c>
     </row>
-    <row r="352" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>350</v>
       </c>
@@ -30815,7 +30858,7 @@
         <v>uEA5D-feedback-negative-outline.svg</v>
       </c>
     </row>
-    <row r="353" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>351</v>
       </c>
@@ -30852,7 +30895,7 @@
         <v>uEA5E-contact-card.svg</v>
       </c>
     </row>
-    <row r="354" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>352</v>
       </c>
@@ -30889,7 +30932,7 @@
         <v>uEA5F-triangle.svg</v>
       </c>
     </row>
-    <row r="355" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>353</v>
       </c>
@@ -30926,7 +30969,7 @@
         <v>uEA60-brand-vsts.svg</v>
       </c>
     </row>
-    <row r="356" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>354</v>
       </c>
@@ -30963,7 +31006,7 @@
         <v>uEA61-status-success-sm.svg</v>
       </c>
     </row>
-    <row r="357" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>355</v>
       </c>
@@ -31000,7 +31043,7 @@
         <v>uEA62-status-warning-sm.svg</v>
       </c>
     </row>
-    <row r="358" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>356</v>
       </c>
@@ -31037,7 +31080,7 @@
         <v>uEA63-status-info-sm.svg</v>
       </c>
     </row>
-    <row r="359" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>357</v>
       </c>
@@ -31074,7 +31117,7 @@
         <v>uEA64-status-failure-sm.svg</v>
       </c>
     </row>
-    <row r="360" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>358</v>
       </c>
@@ -31111,7 +31154,7 @@
         <v>uEA65-status-error-sm.svg</v>
       </c>
     </row>
-    <row r="361" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>359</v>
       </c>
@@ -31148,7 +31191,7 @@
         <v>uEA66-status-run-sm.svg</v>
       </c>
     </row>
-    <row r="362" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>360</v>
       </c>
@@ -31185,7 +31228,7 @@
         <v>uEA67-status-help-sm.svg</v>
       </c>
     </row>
-    <row r="363" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>361</v>
       </c>
@@ -31222,7 +31265,7 @@
         <v>uEA68-status-stop-sm.svg</v>
       </c>
     </row>
-    <row r="364" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>362</v>
       </c>
@@ -31259,7 +31302,7 @@
         <v>uEA69-status-pause-sm.svg</v>
       </c>
     </row>
-    <row r="365" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>363</v>
       </c>
@@ -31296,7 +31339,7 @@
         <v>uEA6A-status-waiting-fill-sm.svg</v>
       </c>
     </row>
-    <row r="366" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>364</v>
       </c>
@@ -31333,7 +31376,7 @@
         <v>uEA6B-status-no-fill-sm.svg</v>
       </c>
     </row>
-    <row r="367" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>365</v>
       </c>
@@ -31370,7 +31413,7 @@
         <v>uEA6C-assessment-group.svg</v>
       </c>
     </row>
-    <row r="368" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>366</v>
       </c>
@@ -31407,7 +31450,7 @@
         <v>uEA6D-table.svg</v>
       </c>
     </row>
-    <row r="369" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>367</v>
       </c>
@@ -31444,7 +31487,7 @@
         <v>uEA6E-timeline-delivery.svg</v>
       </c>
     </row>
-    <row r="370" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>368</v>
       </c>
@@ -31481,7 +31524,7 @@
         <v>uEA6F-timeline-progress.svg</v>
       </c>
     </row>
-    <row r="371" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>369</v>
       </c>
@@ -31518,7 +31561,7 @@
         <v>uEA70-application-window.svg</v>
       </c>
     </row>
-    <row r="372" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>370</v>
       </c>
@@ -31555,7 +31598,7 @@
         <v>uEA71-application-window.svg</v>
       </c>
     </row>
-    <row r="373" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>371</v>
       </c>
@@ -31592,7 +31635,7 @@
         <v>uEA72-file-type-html.svg</v>
       </c>
     </row>
-    <row r="374" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>372</v>
       </c>
@@ -31629,7 +31672,7 @@
         <v>uEA73-file-type-js.svg</v>
       </c>
     </row>
-    <row r="375" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>373</v>
       </c>
@@ -31666,7 +31709,7 @@
         <v>uEA74-file-type-jsproj.svg</v>
       </c>
     </row>
-    <row r="376" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>374</v>
       </c>
@@ -31703,7 +31746,7 @@
         <v>uEA75-file-type-cs.svg</v>
       </c>
     </row>
-    <row r="377" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>375</v>
       </c>
@@ -31740,7 +31783,7 @@
         <v>uEA76-file-type-csproj.svg</v>
       </c>
     </row>
-    <row r="378" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>376</v>
       </c>
@@ -31777,7 +31820,7 @@
         <v>uEA77-file-type-vb.svg</v>
       </c>
     </row>
-    <row r="379" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>377</v>
       </c>
@@ -31814,7 +31857,7 @@
         <v>uEA78-file-type-vbproj.svg</v>
       </c>
     </row>
-    <row r="380" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>378</v>
       </c>
@@ -31851,7 +31894,7 @@
         <v>uEA79-file-type-cpp.svg</v>
       </c>
     </row>
-    <row r="381" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>379</v>
       </c>
@@ -31888,7 +31931,7 @@
         <v>uEA7A-file-type-vcxproj.svg</v>
       </c>
     </row>
-    <row r="382" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>380</v>
       </c>
@@ -31925,7 +31968,7 @@
         <v>uEA7B-file-type-fs.svg</v>
       </c>
     </row>
-    <row r="383" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>381</v>
       </c>
@@ -31962,7 +32005,7 @@
         <v>uEA7C-file-type-fsproj.svg</v>
       </c>
     </row>
-    <row r="384" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>382</v>
       </c>
@@ -31999,7 +32042,7 @@
         <v>uEA7D-file-type-python.svg</v>
       </c>
     </row>
-    <row r="385" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>383</v>
       </c>
@@ -32036,7 +32079,7 @@
         <v>uEA7E-file-type-pyproj.svg</v>
       </c>
     </row>
-    <row r="386" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>384</v>
       </c>
@@ -32073,7 +32116,7 @@
         <v>uEA7F-file-type-typescript.svg</v>
       </c>
     </row>
-    <row r="387" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>385</v>
       </c>
@@ -32110,7 +32153,7 @@
         <v>uEA80-file-type-coffeescript.svg</v>
       </c>
     </row>
-    <row r="388" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>386</v>
       </c>
@@ -32147,7 +32190,7 @@
         <v>uEA81-file-type-aspx.svg</v>
       </c>
     </row>
-    <row r="389" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>387</v>
       </c>
@@ -32184,7 +32227,7 @@
         <v>uEA82-file-type-css.svg</v>
       </c>
     </row>
-    <row r="390" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>388</v>
       </c>
@@ -32221,7 +32264,7 @@
         <v>uEA83-file-type-sass.svg</v>
       </c>
     </row>
-    <row r="391" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>389</v>
       </c>
@@ -32258,7 +32301,7 @@
         <v>uEA84-file-type-less.svg</v>
       </c>
     </row>
-    <row r="392" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>390</v>
       </c>
@@ -32295,7 +32338,7 @@
         <v>uEA85-file-type-json.svg</v>
       </c>
     </row>
-    <row r="393" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>391</v>
       </c>
@@ -32332,7 +32375,7 @@
         <v>uEA86-file-type-xml.svg</v>
       </c>
     </row>
-    <row r="394" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>392</v>
       </c>
@@ -32369,7 +32412,7 @@
         <v>uEA87-file-type-md.svg</v>
       </c>
     </row>
-    <row r="395" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>393</v>
       </c>
@@ -32406,7 +32449,7 @@
         <v>uEA88-file-type-powershell.svg</v>
       </c>
     </row>
-    <row r="396" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>394</v>
       </c>
@@ -32443,7 +32486,7 @@
         <v>uEA89-file-type-cmd.svg</v>
       </c>
     </row>
-    <row r="397" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>395</v>
       </c>
@@ -32480,7 +32523,7 @@
         <v>uEA8A-file-type-java.svg</v>
       </c>
     </row>
-    <row r="398" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>396</v>
       </c>
@@ -32517,7 +32560,7 @@
         <v>uEA8B-file-type-sql.svg</v>
       </c>
     </row>
-    <row r="399" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>397</v>
       </c>
@@ -32554,7 +32597,7 @@
         <v>uEA8C-file-stack.svg</v>
       </c>
     </row>
-    <row r="400" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>398</v>
       </c>
@@ -32591,7 +32634,7 @@
         <v>uEA8D-script.svg</v>
       </c>
     </row>
-    <row r="401" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>399</v>
       </c>
@@ -32628,7 +32671,7 @@
         <v>uEA8E-default-executable.svg</v>
       </c>
     </row>
-    <row r="402" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>400</v>
       </c>
@@ -32665,7 +32708,7 @@
         <v>uEA8F-file-type-template.svg</v>
       </c>
     </row>
-    <row r="403" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>401</v>
       </c>
@@ -32702,7 +32745,7 @@
         <v>uEA90-split.svg</v>
       </c>
     </row>
-    <row r="404" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>402</v>
       </c>
@@ -32739,7 +32782,7 @@
         <v>uEA91-image-action-log.svg</v>
       </c>
     </row>
-    <row r="405" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>403</v>
       </c>
@@ -32776,7 +32819,7 @@
         <v>uEA92-shield.svg</v>
       </c>
     </row>
-    <row r="406" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>404</v>
       </c>
@@ -32813,7 +32856,7 @@
         <v>uEA93-shield-fill.svg</v>
       </c>
     </row>
-    <row r="407" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>405</v>
       </c>
@@ -32850,7 +32893,7 @@
         <v>uEA94-tfvc-fork.svg</v>
       </c>
     </row>
-    <row r="408" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>406</v>
       </c>
@@ -32887,7 +32930,7 @@
         <v>uEA95-status-run-box.svg</v>
       </c>
     </row>
-    <row r="409" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>407</v>
       </c>
@@ -32924,7 +32967,7 @@
         <v>uEA96-arrow-import.svg</v>
       </c>
     </row>
-    <row r="410" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>408</v>
       </c>
@@ -32961,7 +33004,7 @@
         <v>uEA97-new-team-project.svg</v>
       </c>
     </row>
-    <row r="411" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>409</v>
       </c>
@@ -32998,7 +33041,7 @@
         <v>uEA98-package-feed-mix.svg</v>
       </c>
     </row>
-    <row r="412" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>410</v>
       </c>
@@ -33035,7 +33078,7 @@
         <v>uEA99-package-feed-remote.svg</v>
       </c>
     </row>
-    <row r="413" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>411</v>
       </c>
@@ -33072,7 +33115,7 @@
         <v>uEA9A-package-feed-local.svg</v>
       </c>
     </row>
-    <row r="414" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>412</v>
       </c>
@@ -33109,7 +33152,7 @@
         <v>uEA9B-work-item-bar-outline.svg</v>
       </c>
     </row>
-    <row r="415" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>413</v>
       </c>
@@ -33146,7 +33189,7 @@
         <v>uEA9C-sort-asc.svg</v>
       </c>
     </row>
-    <row r="416" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>414</v>
       </c>
@@ -33183,7 +33226,7 @@
         <v>uEA9D-sort-desc.svg</v>
       </c>
     </row>
-    <row r="417" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>415</v>
       </c>
@@ -33220,7 +33263,7 @@
         <v>uEA9E-plug-disconnected.svg</v>
       </c>
     </row>
-    <row r="418" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>416</v>
       </c>
@@ -33257,7 +33300,7 @@
         <v>uEA9F-plug-connected.svg</v>
       </c>
     </row>
-    <row r="419" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>417</v>
       </c>
@@ -33294,7 +33337,7 @@
         <v>uEAA0-plug-disconnected-fill.svg</v>
       </c>
     </row>
-    <row r="420" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>418</v>
       </c>
@@ -33331,7 +33374,7 @@
         <v>uEAA1-plug-connected-fill.svg</v>
       </c>
     </row>
-    <row r="421" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>419</v>
       </c>
@@ -33368,7 +33411,7 @@
         <v>uEAA2-sync-user.svg</v>
       </c>
     </row>
-    <row r="422" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>420</v>
       </c>
@@ -33405,7 +33448,7 @@
         <v>uEAA3-clear-filter.svg</v>
       </c>
     </row>
-    <row r="423" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>421</v>
       </c>
@@ -33442,7 +33485,7 @@
         <v>uEAA4-watch-eye-off.svg</v>
       </c>
     </row>
-    <row r="424" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>422</v>
       </c>
@@ -33479,7 +33522,7 @@
         <v>uEAA5-shopping-cart.svg</v>
       </c>
     </row>
-    <row r="425" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>423</v>
       </c>
@@ -33516,7 +33559,7 @@
         <v>uEAA6-shopping-cart-fill.svg</v>
       </c>
     </row>
-    <row r="426" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>424</v>
       </c>
@@ -33553,7 +33596,7 @@
         <v>uEAA7-update-queue.svg</v>
       </c>
     </row>
-    <row r="427" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>425</v>
       </c>
@@ -33564,12 +33607,33 @@
       <c r="D427">
         <v>60072</v>
       </c>
+      <c r="E427" t="s">
+        <v>862</v>
+      </c>
+      <c r="F427">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G427" t="s">
+        <v>17</v>
+      </c>
+      <c r="H427" t="s">
+        <v>863</v>
+      </c>
+      <c r="I427" t="s">
+        <v>15</v>
+      </c>
+      <c r="J427" t="s">
+        <v>602</v>
+      </c>
+      <c r="K427" t="s">
+        <v>861</v>
+      </c>
       <c r="L427" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA8-.svg</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>uEAA8-add-team.svg</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>426</v>
       </c>
@@ -33585,7 +33649,7 @@
         <v>uEAA9-.svg</v>
       </c>
     </row>
-    <row r="429" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>427</v>
       </c>
@@ -33601,7 +33665,7 @@
         <v>uEAAA-.svg</v>
       </c>
     </row>
-    <row r="430" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>428</v>
       </c>
@@ -33617,7 +33681,7 @@
         <v>uEAAB-.svg</v>
       </c>
     </row>
-    <row r="431" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>429</v>
       </c>
@@ -33633,7 +33697,7 @@
         <v>uEAAC-.svg</v>
       </c>
     </row>
-    <row r="432" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>430</v>
       </c>
@@ -33649,7 +33713,7 @@
         <v>uEAAD-.svg</v>
       </c>
     </row>
-    <row r="433" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>431</v>
       </c>
@@ -33665,7 +33729,7 @@
         <v>uEAAE-.svg</v>
       </c>
     </row>
-    <row r="434" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>432</v>
       </c>
@@ -33681,7 +33745,7 @@
         <v>uEAAF-.svg</v>
       </c>
     </row>
-    <row r="435" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>433</v>
       </c>
@@ -33694,7 +33758,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="436" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>434</v>
       </c>
@@ -33707,7 +33771,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="437" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>435</v>
       </c>
@@ -33720,7 +33784,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="438" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>436</v>
       </c>
@@ -33733,7 +33797,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="439" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>437</v>
       </c>
@@ -33746,7 +33810,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="440" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>438</v>
       </c>
@@ -33759,7 +33823,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="441" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>439</v>
       </c>
@@ -33772,7 +33836,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="442" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>440</v>
       </c>
@@ -33785,7 +33849,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="443" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>441</v>
       </c>
@@ -33798,7 +33862,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="444" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>442</v>
       </c>
@@ -33811,7 +33875,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="445" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>443</v>
       </c>
@@ -33824,7 +33888,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="446" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>444</v>
       </c>
@@ -33837,7 +33901,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="447" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>445</v>
       </c>
@@ -33850,7 +33914,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="448" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>446</v>
       </c>
@@ -33863,7 +33927,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="449" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>447</v>
       </c>
@@ -33876,7 +33940,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="450" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>448</v>
       </c>
@@ -33889,7 +33953,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="451" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>449</v>
       </c>
@@ -33902,7 +33966,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="452" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>450</v>
       </c>
@@ -33915,7 +33979,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="453" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>451</v>
       </c>
@@ -33928,7 +33992,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="454" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>452</v>
       </c>
@@ -33941,7 +34005,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="455" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>453</v>
       </c>
@@ -33950,7 +34014,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="456" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>454</v>
       </c>
@@ -33959,7 +34023,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="457" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>455</v>
       </c>
@@ -33968,7 +34032,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="458" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>456</v>
       </c>
@@ -33977,7 +34041,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="459" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>457</v>
       </c>
@@ -33986,7 +34050,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="460" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>458</v>
       </c>
@@ -33995,7 +34059,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="461" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>459</v>
       </c>
@@ -34004,7 +34068,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="462" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>460</v>
       </c>
@@ -34013,7 +34077,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="463" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>461</v>
       </c>
@@ -34022,7 +34086,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="464" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>462</v>
       </c>
@@ -34031,90 +34095,90 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="465" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="515" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="516" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="517" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="518" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="519" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="520" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="521" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="522" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="523" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="524" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="525" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="526" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="527" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="528" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="529" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="530" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="531" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="532" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <sortState ref="A3:K332">
     <sortCondition ref="J3:J332"/>
@@ -34130,20 +34194,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L480"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="L425" sqref="L425"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="F427" sqref="F427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="14"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.86328125" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="14"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>549</v>
       </c>
@@ -34178,7 +34242,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>'Bowtie v1.0 reorg'!A3</f>
         <v>1</v>
@@ -34228,7 +34292,7 @@
         <v>{"id":1,"name":"arrow-up","unicode":"E900","decimal":59648,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","up"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>'Bowtie v1.0 reorg'!A4</f>
         <v>2</v>
@@ -34278,7 +34342,7 @@
         <v>{"id":2,"name":"arrow-left","unicode":"E901","decimal":59649,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","left","back"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>'Bowtie v1.0 reorg'!A5</f>
         <v>3</v>
@@ -34328,7 +34392,7 @@
         <v>{"id":3,"name":"arrow-down","unicode":"E902","decimal":59650,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","down"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>'Bowtie v1.0 reorg'!A6</f>
         <v>4</v>
@@ -34378,7 +34442,7 @@
         <v>{"id":4,"name":"arrow-right","unicode":"E903","decimal":59651,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","right","next"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>'Bowtie v1.0 reorg'!A7</f>
         <v>5</v>
@@ -34428,7 +34492,7 @@
         <v>{"id":5,"name":"arrow-up-left","unicode":"E904","decimal":59652,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow"],"usage":"not used, created to align with other arrow icons"}</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>'Bowtie v1.0 reorg'!A8</f>
         <v>6</v>
@@ -34478,7 +34542,7 @@
         <v>{"id":6,"name":"arrow-up-right","unicode":"E905","decimal":59653,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","increase"],"usage":"Used inline with number label to indicate status trend - increase"}</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>'Bowtie v1.0 reorg'!A9</f>
         <v>7</v>
@@ -34528,7 +34592,7 @@
         <v>{"id":7,"name":"arrow-down-left","unicode":"E906","decimal":59654,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow"],"usage":"not used, created to align with other arrow icons"}</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>'Bowtie v1.0 reorg'!A10</f>
         <v>8</v>
@@ -34578,7 +34642,7 @@
         <v>{"id":8,"name":"arrow-down-right","unicode":"E907","decimal":59655,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","decrease"],"usage":"Use inline with number label to indicate status trend - decrease"}</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>'Bowtie v1.0 reorg'!A11</f>
         <v>9</v>
@@ -34628,7 +34692,7 @@
         <v>{"id":9,"name":"arrow-export","unicode":"E908","decimal":59656,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","export"],"usage":""}</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <f>'Bowtie v1.0 reorg'!A12</f>
         <v>10</v>
@@ -34678,7 +34742,7 @@
         <v>{"id":10,"name":"arrow-open","unicode":"E909","decimal":59657,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","open"],"usage":""}</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <f>'Bowtie v1.0 reorg'!A13</f>
         <v>11</v>
@@ -34728,7 +34792,7 @@
         <v>{"id":11,"name":"sort","unicode":"E90A","decimal":59658,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["sort","re-order"],"usage":""}</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <f>'Bowtie v1.0 reorg'!A14</f>
         <v>12</v>
@@ -34778,7 +34842,7 @@
         <v>{"id":12,"name":"sort-ascending","unicode":"E90B","decimal":59659,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","up","sort","ascending"],"usage":"intentional duplicate of arrow-up"}</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <f>'Bowtie v1.0 reorg'!A15</f>
         <v>13</v>
@@ -34828,7 +34892,7 @@
         <v>{"id":13,"name":"sort-descending","unicode":"E90C","decimal":59660,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","down","sort","descending"],"usage":"intentional duplicate of arrow-down"}</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <f>'Bowtie v1.0 reorg'!A16</f>
         <v>14</v>
@@ -34878,7 +34942,7 @@
         <v>{"id":14,"name":"switch","unicode":"E90D","decimal":59661,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["arrow","switch","exchange","left","right"],"usage":""}</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>'Bowtie v1.0 reorg'!A17</f>
         <v>15</v>
@@ -34928,7 +34992,7 @@
         <v>{"id":15,"name":"synchronize","unicode":"E90E","decimal":59662,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["arrow","synchronize","sync","update","upload","download"],"usage":"Used for synchronizing and data exchange, different from refresh"}</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <f>'Bowtie v1.0 reorg'!A18</f>
         <v>16</v>
@@ -34978,7 +35042,7 @@
         <v>{"id":16,"name":"transfer-download","unicode":"E90F","decimal":59663,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["download","bottom","arrow","down"],"usage":"Used for download or go to bottom"}</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <f>'Bowtie v1.0 reorg'!A19</f>
         <v>17</v>
@@ -35028,7 +35092,7 @@
         <v>{"id":17,"name":"transfer-upload","unicode":"E910","decimal":59664,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["upload","top","arrow","up"],"usage":"Used for upload or go to top"}</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <f>'Bowtie v1.0 reorg'!A20</f>
         <v>18</v>
@@ -35078,7 +35142,7 @@
         <v>{"id":18,"name":"azure-api-management","unicode":"E911","decimal":59665,"version":"1.0","style":"light","subset":"VSTS","group":"Brand","keywords":["cloud","azure","api","node","connect"],"usage":""}</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <f>'Bowtie v1.0 reorg'!A21</f>
         <v>19</v>
@@ -35128,7 +35192,7 @@
         <v>{"id":19,"name":"azure-service-endpoint","unicode":"E912","decimal":59666,"version":"1.0","style":"light","subset":"VSTS","group":"Brand","keywords":["azure","endpoint","connect","node"],"usage":""}</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <f>'Bowtie v1.0 reorg'!A22</f>
         <v>20</v>
@@ -35178,7 +35242,7 @@
         <v>{"id":20,"name":"brand-android","unicode":"E913","decimal":59667,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["android"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <f>'Bowtie v1.0 reorg'!A23</f>
         <v>21</v>
@@ -35228,7 +35292,7 @@
         <v>{"id":21,"name":"brand-facebook","unicode":"E914","decimal":59668,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["facebook"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>'Bowtie v1.0 reorg'!A24</f>
         <v>22</v>
@@ -35278,7 +35342,7 @@
         <v>{"id":22,"name":"brand-git","unicode":"E915","decimal":59669,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["git","version","control"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <f>'Bowtie v1.0 reorg'!A25</f>
         <v>23</v>
@@ -35328,7 +35392,7 @@
         <v>{"id":23,"name":"brand-github","unicode":"E916","decimal":59670,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["github"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <f>'Bowtie v1.0 reorg'!A26</f>
         <v>24</v>
@@ -35378,7 +35442,7 @@
         <v>{"id":24,"name":"brand-maven","unicode":"E917","decimal":59671,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["maven"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>'Bowtie v1.0 reorg'!A27</f>
         <v>25</v>
@@ -35428,7 +35492,7 @@
         <v>{"id":25,"name":"brand-mtm","unicode":"E918","decimal":59672,"version":"1.0","style":"","subset":"VSTS","group":"Brand","keywords":["mtm","microsoft","test","manager"],"usage":""}</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <f>'Bowtie v1.0 reorg'!A28</f>
         <v>26</v>
@@ -35478,7 +35542,7 @@
         <v>{"id":26,"name":"brand-npm","unicode":"E919","decimal":59673,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["npm"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <f>'Bowtie v1.0 reorg'!A29</f>
         <v>27</v>
@@ -35528,7 +35592,7 @@
         <v>{"id":27,"name":"brand-nuget","unicode":"E91A","decimal":59674,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["nuget"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <f>'Bowtie v1.0 reorg'!A30</f>
         <v>28</v>
@@ -35578,7 +35642,7 @@
         <v>{"id":28,"name":"brand-tfvc","unicode":"E91B","decimal":59675,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["tfvc","team","foundation","version","control"],"usage":"Feature icon for TFVC (Team Foundation Version Control). Not a logo."}</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>'Bowtie v1.0 reorg'!A31</f>
         <v>29</v>
@@ -35628,7 +35692,7 @@
         <v>{"id":29,"name":"brand-twitter","unicode":"E91C","decimal":59676,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["twitter"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <f>'Bowtie v1.0 reorg'!A32</f>
         <v>30</v>
@@ -35678,7 +35742,7 @@
         <v>{"id":30,"name":"brand-visualstudio","unicode":"E91D","decimal":59677,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["visual","studio"],"usage":"Visual Studio logo mark."}</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <f>'Bowtie v1.0 reorg'!A33</f>
         <v>31</v>
@@ -35728,7 +35792,7 @@
         <v>{"id":31,"name":"brand-windows","unicode":"E91E","decimal":59678,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["windows"],"usage":"Windows logo mark."}</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>'Bowtie v1.0 reorg'!A34</f>
         <v>32</v>
@@ -35778,7 +35842,7 @@
         <v>{"id":32,"name":"git","unicode":"E91F","decimal":59679,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["git"],"usage":"intentional duplicate of brand-git"}</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <f>'Bowtie v1.0 reorg'!A35</f>
         <v>33</v>
@@ -35828,7 +35892,7 @@
         <v>{"id":33,"name":"logo-visual-studio","unicode":"E920","decimal":59680,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["visual","studio"],"usage":"intentional duplicate of brand-visualstudio"}</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <f>'Bowtie v1.0 reorg'!A36</f>
         <v>34</v>
@@ -35878,7 +35942,7 @@
         <v>{"id":34,"name":"tfvc-repo","unicode":"E921","decimal":59681,"version":"1.0","style":"","subset":"VSTS","group":"Brand","keywords":["tfvc","team","foundation","version","control"],"usage":"intentional duplicate of brand-tfvc"}</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <f>'Bowtie v1.0 reorg'!A37</f>
         <v>35</v>
@@ -35928,7 +35992,7 @@
         <v>{"id":35,"name":"chart-area","unicode":"E922","decimal":59682,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","area"],"usage":"Area chart type."}</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>'Bowtie v1.0 reorg'!A38</f>
         <v>36</v>
@@ -35978,7 +36042,7 @@
         <v>{"id":36,"name":"chart-bar","unicode":"E923","decimal":59683,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","bar"],"usage":"Bar chart type."}</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <f>'Bowtie v1.0 reorg'!A39</f>
         <v>37</v>
@@ -36028,7 +36092,7 @@
         <v>{"id":37,"name":"chart-column","unicode":"E924","decimal":59684,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","column"],"usage":"Column chart type."}</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <f>'Bowtie v1.0 reorg'!A40</f>
         <v>38</v>
@@ -36078,7 +36142,7 @@
         <v>{"id":38,"name":"chart-pie","unicode":"E925","decimal":59685,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","pie"],"usage":"Pie chart type."}</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <f>'Bowtie v1.0 reorg'!A41</f>
         <v>39</v>
@@ -36128,7 +36192,7 @@
         <v>{"id":39,"name":"chart-pivot","unicode":"E926","decimal":59686,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","pivot"],"usage":"Pivot chart type or concept for pivot"}</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>'Bowtie v1.0 reorg'!A42</f>
         <v>40</v>
@@ -36178,7 +36242,7 @@
         <v>{"id":40,"name":"chart-stacked-area","unicode":"E927","decimal":59687,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","stack","area"],"usage":"Stacked area chart type"}</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <f>'Bowtie v1.0 reorg'!A43</f>
         <v>41</v>
@@ -36228,7 +36292,7 @@
         <v>{"id":41,"name":"chart-stacked-bar","unicode":"E928","decimal":59688,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","stack","bar"],"usage":"Stacked bar chart type"}</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <f>'Bowtie v1.0 reorg'!A44</f>
         <v>42</v>
@@ -36278,7 +36342,7 @@
         <v>{"id":42,"name":"chart-stacked-line","unicode":"E929","decimal":59689,"version":"1.0","style":"light","subset":"VSTS","group":"Chart","keywords":["chart","stack","line"],"usage":"Stacked line chart type"}</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <f>'Bowtie v1.0 reorg'!A45</f>
         <v>43</v>
@@ -36328,7 +36392,7 @@
         <v>{"id":43,"name":"build-queue-new","unicode":"E92A","decimal":59690,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["build","queue","add","plus"],"usage":"New Build queue. Combo icon not recommended. Use simple plus icon if possible."}</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>'Bowtie v1.0 reorg'!A46</f>
         <v>44</v>
@@ -36378,7 +36442,7 @@
         <v>{"id":44,"name":"clone-to-desktop","unicode":"E92B","decimal":59691,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["clone","desktop","download","local","install","setup"],"usage":"Used for repo action Clone to desktop. Can also be used for setup on desktop, download to desktop, create a local copy, etc."}</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <f>'Bowtie v1.0 reorg'!A47</f>
         <v>45</v>
@@ -36428,7 +36492,7 @@
         <v>{"id":45,"name":"install","unicode":"E92C","decimal":59692,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["install","disk","download","setup","arrow","down"],"usage":""}</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <f>'Bowtie v1.0 reorg'!A48</f>
         <v>46</v>
@@ -36478,7 +36542,7 @@
         <v>{"id":46,"name":"comment","unicode":"E92D","decimal":59693,"version":"1.0","style":"bold","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>'Bowtie v1.0 reorg'!A49</f>
         <v>47</v>
@@ -36528,7 +36592,7 @@
         <v>{"id":47,"name":"comment-add","unicode":"E92E","decimal":59694,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","add","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <f>'Bowtie v1.0 reorg'!A50</f>
         <v>48</v>
@@ -36578,7 +36642,7 @@
         <v>{"id":48,"name":"comment-discussion","unicode":"E92F","decimal":59695,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <f>'Bowtie v1.0 reorg'!A51</f>
         <v>49</v>
@@ -36628,7 +36692,7 @@
         <v>{"id":49,"name":"comment-lines","unicode":"E930","decimal":59696,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","content"],"usage":""}</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <f>'Bowtie v1.0 reorg'!A52</f>
         <v>50</v>
@@ -36678,7 +36742,7 @@
         <v>{"id":50,"name":"comment-next","unicode":"E931","decimal":59697,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","next"],"usage":""}</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <f>'Bowtie v1.0 reorg'!A53</f>
         <v>51</v>
@@ -36728,7 +36792,7 @@
         <v>{"id":51,"name":"comment-outline","unicode":"E932","decimal":59698,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <f>'Bowtie v1.0 reorg'!A54</f>
         <v>52</v>
@@ -36778,7 +36842,7 @@
         <v>{"id":52,"name":"comment-previous","unicode":"E933","decimal":59699,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","previous"],"usage":""}</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <f>'Bowtie v1.0 reorg'!A55</f>
         <v>53</v>
@@ -36828,7 +36892,7 @@
         <v>{"id":53,"name":"comment-urgent","unicode":"E934","decimal":59700,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","urgent","exclaimation","alert","attention"],"usage":""}</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <f>'Bowtie v1.0 reorg'!A56</f>
         <v>54</v>
@@ -36878,7 +36942,7 @@
         <v>{"id":54,"name":"alert","unicode":"E935","decimal":59701,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["flag","alert","notification"],"usage":"Notification"}</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <f>'Bowtie v1.0 reorg'!A57</f>
         <v>55</v>
@@ -36928,7 +36992,7 @@
         <v>{"id":55,"name":"approve","unicode":"E936","decimal":59702,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["hand","thumb","up","like","approve"],"usage":"The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible."}</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <f>'Bowtie v1.0 reorg'!A58</f>
         <v>56</v>
@@ -36978,7 +37042,7 @@
         <v>{"id":56,"name":"approve-disapprove","unicode":"E937","decimal":59703,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["hand","thumb","down","dislike","disapprove"],"usage":"The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible."}</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <f>'Bowtie v1.0 reorg'!A59</f>
         <v>57</v>
@@ -37028,7 +37092,7 @@
         <v>{"id":57,"name":"blur","unicode":"E938","decimal":59704,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["blur","pixel","image"],"usage":""}</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <f>'Bowtie v1.0 reorg'!A60</f>
         <v>58</v>
@@ -37078,7 +37142,7 @@
         <v>{"id":58,"name":"build","unicode":"E939","decimal":59705,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["build"],"usage":"Used for build, compile."}</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <f>'Bowtie v1.0 reorg'!A61</f>
         <v>59</v>
@@ -37128,7 +37192,7 @@
         <v>{"id":59,"name":"build-queue","unicode":"E93A","decimal":59706,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["build","queue"],"usage":"Used in Build hub to indicate queue."}</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <f>'Bowtie v1.0 reorg'!A62</f>
         <v>60</v>
@@ -37178,7 +37242,7 @@
         <v>{"id":60,"name":"build-reason-checkin-shelveset","unicode":"E93B","decimal":59707,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["checkin","upload","move","top"],"usage":"Intentional duplicate of transfer-upload because checkin in is similar to upload, push."}</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
         <f>'Bowtie v1.0 reorg'!A63</f>
         <v>61</v>
@@ -37228,7 +37292,7 @@
         <v>{"id":61,"name":"calendar","unicode":"E93C","decimal":59708,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["calendar","date","schedule"],"usage":"Used for generic calendar, date, deadline, schedule."}</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
         <f>'Bowtie v1.0 reorg'!A64</f>
         <v>62</v>
@@ -37278,7 +37342,7 @@
         <v>{"id":62,"name":"calendar-month","unicode":"E93D","decimal":59709,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["calendar","date","schedule"],"usage":"Used for month calendar or date picker"}</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
         <f>'Bowtie v1.0 reorg'!A65</f>
         <v>63</v>
@@ -37328,7 +37392,7 @@
         <v>{"id":63,"name":"camera","unicode":"E93E","decimal":59710,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":["camera","capture","screen"],"usage":""}</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
         <f>'Bowtie v1.0 reorg'!A66</f>
         <v>64</v>
@@ -37378,7 +37442,7 @@
         <v>{"id":64,"name":"clone","unicode":"E93F","decimal":59711,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["copy","duplicate","clone"],"usage":"Intentional duplicate"}</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66">
         <f>'Bowtie v1.0 reorg'!A67</f>
         <v>65</v>
@@ -37428,7 +37492,7 @@
         <v>{"id":65,"name":"cloud","unicode":"E940","decimal":59712,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cloud","remote","online"],"usage":""}</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
         <f>'Bowtie v1.0 reorg'!A68</f>
         <v>66</v>
@@ -37478,7 +37542,7 @@
         <v>{"id":66,"name":"cloud-fill","unicode":"E941","decimal":59713,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cloud","remote","online"],"usage":""}</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68">
         <f>'Bowtie v1.0 reorg'!A69</f>
         <v>67</v>
@@ -37528,7 +37592,7 @@
         <v>{"id":67,"name":"copy-to-clipboard","unicode":"E942","decimal":59714,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["copy","clipboard","text"],"usage":""}</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69">
         <f>'Bowtie v1.0 reorg'!A70</f>
         <v>68</v>
@@ -37578,7 +37642,7 @@
         <v>{"id":68,"name":"dashboard","unicode":"E943","decimal":59715,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["dashboard","tile","grid"],"usage":""}</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70">
         <f>'Bowtie v1.0 reorg'!A71</f>
         <v>69</v>
@@ -37628,7 +37692,7 @@
         <v>{"id":69,"name":"dashboard-fill","unicode":"E944","decimal":59716,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["dashboard","tile","grid"],"usage":""}</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71">
         <f>'Bowtie v1.0 reorg'!A72</f>
         <v>70</v>
@@ -37678,7 +37742,7 @@
         <v>{"id":70,"name":"database","unicode":"E945","decimal":59717,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["database","data","cylinder","barrel"],"usage":""}</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72">
         <f>'Bowtie v1.0 reorg'!A73</f>
         <v>71</v>
@@ -37728,7 +37792,7 @@
         <v>{"id":71,"name":"deploy","unicode":"E946","decimal":59718,"version":"1.0","style":"bold","subset":"VSTS","group":"Build","keywords":["deploy","slot","arrowup","square"],"usage":""}</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73">
         <f>'Bowtie v1.0 reorg'!A74</f>
         <v>72</v>
@@ -37778,7 +37842,7 @@
         <v>{"id":72,"name":"redeploy","unicode":"E947","decimal":59719,"version":"1.0","style":"bold","subset":"VSTS","group":"Build","keywords":["deploy","slot","arrowup","square"],"usage":""}</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74">
         <f>'Bowtie v1.0 reorg'!A75</f>
         <v>73</v>
@@ -37828,7 +37892,7 @@
         <v>{"id":73,"name":"details-pane","unicode":"E948","decimal":59720,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["pane","detail","layout","panel"],"usage":""}</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75">
         <f>'Bowtie v1.0 reorg'!A76</f>
         <v>74</v>
@@ -37878,7 +37942,7 @@
         <v>{"id":74,"name":"edit","unicode":"E949","decimal":59721,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["edit","pencil"],"usage":""}</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76">
         <f>'Bowtie v1.0 reorg'!A77</f>
         <v>75</v>
@@ -37928,7 +37992,7 @@
         <v>{"id":75,"name":"edit-outline","unicode":"E94A","decimal":59722,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["edit","pencil"],"usage":""}</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77">
         <f>'Bowtie v1.0 reorg'!A78</f>
         <v>76</v>
@@ -37978,7 +38042,7 @@
         <v>{"id":76,"name":"edit-copy","unicode":"E94B","decimal":59723,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["copy","duplicate","clone"],"usage":""}</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78">
         <f>'Bowtie v1.0 reorg'!A79</f>
         <v>77</v>
@@ -38028,7 +38092,7 @@
         <v>{"id":77,"name":"edit-cut","unicode":"E94C","decimal":59724,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cut","scissors"],"usage":""}</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79">
         <f>'Bowtie v1.0 reorg'!A80</f>
         <v>78</v>
@@ -38078,7 +38142,7 @@
         <v>{"id":78,"name":"editor-list-bullet","unicode":"E94D","decimal":59725,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["list","bullet"],"usage":""}</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80">
         <f>'Bowtie v1.0 reorg'!A81</f>
         <v>79</v>
@@ -38128,7 +38192,7 @@
         <v>{"id":79,"name":"edit-paste","unicode":"E94E","decimal":59726,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["paste","clipboard"],"usage":""}</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81">
         <f>'Bowtie v1.0 reorg'!A82</f>
         <v>80</v>
@@ -38178,7 +38242,7 @@
         <v>{"id":80,"name":"edit-delete","unicode":"E94F","decimal":59727,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["delete","destroy"],"usage":"used in context menu or toolbar for Delete command, matching Add command."}</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82">
         <f>'Bowtie v1.0 reorg'!A83</f>
         <v>81</v>
@@ -38228,7 +38292,7 @@
         <v>{"id":81,"name":"edit-remove","unicode":"E950","decimal":59728,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["remove","minus","line"],"usage":"replace with math-minus-light. Intentional duplicate"}</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83">
         <f>'Bowtie v1.0 reorg'!A84</f>
         <v>82</v>
@@ -38278,7 +38342,7 @@
         <v>{"id":82,"name":"edit-redo","unicode":"E951","decimal":59729,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["arrow","redo"],"usage":""}</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84">
         <f>'Bowtie v1.0 reorg'!A85</f>
         <v>83</v>
@@ -38328,7 +38392,7 @@
         <v>{"id":83,"name":"edit-undo","unicode":"E952","decimal":59730,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["arrow","undo","revert"],"usage":""}</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85">
         <f>'Bowtie v1.0 reorg'!A86</f>
         <v>84</v>
@@ -38378,7 +38442,7 @@
         <v>{"id":84,"name":"edit-rename","unicode":"E953","decimal":59731,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["rename","textbox","cursor"],"usage":""}</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86">
         <f>'Bowtie v1.0 reorg'!A87</f>
         <v>85</v>
@@ -38428,7 +38492,7 @@
         <v>{"id":85,"name":"attach","unicode":"E954","decimal":59732,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["paperclip","attach"],"usage":"Used for attachment."}</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87">
         <f>'Bowtie v1.0 reorg'!A88</f>
         <v>86</v>
@@ -38478,7 +38542,7 @@
         <v>{"id":86,"name":"link","unicode":"E955","decimal":59733,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["link","hyperlink","url"],"usage":""}</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88">
         <f>'Bowtie v1.0 reorg'!A89</f>
         <v>87</v>
@@ -38528,7 +38592,7 @@
         <v>{"id":87,"name":"server","unicode":"E956","decimal":59734,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89">
         <f>'Bowtie v1.0 reorg'!A90</f>
         <v>88</v>
@@ -38578,7 +38642,7 @@
         <v>{"id":88,"name":"environment","unicode":"E957","decimal":59735,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90">
         <f>'Bowtie v1.0 reorg'!A91</f>
         <v>89</v>
@@ -38628,7 +38692,7 @@
         <v>{"id":89,"name":"devices","unicode":"E958","decimal":59736,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91">
         <f>'Bowtie v1.0 reorg'!A92</f>
         <v>90</v>
@@ -38678,7 +38742,7 @@
         <v>{"id":90,"name":"feedback-negative","unicode":"E959","decimal":59737,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["smiley","face","emoji","unhappy","negative","sad"],"usage":""}</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92">
         <f>'Bowtie v1.0 reorg'!A93</f>
         <v>91</v>
@@ -38728,7 +38792,7 @@
         <v>{"id":91,"name":"feedback-positive","unicode":"E95A","decimal":59738,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["smiley","face","emoji","happy","positive","smile"],"usage":""}</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93">
         <f>'Bowtie v1.0 reorg'!A94</f>
         <v>92</v>
@@ -38778,7 +38842,7 @@
         <v>{"id":92,"name":"folder","unicode":"E95B","decimal":59739,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["folder"],"usage":""}</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94">
         <f>'Bowtie v1.0 reorg'!A95</f>
         <v>93</v>
@@ -38828,7 +38892,7 @@
         <v>{"id":93,"name":"image","unicode":"E95C","decimal":59740,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["image","picture","photo"],"usage":""}</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95">
         <f>'Bowtie v1.0 reorg'!A96</f>
         <v>94</v>
@@ -38878,7 +38942,7 @@
         <v>{"id":94,"name":"package","unicode":"E95D","decimal":59741,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["package","gift","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96">
         <f>'Bowtie v1.0 reorg'!A97</f>
         <v>95</v>
@@ -38928,7 +38992,7 @@
         <v>{"id":95,"name":"package-fill","unicode":"E95E","decimal":59742,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["package","gift","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97">
         <f>'Bowtie v1.0 reorg'!A98</f>
         <v>96</v>
@@ -38978,7 +39042,7 @@
         <v>{"id":96,"name":"heart","unicode":"E95F","decimal":59743,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["heart","love"],"usage":""}</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98">
         <f>'Bowtie v1.0 reorg'!A99</f>
         <v>97</v>
@@ -39028,7 +39092,7 @@
         <v>{"id":97,"name":"heart-fill","unicode":"E960","decimal":59744,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["heart","love"],"usage":""}</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99">
         <f>'Bowtie v1.0 reorg'!A100</f>
         <v>98</v>
@@ -39078,7 +39142,7 @@
         <v>{"id":98,"name":"heartbeat","unicode":"E961","decimal":59745,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["heart","pulse","ekg","health","monitor"],"usage":""}</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100">
         <f>'Bowtie v1.0 reorg'!A101</f>
         <v>99</v>
@@ -39128,7 +39192,7 @@
         <v>{"id":99,"name":"heartbeat-fill","unicode":"E962","decimal":59746,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["heart","pulse","ekg","health","monitor"],"usage":""}</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101">
         <f>'Bowtie v1.0 reorg'!A102</f>
         <v>100</v>
@@ -39178,7 +39242,7 @@
         <v>{"id":100,"name":"mail-message","unicode":"E963","decimal":59747,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["envelope","message","mail"],"usage":"used for read mail"}</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102">
         <f>'Bowtie v1.0 reorg'!A103</f>
         <v>101</v>
@@ -39228,7 +39292,7 @@
         <v>{"id":101,"name":"mail-message-fill","unicode":"E964","decimal":59748,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["envelope","message","mail"],"usage":"used for unread mail"}</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103">
         <f>'Bowtie v1.0 reorg'!A104</f>
         <v>102</v>
@@ -39278,7 +39342,7 @@
         <v>{"id":102,"name":"math-minus","unicode":"E965","decimal":59749,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104">
         <f>'Bowtie v1.0 reorg'!A105</f>
         <v>103</v>
@@ -39328,7 +39392,7 @@
         <v>{"id":103,"name":"math-minus-light","unicode":"E966","decimal":59750,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105">
         <f>'Bowtie v1.0 reorg'!A106</f>
         <v>104</v>
@@ -39378,7 +39442,7 @@
         <v>{"id":104,"name":"math-minus-box-light","unicode":"E967","decimal":59751,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["box","line","minus","remove","minimize"],"usage":""}</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106">
         <f>'Bowtie v1.0 reorg'!A107</f>
         <v>105</v>
@@ -39428,7 +39492,7 @@
         <v>{"id":105,"name":"math-minus-box","unicode":"E968","decimal":59752,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["box","line","minus","remove","minimize"],"usage":""}</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107">
         <f>'Bowtie v1.0 reorg'!A108</f>
         <v>106</v>
@@ -39478,7 +39542,7 @@
         <v>{"id":106,"name":"math-minus-circle-outline","unicode":"E969","decimal":59753,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["circle","line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108">
         <f>'Bowtie v1.0 reorg'!A109</f>
         <v>107</v>
@@ -39528,7 +39592,7 @@
         <v>{"id":107,"name":"math-minus-circle","unicode":"E96A","decimal":59754,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["circle","line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109">
         <f>'Bowtie v1.0 reorg'!A110</f>
         <v>108</v>
@@ -39578,7 +39642,7 @@
         <v>{"id":108,"name":"math-multiply","unicode":"E96B","decimal":59755,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply"],"usage":""}</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110">
         <f>'Bowtie v1.0 reorg'!A111</f>
         <v>109</v>
@@ -39628,7 +39692,7 @@
         <v>{"id":109,"name":"math-multiply-light","unicode":"E96C","decimal":59756,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply"],"usage":""}</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111">
         <f>'Bowtie v1.0 reorg'!A112</f>
         <v>110</v>
@@ -39678,7 +39742,7 @@
         <v>{"id":110,"name":"math-multiply-box-light","unicode":"E96D","decimal":59757,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112">
         <f>'Bowtie v1.0 reorg'!A113</f>
         <v>111</v>
@@ -39728,7 +39792,7 @@
         <v>{"id":111,"name":"math-multiply-box","unicode":"E96E","decimal":59758,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113">
         <f>'Bowtie v1.0 reorg'!A114</f>
         <v>112</v>
@@ -39778,7 +39842,7 @@
         <v>{"id":112,"name":"math-multiply-box-outline","unicode":"E96F","decimal":59759,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114">
         <f>'Bowtie v1.0 reorg'!A115</f>
         <v>113</v>
@@ -39828,7 +39892,7 @@
         <v>{"id":113,"name":"math-plus","unicode":"E970","decimal":59760,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add"],"usage":""}</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115">
         <f>'Bowtie v1.0 reorg'!A116</f>
         <v>114</v>
@@ -39878,7 +39942,7 @@
         <v>{"id":114,"name":"math-plus-light","unicode":"E971","decimal":59761,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["plus","add"],"usage":""}</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116">
         <f>'Bowtie v1.0 reorg'!A117</f>
         <v>115</v>
@@ -39928,7 +39992,7 @@
         <v>{"id":115,"name":"math-plus-box-light","unicode":"E972","decimal":59762,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117">
         <f>'Bowtie v1.0 reorg'!A118</f>
         <v>116</v>
@@ -39978,7 +40042,7 @@
         <v>{"id":116,"name":"math-plus-box","unicode":"E973","decimal":59763,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118">
         <f>'Bowtie v1.0 reorg'!A119</f>
         <v>117</v>
@@ -40028,7 +40092,7 @@
         <v>{"id":117,"name":"math-plus-circle-outline","unicode":"E974","decimal":59764,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["plus","add","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119">
         <f>'Bowtie v1.0 reorg'!A120</f>
         <v>118</v>
@@ -40078,7 +40142,7 @@
         <v>{"id":118,"name":"math-plus-circle","unicode":"E975","decimal":59765,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120">
         <f>'Bowtie v1.0 reorg'!A121</f>
         <v>119</v>
@@ -40128,7 +40192,7 @@
         <v>{"id":119,"name":"math-plus-heavy","unicode":"E976","decimal":59766,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add"],"usage":"intentional duplicate"}</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121">
         <f>'Bowtie v1.0 reorg'!A122</f>
         <v>120</v>
@@ -40178,7 +40242,7 @@
         <v>{"id":120,"name":"check","unicode":"E977","decimal":59767,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["check","checkmark"],"usage":"Check, approve. Use bold version when it is small to match other bold icons in a list. Usually apply sementic color positive on this icon."}</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122">
         <f>'Bowtie v1.0 reorg'!A123</f>
         <v>121</v>
@@ -40228,7 +40292,7 @@
         <v>{"id":121,"name":"check-light","unicode":"E978","decimal":59768,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["check","checkmark"],"usage":"Check, approve. Use light version for large size, match other light icons if in a list."}</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123">
         <f>'Bowtie v1.0 reorg'!A124</f>
         <v>122</v>
@@ -40278,7 +40342,7 @@
         <v>{"id":122,"name":"feed","unicode":"E979","decimal":59769,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["feed","rss"],"usage":""}</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124">
         <f>'Bowtie v1.0 reorg'!A125</f>
         <v>123</v>
@@ -40328,7 +40392,7 @@
         <v>{"id":123,"name":"network-tower","unicode":"E97A","decimal":59770,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["network","tower","signal","wave","broadcast"],"usage":""}</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125">
         <f>'Bowtie v1.0 reorg'!A126</f>
         <v>124</v>
@@ -40378,7 +40442,7 @@
         <v>{"id":124,"name":"connect-to-feed","unicode":"E97B","decimal":59771,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["connect","feed","rss","plug","wave","signal"],"usage":""}</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126">
         <f>'Bowtie v1.0 reorg'!A127</f>
         <v>125</v>
@@ -40428,7 +40492,7 @@
         <v>{"id":125,"name":"plug","unicode":"E97C","decimal":59772,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","connect"],"usage":""}</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127">
         <f>'Bowtie v1.0 reorg'!A128</f>
         <v>126</v>
@@ -40478,7 +40542,7 @@
         <v>{"id":126,"name":"plug-outline","unicode":"E97D","decimal":59773,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["plug","connect"],"usage":""}</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128">
         <f>'Bowtie v1.0 reorg'!A129</f>
         <v>127</v>
@@ -40528,7 +40592,7 @@
         <v>{"id":127,"name":"policy","unicode":"E97E","decimal":59774,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["policy","ribbon"],"usage":""}</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129">
         <f>'Bowtie v1.0 reorg'!A130</f>
         <v>128</v>
@@ -40578,7 +40642,7 @@
         <v>{"id":128,"name":"print","unicode":"E97F","decimal":59775,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130">
         <f>'Bowtie v1.0 reorg'!A131</f>
         <v>129</v>
@@ -40628,7 +40692,7 @@
         <v>{"id":129,"name":"recycle","unicode":"E980","decimal":59776,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["recycle"],"usage":""}</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131">
         <f>'Bowtie v1.0 reorg'!A132</f>
         <v>130</v>
@@ -40678,7 +40742,7 @@
         <v>{"id":130,"name":"robot","unicode":"E981","decimal":59777,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132">
         <f>'Bowtie v1.0 reorg'!A133</f>
         <v>131</v>
@@ -40728,7 +40792,7 @@
         <v>{"id":131,"name":"save","unicode":"E982","decimal":59778,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["save","floppy","disk"],"usage":""}</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133">
         <f>'Bowtie v1.0 reorg'!A134</f>
         <v>132</v>
@@ -40778,7 +40842,7 @@
         <v>{"id":132,"name":"save-all","unicode":"E983","decimal":59779,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134">
         <f>'Bowtie v1.0 reorg'!A135</f>
         <v>133</v>
@@ -40828,7 +40892,7 @@
         <v>{"id":133,"name":"save-as","unicode":"E984","decimal":59780,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135">
         <f>'Bowtie v1.0 reorg'!A136</f>
         <v>134</v>
@@ -40878,7 +40942,7 @@
         <v>{"id":134,"name":"save-close","unicode":"E985","decimal":59781,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136">
         <f>'Bowtie v1.0 reorg'!A137</f>
         <v>135</v>
@@ -40928,7 +40992,7 @@
         <v>{"id":135,"name":"search","unicode":"E986","decimal":59782,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["search","find","lookup","magnifier"],"usage":""}</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137">
         <f>'Bowtie v1.0 reorg'!A138</f>
         <v>136</v>
@@ -40978,7 +41042,7 @@
         <v>{"id":136,"name":"search-filter","unicode":"E987","decimal":59783,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["filter","funnel"],"usage":""}</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138">
         <f>'Bowtie v1.0 reorg'!A139</f>
         <v>137</v>
@@ -41028,7 +41092,7 @@
         <v>{"id":137,"name":"search-filter-fill","unicode":"E988","decimal":59784,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["filter","funnel"],"usage":""}</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139">
         <f>'Bowtie v1.0 reorg'!A140</f>
         <v>138</v>
@@ -41078,7 +41142,7 @@
         <v>{"id":138,"name":"security","unicode":"E989","decimal":59785,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["security","shield"],"usage":"Duplicates of bowtie-sheild-fill. Used for VC view of branches."}</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140">
         <f>'Bowtie v1.0 reorg'!A141</f>
         <v>139</v>
@@ -41128,7 +41192,7 @@
         <v>{"id":139,"name":"security-access","unicode":"E98A","decimal":59786,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["access","security","key"],"usage":""}</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141">
         <f>'Bowtie v1.0 reorg'!A142</f>
         <v>140</v>
@@ -41178,7 +41242,7 @@
         <v>{"id":140,"name":"security-lock","unicode":"E98B","decimal":59787,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission"],"usage":""}</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142">
         <f>'Bowtie v1.0 reorg'!A143</f>
         <v>141</v>
@@ -41228,7 +41292,7 @@
         <v>{"id":141,"name":"security-lock-fill","unicode":"E98C","decimal":59788,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission"],"usage":""}</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143">
         <f>'Bowtie v1.0 reorg'!A144</f>
         <v>142</v>
@@ -41278,7 +41342,7 @@
         <v>{"id":142,"name":"security-unlock","unicode":"E98D","decimal":59789,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission","unlock"],"usage":""}</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144">
         <f>'Bowtie v1.0 reorg'!A145</f>
         <v>143</v>
@@ -41328,7 +41392,7 @@
         <v>{"id":143,"name":"security-unlock-fill","unicode":"E98E","decimal":59790,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission","unlock"],"usage":""}</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145">
         <f>'Bowtie v1.0 reorg'!A146</f>
         <v>144</v>
@@ -41378,7 +41442,7 @@
         <v>{"id":144,"name":"settings-gear","unicode":"E98F","decimal":59791,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["settings","gear"],"usage":""}</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146">
         <f>'Bowtie v1.0 reorg'!A147</f>
         <v>145</v>
@@ -41428,7 +41492,7 @@
         <v>{"id":145,"name":"settings-gear-outline","unicode":"E990","decimal":59792,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147">
         <f>'Bowtie v1.0 reorg'!A148</f>
         <v>146</v>
@@ -41478,7 +41542,7 @@
         <v>{"id":146,"name":"settings-wrench","unicode":"E991","decimal":59793,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["settings","wrench","property"],"usage":""}</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148">
         <f>'Bowtie v1.0 reorg'!A149</f>
         <v>147</v>
@@ -41528,7 +41592,7 @@
         <v>{"id":147,"name":"trash","unicode":"E992","decimal":59794,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149">
         <f>'Bowtie v1.0 reorg'!A150</f>
         <v>148</v>
@@ -41578,7 +41642,7 @@
         <v>{"id":148,"name":"share","unicode":"E993","decimal":59795,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["share"],"usage":""}</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150">
         <f>'Bowtie v1.0 reorg'!A151</f>
         <v>149</v>
@@ -41628,7 +41692,7 @@
         <v>{"id":149,"name":"shop","unicode":"E994","decimal":59796,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["store","shop"],"usage":""}</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151">
         <f>'Bowtie v1.0 reorg'!A152</f>
         <v>150</v>
@@ -41678,7 +41742,7 @@
         <v>{"id":150,"name":"shop-server","unicode":"E995","decimal":59797,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["store","shop","on-prem","local","server","intranet"],"usage":""}</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152">
         <f>'Bowtie v1.0 reorg'!A153</f>
         <v>151</v>
@@ -41728,7 +41792,7 @@
         <v>{"id":151,"name":"tag","unicode":"E996","decimal":59798,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153">
         <f>'Bowtie v1.0 reorg'!A154</f>
         <v>152</v>
@@ -41778,7 +41842,7 @@
         <v>{"id":152,"name":"tag-fill","unicode":"E997","decimal":59799,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154">
         <f>'Bowtie v1.0 reorg'!A155</f>
         <v>153</v>
@@ -41828,7 +41892,7 @@
         <v>{"id":153,"name":"user","unicode":"E998","decimal":59800,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155">
         <f>'Bowtie v1.0 reorg'!A156</f>
         <v>154</v>
@@ -41878,7 +41942,7 @@
         <v>{"id":154,"name":"users","unicode":"E999","decimal":59801,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156">
         <f>'Bowtie v1.0 reorg'!A157</f>
         <v>155</v>
@@ -41928,7 +41992,7 @@
         <v>{"id":155,"name":"variable","unicode":"E99A","decimal":59802,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157">
         <f>'Bowtie v1.0 reorg'!A158</f>
         <v>156</v>
@@ -41978,7 +42042,7 @@
         <v>{"id":156,"name":"video","unicode":"E99B","decimal":59803,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158">
         <f>'Bowtie v1.0 reorg'!A159</f>
         <v>157</v>
@@ -42028,7 +42092,7 @@
         <v>{"id":157,"name":"view-grid","unicode":"E99C","decimal":59804,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159">
         <f>'Bowtie v1.0 reorg'!A160</f>
         <v>158</v>
@@ -42078,7 +42142,7 @@
         <v>{"id":158,"name":"watch-eye","unicode":"E99D","decimal":59805,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160">
         <f>'Bowtie v1.0 reorg'!A161</f>
         <v>159</v>
@@ -42128,7 +42192,7 @@
         <v>{"id":159,"name":"watch-eye-fill","unicode":"E99E","decimal":59806,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161">
         <f>'Bowtie v1.0 reorg'!A162</f>
         <v>160</v>
@@ -42178,7 +42242,7 @@
         <v>{"id":160,"name":"live-update-feed","unicode":"E99F","decimal":59807,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["live","update","feed","signal","broadcast","radar"],"usage":"Used in Kanban board for toggle listen to live update."}</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162">
         <f>'Bowtie v1.0 reorg'!A163</f>
         <v>161</v>
@@ -42228,7 +42292,7 @@
         <v>{"id":161,"name":"checkbox","unicode":"E9A0","decimal":59808,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["checkbox","checked","check","checkmark"],"usage":"Checkbox checked."}</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163">
         <f>'Bowtie v1.0 reorg'!A164</f>
         <v>162</v>
@@ -42278,7 +42342,7 @@
         <v>{"id":162,"name":"checkbox-empty","unicode":"E9A1","decimal":59809,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["checkbox","box","square"],"usage":"Checkebox empty. Note that this box alignment is different from stop icon. This is only used for checkbox."}</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164">
         <f>'Bowtie v1.0 reorg'!A165</f>
         <v>163</v>
@@ -42328,7 +42392,7 @@
         <v>{"id":163,"name":"chevron-up","unicode":"E9A2","decimal":59810,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","up","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165">
         <f>'Bowtie v1.0 reorg'!A166</f>
         <v>164</v>
@@ -42378,7 +42442,7 @@
         <v>{"id":164,"name":"chevron-left","unicode":"E9A3","decimal":59811,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","left","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166">
         <f>'Bowtie v1.0 reorg'!A167</f>
         <v>165</v>
@@ -42428,7 +42492,7 @@
         <v>{"id":165,"name":"chevron-down","unicode":"E9A4","decimal":59812,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","down","expand","collpase","dropdown"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167">
         <f>'Bowtie v1.0 reorg'!A168</f>
         <v>166</v>
@@ -42478,7 +42542,7 @@
         <v>{"id":166,"name":"chevron-right","unicode":"E9A5","decimal":59813,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","right","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168">
         <f>'Bowtie v1.0 reorg'!A169</f>
         <v>167</v>
@@ -42528,7 +42592,7 @@
         <v>{"id":167,"name":"chevron-up-light","unicode":"E9A6","decimal":59814,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","up","expand","collpase"],"usage":"Big version used for dialog split button dropup."}</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169">
         <f>'Bowtie v1.0 reorg'!A170</f>
         <v>168</v>
@@ -42578,7 +42642,7 @@
         <v>{"id":168,"name":"chevron-left-light","unicode":"E9A7","decimal":59815,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","left","expand","collpase"],"usage":"Created to match the other big chevron icons."}</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170">
         <f>'Bowtie v1.0 reorg'!A171</f>
         <v>169</v>
@@ -42628,7 +42692,7 @@
         <v>{"id":169,"name":"chevron-down-light","unicode":"E9A8","decimal":59816,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","down","expand","collpase","dropdown"],"usage":"Big version used for dialog split button dropdown."}</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171">
         <f>'Bowtie v1.0 reorg'!A172</f>
         <v>170</v>
@@ -42678,7 +42742,7 @@
         <v>{"id":170,"name":"chevron-right-light","unicode":"E9A9","decimal":59817,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","right","expand","collpase"],"usage":"Created to match the other big chevron icons."}</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172">
         <f>'Bowtie v1.0 reorg'!A173</f>
         <v>171</v>
@@ -42728,7 +42792,7 @@
         <v>{"id":171,"name":"chevron-up-all","unicode":"E9AA","decimal":59818,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173">
         <f>'Bowtie v1.0 reorg'!A174</f>
         <v>172</v>
@@ -42778,7 +42842,7 @@
         <v>{"id":172,"name":"chevron-left-all","unicode":"E9AB","decimal":59819,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174">
         <f>'Bowtie v1.0 reorg'!A175</f>
         <v>173</v>
@@ -42828,7 +42892,7 @@
         <v>{"id":173,"name":"chevron-down-all","unicode":"E9AC","decimal":59820,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175">
         <f>'Bowtie v1.0 reorg'!A176</f>
         <v>174</v>
@@ -42878,7 +42942,7 @@
         <v>{"id":174,"name":"chevron-right-all","unicode":"E9AD","decimal":59821,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176">
         <f>'Bowtie v1.0 reorg'!A177</f>
         <v>175</v>
@@ -42928,7 +42992,7 @@
         <v>{"id":175,"name":"chevron-up-end","unicode":"E9AE","decimal":59822,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177">
         <f>'Bowtie v1.0 reorg'!A178</f>
         <v>176</v>
@@ -42978,7 +43042,7 @@
         <v>{"id":176,"name":"chevron-left-end","unicode":"E9AF","decimal":59823,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178">
         <f>'Bowtie v1.0 reorg'!A179</f>
         <v>177</v>
@@ -43028,7 +43092,7 @@
         <v>{"id":177,"name":"chevron-down-end","unicode":"E9B0","decimal":59824,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179">
         <f>'Bowtie v1.0 reorg'!A180</f>
         <v>178</v>
@@ -43078,7 +43142,7 @@
         <v>{"id":178,"name":"chevron-right-end","unicode":"E9B1","decimal":59825,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180">
         <f>'Bowtie v1.0 reorg'!A181</f>
         <v>179</v>
@@ -43128,7 +43192,7 @@
         <v>{"id":179,"name":"fold-less","unicode":"E9B2","decimal":59826,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["fold","less","collapse"],"usage":""}</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181">
         <f>'Bowtie v1.0 reorg'!A182</f>
         <v>180</v>
@@ -43178,7 +43242,7 @@
         <v>{"id":180,"name":"fold-more","unicode":"E9B3","decimal":59827,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["fold","more","expand"],"usage":""}</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182">
         <f>'Bowtie v1.0 reorg'!A183</f>
         <v>181</v>
@@ -43228,7 +43292,7 @@
         <v>{"id":181,"name":"ellipsis","unicode":"E9B4","decimal":59828,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["ellipsis","trim","more","overflow"],"usage":""}</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183">
         <f>'Bowtie v1.0 reorg'!A184</f>
         <v>182</v>
@@ -43278,7 +43342,7 @@
         <v>{"id":182,"name":"ellipsis-vertical","unicode":"E9B5","decimal":59829,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["ellipsis","trim","more","overflow"],"usage":""}</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184">
         <f>'Bowtie v1.0 reorg'!A185</f>
         <v>183</v>
@@ -43328,7 +43392,7 @@
         <v>{"id":183,"name":"favorite","unicode":"E9B6","decimal":59830,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["star","favorite","rating"],"usage":""}</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185">
         <f>'Bowtie v1.0 reorg'!A186</f>
         <v>184</v>
@@ -43378,7 +43442,7 @@
         <v>{"id":184,"name":"favorite-outline","unicode":"E9B7","decimal":59831,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["star","favorite","rating"],"usage":""}</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186">
         <f>'Bowtie v1.0 reorg'!A187</f>
         <v>185</v>
@@ -43428,7 +43492,7 @@
         <v>{"id":185,"name":"star-half","unicode":"E9B8","decimal":59832,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["star","favorite","rating","half"],"usage":""}</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187">
         <f>'Bowtie v1.0 reorg'!A188</f>
         <v>186</v>
@@ -43478,7 +43542,7 @@
         <v>{"id":186,"name":"pin","unicode":"E9B9","decimal":59833,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188">
         <f>'Bowtie v1.0 reorg'!A189</f>
         <v>187</v>
@@ -43528,7 +43592,7 @@
         <v>{"id":187,"name":"pin-fill","unicode":"E9BA","decimal":59834,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189">
         <f>'Bowtie v1.0 reorg'!A190</f>
         <v>188</v>
@@ -43578,7 +43642,7 @@
         <v>{"id":188,"name":"pin-pinned","unicode":"E9BB","decimal":59835,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190">
         <f>'Bowtie v1.0 reorg'!A191</f>
         <v>189</v>
@@ -43628,7 +43692,7 @@
         <v>{"id":189,"name":"pin-pinned-fill","unicode":"E9BC","decimal":59836,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191">
         <f>'Bowtie v1.0 reorg'!A192</f>
         <v>190</v>
@@ -43678,7 +43742,7 @@
         <v>{"id":190,"name":"pin-unpin","unicode":"E9BD","decimal":59837,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192">
         <f>'Bowtie v1.0 reorg'!A193</f>
         <v>191</v>
@@ -43728,7 +43792,7 @@
         <v>{"id":191,"name":"pin-unpin-fill","unicode":"E9BE","decimal":59838,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193">
         <f>'Bowtie v1.0 reorg'!A194</f>
         <v>192</v>
@@ -43778,7 +43842,7 @@
         <v>{"id":192,"name":"radio-button","unicode":"E9BF","decimal":59839,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["radio","button","choice","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194">
         <f>'Bowtie v1.0 reorg'!A195</f>
         <v>193</v>
@@ -43828,7 +43892,7 @@
         <v>{"id":193,"name":"radio-button-empty","unicode":"E9C0","decimal":59840,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["radio","button","choice","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195">
         <f>'Bowtie v1.0 reorg'!A196</f>
         <v>194</v>
@@ -43878,7 +43942,7 @@
         <v>{"id":194,"name":"resize-grip","unicode":"E9C1","decimal":59841,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196">
         <f>'Bowtie v1.0 reorg'!A197</f>
         <v>195</v>
@@ -43928,7 +43992,7 @@
         <v>{"id":195,"name":"separator","unicode":"E9C2","decimal":59842,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["separator","divider","pipe","line"],"usage":""}</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197">
         <f>'Bowtie v1.0 reorg'!A198</f>
         <v>196</v>
@@ -43978,7 +44042,7 @@
         <v>{"id":196,"name":"toggle-collapse","unicode":"E9C3","decimal":59843,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198">
         <f>'Bowtie v1.0 reorg'!A199</f>
         <v>197</v>
@@ -44028,7 +44092,7 @@
         <v>{"id":197,"name":"toggle-expand","unicode":"E9C4","decimal":59844,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199">
         <f>'Bowtie v1.0 reorg'!A200</f>
         <v>198</v>
@@ -44078,7 +44142,7 @@
         <v>{"id":198,"name":"toggle-collapse-all","unicode":"E9C5","decimal":59845,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200">
         <f>'Bowtie v1.0 reorg'!A201</f>
         <v>199</v>
@@ -44128,7 +44192,7 @@
         <v>{"id":199,"name":"toggle-expand-all","unicode":"E9C6","decimal":59846,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201">
         <f>'Bowtie v1.0 reorg'!A202</f>
         <v>200</v>
@@ -44178,7 +44242,7 @@
         <v>{"id":200,"name":"triangle-up","unicode":"E9C7","decimal":59847,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202">
         <f>'Bowtie v1.0 reorg'!A203</f>
         <v>201</v>
@@ -44228,7 +44292,7 @@
         <v>{"id":201,"name":"triangle-left","unicode":"E9C8","decimal":59848,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203">
         <f>'Bowtie v1.0 reorg'!A204</f>
         <v>202</v>
@@ -44278,7 +44342,7 @@
         <v>{"id":202,"name":"triangle-down","unicode":"E9C9","decimal":59849,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204">
         <f>'Bowtie v1.0 reorg'!A205</f>
         <v>203</v>
@@ -44328,7 +44392,7 @@
         <v>{"id":203,"name":"triangle-right","unicode":"E9CA","decimal":59850,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205">
         <f>'Bowtie v1.0 reorg'!A206</f>
         <v>204</v>
@@ -44378,7 +44442,7 @@
         <v>{"id":204,"name":"toggle-tree-expanded","unicode":"E9CB","decimal":59851,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206">
         <f>'Bowtie v1.0 reorg'!A207</f>
         <v>205</v>
@@ -44428,7 +44492,7 @@
         <v>{"id":205,"name":"toggle-tree-expanded-outline","unicode":"E9CC","decimal":59852,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207">
         <f>'Bowtie v1.0 reorg'!A208</f>
         <v>206</v>
@@ -44478,7 +44542,7 @@
         <v>{"id":206,"name":"toggle-tree-collapsed","unicode":"E9CD","decimal":59853,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208">
         <f>'Bowtie v1.0 reorg'!A209</f>
         <v>207</v>
@@ -44528,7 +44592,7 @@
         <v>{"id":207,"name":"view-full-screen","unicode":"E9CE","decimal":59854,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209">
         <f>'Bowtie v1.0 reorg'!A210</f>
         <v>208</v>
@@ -44578,7 +44642,7 @@
         <v>{"id":208,"name":"view-full-screen-exit","unicode":"E9CF","decimal":59855,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210">
         <f>'Bowtie v1.0 reorg'!A211</f>
         <v>209</v>
@@ -44628,7 +44692,7 @@
         <v>{"id":209,"name":"navigate-external","unicode":"E9D0","decimal":59856,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["navigate","external"],"usage":""}</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211">
         <f>'Bowtie v1.0 reorg'!A212</f>
         <v>210</v>
@@ -44678,7 +44742,7 @@
         <v>{"id":210,"name":"work-item-bar","unicode":"E9D1","decimal":59857,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212">
         <f>'Bowtie v1.0 reorg'!A213</f>
         <v>211</v>
@@ -44728,7 +44792,7 @@
         <v>{"id":211,"name":"format-font","unicode":"E9D2","decimal":59858,"version":"1.0","style":"","subset":"VSTS","group":"Editor","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213">
         <f>'Bowtie v1.0 reorg'!A214</f>
         <v>212</v>
@@ -44778,7 +44842,7 @@
         <v>{"id":212,"name":"format-bold","unicode":"E9D3","decimal":59859,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","bold"],"usage":""}</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214">
         <f>'Bowtie v1.0 reorg'!A215</f>
         <v>213</v>
@@ -44828,7 +44892,7 @@
         <v>{"id":213,"name":"format-italic","unicode":"E9D4","decimal":59860,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","italic"],"usage":""}</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215">
         <f>'Bowtie v1.0 reorg'!A216</f>
         <v>214</v>
@@ -44878,7 +44942,7 @@
         <v>{"id":214,"name":"format-underline","unicode":"E9D5","decimal":59861,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","underline"],"usage":""}</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216">
         <f>'Bowtie v1.0 reorg'!A217</f>
         <v>215</v>
@@ -44928,7 +44992,7 @@
         <v>{"id":215,"name":"format-font-color","unicode":"E9D6","decimal":59862,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","color"],"usage":""}</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217">
         <f>'Bowtie v1.0 reorg'!A218</f>
         <v>216</v>
@@ -44978,7 +45042,7 @@
         <v>{"id":216,"name":"format-font-size","unicode":"E9D7","decimal":59863,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","size"],"usage":""}</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218">
         <f>'Bowtie v1.0 reorg'!A219</f>
         <v>217</v>
@@ -45028,7 +45092,7 @@
         <v>{"id":217,"name":"format-clear","unicode":"E9D8","decimal":59864,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","clear","erase"],"usage":""}</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219">
         <f>'Bowtie v1.0 reorg'!A220</f>
         <v>218</v>
@@ -45078,7 +45142,7 @@
         <v>{"id":218,"name":"format-indent-decrease","unicode":"E9D9","decimal":59865,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","text","indent","decrease"],"usage":""}</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220">
         <f>'Bowtie v1.0 reorg'!A221</f>
         <v>219</v>
@@ -45128,7 +45192,7 @@
         <v>{"id":219,"name":"format-indent-increase","unicode":"E9DA","decimal":59866,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","text","indent","increase"],"usage":""}</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221">
         <f>'Bowtie v1.0 reorg'!A222</f>
         <v>220</v>
@@ -45178,7 +45242,7 @@
         <v>{"id":220,"name":"format-list-ordered","unicode":"E9DB","decimal":59867,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","list","ordered","number"],"usage":""}</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222">
         <f>'Bowtie v1.0 reorg'!A223</f>
         <v>221</v>
@@ -45228,7 +45292,7 @@
         <v>{"id":221,"name":"format-list-unordered","unicode":"E9DC","decimal":59868,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","list","unordered","bullet"],"usage":""}</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223">
         <f>'Bowtie v1.0 reorg'!A224</f>
         <v>222</v>
@@ -45278,7 +45342,7 @@
         <v>{"id":222,"name":"file","unicode":"E9DD","decimal":59869,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file"],"usage":""}</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224">
         <f>'Bowtie v1.0 reorg'!A225</f>
         <v>223</v>
@@ -45328,7 +45392,7 @@
         <v>{"id":223,"name":"file-bug","unicode":"E9DE","decimal":59870,"version":"1.0","style":"","subset":"VSTS","group":"File","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225">
         <f>'Bowtie v1.0 reorg'!A226</f>
         <v>224</v>
@@ -45378,7 +45442,7 @@
         <v>{"id":224,"name":"file-code","unicode":"E9DF","decimal":59871,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","code"],"usage":""}</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226">
         <f>'Bowtie v1.0 reorg'!A227</f>
         <v>225</v>
@@ -45428,7 +45492,7 @@
         <v>{"id":225,"name":"file-comment","unicode":"E9E0","decimal":59872,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","comment"],"usage":""}</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227">
         <f>'Bowtie v1.0 reorg'!A228</f>
         <v>226</v>
@@ -45478,7 +45542,7 @@
         <v>{"id":226,"name":"file-content","unicode":"E9E1","decimal":59873,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","text","content","code"],"usage":""}</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228">
         <f>'Bowtie v1.0 reorg'!A229</f>
         <v>227</v>
@@ -45528,7 +45592,7 @@
         <v>{"id":227,"name":"file-image","unicode":"E9E2","decimal":59874,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","image"],"usage":""}</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229">
         <f>'Bowtie v1.0 reorg'!A230</f>
         <v>228</v>
@@ -45578,7 +45642,7 @@
         <v>{"id":228,"name":"file-preview","unicode":"E9E3","decimal":59875,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","preview","search","lookup"],"usage":""}</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230">
         <f>'Bowtie v1.0 reorg'!A231</f>
         <v>229</v>
@@ -45628,7 +45692,7 @@
         <v>{"id":229,"name":"file-symlink","unicode":"E9E4","decimal":59876,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","external","symlink","shortcut"],"usage":""}</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231">
         <f>'Bowtie v1.0 reorg'!A232</f>
         <v>230</v>
@@ -45678,7 +45742,7 @@
         <v>{"id":230,"name":"media-play","unicode":"E9E5","decimal":59877,"version":"1.0","style":"light","subset":"VSTS","group":"Media","keywords":["media","play"],"usage":"check if it is same as play"}</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232">
         <f>'Bowtie v1.0 reorg'!A233</f>
         <v>231</v>
@@ -45728,7 +45792,7 @@
         <v>{"id":231,"name":"media-play-fill","unicode":"E9E6","decimal":59878,"version":"1.0","style":"bold","subset":"VSTS","group":"Media","keywords":["media","play"],"usage":"check if it is same as play-fill"}</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233">
         <f>'Bowtie v1.0 reorg'!A234</f>
         <v>232</v>
@@ -45778,7 +45842,7 @@
         <v>{"id":232,"name":"play","unicode":"E9E7","decimal":59879,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234">
         <f>'Bowtie v1.0 reorg'!A235</f>
         <v>233</v>
@@ -45828,7 +45892,7 @@
         <v>{"id":233,"name":"play-fill","unicode":"E9E8","decimal":59880,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235">
         <f>'Bowtie v1.0 reorg'!A236</f>
         <v>234</v>
@@ -45878,7 +45942,7 @@
         <v>{"id":234,"name":"pause","unicode":"E9E9","decimal":59881,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236">
         <f>'Bowtie v1.0 reorg'!A237</f>
         <v>235</v>
@@ -45928,7 +45992,7 @@
         <v>{"id":235,"name":"pause-fill","unicode":"E9EA","decimal":59882,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237">
         <f>'Bowtie v1.0 reorg'!A238</f>
         <v>236</v>
@@ -45978,7 +46042,7 @@
         <v>{"id":236,"name":"play-resume","unicode":"E9EB","decimal":59883,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238">
         <f>'Bowtie v1.0 reorg'!A239</f>
         <v>237</v>
@@ -46028,7 +46092,7 @@
         <v>{"id":237,"name":"play-resume-fill","unicode":"E9EC","decimal":59884,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239">
         <f>'Bowtie v1.0 reorg'!A240</f>
         <v>238</v>
@@ -46078,7 +46142,7 @@
         <v>{"id":238,"name":"stop","unicode":"E9ED","decimal":59885,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240">
         <f>'Bowtie v1.0 reorg'!A241</f>
         <v>239</v>
@@ -46128,7 +46192,7 @@
         <v>{"id":239,"name":"stop-fill","unicode":"E9EE","decimal":59886,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241">
         <f>'Bowtie v1.0 reorg'!A242</f>
         <v>240</v>
@@ -46178,7 +46242,7 @@
         <v>{"id":240,"name":"fast-backward","unicode":"E9EF","decimal":59887,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242">
         <f>'Bowtie v1.0 reorg'!A243</f>
         <v>241</v>
@@ -46228,7 +46292,7 @@
         <v>{"id":241,"name":"fast-backward-fill","unicode":"E9F0","decimal":59888,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243">
         <f>'Bowtie v1.0 reorg'!A244</f>
         <v>242</v>
@@ -46278,7 +46342,7 @@
         <v>{"id":242,"name":"fast-forward","unicode":"E9F1","decimal":59889,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244">
         <f>'Bowtie v1.0 reorg'!A245</f>
         <v>243</v>
@@ -46328,7 +46392,7 @@
         <v>{"id":243,"name":"fast-forward-fill","unicode":"E9F2","decimal":59890,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245">
         <f>'Bowtie v1.0 reorg'!A246</f>
         <v>244</v>
@@ -46378,7 +46442,7 @@
         <v>{"id":244,"name":"previous-frame","unicode":"E9F3","decimal":59891,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246">
         <f>'Bowtie v1.0 reorg'!A247</f>
         <v>245</v>
@@ -46428,7 +46492,7 @@
         <v>{"id":245,"name":"previous-frame-fill","unicode":"E9F4","decimal":59892,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247">
         <f>'Bowtie v1.0 reorg'!A248</f>
         <v>246</v>
@@ -46478,7 +46542,7 @@
         <v>{"id":246,"name":"next-frame","unicode":"E9F5","decimal":59893,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248">
         <f>'Bowtie v1.0 reorg'!A249</f>
         <v>247</v>
@@ -46528,7 +46592,7 @@
         <v>{"id":247,"name":"next-frame-fill","unicode":"E9F6","decimal":59894,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249">
         <f>'Bowtie v1.0 reorg'!A250</f>
         <v>248</v>
@@ -46578,7 +46642,7 @@
         <v>{"id":248,"name":"record","unicode":"E9F7","decimal":59895,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250">
         <f>'Bowtie v1.0 reorg'!A251</f>
         <v>249</v>
@@ -46628,7 +46692,7 @@
         <v>{"id":249,"name":"record-fill","unicode":"E9F8","decimal":59896,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251">
         <f>'Bowtie v1.0 reorg'!A252</f>
         <v>250</v>
@@ -46678,7 +46742,7 @@
         <v>{"id":250,"name":"menu","unicode":"E9F9","decimal":59897,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["menu","hamburger","line"],"usage":""}</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252">
         <f>'Bowtie v1.0 reorg'!A253</f>
         <v>251</v>
@@ -46728,7 +46792,7 @@
         <v>{"id":251,"name":"navigate-close","unicode":"E9FA","decimal":59898,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["close"],"usage":"used for close. Do not use for delete or remove."}</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253">
         <f>'Bowtie v1.0 reorg'!A254</f>
         <v>252</v>
@@ -46778,7 +46842,7 @@
         <v>{"id":252,"name":"navigate-back-circle","unicode":"E9FB","decimal":59899,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["navigate","back","left","previous","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254">
         <f>'Bowtie v1.0 reorg'!A255</f>
         <v>253</v>
@@ -46828,7 +46892,7 @@
         <v>{"id":253,"name":"navigate-back-disc","unicode":"E9FC","decimal":59900,"version":"1.0","style":"bold","subset":"VSTS","group":"Navigation","keywords":["navigate","back","left","previous","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255">
         <f>'Bowtie v1.0 reorg'!A256</f>
         <v>254</v>
@@ -46878,7 +46942,7 @@
         <v>{"id":254,"name":"navigate-forward-circle","unicode":"E9FD","decimal":59901,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["navigate","forward","right","next","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256">
         <f>'Bowtie v1.0 reorg'!A257</f>
         <v>255</v>
@@ -46928,7 +46992,7 @@
         <v>{"id":255,"name":"navigate-forward-disc","unicode":"E9FE","decimal":59902,"version":"1.0","style":"bold","subset":"VSTS","group":"Navigation","keywords":["navigate","forward","right","next","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257">
         <f>'Bowtie v1.0 reorg'!A258</f>
         <v>256</v>
@@ -46978,7 +47042,7 @@
         <v>{"id":256,"name":"navigate-history","unicode":"E9FF","decimal":59903,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["history","time","version","time","clock","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258">
         <f>'Bowtie v1.0 reorg'!A259</f>
         <v>257</v>
@@ -47028,7 +47092,7 @@
         <v>{"id":257,"name":"navigate-refresh","unicode":"EA00","decimal":59904,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["refresh","reload","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259">
         <f>'Bowtie v1.0 reorg'!A260</f>
         <v>258</v>
@@ -47078,7 +47142,7 @@
         <v>{"id":258,"name":"navigate-reload","unicode":"EA01","decimal":59905,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["refresh","reload","arrow"],"usage":"intentional duplicate"}</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260">
         <f>'Bowtie v1.0 reorg'!A261</f>
         <v>259</v>
@@ -47128,7 +47192,7 @@
         <v>{"id":259,"name":"status-error","unicode":"EA02","decimal":59906,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":["status","error","alert","invalid","problem","circle","exclaimation"],"usage":""}</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261">
         <f>'Bowtie v1.0 reorg'!A262</f>
         <v>260</v>
@@ -47178,7 +47242,7 @@
         <v>{"id":260,"name":"status-error-outline","unicode":"EA03","decimal":59907,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":["status","error","alert","invalid","problem","circle","exclaimation"],"usage":""}</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262">
         <f>'Bowtie v1.0 reorg'!A263</f>
         <v>261</v>
@@ -47228,7 +47292,7 @@
         <v>{"id":261,"name":"status-failure","unicode":"EA04","decimal":59908,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":["status","critical","failure","fatal","circle","cross","x"],"usage":""}</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263">
         <f>'Bowtie v1.0 reorg'!A264</f>
         <v>262</v>
@@ -47278,7 +47342,7 @@
         <v>{"id":262,"name":"status-failure-outline","unicode":"EA05","decimal":59909,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":["status","critical","failure","fatal","circle","cross","x"],"usage":""}</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264">
         <f>'Bowtie v1.0 reorg'!A265</f>
         <v>263</v>
@@ -47328,7 +47392,7 @@
         <v>{"id":263,"name":"status-help","unicode":"EA06","decimal":59910,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265">
         <f>'Bowtie v1.0 reorg'!A266</f>
         <v>264</v>
@@ -47378,7 +47442,7 @@
         <v>{"id":264,"name":"status-help-outline","unicode":"EA07","decimal":59911,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266">
         <f>'Bowtie v1.0 reorg'!A267</f>
         <v>265</v>
@@ -47428,7 +47492,7 @@
         <v>{"id":265,"name":"status-info","unicode":"EA08","decimal":59912,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267">
         <f>'Bowtie v1.0 reorg'!A268</f>
         <v>266</v>
@@ -47478,7 +47542,7 @@
         <v>{"id":266,"name":"status-info-outline","unicode":"EA09","decimal":59913,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268">
         <f>'Bowtie v1.0 reorg'!A269</f>
         <v>267</v>
@@ -47528,7 +47592,7 @@
         <v>{"id":267,"name":"status-no","unicode":"EA0A","decimal":59914,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269">
         <f>'Bowtie v1.0 reorg'!A270</f>
         <v>268</v>
@@ -47578,7 +47642,7 @@
         <v>{"id":268,"name":"status-no-fill","unicode":"EA0B","decimal":59915,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270">
         <f>'Bowtie v1.0 reorg'!A271</f>
         <v>269</v>
@@ -47628,7 +47692,7 @@
         <v>{"id":269,"name":"status-pause","unicode":"EA0C","decimal":59916,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271">
         <f>'Bowtie v1.0 reorg'!A272</f>
         <v>270</v>
@@ -47678,7 +47742,7 @@
         <v>{"id":270,"name":"status-pause-outline","unicode":"EA0D","decimal":59917,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272">
         <f>'Bowtie v1.0 reorg'!A273</f>
         <v>271</v>
@@ -47728,7 +47792,7 @@
         <v>{"id":271,"name":"status-run","unicode":"EA0E","decimal":59918,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273">
         <f>'Bowtie v1.0 reorg'!A274</f>
         <v>272</v>
@@ -47778,7 +47842,7 @@
         <v>{"id":272,"name":"status-run-outline","unicode":"EA0F","decimal":59919,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274">
         <f>'Bowtie v1.0 reorg'!A275</f>
         <v>273</v>
@@ -47828,7 +47892,7 @@
         <v>{"id":273,"name":"status-stop","unicode":"EA10","decimal":59920,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275">
         <f>'Bowtie v1.0 reorg'!A276</f>
         <v>274</v>
@@ -47878,7 +47942,7 @@
         <v>{"id":274,"name":"status-stop-outline","unicode":"EA11","decimal":59921,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276">
         <f>'Bowtie v1.0 reorg'!A277</f>
         <v>275</v>
@@ -47928,7 +47992,7 @@
         <v>{"id":275,"name":"status-success","unicode":"EA12","decimal":59922,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277">
         <f>'Bowtie v1.0 reorg'!A278</f>
         <v>276</v>
@@ -47978,7 +48042,7 @@
         <v>{"id":276,"name":"status-success-outline","unicode":"EA13","decimal":59923,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278">
         <f>'Bowtie v1.0 reorg'!A279</f>
         <v>277</v>
@@ -48028,7 +48092,7 @@
         <v>{"id":277,"name":"status-waiting","unicode":"EA14","decimal":59924,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279">
         <f>'Bowtie v1.0 reorg'!A280</f>
         <v>278</v>
@@ -48078,7 +48142,7 @@
         <v>{"id":278,"name":"status-waiting-fill","unicode":"EA15","decimal":59925,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280">
         <f>'Bowtie v1.0 reorg'!A281</f>
         <v>279</v>
@@ -48128,7 +48192,7 @@
         <v>{"id":279,"name":"status-warning","unicode":"EA16","decimal":59926,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281">
         <f>'Bowtie v1.0 reorg'!A282</f>
         <v>280</v>
@@ -48178,7 +48242,7 @@
         <v>{"id":280,"name":"status-warning-outline","unicode":"EA17","decimal":59927,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282">
         <f>'Bowtie v1.0 reorg'!A283</f>
         <v>281</v>
@@ -48228,7 +48292,7 @@
         <v>{"id":281,"name":"status-success-box","unicode":"EA18","decimal":59928,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283">
         <f>'Bowtie v1.0 reorg'!A284</f>
         <v>282</v>
@@ -48278,7 +48342,7 @@
         <v>{"id":282,"name":"test-fill","unicode":"EA19","decimal":59929,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284">
         <f>'Bowtie v1.0 reorg'!A285</f>
         <v>283</v>
@@ -48328,7 +48392,7 @@
         <v>{"id":283,"name":"test","unicode":"EA1A","decimal":59930,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285">
         <f>'Bowtie v1.0 reorg'!A286</f>
         <v>284</v>
@@ -48378,7 +48442,7 @@
         <v>{"id":284,"name":"test-auto-fill","unicode":"EA1B","decimal":59931,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286">
         <f>'Bowtie v1.0 reorg'!A287</f>
         <v>285</v>
@@ -48428,7 +48492,7 @@
         <v>{"id":285,"name":"test-auto","unicode":"EA1C","decimal":59932,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287">
         <f>'Bowtie v1.0 reorg'!A288</f>
         <v>286</v>
@@ -48478,7 +48542,7 @@
         <v>{"id":286,"name":"test-user-fill","unicode":"EA1D","decimal":59933,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288">
         <f>'Bowtie v1.0 reorg'!A289</f>
         <v>287</v>
@@ -48528,7 +48592,7 @@
         <v>{"id":287,"name":"test-user","unicode":"EA1E","decimal":59934,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289">
         <f>'Bowtie v1.0 reorg'!A290</f>
         <v>288</v>
@@ -48578,7 +48642,7 @@
         <v>{"id":288,"name":"test-explore-fill","unicode":"EA1F","decimal":59935,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290">
         <f>'Bowtie v1.0 reorg'!A291</f>
         <v>289</v>
@@ -48628,7 +48692,7 @@
         <v>{"id":289,"name":"trigger","unicode":"EA20","decimal":59936,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A291">
         <f>'Bowtie v1.0 reorg'!A292</f>
         <v>290</v>
@@ -48678,7 +48742,7 @@
         <v>{"id":290,"name":"trigger-auto","unicode":"EA21","decimal":59937,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A292">
         <f>'Bowtie v1.0 reorg'!A293</f>
         <v>291</v>
@@ -48728,7 +48792,7 @@
         <v>{"id":291,"name":"trigger-user","unicode":"EA22","decimal":59938,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A293">
         <f>'Bowtie v1.0 reorg'!A294</f>
         <v>292</v>
@@ -48778,7 +48842,7 @@
         <v>{"id":292,"name":"folder-plan","unicode":"EA23","decimal":59939,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A294">
         <f>'Bowtie v1.0 reorg'!A295</f>
         <v>293</v>
@@ -48828,7 +48892,7 @@
         <v>{"id":293,"name":"folder-query","unicode":"EA24","decimal":59940,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A295">
         <f>'Bowtie v1.0 reorg'!A296</f>
         <v>294</v>
@@ -48878,7 +48942,7 @@
         <v>{"id":294,"name":"log","unicode":"EA25","decimal":59941,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A296">
         <f>'Bowtie v1.0 reorg'!A297</f>
         <v>295</v>
@@ -48928,7 +48992,7 @@
         <v>{"id":295,"name":"step","unicode":"EA26","decimal":59942,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A297">
         <f>'Bowtie v1.0 reorg'!A298</f>
         <v>296</v>
@@ -48978,7 +49042,7 @@
         <v>{"id":296,"name":"step-shared","unicode":"EA27","decimal":59943,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A298">
         <f>'Bowtie v1.0 reorg'!A299</f>
         <v>297</v>
@@ -49028,7 +49092,7 @@
         <v>{"id":297,"name":"server-remote","unicode":"EA28","decimal":59944,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A299">
         <f>'Bowtie v1.0 reorg'!A300</f>
         <v>298</v>
@@ -49078,7 +49142,7 @@
         <v>{"id":298,"name":"diff-image","unicode":"EA29","decimal":59945,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["image","diff","compare","side-by-side"],"usage":""}</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A300">
         <f>'Bowtie v1.0 reorg'!A301</f>
         <v>299</v>
@@ -49128,7 +49192,7 @@
         <v>{"id":299,"name":"diff-image-overlay","unicode":"EA2A","decimal":59946,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["image","diff","compare","overlay"],"usage":""}</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301">
         <f>'Bowtie v1.0 reorg'!A302</f>
         <v>300</v>
@@ -49178,7 +49242,7 @@
         <v>{"id":300,"name":"diff-image-pixel","unicode":"EA2B","decimal":59947,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["image","diff","compare","pixel"],"usage":""}</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A302">
         <f>'Bowtie v1.0 reorg'!A303</f>
         <v>301</v>
@@ -49228,7 +49292,7 @@
         <v>{"id":301,"name":"diff-inline","unicode":"EA2C","decimal":59948,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["code","diff","compare","inline"],"usage":""}</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A303">
         <f>'Bowtie v1.0 reorg'!A304</f>
         <v>302</v>
@@ -49278,7 +49342,7 @@
         <v>{"id":302,"name":"diff-side-by-side","unicode":"EA2D","decimal":59949,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["code","diff","compare","side-by-side"],"usage":""}</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304">
         <f>'Bowtie v1.0 reorg'!A305</f>
         <v>303</v>
@@ -49328,7 +49392,7 @@
         <v>{"id":303,"name":"repo","unicode":"EA2E","decimal":59950,"version":"1.0","style":"light","subset":"VSTS","group":"Version Control","keywords":["repository","repo","git"],"usage":""}</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A305">
         <f>'Bowtie v1.0 reorg'!A306</f>
         <v>304</v>
@@ -49378,7 +49442,7 @@
         <v>{"id":304,"name":"repo-fill","unicode":"EA2F","decimal":59951,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["repository","repo"],"usage":""}</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A306">
         <f>'Bowtie v1.0 reorg'!A307</f>
         <v>305</v>
@@ -49428,7 +49492,7 @@
         <v>{"id":305,"name":"repo-git","unicode":"EA30","decimal":59952,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["repository","repo","git"],"usage":""}</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A307">
         <f>'Bowtie v1.0 reorg'!A308</f>
         <v>306</v>
@@ -49478,7 +49542,7 @@
         <v>{"id":306,"name":"tfvc-change-list","unicode":"EA31","decimal":59953,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A308">
         <f>'Bowtie v1.0 reorg'!A309</f>
         <v>307</v>
@@ -49528,7 +49592,7 @@
         <v>{"id":307,"name":"repo-submodule","unicode":"EA32","decimal":59954,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["folder","git","submodule"],"usage":""}</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A309">
         <f>'Bowtie v1.0 reorg'!A310</f>
         <v>308</v>
@@ -49578,7 +49642,7 @@
         <v>{"id":308,"name":"tfvc-folder","unicode":"EA33","decimal":59955,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A310">
         <f>'Bowtie v1.0 reorg'!A311</f>
         <v>309</v>
@@ -49628,7 +49692,7 @@
         <v>{"id":309,"name":"repo-tfvc","unicode":"EA34","decimal":59956,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["repository","repo","tfvc","team","foundation","version","control"],"usage":""}</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A311">
         <f>'Bowtie v1.0 reorg'!A312</f>
         <v>310</v>
@@ -49678,7 +49742,7 @@
         <v>{"id":310,"name":"tfvc-branch","unicode":"EA35","decimal":59957,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A312">
         <f>'Bowtie v1.0 reorg'!A313</f>
         <v>311</v>
@@ -49728,7 +49792,7 @@
         <v>{"id":311,"name":"tfvc-branch-locked","unicode":"EA36","decimal":59958,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A313">
         <f>'Bowtie v1.0 reorg'!A314</f>
         <v>312</v>
@@ -49778,7 +49842,7 @@
         <v>{"id":312,"name":"tfvc-commit","unicode":"EA37","decimal":59959,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A314">
         <f>'Bowtie v1.0 reorg'!A315</f>
         <v>313</v>
@@ -49828,7 +49892,7 @@
         <v>{"id":313,"name":"tfvc-compare","unicode":"EA38","decimal":59960,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A315">
         <f>'Bowtie v1.0 reorg'!A316</f>
         <v>314</v>
@@ -49878,7 +49942,7 @@
         <v>{"id":314,"name":"tfvc-merge","unicode":"EA39","decimal":59961,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A316">
         <f>'Bowtie v1.0 reorg'!A317</f>
         <v>315</v>
@@ -49928,7 +49992,7 @@
         <v>{"id":315,"name":"tfvc-pull-request","unicode":"EA3A","decimal":59962,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A317">
         <f>'Bowtie v1.0 reorg'!A318</f>
         <v>316</v>
@@ -49978,7 +50042,7 @@
         <v>{"id":316,"name":"tfvc-shelveset","unicode":"EA3B","decimal":59963,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A318">
         <f>'Bowtie v1.0 reorg'!A319</f>
         <v>317</v>
@@ -50028,7 +50092,7 @@
         <v>{"id":317,"name":"tfvc-raw-source","unicode":"EA3C","decimal":59964,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A319">
         <f>'Bowtie v1.0 reorg'!A320</f>
         <v>318</v>
@@ -50078,7 +50142,7 @@
         <v>{"id":318,"name":"group-rows","unicode":"EA3D","decimal":59965,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A320">
         <f>'Bowtie v1.0 reorg'!A321</f>
         <v>319</v>
@@ -50128,7 +50192,7 @@
         <v>{"id":319,"name":"recycle-bin-restore","unicode":"EA3E","decimal":59966,"version":"1.0","style":"light","subset":"VSTS","group":"Work","keywords":["recycle","bin","restore","undo"],"usage":""}</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A321">
         <f>'Bowtie v1.0 reorg'!A322</f>
         <v>320</v>
@@ -50178,7 +50242,7 @@
         <v>{"id":320,"name":"view-list","unicode":"EA3F","decimal":59967,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A322">
         <f>'Bowtie v1.0 reorg'!A323</f>
         <v>321</v>
@@ -50228,7 +50292,7 @@
         <v>{"id":321,"name":"view-list-group","unicode":"EA40","decimal":59968,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A323">
         <f>'Bowtie v1.0 reorg'!A324</f>
         <v>322</v>
@@ -50278,7 +50342,7 @@
         <v>{"id":322,"name":"view-list-tree","unicode":"EA41","decimal":59969,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A324">
         <f>'Bowtie v1.0 reorg'!A325</f>
         <v>323</v>
@@ -50328,7 +50392,7 @@
         <v>{"id":323,"name":"work-item","unicode":"EA42","decimal":59970,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A325">
         <f>'Bowtie v1.0 reorg'!A326</f>
         <v>324</v>
@@ -50378,7 +50442,7 @@
         <v>{"id":324,"name":"work-item-bug","unicode":"EA43","decimal":59971,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A326">
         <f>'Bowtie v1.0 reorg'!A327</f>
         <v>325</v>
@@ -50428,7 +50492,7 @@
         <v>{"id":325,"name":"work-item-move","unicode":"EA44","decimal":59972,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A327">
         <f>'Bowtie v1.0 reorg'!A328</f>
         <v>326</v>
@@ -50478,7 +50542,7 @@
         <v>{"id":326,"name":"merge-duplicate","unicode":"EA45","decimal":59973,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A328">
         <f>'Bowtie v1.0 reorg'!A329</f>
         <v>327</v>
@@ -50528,7 +50592,7 @@
         <v>{"id":327,"name":"storyboard","unicode":"EA46","decimal":59974,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A329">
         <f>'Bowtie v1.0 reorg'!A330</f>
         <v>328</v>
@@ -50578,7 +50642,7 @@
         <v>{"id":328,"name":"auto-fill-template","unicode":"EA47","decimal":59975,"version":"1.0","style":"light","subset":"VSTS","group":"Work","keywords":["template","watermark","fill","box","form"],"usage":"Used in context menu for Auto fill template form command."}</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A330">
         <f>'Bowtie v1.0 reorg'!A331</f>
         <v>329</v>
@@ -50628,7 +50692,7 @@
         <v>{"id":329,"name":"recycle-bin","unicode":"EA48","decimal":59976,"version":"1.0","style":"light","subset":"VSTS","group":"Work","keywords":["recycle","bin"],"usage":""}</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A331">
         <f>'Bowtie v1.0 reorg'!A332</f>
         <v>330</v>
@@ -50678,7 +50742,7 @@
         <v>{"id":330,"name":"dot","unicode":"EA49","decimal":59977,"version":"1.0","style":"bold","subset":"VSTS","group":"Utility","keywords":["dot","circle"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A332">
         <f>'Bowtie v1.0 reorg'!A333</f>
         <v>331</v>
@@ -50728,7 +50792,7 @@
         <v>{"id":331,"name":"square","unicode":"EA4A","decimal":59978,"version":"1.0","style":"bold","subset":"VSTS","group":"Utility","keywords":["square"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A333">
         <f>'Bowtie v1.0 reorg'!A334</f>
         <v>332</v>
@@ -50778,7 +50842,7 @@
         <v>{"id":332,"name":"row-child","unicode":"EA4B","decimal":59979,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["row","child","sub","indent","tree"],"usage":"Used for creating a child node of the current node in a tree structure."}</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A334">
         <f>'Bowtie v1.0 reorg'!A335</f>
         <v>333</v>
@@ -50828,7 +50892,7 @@
         <v>{"id":333,"name":"log-remove","unicode":"EA4C","decimal":59980,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["log","activity","remove","delete"],"usage":"Used for removing activity entry on Kanban board."}</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A335">
         <f>'Bowtie v1.0 reorg'!A336</f>
         <v>334</v>
@@ -50878,7 +50942,7 @@
         <v>{"id":334,"name":"live-update-feed-off","unicode":"EA4D","decimal":59981,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["live","update","feed","signal","broadcast","radar","off"],"usage":"Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case."}</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A336">
         <f>'Bowtie v1.0 reorg'!A337</f>
         <v>335</v>
@@ -50928,7 +50992,7 @@
         <v>{"id":335,"name":"corner-resize","unicode":"EA4E","decimal":59982,"version":"1.1","style":"light","subset":"VSTS","group":"Control","keywords":["resize","grip","handle"],"usage":"Used for dialog, modal, or textarea resize handle."}</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A337">
         <f>'Bowtie v1.0 reorg'!A338</f>
         <v>336</v>
@@ -50978,7 +51042,7 @@
         <v>{"id":336,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"Editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A338">
         <f>'Bowtie v1.0 reorg'!A339</f>
         <v>337</v>
@@ -51028,7 +51092,7 @@
         <v>{"id":337,"name":"spinner","unicode":"EA50","decimal":59984,"version":"1.1","style":"bold","subset":"VSTS","group":"Control","keywords":["loading","spinner","wait","dots","loop","spin"],"usage":"Add bowtie-ani-spin-pulse class for animation."}</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A339">
         <f>'Bowtie v1.0 reorg'!A340</f>
         <v>338</v>
@@ -51078,7 +51142,7 @@
         <v>{"id":338,"name":"personalize","unicode":"EA51","decimal":59985,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A340">
         <f>'Bowtie v1.0 reorg'!A341</f>
         <v>339</v>
@@ -51128,7 +51192,7 @@
         <v>{"id":339,"name":"parameter","unicode":"EA52","decimal":59986,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["parameter","variable","argument","@","at"],"usage":"Used in Test hub for adding test step parameters."}</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A341">
         <f>'Bowtie v1.0 reorg'!A342</f>
         <v>340</v>
@@ -51178,7 +51242,7 @@
         <v>{"id":340,"name":"step-insert","unicode":"EA53","decimal":59987,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","insert","stairs","arrow","right"],"usage":"Used in Test hub for adding test step."}</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A342">
         <f>'Bowtie v1.0 reorg'!A343</f>
         <v>341</v>
@@ -51228,7 +51292,7 @@
         <v>{"id":341,"name":"step-shared-add","unicode":"EA54","decimal":59988,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","add","plus","stairs"],"usage":"Used in Test hub for creating a new test step as shared step."}</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A343">
         <f>'Bowtie v1.0 reorg'!A344</f>
         <v>342</v>
@@ -51278,7 +51342,7 @@
         <v>{"id":342,"name":"step-shared-insert","unicode":"EA55","decimal":59989,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","arrow","right","stairs"],"usage":"Used in Test hub for inserting existing shared steps."}</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A344">
         <f>'Bowtie v1.0 reorg'!A345</f>
         <v>343</v>
@@ -51328,7 +51392,7 @@
         <v>{"id":343,"name":"process","unicode":"EA56","decimal":59990,"version":"1.1","style":"light","subset":"VSTS","group":"Build","keywords":["process","task","gear","automation"],"usage":"Used for build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A345">
         <f>'Bowtie v1.0 reorg'!A346</f>
         <v>344</v>
@@ -51378,7 +51442,7 @@
         <v>{"id":344,"name":"process-meta-task","unicode":"EA57","decimal":59991,"version":"1.1","style":"light","subset":"VSTS","group":"Build","keywords":["process","task","gear","automation","box","container","group","reusable"],"usage":"Used for build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A346">
         <f>'Bowtie v1.0 reorg'!A347</f>
         <v>345</v>
@@ -51428,7 +51492,7 @@
         <v>{"id":345,"name":"column-option","unicode":"EA58","decimal":59992,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["column","option","settings","gear"],"usage":"Used for a group of reusable build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A347">
         <f>'Bowtie v1.0 reorg'!A348</f>
         <v>346</v>
@@ -51478,7 +51542,7 @@
         <v>{"id":346,"name":"globe","unicode":"EA59","decimal":59993,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["web","globe","country","region","world"],"usage":"Used for web or website. Also used for region or country on user profile page."}</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A348">
         <f>'Bowtie v1.0 reorg'!A349</f>
         <v>347</v>
@@ -51528,7 +51592,7 @@
         <v>{"id":347,"name":"locale-language","unicode":"EA5A","decimal":59994,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","locale","language","letter","character"],"usage":"Used for language preference on user profile page."}</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A349">
         <f>'Bowtie v1.0 reorg'!A350</f>
         <v>348</v>
@@ -51578,7 +51642,7 @@
         <v>{"id":348,"name":"locale-timezone","unicode":"EA5B","decimal":59995,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","timezone","time","clock"],"usage":"Used for timezone preference on user profile page."}</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A350">
         <f>'Bowtie v1.0 reorg'!A351</f>
         <v>349</v>
@@ -51628,7 +51692,7 @@
         <v>{"id":349,"name":"feedback-positive-outline","unicode":"EA5C","decimal":59996,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","positive","smile"],"usage":"Used in dropdown menu on white background."}</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A351">
         <f>'Bowtie v1.0 reorg'!A352</f>
         <v>350</v>
@@ -51678,7 +51742,7 @@
         <v>{"id":350,"name":"feedback-negative-outline","unicode":"EA5D","decimal":59997,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","negative","sad"],"usage":"Used in dropdown menu on white background."}</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A352">
         <f>'Bowtie v1.0 reorg'!A353</f>
         <v>351</v>
@@ -51728,7 +51792,7 @@
         <v>{"id":351,"name":"contact-card","unicode":"EA5E","decimal":59998,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["contact","info","card","email","user","profile"],"usage":"Used for contact card."}</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A353">
         <f>'Bowtie v1.0 reorg'!A354</f>
         <v>352</v>
@@ -51778,7 +51842,7 @@
         <v>{"id":352,"name":"triangle","unicode":"EA5F","decimal":59999,"version":"1.1","style":"bold","subset":"VSTS","group":"Utility","keywords":["triangle"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A354">
         <f>'Bowtie v1.0 reorg'!A355</f>
         <v>353</v>
@@ -51828,7 +51892,7 @@
         <v>{"id":353,"name":"brand-vsts","unicode":"EA60","decimal":60000,"version":"1.1","style":"bold","subset":"VSTS","group":"Brand","keywords":["vsts","brand","logo"],"usage":"VSTS product icon."}</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A355">
         <f>'Bowtie v1.0 reorg'!A356</f>
         <v>354</v>
@@ -51878,7 +51942,7 @@
         <v>{"id":354,"name":"status-success-sm","unicode":"EA61","decimal":60001,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","success","complete","ok","pass","positive","good","checkmark"],"usage":"This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A356">
         <f>'Bowtie v1.0 reorg'!A357</f>
         <v>355</v>
@@ -51928,7 +51992,7 @@
         <v>{"id":355,"name":"status-warning-sm","unicode":"EA62","decimal":60002,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","warning","problem","attention","exclaimation"],"usage":"This is a smaller version of bowtie-status-warning. It is used for stacking with bowtie-triangle."}</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A357">
         <f>'Bowtie v1.0 reorg'!A358</f>
         <v>356</v>
@@ -51978,7 +52042,7 @@
         <v>{"id":356,"name":"status-info-sm","unicode":"EA63","decimal":60003,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","information","letter","i"],"usage":"This is a smaller version of bowtie-status-info. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A358">
         <f>'Bowtie v1.0 reorg'!A359</f>
         <v>357</v>
@@ -52028,7 +52092,7 @@
         <v>{"id":357,"name":"status-failure-sm","unicode":"EA64","decimal":60004,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","failure","negative","critical","problem","fatal","error"],"usage":"This is a smaller version of bowtie-status-failure. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A359">
         <f>'Bowtie v1.0 reorg'!A360</f>
         <v>358</v>
@@ -52078,7 +52142,7 @@
         <v>{"id":358,"name":"status-error-sm","unicode":"EA65","decimal":60005,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","error","alert","invalid","problem","circle","exclaimation"],"usage":"This is a smaller version of bowtie-status-error. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A360">
         <f>'Bowtie v1.0 reorg'!A361</f>
         <v>359</v>
@@ -52128,7 +52192,7 @@
         <v>{"id":359,"name":"status-run-sm","unicode":"EA66","decimal":60006,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","run","play","execute","in","progress","triangle"],"usage":"This is a smaller version of bowtie-status-run. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A361">
         <f>'Bowtie v1.0 reorg'!A362</f>
         <v>360</v>
@@ -52178,7 +52242,7 @@
         <v>{"id":360,"name":"status-help-sm","unicode":"EA67","decimal":60007,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","help","question"],"usage":"This is a smaller version of bowtie-status-help. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A362">
         <f>'Bowtie v1.0 reorg'!A363</f>
         <v>361</v>
@@ -52228,7 +52292,7 @@
         <v>{"id":361,"name":"status-stop-sm","unicode":"EA68","decimal":60008,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","stop","square"],"usage":"This is a smaller version of bowtie-status-stop. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A363">
         <f>'Bowtie v1.0 reorg'!A364</f>
         <v>362</v>
@@ -52278,7 +52342,7 @@
         <v>{"id":362,"name":"status-pause-sm","unicode":"EA69","decimal":60009,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","pause"],"usage":"This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A364">
         <f>'Bowtie v1.0 reorg'!A365</f>
         <v>363</v>
@@ -52328,7 +52392,7 @@
         <v>{"id":363,"name":"status-waiting-fill-sm","unicode":"EA6A","decimal":60010,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","waiting","clock","time","pending","queue"],"usage":"This is a smaller version of bowtie-status-waiting-fill. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A365">
         <f>'Bowtie v1.0 reorg'!A366</f>
         <v>364</v>
@@ -52378,7 +52442,7 @@
         <v>{"id":364,"name":"status-no-fill-sm","unicode":"EA6B","decimal":60011,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","no","block","mute","unavailable"],"usage":"This is a smaller version of bowtie-status-no-fill. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A366">
         <f>'Bowtie v1.0 reorg'!A367</f>
         <v>365</v>
@@ -52428,7 +52492,7 @@
         <v>{"id":365,"name":"assessment-group","unicode":"EA6C","decimal":60012,"version":"1.1","style":"bold","subset":"VSTS","group":"Compliance","keywords":["assessment","group","compliance"],"usage":"Used in treeview in Compliance hub to represent assessment type node."}</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A367">
         <f>'Bowtie v1.0 reorg'!A368</f>
         <v>366</v>
@@ -52478,7 +52542,7 @@
         <v>{"id":366,"name":"table","unicode":"EA6D","decimal":60013,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["table","database","matrix"],"usage":"Used for database table, matrix or views that look like a data table."}</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A368">
         <f>'Bowtie v1.0 reorg'!A369</f>
         <v>367</v>
@@ -52528,7 +52592,7 @@
         <v>{"id":367,"name":"timeline-delivery","unicode":"EA6E","decimal":60014,"version":"1.1","style":"bold","subset":"VSTS","group":"Work","keywords":["timeline","delivery","schedule","kanban","card"],"usage":"Used to indicate delivery card style backlog timeline view."}</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A369">
         <f>'Bowtie v1.0 reorg'!A370</f>
         <v>368</v>
@@ -52578,7 +52642,7 @@
         <v>{"id":368,"name":"timeline-progress","unicode":"EA6F","decimal":60015,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["timeline","progress","date","row","line","bar"],"usage":"Used to indicate progress bar style backlog timeline view."}</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A370">
         <f>'Bowtie v1.0 reorg'!A371</f>
         <v>369</v>
@@ -52628,7 +52692,7 @@
         <v>{"id":369,"name":"file-type-sln","unicode":"EA70","decimal":60016,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["application","window","project","app","solution","visual","studio"],"usage":"Used for solution node (.sln) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A371">
         <f>'Bowtie v1.0 reorg'!A372</f>
         <v>370</v>
@@ -52678,7 +52742,7 @@
         <v>{"id":370,"name":"application-window","unicode":"EA71","decimal":60017,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["application","window","project","app"],"usage":"Used for project node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A372">
         <f>'Bowtie v1.0 reorg'!A373</f>
         <v>371</v>
@@ -52728,7 +52792,7 @@
         <v>{"id":371,"name":"file-type-html","unicode":"EA72","decimal":60018,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","html"],"usage":"Used for .html node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A373">
         <f>'Bowtie v1.0 reorg'!A374</f>
         <v>372</v>
@@ -52778,7 +52842,7 @@
         <v>{"id":372,"name":"file-type-js","unicode":"EA73","decimal":60019,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","js","javascript"],"usage":"Used for .js node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A374">
         <f>'Bowtie v1.0 reorg'!A375</f>
         <v>373</v>
@@ -52828,7 +52892,7 @@
         <v>{"id":373,"name":"file-type-jsproj","unicode":"EA74","decimal":60020,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","js","javascript"],"usage":"Used for JavaScript project (.jsproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A375">
         <f>'Bowtie v1.0 reorg'!A376</f>
         <v>374</v>
@@ -52878,7 +52942,7 @@
         <v>{"id":374,"name":"file-type-cs","unicode":"EA75","decimal":60021,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","cs","c#"],"usage":"Used for C# file (.cs) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A376">
         <f>'Bowtie v1.0 reorg'!A377</f>
         <v>375</v>
@@ -52928,7 +52992,7 @@
         <v>{"id":375,"name":"file-type-csproj","unicode":"EA76","decimal":60022,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","cs","c#"],"usage":"Used for C# project (.csproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A377">
         <f>'Bowtie v1.0 reorg'!A378</f>
         <v>376</v>
@@ -52978,7 +53042,7 @@
         <v>{"id":376,"name":"file-type-vb","unicode":"EA77","decimal":60023,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","vb","visual","basic"],"usage":"Used for VB file (.vb) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A378">
         <f>'Bowtie v1.0 reorg'!A379</f>
         <v>377</v>
@@ -53028,7 +53092,7 @@
         <v>{"id":377,"name":"file-type-vbproj","unicode":"EA78","decimal":60024,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","vb","visual","basic"],"usage":"Used for VB project (.vbproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A379">
         <f>'Bowtie v1.0 reorg'!A380</f>
         <v>378</v>
@@ -53078,7 +53142,7 @@
         <v>{"id":378,"name":"file-type-cpp","unicode":"EA79","decimal":60025,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","cpp","c++"],"usage":"Used for C++ file (.cpp) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A380">
         <f>'Bowtie v1.0 reorg'!A381</f>
         <v>379</v>
@@ -53128,7 +53192,7 @@
         <v>{"id":379,"name":"file-type-vcxproj","unicode":"EA7A","decimal":60026,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","cpp","c++"],"usage":"Used for C++ project (.vcxproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A381">
         <f>'Bowtie v1.0 reorg'!A382</f>
         <v>380</v>
@@ -53178,7 +53242,7 @@
         <v>{"id":380,"name":"file-type-fs","unicode":"EA7B","decimal":60027,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","fs","f#"],"usage":"Used for F# file (.fs) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A382">
         <f>'Bowtie v1.0 reorg'!A383</f>
         <v>381</v>
@@ -53228,7 +53292,7 @@
         <v>{"id":381,"name":"file-type-fsproj","unicode":"EA7C","decimal":60028,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","fs","f#"],"usage":"Used for F# project (.fsproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A383">
         <f>'Bowtie v1.0 reorg'!A384</f>
         <v>382</v>
@@ -53278,7 +53342,7 @@
         <v>{"id":382,"name":"file-type-python","unicode":"EA7D","decimal":60029,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","pythong"],"usage":"Used for Python file (.py) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A384">
         <f>'Bowtie v1.0 reorg'!A385</f>
         <v>383</v>
@@ -53328,7 +53392,7 @@
         <v>{"id":383,"name":"file-type-pyproj","unicode":"EA7E","decimal":60030,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","python"],"usage":"Used for Python project (.pyproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A385">
         <f>'Bowtie v1.0 reorg'!A386</f>
         <v>384</v>
@@ -53378,7 +53442,7 @@
         <v>{"id":384,"name":"file-type-typescript","unicode":"EA7F","decimal":60031,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","typescript","javascript"],"usage":"Used for TypeScript file (.ts) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A386">
         <f>'Bowtie v1.0 reorg'!A387</f>
         <v>385</v>
@@ -53428,7 +53492,7 @@
         <v>{"id":385,"name":"file-type-coffeescript","unicode":"EA80","decimal":60032,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","coffeescript","javascript"],"usage":"Used for CoffeeScript file (.coffee) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A387">
         <f>'Bowtie v1.0 reorg'!A388</f>
         <v>386</v>
@@ -53478,7 +53542,7 @@
         <v>{"id":386,"name":"file-type-aspx","unicode":"EA81","decimal":60033,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","aspx"],"usage":"Used for .aspx file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A388">
         <f>'Bowtie v1.0 reorg'!A389</f>
         <v>387</v>
@@ -53528,7 +53592,7 @@
         <v>{"id":387,"name":"file-type-css","unicode":"EA82","decimal":60034,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","css","stylesheet"],"usage":"Used for .css stylesheet file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A389">
         <f>'Bowtie v1.0 reorg'!A390</f>
         <v>388</v>
@@ -53578,7 +53642,7 @@
         <v>{"id":388,"name":"file-type-sass","unicode":"EA83","decimal":60035,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","css","sass","scss","stylesheet"],"usage":"Used for Sass stylesheet (.sass, .scss) file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A390">
         <f>'Bowtie v1.0 reorg'!A391</f>
         <v>389</v>
@@ -53628,7 +53692,7 @@
         <v>{"id":389,"name":"file-type-less","unicode":"EA84","decimal":60036,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","css","less","stylesheet"],"usage":"Used for Less stylesheet (.less) file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A391">
         <f>'Bowtie v1.0 reorg'!A392</f>
         <v>390</v>
@@ -53678,7 +53742,7 @@
         <v>{"id":390,"name":"file-type-json","unicode":"EA85","decimal":60037,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","json"],"usage":"Used for .json file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A392">
         <f>'Bowtie v1.0 reorg'!A393</f>
         <v>391</v>
@@ -53728,7 +53792,7 @@
         <v>{"id":391,"name":"file-type-xml","unicode":"EA86","decimal":60038,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","xml","markup"],"usage":"Used for .xml file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A393">
         <f>'Bowtie v1.0 reorg'!A394</f>
         <v>392</v>
@@ -53778,7 +53842,7 @@
         <v>{"id":392,"name":"file-type-md","unicode":"EA87","decimal":60039,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","md","markdown"],"usage":"Used for .md, .markdown file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A394">
         <f>'Bowtie v1.0 reorg'!A395</f>
         <v>393</v>
@@ -53828,7 +53892,7 @@
         <v>{"id":393,"name":"file-type-powershell","unicode":"EA88","decimal":60040,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","powershell","ps1"],"usage":"Used for PowerShell (.ps1) file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A395">
         <f>'Bowtie v1.0 reorg'!A396</f>
         <v>394</v>
@@ -53878,7 +53942,7 @@
         <v>{"id":394,"name":"file-type-cmd","unicode":"EA89","decimal":60041,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","cmd"],"usage":"Used for .cmd file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A396">
         <f>'Bowtie v1.0 reorg'!A397</f>
         <v>395</v>
@@ -53928,7 +53992,7 @@
         <v>{"id":395,"name":"file-type-java","unicode":"EA8A","decimal":60042,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","java"],"usage":"Used for .java file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A397">
         <f>'Bowtie v1.0 reorg'!A398</f>
         <v>396</v>
@@ -53978,7 +54042,7 @@
         <v>{"id":396,"name":"file-type-sql","unicode":"EA8B","decimal":60043,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","sql"],"usage":"Used for .sql file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A398">
         <f>'Bowtie v1.0 reorg'!A399</f>
         <v>397</v>
@@ -54028,7 +54092,7 @@
         <v>{"id":397,"name":"file-stack","unicode":"EA8C","decimal":60044,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","stack","group","resx","resource"],"usage":"Used for resource file (.resx) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A399">
         <f>'Bowtie v1.0 reorg'!A400</f>
         <v>398</v>
@@ -54078,7 +54142,7 @@
         <v>{"id":398,"name":"script","unicode":"EA8D","decimal":60045,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["script","scroll"],"usage":"Generic script file"}</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A400">
         <f>'Bowtie v1.0 reorg'!A401</f>
         <v>399</v>
@@ -54128,7 +54192,7 @@
         <v>{"id":399,"name":"default-executable","unicode":"EA8E","decimal":60046,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["default","executable","gear","process"],"usage":"Generic executable file such as .bat, .exe"}</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A401">
         <f>'Bowtie v1.0 reorg'!A402</f>
         <v>400</v>
@@ -54178,7 +54242,7 @@
         <v>{"id":400,"name":"file-type-template","unicode":"EA8F","decimal":60047,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","template","preprocessor","dotted","line"],"usage":"Used for templating preprocessor file type like .jade, .haml, etc."}</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A402">
         <f>'Bowtie v1.0 reorg'!A403</f>
         <v>401</v>
@@ -54228,7 +54292,7 @@
         <v>{"id":401,"name":"split","unicode":"EA90","decimal":60048,"version":"1.1","style":"light","subset":"VSTS","group":"Arrow","keywords":["split","arrow"],"usage":"Used for splitting work item."}</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A403">
         <f>'Bowtie v1.0 reorg'!A404</f>
         <v>402</v>
@@ -54278,7 +54342,7 @@
         <v>{"id":402,"name":"image-action-log","unicode":"EA91","decimal":60049,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["image","picture","action","crosshair","target"],"usage":"Used for capturing user actions in the form of an image action log, in TCM Web Runner."}</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A404">
         <f>'Bowtie v1.0 reorg'!A405</f>
         <v>403</v>
@@ -54328,7 +54392,7 @@
         <v>{"id":403,"name":"shield","unicode":"EA92","decimal":60050,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["shield"],"usage":"Used in version control view of branches."}</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A405">
         <f>'Bowtie v1.0 reorg'!A406</f>
         <v>404</v>
@@ -54378,7 +54442,7 @@
         <v>{"id":404,"name":"shield-fill","unicode":"EA93","decimal":60051,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["shield"],"usage":"Used in version control view of branches."}</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A406">
         <f>'Bowtie v1.0 reorg'!A407</f>
         <v>405</v>
@@ -54428,7 +54492,7 @@
         <v>{"id":405,"name":"tfvc-fork","unicode":"EA94","decimal":60052,"version":"1.1","style":"light","subset":"VSTS","group":"Version Control","keywords":["fork"],"usage":"Used in VC view for git fork. Name is tfvc just because the other VC icons are like that."}</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A407">
         <f>'Bowtie v1.0 reorg'!A408</f>
         <v>406</v>
@@ -54478,7 +54542,7 @@
         <v>{"id":406,"name":"status-run-box","unicode":"EA95","decimal":60053,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["run","in","progress"],"usage":"Used in build view to indicate build is running in progress."}</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A408">
         <f>'Bowtie v1.0 reorg'!A409</f>
         <v>407</v>
@@ -54528,7 +54592,7 @@
         <v>{"id":407,"name":"arrow-import","unicode":"EA96","decimal":60054,"version":"1.1","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","import"],"usage":"Import"}</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A409">
         <f>'Bowtie v1.0 reorg'!A410</f>
         <v>408</v>
@@ -54578,7 +54642,7 @@
         <v>{"id":408,"name":"new-team-project","unicode":"EA97","decimal":60055,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["new","add","project","folder","plus","chevron"],"usage":"Add new team project."}</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A410">
         <f>'Bowtie v1.0 reorg'!A411</f>
         <v>409</v>
@@ -54628,7 +54692,7 @@
         <v>{"id":409,"name":"package-feed-mix","unicode":"EA98","decimal":60056,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","mix","box","square"],"usage":"Used in Package hub treeview to represent aggregated package feed that includes both remote and local feeds."}</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A411">
         <f>'Bowtie v1.0 reorg'!A412</f>
         <v>410</v>
@@ -54678,7 +54742,7 @@
         <v>{"id":410,"name":"package-feed-remote","unicode":"EA99","decimal":60057,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","remote","signal","reference","wave","virtual","box","square"],"usage":"Used in Package hub treeview to represent package feed is a reference to remote repo."}</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A412">
         <f>'Bowtie v1.0 reorg'!A413</f>
         <v>411</v>
@@ -54728,7 +54792,7 @@
         <v>{"id":411,"name":"package-feed-local","unicode":"EA9A","decimal":60058,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","local","box","square"],"usage":"Used in Package hub treeview to represent package feed is a local folder."}</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A413">
         <f>'Bowtie v1.0 reorg'!A414</f>
         <v>412</v>
@@ -54778,7 +54842,7 @@
         <v>{"id":412,"name":"work-item-bar-outline","unicode":"EA9B","decimal":60059,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["work","item","bar"],"usage":"Used in Work hub backlog tree view to represent work items."}</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A414">
         <f>'Bowtie v1.0 reorg'!A415</f>
         <v>413</v>
@@ -54828,7 +54892,7 @@
         <v>{"id":413,"name":"sort-asc","unicode":"EA9C","decimal":60060,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["sort","alphabetically","ascending","arrow","down","letter"],"usage":"Used in ListView control sorting funcionality."}</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A415">
         <f>'Bowtie v1.0 reorg'!A416</f>
         <v>414</v>
@@ -54878,7 +54942,7 @@
         <v>{"id":414,"name":"sort-desc","unicode":"EA9D","decimal":60061,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["sort","alphabetically","descending","arrow","down","letter"],"usage":"Used in ListView control sorting funcionality."}</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A416">
         <f>'Bowtie v1.0 reorg'!A417</f>
         <v>415</v>
@@ -54928,7 +54992,7 @@
         <v>{"id":415,"name":"plug-disconnected","unicode":"EA9E","decimal":60062,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["plug","disconnected","unplug","offline"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A417">
         <f>'Bowtie v1.0 reorg'!A418</f>
         <v>416</v>
@@ -54978,7 +55042,7 @@
         <v>{"id":416,"name":"plug-connected","unicode":"EA9F","decimal":60063,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["plug","connected","plugged","online"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A418">
         <f>'Bowtie v1.0 reorg'!A419</f>
         <v>417</v>
@@ -55028,7 +55092,7 @@
         <v>{"id":417,"name":"plug-disconnected-fill","unicode":"EAA0","decimal":60064,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","disconnected","unplug","offline"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A419">
         <f>'Bowtie v1.0 reorg'!A420</f>
         <v>418</v>
@@ -55078,7 +55142,7 @@
         <v>{"id":418,"name":"plug-connected-fill","unicode":"EAA1","decimal":60065,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","connected","plugged","online"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A420">
         <f>'Bowtie v1.0 reorg'!A421</f>
         <v>419</v>
@@ -55128,7 +55192,7 @@
         <v>{"id":419,"name":"sync-user","unicode":"EAA2","decimal":60066,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["sync","update","user"],"usage":"Used in Backlog capacity editor for adding missing team members."}</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A421">
         <f>'Bowtie v1.0 reorg'!A422</f>
         <v>420</v>
@@ -55178,7 +55242,7 @@
         <v>{"id":420,"name":"clear-filter","unicode":"EAA3","decimal":60067,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["clear","remove","delete","cancel","filter","funnel"],"usage":"Used in Code hub to clear applied filters."}</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A422">
         <f>'Bowtie v1.0 reorg'!A423</f>
         <v>421</v>
@@ -55228,7 +55292,7 @@
         <v>{"id":421,"name":"watch-eye-off","unicode":"EAA4","decimal":60068,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["watch","eye","follow","off","slash"],"usage":"Used for turning off follow on an work item."}</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A423">
         <f>'Bowtie v1.0 reorg'!A424</f>
         <v>422</v>
@@ -55278,7 +55342,7 @@
         <v>{"id":422,"name":"shopping-cart","unicode":"EAA5","decimal":60069,"version":"1.1","style":"light","subset":"VSCOM","group":"Common","keywords":["shop","cart","buy","purchase","store"],"usage":"Use this version when shopping cart needs two states: empty and filled"}</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A424">
         <f>'Bowtie v1.0 reorg'!A425</f>
         <v>423</v>
@@ -55328,7 +55392,7 @@
         <v>{"id":423,"name":"shopping-cart-fill","unicode":"EAA6","decimal":60070,"version":"1.1","style":"light","subset":"VSCOM","group":"Common","keywords":["shop","cart","buy","purchase","store"],"usage":"Use this version when shopping cart needs two states: empty and filled"}</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A425">
         <f>'Bowtie v1.0 reorg'!A426</f>
         <v>424</v>
@@ -55378,14 +55442,14 @@
         <v>{"id":424,"name":"update-queue","unicode":"EAA7","decimal":60071,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["update","pull","request","version","control","queue"],"usage":"Used to represent multiple updates to a branch."}</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A426">
         <f>'Bowtie v1.0 reorg'!A427</f>
         <v>425</v>
       </c>
-      <c r="B426">
+      <c r="B426" t="str">
         <f>'Bowtie v1.0 reorg'!E427</f>
-        <v>0</v>
+        <v>add-team</v>
       </c>
       <c r="C426" t="str">
         <f>'Bowtie v1.0 reorg'!C427</f>
@@ -55395,40 +55459,40 @@
         <f>'Bowtie v1.0 reorg'!D427</f>
         <v>60072</v>
       </c>
-      <c r="E426" t="str">
+      <c r="E426">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!F427),"",'Bowtie v1.0 reorg'!F427)</f>
-        <v/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F426" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!G427),"",'Bowtie v1.0 reorg'!G427)</f>
-        <v/>
+        <v>light</v>
       </c>
       <c r="G426" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!I427),"",'Bowtie v1.0 reorg'!I427)</f>
-        <v/>
+        <v>VSTS</v>
       </c>
       <c r="H426" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J427),"",'Bowtie v1.0 reorg'!J427)</f>
-        <v/>
+        <v>Work</v>
       </c>
       <c r="I426" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H427),"",'Bowtie v1.0 reorg'!H427)</f>
-        <v/>
+        <v>add team user member</v>
       </c>
       <c r="J426" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K427),"",'Bowtie v1.0 reorg'!K427)</f>
-        <v/>
-      </c>
-      <c r="K426" t="e">
+        <v>Used in capacity view to add missing team member.</v>
+      </c>
+      <c r="K426" t="str">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L426" t="e">
+        <v>{'id':425,'name':'add-team','unicode':'EAA8','decimal':60072,'version':'1.1','style':'light','subset':'VSTS','group':'Work','keywords':['add','team','user','member'],'usage':'Used in capacity view to add missing team member.'}</v>
+      </c>
+      <c r="L426" t="str">
         <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+        <v>{"id":425,"name":"add-team","unicode":"EAA8","decimal":60072,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["add","team","user","member"],"usage":"Used in capacity view to add missing team member."}</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A427">
         <f>'Bowtie v1.0 reorg'!A428</f>
         <v>426</v>
@@ -55478,7 +55542,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A428">
         <f>'Bowtie v1.0 reorg'!A429</f>
         <v>427</v>
@@ -55528,7 +55592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A429">
         <f>'Bowtie v1.0 reorg'!A430</f>
         <v>428</v>
@@ -55578,7 +55642,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A430">
         <f>'Bowtie v1.0 reorg'!A431</f>
         <v>429</v>
@@ -55628,7 +55692,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A431">
         <f>'Bowtie v1.0 reorg'!A432</f>
         <v>430</v>
@@ -55678,7 +55742,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A432">
         <f>'Bowtie v1.0 reorg'!A433</f>
         <v>431</v>
@@ -55728,7 +55792,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A433">
         <f>'Bowtie v1.0 reorg'!A434</f>
         <v>432</v>
@@ -55778,7 +55842,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A434">
         <f>'Bowtie v1.0 reorg'!A435</f>
         <v>433</v>
@@ -55828,7 +55892,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A435">
         <f>'Bowtie v1.0 reorg'!A436</f>
         <v>434</v>
@@ -55878,7 +55942,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A436">
         <f>'Bowtie v1.0 reorg'!A437</f>
         <v>435</v>
@@ -55928,7 +55992,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A437">
         <f>'Bowtie v1.0 reorg'!A438</f>
         <v>436</v>
@@ -55978,7 +56042,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A438">
         <f>'Bowtie v1.0 reorg'!A439</f>
         <v>437</v>
@@ -56028,7 +56092,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A439">
         <f>'Bowtie v1.0 reorg'!A440</f>
         <v>438</v>
@@ -56078,7 +56142,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A440">
         <f>'Bowtie v1.0 reorg'!A441</f>
         <v>439</v>
@@ -56128,7 +56192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A441">
         <f>'Bowtie v1.0 reorg'!A442</f>
         <v>440</v>
@@ -56178,7 +56242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A442">
         <f>'Bowtie v1.0 reorg'!A443</f>
         <v>441</v>
@@ -56228,7 +56292,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A443">
         <f>'Bowtie v1.0 reorg'!A444</f>
         <v>442</v>
@@ -56278,7 +56342,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A444">
         <f>'Bowtie v1.0 reorg'!A445</f>
         <v>443</v>
@@ -56328,7 +56392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A445">
         <f>'Bowtie v1.0 reorg'!A446</f>
         <v>444</v>
@@ -56378,7 +56442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A446">
         <f>'Bowtie v1.0 reorg'!A447</f>
         <v>445</v>
@@ -56428,7 +56492,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A447">
         <f>'Bowtie v1.0 reorg'!A448</f>
         <v>446</v>
@@ -56478,7 +56542,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A448">
         <f>'Bowtie v1.0 reorg'!A449</f>
         <v>447</v>
@@ -56528,7 +56592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A449">
         <f>'Bowtie v1.0 reorg'!A450</f>
         <v>448</v>
@@ -56578,7 +56642,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A450">
         <f>'Bowtie v1.0 reorg'!A451</f>
         <v>449</v>
@@ -56628,7 +56692,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A451">
         <f>'Bowtie v1.0 reorg'!A452</f>
         <v>450</v>
@@ -56678,7 +56742,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A452">
         <f>'Bowtie v1.0 reorg'!A453</f>
         <v>451</v>
@@ -56728,7 +56792,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A453">
         <f>'Bowtie v1.0 reorg'!A454</f>
         <v>452</v>
@@ -56778,7 +56842,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A454">
         <f>'Bowtie v1.0 reorg'!A455</f>
         <v>453</v>
@@ -56828,7 +56892,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A455">
         <f>'Bowtie v1.0 reorg'!A456</f>
         <v>454</v>
@@ -56878,7 +56942,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A456">
         <f>'Bowtie v1.0 reorg'!A457</f>
         <v>455</v>
@@ -56928,7 +56992,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A457">
         <f>'Bowtie v1.0 reorg'!A458</f>
         <v>456</v>
@@ -56978,7 +57042,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A458">
         <f>'Bowtie v1.0 reorg'!A459</f>
         <v>457</v>
@@ -57028,7 +57092,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A459">
         <f>'Bowtie v1.0 reorg'!A460</f>
         <v>458</v>
@@ -57078,7 +57142,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A460">
         <f>'Bowtie v1.0 reorg'!A461</f>
         <v>459</v>
@@ -57128,7 +57192,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A461">
         <f>'Bowtie v1.0 reorg'!A462</f>
         <v>460</v>
@@ -57178,7 +57242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A462">
         <f>'Bowtie v1.0 reorg'!A463</f>
         <v>461</v>
@@ -57228,7 +57292,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A463">
         <f>'Bowtie v1.0 reorg'!A464</f>
         <v>462</v>
@@ -57278,7 +57342,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A464">
         <f>'Bowtie v1.0 reorg'!A465</f>
         <v>463</v>
@@ -57328,7 +57392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A465">
         <f>'Bowtie v1.0 reorg'!A466</f>
         <v>464</v>
@@ -57378,7 +57442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A466">
         <f>'Bowtie v1.0 reorg'!A467</f>
         <v>465</v>
@@ -57428,7 +57492,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A467">
         <f>'Bowtie v1.0 reorg'!A468</f>
         <v>466</v>
@@ -57478,7 +57542,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A468">
         <f>'Bowtie v1.0 reorg'!A469</f>
         <v>0</v>
@@ -57528,7 +57592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A469">
         <f>'Bowtie v1.0 reorg'!A470</f>
         <v>0</v>
@@ -57578,7 +57642,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A470">
         <f>'Bowtie v1.0 reorg'!A471</f>
         <v>0</v>
@@ -57628,34 +57692,34 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E480"/>
     </row>
   </sheetData>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
     <sheet name="json" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2596,15 +2596,6 @@
     <t>Use this version when shopping cart needs two states: empty and filled</t>
   </si>
   <si>
-    <t>update-queue</t>
-  </si>
-  <si>
-    <t>update pull request version control queue</t>
-  </si>
-  <si>
-    <t>Used to represent multiple updates to a branch.</t>
-  </si>
-  <si>
     <t>Used in capacity view to add missing team member.</t>
   </si>
   <si>
@@ -2612,6 +2603,15 @@
   </si>
   <si>
     <t>add team user member</t>
+  </si>
+  <si>
+    <t>control-panel</t>
+  </si>
+  <si>
+    <t>control panel settings configuration slide adjust</t>
+  </si>
+  <si>
+    <t>The common control panel.</t>
   </si>
 </sst>
 </file>
@@ -18798,23 +18798,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -18850,23 +18833,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -19021,28 +18987,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL532"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L427" sqref="L427"/>
+      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="2"/>
-    <col min="3" max="3" width="13.3984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="13.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.86328125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" customWidth="1"/>
     <col min="12" max="38" width="9" customWidth="1"/>
-    <col min="39" max="16384" width="9.1328125" style="2"/>
+    <col min="39" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>183</v>
       </c>
@@ -19101,7 +19067,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -19164,7 +19130,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -19201,7 +19167,7 @@
         <v>uE900-arrow-up.svg</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -19238,7 +19204,7 @@
         <v>uE901-arrow-left.svg</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -19275,7 +19241,7 @@
         <v>uE902-arrow-down.svg</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -19312,7 +19278,7 @@
         <v>uE903-arrow-right.svg</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -19349,7 +19315,7 @@
         <v>uE904-arrow-up-left.svg</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -19412,7 +19378,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
     </row>
-    <row r="9" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -19449,7 +19415,7 @@
         <v>uE906-arrow-down-left.svg</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -19486,7 +19452,7 @@
         <v>uE907-arrow-down-right.svg</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -19520,7 +19486,7 @@
         <v>uE908-arrow-export.svg</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -19554,7 +19520,7 @@
         <v>uE909-arrow-open.svg</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -19615,7 +19581,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
     </row>
-    <row r="14" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -19653,7 +19619,7 @@
         <v>uE90B-sort-ascending.svg</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -19691,7 +19657,7 @@
         <v>uE90C-sort-descending.svg</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -19722,7 +19688,7 @@
         <v>uE90D-switch.svg</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -19756,7 +19722,7 @@
         <v>uE90E-synchronize.svg</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -19790,7 +19756,7 @@
         <v>uE90F-transfer-download.svg</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -19824,7 +19790,7 @@
         <v>uE910-transfer-upload.svg</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -19858,7 +19824,7 @@
         <v>uE911-azure-api-management.svg</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -19892,7 +19858,7 @@
         <v>uE912-azure-service-endpoint.svg</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -19929,7 +19895,7 @@
         <v>uE913-brand-android.svg</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -19966,7 +19932,7 @@
         <v>uE914-brand-facebook.svg</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -20003,7 +19969,7 @@
         <v>uE915-brand-git.svg</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -20040,7 +20006,7 @@
         <v>uE916-brand-github.svg</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -20077,7 +20043,7 @@
         <v>uE917-brand-maven.svg</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -20108,7 +20074,7 @@
         <v>uE918-brand-mtm.svg</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -20145,7 +20111,7 @@
         <v>uE919-brand-npm.svg</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -20208,7 +20174,7 @@
       <c r="AK29"/>
       <c r="AL29"/>
     </row>
-    <row r="30" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -20245,7 +20211,7 @@
         <v>uE91B-brand-tfvc.svg</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -20282,7 +20248,7 @@
         <v>uE91C-brand-twitter.svg</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -20319,7 +20285,7 @@
         <v>uE91D-brand-visualstudio.svg</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -20356,7 +20322,7 @@
         <v>uE91E-brand-windows.svg</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -20394,7 +20360,7 @@
         <v>uE91F-git.svg</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -20432,7 +20398,7 @@
         <v>uE920-logo-visual-studio.svg</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -20491,7 +20457,7 @@
       <c r="AK36" s="10"/>
       <c r="AL36" s="10"/>
     </row>
-    <row r="37" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -20528,7 +20494,7 @@
         <v>uE922-chart-area.svg</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -20565,7 +20531,7 @@
         <v>uE923-chart-bar.svg</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -20602,7 +20568,7 @@
         <v>uE924-chart-column.svg</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -20639,7 +20605,7 @@
         <v>uE925-chart-pie.svg</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -20676,7 +20642,7 @@
         <v>uE926-chart-pivot.svg</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -20713,7 +20679,7 @@
         <v>uE927-chart-stacked-area.svg</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -20750,7 +20716,7 @@
         <v>uE928-chart-stacked-bar.svg</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -20787,7 +20753,7 @@
         <v>uE929-chart-stacked-line.svg</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -20825,7 +20791,7 @@
         <v>uE92A-build-queue-new.svg</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -20862,7 +20828,7 @@
         <v>uE92B-clone-to-desktop.svg</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -20896,7 +20862,7 @@
         <v>uE92C-install.svg</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -20930,7 +20896,7 @@
         <v>uE92D-comment.svg</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -20964,7 +20930,7 @@
         <v>uE92E-comment-add.svg</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -20998,7 +20964,7 @@
         <v>uE92F-comment-discussion.svg</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -21032,7 +20998,7 @@
         <v>uE930-comment-lines.svg</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -21066,7 +21032,7 @@
         <v>uE931-comment-next.svg</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -21100,7 +21066,7 @@
         <v>uE932-comment-outline.svg</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -21134,7 +21100,7 @@
         <v>uE933-comment-previous.svg</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -21168,7 +21134,7 @@
         <v>uE934-comment-urgent.svg</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -21205,7 +21171,7 @@
         <v>uE935-alert.svg</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -21243,7 +21209,7 @@
         <v>uE936-approve.svg</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -21281,7 +21247,7 @@
         <v>uE937-approve-disapprove.svg</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -21315,7 +21281,7 @@
         <v>uE938-blur.svg</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -21352,7 +21318,7 @@
         <v>uE939-build.svg</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -21389,7 +21355,7 @@
         <v>uE93A-build-queue.svg</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -21426,7 +21392,7 @@
         <v>uE93B-build-reason-checkin-shelveset.svg</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -21463,7 +21429,7 @@
         <v>uE93C-calendar.svg</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -21500,7 +21466,7 @@
         <v>uE93D-calendar-month.svg</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -21531,7 +21497,7 @@
         <v>uE93E-camera.svg</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -21568,7 +21534,7 @@
         <v>uE93F-clone.svg</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -21602,7 +21568,7 @@
         <v>uE940-cloud.svg</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -21636,7 +21602,7 @@
         <v>uE941-cloud-fill.svg</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -21670,7 +21636,7 @@
         <v>uE942-copy-to-clipboard.svg</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -21704,7 +21670,7 @@
         <v>uE943-dashboard.svg</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -21738,7 +21704,7 @@
         <v>uE944-dashboard-fill.svg</v>
       </c>
     </row>
-    <row r="72" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -21799,7 +21765,7 @@
       <c r="AK72"/>
       <c r="AL72"/>
     </row>
-    <row r="73" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -21833,7 +21799,7 @@
         <v>uE946-deploy.svg</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -21867,7 +21833,7 @@
         <v>uE947-redeploy.svg</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -21901,7 +21867,7 @@
         <v>uE948-details-pane.svg</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -21935,7 +21901,7 @@
         <v>uE949-edit.svg</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -21969,7 +21935,7 @@
         <v>uE94A-edit-outline.svg</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -22003,7 +21969,7 @@
         <v>uE94B-edit-copy.svg</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -22037,7 +22003,7 @@
         <v>uE94C-edit-cut.svg</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -22071,7 +22037,7 @@
         <v>uE94D-editor-list-bullet.svg</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -22105,7 +22071,7 @@
         <v>uE94E-edit-paste.svg</v>
       </c>
     </row>
-    <row r="82" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -22168,7 +22134,7 @@
       <c r="AK82"/>
       <c r="AL82"/>
     </row>
-    <row r="83" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -22206,7 +22172,7 @@
         <v>uE950-edit-remove.svg</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -22240,7 +22206,7 @@
         <v>uE951-edit-redo.svg</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -22274,7 +22240,7 @@
         <v>uE952-edit-undo.svg</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -22308,7 +22274,7 @@
         <v>uE953-edit-rename.svg</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -22345,7 +22311,7 @@
         <v>uE954-attach.svg</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -22379,7 +22345,7 @@
         <v>uE955-link.svg</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -22407,7 +22373,7 @@
         <v>uE956-server.svg</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -22435,7 +22401,7 @@
         <v>uE957-environment.svg</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -22463,7 +22429,7 @@
         <v>uE958-devices.svg</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -22497,7 +22463,7 @@
         <v>uE959-feedback-negative.svg</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -22531,7 +22497,7 @@
         <v>uE95A-feedback-positive.svg</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -22565,7 +22531,7 @@
         <v>uE95B-folder.svg</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -22599,7 +22565,7 @@
         <v>uE95C-image.svg</v>
       </c>
     </row>
-    <row r="96" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -22660,7 +22626,7 @@
       <c r="AK96"/>
       <c r="AL96"/>
     </row>
-    <row r="97" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -22694,7 +22660,7 @@
         <v>uE95E-package-fill.svg</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -22728,7 +22694,7 @@
         <v>uE95F-heart.svg</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -22762,7 +22728,7 @@
         <v>uE960-heart-fill.svg</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -22796,7 +22762,7 @@
         <v>uE961-heartbeat.svg</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -22830,7 +22796,7 @@
         <v>uE962-heartbeat-fill.svg</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -22867,7 +22833,7 @@
         <v>uE963-mail-message.svg</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -22904,7 +22870,7 @@
         <v>uE964-mail-message-fill.svg</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -22938,7 +22904,7 @@
         <v>uE965-math-minus.svg</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -22972,7 +22938,7 @@
         <v>uE966-math-minus-light.svg</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -23006,7 +22972,7 @@
         <v>uE967-math-minus-box-light.svg</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -23040,7 +23006,7 @@
         <v>uE968-math-minus-box.svg</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -23074,7 +23040,7 @@
         <v>uE969-math-minus-circle-outline.svg</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -23108,7 +23074,7 @@
         <v>uE96A-math-minus-circle.svg</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -23142,7 +23108,7 @@
         <v>uE96B-math-multiply.svg</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -23176,7 +23142,7 @@
         <v>uE96C-math-multiply-light.svg</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -23210,7 +23176,7 @@
         <v>uE96D-math-multiply-box-light.svg</v>
       </c>
     </row>
-    <row r="113" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -23244,7 +23210,7 @@
         <v>uE96E-math-multiply-box.svg</v>
       </c>
     </row>
-    <row r="114" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -23278,7 +23244,7 @@
         <v>uE96F-math-multiply-box-outline.svg</v>
       </c>
     </row>
-    <row r="115" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -23339,7 +23305,7 @@
       <c r="AK115"/>
       <c r="AL115"/>
     </row>
-    <row r="116" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -23373,7 +23339,7 @@
         <v>uE971-math-plus-light.svg</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -23407,7 +23373,7 @@
         <v>uE972-math-plus-box-light.svg</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -23441,7 +23407,7 @@
         <v>uE973-math-plus-box.svg</v>
       </c>
     </row>
-    <row r="119" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -23475,7 +23441,7 @@
         <v>uE974-math-plus-circle-outline.svg</v>
       </c>
     </row>
-    <row r="120" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -23509,7 +23475,7 @@
         <v>uE975-math-plus-circle.svg</v>
       </c>
     </row>
-    <row r="121" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -23547,7 +23513,7 @@
         <v>uE976-math-plus-heavy.svg</v>
       </c>
     </row>
-    <row r="122" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -23584,7 +23550,7 @@
         <v>uE977-check.svg</v>
       </c>
     </row>
-    <row r="123" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -23621,7 +23587,7 @@
         <v>uE978-check-light.svg</v>
       </c>
     </row>
-    <row r="124" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -23655,7 +23621,7 @@
         <v>uE979-feed.svg</v>
       </c>
     </row>
-    <row r="125" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -23689,7 +23655,7 @@
         <v>uE97A-network-tower.svg</v>
       </c>
     </row>
-    <row r="126" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -23723,7 +23689,7 @@
         <v>uE97B-connect-to-feed.svg</v>
       </c>
     </row>
-    <row r="127" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -23757,7 +23723,7 @@
         <v>uE97C-plug.svg</v>
       </c>
     </row>
-    <row r="128" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -23791,7 +23757,7 @@
         <v>uE97D-plug-outline.svg</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -23825,7 +23791,7 @@
         <v>uE97E-policy.svg</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -23853,7 +23819,7 @@
         <v>uE97F-print.svg</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -23887,7 +23853,7 @@
         <v>uE980-recycle.svg</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -23915,7 +23881,7 @@
         <v>uE981-robot.svg</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -23949,7 +23915,7 @@
         <v>uE982-save.svg</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -23977,7 +23943,7 @@
         <v>uE983-save-all.svg</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -24005,7 +23971,7 @@
         <v>uE984-save-as.svg</v>
       </c>
     </row>
-    <row r="136" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -24033,7 +23999,7 @@
         <v>uE985-save-close.svg</v>
       </c>
     </row>
-    <row r="137" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -24067,7 +24033,7 @@
         <v>uE986-search.svg</v>
       </c>
     </row>
-    <row r="138" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -24101,7 +24067,7 @@
         <v>uE987-search-filter.svg</v>
       </c>
     </row>
-    <row r="139" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -24135,7 +24101,7 @@
         <v>uE988-search-filter-fill.svg</v>
       </c>
     </row>
-    <row r="140" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -24172,7 +24138,7 @@
         <v>uE989-security.svg</v>
       </c>
     </row>
-    <row r="141" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -24206,7 +24172,7 @@
         <v>uE98A-security-access.svg</v>
       </c>
     </row>
-    <row r="142" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -24240,7 +24206,7 @@
         <v>uE98B-security-lock.svg</v>
       </c>
     </row>
-    <row r="143" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -24274,7 +24240,7 @@
         <v>uE98C-security-lock-fill.svg</v>
       </c>
     </row>
-    <row r="144" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -24308,7 +24274,7 @@
         <v>uE98D-security-unlock.svg</v>
       </c>
     </row>
-    <row r="145" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -24342,7 +24308,7 @@
         <v>uE98E-security-unlock-fill.svg</v>
       </c>
     </row>
-    <row r="146" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -24376,7 +24342,7 @@
         <v>uE98F-settings-gear.svg</v>
       </c>
     </row>
-    <row r="147" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -24407,7 +24373,7 @@
         <v>uE990-settings-gear-outline.svg</v>
       </c>
     </row>
-    <row r="148" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -24441,7 +24407,7 @@
         <v>uE991-settings-wrench.svg</v>
       </c>
     </row>
-    <row r="149" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -24469,7 +24435,7 @@
         <v>uE992-trash.svg</v>
       </c>
     </row>
-    <row r="150" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -24503,7 +24469,7 @@
         <v>uE993-share.svg</v>
       </c>
     </row>
-    <row r="151" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -24537,7 +24503,7 @@
         <v>uE994-shop.svg</v>
       </c>
     </row>
-    <row r="152" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -24571,7 +24537,7 @@
         <v>uE995-shop-server.svg</v>
       </c>
     </row>
-    <row r="153" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -24599,7 +24565,7 @@
         <v>uE996-tag.svg</v>
       </c>
     </row>
-    <row r="154" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -24627,7 +24593,7 @@
         <v>uE997-tag-fill.svg</v>
       </c>
     </row>
-    <row r="155" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -24655,7 +24621,7 @@
         <v>uE998-user.svg</v>
       </c>
     </row>
-    <row r="156" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -24683,7 +24649,7 @@
         <v>uE999-users.svg</v>
       </c>
     </row>
-    <row r="157" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -24711,7 +24677,7 @@
         <v>uE99A-variable.svg</v>
       </c>
     </row>
-    <row r="158" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -24739,7 +24705,7 @@
         <v>uE99B-video.svg</v>
       </c>
     </row>
-    <row r="159" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -24767,7 +24733,7 @@
         <v>uE99C-view-grid.svg</v>
       </c>
     </row>
-    <row r="160" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -24795,7 +24761,7 @@
         <v>uE99D-watch-eye.svg</v>
       </c>
     </row>
-    <row r="161" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -24823,7 +24789,7 @@
         <v>uE99E-watch-eye-fill.svg</v>
       </c>
     </row>
-    <row r="162" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -24860,7 +24826,7 @@
         <v>uE99F-live-update-feed.svg</v>
       </c>
     </row>
-    <row r="163" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -24897,7 +24863,7 @@
         <v>uE9A0-checkbox.svg</v>
       </c>
     </row>
-    <row r="164" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -24934,7 +24900,7 @@
         <v>uE9A1-checkbox-empty.svg</v>
       </c>
     </row>
-    <row r="165" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -24971,7 +24937,7 @@
         <v>uE9A2-chevron-up.svg</v>
       </c>
     </row>
-    <row r="166" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -25008,7 +24974,7 @@
         <v>uE9A3-chevron-left.svg</v>
       </c>
     </row>
-    <row r="167" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -25045,7 +25011,7 @@
         <v>uE9A4-chevron-down.svg</v>
       </c>
     </row>
-    <row r="168" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -25082,7 +25048,7 @@
         <v>uE9A5-chevron-right.svg</v>
       </c>
     </row>
-    <row r="169" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -25119,7 +25085,7 @@
         <v>uE9A6-chevron-up-light.svg</v>
       </c>
     </row>
-    <row r="170" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -25156,7 +25122,7 @@
         <v>uE9A7-chevron-left-light.svg</v>
       </c>
     </row>
-    <row r="171" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -25193,7 +25159,7 @@
         <v>uE9A8-chevron-down-light.svg</v>
       </c>
     </row>
-    <row r="172" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -25230,7 +25196,7 @@
         <v>uE9A9-chevron-right-light.svg</v>
       </c>
     </row>
-    <row r="173" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -25258,7 +25224,7 @@
         <v>uE9AA-chevron-up-all.svg</v>
       </c>
     </row>
-    <row r="174" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -25286,7 +25252,7 @@
         <v>uE9AB-chevron-left-all.svg</v>
       </c>
     </row>
-    <row r="175" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -25314,7 +25280,7 @@
         <v>uE9AC-chevron-down-all.svg</v>
       </c>
     </row>
-    <row r="176" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -25342,7 +25308,7 @@
         <v>uE9AD-chevron-right-all.svg</v>
       </c>
     </row>
-    <row r="177" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -25370,7 +25336,7 @@
         <v>uE9AE-chevron-up-end.svg</v>
       </c>
     </row>
-    <row r="178" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -25398,7 +25364,7 @@
         <v>uE9AF-chevron-left-end.svg</v>
       </c>
     </row>
-    <row r="179" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -25426,7 +25392,7 @@
         <v>uE9B0-chevron-down-end.svg</v>
       </c>
     </row>
-    <row r="180" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -25454,7 +25420,7 @@
         <v>uE9B1-chevron-right-end.svg</v>
       </c>
     </row>
-    <row r="181" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -25488,7 +25454,7 @@
         <v>uE9B2-fold-less.svg</v>
       </c>
     </row>
-    <row r="182" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -25522,7 +25488,7 @@
         <v>uE9B3-fold-more.svg</v>
       </c>
     </row>
-    <row r="183" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -25556,7 +25522,7 @@
         <v>uE9B4-ellipsis.svg</v>
       </c>
     </row>
-    <row r="184" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -25590,7 +25556,7 @@
         <v>uE9B5-ellipsis-vertical.svg</v>
       </c>
     </row>
-    <row r="185" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -25624,7 +25590,7 @@
         <v>uE9B6-favorite.svg</v>
       </c>
     </row>
-    <row r="186" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -25658,7 +25624,7 @@
         <v>uE9B7-favorite-outline.svg</v>
       </c>
     </row>
-    <row r="187" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -25692,7 +25658,7 @@
         <v>uE9B8-star-half.svg</v>
       </c>
     </row>
-    <row r="188" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -25726,7 +25692,7 @@
         <v>uE9B9-pin.svg</v>
       </c>
     </row>
-    <row r="189" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -25760,7 +25726,7 @@
         <v>uE9BA-pin-fill.svg</v>
       </c>
     </row>
-    <row r="190" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -25794,7 +25760,7 @@
         <v>uE9BB-pin-pinned.svg</v>
       </c>
     </row>
-    <row r="191" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -25828,7 +25794,7 @@
         <v>uE9BC-pin-pinned-fill.svg</v>
       </c>
     </row>
-    <row r="192" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -25862,7 +25828,7 @@
         <v>uE9BD-pin-unpin.svg</v>
       </c>
     </row>
-    <row r="193" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -25896,7 +25862,7 @@
         <v>uE9BE-pin-unpin-fill.svg</v>
       </c>
     </row>
-    <row r="194" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -25930,7 +25896,7 @@
         <v>uE9BF-radio-button.svg</v>
       </c>
     </row>
-    <row r="195" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -25964,7 +25930,7 @@
         <v>uE9C0-radio-button-empty.svg</v>
       </c>
     </row>
-    <row r="196" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -25992,7 +25958,7 @@
         <v>uE9C1-resize-grip.svg</v>
       </c>
     </row>
-    <row r="197" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -26026,7 +25992,7 @@
         <v>uE9C2-separator.svg</v>
       </c>
     </row>
-    <row r="198" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -26054,7 +26020,7 @@
         <v>uE9C3-toggle-collapse.svg</v>
       </c>
     </row>
-    <row r="199" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -26082,7 +26048,7 @@
         <v>uE9C4-toggle-expand.svg</v>
       </c>
     </row>
-    <row r="200" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -26110,7 +26076,7 @@
         <v>uE9C5-toggle-collapse-all.svg</v>
       </c>
     </row>
-    <row r="201" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -26138,7 +26104,7 @@
         <v>uE9C6-toggle-expand-all.svg</v>
       </c>
     </row>
-    <row r="202" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -26166,7 +26132,7 @@
         <v>uE9C7-triangle-up.svg</v>
       </c>
     </row>
-    <row r="203" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -26194,7 +26160,7 @@
         <v>uE9C8-triangle-left.svg</v>
       </c>
     </row>
-    <row r="204" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -26222,7 +26188,7 @@
         <v>uE9C9-triangle-down.svg</v>
       </c>
     </row>
-    <row r="205" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -26250,7 +26216,7 @@
         <v>uE9CA-triangle-right.svg</v>
       </c>
     </row>
-    <row r="206" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -26278,7 +26244,7 @@
         <v>uE9CB-toggle-tree-expanded.svg</v>
       </c>
     </row>
-    <row r="207" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -26306,7 +26272,7 @@
         <v>uE9CC-toggle-tree-expanded-outline.svg</v>
       </c>
     </row>
-    <row r="208" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -26334,7 +26300,7 @@
         <v>uE9CD-toggle-tree-collapsed.svg</v>
       </c>
     </row>
-    <row r="209" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -26362,7 +26328,7 @@
         <v>uE9CE-view-full-screen.svg</v>
       </c>
     </row>
-    <row r="210" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -26390,7 +26356,7 @@
         <v>uE9CF-view-full-screen-exit.svg</v>
       </c>
     </row>
-    <row r="211" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -26424,7 +26390,7 @@
         <v>uE9D0-navigate-external.svg</v>
       </c>
     </row>
-    <row r="212" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -26452,7 +26418,7 @@
         <v>uE9D1-work-item-bar.svg</v>
       </c>
     </row>
-    <row r="213" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -26480,7 +26446,7 @@
         <v>uE9D2-format-font.svg</v>
       </c>
     </row>
-    <row r="214" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -26514,7 +26480,7 @@
         <v>uE9D3-format-bold.svg</v>
       </c>
     </row>
-    <row r="215" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -26548,7 +26514,7 @@
         <v>uE9D4-format-italic.svg</v>
       </c>
     </row>
-    <row r="216" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -26582,7 +26548,7 @@
         <v>uE9D5-format-underline.svg</v>
       </c>
     </row>
-    <row r="217" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -26616,7 +26582,7 @@
         <v>uE9D6-format-font-color.svg</v>
       </c>
     </row>
-    <row r="218" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -26650,7 +26616,7 @@
         <v>uE9D7-format-font-size.svg</v>
       </c>
     </row>
-    <row r="219" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -26684,7 +26650,7 @@
         <v>uE9D8-format-clear.svg</v>
       </c>
     </row>
-    <row r="220" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -26718,7 +26684,7 @@
         <v>uE9D9-format-indent-decrease.svg</v>
       </c>
     </row>
-    <row r="221" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -26752,7 +26718,7 @@
         <v>uE9DA-format-indent-increase.svg</v>
       </c>
     </row>
-    <row r="222" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -26786,7 +26752,7 @@
         <v>uE9DB-format-list-ordered.svg</v>
       </c>
     </row>
-    <row r="223" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -26820,7 +26786,7 @@
         <v>uE9DC-format-list-unordered.svg</v>
       </c>
     </row>
-    <row r="224" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -26854,7 +26820,7 @@
         <v>uE9DD-file.svg</v>
       </c>
     </row>
-    <row r="225" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -26882,7 +26848,7 @@
         <v>uE9DE-file-bug.svg</v>
       </c>
     </row>
-    <row r="226" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -26916,7 +26882,7 @@
         <v>uE9DF-file-code.svg</v>
       </c>
     </row>
-    <row r="227" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -26950,7 +26916,7 @@
         <v>uE9E0-file-comment.svg</v>
       </c>
     </row>
-    <row r="228" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -26984,7 +26950,7 @@
         <v>uE9E1-file-content.svg</v>
       </c>
     </row>
-    <row r="229" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -27018,7 +26984,7 @@
         <v>uE9E2-file-image.svg</v>
       </c>
     </row>
-    <row r="230" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -27052,7 +27018,7 @@
         <v>uE9E3-file-preview.svg</v>
       </c>
     </row>
-    <row r="231" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -27086,7 +27052,7 @@
         <v>uE9E4-file-symlink.svg</v>
       </c>
     </row>
-    <row r="232" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -27123,7 +27089,7 @@
         <v>uE9E5-media-play.svg</v>
       </c>
     </row>
-    <row r="233" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -27160,7 +27126,7 @@
         <v>uE9E6-media-play-fill.svg</v>
       </c>
     </row>
-    <row r="234" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -27188,7 +27154,7 @@
         <v>uE9E7-play.svg</v>
       </c>
     </row>
-    <row r="235" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -27216,7 +27182,7 @@
         <v>uE9E8-play-fill.svg</v>
       </c>
     </row>
-    <row r="236" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -27244,7 +27210,7 @@
         <v>uE9E9-pause.svg</v>
       </c>
     </row>
-    <row r="237" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -27272,7 +27238,7 @@
         <v>uE9EA-pause-fill.svg</v>
       </c>
     </row>
-    <row r="238" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -27300,7 +27266,7 @@
         <v>uE9EB-play-resume.svg</v>
       </c>
     </row>
-    <row r="239" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -27328,7 +27294,7 @@
         <v>uE9EC-play-resume-fill.svg</v>
       </c>
     </row>
-    <row r="240" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -27356,7 +27322,7 @@
         <v>uE9ED-stop.svg</v>
       </c>
     </row>
-    <row r="241" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -27384,7 +27350,7 @@
         <v>uE9EE-stop-fill.svg</v>
       </c>
     </row>
-    <row r="242" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -27412,7 +27378,7 @@
         <v>uE9EF-fast-backward.svg</v>
       </c>
     </row>
-    <row r="243" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -27440,7 +27406,7 @@
         <v>uE9F0-fast-backward-fill.svg</v>
       </c>
     </row>
-    <row r="244" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -27468,7 +27434,7 @@
         <v>uE9F1-fast-forward.svg</v>
       </c>
     </row>
-    <row r="245" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -27496,7 +27462,7 @@
         <v>uE9F2-fast-forward-fill.svg</v>
       </c>
     </row>
-    <row r="246" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -27524,7 +27490,7 @@
         <v>uE9F3-previous-frame.svg</v>
       </c>
     </row>
-    <row r="247" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -27552,7 +27518,7 @@
         <v>uE9F4-previous-frame-fill.svg</v>
       </c>
     </row>
-    <row r="248" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -27580,7 +27546,7 @@
         <v>uE9F5-next-frame.svg</v>
       </c>
     </row>
-    <row r="249" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -27608,7 +27574,7 @@
         <v>uE9F6-next-frame-fill.svg</v>
       </c>
     </row>
-    <row r="250" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -27636,7 +27602,7 @@
         <v>uE9F7-record.svg</v>
       </c>
     </row>
-    <row r="251" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -27664,7 +27630,7 @@
         <v>uE9F8-record-fill.svg</v>
       </c>
     </row>
-    <row r="252" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -27698,7 +27664,7 @@
         <v>uE9F9-menu.svg</v>
       </c>
     </row>
-    <row r="253" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -27735,7 +27701,7 @@
         <v>uE9FA-navigate-close.svg</v>
       </c>
     </row>
-    <row r="254" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -27769,7 +27735,7 @@
         <v>uE9FB-navigate-back-circle.svg</v>
       </c>
     </row>
-    <row r="255" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -27803,7 +27769,7 @@
         <v>uE9FC-navigate-back-disc.svg</v>
       </c>
     </row>
-    <row r="256" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -27837,7 +27803,7 @@
         <v>uE9FD-navigate-forward-circle.svg</v>
       </c>
     </row>
-    <row r="257" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -27871,7 +27837,7 @@
         <v>uE9FE-navigate-forward-disc.svg</v>
       </c>
     </row>
-    <row r="258" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -27905,7 +27871,7 @@
         <v>uE9FF-navigate-history.svg</v>
       </c>
     </row>
-    <row r="259" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -27939,7 +27905,7 @@
         <v>uEA00-navigate-refresh.svg</v>
       </c>
     </row>
-    <row r="260" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -27976,7 +27942,7 @@
         <v>uEA01-navigate-reload.svg</v>
       </c>
     </row>
-    <row r="261" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -28010,7 +27976,7 @@
         <v>uEA02-status-error.svg</v>
       </c>
     </row>
-    <row r="262" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -28044,7 +28010,7 @@
         <v>uEA03-status-error-outline.svg</v>
       </c>
     </row>
-    <row r="263" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -28078,7 +28044,7 @@
         <v>uEA04-status-failure.svg</v>
       </c>
     </row>
-    <row r="264" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -28112,7 +28078,7 @@
         <v>uEA05-status-failure-outline.svg</v>
       </c>
     </row>
-    <row r="265" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -28143,7 +28109,7 @@
         <v>uEA06-status-help.svg</v>
       </c>
     </row>
-    <row r="266" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -28174,7 +28140,7 @@
         <v>uEA07-status-help-outline.svg</v>
       </c>
     </row>
-    <row r="267" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -28205,7 +28171,7 @@
         <v>uEA08-status-info.svg</v>
       </c>
     </row>
-    <row r="268" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -28236,7 +28202,7 @@
         <v>uEA09-status-info-outline.svg</v>
       </c>
     </row>
-    <row r="269" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -28264,7 +28230,7 @@
         <v>uEA0A-status-no.svg</v>
       </c>
     </row>
-    <row r="270" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -28292,7 +28258,7 @@
         <v>uEA0B-status-no-fill.svg</v>
       </c>
     </row>
-    <row r="271" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -28320,7 +28286,7 @@
         <v>uEA0C-status-pause.svg</v>
       </c>
     </row>
-    <row r="272" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -28348,7 +28314,7 @@
         <v>uEA0D-status-pause-outline.svg</v>
       </c>
     </row>
-    <row r="273" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -28376,7 +28342,7 @@
         <v>uEA0E-status-run.svg</v>
       </c>
     </row>
-    <row r="274" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -28404,7 +28370,7 @@
         <v>uEA0F-status-run-outline.svg</v>
       </c>
     </row>
-    <row r="275" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -28432,7 +28398,7 @@
         <v>uEA10-status-stop.svg</v>
       </c>
     </row>
-    <row r="276" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -28460,7 +28426,7 @@
         <v>uEA11-status-stop-outline.svg</v>
       </c>
     </row>
-    <row r="277" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -28488,7 +28454,7 @@
         <v>uEA12-status-success.svg</v>
       </c>
     </row>
-    <row r="278" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -28516,7 +28482,7 @@
         <v>uEA13-status-success-outline.svg</v>
       </c>
     </row>
-    <row r="279" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -28544,7 +28510,7 @@
         <v>uEA14-status-waiting.svg</v>
       </c>
     </row>
-    <row r="280" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -28572,7 +28538,7 @@
         <v>uEA15-status-waiting-fill.svg</v>
       </c>
     </row>
-    <row r="281" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -28600,7 +28566,7 @@
         <v>uEA16-status-warning.svg</v>
       </c>
     </row>
-    <row r="282" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -28628,7 +28594,7 @@
         <v>uEA17-status-warning-outline.svg</v>
       </c>
     </row>
-    <row r="283" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -28656,7 +28622,7 @@
         <v>uEA18-status-success-box.svg</v>
       </c>
     </row>
-    <row r="284" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -28684,7 +28650,7 @@
         <v>uEA19-test-fill.svg</v>
       </c>
     </row>
-    <row r="285" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -28712,7 +28678,7 @@
         <v>uEA1A-test.svg</v>
       </c>
     </row>
-    <row r="286" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -28740,7 +28706,7 @@
         <v>uEA1B-test-auto-fill.svg</v>
       </c>
     </row>
-    <row r="287" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -28768,7 +28734,7 @@
         <v>uEA1C-test-auto.svg</v>
       </c>
     </row>
-    <row r="288" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -28796,7 +28762,7 @@
         <v>uEA1D-test-user-fill.svg</v>
       </c>
     </row>
-    <row r="289" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -28824,7 +28790,7 @@
         <v>uEA1E-test-user.svg</v>
       </c>
     </row>
-    <row r="290" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -28852,7 +28818,7 @@
         <v>uEA1F-test-explore-fill.svg</v>
       </c>
     </row>
-    <row r="291" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -28880,7 +28846,7 @@
         <v>uEA20-trigger.svg</v>
       </c>
     </row>
-    <row r="292" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -28908,7 +28874,7 @@
         <v>uEA21-trigger-auto.svg</v>
       </c>
     </row>
-    <row r="293" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -28936,7 +28902,7 @@
         <v>uEA22-trigger-user.svg</v>
       </c>
     </row>
-    <row r="294" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -28964,7 +28930,7 @@
         <v>uEA23-folder-plan.svg</v>
       </c>
     </row>
-    <row r="295" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -28992,7 +28958,7 @@
         <v>uEA24-folder-query.svg</v>
       </c>
     </row>
-    <row r="296" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -29020,7 +28986,7 @@
         <v>uEA25-log.svg</v>
       </c>
     </row>
-    <row r="297" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -29048,7 +29014,7 @@
         <v>uEA26-step.svg</v>
       </c>
     </row>
-    <row r="298" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -29076,7 +29042,7 @@
         <v>uEA27-step-shared.svg</v>
       </c>
     </row>
-    <row r="299" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -29104,7 +29070,7 @@
         <v>uEA28-server-remote.svg</v>
       </c>
     </row>
-    <row r="300" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -29138,7 +29104,7 @@
         <v>uEA29-diff-image.svg</v>
       </c>
     </row>
-    <row r="301" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -29172,7 +29138,7 @@
         <v>uEA2A-diff-image-overlay.svg</v>
       </c>
     </row>
-    <row r="302" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -29206,7 +29172,7 @@
         <v>uEA2B-diff-image-pixel.svg</v>
       </c>
     </row>
-    <row r="303" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -29240,7 +29206,7 @@
         <v>uEA2C-diff-inline.svg</v>
       </c>
     </row>
-    <row r="304" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -29274,7 +29240,7 @@
         <v>uEA2D-diff-side-by-side.svg</v>
       </c>
     </row>
-    <row r="305" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -29308,7 +29274,7 @@
         <v>uEA2E-repo.svg</v>
       </c>
     </row>
-    <row r="306" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -29342,7 +29308,7 @@
         <v>uEA2F-repo-fill.svg</v>
       </c>
     </row>
-    <row r="307" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -29376,7 +29342,7 @@
         <v>uEA30-repo-git.svg</v>
       </c>
     </row>
-    <row r="308" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -29404,7 +29370,7 @@
         <v>uEA31-tfvc-change-list.svg</v>
       </c>
     </row>
-    <row r="309" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -29438,7 +29404,7 @@
         <v>uEA32-repo-submodule.svg</v>
       </c>
     </row>
-    <row r="310" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -29466,7 +29432,7 @@
         <v>uEA33-tfvc-folder.svg</v>
       </c>
     </row>
-    <row r="311" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -29500,7 +29466,7 @@
         <v>uEA34-repo-tfvc.svg</v>
       </c>
     </row>
-    <row r="312" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -29528,7 +29494,7 @@
         <v>uEA35-tfvc-branch.svg</v>
       </c>
     </row>
-    <row r="313" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -29556,7 +29522,7 @@
         <v>uEA36-tfvc-branch-locked.svg</v>
       </c>
     </row>
-    <row r="314" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -29584,7 +29550,7 @@
         <v>uEA37-tfvc-commit.svg</v>
       </c>
     </row>
-    <row r="315" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -29612,7 +29578,7 @@
         <v>uEA38-tfvc-compare.svg</v>
       </c>
     </row>
-    <row r="316" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -29640,7 +29606,7 @@
         <v>uEA39-tfvc-merge.svg</v>
       </c>
     </row>
-    <row r="317" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -29668,7 +29634,7 @@
         <v>uEA3A-tfvc-pull-request.svg</v>
       </c>
     </row>
-    <row r="318" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -29696,7 +29662,7 @@
         <v>uEA3B-tfvc-shelveset.svg</v>
       </c>
     </row>
-    <row r="319" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -29724,7 +29690,7 @@
         <v>uEA3C-tfvc-raw-source.svg</v>
       </c>
     </row>
-    <row r="320" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -29752,7 +29718,7 @@
         <v>uEA3D-group-rows.svg</v>
       </c>
     </row>
-    <row r="321" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -29786,7 +29752,7 @@
         <v>uEA3E-recycle-bin-restore.svg</v>
       </c>
     </row>
-    <row r="322" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -29814,7 +29780,7 @@
         <v>uEA3F-view-list.svg</v>
       </c>
     </row>
-    <row r="323" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -29842,7 +29808,7 @@
         <v>uEA40-view-list-group.svg</v>
       </c>
     </row>
-    <row r="324" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -29870,7 +29836,7 @@
         <v>uEA41-view-list-tree.svg</v>
       </c>
     </row>
-    <row r="325" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -29898,7 +29864,7 @@
         <v>uEA42-work-item.svg</v>
       </c>
     </row>
-    <row r="326" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -29926,7 +29892,7 @@
         <v>uEA43-work-item-bug.svg</v>
       </c>
     </row>
-    <row r="327" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -29954,7 +29920,7 @@
         <v>uEA44-work-item-move.svg</v>
       </c>
     </row>
-    <row r="328" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -29982,7 +29948,7 @@
         <v>uEA45-merge-duplicate.svg</v>
       </c>
     </row>
-    <row r="329" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -30010,7 +29976,7 @@
         <v>uEA46-storyboard.svg</v>
       </c>
     </row>
-    <row r="330" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -30047,7 +30013,7 @@
         <v>uEA47-auto-fill-template.svg</v>
       </c>
     </row>
-    <row r="331" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -30081,7 +30047,7 @@
         <v>uEA48-recycle-bin.svg</v>
       </c>
     </row>
-    <row r="332" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -30118,7 +30084,7 @@
         <v>uEA49-dot.svg</v>
       </c>
     </row>
-    <row r="333" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -30155,7 +30121,7 @@
         <v>uEA4A-square.svg</v>
       </c>
     </row>
-    <row r="334" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -30192,7 +30158,7 @@
         <v>uEA4B-row-child.svg</v>
       </c>
     </row>
-    <row r="335" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -30229,7 +30195,7 @@
         <v>uEA4C-log-remove.svg</v>
       </c>
     </row>
-    <row r="336" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -30266,7 +30232,7 @@
         <v>uEA4D-live-update-feed-off.svg</v>
       </c>
     </row>
-    <row r="337" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -30303,7 +30269,7 @@
         <v>uEA4E-corner-resize.svg</v>
       </c>
     </row>
-    <row r="338" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -30340,7 +30306,7 @@
         <v>uEA4F-link-remove.svg</v>
       </c>
     </row>
-    <row r="339" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -30377,7 +30343,7 @@
         <v>uEA50-spinner.svg</v>
       </c>
     </row>
-    <row r="340" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -30414,7 +30380,7 @@
         <v>uEA51-personalize.svg</v>
       </c>
     </row>
-    <row r="341" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -30451,7 +30417,7 @@
         <v>uEA52-parameter.svg</v>
       </c>
     </row>
-    <row r="342" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -30488,7 +30454,7 @@
         <v>uEA53-step-insert.svg</v>
       </c>
     </row>
-    <row r="343" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -30525,7 +30491,7 @@
         <v>uEA54-step-shared-add.svg</v>
       </c>
     </row>
-    <row r="344" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -30562,7 +30528,7 @@
         <v>uEA55-step-shared-insert.svg</v>
       </c>
     </row>
-    <row r="345" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -30599,7 +30565,7 @@
         <v>uEA56-process.svg</v>
       </c>
     </row>
-    <row r="346" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -30636,7 +30602,7 @@
         <v>uEA57-process-meta-task.svg</v>
       </c>
     </row>
-    <row r="347" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -30673,7 +30639,7 @@
         <v>uEA58-column-option.svg</v>
       </c>
     </row>
-    <row r="348" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -30710,7 +30676,7 @@
         <v>uEA59-globe.svg</v>
       </c>
     </row>
-    <row r="349" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -30747,7 +30713,7 @@
         <v>uEA5A-locale-language.svg</v>
       </c>
     </row>
-    <row r="350" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -30784,7 +30750,7 @@
         <v>uEA5B-locale-timezone.svg</v>
       </c>
     </row>
-    <row r="351" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -30821,7 +30787,7 @@
         <v>uEA5C-feedback-positive-outline.svg</v>
       </c>
     </row>
-    <row r="352" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -30858,7 +30824,7 @@
         <v>uEA5D-feedback-negative-outline.svg</v>
       </c>
     </row>
-    <row r="353" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -30895,7 +30861,7 @@
         <v>uEA5E-contact-card.svg</v>
       </c>
     </row>
-    <row r="354" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -30932,7 +30898,7 @@
         <v>uEA5F-triangle.svg</v>
       </c>
     </row>
-    <row r="355" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -30969,7 +30935,7 @@
         <v>uEA60-brand-vsts.svg</v>
       </c>
     </row>
-    <row r="356" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -31006,7 +30972,7 @@
         <v>uEA61-status-success-sm.svg</v>
       </c>
     </row>
-    <row r="357" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -31043,7 +31009,7 @@
         <v>uEA62-status-warning-sm.svg</v>
       </c>
     </row>
-    <row r="358" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -31080,7 +31046,7 @@
         <v>uEA63-status-info-sm.svg</v>
       </c>
     </row>
-    <row r="359" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -31117,7 +31083,7 @@
         <v>uEA64-status-failure-sm.svg</v>
       </c>
     </row>
-    <row r="360" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -31154,7 +31120,7 @@
         <v>uEA65-status-error-sm.svg</v>
       </c>
     </row>
-    <row r="361" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -31191,7 +31157,7 @@
         <v>uEA66-status-run-sm.svg</v>
       </c>
     </row>
-    <row r="362" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -31228,7 +31194,7 @@
         <v>uEA67-status-help-sm.svg</v>
       </c>
     </row>
-    <row r="363" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -31265,7 +31231,7 @@
         <v>uEA68-status-stop-sm.svg</v>
       </c>
     </row>
-    <row r="364" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -31302,7 +31268,7 @@
         <v>uEA69-status-pause-sm.svg</v>
       </c>
     </row>
-    <row r="365" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -31339,7 +31305,7 @@
         <v>uEA6A-status-waiting-fill-sm.svg</v>
       </c>
     </row>
-    <row r="366" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -31376,7 +31342,7 @@
         <v>uEA6B-status-no-fill-sm.svg</v>
       </c>
     </row>
-    <row r="367" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -31413,7 +31379,7 @@
         <v>uEA6C-assessment-group.svg</v>
       </c>
     </row>
-    <row r="368" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -31450,7 +31416,7 @@
         <v>uEA6D-table.svg</v>
       </c>
     </row>
-    <row r="369" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -31487,7 +31453,7 @@
         <v>uEA6E-timeline-delivery.svg</v>
       </c>
     </row>
-    <row r="370" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -31524,7 +31490,7 @@
         <v>uEA6F-timeline-progress.svg</v>
       </c>
     </row>
-    <row r="371" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -31561,7 +31527,7 @@
         <v>uEA70-application-window.svg</v>
       </c>
     </row>
-    <row r="372" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -31598,7 +31564,7 @@
         <v>uEA71-application-window.svg</v>
       </c>
     </row>
-    <row r="373" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -31635,7 +31601,7 @@
         <v>uEA72-file-type-html.svg</v>
       </c>
     </row>
-    <row r="374" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -31672,7 +31638,7 @@
         <v>uEA73-file-type-js.svg</v>
       </c>
     </row>
-    <row r="375" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -31709,7 +31675,7 @@
         <v>uEA74-file-type-jsproj.svg</v>
       </c>
     </row>
-    <row r="376" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -31746,7 +31712,7 @@
         <v>uEA75-file-type-cs.svg</v>
       </c>
     </row>
-    <row r="377" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -31783,7 +31749,7 @@
         <v>uEA76-file-type-csproj.svg</v>
       </c>
     </row>
-    <row r="378" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -31820,7 +31786,7 @@
         <v>uEA77-file-type-vb.svg</v>
       </c>
     </row>
-    <row r="379" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -31857,7 +31823,7 @@
         <v>uEA78-file-type-vbproj.svg</v>
       </c>
     </row>
-    <row r="380" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -31894,7 +31860,7 @@
         <v>uEA79-file-type-cpp.svg</v>
       </c>
     </row>
-    <row r="381" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -31931,7 +31897,7 @@
         <v>uEA7A-file-type-vcxproj.svg</v>
       </c>
     </row>
-    <row r="382" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -31968,7 +31934,7 @@
         <v>uEA7B-file-type-fs.svg</v>
       </c>
     </row>
-    <row r="383" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -32005,7 +31971,7 @@
         <v>uEA7C-file-type-fsproj.svg</v>
       </c>
     </row>
-    <row r="384" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -32042,7 +32008,7 @@
         <v>uEA7D-file-type-python.svg</v>
       </c>
     </row>
-    <row r="385" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -32079,7 +32045,7 @@
         <v>uEA7E-file-type-pyproj.svg</v>
       </c>
     </row>
-    <row r="386" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -32116,7 +32082,7 @@
         <v>uEA7F-file-type-typescript.svg</v>
       </c>
     </row>
-    <row r="387" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -32153,7 +32119,7 @@
         <v>uEA80-file-type-coffeescript.svg</v>
       </c>
     </row>
-    <row r="388" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -32190,7 +32156,7 @@
         <v>uEA81-file-type-aspx.svg</v>
       </c>
     </row>
-    <row r="389" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -32227,7 +32193,7 @@
         <v>uEA82-file-type-css.svg</v>
       </c>
     </row>
-    <row r="390" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -32264,7 +32230,7 @@
         <v>uEA83-file-type-sass.svg</v>
       </c>
     </row>
-    <row r="391" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -32301,7 +32267,7 @@
         <v>uEA84-file-type-less.svg</v>
       </c>
     </row>
-    <row r="392" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -32338,7 +32304,7 @@
         <v>uEA85-file-type-json.svg</v>
       </c>
     </row>
-    <row r="393" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -32375,7 +32341,7 @@
         <v>uEA86-file-type-xml.svg</v>
       </c>
     </row>
-    <row r="394" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -32412,7 +32378,7 @@
         <v>uEA87-file-type-md.svg</v>
       </c>
     </row>
-    <row r="395" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -32449,7 +32415,7 @@
         <v>uEA88-file-type-powershell.svg</v>
       </c>
     </row>
-    <row r="396" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -32486,7 +32452,7 @@
         <v>uEA89-file-type-cmd.svg</v>
       </c>
     </row>
-    <row r="397" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -32523,7 +32489,7 @@
         <v>uEA8A-file-type-java.svg</v>
       </c>
     </row>
-    <row r="398" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -32560,7 +32526,7 @@
         <v>uEA8B-file-type-sql.svg</v>
       </c>
     </row>
-    <row r="399" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -32597,7 +32563,7 @@
         <v>uEA8C-file-stack.svg</v>
       </c>
     </row>
-    <row r="400" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -32634,7 +32600,7 @@
         <v>uEA8D-script.svg</v>
       </c>
     </row>
-    <row r="401" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -32671,7 +32637,7 @@
         <v>uEA8E-default-executable.svg</v>
       </c>
     </row>
-    <row r="402" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -32708,7 +32674,7 @@
         <v>uEA8F-file-type-template.svg</v>
       </c>
     </row>
-    <row r="403" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -32745,7 +32711,7 @@
         <v>uEA90-split.svg</v>
       </c>
     </row>
-    <row r="404" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -32782,7 +32748,7 @@
         <v>uEA91-image-action-log.svg</v>
       </c>
     </row>
-    <row r="405" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -32819,7 +32785,7 @@
         <v>uEA92-shield.svg</v>
       </c>
     </row>
-    <row r="406" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -32856,7 +32822,7 @@
         <v>uEA93-shield-fill.svg</v>
       </c>
     </row>
-    <row r="407" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -32893,7 +32859,7 @@
         <v>uEA94-tfvc-fork.svg</v>
       </c>
     </row>
-    <row r="408" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -32930,7 +32896,7 @@
         <v>uEA95-status-run-box.svg</v>
       </c>
     </row>
-    <row r="409" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -32967,7 +32933,7 @@
         <v>uEA96-arrow-import.svg</v>
       </c>
     </row>
-    <row r="410" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -33004,7 +32970,7 @@
         <v>uEA97-new-team-project.svg</v>
       </c>
     </row>
-    <row r="411" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -33041,7 +33007,7 @@
         <v>uEA98-package-feed-mix.svg</v>
       </c>
     </row>
-    <row r="412" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -33078,7 +33044,7 @@
         <v>uEA99-package-feed-remote.svg</v>
       </c>
     </row>
-    <row r="413" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -33115,7 +33081,7 @@
         <v>uEA9A-package-feed-local.svg</v>
       </c>
     </row>
-    <row r="414" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -33152,7 +33118,7 @@
         <v>uEA9B-work-item-bar-outline.svg</v>
       </c>
     </row>
-    <row r="415" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -33189,7 +33155,7 @@
         <v>uEA9C-sort-asc.svg</v>
       </c>
     </row>
-    <row r="416" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -33226,7 +33192,7 @@
         <v>uEA9D-sort-desc.svg</v>
       </c>
     </row>
-    <row r="417" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -33263,7 +33229,7 @@
         <v>uEA9E-plug-disconnected.svg</v>
       </c>
     </row>
-    <row r="418" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -33300,7 +33266,7 @@
         <v>uEA9F-plug-connected.svg</v>
       </c>
     </row>
-    <row r="419" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -33337,7 +33303,7 @@
         <v>uEAA0-plug-disconnected-fill.svg</v>
       </c>
     </row>
-    <row r="420" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -33374,7 +33340,7 @@
         <v>uEAA1-plug-connected-fill.svg</v>
       </c>
     </row>
-    <row r="421" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -33411,7 +33377,7 @@
         <v>uEAA2-sync-user.svg</v>
       </c>
     </row>
-    <row r="422" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -33448,7 +33414,7 @@
         <v>uEAA3-clear-filter.svg</v>
       </c>
     </row>
-    <row r="423" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -33485,7 +33451,7 @@
         <v>uEAA4-watch-eye-off.svg</v>
       </c>
     </row>
-    <row r="424" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -33522,7 +33488,7 @@
         <v>uEAA5-shopping-cart.svg</v>
       </c>
     </row>
-    <row r="425" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -33559,7 +33525,7 @@
         <v>uEAA6-shopping-cart-fill.svg</v>
       </c>
     </row>
-    <row r="426" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -33571,7 +33537,7 @@
         <v>60071</v>
       </c>
       <c r="E426" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F426">
         <v>1.1000000000000001</v>
@@ -33580,23 +33546,23 @@
         <v>17</v>
       </c>
       <c r="H426" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="I426" t="s">
         <v>15</v>
       </c>
       <c r="J426" t="s">
-        <v>701</v>
+        <v>598</v>
       </c>
       <c r="K426" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="L426" t="str">
         <f t="shared" si="13"/>
-        <v>uEAA7-update-queue.svg</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+        <v>uEAA7-control-panel.svg</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -33608,7 +33574,7 @@
         <v>60072</v>
       </c>
       <c r="E427" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F427">
         <v>1.1000000000000001</v>
@@ -33617,7 +33583,7 @@
         <v>17</v>
       </c>
       <c r="H427" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I427" t="s">
         <v>15</v>
@@ -33626,14 +33592,14 @@
         <v>602</v>
       </c>
       <c r="K427" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="L427" t="str">
         <f t="shared" si="13"/>
         <v>uEAA8-add-team.svg</v>
       </c>
     </row>
-    <row r="428" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -33649,7 +33615,7 @@
         <v>uEAA9-.svg</v>
       </c>
     </row>
-    <row r="429" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -33665,7 +33631,7 @@
         <v>uEAAA-.svg</v>
       </c>
     </row>
-    <row r="430" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -33681,7 +33647,7 @@
         <v>uEAAB-.svg</v>
       </c>
     </row>
-    <row r="431" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -33697,7 +33663,7 @@
         <v>uEAAC-.svg</v>
       </c>
     </row>
-    <row r="432" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -33713,7 +33679,7 @@
         <v>uEAAD-.svg</v>
       </c>
     </row>
-    <row r="433" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -33729,7 +33695,7 @@
         <v>uEAAE-.svg</v>
       </c>
     </row>
-    <row r="434" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -33745,7 +33711,7 @@
         <v>uEAAF-.svg</v>
       </c>
     </row>
-    <row r="435" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -33758,7 +33724,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="436" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -33771,7 +33737,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="437" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -33784,7 +33750,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="438" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -33797,7 +33763,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="439" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -33810,7 +33776,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="440" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -33823,7 +33789,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="441" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -33836,7 +33802,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="442" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -33849,7 +33815,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="443" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -33862,7 +33828,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="444" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -33875,7 +33841,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="445" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -33888,7 +33854,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="446" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -33901,7 +33867,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="447" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -33914,7 +33880,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="448" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -33927,7 +33893,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="449" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -33940,7 +33906,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="450" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -33953,7 +33919,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="451" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -33966,7 +33932,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="452" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -33979,7 +33945,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="453" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -33992,7 +33958,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="454" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -34005,7 +33971,7 @@
         <v>u0-.svg</v>
       </c>
     </row>
-    <row r="455" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -34014,7 +33980,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="456" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -34023,7 +33989,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="457" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -34032,7 +33998,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="458" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -34041,7 +34007,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="459" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -34050,7 +34016,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="460" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -34059,7 +34025,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="461" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -34068,7 +34034,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="462" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -34077,7 +34043,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="463" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -34086,7 +34052,7 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="464" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -34095,90 +34061,90 @@
         <v>u-.svg</v>
       </c>
     </row>
-    <row r="465" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="470" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="471" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="472" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="473" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="474" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="475" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="476" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="477" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="478" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="479" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="480" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="481" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="482" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="483" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="484" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="485" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="486" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="487" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="488" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="489" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="490" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="491" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="492" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="493" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="494" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="495" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="496" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="497" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="498" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="499" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="500" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="501" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="502" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="503" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="504" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="505" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="506" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="507" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="508" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="509" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="510" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="511" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="512" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="513" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="514" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="515" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="516" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="517" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="518" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="519" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="520" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="521" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="522" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="523" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="524" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="525" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="526" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="527" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="528" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="529" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="530" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="531" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="532" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" spans="1:1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A3:K332">
     <sortCondition ref="J3:J332"/>
@@ -34195,19 +34161,19 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="F427" sqref="F427"/>
+      <selection activeCell="H430" sqref="H430"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.86328125" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" style="14"/>
-    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="16.86328125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>549</v>
       </c>
@@ -34242,7 +34208,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'Bowtie v1.0 reorg'!A3</f>
         <v>1</v>
@@ -34292,7 +34258,7 @@
         <v>{"id":1,"name":"arrow-up","unicode":"E900","decimal":59648,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","up"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'Bowtie v1.0 reorg'!A4</f>
         <v>2</v>
@@ -34342,7 +34308,7 @@
         <v>{"id":2,"name":"arrow-left","unicode":"E901","decimal":59649,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","left","back"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'Bowtie v1.0 reorg'!A5</f>
         <v>3</v>
@@ -34392,7 +34358,7 @@
         <v>{"id":3,"name":"arrow-down","unicode":"E902","decimal":59650,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","down"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'Bowtie v1.0 reorg'!A6</f>
         <v>4</v>
@@ -34442,7 +34408,7 @@
         <v>{"id":4,"name":"arrow-right","unicode":"E903","decimal":59651,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","right","next"],"usage":"Indicate direction, movement."}</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'Bowtie v1.0 reorg'!A7</f>
         <v>5</v>
@@ -34492,7 +34458,7 @@
         <v>{"id":5,"name":"arrow-up-left","unicode":"E904","decimal":59652,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow"],"usage":"not used, created to align with other arrow icons"}</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'Bowtie v1.0 reorg'!A8</f>
         <v>6</v>
@@ -34542,7 +34508,7 @@
         <v>{"id":6,"name":"arrow-up-right","unicode":"E905","decimal":59653,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","increase"],"usage":"Used inline with number label to indicate status trend - increase"}</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'Bowtie v1.0 reorg'!A9</f>
         <v>7</v>
@@ -34592,7 +34558,7 @@
         <v>{"id":7,"name":"arrow-down-left","unicode":"E906","decimal":59654,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow"],"usage":"not used, created to align with other arrow icons"}</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'Bowtie v1.0 reorg'!A10</f>
         <v>8</v>
@@ -34642,7 +34608,7 @@
         <v>{"id":8,"name":"arrow-down-right","unicode":"E907","decimal":59655,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","decrease"],"usage":"Use inline with number label to indicate status trend - decrease"}</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'Bowtie v1.0 reorg'!A11</f>
         <v>9</v>
@@ -34692,7 +34658,7 @@
         <v>{"id":9,"name":"arrow-export","unicode":"E908","decimal":59656,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","export"],"usage":""}</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'Bowtie v1.0 reorg'!A12</f>
         <v>10</v>
@@ -34742,7 +34708,7 @@
         <v>{"id":10,"name":"arrow-open","unicode":"E909","decimal":59657,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","open"],"usage":""}</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'Bowtie v1.0 reorg'!A13</f>
         <v>11</v>
@@ -34792,7 +34758,7 @@
         <v>{"id":11,"name":"sort","unicode":"E90A","decimal":59658,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["sort","re-order"],"usage":""}</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>'Bowtie v1.0 reorg'!A14</f>
         <v>12</v>
@@ -34842,7 +34808,7 @@
         <v>{"id":12,"name":"sort-ascending","unicode":"E90B","decimal":59659,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","up","sort","ascending"],"usage":"intentional duplicate of arrow-up"}</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'Bowtie v1.0 reorg'!A15</f>
         <v>13</v>
@@ -34892,7 +34858,7 @@
         <v>{"id":13,"name":"sort-descending","unicode":"E90C","decimal":59660,"version":"1.0","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","down","sort","descending"],"usage":"intentional duplicate of arrow-down"}</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'Bowtie v1.0 reorg'!A16</f>
         <v>14</v>
@@ -34942,7 +34908,7 @@
         <v>{"id":14,"name":"switch","unicode":"E90D","decimal":59661,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["arrow","switch","exchange","left","right"],"usage":""}</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>'Bowtie v1.0 reorg'!A17</f>
         <v>15</v>
@@ -34992,7 +34958,7 @@
         <v>{"id":15,"name":"synchronize","unicode":"E90E","decimal":59662,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["arrow","synchronize","sync","update","upload","download"],"usage":"Used for synchronizing and data exchange, different from refresh"}</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>'Bowtie v1.0 reorg'!A18</f>
         <v>16</v>
@@ -35042,7 +35008,7 @@
         <v>{"id":16,"name":"transfer-download","unicode":"E90F","decimal":59663,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["download","bottom","arrow","down"],"usage":"Used for download or go to bottom"}</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>'Bowtie v1.0 reorg'!A19</f>
         <v>17</v>
@@ -35092,7 +35058,7 @@
         <v>{"id":17,"name":"transfer-upload","unicode":"E910","decimal":59664,"version":"1.0","style":"","subset":"VSTS","group":"Arrow","keywords":["upload","top","arrow","up"],"usage":"Used for upload or go to top"}</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>'Bowtie v1.0 reorg'!A20</f>
         <v>18</v>
@@ -35142,7 +35108,7 @@
         <v>{"id":18,"name":"azure-api-management","unicode":"E911","decimal":59665,"version":"1.0","style":"light","subset":"VSTS","group":"Brand","keywords":["cloud","azure","api","node","connect"],"usage":""}</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>'Bowtie v1.0 reorg'!A21</f>
         <v>19</v>
@@ -35192,7 +35158,7 @@
         <v>{"id":19,"name":"azure-service-endpoint","unicode":"E912","decimal":59666,"version":"1.0","style":"light","subset":"VSTS","group":"Brand","keywords":["azure","endpoint","connect","node"],"usage":""}</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>'Bowtie v1.0 reorg'!A22</f>
         <v>20</v>
@@ -35242,7 +35208,7 @@
         <v>{"id":20,"name":"brand-android","unicode":"E913","decimal":59667,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["android"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>'Bowtie v1.0 reorg'!A23</f>
         <v>21</v>
@@ -35292,7 +35258,7 @@
         <v>{"id":21,"name":"brand-facebook","unicode":"E914","decimal":59668,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["facebook"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>'Bowtie v1.0 reorg'!A24</f>
         <v>22</v>
@@ -35342,7 +35308,7 @@
         <v>{"id":22,"name":"brand-git","unicode":"E915","decimal":59669,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["git","version","control"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>'Bowtie v1.0 reorg'!A25</f>
         <v>23</v>
@@ -35392,7 +35358,7 @@
         <v>{"id":23,"name":"brand-github","unicode":"E916","decimal":59670,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["github"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>'Bowtie v1.0 reorg'!A26</f>
         <v>24</v>
@@ -35442,7 +35408,7 @@
         <v>{"id":24,"name":"brand-maven","unicode":"E917","decimal":59671,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["maven"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>'Bowtie v1.0 reorg'!A27</f>
         <v>25</v>
@@ -35492,7 +35458,7 @@
         <v>{"id":25,"name":"brand-mtm","unicode":"E918","decimal":59672,"version":"1.0","style":"","subset":"VSTS","group":"Brand","keywords":["mtm","microsoft","test","manager"],"usage":""}</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>'Bowtie v1.0 reorg'!A28</f>
         <v>26</v>
@@ -35542,7 +35508,7 @@
         <v>{"id":26,"name":"brand-npm","unicode":"E919","decimal":59673,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["npm"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>'Bowtie v1.0 reorg'!A29</f>
         <v>27</v>
@@ -35592,7 +35558,7 @@
         <v>{"id":27,"name":"brand-nuget","unicode":"E91A","decimal":59674,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["nuget"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>'Bowtie v1.0 reorg'!A30</f>
         <v>28</v>
@@ -35642,7 +35608,7 @@
         <v>{"id":28,"name":"brand-tfvc","unicode":"E91B","decimal":59675,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["tfvc","team","foundation","version","control"],"usage":"Feature icon for TFVC (Team Foundation Version Control). Not a logo."}</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>'Bowtie v1.0 reorg'!A31</f>
         <v>29</v>
@@ -35692,7 +35658,7 @@
         <v>{"id":29,"name":"brand-twitter","unicode":"E91C","decimal":59676,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["twitter"],"usage":"Use of 3rd party brand icons has to be evaluated and approved by LCA case-by-case."}</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>'Bowtie v1.0 reorg'!A32</f>
         <v>30</v>
@@ -35742,7 +35708,7 @@
         <v>{"id":30,"name":"brand-visualstudio","unicode":"E91D","decimal":59677,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["visual","studio"],"usage":"Visual Studio logo mark."}</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>'Bowtie v1.0 reorg'!A33</f>
         <v>31</v>
@@ -35792,7 +35758,7 @@
         <v>{"id":31,"name":"brand-windows","unicode":"E91E","decimal":59678,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["windows"],"usage":"Windows logo mark."}</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>'Bowtie v1.0 reorg'!A34</f>
         <v>32</v>
@@ -35842,7 +35808,7 @@
         <v>{"id":32,"name":"git","unicode":"E91F","decimal":59679,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["git"],"usage":"intentional duplicate of brand-git"}</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>'Bowtie v1.0 reorg'!A35</f>
         <v>33</v>
@@ -35892,7 +35858,7 @@
         <v>{"id":33,"name":"logo-visual-studio","unicode":"E920","decimal":59680,"version":"1.0","style":"bold","subset":"VSTS","group":"Brand","keywords":["visual","studio"],"usage":"intentional duplicate of brand-visualstudio"}</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>'Bowtie v1.0 reorg'!A36</f>
         <v>34</v>
@@ -35942,7 +35908,7 @@
         <v>{"id":34,"name":"tfvc-repo","unicode":"E921","decimal":59681,"version":"1.0","style":"","subset":"VSTS","group":"Brand","keywords":["tfvc","team","foundation","version","control"],"usage":"intentional duplicate of brand-tfvc"}</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>'Bowtie v1.0 reorg'!A37</f>
         <v>35</v>
@@ -35992,7 +35958,7 @@
         <v>{"id":35,"name":"chart-area","unicode":"E922","decimal":59682,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","area"],"usage":"Area chart type."}</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>'Bowtie v1.0 reorg'!A38</f>
         <v>36</v>
@@ -36042,7 +36008,7 @@
         <v>{"id":36,"name":"chart-bar","unicode":"E923","decimal":59683,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","bar"],"usage":"Bar chart type."}</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>'Bowtie v1.0 reorg'!A39</f>
         <v>37</v>
@@ -36092,7 +36058,7 @@
         <v>{"id":37,"name":"chart-column","unicode":"E924","decimal":59684,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","column"],"usage":"Column chart type."}</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>'Bowtie v1.0 reorg'!A40</f>
         <v>38</v>
@@ -36142,7 +36108,7 @@
         <v>{"id":38,"name":"chart-pie","unicode":"E925","decimal":59685,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","pie"],"usage":"Pie chart type."}</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>'Bowtie v1.0 reorg'!A41</f>
         <v>39</v>
@@ -36192,7 +36158,7 @@
         <v>{"id":39,"name":"chart-pivot","unicode":"E926","decimal":59686,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","pivot"],"usage":"Pivot chart type or concept for pivot"}</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>'Bowtie v1.0 reorg'!A42</f>
         <v>40</v>
@@ -36242,7 +36208,7 @@
         <v>{"id":40,"name":"chart-stacked-area","unicode":"E927","decimal":59687,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","stack","area"],"usage":"Stacked area chart type"}</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>'Bowtie v1.0 reorg'!A43</f>
         <v>41</v>
@@ -36292,7 +36258,7 @@
         <v>{"id":41,"name":"chart-stacked-bar","unicode":"E928","decimal":59688,"version":"1.0","style":"bold","subset":"VSTS","group":"Chart","keywords":["chart","stack","bar"],"usage":"Stacked bar chart type"}</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>'Bowtie v1.0 reorg'!A44</f>
         <v>42</v>
@@ -36342,7 +36308,7 @@
         <v>{"id":42,"name":"chart-stacked-line","unicode":"E929","decimal":59689,"version":"1.0","style":"light","subset":"VSTS","group":"Chart","keywords":["chart","stack","line"],"usage":"Stacked line chart type"}</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>'Bowtie v1.0 reorg'!A45</f>
         <v>43</v>
@@ -36392,7 +36358,7 @@
         <v>{"id":43,"name":"build-queue-new","unicode":"E92A","decimal":59690,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["build","queue","add","plus"],"usage":"New Build queue. Combo icon not recommended. Use simple plus icon if possible."}</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>'Bowtie v1.0 reorg'!A46</f>
         <v>44</v>
@@ -36442,7 +36408,7 @@
         <v>{"id":44,"name":"clone-to-desktop","unicode":"E92B","decimal":59691,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["clone","desktop","download","local","install","setup"],"usage":"Used for repo action Clone to desktop. Can also be used for setup on desktop, download to desktop, create a local copy, etc."}</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>'Bowtie v1.0 reorg'!A47</f>
         <v>45</v>
@@ -36492,7 +36458,7 @@
         <v>{"id":45,"name":"install","unicode":"E92C","decimal":59692,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["install","disk","download","setup","arrow","down"],"usage":""}</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>'Bowtie v1.0 reorg'!A48</f>
         <v>46</v>
@@ -36542,7 +36508,7 @@
         <v>{"id":46,"name":"comment","unicode":"E92D","decimal":59693,"version":"1.0","style":"bold","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>'Bowtie v1.0 reorg'!A49</f>
         <v>47</v>
@@ -36592,7 +36558,7 @@
         <v>{"id":47,"name":"comment-add","unicode":"E92E","decimal":59694,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","add","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>'Bowtie v1.0 reorg'!A50</f>
         <v>48</v>
@@ -36642,7 +36608,7 @@
         <v>{"id":48,"name":"comment-discussion","unicode":"E92F","decimal":59695,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>'Bowtie v1.0 reorg'!A51</f>
         <v>49</v>
@@ -36692,7 +36658,7 @@
         <v>{"id":49,"name":"comment-lines","unicode":"E930","decimal":59696,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","content"],"usage":""}</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>'Bowtie v1.0 reorg'!A52</f>
         <v>50</v>
@@ -36742,7 +36708,7 @@
         <v>{"id":50,"name":"comment-next","unicode":"E931","decimal":59697,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","next"],"usage":""}</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>'Bowtie v1.0 reorg'!A53</f>
         <v>51</v>
@@ -36792,7 +36758,7 @@
         <v>{"id":51,"name":"comment-outline","unicode":"E932","decimal":59698,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion"],"usage":""}</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>'Bowtie v1.0 reorg'!A54</f>
         <v>52</v>
@@ -36842,7 +36808,7 @@
         <v>{"id":52,"name":"comment-previous","unicode":"E933","decimal":59699,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","previous"],"usage":""}</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>'Bowtie v1.0 reorg'!A55</f>
         <v>53</v>
@@ -36892,7 +36858,7 @@
         <v>{"id":53,"name":"comment-urgent","unicode":"E934","decimal":59700,"version":"1.0","style":"light","subset":"VSTS","group":"Comment","keywords":["comment","chat","message","conversation","discussion","urgent","exclaimation","alert","attention"],"usage":""}</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>'Bowtie v1.0 reorg'!A56</f>
         <v>54</v>
@@ -36942,7 +36908,7 @@
         <v>{"id":54,"name":"alert","unicode":"E935","decimal":59701,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["flag","alert","notification"],"usage":"Notification"}</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>'Bowtie v1.0 reorg'!A57</f>
         <v>55</v>
@@ -36992,7 +36958,7 @@
         <v>{"id":55,"name":"approve","unicode":"E936","decimal":59702,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["hand","thumb","up","like","approve"],"usage":"The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible."}</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>'Bowtie v1.0 reorg'!A58</f>
         <v>56</v>
@@ -37042,7 +37008,7 @@
         <v>{"id":56,"name":"approve-disapprove","unicode":"E937","decimal":59703,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["hand","thumb","down","dislike","disapprove"],"usage":"The use of body parts is not recommended according to geopolitical guidelines. Use alternative design (up/down, smile/frown, vote count, etc.) if possible."}</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>'Bowtie v1.0 reorg'!A59</f>
         <v>57</v>
@@ -37092,7 +37058,7 @@
         <v>{"id":57,"name":"blur","unicode":"E938","decimal":59704,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["blur","pixel","image"],"usage":""}</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>'Bowtie v1.0 reorg'!A60</f>
         <v>58</v>
@@ -37142,7 +37108,7 @@
         <v>{"id":58,"name":"build","unicode":"E939","decimal":59705,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["build"],"usage":"Used for build, compile."}</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>'Bowtie v1.0 reorg'!A61</f>
         <v>59</v>
@@ -37192,7 +37158,7 @@
         <v>{"id":59,"name":"build-queue","unicode":"E93A","decimal":59706,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["build","queue"],"usage":"Used in Build hub to indicate queue."}</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>'Bowtie v1.0 reorg'!A62</f>
         <v>60</v>
@@ -37242,7 +37208,7 @@
         <v>{"id":60,"name":"build-reason-checkin-shelveset","unicode":"E93B","decimal":59707,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["checkin","upload","move","top"],"usage":"Intentional duplicate of transfer-upload because checkin in is similar to upload, push."}</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>'Bowtie v1.0 reorg'!A63</f>
         <v>61</v>
@@ -37292,7 +37258,7 @@
         <v>{"id":61,"name":"calendar","unicode":"E93C","decimal":59708,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["calendar","date","schedule"],"usage":"Used for generic calendar, date, deadline, schedule."}</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>'Bowtie v1.0 reorg'!A64</f>
         <v>62</v>
@@ -37342,7 +37308,7 @@
         <v>{"id":62,"name":"calendar-month","unicode":"E93D","decimal":59709,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["calendar","date","schedule"],"usage":"Used for month calendar or date picker"}</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>'Bowtie v1.0 reorg'!A65</f>
         <v>63</v>
@@ -37392,7 +37358,7 @@
         <v>{"id":63,"name":"camera","unicode":"E93E","decimal":59710,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":["camera","capture","screen"],"usage":""}</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>'Bowtie v1.0 reorg'!A66</f>
         <v>64</v>
@@ -37442,7 +37408,7 @@
         <v>{"id":64,"name":"clone","unicode":"E93F","decimal":59711,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["copy","duplicate","clone"],"usage":"Intentional duplicate"}</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>'Bowtie v1.0 reorg'!A67</f>
         <v>65</v>
@@ -37492,7 +37458,7 @@
         <v>{"id":65,"name":"cloud","unicode":"E940","decimal":59712,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cloud","remote","online"],"usage":""}</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>'Bowtie v1.0 reorg'!A68</f>
         <v>66</v>
@@ -37542,7 +37508,7 @@
         <v>{"id":66,"name":"cloud-fill","unicode":"E941","decimal":59713,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cloud","remote","online"],"usage":""}</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>'Bowtie v1.0 reorg'!A69</f>
         <v>67</v>
@@ -37592,7 +37558,7 @@
         <v>{"id":67,"name":"copy-to-clipboard","unicode":"E942","decimal":59714,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["copy","clipboard","text"],"usage":""}</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>'Bowtie v1.0 reorg'!A70</f>
         <v>68</v>
@@ -37642,7 +37608,7 @@
         <v>{"id":68,"name":"dashboard","unicode":"E943","decimal":59715,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["dashboard","tile","grid"],"usage":""}</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>'Bowtie v1.0 reorg'!A71</f>
         <v>69</v>
@@ -37692,7 +37658,7 @@
         <v>{"id":69,"name":"dashboard-fill","unicode":"E944","decimal":59716,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["dashboard","tile","grid"],"usage":""}</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>'Bowtie v1.0 reorg'!A72</f>
         <v>70</v>
@@ -37742,7 +37708,7 @@
         <v>{"id":70,"name":"database","unicode":"E945","decimal":59717,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["database","data","cylinder","barrel"],"usage":""}</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>'Bowtie v1.0 reorg'!A73</f>
         <v>71</v>
@@ -37792,7 +37758,7 @@
         <v>{"id":71,"name":"deploy","unicode":"E946","decimal":59718,"version":"1.0","style":"bold","subset":"VSTS","group":"Build","keywords":["deploy","slot","arrowup","square"],"usage":""}</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>'Bowtie v1.0 reorg'!A74</f>
         <v>72</v>
@@ -37842,7 +37808,7 @@
         <v>{"id":72,"name":"redeploy","unicode":"E947","decimal":59719,"version":"1.0","style":"bold","subset":"VSTS","group":"Build","keywords":["deploy","slot","arrowup","square"],"usage":""}</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>'Bowtie v1.0 reorg'!A75</f>
         <v>73</v>
@@ -37892,7 +37858,7 @@
         <v>{"id":73,"name":"details-pane","unicode":"E948","decimal":59720,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["pane","detail","layout","panel"],"usage":""}</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>'Bowtie v1.0 reorg'!A76</f>
         <v>74</v>
@@ -37942,7 +37908,7 @@
         <v>{"id":74,"name":"edit","unicode":"E949","decimal":59721,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["edit","pencil"],"usage":""}</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>'Bowtie v1.0 reorg'!A77</f>
         <v>75</v>
@@ -37992,7 +37958,7 @@
         <v>{"id":75,"name":"edit-outline","unicode":"E94A","decimal":59722,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["edit","pencil"],"usage":""}</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>'Bowtie v1.0 reorg'!A78</f>
         <v>76</v>
@@ -38042,7 +38008,7 @@
         <v>{"id":76,"name":"edit-copy","unicode":"E94B","decimal":59723,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["copy","duplicate","clone"],"usage":""}</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>'Bowtie v1.0 reorg'!A79</f>
         <v>77</v>
@@ -38092,7 +38058,7 @@
         <v>{"id":77,"name":"edit-cut","unicode":"E94C","decimal":59724,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cut","scissors"],"usage":""}</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>'Bowtie v1.0 reorg'!A80</f>
         <v>78</v>
@@ -38142,7 +38108,7 @@
         <v>{"id":78,"name":"editor-list-bullet","unicode":"E94D","decimal":59725,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["list","bullet"],"usage":""}</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>'Bowtie v1.0 reorg'!A81</f>
         <v>79</v>
@@ -38192,7 +38158,7 @@
         <v>{"id":79,"name":"edit-paste","unicode":"E94E","decimal":59726,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["paste","clipboard"],"usage":""}</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>'Bowtie v1.0 reorg'!A82</f>
         <v>80</v>
@@ -38242,7 +38208,7 @@
         <v>{"id":80,"name":"edit-delete","unicode":"E94F","decimal":59727,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["delete","destroy"],"usage":"used in context menu or toolbar for Delete command, matching Add command."}</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>'Bowtie v1.0 reorg'!A83</f>
         <v>81</v>
@@ -38292,7 +38258,7 @@
         <v>{"id":81,"name":"edit-remove","unicode":"E950","decimal":59728,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["remove","minus","line"],"usage":"replace with math-minus-light. Intentional duplicate"}</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>'Bowtie v1.0 reorg'!A84</f>
         <v>82</v>
@@ -38342,7 +38308,7 @@
         <v>{"id":82,"name":"edit-redo","unicode":"E951","decimal":59729,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["arrow","redo"],"usage":""}</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>'Bowtie v1.0 reorg'!A85</f>
         <v>83</v>
@@ -38392,7 +38358,7 @@
         <v>{"id":83,"name":"edit-undo","unicode":"E952","decimal":59730,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["arrow","undo","revert"],"usage":""}</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>'Bowtie v1.0 reorg'!A86</f>
         <v>84</v>
@@ -38442,7 +38408,7 @@
         <v>{"id":84,"name":"edit-rename","unicode":"E953","decimal":59731,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["rename","textbox","cursor"],"usage":""}</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>'Bowtie v1.0 reorg'!A87</f>
         <v>85</v>
@@ -38492,7 +38458,7 @@
         <v>{"id":85,"name":"attach","unicode":"E954","decimal":59732,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["paperclip","attach"],"usage":"Used for attachment."}</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>'Bowtie v1.0 reorg'!A88</f>
         <v>86</v>
@@ -38542,7 +38508,7 @@
         <v>{"id":86,"name":"link","unicode":"E955","decimal":59733,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["link","hyperlink","url"],"usage":""}</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>'Bowtie v1.0 reorg'!A89</f>
         <v>87</v>
@@ -38592,7 +38558,7 @@
         <v>{"id":87,"name":"server","unicode":"E956","decimal":59734,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>'Bowtie v1.0 reorg'!A90</f>
         <v>88</v>
@@ -38642,7 +38608,7 @@
         <v>{"id":88,"name":"environment","unicode":"E957","decimal":59735,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>'Bowtie v1.0 reorg'!A91</f>
         <v>89</v>
@@ -38692,7 +38658,7 @@
         <v>{"id":89,"name":"devices","unicode":"E958","decimal":59736,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>'Bowtie v1.0 reorg'!A92</f>
         <v>90</v>
@@ -38742,7 +38708,7 @@
         <v>{"id":90,"name":"feedback-negative","unicode":"E959","decimal":59737,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["smiley","face","emoji","unhappy","negative","sad"],"usage":""}</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>'Bowtie v1.0 reorg'!A93</f>
         <v>91</v>
@@ -38792,7 +38758,7 @@
         <v>{"id":91,"name":"feedback-positive","unicode":"E95A","decimal":59738,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["smiley","face","emoji","happy","positive","smile"],"usage":""}</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>'Bowtie v1.0 reorg'!A94</f>
         <v>92</v>
@@ -38842,7 +38808,7 @@
         <v>{"id":92,"name":"folder","unicode":"E95B","decimal":59739,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["folder"],"usage":""}</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>'Bowtie v1.0 reorg'!A95</f>
         <v>93</v>
@@ -38892,7 +38858,7 @@
         <v>{"id":93,"name":"image","unicode":"E95C","decimal":59740,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["image","picture","photo"],"usage":""}</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>'Bowtie v1.0 reorg'!A96</f>
         <v>94</v>
@@ -38942,7 +38908,7 @@
         <v>{"id":94,"name":"package","unicode":"E95D","decimal":59741,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["package","gift","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>'Bowtie v1.0 reorg'!A97</f>
         <v>95</v>
@@ -38992,7 +38958,7 @@
         <v>{"id":95,"name":"package-fill","unicode":"E95E","decimal":59742,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["package","gift","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>'Bowtie v1.0 reorg'!A98</f>
         <v>96</v>
@@ -39042,7 +39008,7 @@
         <v>{"id":96,"name":"heart","unicode":"E95F","decimal":59743,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["heart","love"],"usage":""}</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>'Bowtie v1.0 reorg'!A99</f>
         <v>97</v>
@@ -39092,7 +39058,7 @@
         <v>{"id":97,"name":"heart-fill","unicode":"E960","decimal":59744,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["heart","love"],"usage":""}</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>'Bowtie v1.0 reorg'!A100</f>
         <v>98</v>
@@ -39142,7 +39108,7 @@
         <v>{"id":98,"name":"heartbeat","unicode":"E961","decimal":59745,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["heart","pulse","ekg","health","monitor"],"usage":""}</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>'Bowtie v1.0 reorg'!A101</f>
         <v>99</v>
@@ -39192,7 +39158,7 @@
         <v>{"id":99,"name":"heartbeat-fill","unicode":"E962","decimal":59746,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["heart","pulse","ekg","health","monitor"],"usage":""}</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>'Bowtie v1.0 reorg'!A102</f>
         <v>100</v>
@@ -39242,7 +39208,7 @@
         <v>{"id":100,"name":"mail-message","unicode":"E963","decimal":59747,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["envelope","message","mail"],"usage":"used for read mail"}</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>'Bowtie v1.0 reorg'!A103</f>
         <v>101</v>
@@ -39292,7 +39258,7 @@
         <v>{"id":101,"name":"mail-message-fill","unicode":"E964","decimal":59748,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["envelope","message","mail"],"usage":"used for unread mail"}</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>'Bowtie v1.0 reorg'!A104</f>
         <v>102</v>
@@ -39342,7 +39308,7 @@
         <v>{"id":102,"name":"math-minus","unicode":"E965","decimal":59749,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>'Bowtie v1.0 reorg'!A105</f>
         <v>103</v>
@@ -39392,7 +39358,7 @@
         <v>{"id":103,"name":"math-minus-light","unicode":"E966","decimal":59750,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>'Bowtie v1.0 reorg'!A106</f>
         <v>104</v>
@@ -39442,7 +39408,7 @@
         <v>{"id":104,"name":"math-minus-box-light","unicode":"E967","decimal":59751,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["box","line","minus","remove","minimize"],"usage":""}</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>'Bowtie v1.0 reorg'!A107</f>
         <v>105</v>
@@ -39492,7 +39458,7 @@
         <v>{"id":105,"name":"math-minus-box","unicode":"E968","decimal":59752,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["box","line","minus","remove","minimize"],"usage":""}</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>'Bowtie v1.0 reorg'!A108</f>
         <v>106</v>
@@ -39542,7 +39508,7 @@
         <v>{"id":106,"name":"math-minus-circle-outline","unicode":"E969","decimal":59753,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["circle","line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>'Bowtie v1.0 reorg'!A109</f>
         <v>107</v>
@@ -39592,7 +39558,7 @@
         <v>{"id":107,"name":"math-minus-circle","unicode":"E96A","decimal":59754,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["circle","line","minus","remove"],"usage":""}</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>'Bowtie v1.0 reorg'!A110</f>
         <v>108</v>
@@ -39642,7 +39608,7 @@
         <v>{"id":108,"name":"math-multiply","unicode":"E96B","decimal":59755,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply"],"usage":""}</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>'Bowtie v1.0 reorg'!A111</f>
         <v>109</v>
@@ -39692,7 +39658,7 @@
         <v>{"id":109,"name":"math-multiply-light","unicode":"E96C","decimal":59756,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply"],"usage":""}</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>'Bowtie v1.0 reorg'!A112</f>
         <v>110</v>
@@ -39742,7 +39708,7 @@
         <v>{"id":110,"name":"math-multiply-box-light","unicode":"E96D","decimal":59757,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>'Bowtie v1.0 reorg'!A113</f>
         <v>111</v>
@@ -39792,7 +39758,7 @@
         <v>{"id":111,"name":"math-multiply-box","unicode":"E96E","decimal":59758,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>'Bowtie v1.0 reorg'!A114</f>
         <v>112</v>
@@ -39842,7 +39808,7 @@
         <v>{"id":112,"name":"math-multiply-box-outline","unicode":"E96F","decimal":59759,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["cross","x","close","multiply","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>'Bowtie v1.0 reorg'!A115</f>
         <v>113</v>
@@ -39892,7 +39858,7 @@
         <v>{"id":113,"name":"math-plus","unicode":"E970","decimal":59760,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add"],"usage":""}</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>'Bowtie v1.0 reorg'!A116</f>
         <v>114</v>
@@ -39942,7 +39908,7 @@
         <v>{"id":114,"name":"math-plus-light","unicode":"E971","decimal":59761,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["plus","add"],"usage":""}</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>'Bowtie v1.0 reorg'!A117</f>
         <v>115</v>
@@ -39992,7 +39958,7 @@
         <v>{"id":115,"name":"math-plus-box-light","unicode":"E972","decimal":59762,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>'Bowtie v1.0 reorg'!A118</f>
         <v>116</v>
@@ -40042,7 +40008,7 @@
         <v>{"id":116,"name":"math-plus-box","unicode":"E973","decimal":59763,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add","box"],"usage":""}</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>'Bowtie v1.0 reorg'!A119</f>
         <v>117</v>
@@ -40092,7 +40058,7 @@
         <v>{"id":117,"name":"math-plus-circle-outline","unicode":"E974","decimal":59764,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["plus","add","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>'Bowtie v1.0 reorg'!A120</f>
         <v>118</v>
@@ -40142,7 +40108,7 @@
         <v>{"id":118,"name":"math-plus-circle","unicode":"E975","decimal":59765,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>'Bowtie v1.0 reorg'!A121</f>
         <v>119</v>
@@ -40192,7 +40158,7 @@
         <v>{"id":119,"name":"math-plus-heavy","unicode":"E976","decimal":59766,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plus","add"],"usage":"intentional duplicate"}</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>'Bowtie v1.0 reorg'!A122</f>
         <v>120</v>
@@ -40242,7 +40208,7 @@
         <v>{"id":120,"name":"check","unicode":"E977","decimal":59767,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["check","checkmark"],"usage":"Check, approve. Use bold version when it is small to match other bold icons in a list. Usually apply sementic color positive on this icon."}</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>'Bowtie v1.0 reorg'!A123</f>
         <v>121</v>
@@ -40292,7 +40258,7 @@
         <v>{"id":121,"name":"check-light","unicode":"E978","decimal":59768,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["check","checkmark"],"usage":"Check, approve. Use light version for large size, match other light icons if in a list."}</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>'Bowtie v1.0 reorg'!A124</f>
         <v>122</v>
@@ -40342,7 +40308,7 @@
         <v>{"id":122,"name":"feed","unicode":"E979","decimal":59769,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["feed","rss"],"usage":""}</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>'Bowtie v1.0 reorg'!A125</f>
         <v>123</v>
@@ -40392,7 +40358,7 @@
         <v>{"id":123,"name":"network-tower","unicode":"E97A","decimal":59770,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["network","tower","signal","wave","broadcast"],"usage":""}</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>'Bowtie v1.0 reorg'!A126</f>
         <v>124</v>
@@ -40442,7 +40408,7 @@
         <v>{"id":124,"name":"connect-to-feed","unicode":"E97B","decimal":59771,"version":"1.0","style":"light","subset":"VSTS","group":"command","keywords":["connect","feed","rss","plug","wave","signal"],"usage":""}</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>'Bowtie v1.0 reorg'!A127</f>
         <v>125</v>
@@ -40492,7 +40458,7 @@
         <v>{"id":125,"name":"plug","unicode":"E97C","decimal":59772,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","connect"],"usage":""}</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>'Bowtie v1.0 reorg'!A128</f>
         <v>126</v>
@@ -40542,7 +40508,7 @@
         <v>{"id":126,"name":"plug-outline","unicode":"E97D","decimal":59773,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["plug","connect"],"usage":""}</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>'Bowtie v1.0 reorg'!A129</f>
         <v>127</v>
@@ -40592,7 +40558,7 @@
         <v>{"id":127,"name":"policy","unicode":"E97E","decimal":59774,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["policy","ribbon"],"usage":""}</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <f>'Bowtie v1.0 reorg'!A130</f>
         <v>128</v>
@@ -40642,7 +40608,7 @@
         <v>{"id":128,"name":"print","unicode":"E97F","decimal":59775,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>'Bowtie v1.0 reorg'!A131</f>
         <v>129</v>
@@ -40692,7 +40658,7 @@
         <v>{"id":129,"name":"recycle","unicode":"E980","decimal":59776,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["recycle"],"usage":""}</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>'Bowtie v1.0 reorg'!A132</f>
         <v>130</v>
@@ -40742,7 +40708,7 @@
         <v>{"id":130,"name":"robot","unicode":"E981","decimal":59777,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <f>'Bowtie v1.0 reorg'!A133</f>
         <v>131</v>
@@ -40792,7 +40758,7 @@
         <v>{"id":131,"name":"save","unicode":"E982","decimal":59778,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["save","floppy","disk"],"usage":""}</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <f>'Bowtie v1.0 reorg'!A134</f>
         <v>132</v>
@@ -40842,7 +40808,7 @@
         <v>{"id":132,"name":"save-all","unicode":"E983","decimal":59779,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <f>'Bowtie v1.0 reorg'!A135</f>
         <v>133</v>
@@ -40892,7 +40858,7 @@
         <v>{"id":133,"name":"save-as","unicode":"E984","decimal":59780,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <f>'Bowtie v1.0 reorg'!A136</f>
         <v>134</v>
@@ -40942,7 +40908,7 @@
         <v>{"id":134,"name":"save-close","unicode":"E985","decimal":59781,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <f>'Bowtie v1.0 reorg'!A137</f>
         <v>135</v>
@@ -40992,7 +40958,7 @@
         <v>{"id":135,"name":"search","unicode":"E986","decimal":59782,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["search","find","lookup","magnifier"],"usage":""}</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <f>'Bowtie v1.0 reorg'!A138</f>
         <v>136</v>
@@ -41042,7 +41008,7 @@
         <v>{"id":136,"name":"search-filter","unicode":"E987","decimal":59783,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["filter","funnel"],"usage":""}</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <f>'Bowtie v1.0 reorg'!A139</f>
         <v>137</v>
@@ -41092,7 +41058,7 @@
         <v>{"id":137,"name":"search-filter-fill","unicode":"E988","decimal":59784,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["filter","funnel"],"usage":""}</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <f>'Bowtie v1.0 reorg'!A140</f>
         <v>138</v>
@@ -41142,7 +41108,7 @@
         <v>{"id":138,"name":"security","unicode":"E989","decimal":59785,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["security","shield"],"usage":"Duplicates of bowtie-sheild-fill. Used for VC view of branches."}</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <f>'Bowtie v1.0 reorg'!A141</f>
         <v>139</v>
@@ -41192,7 +41158,7 @@
         <v>{"id":139,"name":"security-access","unicode":"E98A","decimal":59786,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["access","security","key"],"usage":""}</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <f>'Bowtie v1.0 reorg'!A142</f>
         <v>140</v>
@@ -41242,7 +41208,7 @@
         <v>{"id":140,"name":"security-lock","unicode":"E98B","decimal":59787,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission"],"usage":""}</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>'Bowtie v1.0 reorg'!A143</f>
         <v>141</v>
@@ -41292,7 +41258,7 @@
         <v>{"id":141,"name":"security-lock-fill","unicode":"E98C","decimal":59788,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission"],"usage":""}</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>'Bowtie v1.0 reorg'!A144</f>
         <v>142</v>
@@ -41342,7 +41308,7 @@
         <v>{"id":142,"name":"security-unlock","unicode":"E98D","decimal":59789,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission","unlock"],"usage":""}</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>'Bowtie v1.0 reorg'!A145</f>
         <v>143</v>
@@ -41392,7 +41358,7 @@
         <v>{"id":143,"name":"security-unlock-fill","unicode":"E98E","decimal":59790,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["access","security","lock","permission","unlock"],"usage":""}</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>'Bowtie v1.0 reorg'!A146</f>
         <v>144</v>
@@ -41442,7 +41408,7 @@
         <v>{"id":144,"name":"settings-gear","unicode":"E98F","decimal":59791,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["settings","gear"],"usage":""}</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <f>'Bowtie v1.0 reorg'!A147</f>
         <v>145</v>
@@ -41492,7 +41458,7 @@
         <v>{"id":145,"name":"settings-gear-outline","unicode":"E990","decimal":59792,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <f>'Bowtie v1.0 reorg'!A148</f>
         <v>146</v>
@@ -41542,7 +41508,7 @@
         <v>{"id":146,"name":"settings-wrench","unicode":"E991","decimal":59793,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["settings","wrench","property"],"usage":""}</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>'Bowtie v1.0 reorg'!A149</f>
         <v>147</v>
@@ -41592,7 +41558,7 @@
         <v>{"id":147,"name":"trash","unicode":"E992","decimal":59794,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <f>'Bowtie v1.0 reorg'!A150</f>
         <v>148</v>
@@ -41642,7 +41608,7 @@
         <v>{"id":148,"name":"share","unicode":"E993","decimal":59795,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["share"],"usage":""}</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <f>'Bowtie v1.0 reorg'!A151</f>
         <v>149</v>
@@ -41692,7 +41658,7 @@
         <v>{"id":149,"name":"shop","unicode":"E994","decimal":59796,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["store","shop"],"usage":""}</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <f>'Bowtie v1.0 reorg'!A152</f>
         <v>150</v>
@@ -41742,7 +41708,7 @@
         <v>{"id":150,"name":"shop-server","unicode":"E995","decimal":59797,"version":"1.0","style":"bold","subset":"VSTS","group":"Common","keywords":["store","shop","on-prem","local","server","intranet"],"usage":""}</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <f>'Bowtie v1.0 reorg'!A153</f>
         <v>151</v>
@@ -41792,7 +41758,7 @@
         <v>{"id":151,"name":"tag","unicode":"E996","decimal":59798,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <f>'Bowtie v1.0 reorg'!A154</f>
         <v>152</v>
@@ -41842,7 +41808,7 @@
         <v>{"id":152,"name":"tag-fill","unicode":"E997","decimal":59799,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <f>'Bowtie v1.0 reorg'!A155</f>
         <v>153</v>
@@ -41892,7 +41858,7 @@
         <v>{"id":153,"name":"user","unicode":"E998","decimal":59800,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <f>'Bowtie v1.0 reorg'!A156</f>
         <v>154</v>
@@ -41942,7 +41908,7 @@
         <v>{"id":154,"name":"users","unicode":"E999","decimal":59801,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <f>'Bowtie v1.0 reorg'!A157</f>
         <v>155</v>
@@ -41992,7 +41958,7 @@
         <v>{"id":155,"name":"variable","unicode":"E99A","decimal":59802,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <f>'Bowtie v1.0 reorg'!A158</f>
         <v>156</v>
@@ -42042,7 +42008,7 @@
         <v>{"id":156,"name":"video","unicode":"E99B","decimal":59803,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <f>'Bowtie v1.0 reorg'!A159</f>
         <v>157</v>
@@ -42092,7 +42058,7 @@
         <v>{"id":157,"name":"view-grid","unicode":"E99C","decimal":59804,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <f>'Bowtie v1.0 reorg'!A160</f>
         <v>158</v>
@@ -42142,7 +42108,7 @@
         <v>{"id":158,"name":"watch-eye","unicode":"E99D","decimal":59805,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>'Bowtie v1.0 reorg'!A161</f>
         <v>159</v>
@@ -42192,7 +42158,7 @@
         <v>{"id":159,"name":"watch-eye-fill","unicode":"E99E","decimal":59806,"version":"1.0","style":"","subset":"VSTS","group":"Common","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>'Bowtie v1.0 reorg'!A162</f>
         <v>160</v>
@@ -42242,7 +42208,7 @@
         <v>{"id":160,"name":"live-update-feed","unicode":"E99F","decimal":59807,"version":"1.0","style":"light","subset":"VSTS","group":"Common","keywords":["live","update","feed","signal","broadcast","radar"],"usage":"Used in Kanban board for toggle listen to live update."}</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>'Bowtie v1.0 reorg'!A163</f>
         <v>161</v>
@@ -42292,7 +42258,7 @@
         <v>{"id":161,"name":"checkbox","unicode":"E9A0","decimal":59808,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["checkbox","checked","check","checkmark"],"usage":"Checkbox checked."}</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>'Bowtie v1.0 reorg'!A164</f>
         <v>162</v>
@@ -42342,7 +42308,7 @@
         <v>{"id":162,"name":"checkbox-empty","unicode":"E9A1","decimal":59809,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["checkbox","box","square"],"usage":"Checkebox empty. Note that this box alignment is different from stop icon. This is only used for checkbox."}</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>'Bowtie v1.0 reorg'!A165</f>
         <v>163</v>
@@ -42392,7 +42358,7 @@
         <v>{"id":163,"name":"chevron-up","unicode":"E9A2","decimal":59810,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","up","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>'Bowtie v1.0 reorg'!A166</f>
         <v>164</v>
@@ -42442,7 +42408,7 @@
         <v>{"id":164,"name":"chevron-left","unicode":"E9A3","decimal":59811,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","left","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>'Bowtie v1.0 reorg'!A167</f>
         <v>165</v>
@@ -42492,7 +42458,7 @@
         <v>{"id":165,"name":"chevron-down","unicode":"E9A4","decimal":59812,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","down","expand","collpase","dropdown"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>'Bowtie v1.0 reorg'!A168</f>
         <v>166</v>
@@ -42542,7 +42508,7 @@
         <v>{"id":166,"name":"chevron-right","unicode":"E9A5","decimal":59813,"version":"1.0","style":"small","subset":"VSTS","group":"Control","keywords":["chevron","right","expand","collpase"],"usage":"Small version used for collapse/expand panels."}</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>'Bowtie v1.0 reorg'!A169</f>
         <v>167</v>
@@ -42592,7 +42558,7 @@
         <v>{"id":167,"name":"chevron-up-light","unicode":"E9A6","decimal":59814,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","up","expand","collpase"],"usage":"Big version used for dialog split button dropup."}</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>'Bowtie v1.0 reorg'!A170</f>
         <v>168</v>
@@ -42642,7 +42608,7 @@
         <v>{"id":168,"name":"chevron-left-light","unicode":"E9A7","decimal":59815,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","left","expand","collpase"],"usage":"Created to match the other big chevron icons."}</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>'Bowtie v1.0 reorg'!A171</f>
         <v>169</v>
@@ -42692,7 +42658,7 @@
         <v>{"id":169,"name":"chevron-down-light","unicode":"E9A8","decimal":59816,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","down","expand","collpase","dropdown"],"usage":"Big version used for dialog split button dropdown."}</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>'Bowtie v1.0 reorg'!A172</f>
         <v>170</v>
@@ -42742,7 +42708,7 @@
         <v>{"id":170,"name":"chevron-right-light","unicode":"E9A9","decimal":59817,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["chevron","right","expand","collpase"],"usage":"Created to match the other big chevron icons."}</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>'Bowtie v1.0 reorg'!A173</f>
         <v>171</v>
@@ -42792,7 +42758,7 @@
         <v>{"id":171,"name":"chevron-up-all","unicode":"E9AA","decimal":59818,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>'Bowtie v1.0 reorg'!A174</f>
         <v>172</v>
@@ -42842,7 +42808,7 @@
         <v>{"id":172,"name":"chevron-left-all","unicode":"E9AB","decimal":59819,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>'Bowtie v1.0 reorg'!A175</f>
         <v>173</v>
@@ -42892,7 +42858,7 @@
         <v>{"id":173,"name":"chevron-down-all","unicode":"E9AC","decimal":59820,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>'Bowtie v1.0 reorg'!A176</f>
         <v>174</v>
@@ -42942,7 +42908,7 @@
         <v>{"id":174,"name":"chevron-right-all","unicode":"E9AD","decimal":59821,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>'Bowtie v1.0 reorg'!A177</f>
         <v>175</v>
@@ -42992,7 +42958,7 @@
         <v>{"id":175,"name":"chevron-up-end","unicode":"E9AE","decimal":59822,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>'Bowtie v1.0 reorg'!A178</f>
         <v>176</v>
@@ -43042,7 +43008,7 @@
         <v>{"id":176,"name":"chevron-left-end","unicode":"E9AF","decimal":59823,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>'Bowtie v1.0 reorg'!A179</f>
         <v>177</v>
@@ -43092,7 +43058,7 @@
         <v>{"id":177,"name":"chevron-down-end","unicode":"E9B0","decimal":59824,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>'Bowtie v1.0 reorg'!A180</f>
         <v>178</v>
@@ -43142,7 +43108,7 @@
         <v>{"id":178,"name":"chevron-right-end","unicode":"E9B1","decimal":59825,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>'Bowtie v1.0 reorg'!A181</f>
         <v>179</v>
@@ -43192,7 +43158,7 @@
         <v>{"id":179,"name":"fold-less","unicode":"E9B2","decimal":59826,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["fold","less","collapse"],"usage":""}</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>'Bowtie v1.0 reorg'!A182</f>
         <v>180</v>
@@ -43242,7 +43208,7 @@
         <v>{"id":180,"name":"fold-more","unicode":"E9B3","decimal":59827,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["fold","more","expand"],"usage":""}</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>'Bowtie v1.0 reorg'!A183</f>
         <v>181</v>
@@ -43292,7 +43258,7 @@
         <v>{"id":181,"name":"ellipsis","unicode":"E9B4","decimal":59828,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["ellipsis","trim","more","overflow"],"usage":""}</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>'Bowtie v1.0 reorg'!A184</f>
         <v>182</v>
@@ -43342,7 +43308,7 @@
         <v>{"id":182,"name":"ellipsis-vertical","unicode":"E9B5","decimal":59829,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["ellipsis","trim","more","overflow"],"usage":""}</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>'Bowtie v1.0 reorg'!A185</f>
         <v>183</v>
@@ -43392,7 +43358,7 @@
         <v>{"id":183,"name":"favorite","unicode":"E9B6","decimal":59830,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["star","favorite","rating"],"usage":""}</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>'Bowtie v1.0 reorg'!A186</f>
         <v>184</v>
@@ -43442,7 +43408,7 @@
         <v>{"id":184,"name":"favorite-outline","unicode":"E9B7","decimal":59831,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["star","favorite","rating"],"usage":""}</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>'Bowtie v1.0 reorg'!A187</f>
         <v>185</v>
@@ -43492,7 +43458,7 @@
         <v>{"id":185,"name":"star-half","unicode":"E9B8","decimal":59832,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["star","favorite","rating","half"],"usage":""}</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>'Bowtie v1.0 reorg'!A188</f>
         <v>186</v>
@@ -43542,7 +43508,7 @@
         <v>{"id":186,"name":"pin","unicode":"E9B9","decimal":59833,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>'Bowtie v1.0 reorg'!A189</f>
         <v>187</v>
@@ -43592,7 +43558,7 @@
         <v>{"id":187,"name":"pin-fill","unicode":"E9BA","decimal":59834,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>'Bowtie v1.0 reorg'!A190</f>
         <v>188</v>
@@ -43642,7 +43608,7 @@
         <v>{"id":188,"name":"pin-pinned","unicode":"E9BB","decimal":59835,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <f>'Bowtie v1.0 reorg'!A191</f>
         <v>189</v>
@@ -43692,7 +43658,7 @@
         <v>{"id":189,"name":"pin-pinned-fill","unicode":"E9BC","decimal":59836,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>'Bowtie v1.0 reorg'!A192</f>
         <v>190</v>
@@ -43742,7 +43708,7 @@
         <v>{"id":190,"name":"pin-unpin","unicode":"E9BD","decimal":59837,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>'Bowtie v1.0 reorg'!A193</f>
         <v>191</v>
@@ -43792,7 +43758,7 @@
         <v>{"id":191,"name":"pin-unpin-fill","unicode":"E9BE","decimal":59838,"version":"1.0","style":"bold","subset":"VSTS","group":"Control","keywords":["pushpin","pin"],"usage":""}</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>'Bowtie v1.0 reorg'!A194</f>
         <v>192</v>
@@ -43842,7 +43808,7 @@
         <v>{"id":192,"name":"radio-button","unicode":"E9BF","decimal":59839,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["radio","button","choice","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <f>'Bowtie v1.0 reorg'!A195</f>
         <v>193</v>
@@ -43892,7 +43858,7 @@
         <v>{"id":193,"name":"radio-button-empty","unicode":"E9C0","decimal":59840,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["radio","button","choice","circle"],"usage":""}</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>'Bowtie v1.0 reorg'!A196</f>
         <v>194</v>
@@ -43942,7 +43908,7 @@
         <v>{"id":194,"name":"resize-grip","unicode":"E9C1","decimal":59841,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>'Bowtie v1.0 reorg'!A197</f>
         <v>195</v>
@@ -43992,7 +43958,7 @@
         <v>{"id":195,"name":"separator","unicode":"E9C2","decimal":59842,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["separator","divider","pipe","line"],"usage":""}</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>'Bowtie v1.0 reorg'!A198</f>
         <v>196</v>
@@ -44042,7 +44008,7 @@
         <v>{"id":196,"name":"toggle-collapse","unicode":"E9C3","decimal":59843,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <f>'Bowtie v1.0 reorg'!A199</f>
         <v>197</v>
@@ -44092,7 +44058,7 @@
         <v>{"id":197,"name":"toggle-expand","unicode":"E9C4","decimal":59844,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>'Bowtie v1.0 reorg'!A200</f>
         <v>198</v>
@@ -44142,7 +44108,7 @@
         <v>{"id":198,"name":"toggle-collapse-all","unicode":"E9C5","decimal":59845,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>'Bowtie v1.0 reorg'!A201</f>
         <v>199</v>
@@ -44192,7 +44158,7 @@
         <v>{"id":199,"name":"toggle-expand-all","unicode":"E9C6","decimal":59846,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>'Bowtie v1.0 reorg'!A202</f>
         <v>200</v>
@@ -44242,7 +44208,7 @@
         <v>{"id":200,"name":"triangle-up","unicode":"E9C7","decimal":59847,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <f>'Bowtie v1.0 reorg'!A203</f>
         <v>201</v>
@@ -44292,7 +44258,7 @@
         <v>{"id":201,"name":"triangle-left","unicode":"E9C8","decimal":59848,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>'Bowtie v1.0 reorg'!A204</f>
         <v>202</v>
@@ -44342,7 +44308,7 @@
         <v>{"id":202,"name":"triangle-down","unicode":"E9C9","decimal":59849,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>'Bowtie v1.0 reorg'!A205</f>
         <v>203</v>
@@ -44392,7 +44358,7 @@
         <v>{"id":203,"name":"triangle-right","unicode":"E9CA","decimal":59850,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>'Bowtie v1.0 reorg'!A206</f>
         <v>204</v>
@@ -44442,7 +44408,7 @@
         <v>{"id":204,"name":"toggle-tree-expanded","unicode":"E9CB","decimal":59851,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>'Bowtie v1.0 reorg'!A207</f>
         <v>205</v>
@@ -44492,7 +44458,7 @@
         <v>{"id":205,"name":"toggle-tree-expanded-outline","unicode":"E9CC","decimal":59852,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <f>'Bowtie v1.0 reorg'!A208</f>
         <v>206</v>
@@ -44542,7 +44508,7 @@
         <v>{"id":206,"name":"toggle-tree-collapsed","unicode":"E9CD","decimal":59853,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>'Bowtie v1.0 reorg'!A209</f>
         <v>207</v>
@@ -44592,7 +44558,7 @@
         <v>{"id":207,"name":"view-full-screen","unicode":"E9CE","decimal":59854,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>'Bowtie v1.0 reorg'!A210</f>
         <v>208</v>
@@ -44642,7 +44608,7 @@
         <v>{"id":208,"name":"view-full-screen-exit","unicode":"E9CF","decimal":59855,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <f>'Bowtie v1.0 reorg'!A211</f>
         <v>209</v>
@@ -44692,7 +44658,7 @@
         <v>{"id":209,"name":"navigate-external","unicode":"E9D0","decimal":59856,"version":"1.0","style":"light","subset":"VSTS","group":"Control","keywords":["navigate","external"],"usage":""}</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>'Bowtie v1.0 reorg'!A212</f>
         <v>210</v>
@@ -44742,7 +44708,7 @@
         <v>{"id":210,"name":"work-item-bar","unicode":"E9D1","decimal":59857,"version":"1.0","style":"","subset":"VSTS","group":"Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <f>'Bowtie v1.0 reorg'!A213</f>
         <v>211</v>
@@ -44792,7 +44758,7 @@
         <v>{"id":211,"name":"format-font","unicode":"E9D2","decimal":59858,"version":"1.0","style":"","subset":"VSTS","group":"Editor","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>'Bowtie v1.0 reorg'!A214</f>
         <v>212</v>
@@ -44842,7 +44808,7 @@
         <v>{"id":212,"name":"format-bold","unicode":"E9D3","decimal":59859,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","bold"],"usage":""}</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <f>'Bowtie v1.0 reorg'!A215</f>
         <v>213</v>
@@ -44892,7 +44858,7 @@
         <v>{"id":213,"name":"format-italic","unicode":"E9D4","decimal":59860,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","italic"],"usage":""}</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>'Bowtie v1.0 reorg'!A216</f>
         <v>214</v>
@@ -44942,7 +44908,7 @@
         <v>{"id":214,"name":"format-underline","unicode":"E9D5","decimal":59861,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","underline"],"usage":""}</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>'Bowtie v1.0 reorg'!A217</f>
         <v>215</v>
@@ -44992,7 +44958,7 @@
         <v>{"id":215,"name":"format-font-color","unicode":"E9D6","decimal":59862,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","color"],"usage":""}</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <f>'Bowtie v1.0 reorg'!A218</f>
         <v>216</v>
@@ -45042,7 +45008,7 @@
         <v>{"id":216,"name":"format-font-size","unicode":"E9D7","decimal":59863,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","font","size"],"usage":""}</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <f>'Bowtie v1.0 reorg'!A219</f>
         <v>217</v>
@@ -45092,7 +45058,7 @@
         <v>{"id":217,"name":"format-clear","unicode":"E9D8","decimal":59864,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","clear","erase"],"usage":""}</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>'Bowtie v1.0 reorg'!A220</f>
         <v>218</v>
@@ -45142,7 +45108,7 @@
         <v>{"id":218,"name":"format-indent-decrease","unicode":"E9D9","decimal":59865,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","text","indent","decrease"],"usage":""}</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>'Bowtie v1.0 reorg'!A221</f>
         <v>219</v>
@@ -45192,7 +45158,7 @@
         <v>{"id":219,"name":"format-indent-increase","unicode":"E9DA","decimal":59866,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","text","indent","increase"],"usage":""}</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>'Bowtie v1.0 reorg'!A222</f>
         <v>220</v>
@@ -45242,7 +45208,7 @@
         <v>{"id":220,"name":"format-list-ordered","unicode":"E9DB","decimal":59867,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","list","ordered","number"],"usage":""}</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <f>'Bowtie v1.0 reorg'!A223</f>
         <v>221</v>
@@ -45292,7 +45258,7 @@
         <v>{"id":221,"name":"format-list-unordered","unicode":"E9DC","decimal":59868,"version":"1.0","style":"light","subset":"VSTS","group":"Editor","keywords":["format","list","unordered","bullet"],"usage":""}</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <f>'Bowtie v1.0 reorg'!A224</f>
         <v>222</v>
@@ -45342,7 +45308,7 @@
         <v>{"id":222,"name":"file","unicode":"E9DD","decimal":59869,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file"],"usage":""}</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>'Bowtie v1.0 reorg'!A225</f>
         <v>223</v>
@@ -45392,7 +45358,7 @@
         <v>{"id":223,"name":"file-bug","unicode":"E9DE","decimal":59870,"version":"1.0","style":"","subset":"VSTS","group":"File","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <f>'Bowtie v1.0 reorg'!A226</f>
         <v>224</v>
@@ -45442,7 +45408,7 @@
         <v>{"id":224,"name":"file-code","unicode":"E9DF","decimal":59871,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","code"],"usage":""}</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <f>'Bowtie v1.0 reorg'!A227</f>
         <v>225</v>
@@ -45492,7 +45458,7 @@
         <v>{"id":225,"name":"file-comment","unicode":"E9E0","decimal":59872,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","comment"],"usage":""}</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <f>'Bowtie v1.0 reorg'!A228</f>
         <v>226</v>
@@ -45542,7 +45508,7 @@
         <v>{"id":226,"name":"file-content","unicode":"E9E1","decimal":59873,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","text","content","code"],"usage":""}</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <f>'Bowtie v1.0 reorg'!A229</f>
         <v>227</v>
@@ -45592,7 +45558,7 @@
         <v>{"id":227,"name":"file-image","unicode":"E9E2","decimal":59874,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","image"],"usage":""}</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <f>'Bowtie v1.0 reorg'!A230</f>
         <v>228</v>
@@ -45642,7 +45608,7 @@
         <v>{"id":228,"name":"file-preview","unicode":"E9E3","decimal":59875,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","preview","search","lookup"],"usage":""}</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <f>'Bowtie v1.0 reorg'!A231</f>
         <v>229</v>
@@ -45692,7 +45658,7 @@
         <v>{"id":229,"name":"file-symlink","unicode":"E9E4","decimal":59876,"version":"1.0","style":"light","subset":"VSTS","group":"File","keywords":["file","external","symlink","shortcut"],"usage":""}</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <f>'Bowtie v1.0 reorg'!A232</f>
         <v>230</v>
@@ -45742,7 +45708,7 @@
         <v>{"id":230,"name":"media-play","unicode":"E9E5","decimal":59877,"version":"1.0","style":"light","subset":"VSTS","group":"Media","keywords":["media","play"],"usage":"check if it is same as play"}</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <f>'Bowtie v1.0 reorg'!A233</f>
         <v>231</v>
@@ -45792,7 +45758,7 @@
         <v>{"id":231,"name":"media-play-fill","unicode":"E9E6","decimal":59878,"version":"1.0","style":"bold","subset":"VSTS","group":"Media","keywords":["media","play"],"usage":"check if it is same as play-fill"}</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <f>'Bowtie v1.0 reorg'!A234</f>
         <v>232</v>
@@ -45842,7 +45808,7 @@
         <v>{"id":232,"name":"play","unicode":"E9E7","decimal":59879,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <f>'Bowtie v1.0 reorg'!A235</f>
         <v>233</v>
@@ -45892,7 +45858,7 @@
         <v>{"id":233,"name":"play-fill","unicode":"E9E8","decimal":59880,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <f>'Bowtie v1.0 reorg'!A236</f>
         <v>234</v>
@@ -45942,7 +45908,7 @@
         <v>{"id":234,"name":"pause","unicode":"E9E9","decimal":59881,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <f>'Bowtie v1.0 reorg'!A237</f>
         <v>235</v>
@@ -45992,7 +45958,7 @@
         <v>{"id":235,"name":"pause-fill","unicode":"E9EA","decimal":59882,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <f>'Bowtie v1.0 reorg'!A238</f>
         <v>236</v>
@@ -46042,7 +46008,7 @@
         <v>{"id":236,"name":"play-resume","unicode":"E9EB","decimal":59883,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <f>'Bowtie v1.0 reorg'!A239</f>
         <v>237</v>
@@ -46092,7 +46058,7 @@
         <v>{"id":237,"name":"play-resume-fill","unicode":"E9EC","decimal":59884,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <f>'Bowtie v1.0 reorg'!A240</f>
         <v>238</v>
@@ -46142,7 +46108,7 @@
         <v>{"id":238,"name":"stop","unicode":"E9ED","decimal":59885,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <f>'Bowtie v1.0 reorg'!A241</f>
         <v>239</v>
@@ -46192,7 +46158,7 @@
         <v>{"id":239,"name":"stop-fill","unicode":"E9EE","decimal":59886,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>'Bowtie v1.0 reorg'!A242</f>
         <v>240</v>
@@ -46242,7 +46208,7 @@
         <v>{"id":240,"name":"fast-backward","unicode":"E9EF","decimal":59887,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>'Bowtie v1.0 reorg'!A243</f>
         <v>241</v>
@@ -46292,7 +46258,7 @@
         <v>{"id":241,"name":"fast-backward-fill","unicode":"E9F0","decimal":59888,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>'Bowtie v1.0 reorg'!A244</f>
         <v>242</v>
@@ -46342,7 +46308,7 @@
         <v>{"id":242,"name":"fast-forward","unicode":"E9F1","decimal":59889,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>'Bowtie v1.0 reorg'!A245</f>
         <v>243</v>
@@ -46392,7 +46358,7 @@
         <v>{"id":243,"name":"fast-forward-fill","unicode":"E9F2","decimal":59890,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>'Bowtie v1.0 reorg'!A246</f>
         <v>244</v>
@@ -46442,7 +46408,7 @@
         <v>{"id":244,"name":"previous-frame","unicode":"E9F3","decimal":59891,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <f>'Bowtie v1.0 reorg'!A247</f>
         <v>245</v>
@@ -46492,7 +46458,7 @@
         <v>{"id":245,"name":"previous-frame-fill","unicode":"E9F4","decimal":59892,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <f>'Bowtie v1.0 reorg'!A248</f>
         <v>246</v>
@@ -46542,7 +46508,7 @@
         <v>{"id":246,"name":"next-frame","unicode":"E9F5","decimal":59893,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>'Bowtie v1.0 reorg'!A249</f>
         <v>247</v>
@@ -46592,7 +46558,7 @@
         <v>{"id":247,"name":"next-frame-fill","unicode":"E9F6","decimal":59894,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>'Bowtie v1.0 reorg'!A250</f>
         <v>248</v>
@@ -46642,7 +46608,7 @@
         <v>{"id":248,"name":"record","unicode":"E9F7","decimal":59895,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <f>'Bowtie v1.0 reorg'!A251</f>
         <v>249</v>
@@ -46692,7 +46658,7 @@
         <v>{"id":249,"name":"record-fill","unicode":"E9F8","decimal":59896,"version":"1.0","style":"","subset":"VSTS","group":"Media","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <f>'Bowtie v1.0 reorg'!A252</f>
         <v>250</v>
@@ -46742,7 +46708,7 @@
         <v>{"id":250,"name":"menu","unicode":"E9F9","decimal":59897,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["menu","hamburger","line"],"usage":""}</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>'Bowtie v1.0 reorg'!A253</f>
         <v>251</v>
@@ -46792,7 +46758,7 @@
         <v>{"id":251,"name":"navigate-close","unicode":"E9FA","decimal":59898,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["close"],"usage":"used for close. Do not use for delete or remove."}</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>'Bowtie v1.0 reorg'!A254</f>
         <v>252</v>
@@ -46842,7 +46808,7 @@
         <v>{"id":252,"name":"navigate-back-circle","unicode":"E9FB","decimal":59899,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["navigate","back","left","previous","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>'Bowtie v1.0 reorg'!A255</f>
         <v>253</v>
@@ -46892,7 +46858,7 @@
         <v>{"id":253,"name":"navigate-back-disc","unicode":"E9FC","decimal":59900,"version":"1.0","style":"bold","subset":"VSTS","group":"Navigation","keywords":["navigate","back","left","previous","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>'Bowtie v1.0 reorg'!A256</f>
         <v>254</v>
@@ -46942,7 +46908,7 @@
         <v>{"id":254,"name":"navigate-forward-circle","unicode":"E9FD","decimal":59901,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["navigate","forward","right","next","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <f>'Bowtie v1.0 reorg'!A257</f>
         <v>255</v>
@@ -46992,7 +46958,7 @@
         <v>{"id":255,"name":"navigate-forward-disc","unicode":"E9FE","decimal":59902,"version":"1.0","style":"bold","subset":"VSTS","group":"Navigation","keywords":["navigate","forward","right","next","circle","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <f>'Bowtie v1.0 reorg'!A258</f>
         <v>256</v>
@@ -47042,7 +47008,7 @@
         <v>{"id":256,"name":"navigate-history","unicode":"E9FF","decimal":59903,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["history","time","version","time","clock","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <f>'Bowtie v1.0 reorg'!A259</f>
         <v>257</v>
@@ -47092,7 +47058,7 @@
         <v>{"id":257,"name":"navigate-refresh","unicode":"EA00","decimal":59904,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["refresh","reload","arrow"],"usage":""}</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <f>'Bowtie v1.0 reorg'!A260</f>
         <v>258</v>
@@ -47142,7 +47108,7 @@
         <v>{"id":258,"name":"navigate-reload","unicode":"EA01","decimal":59905,"version":"1.0","style":"light","subset":"VSTS","group":"Navigation","keywords":["refresh","reload","arrow"],"usage":"intentional duplicate"}</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <f>'Bowtie v1.0 reorg'!A261</f>
         <v>259</v>
@@ -47192,7 +47158,7 @@
         <v>{"id":259,"name":"status-error","unicode":"EA02","decimal":59906,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":["status","error","alert","invalid","problem","circle","exclaimation"],"usage":""}</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <f>'Bowtie v1.0 reorg'!A262</f>
         <v>260</v>
@@ -47242,7 +47208,7 @@
         <v>{"id":260,"name":"status-error-outline","unicode":"EA03","decimal":59907,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":["status","error","alert","invalid","problem","circle","exclaimation"],"usage":""}</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <f>'Bowtie v1.0 reorg'!A263</f>
         <v>261</v>
@@ -47292,7 +47258,7 @@
         <v>{"id":261,"name":"status-failure","unicode":"EA04","decimal":59908,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":["status","critical","failure","fatal","circle","cross","x"],"usage":""}</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <f>'Bowtie v1.0 reorg'!A264</f>
         <v>262</v>
@@ -47342,7 +47308,7 @@
         <v>{"id":262,"name":"status-failure-outline","unicode":"EA05","decimal":59909,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":["status","critical","failure","fatal","circle","cross","x"],"usage":""}</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <f>'Bowtie v1.0 reorg'!A265</f>
         <v>263</v>
@@ -47392,7 +47358,7 @@
         <v>{"id":263,"name":"status-help","unicode":"EA06","decimal":59910,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <f>'Bowtie v1.0 reorg'!A266</f>
         <v>264</v>
@@ -47442,7 +47408,7 @@
         <v>{"id":264,"name":"status-help-outline","unicode":"EA07","decimal":59911,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <f>'Bowtie v1.0 reorg'!A267</f>
         <v>265</v>
@@ -47492,7 +47458,7 @@
         <v>{"id":265,"name":"status-info","unicode":"EA08","decimal":59912,"version":"1.0","style":"bold","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <f>'Bowtie v1.0 reorg'!A268</f>
         <v>266</v>
@@ -47542,7 +47508,7 @@
         <v>{"id":266,"name":"status-info-outline","unicode":"EA09","decimal":59913,"version":"1.0","style":"light","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <f>'Bowtie v1.0 reorg'!A269</f>
         <v>267</v>
@@ -47592,7 +47558,7 @@
         <v>{"id":267,"name":"status-no","unicode":"EA0A","decimal":59914,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <f>'Bowtie v1.0 reorg'!A270</f>
         <v>268</v>
@@ -47642,7 +47608,7 @@
         <v>{"id":268,"name":"status-no-fill","unicode":"EA0B","decimal":59915,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <f>'Bowtie v1.0 reorg'!A271</f>
         <v>269</v>
@@ -47692,7 +47658,7 @@
         <v>{"id":269,"name":"status-pause","unicode":"EA0C","decimal":59916,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <f>'Bowtie v1.0 reorg'!A272</f>
         <v>270</v>
@@ -47742,7 +47708,7 @@
         <v>{"id":270,"name":"status-pause-outline","unicode":"EA0D","decimal":59917,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <f>'Bowtie v1.0 reorg'!A273</f>
         <v>271</v>
@@ -47792,7 +47758,7 @@
         <v>{"id":271,"name":"status-run","unicode":"EA0E","decimal":59918,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <f>'Bowtie v1.0 reorg'!A274</f>
         <v>272</v>
@@ -47842,7 +47808,7 @@
         <v>{"id":272,"name":"status-run-outline","unicode":"EA0F","decimal":59919,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <f>'Bowtie v1.0 reorg'!A275</f>
         <v>273</v>
@@ -47892,7 +47858,7 @@
         <v>{"id":273,"name":"status-stop","unicode":"EA10","decimal":59920,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <f>'Bowtie v1.0 reorg'!A276</f>
         <v>274</v>
@@ -47942,7 +47908,7 @@
         <v>{"id":274,"name":"status-stop-outline","unicode":"EA11","decimal":59921,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <f>'Bowtie v1.0 reorg'!A277</f>
         <v>275</v>
@@ -47992,7 +47958,7 @@
         <v>{"id":275,"name":"status-success","unicode":"EA12","decimal":59922,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <f>'Bowtie v1.0 reorg'!A278</f>
         <v>276</v>
@@ -48042,7 +48008,7 @@
         <v>{"id":276,"name":"status-success-outline","unicode":"EA13","decimal":59923,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <f>'Bowtie v1.0 reorg'!A279</f>
         <v>277</v>
@@ -48092,7 +48058,7 @@
         <v>{"id":277,"name":"status-waiting","unicode":"EA14","decimal":59924,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <f>'Bowtie v1.0 reorg'!A280</f>
         <v>278</v>
@@ -48142,7 +48108,7 @@
         <v>{"id":278,"name":"status-waiting-fill","unicode":"EA15","decimal":59925,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <f>'Bowtie v1.0 reorg'!A281</f>
         <v>279</v>
@@ -48192,7 +48158,7 @@
         <v>{"id":279,"name":"status-warning","unicode":"EA16","decimal":59926,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <f>'Bowtie v1.0 reorg'!A282</f>
         <v>280</v>
@@ -48242,7 +48208,7 @@
         <v>{"id":280,"name":"status-warning-outline","unicode":"EA17","decimal":59927,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <f>'Bowtie v1.0 reorg'!A283</f>
         <v>281</v>
@@ -48292,7 +48258,7 @@
         <v>{"id":281,"name":"status-success-box","unicode":"EA18","decimal":59928,"version":"1.0","style":"","subset":"VSTS","group":"Status","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <f>'Bowtie v1.0 reorg'!A284</f>
         <v>282</v>
@@ -48342,7 +48308,7 @@
         <v>{"id":282,"name":"test-fill","unicode":"EA19","decimal":59929,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <f>'Bowtie v1.0 reorg'!A285</f>
         <v>283</v>
@@ -48392,7 +48358,7 @@
         <v>{"id":283,"name":"test","unicode":"EA1A","decimal":59930,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <f>'Bowtie v1.0 reorg'!A286</f>
         <v>284</v>
@@ -48442,7 +48408,7 @@
         <v>{"id":284,"name":"test-auto-fill","unicode":"EA1B","decimal":59931,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <f>'Bowtie v1.0 reorg'!A287</f>
         <v>285</v>
@@ -48492,7 +48458,7 @@
         <v>{"id":285,"name":"test-auto","unicode":"EA1C","decimal":59932,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <f>'Bowtie v1.0 reorg'!A288</f>
         <v>286</v>
@@ -48542,7 +48508,7 @@
         <v>{"id":286,"name":"test-user-fill","unicode":"EA1D","decimal":59933,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <f>'Bowtie v1.0 reorg'!A289</f>
         <v>287</v>
@@ -48592,7 +48558,7 @@
         <v>{"id":287,"name":"test-user","unicode":"EA1E","decimal":59934,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <f>'Bowtie v1.0 reorg'!A290</f>
         <v>288</v>
@@ -48642,7 +48608,7 @@
         <v>{"id":288,"name":"test-explore-fill","unicode":"EA1F","decimal":59935,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <f>'Bowtie v1.0 reorg'!A291</f>
         <v>289</v>
@@ -48692,7 +48658,7 @@
         <v>{"id":289,"name":"trigger","unicode":"EA20","decimal":59936,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <f>'Bowtie v1.0 reorg'!A292</f>
         <v>290</v>
@@ -48742,7 +48708,7 @@
         <v>{"id":290,"name":"trigger-auto","unicode":"EA21","decimal":59937,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <f>'Bowtie v1.0 reorg'!A293</f>
         <v>291</v>
@@ -48792,7 +48758,7 @@
         <v>{"id":291,"name":"trigger-user","unicode":"EA22","decimal":59938,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <f>'Bowtie v1.0 reorg'!A294</f>
         <v>292</v>
@@ -48842,7 +48808,7 @@
         <v>{"id":292,"name":"folder-plan","unicode":"EA23","decimal":59939,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <f>'Bowtie v1.0 reorg'!A295</f>
         <v>293</v>
@@ -48892,7 +48858,7 @@
         <v>{"id":293,"name":"folder-query","unicode":"EA24","decimal":59940,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <f>'Bowtie v1.0 reorg'!A296</f>
         <v>294</v>
@@ -48942,7 +48908,7 @@
         <v>{"id":294,"name":"log","unicode":"EA25","decimal":59941,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <f>'Bowtie v1.0 reorg'!A297</f>
         <v>295</v>
@@ -48992,7 +48958,7 @@
         <v>{"id":295,"name":"step","unicode":"EA26","decimal":59942,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <f>'Bowtie v1.0 reorg'!A298</f>
         <v>296</v>
@@ -49042,7 +49008,7 @@
         <v>{"id":296,"name":"step-shared","unicode":"EA27","decimal":59943,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <f>'Bowtie v1.0 reorg'!A299</f>
         <v>297</v>
@@ -49092,7 +49058,7 @@
         <v>{"id":297,"name":"server-remote","unicode":"EA28","decimal":59944,"version":"1.0","style":"","subset":"VSTS","group":"Test","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <f>'Bowtie v1.0 reorg'!A300</f>
         <v>298</v>
@@ -49142,7 +49108,7 @@
         <v>{"id":298,"name":"diff-image","unicode":"EA29","decimal":59945,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["image","diff","compare","side-by-side"],"usage":""}</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <f>'Bowtie v1.0 reorg'!A301</f>
         <v>299</v>
@@ -49192,7 +49158,7 @@
         <v>{"id":299,"name":"diff-image-overlay","unicode":"EA2A","decimal":59946,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["image","diff","compare","overlay"],"usage":""}</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <f>'Bowtie v1.0 reorg'!A302</f>
         <v>300</v>
@@ -49242,7 +49208,7 @@
         <v>{"id":300,"name":"diff-image-pixel","unicode":"EA2B","decimal":59947,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["image","diff","compare","pixel"],"usage":""}</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <f>'Bowtie v1.0 reorg'!A303</f>
         <v>301</v>
@@ -49292,7 +49258,7 @@
         <v>{"id":301,"name":"diff-inline","unicode":"EA2C","decimal":59948,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["code","diff","compare","inline"],"usage":""}</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <f>'Bowtie v1.0 reorg'!A304</f>
         <v>302</v>
@@ -49342,7 +49308,7 @@
         <v>{"id":302,"name":"diff-side-by-side","unicode":"EA2D","decimal":59949,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["code","diff","compare","side-by-side"],"usage":""}</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <f>'Bowtie v1.0 reorg'!A305</f>
         <v>303</v>
@@ -49392,7 +49358,7 @@
         <v>{"id":303,"name":"repo","unicode":"EA2E","decimal":59950,"version":"1.0","style":"light","subset":"VSTS","group":"Version Control","keywords":["repository","repo","git"],"usage":""}</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <f>'Bowtie v1.0 reorg'!A306</f>
         <v>304</v>
@@ -49442,7 +49408,7 @@
         <v>{"id":304,"name":"repo-fill","unicode":"EA2F","decimal":59951,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["repository","repo"],"usage":""}</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <f>'Bowtie v1.0 reorg'!A307</f>
         <v>305</v>
@@ -49492,7 +49458,7 @@
         <v>{"id":305,"name":"repo-git","unicode":"EA30","decimal":59952,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["repository","repo","git"],"usage":""}</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <f>'Bowtie v1.0 reorg'!A308</f>
         <v>306</v>
@@ -49542,7 +49508,7 @@
         <v>{"id":306,"name":"tfvc-change-list","unicode":"EA31","decimal":59953,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <f>'Bowtie v1.0 reorg'!A309</f>
         <v>307</v>
@@ -49592,7 +49558,7 @@
         <v>{"id":307,"name":"repo-submodule","unicode":"EA32","decimal":59954,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["folder","git","submodule"],"usage":""}</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <f>'Bowtie v1.0 reorg'!A310</f>
         <v>308</v>
@@ -49642,7 +49608,7 @@
         <v>{"id":308,"name":"tfvc-folder","unicode":"EA33","decimal":59955,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <f>'Bowtie v1.0 reorg'!A311</f>
         <v>309</v>
@@ -49692,7 +49658,7 @@
         <v>{"id":309,"name":"repo-tfvc","unicode":"EA34","decimal":59956,"version":"1.0","style":"bold","subset":"VSTS","group":"Version Control","keywords":["repository","repo","tfvc","team","foundation","version","control"],"usage":""}</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <f>'Bowtie v1.0 reorg'!A312</f>
         <v>310</v>
@@ -49742,7 +49708,7 @@
         <v>{"id":310,"name":"tfvc-branch","unicode":"EA35","decimal":59957,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <f>'Bowtie v1.0 reorg'!A313</f>
         <v>311</v>
@@ -49792,7 +49758,7 @@
         <v>{"id":311,"name":"tfvc-branch-locked","unicode":"EA36","decimal":59958,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <f>'Bowtie v1.0 reorg'!A314</f>
         <v>312</v>
@@ -49842,7 +49808,7 @@
         <v>{"id":312,"name":"tfvc-commit","unicode":"EA37","decimal":59959,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <f>'Bowtie v1.0 reorg'!A315</f>
         <v>313</v>
@@ -49892,7 +49858,7 @@
         <v>{"id":313,"name":"tfvc-compare","unicode":"EA38","decimal":59960,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <f>'Bowtie v1.0 reorg'!A316</f>
         <v>314</v>
@@ -49942,7 +49908,7 @@
         <v>{"id":314,"name":"tfvc-merge","unicode":"EA39","decimal":59961,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <f>'Bowtie v1.0 reorg'!A317</f>
         <v>315</v>
@@ -49992,7 +49958,7 @@
         <v>{"id":315,"name":"tfvc-pull-request","unicode":"EA3A","decimal":59962,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <f>'Bowtie v1.0 reorg'!A318</f>
         <v>316</v>
@@ -50042,7 +50008,7 @@
         <v>{"id":316,"name":"tfvc-shelveset","unicode":"EA3B","decimal":59963,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <f>'Bowtie v1.0 reorg'!A319</f>
         <v>317</v>
@@ -50092,7 +50058,7 @@
         <v>{"id":317,"name":"tfvc-raw-source","unicode":"EA3C","decimal":59964,"version":"1.0","style":"","subset":"VSTS","group":"Version Control","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <f>'Bowtie v1.0 reorg'!A320</f>
         <v>318</v>
@@ -50142,7 +50108,7 @@
         <v>{"id":318,"name":"group-rows","unicode":"EA3D","decimal":59965,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <f>'Bowtie v1.0 reorg'!A321</f>
         <v>319</v>
@@ -50192,7 +50158,7 @@
         <v>{"id":319,"name":"recycle-bin-restore","unicode":"EA3E","decimal":59966,"version":"1.0","style":"light","subset":"VSTS","group":"Work","keywords":["recycle","bin","restore","undo"],"usage":""}</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <f>'Bowtie v1.0 reorg'!A322</f>
         <v>320</v>
@@ -50242,7 +50208,7 @@
         <v>{"id":320,"name":"view-list","unicode":"EA3F","decimal":59967,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <f>'Bowtie v1.0 reorg'!A323</f>
         <v>321</v>
@@ -50292,7 +50258,7 @@
         <v>{"id":321,"name":"view-list-group","unicode":"EA40","decimal":59968,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <f>'Bowtie v1.0 reorg'!A324</f>
         <v>322</v>
@@ -50342,7 +50308,7 @@
         <v>{"id":322,"name":"view-list-tree","unicode":"EA41","decimal":59969,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <f>'Bowtie v1.0 reorg'!A325</f>
         <v>323</v>
@@ -50392,7 +50358,7 @@
         <v>{"id":323,"name":"work-item","unicode":"EA42","decimal":59970,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <f>'Bowtie v1.0 reorg'!A326</f>
         <v>324</v>
@@ -50442,7 +50408,7 @@
         <v>{"id":324,"name":"work-item-bug","unicode":"EA43","decimal":59971,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <f>'Bowtie v1.0 reorg'!A327</f>
         <v>325</v>
@@ -50492,7 +50458,7 @@
         <v>{"id":325,"name":"work-item-move","unicode":"EA44","decimal":59972,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <f>'Bowtie v1.0 reorg'!A328</f>
         <v>326</v>
@@ -50542,7 +50508,7 @@
         <v>{"id":326,"name":"merge-duplicate","unicode":"EA45","decimal":59973,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <f>'Bowtie v1.0 reorg'!A329</f>
         <v>327</v>
@@ -50592,7 +50558,7 @@
         <v>{"id":327,"name":"storyboard","unicode":"EA46","decimal":59974,"version":"1.0","style":"","subset":"VSTS","group":"Work","keywords":[""],"usage":""}</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <f>'Bowtie v1.0 reorg'!A330</f>
         <v>328</v>
@@ -50642,7 +50608,7 @@
         <v>{"id":328,"name":"auto-fill-template","unicode":"EA47","decimal":59975,"version":"1.0","style":"light","subset":"VSTS","group":"Work","keywords":["template","watermark","fill","box","form"],"usage":"Used in context menu for Auto fill template form command."}</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <f>'Bowtie v1.0 reorg'!A331</f>
         <v>329</v>
@@ -50692,7 +50658,7 @@
         <v>{"id":329,"name":"recycle-bin","unicode":"EA48","decimal":59976,"version":"1.0","style":"light","subset":"VSTS","group":"Work","keywords":["recycle","bin"],"usage":""}</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <f>'Bowtie v1.0 reorg'!A332</f>
         <v>330</v>
@@ -50742,7 +50708,7 @@
         <v>{"id":330,"name":"dot","unicode":"EA49","decimal":59977,"version":"1.0","style":"bold","subset":"VSTS","group":"Utility","keywords":["dot","circle"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <f>'Bowtie v1.0 reorg'!A333</f>
         <v>331</v>
@@ -50792,7 +50758,7 @@
         <v>{"id":331,"name":"square","unicode":"EA4A","decimal":59978,"version":"1.0","style":"bold","subset":"VSTS","group":"Utility","keywords":["square"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <f>'Bowtie v1.0 reorg'!A334</f>
         <v>332</v>
@@ -50842,7 +50808,7 @@
         <v>{"id":332,"name":"row-child","unicode":"EA4B","decimal":59979,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["row","child","sub","indent","tree"],"usage":"Used for creating a child node of the current node in a tree structure."}</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <f>'Bowtie v1.0 reorg'!A335</f>
         <v>333</v>
@@ -50892,7 +50858,7 @@
         <v>{"id":333,"name":"log-remove","unicode":"EA4C","decimal":59980,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["log","activity","remove","delete"],"usage":"Used for removing activity entry on Kanban board."}</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <f>'Bowtie v1.0 reorg'!A336</f>
         <v>334</v>
@@ -50942,7 +50908,7 @@
         <v>{"id":334,"name":"live-update-feed-off","unicode":"EA4D","decimal":59981,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["live","update","feed","signal","broadcast","radar","off"],"usage":"Used to indicate listen to Kanban board live updates is toggled off. Adding a slash is not the common toggle off pattern. It is only used in this case."}</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <f>'Bowtie v1.0 reorg'!A337</f>
         <v>335</v>
@@ -50992,7 +50958,7 @@
         <v>{"id":335,"name":"corner-resize","unicode":"EA4E","decimal":59982,"version":"1.1","style":"light","subset":"VSTS","group":"Control","keywords":["resize","grip","handle"],"usage":"Used for dialog, modal, or textarea resize handle."}</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337">
         <f>'Bowtie v1.0 reorg'!A338</f>
         <v>336</v>
@@ -51042,7 +51008,7 @@
         <v>{"id":336,"name":"link-remove","unicode":"EA4F","decimal":59983,"version":"1.1","style":"light","subset":"VSTS","group":"Editor","keywords":["link","hyperlink","url","remove"],"usage":"Used for removing hyperlink."}</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338">
         <f>'Bowtie v1.0 reorg'!A339</f>
         <v>337</v>
@@ -51092,7 +51058,7 @@
         <v>{"id":337,"name":"spinner","unicode":"EA50","decimal":59984,"version":"1.1","style":"bold","subset":"VSTS","group":"Control","keywords":["loading","spinner","wait","dots","loop","spin"],"usage":"Add bowtie-ani-spin-pulse class for animation."}</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339">
         <f>'Bowtie v1.0 reorg'!A340</f>
         <v>338</v>
@@ -51142,7 +51108,7 @@
         <v>{"id":338,"name":"personalize","unicode":"EA51","decimal":59985,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["personalize","customize","design","edit","draw","pen","brush"],"usage":"Used for customizing work item form."}</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340">
         <f>'Bowtie v1.0 reorg'!A341</f>
         <v>339</v>
@@ -51192,7 +51158,7 @@
         <v>{"id":339,"name":"parameter","unicode":"EA52","decimal":59986,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["parameter","variable","argument","@","at"],"usage":"Used in Test hub for adding test step parameters."}</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341">
         <f>'Bowtie v1.0 reorg'!A342</f>
         <v>340</v>
@@ -51242,7 +51208,7 @@
         <v>{"id":340,"name":"step-insert","unicode":"EA53","decimal":59987,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","insert","stairs","arrow","right"],"usage":"Used in Test hub for adding test step."}</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342">
         <f>'Bowtie v1.0 reorg'!A343</f>
         <v>341</v>
@@ -51292,7 +51258,7 @@
         <v>{"id":341,"name":"step-shared-add","unicode":"EA54","decimal":59988,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","add","plus","stairs"],"usage":"Used in Test hub for creating a new test step as shared step."}</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343">
         <f>'Bowtie v1.0 reorg'!A344</f>
         <v>342</v>
@@ -51342,7 +51308,7 @@
         <v>{"id":342,"name":"step-shared-insert","unicode":"EA55","decimal":59989,"version":"1.1","style":"bold","subset":"VSTS","group":"Test","keywords":["step","shared","reuse","multiple","arrow","right","stairs"],"usage":"Used in Test hub for inserting existing shared steps."}</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344">
         <f>'Bowtie v1.0 reorg'!A345</f>
         <v>343</v>
@@ -51392,7 +51358,7 @@
         <v>{"id":343,"name":"process","unicode":"EA56","decimal":59990,"version":"1.1","style":"light","subset":"VSTS","group":"Build","keywords":["process","task","gear","automation"],"usage":"Used for build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345">
         <f>'Bowtie v1.0 reorg'!A346</f>
         <v>344</v>
@@ -51442,7 +51408,7 @@
         <v>{"id":344,"name":"process-meta-task","unicode":"EA57","decimal":59991,"version":"1.1","style":"light","subset":"VSTS","group":"Build","keywords":["process","task","gear","automation","box","container","group","reusable"],"usage":"Used for build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346">
         <f>'Bowtie v1.0 reorg'!A347</f>
         <v>345</v>
@@ -51492,7 +51458,7 @@
         <v>{"id":345,"name":"column-option","unicode":"EA58","decimal":59992,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["column","option","settings","gear"],"usage":"Used for a group of reusable build, deployment tasks."}</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347">
         <f>'Bowtie v1.0 reorg'!A348</f>
         <v>346</v>
@@ -51542,7 +51508,7 @@
         <v>{"id":346,"name":"globe","unicode":"EA59","decimal":59993,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["web","globe","country","region","world"],"usage":"Used for web or website. Also used for region or country on user profile page."}</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348">
         <f>'Bowtie v1.0 reorg'!A349</f>
         <v>347</v>
@@ -51592,7 +51558,7 @@
         <v>{"id":347,"name":"locale-language","unicode":"EA5A","decimal":59994,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","locale","language","letter","character"],"usage":"Used for language preference on user profile page."}</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349">
         <f>'Bowtie v1.0 reorg'!A350</f>
         <v>348</v>
@@ -51642,7 +51608,7 @@
         <v>{"id":348,"name":"locale-timezone","unicode":"EA5B","decimal":59995,"version":"1.1","style":"light","subset":"VSTS","group":"Profile","keywords":["web","globe","country","region","world","timezone","time","clock"],"usage":"Used for timezone preference on user profile page."}</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350">
         <f>'Bowtie v1.0 reorg'!A351</f>
         <v>349</v>
@@ -51692,7 +51658,7 @@
         <v>{"id":349,"name":"feedback-positive-outline","unicode":"EA5C","decimal":59996,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","positive","smile"],"usage":"Used in dropdown menu on white background."}</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351">
         <f>'Bowtie v1.0 reorg'!A352</f>
         <v>350</v>
@@ -51742,7 +51708,7 @@
         <v>{"id":350,"name":"feedback-negative-outline","unicode":"EA5D","decimal":59997,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["feedback","negative","sad"],"usage":"Used in dropdown menu on white background."}</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352">
         <f>'Bowtie v1.0 reorg'!A353</f>
         <v>351</v>
@@ -51792,7 +51758,7 @@
         <v>{"id":351,"name":"contact-card","unicode":"EA5E","decimal":59998,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["contact","info","card","email","user","profile"],"usage":"Used for contact card."}</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <f>'Bowtie v1.0 reorg'!A354</f>
         <v>352</v>
@@ -51842,7 +51808,7 @@
         <v>{"id":352,"name":"triangle","unicode":"EA5F","decimal":59999,"version":"1.1","style":"bold","subset":"VSTS","group":"Utility","keywords":["triangle"],"usage":"Used for stacking icons as background."}</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <f>'Bowtie v1.0 reorg'!A355</f>
         <v>353</v>
@@ -51892,7 +51858,7 @@
         <v>{"id":353,"name":"brand-vsts","unicode":"EA60","decimal":60000,"version":"1.1","style":"bold","subset":"VSTS","group":"Brand","keywords":["vsts","brand","logo"],"usage":"VSTS product icon."}</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <f>'Bowtie v1.0 reorg'!A356</f>
         <v>354</v>
@@ -51942,7 +51908,7 @@
         <v>{"id":354,"name":"status-success-sm","unicode":"EA61","decimal":60001,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","success","complete","ok","pass","positive","good","checkmark"],"usage":"This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <f>'Bowtie v1.0 reorg'!A357</f>
         <v>355</v>
@@ -51992,7 +51958,7 @@
         <v>{"id":355,"name":"status-warning-sm","unicode":"EA62","decimal":60002,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","warning","problem","attention","exclaimation"],"usage":"This is a smaller version of bowtie-status-warning. It is used for stacking with bowtie-triangle."}</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <f>'Bowtie v1.0 reorg'!A358</f>
         <v>356</v>
@@ -52042,7 +52008,7 @@
         <v>{"id":356,"name":"status-info-sm","unicode":"EA63","decimal":60003,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","information","letter","i"],"usage":"This is a smaller version of bowtie-status-info. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <f>'Bowtie v1.0 reorg'!A359</f>
         <v>357</v>
@@ -52092,7 +52058,7 @@
         <v>{"id":357,"name":"status-failure-sm","unicode":"EA64","decimal":60004,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","failure","negative","critical","problem","fatal","error"],"usage":"This is a smaller version of bowtie-status-failure. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <f>'Bowtie v1.0 reorg'!A360</f>
         <v>358</v>
@@ -52142,7 +52108,7 @@
         <v>{"id":358,"name":"status-error-sm","unicode":"EA65","decimal":60005,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","error","alert","invalid","problem","circle","exclaimation"],"usage":"This is a smaller version of bowtie-status-error. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <f>'Bowtie v1.0 reorg'!A361</f>
         <v>359</v>
@@ -52192,7 +52158,7 @@
         <v>{"id":359,"name":"status-run-sm","unicode":"EA66","decimal":60006,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","run","play","execute","in","progress","triangle"],"usage":"This is a smaller version of bowtie-status-run. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <f>'Bowtie v1.0 reorg'!A362</f>
         <v>360</v>
@@ -52242,7 +52208,7 @@
         <v>{"id":360,"name":"status-help-sm","unicode":"EA67","decimal":60007,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","help","question"],"usage":"This is a smaller version of bowtie-status-help. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <f>'Bowtie v1.0 reorg'!A363</f>
         <v>361</v>
@@ -52292,7 +52258,7 @@
         <v>{"id":361,"name":"status-stop-sm","unicode":"EA68","decimal":60008,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","stop","square"],"usage":"This is a smaller version of bowtie-status-stop. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <f>'Bowtie v1.0 reorg'!A364</f>
         <v>362</v>
@@ -52342,7 +52308,7 @@
         <v>{"id":362,"name":"status-pause-sm","unicode":"EA69","decimal":60009,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","pause"],"usage":"This is a smaller version of bowtie-status-success. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <f>'Bowtie v1.0 reorg'!A365</f>
         <v>363</v>
@@ -52392,7 +52358,7 @@
         <v>{"id":363,"name":"status-waiting-fill-sm","unicode":"EA6A","decimal":60010,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","waiting","clock","time","pending","queue"],"usage":"This is a smaller version of bowtie-status-waiting-fill. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <f>'Bowtie v1.0 reorg'!A366</f>
         <v>364</v>
@@ -52442,7 +52408,7 @@
         <v>{"id":364,"name":"status-no-fill-sm","unicode":"EA6B","decimal":60011,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["status","no","block","mute","unavailable"],"usage":"This is a smaller version of bowtie-status-no-fill. It is used for stacking with bowtie-dot."}</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366">
         <f>'Bowtie v1.0 reorg'!A367</f>
         <v>365</v>
@@ -52492,7 +52458,7 @@
         <v>{"id":365,"name":"assessment-group","unicode":"EA6C","decimal":60012,"version":"1.1","style":"bold","subset":"VSTS","group":"Compliance","keywords":["assessment","group","compliance"],"usage":"Used in treeview in Compliance hub to represent assessment type node."}</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367">
         <f>'Bowtie v1.0 reorg'!A368</f>
         <v>366</v>
@@ -52542,7 +52508,7 @@
         <v>{"id":366,"name":"table","unicode":"EA6D","decimal":60013,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["table","database","matrix"],"usage":"Used for database table, matrix or views that look like a data table."}</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <f>'Bowtie v1.0 reorg'!A369</f>
         <v>367</v>
@@ -52592,7 +52558,7 @@
         <v>{"id":367,"name":"timeline-delivery","unicode":"EA6E","decimal":60014,"version":"1.1","style":"bold","subset":"VSTS","group":"Work","keywords":["timeline","delivery","schedule","kanban","card"],"usage":"Used to indicate delivery card style backlog timeline view."}</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369">
         <f>'Bowtie v1.0 reorg'!A370</f>
         <v>368</v>
@@ -52642,7 +52608,7 @@
         <v>{"id":368,"name":"timeline-progress","unicode":"EA6F","decimal":60015,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["timeline","progress","date","row","line","bar"],"usage":"Used to indicate progress bar style backlog timeline view."}</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370">
         <f>'Bowtie v1.0 reorg'!A371</f>
         <v>369</v>
@@ -52692,7 +52658,7 @@
         <v>{"id":369,"name":"file-type-sln","unicode":"EA70","decimal":60016,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["application","window","project","app","solution","visual","studio"],"usage":"Used for solution node (.sln) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371">
         <f>'Bowtie v1.0 reorg'!A372</f>
         <v>370</v>
@@ -52742,7 +52708,7 @@
         <v>{"id":370,"name":"application-window","unicode":"EA71","decimal":60017,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["application","window","project","app"],"usage":"Used for project node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372">
         <f>'Bowtie v1.0 reorg'!A373</f>
         <v>371</v>
@@ -52792,7 +52758,7 @@
         <v>{"id":371,"name":"file-type-html","unicode":"EA72","decimal":60018,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","html"],"usage":"Used for .html node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373">
         <f>'Bowtie v1.0 reorg'!A374</f>
         <v>372</v>
@@ -52842,7 +52808,7 @@
         <v>{"id":372,"name":"file-type-js","unicode":"EA73","decimal":60019,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","js","javascript"],"usage":"Used for .js node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374">
         <f>'Bowtie v1.0 reorg'!A375</f>
         <v>373</v>
@@ -52892,7 +52858,7 @@
         <v>{"id":373,"name":"file-type-jsproj","unicode":"EA74","decimal":60020,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","js","javascript"],"usage":"Used for JavaScript project (.jsproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375">
         <f>'Bowtie v1.0 reorg'!A376</f>
         <v>374</v>
@@ -52942,7 +52908,7 @@
         <v>{"id":374,"name":"file-type-cs","unicode":"EA75","decimal":60021,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","cs","c#"],"usage":"Used for C# file (.cs) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376">
         <f>'Bowtie v1.0 reorg'!A377</f>
         <v>375</v>
@@ -52992,7 +52958,7 @@
         <v>{"id":375,"name":"file-type-csproj","unicode":"EA76","decimal":60022,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","cs","c#"],"usage":"Used for C# project (.csproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377">
         <f>'Bowtie v1.0 reorg'!A378</f>
         <v>376</v>
@@ -53042,7 +53008,7 @@
         <v>{"id":376,"name":"file-type-vb","unicode":"EA77","decimal":60023,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","vb","visual","basic"],"usage":"Used for VB file (.vb) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378">
         <f>'Bowtie v1.0 reorg'!A379</f>
         <v>377</v>
@@ -53092,7 +53058,7 @@
         <v>{"id":377,"name":"file-type-vbproj","unicode":"EA78","decimal":60024,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","vb","visual","basic"],"usage":"Used for VB project (.vbproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379">
         <f>'Bowtie v1.0 reorg'!A380</f>
         <v>378</v>
@@ -53142,7 +53108,7 @@
         <v>{"id":378,"name":"file-type-cpp","unicode":"EA79","decimal":60025,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","cpp","c++"],"usage":"Used for C++ file (.cpp) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380">
         <f>'Bowtie v1.0 reorg'!A381</f>
         <v>379</v>
@@ -53192,7 +53158,7 @@
         <v>{"id":379,"name":"file-type-vcxproj","unicode":"EA7A","decimal":60026,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","cpp","c++"],"usage":"Used for C++ project (.vcxproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381">
         <f>'Bowtie v1.0 reorg'!A382</f>
         <v>380</v>
@@ -53242,7 +53208,7 @@
         <v>{"id":380,"name":"file-type-fs","unicode":"EA7B","decimal":60027,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","fs","f#"],"usage":"Used for F# file (.fs) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382">
         <f>'Bowtie v1.0 reorg'!A383</f>
         <v>381</v>
@@ -53292,7 +53258,7 @@
         <v>{"id":381,"name":"file-type-fsproj","unicode":"EA7C","decimal":60028,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","fs","f#"],"usage":"Used for F# project (.fsproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383">
         <f>'Bowtie v1.0 reorg'!A384</f>
         <v>382</v>
@@ -53342,7 +53308,7 @@
         <v>{"id":382,"name":"file-type-python","unicode":"EA7D","decimal":60029,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","pythong"],"usage":"Used for Python file (.py) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384">
         <f>'Bowtie v1.0 reorg'!A385</f>
         <v>383</v>
@@ -53392,7 +53358,7 @@
         <v>{"id":383,"name":"file-type-pyproj","unicode":"EA7E","decimal":60030,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["project","python"],"usage":"Used for Python project (.pyproj) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385">
         <f>'Bowtie v1.0 reorg'!A386</f>
         <v>384</v>
@@ -53442,7 +53408,7 @@
         <v>{"id":384,"name":"file-type-typescript","unicode":"EA7F","decimal":60031,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","typescript","javascript"],"usage":"Used for TypeScript file (.ts) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386">
         <f>'Bowtie v1.0 reorg'!A387</f>
         <v>385</v>
@@ -53492,7 +53458,7 @@
         <v>{"id":385,"name":"file-type-coffeescript","unicode":"EA80","decimal":60032,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","coffeescript","javascript"],"usage":"Used for CoffeeScript file (.coffee) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387">
         <f>'Bowtie v1.0 reorg'!A388</f>
         <v>386</v>
@@ -53542,7 +53508,7 @@
         <v>{"id":386,"name":"file-type-aspx","unicode":"EA81","decimal":60033,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","aspx"],"usage":"Used for .aspx file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388">
         <f>'Bowtie v1.0 reorg'!A389</f>
         <v>387</v>
@@ -53592,7 +53558,7 @@
         <v>{"id":387,"name":"file-type-css","unicode":"EA82","decimal":60034,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","css","stylesheet"],"usage":"Used for .css stylesheet file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389">
         <f>'Bowtie v1.0 reorg'!A390</f>
         <v>388</v>
@@ -53642,7 +53608,7 @@
         <v>{"id":388,"name":"file-type-sass","unicode":"EA83","decimal":60035,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","css","sass","scss","stylesheet"],"usage":"Used for Sass stylesheet (.sass, .scss) file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390">
         <f>'Bowtie v1.0 reorg'!A391</f>
         <v>389</v>
@@ -53692,7 +53658,7 @@
         <v>{"id":389,"name":"file-type-less","unicode":"EA84","decimal":60036,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","css","less","stylesheet"],"usage":"Used for Less stylesheet (.less) file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391">
         <f>'Bowtie v1.0 reorg'!A392</f>
         <v>390</v>
@@ -53742,7 +53708,7 @@
         <v>{"id":390,"name":"file-type-json","unicode":"EA85","decimal":60037,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","json"],"usage":"Used for .json file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392">
         <f>'Bowtie v1.0 reorg'!A393</f>
         <v>391</v>
@@ -53792,7 +53758,7 @@
         <v>{"id":391,"name":"file-type-xml","unicode":"EA86","decimal":60038,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","xml","markup"],"usage":"Used for .xml file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393">
         <f>'Bowtie v1.0 reorg'!A394</f>
         <v>392</v>
@@ -53842,7 +53808,7 @@
         <v>{"id":392,"name":"file-type-md","unicode":"EA87","decimal":60039,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","md","markdown"],"usage":"Used for .md, .markdown file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394">
         <f>'Bowtie v1.0 reorg'!A395</f>
         <v>393</v>
@@ -53892,7 +53858,7 @@
         <v>{"id":393,"name":"file-type-powershell","unicode":"EA88","decimal":60040,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","powershell","ps1"],"usage":"Used for PowerShell (.ps1) file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395">
         <f>'Bowtie v1.0 reorg'!A396</f>
         <v>394</v>
@@ -53942,7 +53908,7 @@
         <v>{"id":394,"name":"file-type-cmd","unicode":"EA89","decimal":60041,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","cmd"],"usage":"Used for .cmd file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396">
         <f>'Bowtie v1.0 reorg'!A397</f>
         <v>395</v>
@@ -53992,7 +53958,7 @@
         <v>{"id":395,"name":"file-type-java","unicode":"EA8A","decimal":60042,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","java"],"usage":"Used for .java file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397">
         <f>'Bowtie v1.0 reorg'!A398</f>
         <v>396</v>
@@ -54042,7 +54008,7 @@
         <v>{"id":396,"name":"file-type-sql","unicode":"EA8B","decimal":60043,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","sql"],"usage":"Used for .sql file node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398">
         <f>'Bowtie v1.0 reorg'!A399</f>
         <v>397</v>
@@ -54092,7 +54058,7 @@
         <v>{"id":397,"name":"file-stack","unicode":"EA8C","decimal":60044,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","stack","group","resx","resource"],"usage":"Used for resource file (.resx) node in code explorer tree view."}</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399">
         <f>'Bowtie v1.0 reorg'!A400</f>
         <v>398</v>
@@ -54142,7 +54108,7 @@
         <v>{"id":398,"name":"script","unicode":"EA8D","decimal":60045,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["script","scroll"],"usage":"Generic script file"}</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400">
         <f>'Bowtie v1.0 reorg'!A401</f>
         <v>399</v>
@@ -54192,7 +54158,7 @@
         <v>{"id":399,"name":"default-executable","unicode":"EA8E","decimal":60046,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["default","executable","gear","process"],"usage":"Generic executable file such as .bat, .exe"}</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401">
         <f>'Bowtie v1.0 reorg'!A402</f>
         <v>400</v>
@@ -54242,7 +54208,7 @@
         <v>{"id":400,"name":"file-type-template","unicode":"EA8F","decimal":60047,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["file","template","preprocessor","dotted","line"],"usage":"Used for templating preprocessor file type like .jade, .haml, etc."}</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402">
         <f>'Bowtie v1.0 reorg'!A403</f>
         <v>401</v>
@@ -54292,7 +54258,7 @@
         <v>{"id":401,"name":"split","unicode":"EA90","decimal":60048,"version":"1.1","style":"light","subset":"VSTS","group":"Arrow","keywords":["split","arrow"],"usage":"Used for splitting work item."}</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403">
         <f>'Bowtie v1.0 reorg'!A404</f>
         <v>402</v>
@@ -54342,7 +54308,7 @@
         <v>{"id":402,"name":"image-action-log","unicode":"EA91","decimal":60049,"version":"1.1","style":"light","subset":"VSTS","group":"Test","keywords":["image","picture","action","crosshair","target"],"usage":"Used for capturing user actions in the form of an image action log, in TCM Web Runner."}</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404">
         <f>'Bowtie v1.0 reorg'!A405</f>
         <v>403</v>
@@ -54392,7 +54358,7 @@
         <v>{"id":403,"name":"shield","unicode":"EA92","decimal":60050,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["shield"],"usage":"Used in version control view of branches."}</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405">
         <f>'Bowtie v1.0 reorg'!A406</f>
         <v>404</v>
@@ -54442,7 +54408,7 @@
         <v>{"id":404,"name":"shield-fill","unicode":"EA93","decimal":60051,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["shield"],"usage":"Used in version control view of branches."}</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406">
         <f>'Bowtie v1.0 reorg'!A407</f>
         <v>405</v>
@@ -54492,7 +54458,7 @@
         <v>{"id":405,"name":"tfvc-fork","unicode":"EA94","decimal":60052,"version":"1.1","style":"light","subset":"VSTS","group":"Version Control","keywords":["fork"],"usage":"Used in VC view for git fork. Name is tfvc just because the other VC icons are like that."}</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407">
         <f>'Bowtie v1.0 reorg'!A408</f>
         <v>406</v>
@@ -54542,7 +54508,7 @@
         <v>{"id":406,"name":"status-run-box","unicode":"EA95","decimal":60053,"version":"1.1","style":"bold","subset":"VSTS","group":"Status","keywords":["run","in","progress"],"usage":"Used in build view to indicate build is running in progress."}</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408">
         <f>'Bowtie v1.0 reorg'!A409</f>
         <v>407</v>
@@ -54592,7 +54558,7 @@
         <v>{"id":407,"name":"arrow-import","unicode":"EA96","decimal":60054,"version":"1.1","style":"light","subset":"VSTS","group":"Arrow","keywords":["arrow","import"],"usage":"Import"}</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409">
         <f>'Bowtie v1.0 reorg'!A410</f>
         <v>408</v>
@@ -54642,7 +54608,7 @@
         <v>{"id":408,"name":"new-team-project","unicode":"EA97","decimal":60055,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["new","add","project","folder","plus","chevron"],"usage":"Add new team project."}</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410">
         <f>'Bowtie v1.0 reorg'!A411</f>
         <v>409</v>
@@ -54692,7 +54658,7 @@
         <v>{"id":409,"name":"package-feed-mix","unicode":"EA98","decimal":60056,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","mix","box","square"],"usage":"Used in Package hub treeview to represent aggregated package feed that includes both remote and local feeds."}</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411">
         <f>'Bowtie v1.0 reorg'!A412</f>
         <v>410</v>
@@ -54742,7 +54708,7 @@
         <v>{"id":410,"name":"package-feed-remote","unicode":"EA99","decimal":60057,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","remote","signal","reference","wave","virtual","box","square"],"usage":"Used in Package hub treeview to represent package feed is a reference to remote repo."}</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412">
         <f>'Bowtie v1.0 reorg'!A413</f>
         <v>411</v>
@@ -54792,7 +54758,7 @@
         <v>{"id":411,"name":"package-feed-local","unicode":"EA9A","decimal":60058,"version":"1.1","style":"light","subset":"VSTS","group":"Package","keywords":["package","feed","local","box","square"],"usage":"Used in Package hub treeview to represent package feed is a local folder."}</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413">
         <f>'Bowtie v1.0 reorg'!A414</f>
         <v>412</v>
@@ -54842,7 +54808,7 @@
         <v>{"id":412,"name":"work-item-bar-outline","unicode":"EA9B","decimal":60059,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["work","item","bar"],"usage":"Used in Work hub backlog tree view to represent work items."}</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414">
         <f>'Bowtie v1.0 reorg'!A415</f>
         <v>413</v>
@@ -54892,7 +54858,7 @@
         <v>{"id":413,"name":"sort-asc","unicode":"EA9C","decimal":60060,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["sort","alphabetically","ascending","arrow","down","letter"],"usage":"Used in ListView control sorting funcionality."}</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415">
         <f>'Bowtie v1.0 reorg'!A416</f>
         <v>414</v>
@@ -54942,7 +54908,7 @@
         <v>{"id":414,"name":"sort-desc","unicode":"EA9D","decimal":60061,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["sort","alphabetically","descending","arrow","down","letter"],"usage":"Used in ListView control sorting funcionality."}</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416">
         <f>'Bowtie v1.0 reorg'!A417</f>
         <v>415</v>
@@ -54992,7 +54958,7 @@
         <v>{"id":415,"name":"plug-disconnected","unicode":"EA9E","decimal":60062,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["plug","disconnected","unplug","offline"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417">
         <f>'Bowtie v1.0 reorg'!A418</f>
         <v>416</v>
@@ -55042,7 +55008,7 @@
         <v>{"id":416,"name":"plug-connected","unicode":"EA9F","decimal":60063,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["plug","connected","plugged","online"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418">
         <f>'Bowtie v1.0 reorg'!A419</f>
         <v>417</v>
@@ -55092,7 +55058,7 @@
         <v>{"id":417,"name":"plug-disconnected-fill","unicode":"EAA0","decimal":60064,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","disconnected","unplug","offline"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419">
         <f>'Bowtie v1.0 reorg'!A420</f>
         <v>418</v>
@@ -55142,7 +55108,7 @@
         <v>{"id":418,"name":"plug-connected-fill","unicode":"EAA1","decimal":60065,"version":"1.1","style":"bold","subset":"VSTS","group":"Common","keywords":["plug","connected","plugged","online"],"usage":"Indicate connection status."}</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420">
         <f>'Bowtie v1.0 reorg'!A421</f>
         <v>419</v>
@@ -55192,7 +55158,7 @@
         <v>{"id":419,"name":"sync-user","unicode":"EAA2","decimal":60066,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["sync","update","user"],"usage":"Used in Backlog capacity editor for adding missing team members."}</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421">
         <f>'Bowtie v1.0 reorg'!A422</f>
         <v>420</v>
@@ -55242,7 +55208,7 @@
         <v>{"id":420,"name":"clear-filter","unicode":"EAA3","decimal":60067,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["clear","remove","delete","cancel","filter","funnel"],"usage":"Used in Code hub to clear applied filters."}</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422">
         <f>'Bowtie v1.0 reorg'!A423</f>
         <v>421</v>
@@ -55292,7 +55258,7 @@
         <v>{"id":421,"name":"watch-eye-off","unicode":"EAA4","decimal":60068,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["watch","eye","follow","off","slash"],"usage":"Used for turning off follow on an work item."}</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423">
         <f>'Bowtie v1.0 reorg'!A424</f>
         <v>422</v>
@@ -55342,7 +55308,7 @@
         <v>{"id":422,"name":"shopping-cart","unicode":"EAA5","decimal":60069,"version":"1.1","style":"light","subset":"VSCOM","group":"Common","keywords":["shop","cart","buy","purchase","store"],"usage":"Use this version when shopping cart needs two states: empty and filled"}</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424">
         <f>'Bowtie v1.0 reorg'!A425</f>
         <v>423</v>
@@ -55392,14 +55358,14 @@
         <v>{"id":423,"name":"shopping-cart-fill","unicode":"EAA6","decimal":60070,"version":"1.1","style":"light","subset":"VSCOM","group":"Common","keywords":["shop","cart","buy","purchase","store"],"usage":"Use this version when shopping cart needs two states: empty and filled"}</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425">
         <f>'Bowtie v1.0 reorg'!A426</f>
         <v>424</v>
       </c>
       <c r="B425" t="str">
         <f>'Bowtie v1.0 reorg'!E426</f>
-        <v>update-queue</v>
+        <v>control-panel</v>
       </c>
       <c r="C425" t="str">
         <f>'Bowtie v1.0 reorg'!C426</f>
@@ -55423,26 +55389,26 @@
       </c>
       <c r="H425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!J426),"",'Bowtie v1.0 reorg'!J426)</f>
-        <v>Code</v>
+        <v>Common</v>
       </c>
       <c r="I425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!H426),"",'Bowtie v1.0 reorg'!H426)</f>
-        <v>update pull request version control queue</v>
+        <v>control panel settings configuration slide adjust</v>
       </c>
       <c r="J425" t="str">
         <f>IF(ISBLANK('Bowtie v1.0 reorg'!K426),"",'Bowtie v1.0 reorg'!K426)</f>
-        <v>Used to represent multiple updates to a branch.</v>
+        <v>The common control panel.</v>
       </c>
       <c r="K425" t="str">
         <f t="shared" si="14"/>
-        <v>{'id':424,'name':'update-queue','unicode':'EAA7','decimal':60071,'version':'1.1','style':'light','subset':'VSTS','group':'Code','keywords':['update','pull','request','version','control','queue'],'usage':'Used to represent multiple updates to a branch.'}</v>
+        <v>{'id':424,'name':'control-panel','unicode':'EAA7','decimal':60071,'version':'1.1','style':'light','subset':'VSTS','group':'Common','keywords':['control','panel','settings','configuration','slide','adjust'],'usage':'The common control panel.'}</v>
       </c>
       <c r="L425" t="str">
         <f t="shared" si="15"/>
-        <v>{"id":424,"name":"update-queue","unicode":"EAA7","decimal":60071,"version":"1.1","style":"light","subset":"VSTS","group":"Code","keywords":["update","pull","request","version","control","queue"],"usage":"Used to represent multiple updates to a branch."}</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.45">
+        <v>{"id":424,"name":"control-panel","unicode":"EAA7","decimal":60071,"version":"1.1","style":"light","subset":"VSTS","group":"Common","keywords":["control","panel","settings","configuration","slide","adjust"],"usage":"The common control panel."}</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426">
         <f>'Bowtie v1.0 reorg'!A427</f>
         <v>425</v>
@@ -55492,7 +55458,7 @@
         <v>{"id":425,"name":"add-team","unicode":"EAA8","decimal":60072,"version":"1.1","style":"light","subset":"VSTS","group":"Work","keywords":["add","team","user","member"],"usage":"Used in capacity view to add missing team member."}</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427">
         <f>'Bowtie v1.0 reorg'!A428</f>
         <v>426</v>
@@ -55542,7 +55508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428">
         <f>'Bowtie v1.0 reorg'!A429</f>
         <v>427</v>
@@ -55592,7 +55558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429">
         <f>'Bowtie v1.0 reorg'!A430</f>
         <v>428</v>
@@ -55642,7 +55608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430">
         <f>'Bowtie v1.0 reorg'!A431</f>
         <v>429</v>
@@ -55692,7 +55658,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431">
         <f>'Bowtie v1.0 reorg'!A432</f>
         <v>430</v>
@@ -55742,7 +55708,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432">
         <f>'Bowtie v1.0 reorg'!A433</f>
         <v>431</v>
@@ -55792,7 +55758,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433">
         <f>'Bowtie v1.0 reorg'!A434</f>
         <v>432</v>
@@ -55842,7 +55808,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434">
         <f>'Bowtie v1.0 reorg'!A435</f>
         <v>433</v>
@@ -55892,7 +55858,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435">
         <f>'Bowtie v1.0 reorg'!A436</f>
         <v>434</v>
@@ -55942,7 +55908,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436">
         <f>'Bowtie v1.0 reorg'!A437</f>
         <v>435</v>
@@ -55992,7 +55958,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437">
         <f>'Bowtie v1.0 reorg'!A438</f>
         <v>436</v>
@@ -56042,7 +56008,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438">
         <f>'Bowtie v1.0 reorg'!A439</f>
         <v>437</v>
@@ -56092,7 +56058,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439">
         <f>'Bowtie v1.0 reorg'!A440</f>
         <v>438</v>
@@ -56142,7 +56108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440">
         <f>'Bowtie v1.0 reorg'!A441</f>
         <v>439</v>
@@ -56192,7 +56158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441">
         <f>'Bowtie v1.0 reorg'!A442</f>
         <v>440</v>
@@ -56242,7 +56208,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442">
         <f>'Bowtie v1.0 reorg'!A443</f>
         <v>441</v>
@@ -56292,7 +56258,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443">
         <f>'Bowtie v1.0 reorg'!A444</f>
         <v>442</v>
@@ -56342,7 +56308,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444">
         <f>'Bowtie v1.0 reorg'!A445</f>
         <v>443</v>
@@ -56392,7 +56358,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445">
         <f>'Bowtie v1.0 reorg'!A446</f>
         <v>444</v>
@@ -56442,7 +56408,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446">
         <f>'Bowtie v1.0 reorg'!A447</f>
         <v>445</v>
@@ -56492,7 +56458,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447">
         <f>'Bowtie v1.0 reorg'!A448</f>
         <v>446</v>
@@ -56542,7 +56508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448">
         <f>'Bowtie v1.0 reorg'!A449</f>
         <v>447</v>
@@ -56592,7 +56558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449">
         <f>'Bowtie v1.0 reorg'!A450</f>
         <v>448</v>
@@ -56642,7 +56608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450">
         <f>'Bowtie v1.0 reorg'!A451</f>
         <v>449</v>
@@ -56692,7 +56658,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451">
         <f>'Bowtie v1.0 reorg'!A452</f>
         <v>450</v>
@@ -56742,7 +56708,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452">
         <f>'Bowtie v1.0 reorg'!A453</f>
         <v>451</v>
@@ -56792,7 +56758,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453">
         <f>'Bowtie v1.0 reorg'!A454</f>
         <v>452</v>
@@ -56842,7 +56808,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454">
         <f>'Bowtie v1.0 reorg'!A455</f>
         <v>453</v>
@@ -56892,7 +56858,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455">
         <f>'Bowtie v1.0 reorg'!A456</f>
         <v>454</v>
@@ -56942,7 +56908,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456">
         <f>'Bowtie v1.0 reorg'!A457</f>
         <v>455</v>
@@ -56992,7 +56958,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457">
         <f>'Bowtie v1.0 reorg'!A458</f>
         <v>456</v>
@@ -57042,7 +57008,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458">
         <f>'Bowtie v1.0 reorg'!A459</f>
         <v>457</v>
@@ -57092,7 +57058,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459">
         <f>'Bowtie v1.0 reorg'!A460</f>
         <v>458</v>
@@ -57142,7 +57108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460">
         <f>'Bowtie v1.0 reorg'!A461</f>
         <v>459</v>
@@ -57192,7 +57158,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461">
         <f>'Bowtie v1.0 reorg'!A462</f>
         <v>460</v>
@@ -57242,7 +57208,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462">
         <f>'Bowtie v1.0 reorg'!A463</f>
         <v>461</v>
@@ -57292,7 +57258,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463">
         <f>'Bowtie v1.0 reorg'!A464</f>
         <v>462</v>
@@ -57342,7 +57308,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464">
         <f>'Bowtie v1.0 reorg'!A465</f>
         <v>463</v>
@@ -57392,7 +57358,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465">
         <f>'Bowtie v1.0 reorg'!A466</f>
         <v>464</v>
@@ -57442,7 +57408,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466">
         <f>'Bowtie v1.0 reorg'!A467</f>
         <v>465</v>
@@ -57492,7 +57458,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467">
         <f>'Bowtie v1.0 reorg'!A468</f>
         <v>466</v>
@@ -57542,7 +57508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468">
         <f>'Bowtie v1.0 reorg'!A469</f>
         <v>0</v>
@@ -57592,7 +57558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469">
         <f>'Bowtie v1.0 reorg'!A470</f>
         <v>0</v>
@@ -57642,7 +57608,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470">
         <f>'Bowtie v1.0 reorg'!A471</f>
         <v>0</v>
@@ -57692,34 +57658,34 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E480"/>
     </row>
   </sheetData>

--- a/source/bowtie.xlsx
+++ b/source/bowtie.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Bowtie v1.0 reorg" sheetId="2" r:id="rId1"/>
     <sheet name="json" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="880">
   <si>
     <t>name</t>
   </si>
@@ -2612,6 +2612,54 @@
   </si>
   <si>
     <t>The common control panel.</t>
+  </si>
+  <si>
+    <t>unpin</t>
+  </si>
+  <si>
+    <t>pin unpin remove</t>
+  </si>
+  <si>
+    <t>Used for unpin command. Do not use for not-pinned/pinned toggle.</t>
+  </si>
+  <si>
+    <t>unpin-fill</t>
+  </si>
+  <si>
+    <t>backlog</t>
+  </si>
+  <si>
+    <t>backlog board kanban card</t>
+  </si>
+  <si>
+    <t>backlog-view-list</t>
+  </si>
+  <si>
+    <t>view list</t>
+  </si>
+  <si>
+    <t>Common list view, often used together with grid view.</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>plan schedule timeline</t>
+  </si>
+  <si>
+    <t>query-list</t>
+  </si>
+  <si>
+    <t>query list</t>
+  </si>
+  <si>
+    <t>Used on Backlogs tab.</t>
+  </si>
+  <si>
+    <t>Used on Plans tab.</t>
+  </si>
+  <si>
+    <t>Used on Queries tab.</t>
   </si>
 </sst>
 </file>
@@ -18798,6 +18846,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -18833,6 +18898,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18987,28 +19069,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL532"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G433" sqref="G433"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="13.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2"/>
+    <col min="3" max="3" width="13.3984375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.265625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="3" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.86328125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.265625" style="2" customWidth="1"/>
     <col min="11" max="11" width="28" style="2" customWidth="1"/>
     <col min="12" max="38" width="9" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="2"/>
+    <col min="39" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>183</v>
       </c>
@@ -19067,7 +19149,7 @@
       <c r="AK1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -19130,7 +19212,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -19167,7 +19249,7 @@
         <v>uE900-arrow-up.svg</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -19204,7 +19286,7 @@
         <v>uE901-arrow-left.svg</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -19241,7 +19323,7 @@
         <v>uE902-arrow-down.svg</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -19278,7 +19360,7 @@
         <v>uE903-arrow-right.svg</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -19315,7 +19397,7 @@
         <v>uE904-arrow-up-left.svg</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -19378,7 +19460,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
     </row>
-    <row r="9" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -19415,7 +19497,7 @@
         <v>uE906-arrow-down-left.svg</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -19452,7 +19534,7 @@
         <v>uE907-arrow-down-right.svg</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -19486,7 +19568,7 @@
         <v>uE908-arrow-export.svg</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -19520,7 +19602,7 @@
         <v>uE909-arrow-open.svg</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -19581,7 +19663,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
     </row>
-    <row r="14" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -19619,7 +19701,7 @@
         <v>uE90B-sort-ascending.svg</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -19657,7 +19739,7 @@
         <v>uE90C-sort-descending.svg</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -19688,7 +19770,7 @@
         <v>uE90D-switch.svg</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -19722,7 +19804,7 @@
         <v>uE90E-synchronize.svg</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -19756,7 +19838,7 @@
         <v>uE90F-transfer-download.svg</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -19790,7 +19872,7 @@
         <v>uE910-transfer-upload.svg</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -19824,7 +19906,7 @@
         <v>uE911-azure-api-management.svg</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -19858,7 +19940,7 @@
         <v>uE912-azure-service-endpoint.svg</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -19895,7 +19977,7 @@
         <v>uE913-brand-android.svg</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -19932,7 +20014,7 @@
         <v>uE914-brand-facebook.svg</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -19969,7 +20051,7 @@
         <v>uE915-brand-git.svg</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -20006,7 +20088,7 @@
         <v>uE916-brand-github.svg</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -20043,7 +20125,7 @@
         <v>uE917-brand-maven.svg</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -20074,7 +20156,7 @@
         <v>uE918-brand-mtm.svg</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -20111,7 +20193,7 @@
         <v>uE919-brand-npm.svg</v>
       </c>
     </row>
-    <row r="29" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -20174,7 +20256,7 @@
       <c r="AK29"/>
       <c r="AL29"/>
     </row>
-    <row r="30" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -20211,7 +20293,7 @@
         <v>uE91B-brand-tfvc.svg</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -20248,7 +20330,7 @@
         <v>uE91C-brand-twitter.svg</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -20285,7 +20367,7 @@
         <v>uE91D-brand-visualstudio.svg</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -20322,7 +20404,7 @@
         <v>uE91E-brand-windows.svg</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -20360,7 +20442,7 @@
         <v>uE91F-git.svg</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -20398,7 +20480,7 @@
         <v>uE920-logo-visual-studio.svg</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -20457,7 +20539,7 @@
       <c r="AK36" s="10"/>
       <c r="AL36" s="10"/>
     </row>
-    <row r="37" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -20494,7 +20576,7 @@
         <v>uE922-chart-area.svg</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -20531,7 +20613,7 @@
         <v>uE923-chart-bar.svg</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -20568,7 +20650,7 @@
         <v>uE924-chart-column.svg</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -20605,7 +20687,7 @@
         <v>uE925-chart-pie.svg</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -20642,7 +20724,7 @@
         <v>uE926-chart-pivot.svg</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -20679,7 +20761,7 @@
         <v>uE927-chart-stacked-area.svg</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -20716,7 +20798,7 @@
         <v>uE928-chart-stacked-bar.svg</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -20753,7 +20835,7 @@
         <v>uE929-chart-stacked-line.svg</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -20791,7 +20873,7 @@
         <v>uE92A-build-queue-new.svg</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -20828,7 +20910,7 @@
         <v>uE92B-clone-to-desktop.svg</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -20862,7 +20944,7 @@
         <v>uE92C-install.svg</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -20896,7 +20978,7 @@
         <v>uE92D-comment.svg</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -20930,7 +21012,7 @@
         <v>uE92E-comment-add.svg</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -20964,7 +21046,7 @@
         <v>uE92F-comment-discussion.svg</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -20998,7 +21080,7 @@
         <v>uE930-comment-lines.svg</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -21032,7 +21114,7 @@
         <v>uE931-comment-next.svg</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -21066,7 +21148,7 @@
         <v>uE932-comment-outline.svg</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -21100,7 +21182,7 @@
         <v>uE933-comment-previous.svg</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -21134,7 +21216,7 @@
         <v>uE934-comment-urgent.svg</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -21171,7 +21253,7 @@
         <v>uE935-alert.svg</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -21209,7 +21291,7 @@
         <v>uE936-approve.svg</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -21247,7 +21329,7 @@
         <v>uE937-approve-disapprove.svg</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -21281,7 +21363,7 @@
         <v>uE938-blur.svg</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -21318,7 +21400,7 @@
         <v>uE939-build.svg</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -21355,7 +21437,7 @@
         <v>uE93A-build-queue.svg</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -21392,7 +21474,7 @@
         <v>uE93B-build-reason-checkin-shelveset.svg</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -21429,7 +21511,7 @@
         <v>uE93C-calendar.svg</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -21466,7 +21548,7 @@
         <v>uE93D-calendar-month.svg</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -21497,7 +21579,7 @@
         <v>uE93E-camera.svg</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -21534,7 +21616,7 @@
         <v>uE93F-clone.svg</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -21568,7 +21650,7 @@
         <v>uE940-cloud.svg</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -21602,7 +21684,7 @@
         <v>uE941-cloud-fill.svg</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -21636,7 +21718,7 @@
         <v>uE942-copy-to-clipboard.svg</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -21670,7 +21752,7 @@
         <v>uE943-dashboard.svg</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -21704,7 +21786,7 @@
         <v>uE944-dashboard-fill.svg</v>
       </c>
     </row>
-    <row r="72" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -21765,7 +21847,7 @@
       <c r="AK72"/>
       <c r="AL72"/>
     </row>
-    <row r="73" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -21799,7 +21881,7 @@
         <v>uE946-deploy.svg</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -21833,7 +21915,7 @@
         <v>uE947-redeploy.svg</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -21867,7 +21949,7 @@
         <v>uE948-details-pane.svg</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -21901,7 +21983,7 @@
         <v>uE949-edit.svg</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -21935,7 +22017,7 @@
         <v>uE94A-edit-outline.svg</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -21969,7 +22051,7 @@
         <v>uE94B-edit-copy.svg</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -22003,7 +22085,7 @@
         <v>uE94C-edit-cut.svg</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -22037,7 +22119,7 @@
         <v>uE94D-editor-list-bullet.svg</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -22071,7 +22153,7 @@
         <v>uE94E-edit-paste.svg</v>
       </c>
     </row>
-    <row r="82" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -22134,7 +22216,7 @@
       <c r="AK82"/>
       <c r="AL82"/>
     </row>
-    <row r="83" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -22172,7 +22254,7 @@
         <v>uE950-edit-remove.svg</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -22206,7 +22288,7 @@
         <v>uE951-edit-redo.svg</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -22240,7 +22322,7 @@
         <v>uE952-edit-undo.svg</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -22274,7 +22356,7 @@
         <v>uE953-edit-rename.svg</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -22311,7 +22393,7 @@
         <v>uE954-attach.svg</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -22345,7 +22427,7 @@
         <v>uE955-link.svg</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -22373,7 +22455,7 @@
         <v>uE956-server.svg</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -22401,7 +22483,7 @@
         <v>uE957-environment.svg</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -22429,7 +22511,7 @@
         <v>uE958-devices.svg</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -22463,7 +22545,7 @@
         <v>uE959-feedback-negative.svg</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -22497,7 +22579,7 @@
         <v>uE95A-feedback-positive.svg</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -22531,7 +22613,7 @@
         <v>uE95B-folder.svg</v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -22565,7 +22647,7 @@
         <v>uE95C-image.svg</v>
       </c>
     </row>
-    <row r="96" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -22626,7 +22708,7 @@
       <c r="AK96"/>
       <c r="AL96"/>
     </row>
-    <row r="97" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -22660,7 +22742,7 @@
         <v>uE95E-package-fill.svg</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -22694,7 +22776,7 @@
         <v>uE95F-heart.svg</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -22728,7 +22810,7 @@
         <v>uE960-heart-fill.svg</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -22762,7 +22844,7 @@
         <v>uE961-heartbeat.svg</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -22796,7 +22878,7 @@
         <v>uE962-heartbeat-fill.svg</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -22833,7 +22915,7 @@
         <v>uE963-mail-message.svg</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -22870,7 +22952,7 @@
         <v>uE964-mail-message-fill.svg</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -22904,7 +22986,7 @@
         <v>uE965-math-minus.svg</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -22938,7 +23020,7 @@
         <v>uE966-math-minus-light.svg</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -22972,7 +23054,7 @@
         <v>uE967-math-minus-box-light.svg</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -23006,7 +23088,7 @@
         <v>uE968-math-minus-box.svg</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -23040,7 +23122,7 @@
         <v>uE969-math-minus-circle-outline.svg</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -23074,7 +23156,7 @@
         <v>uE96A-math-minus-circle.svg</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -23108,7 +23190,7 @@
         <v>uE96B-math-multiply.svg</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -23142,7 +23224,7 @@
         <v>uE96C-math-multiply-light.svg</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -23176,7 +23258,7 @@
         <v>uE96D-math-multiply-box-light.svg</v>
       </c>
     </row>
-    <row r="113" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -23210,7 +23292,7 @@
         <v>uE96E-math-multiply-box.svg</v>
       </c>
     </row>
-    <row r="114" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -23244,7 +23326,7 @@
         <v>uE96F-math-multiply-box-outline.svg</v>
       </c>
     </row>
-    <row r="115" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:38" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -23305,7 +23387,7 @@
       <c r="AK115"/>
       <c r="AL115"/>
     </row>
-    <row r="116" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -23339,7 +23421,7 @@
         <v>uE971-math-plus-light.svg</v>
       </c>
     </row>
-    <row r="117" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -23373,7 +23455,7 @@
         <v>uE972-math-plus-box-light.svg</v>
       </c>
     </row>
-    <row r="118" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -23407,7 +23489,7 @@
         <v>uE973-math-plus-box.svg</v>
       </c>
     </row>
-    <row r="119" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -23441,7 +23523,7 @@
         <v>uE974-math-plus-circle-outline.svg</v>
       </c>
     </row>
-    <row r="120" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -23475,7 +23557,7 @@
         <v>uE975-math-plus-circle.svg</v>
       </c>
     </row>
-    <row r="121" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -23513,7 +23595,7 @@
         <v>uE976-math-plus-heavy.svg</v>
       </c>
     </row>
-    <row r="122" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -23550,7 +23632,7 @@
         <v>uE977-check.svg</v>
       </c>
     </row>
-    <row r="123" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -23587,7 +23669,7 @@
         <v>uE978-check-light.svg</v>
       </c>
     </row>
-    <row r="124" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -23621,7 +23703,7 @@
         <v>uE979-feed.svg</v>
       </c>
     </row>
-    <row r="125" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -23655,7 +23737,7 @@
         <v>uE97A-network-tower.svg</v>
       </c>
     </row>
-    <row r="126" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -23689,7 +23771,7 @@
         <v>uE97B-connect-to-feed.svg</v>
       </c>
     </row>
-    <row r="127" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -23723,7 +23805,7 @@
         <v>uE97C-plug.svg</v>
       </c>
     </row>
-    <row r="128" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:38" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -23757,7 +23839,7 @@
         <v>uE97D-plug-outline.svg</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -23791,7 +23873,7 @@
         <v>uE97E-policy.svg</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -23819,7 +23901,7 @@
         <v>uE97F-print.svg</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -23853,7 +23935,7 @@
         <v>uE980-recycle.svg</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -23881,7 +23963,7 @@
         <v>uE981-robot.svg</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -23915,7 +23997,7 @@
         <v>uE982-save.svg</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -23943,7 +24025,7 @@
         <v>uE983-save-all.svg</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -23971,7 +24053,7 @@
         <v>uE984-save-as.svg</v>
       </c>
     </row>
-    <row r="136" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>134</v>
       </c>
@@ -23999,7 +24081,7 @@
         <v>uE985-save-close.svg</v>
       </c>
     </row>
-    <row r="137" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>135</v>
       </c>
@@ -24033,7 +24115,7 @@
         <v>uE986-search.svg</v>
       </c>
     </row>
-    <row r="138" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>136</v>
       </c>
@@ -24067,7 +24149,7 @@
         <v>uE987-search-filter.svg</v>
       </c>
     </row>
-    <row r="139" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>137</v>
       </c>
@@ -24101,7 +24183,7 @@
         <v>uE988-search-filter-fill.svg</v>
       </c>
     </row>
-    <row r="140" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>138</v>
       </c>
@@ -24138,7 +24220,7 @@
         <v>uE989-security.svg</v>
       </c>
     </row>
-    <row r="141" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>139</v>
       </c>
@@ -24172,7 +24254,7 @@
         <v>uE98A-security-access.svg</v>
       </c>
     </row>
-    <row r="142" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>140</v>
       </c>
@@ -24206,7 +24288,7 @@
         <v>uE98B-security-lock.svg</v>
       </c>
     </row>
-    <row r="143" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>141</v>
       </c>
@@ -24240,7 +24322,7 @@
         <v>uE98C-security-lock-fill.svg</v>
       </c>
     </row>
-    <row r="144" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>142</v>
       </c>
@@ -24274,7 +24356,7 @@
         <v>uE98D-security-unlock.svg</v>
       </c>
     </row>
-    <row r="145" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>143</v>
       </c>
@@ -24308,7 +24390,7 @@
         <v>uE98E-security-unlock-fill.svg</v>
       </c>
     </row>
-    <row r="146" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>144</v>
       </c>
@@ -24342,7 +24424,7 @@
         <v>uE98F-settings-gear.svg</v>
       </c>
     </row>
-    <row r="147" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>145</v>
       </c>
@@ -24373,7 +24455,7 @@
         <v>uE990-settings-gear-outline.svg</v>
       </c>
     </row>
-    <row r="148" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>146</v>
       </c>
@@ -24407,7 +24489,7 @@
         <v>uE991-settings-wrench.svg</v>
       </c>
     </row>
-    <row r="149" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>147</v>
       </c>
@@ -24435,7 +24517,7 @@
         <v>uE992-trash.svg</v>
       </c>
     </row>
-    <row r="150" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>148</v>
       </c>
@@ -24469,7 +24551,7 @@
         <v>uE993-share.svg</v>
       </c>
     </row>
-    <row r="151" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>149</v>
       </c>
@@ -24503,7 +24585,7 @@
         <v>uE994-shop.svg</v>
       </c>
     </row>
-    <row r="152" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>150</v>
       </c>
@@ -24537,7 +24619,7 @@
         <v>uE995-shop-server.svg</v>
       </c>
     </row>
-    <row r="153" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>151</v>
       </c>
@@ -24565,7 +24647,7 @@
         <v>uE996-tag.svg</v>
       </c>
     </row>
-    <row r="154" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>152</v>
       </c>
@@ -24593,7 +24675,7 @@
         <v>uE997-tag-fill.svg</v>
       </c>
     </row>
-    <row r="155" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>153</v>
       </c>
@@ -24621,7 +24703,7 @@
         <v>uE998-user.svg</v>
       </c>
     </row>
-    <row r="156" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>154</v>
       </c>
@@ -24649,7 +24731,7 @@
         <v>uE999-users.svg</v>
       </c>
     </row>
-    <row r="157" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>155</v>
       </c>
@@ -24677,7 +24759,7 @@
         <v>uE99A-variable.svg</v>
       </c>
     </row>
-    <row r="158" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>156</v>
       </c>
@@ -24705,7 +24787,7 @@
         <v>uE99B-video.svg</v>
       </c>
     </row>
-    <row r="159" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>157</v>
       </c>
@@ -24733,7 +24815,7 @@
         <v>uE99C-view-grid.svg</v>
       </c>
     </row>
-    <row r="160" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>158</v>
       </c>
@@ -24761,7 +24843,7 @@
         <v>uE99D-watch-eye.svg</v>
       </c>
     </row>
-    <row r="161" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>159</v>
       </c>
@@ -24789,7 +24871,7 @@
         <v>uE99E-watch-eye-fill.svg</v>
       </c>
     </row>
-    <row r="162" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>160</v>
       </c>
@@ -24826,7 +24908,7 @@
         <v>uE99F-live-update-feed.svg</v>
       </c>
     </row>
-    <row r="163" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>161</v>
       </c>
@@ -24863,7 +24945,7 @@
         <v>uE9A0-checkbox.svg</v>
       </c>
     </row>
-    <row r="164" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>162</v>
       </c>
@@ -24900,7 +24982,7 @@
         <v>uE9A1-checkbox-empty.svg</v>
       </c>
     </row>
-    <row r="165" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>163</v>
       </c>
@@ -24937,7 +25019,7 @@
         <v>uE9A2-chevron-up.svg</v>
       </c>
     </row>
-    <row r="166" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>164</v>
       </c>
@@ -24974,7 +25056,7 @@
         <v>uE9A3-chevron-left.svg</v>
       </c>
     </row>
-    <row r="167" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>165</v>
       </c>
@@ -25011,7 +25093,7 @@
         <v>uE9A4-chevron-down.svg</v>
       </c>
     </row>
-    <row r="168" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>166</v>
       </c>
@@ -25048,7 +25130,7 @@
         <v>uE9A5-chevron-right.svg</v>
       </c>
     </row>
-    <row r="169" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>167</v>
       </c>
@@ -25085,7 +25167,7 @@
         <v>uE9A6-chevron-up-light.svg</v>
       </c>
     </row>
-    <row r="170" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>168</v>
       </c>
@@ -25122,7 +25204,7 @@
         <v>uE9A7-chevron-left-light.svg</v>
       </c>
     </row>
-    <row r="171" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>169</v>
       </c>
@@ -25159,7 +25241,7 @@
         <v>uE9A8-chevron-down-light.svg</v>
       </c>
     </row>
-    <row r="172" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>170</v>
       </c>
@@ -25196,7 +25278,7 @@
         <v>uE9A9-chevron-right-light.svg</v>
       </c>
     </row>
-    <row r="173" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>171</v>
       </c>
@@ -25224,7 +25306,7 @@
         <v>uE9AA-chevron-up-all.svg</v>
       </c>
     </row>
-    <row r="174" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>172</v>
       </c>
@@ -25252,7 +25334,7 @@
         <v>uE9AB-chevron-left-all.svg</v>
       </c>
     </row>
-    <row r="175" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>173</v>
       </c>
@@ -25280,7 +25362,7 @@
         <v>uE9AC-chevron-down-all.svg</v>
       </c>
     </row>
-    <row r="176" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>174</v>
       </c>
@@ -25308,7 +25390,7 @@
         <v>uE9AD-chevron-right-all.svg</v>
       </c>
     </row>
-    <row r="177" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>175</v>
       </c>
@@ -25336,7 +25418,7 @@
         <v>uE9AE-chevron-up-end.svg</v>
       </c>
     </row>
-    <row r="178" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>176</v>
       </c>
@@ -25364,7 +25446,7 @@
         <v>uE9AF-chevron-left-end.svg</v>
       </c>
     </row>
-    <row r="179" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>177</v>
       </c>
@@ -25392,7 +25474,7 @@
         <v>uE9B0-chevron-down-end.svg</v>
       </c>
     </row>
-    <row r="180" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>178</v>
       </c>
@@ -25420,7 +25502,7 @@
         <v>uE9B1-chevron-right-end.svg</v>
       </c>
     </row>
-    <row r="181" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>179</v>
       </c>
@@ -25454,7 +25536,7 @@
         <v>uE9B2-fold-less.svg</v>
       </c>
     </row>
-    <row r="182" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>180</v>
       </c>
@@ -25488,7 +25570,7 @@
         <v>uE9B3-fold-more.svg</v>
       </c>
     </row>
-    <row r="183" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>181</v>
       </c>
@@ -25522,7 +25604,7 @@
         <v>uE9B4-ellipsis.svg</v>
       </c>
     </row>
-    <row r="184" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>182</v>
       </c>
@@ -25556,7 +25638,7 @@
         <v>uE9B5-ellipsis-vertical.svg</v>
       </c>
     </row>
-    <row r="185" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>183</v>
       </c>
@@ -25590,7 +25672,7 @@
         <v>uE9B6-favorite.svg</v>
       </c>
     </row>
-    <row r="186" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>184</v>
       </c>
@@ -25624,7 +25706,7 @@
         <v>uE9B7-favorite-outline.svg</v>
       </c>
     </row>
-    <row r="187" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>185</v>
       </c>
@@ -25658,7 +25740,7 @@
         <v>uE9B8-star-half.svg</v>
       </c>
     </row>
-    <row r="188" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>186</v>
       </c>
@@ -25692,7 +25774,7 @@
         <v>uE9B9-pin.svg</v>
       </c>
     </row>
-    <row r="189" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>187</v>
       </c>
@@ -25726,7 +25808,7 @@
         <v>uE9BA-pin-fill.svg</v>
       </c>
     </row>
-    <row r="190" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>188</v>
       </c>
@@ -25760,7 +25842,7 @@
         <v>uE9BB-pin-pinned.svg</v>
       </c>
     </row>
-    <row r="191" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>189</v>
       </c>
@@ -25794,7 +25876,7 @@
         <v>uE9BC-pin-pinned-fill.svg</v>
       </c>
     </row>
-    <row r="192" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>190</v>
       </c>
@@ -25828,7 +25910,7 @@
         <v>uE9BD-pin-unpin.svg</v>
       </c>
     </row>
-    <row r="193" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>191</v>
       </c>
@@ -25862,7 +25944,7 @@
         <v>uE9BE-pin-unpin-fill.svg</v>
       </c>
     </row>
-    <row r="194" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>192</v>
       </c>
@@ -25896,7 +25978,7 @@
         <v>uE9BF-radio-button.svg</v>
       </c>
     </row>
-    <row r="195" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>193</v>
       </c>
@@ -25930,7 +26012,7 @@
         <v>uE9C0-radio-button-empty.svg</v>
       </c>
     </row>
-    <row r="196" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>194</v>
       </c>
@@ -25958,7 +26040,7 @@
         <v>uE9C1-resize-grip.svg</v>
       </c>
     </row>
-    <row r="197" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>195</v>
       </c>
@@ -25992,7 +26074,7 @@
         <v>uE9C2-separator.svg</v>
       </c>
     </row>
-    <row r="198" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>196</v>
       </c>
@@ -26020,7 +26102,7 @@
         <v>uE9C3-toggle-collapse.svg</v>
       </c>
     </row>
-    <row r="199" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>197</v>
       </c>
@@ -26048,7 +26130,7 @@
         <v>uE9C4-toggle-expand.svg</v>
       </c>
     </row>
-    <row r="200" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>198</v>
       </c>
@@ -26076,7 +26158,7 @@
         <v>uE9C5-toggle-collapse-all.svg</v>
       </c>
     </row>
-    <row r="201" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>199</v>
       </c>
@@ -26104,7 +26186,7 @@
         <v>uE9C6-toggle-expand-all.svg</v>
       </c>
     </row>
-    <row r="202" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>200</v>
       </c>
@@ -26132,7 +26214,7 @@
         <v>uE9C7-triangle-up.svg</v>
       </c>
     </row>
-    <row r="203" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>201</v>
       </c>
@@ -26160,7 +26242,7 @@
         <v>uE9C8-triangle-left.svg</v>
       </c>
     </row>
-    <row r="204" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>202</v>
       </c>
@@ -26188,7 +26270,7 @@
         <v>uE9C9-triangle-down.svg</v>
       </c>
     </row>
-    <row r="205" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>203</v>
       </c>
@@ -26216,7 +26298,7 @@
         <v>uE9CA-triangle-right.svg</v>
       </c>
     </row>
-    <row r="206" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>204</v>
       </c>
@@ -26244,7 +26326,7 @@
         <v>uE9CB-toggle-tree-expanded.svg</v>
       </c>
     </row>
-    <row r="207" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>205</v>
       </c>
@@ -26272,7 +26354,7 @@
         <v>uE9CC-toggle-tree-expanded-outline.svg</v>
       </c>
     </row>
-    <row r="208" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>206</v>
       </c>
@@ -26300,7 +26382,7 @@
         <v>uE9CD-toggle-tree-collapsed.svg</v>
       </c>
     </row>
-    <row r="209" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>207</v>
       </c>
@@ -26328,7 +26410,7 @@
         <v>uE9CE-view-full-screen.svg</v>
       </c>
     </row>
-    <row r="210" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>208</v>
       </c>
@@ -26356,7 +26438,7 @@
         <v>uE9CF-view-full-screen-exit.svg</v>
       </c>
     </row>
-    <row r="211" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>209</v>
       </c>
@@ -26390,7 +26472,7 @@
         <v>uE9D0-navigate-external.svg</v>
       </c>
     </row>
-    <row r="212" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>210</v>
       </c>
@@ -26418,7 +26500,7 @@
         <v>uE9D1-work-item-bar.svg</v>
       </c>
     </row>
-    <row r="213" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>211</v>
       </c>
@@ -26446,7 +26528,7 @@
         <v>uE9D2-format-font.svg</v>
       </c>
     </row>
-    <row r="214" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>212</v>
       </c>
@@ -26480,7 +26562,7 @@
         <v>uE9D3-format-bold.svg</v>
       </c>
     </row>
-    <row r="215" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>213</v>
       </c>
@@ -26514,7 +26596,7 @@
         <v>uE9D4-format-italic.svg</v>
       </c>
     </row>
-    <row r="216" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>214</v>
       </c>
@@ -26548,7 +26630,7 @@
         <v>uE9D5-format-underline.svg</v>
       </c>
     </row>
-    <row r="217" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>215</v>
       </c>
@@ -26582,7 +26664,7 @@
         <v>uE9D6-format-font-color.svg</v>
       </c>
     </row>
-    <row r="218" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>216</v>
       </c>
@@ -26616,7 +26698,7 @@
         <v>uE9D7-format-font-size.svg</v>
       </c>
     </row>
-    <row r="219" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>217</v>
       </c>
@@ -26650,7 +26732,7 @@
         <v>uE9D8-format-clear.svg</v>
       </c>
     </row>
-    <row r="220" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>218</v>
       </c>
@@ -26684,7 +26766,7 @@
         <v>uE9D9-format-indent-decrease.svg</v>
       </c>
     </row>
-    <row r="221" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>219</v>
       </c>
@@ -26718,7 +26800,7 @@
         <v>uE9DA-format-indent-increase.svg</v>
       </c>
     </row>
-    <row r="222" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>220</v>
       </c>
@@ -26752,7 +26834,7 @@
         <v>uE9DB-format-list-ordered.svg</v>
       </c>
     </row>
-    <row r="223" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>221</v>
       </c>
@@ -26786,7 +26868,7 @@
         <v>uE9DC-format-list-unordered.svg</v>
       </c>
     </row>
-    <row r="224" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>222</v>
       </c>
@@ -26820,7 +26902,7 @@
         <v>uE9DD-file.svg</v>
       </c>
     </row>
-    <row r="225" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>223</v>
       </c>
@@ -26848,7 +26930,7 @@
         <v>uE9DE-file-bug.svg</v>
       </c>
     </row>
-    <row r="226" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>224</v>
       </c>
@@ -26882,7 +26964,7 @@
         <v>uE9DF-file-code.svg</v>
       </c>
     </row>
-    <row r="227" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>225</v>
       </c>
@@ -26916,7 +26998,7 @@
         <v>uE9E0-file-comment.svg</v>
       </c>
     </row>
-    <row r="228" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>226</v>
       </c>
@@ -26950,7 +27032,7 @@
         <v>uE9E1-file-content.svg</v>
       </c>
     </row>
-    <row r="229" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>227</v>
       </c>
@@ -26984,7 +27066,7 @@
         <v>uE9E2-file-image.svg</v>
       </c>
     </row>
-    <row r="230" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>228</v>
       </c>
@@ -27018,7 +27100,7 @@
         <v>uE9E3-file-preview.svg</v>
       </c>
     </row>
-    <row r="231" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>229</v>
       </c>
@@ -27052,7 +27134,7 @@
         <v>uE9E4-file-symlink.svg</v>
       </c>
     </row>
-    <row r="232" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>230</v>
       </c>
@@ -27089,7 +27171,7 @@
         <v>uE9E5-media-play.svg</v>
       </c>
     </row>
-    <row r="233" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>231</v>
       </c>
@@ -27126,7 +27208,7 @@
         <v>uE9E6-media-play-fill.svg</v>
       </c>
     </row>
-    <row r="234" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>232</v>
       </c>
@@ -27154,7 +27236,7 @@
         <v>uE9E7-play.svg</v>
       </c>
     </row>
-    <row r="235" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>233</v>
       </c>
@@ -27182,7 +27264,7 @@
         <v>uE9E8-play-fill.svg</v>
       </c>
     </row>
-    <row r="236" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>234</v>
       </c>
@@ -27210,7 +27292,7 @@
         <v>uE9E9-pause.svg</v>
       </c>
     </row>
-    <row r="237" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>235</v>
       </c>
@@ -27238,7 +27320,7 @@
         <v>uE9EA-pause-fill.svg</v>
       </c>
     </row>
-    <row r="238" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>236</v>
       </c>
@@ -27266,7 +27348,7 @@
         <v>uE9EB-play-resume.svg</v>
       </c>
     </row>
-    <row r="239" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>237</v>
       </c>
@@ -27294,7 +27376,7 @@
         <v>uE9EC-play-resume-fill.svg</v>
       </c>
     </row>
-    <row r="240" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>238</v>
       </c>
@@ -27322,7 +27404,7 @@
         <v>uE9ED-stop.svg</v>
       </c>
     </row>
-    <row r="241" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>239</v>
       </c>
@@ -27350,7 +27432,7 @@
         <v>uE9EE-stop-fill.svg</v>
       </c>
     </row>
-    <row r="242" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>240</v>
       </c>
@@ -27378,7 +27460,7 @@
         <v>uE9EF-fast-backward.svg</v>
       </c>
     </row>
-    <row r="243" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>241</v>
       </c>
@@ -27406,7 +27488,7 @@
         <v>uE9F0-fast-backward-fill.svg</v>
       </c>
     </row>
-    <row r="244" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>242</v>
       </c>
@@ -27434,7 +27516,7 @@
         <v>uE9F1-fast-forward.svg</v>
       </c>
     </row>
-    <row r="245" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>243</v>
       </c>
@@ -27462,7 +27544,7 @@
         <v>uE9F2-fast-forward-fill.svg</v>
       </c>
     </row>
-    <row r="246" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>244</v>
       </c>
@@ -27490,7 +27572,7 @@
         <v>uE9F3-previous-frame.svg</v>
       </c>
     </row>
-    <row r="247" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>245</v>
       </c>
@@ -27518,7 +27600,7 @@
         <v>uE9F4-previous-frame-fill.svg</v>
       </c>
     </row>
-    <row r="248" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>246</v>
       </c>
@@ -27546,7 +27628,7 @@
         <v>uE9F5-next-frame.svg</v>
       </c>
     </row>
-    <row r="249" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>247</v>
       </c>
@@ -27574,7 +27656,7 @@
         <v>uE9F6-next-frame-fill.svg</v>
       </c>
     </row>
-    <row r="250" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>248</v>
       </c>
@@ -27602,7 +27684,7 @@
         <v>uE9F7-record.svg</v>
       </c>
     </row>
-    <row r="251" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>249</v>
       </c>
@@ -27630,7 +27712,7 @@
         <v>uE9F8-record-fill.svg</v>
       </c>
     </row>
-    <row r="252" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>250</v>
       </c>
@@ -27664,7 +27746,7 @@
         <v>uE9F9-menu.svg</v>
       </c>
     </row>
-    <row r="253" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>251</v>
       </c>
@@ -27701,7 +27783,7 @@
         <v>uE9FA-navigate-close.svg</v>
       </c>
     </row>
-    <row r="254" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>252</v>
       </c>
@@ -27735,7 +27817,7 @@
         <v>uE9FB-navigate-back-circle.svg</v>
       </c>
     </row>
-    <row r="255" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>253</v>
       </c>
@@ -27769,7 +27851,7 @@
         <v>uE9FC-navigate-back-disc.svg</v>
       </c>
     </row>
-    <row r="256" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>254</v>
       </c>
@@ -27803,7 +27885,7 @@
         <v>uE9FD-navigate-forward-circle.svg</v>
       </c>
     </row>
-    <row r="257" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>255</v>
       </c>
@@ -27837,7 +27919,7 @@
         <v>uE9FE-navigate-forward-disc.svg</v>
       </c>
     </row>
-    <row r="258" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>256</v>
       </c>
@@ -27871,7 +27953,7 @@
         <v>uE9FF-navigate-history.svg</v>
       </c>
     </row>
-    <row r="259" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>257</v>
       </c>
@@ -27905,7 +27987,7 @@
         <v>uEA00-navigate-refresh.svg</v>
       </c>
     </row>
-    <row r="260" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>258</v>
       </c>
@@ -27942,7 +28024,7 @@
         <v>uEA01-navigate-reload.svg</v>
       </c>
     </row>
-    <row r="261" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>259</v>
       </c>
@@ -27976,7 +28058,7 @@
         <v>uEA02-status-error.svg</v>
       </c>
     </row>
-    <row r="262" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>260</v>
       </c>
@@ -28010,7 +28092,7 @@
         <v>uEA03-status-error-outline.svg</v>
       </c>
     </row>
-    <row r="263" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>261</v>
       </c>
@@ -28044,7 +28126,7 @@
         <v>uEA04-status-failure.svg</v>
       </c>
     </row>
-    <row r="264" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>262</v>
       </c>
@@ -28078,7 +28160,7 @@
         <v>uEA05-status-failure-outline.svg</v>
       </c>
     </row>
-    <row r="265" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>263</v>
       </c>
@@ -28109,7 +28191,7 @@
         <v>uEA06-status-help.svg</v>
       </c>
     </row>
-    <row r="266" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>264</v>
       </c>
@@ -28140,7 +28222,7 @@
         <v>uEA07-status-help-outline.svg</v>
       </c>
     </row>
-    <row r="267" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>265</v>
       </c>
@@ -28171,7 +28253,7 @@
         <v>uEA08-status-info.svg</v>
       </c>
     </row>
-    <row r="268" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>266</v>
       </c>
@@ -28202,7 +28284,7 @@
         <v>uEA09-status-info-outline.svg</v>
       </c>
     </row>
-    <row r="269" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>267</v>
       </c>
@@ -28230,7 +28312,7 @@
         <v>uEA0A-status-no.svg</v>
       </c>
     </row>
-    <row r="270" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>268</v>
       </c>
@@ -28258,7 +28340,7 @@
         <v>uEA0B-status-no-fill.svg</v>
       </c>
     </row>
-    <row r="271" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>269</v>
       </c>
@@ -28286,7 +28368,7 @@
         <v>uEA0C-status-pause.svg</v>
       </c>
     </row>
-    <row r="272" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>270</v>
       </c>
@@ -28314,7 +28396,7 @@
         <v>uEA0D-status-pause-outline.svg</v>
       </c>
     </row>
-    <row r="273" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>271</v>
       </c>
@@ -28342,7 +28424,7 @@
         <v>uEA0E-status-run.svg</v>
       </c>
     </row>
-    <row r="274" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>272</v>
       </c>
@@ -28370,7 +28452,7 @@
         <v>uEA0F-status-run-outline.svg</v>
       </c>
     </row>
-    <row r="275" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>273</v>
       </c>
@@ -28398,7 +28480,7 @@
         <v>uEA10-status-stop.svg</v>
       </c>
     </row>
-    <row r="276" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>274</v>
       </c>
@@ -28426,7 +28508,7 @@
         <v>uEA11-status-stop-outline.svg</v>
       </c>
     </row>
-    <row r="277" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>275</v>
       </c>
@@ -28454,7 +28536,7 @@
         <v>uEA12-status-success.svg</v>
       </c>
     </row>
-    <row r="278" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>276</v>
       </c>
@@ -28482,7 +28564,7 @@
         <v>uEA13-status-success-outline.svg</v>
       </c>
     </row>
-    <row r="279" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>277</v>
       </c>
@@ -28510,7 +28592,7 @@
         <v>uEA14-status-waiting.svg</v>
       </c>
     </row>
-    <row r="280" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>278</v>
       </c>
@@ -28538,7 +28620,7 @@
         <v>uEA15-status-waiting-fill.svg</v>
       </c>
     </row>
-    <row r="281" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>279</v>
       </c>
@@ -28566,7 +28648,7 @@
         <v>uEA16-status-warning.svg</v>
       </c>
     </row>
-    <row r="282" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>280</v>
       </c>
@@ -28594,7 +28676,7 @@
         <v>uEA17-status-warning-outline.svg</v>
       </c>
     </row>
-    <row r="283" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>281</v>
       </c>
@@ -28622,7 +28704,7 @@
         <v>uEA18-status-success-box.svg</v>
       </c>
     </row>
-    <row r="284" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>282</v>
       </c>
@@ -28650,7 +28732,7 @@
         <v>uEA19-test-fill.svg</v>
       </c>
     </row>
-    <row r="285" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>283</v>
       </c>
@@ -28678,7 +28760,7 @@
         <v>uEA1A-test.svg</v>
       </c>
     </row>
-    <row r="286" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>284</v>
       </c>
@@ -28706,7 +28788,7 @@
         <v>uEA1B-test-auto-fill.svg</v>
       </c>
     </row>
-    <row r="287" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>285</v>
       </c>
@@ -28734,7 +28816,7 @@
         <v>uEA1C-test-auto.svg</v>
       </c>
     </row>
-    <row r="288" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>286</v>
       </c>
@@ -28762,7 +28844,7 @@
         <v>uEA1D-test-user-fill.svg</v>
       </c>
     </row>
-    <row r="289" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>287</v>
       </c>
@@ -28790,7 +28872,7 @@
         <v>uEA1E-test-user.svg</v>
       </c>
     </row>
-    <row r="290" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>288</v>
       </c>
@@ -28818,7 +28900,7 @@
         <v>uEA1F-test-explore-fill.svg</v>
       </c>
     </row>
-    <row r="291" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>289</v>
       </c>
@@ -28846,7 +28928,7 @@
         <v>uEA20-trigger.svg</v>
       </c>
     </row>
-    <row r="292" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>290</v>
       </c>
@@ -28874,7 +28956,7 @@
         <v>uEA21-trigger-auto.svg</v>
       </c>
     </row>
-    <row r="293" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>291</v>
       </c>
@@ -28902,7 +28984,7 @@
         <v>uEA22-trigger-user.svg</v>
       </c>
     </row>
-    <row r="294" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>292</v>
       </c>
@@ -28930,7 +29012,7 @@
         <v>uEA23-folder-plan.svg</v>
       </c>
     </row>
-    <row r="295" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>293</v>
       </c>
@@ -28958,7 +29040,7 @@
         <v>uEA24-folder-query.svg</v>
       </c>
     </row>
-    <row r="296" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>294</v>
       </c>
@@ -28986,7 +29068,7 @@
         <v>uEA25-log.svg</v>
       </c>
     </row>
-    <row r="297" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>295</v>
       </c>
@@ -29014,7 +29096,7 @@
         <v>uEA26-step.svg</v>
       </c>
     </row>
-    <row r="298" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>296</v>
       </c>
@@ -29042,7 +29124,7 @@
         <v>uEA27-step-shared.svg</v>
       </c>
     </row>
-    <row r="299" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>297</v>
       </c>
@@ -29070,7 +29152,7 @@
         <v>uEA28-server-remote.svg</v>
       </c>
     </row>
-    <row r="300" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>298</v>
       </c>
@@ -29104,7 +29186,7 @@
         <v>uEA29-diff-image.svg</v>
       </c>
     </row>
-    <row r="301" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>299</v>
       </c>
@@ -29138,7 +29220,7 @@
         <v>uEA2A-diff-image-overlay.svg</v>
       </c>
     </row>
-    <row r="302" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>300</v>
       </c>
@@ -29172,7 +29254,7 @@
         <v>uEA2B-diff-image-pixel.svg</v>
       </c>
     </row>
-    <row r="303" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>301</v>
       </c>
@@ -29206,7 +29288,7 @@
         <v>uEA2C-diff-inline.svg</v>
       </c>
     </row>
-    <row r="304" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>302</v>
       </c>
@@ -29240,7 +29322,7 @@
         <v>uEA2D-diff-side-by-side.svg</v>
       </c>
     </row>
-    <row r="305" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>303</v>
       </c>
@@ -29274,7 +29356,7 @@
         <v>uEA2E-repo.svg</v>
       </c>
     </row>
-    <row r="306" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>304</v>
       </c>
@@ -29308,7 +29390,7 @@
         <v>uEA2F-repo-fill.svg</v>
       </c>
     </row>
-    <row r="307" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>305</v>
       </c>
@@ -29342,7 +29424,7 @@
         <v>uEA30-repo-git.svg</v>
       </c>
     </row>
-    <row r="308" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>306</v>
       </c>
@@ -29370,7 +29452,7 @@
         <v>uEA31-tfvc-change-list.svg</v>
       </c>
     </row>
-    <row r="309" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>307</v>
       </c>
@@ -29404,7 +29486,7 @@
         <v>uEA32-repo-submodule.svg</v>
       </c>
     </row>
-    <row r="310" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>308</v>
       </c>
@@ -29432,7 +29514,7 @@
         <v>uEA33-tfvc-folder.svg</v>
       </c>
     </row>
-    <row r="311" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>309</v>
       </c>
@@ -29466,7 +29548,7 @@
         <v>uEA34-repo-tfvc.svg</v>
       </c>
     </row>
-    <row r="312" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>310</v>
       </c>
@@ -29494,7 +29576,7 @@
         <v>uEA35-tfvc-branch.svg</v>
       </c>
     </row>
-    <row r="313" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>311</v>
       </c>
@@ -29522,7 +29604,7 @@
         <v>uEA36-tfvc-branch-locked.svg</v>
       </c>
     </row>
-    <row r="314" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>312</v>
       </c>
@@ -29550,7 +29632,7 @@
         <v>uEA37-tfvc-commit.svg</v>
       </c>
     </row>
-    <row r="315" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>313</v>
       </c>
@@ -29578,7 +29660,7 @@
         <v>uEA38-tfvc-compare.svg</v>
       </c>
     </row>
-    <row r="316" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>314</v>
       </c>
@@ -29606,7 +29688,7 @@
         <v>uEA39-tfvc-merge.svg</v>
       </c>
     </row>
-    <row r="317" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>315</v>
       </c>
@@ -29634,7 +29716,7 @@
         <v>uEA3A-tfvc-pull-request.svg</v>
       </c>
     </row>
-    <row r="318" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>316</v>
       </c>
@@ -29662,7 +29744,7 @@
         <v>uEA3B-tfvc-shelveset.svg</v>
       </c>
     </row>
-    <row r="319" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>317</v>
       </c>
@@ -29690,7 +29772,7 @@
         <v>uEA3C-tfvc-raw-source.svg</v>
       </c>
     </row>
-    <row r="320" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>318</v>
       </c>
@@ -29718,7 +29800,7 @@
         <v>uEA3D-group-rows.svg</v>
       </c>
     </row>
-    <row r="321" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>319</v>
       </c>
@@ -29752,7 +29834,7 @@
         <v>uEA3E-recycle-bin-restore.svg</v>
       </c>
     </row>
-    <row r="322" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>320</v>
       </c>
@@ -29780,7 +29862,7 @@
         <v>uEA3F-view-list.svg</v>
       </c>
     </row>
-    <row r="323" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>321</v>
       </c>
@@ -29808,7 +29890,7 @@
         <v>uEA40-view-list-group.svg</v>
       </c>
     </row>
-    <row r="324" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>322</v>
       </c>
@@ -29836,7 +29918,7 @@
         <v>uEA41-view-list-tree.svg</v>
       </c>
     </row>
-    <row r="325" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>323</v>
       </c>
@@ -29864,7 +29946,7 @@
         <v>uEA42-work-item.svg</v>
       </c>
     </row>
-    <row r="326" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>324</v>
       </c>
@@ -29892,7 +29974,7 @@
         <v>uEA43-work-item-bug.svg</v>
       </c>
     </row>
-    <row r="327" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>325</v>
       </c>
@@ -29920,7 +30002,7 @@
         <v>uEA44-work-item-move.svg</v>
       </c>
     </row>
-    <row r="328" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>326</v>
       </c>
@@ -29948,7 +30030,7 @@
         <v>uEA45-merge-duplicate.svg</v>
       </c>
     </row>
-    <row r="329" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>327</v>
       </c>
@@ -29976,7 +30058,7 @@
         <v>uEA46-storyboard.svg</v>
       </c>
     </row>
-    <row r="330" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>328</v>
       </c>
@@ -30013,7 +30095,7 @@
         <v>uEA47-auto-fill-template.svg</v>
       </c>
     </row>
-    <row r="331" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>329</v>
       </c>
@@ -30047,7 +30129,7 @@
         <v>uEA48-recycle-bin.svg</v>
       </c>
     </row>
-    <row r="332" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>330</v>
       </c>
@@ -30084,7 +30166,7 @@
         <v>uEA49-dot.svg</v>
       </c>
     </row>
-    <row r="333" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>331</v>
       </c>
@@ -30121,7 +30203,7 @@
         <v>uEA4A-square.svg</v>
       </c>
     </row>
-    <row r="334" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>332</v>
       </c>
@@ -30158,7 +30240,7 @@
         <v>uEA4B-row-child.svg</v>
       </c>
     </row>
-    <row r="335" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>333</v>
       </c>
@@ -30195,7 +30277,7 @@
         <v>uEA4C-log-remove.svg</v>
       </c>
     </row>
-    <row r="336" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>334</v>
       </c>
@@ -30232,7 +30314,7 @@
         <v>uEA4D-live-update-feed-off.svg</v>
       </c>
     </row>
-    <row r="337" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>335</v>
       </c>
@@ -30269,7 +30351,7 @@
         <v>uEA4E-corner-resize.svg</v>
       </c>
     </row>
-    <row r="338" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>336</v>
       </c>
@@ -30306,7 +30388,7 @@
         <v>uEA4F-link-remove.svg</v>
       </c>
     </row>
-    <row r="339" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>337</v>
       </c>
@@ -30343,7 +30425,7 @@
         <v>uEA50-spinner.svg</v>
       </c>
     </row>
-    <row r="340" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>338</v>
       </c>
@@ -30380,7 +30462,7 @@
         <v>uEA51-personalize.svg</v>
       </c>
     </row>
-    <row r="341" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>339</v>
       </c>
@@ -30417,7 +30499,7 @@
         <v>uEA52-parameter.svg</v>
       </c>
     </row>
-    <row r="342" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>340</v>
       </c>
@@ -30454,7 +30536,7 @@
         <v>uEA53-step-insert.svg</v>
       </c>
     </row>
-    <row r="343" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>341</v>
       </c>
@@ -30491,7 +30573,7 @@
         <v>uEA54-step-shared-add.svg</v>
       </c>
     </row>
-    <row r="344" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>342</v>
       </c>
@@ -30528,7 +30610,7 @@
         <v>uEA55-step-shared-insert.svg</v>
       </c>
     </row>
-    <row r="345" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>343</v>
       </c>
@@ -30565,7 +30647,7 @@
         <v>uEA56-process.svg</v>
       </c>
     </row>
-    <row r="346" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>344</v>
       </c>
@@ -30602,7 +30684,7 @@
         <v>uEA57-process-meta-task.svg</v>
       </c>
     </row>
-    <row r="347" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>345</v>
       </c>
@@ -30639,7 +30721,7 @@
         <v>uEA58-column-option.svg</v>
       </c>
     </row>
-    <row r="348" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>346</v>
       </c>
@@ -30676,7 +30758,7 @@
         <v>uEA59-globe.svg</v>
       </c>
     </row>
-    <row r="349" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>347</v>
       </c>
@@ -30713,7 +30795,7 @@
         <v>uEA5A-locale-language.svg</v>
       </c>
     </row>
-    <row r="350" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>348</v>
       </c>
@@ -30750,7 +30832,7 @@
         <v>uEA5B-locale-timezone.svg</v>
       </c>
     </row>
-    <row r="351" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>349</v>
       </c>
@@ -30787,7 +30869,7 @@
         <v>uEA5C-feedback-positive-outline.svg</v>
       </c>
     </row>
-    <row r="352" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>350</v>
       </c>
@@ -30824,7 +30906,7 @@
         <v>uEA5D-feedback-negative-outline.svg</v>
       </c>
     </row>
-    <row r="353" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>351</v>
       </c>
@@ -30861,7 +30943,7 @@
         <v>uEA5E-contact-card.svg</v>
       </c>
     </row>
-    <row r="354" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>352</v>
       </c>
@@ -30898,7 +30980,7 @@
         <v>uEA5F-triangle.svg</v>
       </c>
     </row>
-    <row r="355" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>353</v>
       </c>
@@ -30935,7 +31017,7 @@
         <v>uEA60-brand-vsts.svg</v>
       </c>
     </row>
-    <row r="356" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>354</v>
       </c>
@@ -30972,7 +31054,7 @@
         <v>uEA61-status-success-sm.svg</v>
       </c>
     </row>
-    <row r="357" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>355</v>
       </c>
@@ -31009,7 +31091,7 @@
         <v>uEA62-status-warning-sm.svg</v>
       </c>
     </row>
-    <row r="358" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>356</v>
       </c>
@@ -31046,7 +31128,7 @@
         <v>uEA63-status-info-sm.svg</v>
       </c>
     </row>
-    <row r="359" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>357</v>
       </c>
@@ -31083,7 +31165,7 @@
         <v>uEA64-status-failure-sm.svg</v>
       </c>
     </row>
-    <row r="360" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>358</v>
       </c>
@@ -31120,7 +31202,7 @@
         <v>uEA65-status-error-sm.svg</v>
       </c>
     </row>
-    <row r="361" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>359</v>
       </c>
@@ -31157,7 +31239,7 @@
         <v>uEA66-status-run-sm.svg</v>
       </c>
     </row>
-    <row r="362" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>360</v>
       </c>
@@ -31194,7 +31276,7 @@
         <v>uEA67-status-help-sm.svg</v>
       </c>
     </row>
-    <row r="363" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>361</v>
       </c>
@@ -31231,7 +31313,7 @@
         <v>uEA68-status-stop-sm.svg</v>
       </c>
     </row>
-    <row r="364" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>362</v>
       </c>
@@ -31268,7 +31350,7 @@
         <v>uEA69-status-pause-sm.svg</v>
       </c>
     </row>
-    <row r="365" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>363</v>
       </c>
@@ -31305,7 +31387,7 @@
         <v>uEA6A-status-waiting-fill-sm.svg</v>
       </c>
     </row>
-    <row r="366" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>364</v>
       </c>
@@ -31342,7 +31424,7 @@
         <v>uEA6B-status-no-fill-sm.svg</v>
       </c>
     </row>
-    <row r="367" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>365</v>
       </c>
@@ -31379,7 +31461,7 @@
         <v>uEA6C-assessment-group.svg</v>
       </c>
     </row>
-    <row r="368" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>366</v>
       </c>
@@ -31416,7 +31498,7 @@
         <v>uEA6D-table.svg</v>
       </c>
     </row>
-    <row r="369" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>367</v>
       </c>
@@ -31453,7 +31535,7 @@
         <v>uEA6E-timeline-delivery.svg</v>
       </c>
     </row>
-    <row r="370" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>368</v>
       </c>
@@ -31490,7 +31572,7 @@
         <v>uEA6F-timeline-progress.svg</v>
       </c>
     </row>
-    <row r="371" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>369</v>
       </c>
@@ -31527,7 +31609,7 @@
         <v>uEA70-application-window.svg</v>
       </c>
     </row>
-    <row r="372" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>370</v>
       </c>
@@ -31564,7 +31646,7 @@
         <v>uEA71-application-window.svg</v>
       </c>
     </row>
-    <row r="373" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>371</v>
       </c>
@@ -31601,7 +31683,7 @@
         <v>uEA72-file-type-html.svg</v>
       </c>
     </row>
-    <row r="374" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>372</v>
       </c>
@@ -31638,7 +31720,7 @@
         <v>uEA73-file-type-js.svg</v>
       </c>
     </row>
-    <row r="375" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>373</v>
       </c>
@@ -31675,7 +31757,7 @@
         <v>uEA74-file-type-jsproj.svg</v>
       </c>
     </row>
-    <row r="376" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>374</v>
       </c>
@@ -31712,7 +31794,7 @@
         <v>uEA75-file-type-cs.svg</v>
       </c>
     </row>
-    <row r="377" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>375</v>
       </c>
@@ -31749,7 +31831,7 @@
         <v>uEA76-file-type-csproj.svg</v>
       </c>
     </row>
-    <row r="378" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>376</v>
       </c>
@@ -31786,7 +31868,7 @@
         <v>uEA77-file-type-vb.svg</v>
       </c>
     </row>
-    <row r="379" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>377</v>
       </c>
@@ -31823,7 +31905,7 @@
         <v>uEA78-file-type-vbproj.svg</v>
       </c>
     </row>
-    <row r="380" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>378</v>
       </c>
@@ -31860,7 +31942,7 @@
         <v>uEA79-file-type-cpp.svg</v>
       </c>
     </row>
-    <row r="381" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>379</v>
       </c>
@@ -31897,7 +31979,7 @@
         <v>uEA7A-file-type-vcxproj.svg</v>
       </c>
     </row>
-    <row r="382" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>380</v>
       </c>
@@ -31934,7 +32016,7 @@
         <v>uEA7B-file-type-fs.svg</v>
       </c>
     </row>
-    <row r="383" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>381</v>
       </c>
@@ -31971,7 +32053,7 @@
         <v>uEA7C-file-type-fsproj.svg</v>
       </c>
     </row>
-    <row r="384" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>382</v>
       </c>
@@ -32008,7 +32090,7 @@
         <v>uEA7D-file-type-python.svg</v>
       </c>
     </row>
-    <row r="385" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>383</v>
       </c>
@@ -32045,7 +32127,7 @@
         <v>uEA7E-file-type-pyproj.svg</v>
       </c>
     </row>
-    <row r="386" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>384</v>
       </c>
@@ -32082,7 +32164,7 @@
         <v>uEA7F-file-type-typescript.svg</v>
       </c>
     </row>
-    <row r="387" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>385</v>
       </c>
@@ -32119,7 +32201,7 @@
         <v>uEA80-file-type-coffeescript.svg</v>
       </c>
     </row>
-    <row r="388" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>386</v>
       </c>
@@ -32156,7 +32238,7 @@
         <v>uEA81-file-type-aspx.svg</v>
       </c>
     </row>
-    <row r="389" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>387</v>
       </c>
@@ -32193,7 +32275,7 @@
         <v>uEA82-file-type-css.svg</v>
       </c>
     </row>
-    <row r="390" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>388</v>
       </c>
@@ -32230,7 +32312,7 @@
         <v>uEA83-file-type-sass.svg</v>
       </c>
     </row>
-    <row r="391" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>389</v>
       </c>
@@ -32267,7 +32349,7 @@
         <v>uEA84-file-type-less.svg</v>
       </c>
     </row>
-    <row r="392" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>390</v>
       </c>
@@ -32304,7 +32386,7 @@
         <v>uEA85-file-type-json.svg</v>
       </c>
     </row>
-    <row r="393" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>391</v>
       </c>
@@ -32341,7 +32423,7 @@
         <v>uEA86-file-type-xml.svg</v>
       </c>
     </row>
-    <row r="394" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>392</v>
       </c>
@@ -32378,7 +32460,7 @@
         <v>uEA87-file-type-md.svg</v>
       </c>
     </row>
-    <row r="395" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>393</v>
       </c>
@@ -32415,7 +32497,7 @@
         <v>uEA88-file-type-powershell.svg</v>
       </c>
     </row>
-    <row r="396" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>394</v>
       </c>
@@ -32452,7 +32534,7 @@
         <v>uEA89-file-type-cmd.svg</v>
       </c>
     </row>
-    <row r="397" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>395</v>
       </c>
@@ -32489,7 +32571,7 @@
         <v>uEA8A-file-type-java.svg</v>
       </c>
     </row>
-    <row r="398" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>396</v>
       </c>
@@ -32526,7 +32608,7 @@
         <v>uEA8B-file-type-sql.svg</v>
       </c>
     </row>
-    <row r="399" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>397</v>
       </c>
@@ -32563,7 +32645,7 @@
         <v>uEA8C-file-stack.svg</v>
       </c>
     </row>
-    <row r="400" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>398</v>
       </c>
@@ -32600,7 +32682,7 @@
         <v>uEA8D-script.svg</v>
       </c>
     </row>
-    <row r="401" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>399</v>
       </c>
@@ -32637,7 +32719,7 @@
         <v>uEA8E-default-executable.svg</v>
       </c>
     </row>
-    <row r="402" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>400</v>
       </c>
@@ -32674,7 +32756,7 @@
         <v>uEA8F-file-type-template.svg</v>
       </c>
     </row>
-    <row r="403" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>401</v>
       </c>
@@ -32711,7 +32793,7 @@
         <v>uEA90-split.svg</v>
       </c>
     </row>
-    <row r="404" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>402</v>
       </c>
@@ -32748,7 +32830,7 @@
         <v>uEA91-image-action-log.svg</v>
       </c>
     </row>
-    <row r="405" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>403</v>
       </c>
@@ -32785,7 +32867,7 @@
         <v>uEA92-shield.svg</v>
       </c>
     </row>
-    <row r="406" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>404</v>
       </c>
@@ -32822,7 +32904,7 @@
         <v>uEA93-shield-fill.svg</v>
       </c>
     </row>
-    <row r="407" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>405</v>
       </c>
@@ -32859,7 +32941,7 @@
         <v>uEA94-tfvc-fork.svg</v>
       </c>
     </row>
-    <row r="408" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>406</v>
       </c>
@@ -32896,7 +32978,7 @@
         <v>uEA95-status-run-box.svg</v>
       </c>
     </row>
-    <row r="409" spans="1:12" customFormat